--- a/BM25.xlsx
+++ b/BM25.xlsx
@@ -1560,10 +1560,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>150.0799014279183</v>
+        <v>216.7275885235608</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1577,10 +1577,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>146.1429711275628</v>
+        <v>230.647936435807</v>
       </c>
       <c r="E3" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1594,10 +1594,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>173.3032281601754</v>
+        <v>237.9420401458017</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1611,10 +1611,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>111.9535033801295</v>
+        <v>149.8157250618672</v>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>7245</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1628,10 +1628,10 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>170.2240387012904</v>
+        <v>236.435770255842</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1645,10 +1645,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>161.2766919991685</v>
+        <v>234.3254298604105</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1662,7 +1662,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>211.6860717186619</v>
+        <v>300.3254205462567</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -1679,10 +1679,10 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>162.7211090396905</v>
+        <v>238.7456498435287</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1696,10 +1696,10 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>162.7211090396905</v>
+        <v>238.7456498435287</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1713,10 +1713,10 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>160.2625087951772</v>
+        <v>228.8586020782055</v>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1730,10 +1730,10 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>160.8982807284266</v>
+        <v>231.7808621525978</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1747,7 +1747,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>210.8038439973311</v>
+        <v>250.3347515267962</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -1764,10 +1764,10 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>136.8385198283799</v>
+        <v>220.0376074378016</v>
       </c>
       <c r="E14" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1781,10 +1781,10 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>162.373739827086</v>
+        <v>193.1051975926111</v>
       </c>
       <c r="E15" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1798,7 +1798,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>357.013085477485</v>
+        <v>424.7962887569305</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1815,10 +1815,10 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>147.8209235604272</v>
+        <v>223.4796250247619</v>
       </c>
       <c r="E17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1832,10 +1832,10 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>114.7697111355889</v>
+        <v>200.2033043440991</v>
       </c>
       <c r="E18" t="n">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1849,10 +1849,10 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>114.7697111355889</v>
+        <v>200.2033043440991</v>
       </c>
       <c r="E19" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1866,10 +1866,10 @@
         <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>62.59466539891073</v>
+        <v>137.4650499955136</v>
       </c>
       <c r="E20" t="n">
-        <v>1191</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1883,10 +1883,10 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>86.66189114529068</v>
+        <v>132.3542135808365</v>
       </c>
       <c r="E21" t="n">
-        <v>285</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1900,10 +1900,10 @@
         <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>49.9077774081495</v>
+        <v>131.7983995393184</v>
       </c>
       <c r="E22" t="n">
-        <v>2830</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1917,10 +1917,10 @@
         <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>108.4429456530042</v>
+        <v>183.3275578140824</v>
       </c>
       <c r="E23" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1934,10 +1934,10 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>79.37352571331607</v>
+        <v>153.2830545652558</v>
       </c>
       <c r="E24" t="n">
-        <v>450</v>
+        <v>352</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1951,10 +1951,10 @@
         <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>64.56254416206062</v>
+        <v>148.9586534019254</v>
       </c>
       <c r="E25" t="n">
-        <v>1050</v>
+        <v>516</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1968,10 +1968,10 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>97.8822819604156</v>
+        <v>158.3461138394263</v>
       </c>
       <c r="E26" t="n">
-        <v>132</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1985,10 +1985,10 @@
         <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>91.06880005281953</v>
+        <v>161.2499643218649</v>
       </c>
       <c r="E27" t="n">
-        <v>224</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2002,10 +2002,10 @@
         <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>77.48207438542451</v>
+        <v>166.51143568928</v>
       </c>
       <c r="E28" t="n">
-        <v>517</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2019,10 +2019,10 @@
         <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>72.05554739587718</v>
+        <v>145.7123954764939</v>
       </c>
       <c r="E29" t="n">
-        <v>687</v>
+        <v>671</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2036,10 +2036,10 @@
         <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>106.2686107075198</v>
+        <v>184.730833291298</v>
       </c>
       <c r="E30" t="n">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2053,10 +2053,10 @@
         <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>103.4519531150862</v>
+        <v>184.6335586690883</v>
       </c>
       <c r="E31" t="n">
-        <v>73</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2070,10 +2070,10 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>80.65247195298714</v>
+        <v>162.2519330522542</v>
       </c>
       <c r="E32" t="n">
-        <v>417</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2087,7 +2087,7 @@
         <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>126.1462118299397</v>
+        <v>194.8029037920268</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2104,10 +2104,10 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>92.59048612862669</v>
+        <v>173.963094958129</v>
       </c>
       <c r="E34" t="n">
-        <v>203</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2121,10 +2121,10 @@
         <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>94.63012626965444</v>
+        <v>188.8385784439814</v>
       </c>
       <c r="E35" t="n">
-        <v>168</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2138,10 +2138,10 @@
         <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>103.6101995212228</v>
+        <v>162.5493227558096</v>
       </c>
       <c r="E36" t="n">
-        <v>71</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2155,10 +2155,10 @@
         <v>11</v>
       </c>
       <c r="D37" t="n">
-        <v>58.54396167754427</v>
+        <v>114.1372899494181</v>
       </c>
       <c r="E37" t="n">
-        <v>1524</v>
+        <v>19715</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2172,7 +2172,7 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>124.4002712250062</v>
+        <v>193.6715855672409</v>
       </c>
       <c r="E38" t="n">
         <v>6</v>
@@ -2189,10 +2189,10 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>123.8249663126914</v>
+        <v>184.6185745282481</v>
       </c>
       <c r="E39" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2206,10 +2206,10 @@
         <v>11</v>
       </c>
       <c r="D40" t="n">
-        <v>100.3985292439231</v>
+        <v>171.0003523694913</v>
       </c>
       <c r="E40" t="n">
-        <v>112</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2223,10 +2223,10 @@
         <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>124.0755525707056</v>
+        <v>176.8754250783149</v>
       </c>
       <c r="E41" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2240,10 +2240,10 @@
         <v>11</v>
       </c>
       <c r="D42" t="n">
-        <v>83.07495411419131</v>
+        <v>168.8180998554239</v>
       </c>
       <c r="E42" t="n">
-        <v>356</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2257,10 +2257,10 @@
         <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>72.32565336887653</v>
+        <v>127.0869391128187</v>
       </c>
       <c r="E43" t="n">
-        <v>678</v>
+        <v>4564</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2274,10 +2274,10 @@
         <v>11</v>
       </c>
       <c r="D44" t="n">
-        <v>119.1820960107688</v>
+        <v>179.1281333892996</v>
       </c>
       <c r="E44" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2291,10 +2291,10 @@
         <v>11</v>
       </c>
       <c r="D45" t="n">
-        <v>102.3067666772765</v>
+        <v>159.0182965900918</v>
       </c>
       <c r="E45" t="n">
-        <v>87</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2308,10 +2308,10 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>105.2605555529924</v>
+        <v>161.5534223577241</v>
       </c>
       <c r="E46" t="n">
-        <v>62</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2325,10 +2325,10 @@
         <v>11</v>
       </c>
       <c r="D47" t="n">
-        <v>121.8145277853553</v>
+        <v>194.7900620556561</v>
       </c>
       <c r="E47" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2342,10 +2342,10 @@
         <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>80.29579160357086</v>
+        <v>137.2834429190806</v>
       </c>
       <c r="E48" t="n">
-        <v>427</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2359,10 +2359,10 @@
         <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>87.39592436510522</v>
+        <v>140.9523715947487</v>
       </c>
       <c r="E49" t="n">
-        <v>270</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2376,10 +2376,10 @@
         <v>11</v>
       </c>
       <c r="D50" t="n">
-        <v>81.61352000688569</v>
+        <v>117.1514015847512</v>
       </c>
       <c r="E50" t="n">
-        <v>396</v>
+        <v>14162</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2393,10 +2393,10 @@
         <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>124.1150943087194</v>
+        <v>179.8775499099421</v>
       </c>
       <c r="E51" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2410,10 +2410,10 @@
         <v>11</v>
       </c>
       <c r="D52" t="n">
-        <v>102.8375912203964</v>
+        <v>175.618270854583</v>
       </c>
       <c r="E52" t="n">
-        <v>79</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2427,10 +2427,10 @@
         <v>11</v>
       </c>
       <c r="D53" t="n">
-        <v>71.56752215080685</v>
+        <v>150.3105809981184</v>
       </c>
       <c r="E53" t="n">
-        <v>713</v>
+        <v>449</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2444,10 +2444,10 @@
         <v>11</v>
       </c>
       <c r="D54" t="n">
-        <v>132.9963698779354</v>
+        <v>196.2376483074576</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2461,10 +2461,10 @@
         <v>11</v>
       </c>
       <c r="D55" t="n">
-        <v>67.84749653450939</v>
+        <v>123.7356057594721</v>
       </c>
       <c r="E55" t="n">
-        <v>863</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2478,10 +2478,10 @@
         <v>11</v>
       </c>
       <c r="D56" t="n">
-        <v>101.5541553808793</v>
+        <v>161.7567228552167</v>
       </c>
       <c r="E56" t="n">
-        <v>93</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2495,10 +2495,10 @@
         <v>11</v>
       </c>
       <c r="D57" t="n">
-        <v>127.0593864266777</v>
+        <v>193.1962641762745</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2512,10 +2512,10 @@
         <v>11</v>
       </c>
       <c r="D58" t="n">
-        <v>102.3098523512758</v>
+        <v>178.9007207239992</v>
       </c>
       <c r="E58" t="n">
-        <v>86</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2529,10 +2529,10 @@
         <v>11</v>
       </c>
       <c r="D59" t="n">
-        <v>89.77520381834337</v>
+        <v>150.7284639726282</v>
       </c>
       <c r="E59" t="n">
-        <v>236</v>
+        <v>434</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2546,10 +2546,10 @@
         <v>11</v>
       </c>
       <c r="D60" t="n">
-        <v>120.5155621584992</v>
+        <v>196.148034974467</v>
       </c>
       <c r="E60" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2563,10 +2563,10 @@
         <v>11</v>
       </c>
       <c r="D61" t="n">
-        <v>102.2979715000311</v>
+        <v>170.1848262328717</v>
       </c>
       <c r="E61" t="n">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2580,10 +2580,10 @@
         <v>11</v>
       </c>
       <c r="D62" t="n">
-        <v>106.9560168010539</v>
+        <v>191.6896272721005</v>
       </c>
       <c r="E62" t="n">
-        <v>56</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2597,10 +2597,10 @@
         <v>11</v>
       </c>
       <c r="D63" t="n">
-        <v>116.83032496236</v>
+        <v>179.0342139840799</v>
       </c>
       <c r="E63" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2614,10 +2614,10 @@
         <v>11</v>
       </c>
       <c r="D64" t="n">
-        <v>113.0250359550167</v>
+        <v>179.5710529703091</v>
       </c>
       <c r="E64" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2631,10 +2631,10 @@
         <v>11</v>
       </c>
       <c r="D65" t="n">
-        <v>114.9919966947744</v>
+        <v>183.5153824383874</v>
       </c>
       <c r="E65" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2648,7 +2648,7 @@
         <v>11</v>
       </c>
       <c r="D66" t="n">
-        <v>121.406267097687</v>
+        <v>189.6353110693847</v>
       </c>
       <c r="E66" t="n">
         <v>11</v>
@@ -2665,10 +2665,10 @@
         <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>117.9454309449392</v>
+        <v>180.3207491389064</v>
       </c>
       <c r="E67" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2682,10 +2682,10 @@
         <v>11</v>
       </c>
       <c r="D68" t="n">
-        <v>62.53103403664071</v>
+        <v>122.2932937480097</v>
       </c>
       <c r="E68" t="n">
-        <v>1200</v>
+        <v>7802</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2699,10 +2699,10 @@
         <v>11</v>
       </c>
       <c r="D69" t="n">
-        <v>117.0211053543505</v>
+        <v>187.6104420160193</v>
       </c>
       <c r="E69" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2716,10 +2716,10 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>107.9528662089341</v>
+        <v>153.3061437450196</v>
       </c>
       <c r="E70" t="n">
-        <v>49</v>
+        <v>351</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2733,10 +2733,10 @@
         <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>119.7073079820732</v>
+        <v>170.5012731024681</v>
       </c>
       <c r="E71" t="n">
-        <v>13</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2750,10 +2750,10 @@
         <v>11</v>
       </c>
       <c r="D72" t="n">
-        <v>114.9615424243548</v>
+        <v>173.5486309122732</v>
       </c>
       <c r="E72" t="n">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2767,10 +2767,10 @@
         <v>11</v>
       </c>
       <c r="D73" t="n">
-        <v>116.3389764692495</v>
+        <v>198.9000640057478</v>
       </c>
       <c r="E73" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2784,10 +2784,10 @@
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>75.91134977422274</v>
+        <v>138.4030182377431</v>
       </c>
       <c r="E74" t="n">
-        <v>568</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2801,10 +2801,10 @@
         <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>40.88678987946884</v>
+        <v>106.9384590261792</v>
       </c>
       <c r="E75" t="n">
-        <v>6122</v>
+        <v>40088</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2818,10 +2818,10 @@
         <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>29.21427869229874</v>
+        <v>105.9735711055695</v>
       </c>
       <c r="E76" t="n">
-        <v>21354</v>
+        <v>43706</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2835,10 +2835,10 @@
         <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>228.6074909103392</v>
+        <v>371.1218928072727</v>
       </c>
       <c r="E77" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2852,10 +2852,10 @@
         <v>11</v>
       </c>
       <c r="D78" t="n">
-        <v>230.573833784953</v>
+        <v>355.9297025283806</v>
       </c>
       <c r="E78" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2869,10 +2869,10 @@
         <v>11</v>
       </c>
       <c r="D79" t="n">
-        <v>226.7466980315081</v>
+        <v>358.9873048959492</v>
       </c>
       <c r="E79" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2886,10 +2886,10 @@
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>165.6359142600509</v>
+        <v>284.9839129522018</v>
       </c>
       <c r="E80" t="n">
-        <v>527</v>
+        <v>577</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2903,10 +2903,10 @@
         <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>243.9770160155387</v>
+        <v>256.024961568304</v>
       </c>
       <c r="E81" t="n">
-        <v>10</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2920,10 +2920,10 @@
         <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>130.2960495193523</v>
+        <v>273.3625151955137</v>
       </c>
       <c r="E82" t="n">
-        <v>2095</v>
+        <v>885</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2937,10 +2937,10 @@
         <v>11</v>
       </c>
       <c r="D83" t="n">
-        <v>282.3551842824966</v>
+        <v>395.039643020346</v>
       </c>
       <c r="E83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2954,10 +2954,10 @@
         <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>195.7092025344832</v>
+        <v>297.5088445580892</v>
       </c>
       <c r="E84" t="n">
-        <v>123</v>
+        <v>347</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2971,10 +2971,10 @@
         <v>11</v>
       </c>
       <c r="D85" t="n">
-        <v>258.0185538270776</v>
+        <v>320.3726940764172</v>
       </c>
       <c r="E85" t="n">
-        <v>6</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2988,10 +2988,10 @@
         <v>11</v>
       </c>
       <c r="D86" t="n">
-        <v>309.8074119659387</v>
+        <v>368.952201272627</v>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3005,10 +3005,10 @@
         <v>11</v>
       </c>
       <c r="D87" t="n">
-        <v>238.866002443091</v>
+        <v>371.4927041806688</v>
       </c>
       <c r="E87" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3022,10 +3022,10 @@
         <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>186.6926526561901</v>
+        <v>204.3090368542159</v>
       </c>
       <c r="E88" t="n">
-        <v>190</v>
+        <v>9709</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3039,10 +3039,10 @@
         <v>11</v>
       </c>
       <c r="D89" t="n">
-        <v>317.3656475233385</v>
+        <v>368.653337472421</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3056,10 +3056,10 @@
         <v>11</v>
       </c>
       <c r="D90" t="n">
-        <v>223.1288127542799</v>
+        <v>290.9774932425243</v>
       </c>
       <c r="E90" t="n">
-        <v>30</v>
+        <v>449</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3073,10 +3073,10 @@
         <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>195.9056772670965</v>
+        <v>325.774975763804</v>
       </c>
       <c r="E91" t="n">
-        <v>121</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3090,10 +3090,10 @@
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>157.1986165648286</v>
+        <v>153.5533904339233</v>
       </c>
       <c r="E92" t="n">
-        <v>753</v>
+        <v>85869</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3107,10 +3107,10 @@
         <v>11</v>
       </c>
       <c r="D93" t="n">
-        <v>190.8750550723919</v>
+        <v>297.8185268824737</v>
       </c>
       <c r="E93" t="n">
-        <v>157</v>
+        <v>342</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3124,10 +3124,10 @@
         <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>303.1862597438604</v>
+        <v>368.8238199974192</v>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3141,10 +3141,10 @@
         <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>175.4936971132448</v>
+        <v>258.6807717207708</v>
       </c>
       <c r="E95" t="n">
-        <v>334</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3158,10 +3158,10 @@
         <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>180.4764114331829</v>
+        <v>275.2644418748142</v>
       </c>
       <c r="E96" t="n">
-        <v>264</v>
+        <v>816</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3175,10 +3175,10 @@
         <v>11</v>
       </c>
       <c r="D97" t="n">
-        <v>226.6385696463707</v>
+        <v>367.8850378030148</v>
       </c>
       <c r="E97" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3192,10 +3192,10 @@
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>217.9168189074822</v>
+        <v>314.8307579390375</v>
       </c>
       <c r="E98" t="n">
-        <v>40</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3209,10 +3209,10 @@
         <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>213.2043800431542</v>
+        <v>336.3509198677953</v>
       </c>
       <c r="E99" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3226,10 +3226,10 @@
         <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>205.6662429906489</v>
+        <v>316.9869580661533</v>
       </c>
       <c r="E100" t="n">
-        <v>73</v>
+        <v>138</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3243,10 +3243,10 @@
         <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>205.6800609281238</v>
+        <v>321.9822891045991</v>
       </c>
       <c r="E101" t="n">
-        <v>72</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3260,10 +3260,10 @@
         <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>214.3638089801949</v>
+        <v>371.9785290143666</v>
       </c>
       <c r="E102" t="n">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3277,10 +3277,10 @@
         <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>201.0904678412254</v>
+        <v>309.9117651550065</v>
       </c>
       <c r="E103" t="n">
-        <v>93</v>
+        <v>186</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3294,10 +3294,10 @@
         <v>6</v>
       </c>
       <c r="D104" t="n">
-        <v>190.2116858468973</v>
+        <v>341.3669407963126</v>
       </c>
       <c r="E104" t="n">
-        <v>162</v>
+        <v>43</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3311,10 +3311,10 @@
         <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>148.8157277012435</v>
+        <v>318.4586474903437</v>
       </c>
       <c r="E105" t="n">
-        <v>1063</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3328,10 +3328,10 @@
         <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>86.49268134379174</v>
+        <v>126.8029923228428</v>
       </c>
       <c r="E106" t="n">
-        <v>15152</v>
+        <v>155354</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3345,10 +3345,10 @@
         <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>177.0149125437061</v>
+        <v>302.3976108007097</v>
       </c>
       <c r="E107" t="n">
-        <v>311</v>
+        <v>274</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3362,10 +3362,10 @@
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>212.3323969233157</v>
+        <v>336.4311432774745</v>
       </c>
       <c r="E108" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3379,10 +3379,10 @@
         <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>179.0498495881426</v>
+        <v>286.1595859214171</v>
       </c>
       <c r="E109" t="n">
-        <v>288</v>
+        <v>551</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3396,10 +3396,10 @@
         <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>265.1070225838044</v>
+        <v>322.8180523396446</v>
       </c>
       <c r="E110" t="n">
-        <v>5</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3413,10 +3413,10 @@
         <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>243.0549790414015</v>
+        <v>375.7779058918896</v>
       </c>
       <c r="E111" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3430,10 +3430,10 @@
         <v>6</v>
       </c>
       <c r="D112" t="n">
-        <v>209.0930819426866</v>
+        <v>324.9956574074588</v>
       </c>
       <c r="E112" t="n">
-        <v>60</v>
+        <v>92</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3447,10 +3447,10 @@
         <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>171.6159042544035</v>
+        <v>236.5897488706989</v>
       </c>
       <c r="E113" t="n">
-        <v>411</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3464,10 +3464,10 @@
         <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>148.3593925530785</v>
+        <v>246.195966383199</v>
       </c>
       <c r="E114" t="n">
-        <v>1083</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3481,10 +3481,10 @@
         <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>137.3711234268544</v>
+        <v>298.4046012482046</v>
       </c>
       <c r="E115" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3498,10 +3498,10 @@
         <v>11</v>
       </c>
       <c r="D116" t="n">
-        <v>101.9527173564592</v>
+        <v>269.9614728136122</v>
       </c>
       <c r="E116" t="n">
-        <v>685</v>
+        <v>293</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3515,10 +3515,10 @@
         <v>11</v>
       </c>
       <c r="D117" t="n">
-        <v>123.3410479452212</v>
+        <v>343.7257911659445</v>
       </c>
       <c r="E117" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3532,10 +3532,10 @@
         <v>11</v>
       </c>
       <c r="D118" t="n">
-        <v>94.52945155115442</v>
+        <v>261.5020344194398</v>
       </c>
       <c r="E118" t="n">
-        <v>1916</v>
+        <v>635</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3549,10 +3549,10 @@
         <v>11</v>
       </c>
       <c r="D119" t="n">
-        <v>113.5178727506483</v>
+        <v>313.1370562715827</v>
       </c>
       <c r="E119" t="n">
-        <v>158</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3566,10 +3566,10 @@
         <v>11</v>
       </c>
       <c r="D120" t="n">
-        <v>108.017700563853</v>
+        <v>303.2770640871489</v>
       </c>
       <c r="E120" t="n">
-        <v>316</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3583,10 +3583,10 @@
         <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>138.2247430324</v>
+        <v>309.0956236215717</v>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3600,10 +3600,10 @@
         <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>83.05745182029223</v>
+        <v>250.6804043601367</v>
       </c>
       <c r="E122" t="n">
-        <v>8634</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3617,10 +3617,10 @@
         <v>11</v>
       </c>
       <c r="D123" t="n">
-        <v>82.33227107917793</v>
+        <v>268.3715459574138</v>
       </c>
       <c r="E123" t="n">
-        <v>9447</v>
+        <v>341</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3634,10 +3634,10 @@
         <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>123.6309717189229</v>
+        <v>275.9174466356907</v>
       </c>
       <c r="E124" t="n">
-        <v>26</v>
+        <v>185</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3651,10 +3651,10 @@
         <v>11</v>
       </c>
       <c r="D125" t="n">
-        <v>98.34391086752098</v>
+        <v>282.6631988587584</v>
       </c>
       <c r="E125" t="n">
-        <v>1138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3668,10 +3668,10 @@
         <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>114.442281246275</v>
+        <v>270.6662502375405</v>
       </c>
       <c r="E126" t="n">
-        <v>138</v>
+        <v>282</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3685,10 +3685,10 @@
         <v>11</v>
       </c>
       <c r="D127" t="n">
-        <v>99.07482115885669</v>
+        <v>289.7551976087184</v>
       </c>
       <c r="E127" t="n">
-        <v>1026</v>
+        <v>60</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3702,10 +3702,10 @@
         <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>118.4516364568264</v>
+        <v>293.400189585998</v>
       </c>
       <c r="E128" t="n">
-        <v>77</v>
+        <v>29</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3719,10 +3719,10 @@
         <v>6</v>
       </c>
       <c r="D129" t="n">
-        <v>103.5364754533799</v>
+        <v>265.402953172397</v>
       </c>
       <c r="E129" t="n">
-        <v>554</v>
+        <v>445</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3736,10 +3736,10 @@
         <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>52.37986847120075</v>
+        <v>224.1529297995129</v>
       </c>
       <c r="E130" t="n">
-        <v>123801</v>
+        <v>15725</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3753,10 +3753,10 @@
         <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>58.61834838622175</v>
+        <v>174.8901375245033</v>
       </c>
       <c r="E131" t="n">
-        <v>89362</v>
+        <v>114820</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3770,10 +3770,10 @@
         <v>11</v>
       </c>
       <c r="D132" t="n">
-        <v>120.3347031390421</v>
+        <v>237.0055449471227</v>
       </c>
       <c r="E132" t="n">
-        <v>66</v>
+        <v>6128</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3787,10 +3787,10 @@
         <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>120.4243393714299</v>
+        <v>290.6336816572892</v>
       </c>
       <c r="E133" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3804,10 +3804,10 @@
         <v>11</v>
       </c>
       <c r="D134" t="n">
-        <v>104.6178579952373</v>
+        <v>250.4352855273405</v>
       </c>
       <c r="E134" t="n">
-        <v>483</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3821,10 +3821,10 @@
         <v>11</v>
       </c>
       <c r="D135" t="n">
-        <v>112.8390040236387</v>
+        <v>269.5112185644488</v>
       </c>
       <c r="E135" t="n">
-        <v>170</v>
+        <v>314</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3838,10 +3838,10 @@
         <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>85.81982674472724</v>
+        <v>236.5128529744321</v>
       </c>
       <c r="E136" t="n">
-        <v>6089</v>
+        <v>6389</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3855,10 +3855,10 @@
         <v>11</v>
       </c>
       <c r="D137" t="n">
-        <v>101.3355258518763</v>
+        <v>265.3115633192363</v>
       </c>
       <c r="E137" t="n">
-        <v>767</v>
+        <v>457</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3872,10 +3872,10 @@
         <v>11</v>
       </c>
       <c r="D138" t="n">
-        <v>98.63304198766662</v>
+        <v>254.1423678405775</v>
       </c>
       <c r="E138" t="n">
-        <v>1081</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3889,10 +3889,10 @@
         <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>86.38858294137454</v>
+        <v>240.2788692654901</v>
       </c>
       <c r="E139" t="n">
-        <v>5689</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3906,10 +3906,10 @@
         <v>11</v>
       </c>
       <c r="D140" t="n">
-        <v>101.5376009261878</v>
+        <v>252.97731789775</v>
       </c>
       <c r="E140" t="n">
-        <v>743</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3923,10 +3923,10 @@
         <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>54.00403540338897</v>
+        <v>180.9256404017895</v>
       </c>
       <c r="E141" t="n">
-        <v>114906</v>
+        <v>100106</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3940,10 +3940,10 @@
         <v>11</v>
       </c>
       <c r="D142" t="n">
-        <v>91.46024449941631</v>
+        <v>265.3883660853294</v>
       </c>
       <c r="E142" t="n">
-        <v>2911</v>
+        <v>447</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3957,10 +3957,10 @@
         <v>11</v>
       </c>
       <c r="D143" t="n">
-        <v>120.3321561291429</v>
+        <v>302.9662145896218</v>
       </c>
       <c r="E143" t="n">
-        <v>67</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3974,10 +3974,10 @@
         <v>11</v>
       </c>
       <c r="D144" t="n">
-        <v>133.8297713709738</v>
+        <v>319.3808190986719</v>
       </c>
       <c r="E144" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3991,10 +3991,10 @@
         <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>124.7060132105463</v>
+        <v>259.5141439168765</v>
       </c>
       <c r="E145" t="n">
-        <v>18</v>
+        <v>784</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4008,10 +4008,10 @@
         <v>11</v>
       </c>
       <c r="D146" t="n">
-        <v>131.9668230425064</v>
+        <v>287.0401562706884</v>
       </c>
       <c r="E146" t="n">
-        <v>6</v>
+        <v>71</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4025,10 +4025,10 @@
         <v>6</v>
       </c>
       <c r="D147" t="n">
-        <v>120.75194961905</v>
+        <v>227.8304979266205</v>
       </c>
       <c r="E147" t="n">
-        <v>63</v>
+        <v>12187</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4042,10 +4042,10 @@
         <v>6</v>
       </c>
       <c r="D148" t="n">
-        <v>79.04321162981788</v>
+        <v>200.7846190294034</v>
       </c>
       <c r="E148" t="n">
-        <v>14049</v>
+        <v>52828</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4059,10 +4059,10 @@
         <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>79.04321162981788</v>
+        <v>200.7846190294034</v>
       </c>
       <c r="E149" t="n">
-        <v>14048</v>
+        <v>52827</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4076,10 +4076,10 @@
         <v>11</v>
       </c>
       <c r="D150" t="n">
-        <v>98.79803496972603</v>
+        <v>287.4989117658337</v>
       </c>
       <c r="E150" t="n">
-        <v>1061</v>
+        <v>69</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4093,10 +4093,10 @@
         <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>111.4385653759033</v>
+        <v>246.398851317324</v>
       </c>
       <c r="E151" t="n">
-        <v>211</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4110,10 +4110,10 @@
         <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>97.54525683983115</v>
+        <v>256.9259011139674</v>
       </c>
       <c r="E152" t="n">
-        <v>1275</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4127,10 +4127,10 @@
         <v>6</v>
       </c>
       <c r="D153" t="n">
-        <v>64.88147155622721</v>
+        <v>161.5572462150903</v>
       </c>
       <c r="E153" t="n">
-        <v>57431</v>
+        <v>145349</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4144,10 +4144,10 @@
         <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>104.6609489167181</v>
+        <v>262.9360637633386</v>
       </c>
       <c r="E154" t="n">
-        <v>478</v>
+        <v>573</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4161,10 +4161,10 @@
         <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>84.93783672946773</v>
+        <v>286.5494254193956</v>
       </c>
       <c r="E155" t="n">
-        <v>6828</v>
+        <v>77</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4178,10 +4178,10 @@
         <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>99.75717225829243</v>
+        <v>269.1126104557383</v>
       </c>
       <c r="E156" t="n">
-        <v>935</v>
+        <v>324</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4195,10 +4195,10 @@
         <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>85.28064457298052</v>
+        <v>232.1789509126004</v>
       </c>
       <c r="E157" t="n">
-        <v>6542</v>
+        <v>8835</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4212,10 +4212,10 @@
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>75.82991701233654</v>
+        <v>240.3527864658034</v>
       </c>
       <c r="E158" t="n">
-        <v>20130</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4229,10 +4229,10 @@
         <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>81.3924483937963</v>
+        <v>211.7631136055539</v>
       </c>
       <c r="E159" t="n">
-        <v>10633</v>
+        <v>32320</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4246,10 +4246,10 @@
         <v>6</v>
       </c>
       <c r="D160" t="n">
-        <v>83.15444128084282</v>
+        <v>239.8669372268405</v>
       </c>
       <c r="E160" t="n">
-        <v>8529</v>
+        <v>4818</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4263,10 +4263,10 @@
         <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>43.67433125331873</v>
+        <v>159.7498076154804</v>
       </c>
       <c r="E161" t="n">
-        <v>168065</v>
+        <v>149360</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4280,10 +4280,10 @@
         <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>42.47104607636621</v>
+        <v>147.8032799280175</v>
       </c>
       <c r="E162" t="n">
-        <v>173565</v>
+        <v>173271</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4297,10 +4297,10 @@
         <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>52.77984969138715</v>
+        <v>183.0047079153827</v>
       </c>
       <c r="E163" t="n">
-        <v>121643</v>
+        <v>94979</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4314,10 +4314,10 @@
         <v>11</v>
       </c>
       <c r="D164" t="n">
-        <v>109.4927713518835</v>
+        <v>305.4486938355242</v>
       </c>
       <c r="E164" t="n">
-        <v>262</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4331,10 +4331,10 @@
         <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>120.792203249668</v>
+        <v>286.871863112733</v>
       </c>
       <c r="E165" t="n">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4348,10 +4348,10 @@
         <v>11</v>
       </c>
       <c r="D166" t="n">
-        <v>103.2055691022396</v>
+        <v>284.3258279607234</v>
       </c>
       <c r="E166" t="n">
-        <v>585</v>
+        <v>92</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4365,10 +4365,10 @@
         <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>83.37984730739042</v>
+        <v>241.5940244452214</v>
       </c>
       <c r="E167" t="n">
-        <v>8284</v>
+        <v>4152</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4382,10 +4382,10 @@
         <v>11</v>
       </c>
       <c r="D168" t="n">
-        <v>106.0195083617301</v>
+        <v>271.5818444736776</v>
       </c>
       <c r="E168" t="n">
-        <v>403</v>
+        <v>267</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4399,10 +4399,10 @@
         <v>11</v>
       </c>
       <c r="D169" t="n">
-        <v>76.54798664208393</v>
+        <v>232.8086562780231</v>
       </c>
       <c r="E169" t="n">
-        <v>18686</v>
+        <v>8451</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4416,10 +4416,10 @@
         <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>74.15053942919714</v>
+        <v>226.9517726103337</v>
       </c>
       <c r="E170" t="n">
-        <v>24108</v>
+        <v>12976</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4433,10 +4433,10 @@
         <v>6</v>
       </c>
       <c r="D171" t="n">
-        <v>96.0602303997146</v>
+        <v>227.6848146891663</v>
       </c>
       <c r="E171" t="n">
-        <v>1580</v>
+        <v>12323</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4450,10 +4450,10 @@
         <v>11</v>
       </c>
       <c r="D172" t="n">
-        <v>76.02136385625407</v>
+        <v>255.5522994709288</v>
       </c>
       <c r="E172" t="n">
-        <v>19748</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4467,10 +4467,10 @@
         <v>11</v>
       </c>
       <c r="D173" t="n">
-        <v>70.32011212749124</v>
+        <v>220.195302074753</v>
       </c>
       <c r="E173" t="n">
-        <v>35495</v>
+        <v>20346</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4484,10 +4484,10 @@
         <v>6</v>
       </c>
       <c r="D174" t="n">
-        <v>105.3057693751055</v>
+        <v>186.4772899543301</v>
       </c>
       <c r="E174" t="n">
-        <v>1191</v>
+        <v>4024</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4501,10 +4501,10 @@
         <v>6</v>
       </c>
       <c r="D175" t="n">
-        <v>144.8212848697277</v>
+        <v>281.5376050419184</v>
       </c>
       <c r="E175" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4518,10 +4518,10 @@
         <v>6</v>
       </c>
       <c r="D176" t="n">
-        <v>132.012867283191</v>
+        <v>256.880834331877</v>
       </c>
       <c r="E176" t="n">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4535,10 +4535,10 @@
         <v>6</v>
       </c>
       <c r="D177" t="n">
-        <v>141.2704813494814</v>
+        <v>269.9362077887544</v>
       </c>
       <c r="E177" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4552,10 +4552,10 @@
         <v>11</v>
       </c>
       <c r="D178" t="n">
-        <v>151.3670048066132</v>
+        <v>247.2424000441767</v>
       </c>
       <c r="E178" t="n">
-        <v>1</v>
+        <v>94</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4569,10 +4569,10 @@
         <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>29.7864328453233</v>
+        <v>143.2138530931649</v>
       </c>
       <c r="E179" t="n">
-        <v>179099</v>
+        <v>51251</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4586,10 +4586,10 @@
         <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>115.4329283518038</v>
+        <v>233.8082238612775</v>
       </c>
       <c r="E180" t="n">
-        <v>479</v>
+        <v>257</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4603,10 +4603,10 @@
         <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>142.4803921759193</v>
+        <v>275.1201669340246</v>
       </c>
       <c r="E181" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4620,10 +4620,10 @@
         <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>94.16975416216114</v>
+        <v>218.5499615964469</v>
       </c>
       <c r="E182" t="n">
-        <v>2711</v>
+        <v>636</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4637,10 +4637,10 @@
         <v>11</v>
       </c>
       <c r="D183" t="n">
-        <v>102.8772245724168</v>
+        <v>187.6997295876317</v>
       </c>
       <c r="E183" t="n">
-        <v>1440</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4654,10 +4654,10 @@
         <v>11</v>
       </c>
       <c r="D184" t="n">
-        <v>115.1035068781888</v>
+        <v>191.1861153381399</v>
       </c>
       <c r="E184" t="n">
-        <v>496</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4671,10 +4671,10 @@
         <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>99.04930495901996</v>
+        <v>183.1413628112304</v>
       </c>
       <c r="E185" t="n">
-        <v>1909</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4688,10 +4688,10 @@
         <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>99.0464548153992</v>
+        <v>179.4833421966429</v>
       </c>
       <c r="E186" t="n">
-        <v>1912</v>
+        <v>6409</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4705,10 +4705,10 @@
         <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>116.7671528815452</v>
+        <v>239.248707900653</v>
       </c>
       <c r="E187" t="n">
-        <v>426</v>
+        <v>170</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4722,10 +4722,10 @@
         <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>102.5321080284031</v>
+        <v>181.4131059328535</v>
       </c>
       <c r="E188" t="n">
-        <v>1482</v>
+        <v>5672</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4739,10 +4739,10 @@
         <v>11</v>
       </c>
       <c r="D189" t="n">
-        <v>134.3438075388232</v>
+        <v>251.1054712238634</v>
       </c>
       <c r="E189" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4756,10 +4756,10 @@
         <v>11</v>
       </c>
       <c r="D190" t="n">
-        <v>72.04570954111296</v>
+        <v>173.1952605135789</v>
       </c>
       <c r="E190" t="n">
-        <v>11384</v>
+        <v>9428</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4773,10 +4773,10 @@
         <v>6</v>
       </c>
       <c r="D191" t="n">
-        <v>114.923329710405</v>
+        <v>189.8675328232316</v>
       </c>
       <c r="E191" t="n">
-        <v>509</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4790,10 +4790,10 @@
         <v>6</v>
       </c>
       <c r="D192" t="n">
-        <v>62.82826181045286</v>
+        <v>116.2152383783329</v>
       </c>
       <c r="E192" t="n">
-        <v>21082</v>
+        <v>132489</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4807,10 +4807,10 @@
         <v>11</v>
       </c>
       <c r="D193" t="n">
-        <v>96.52785937941259</v>
+        <v>182.030562104158</v>
       </c>
       <c r="E193" t="n">
-        <v>2281</v>
+        <v>5355</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4824,10 +4824,10 @@
         <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>76.89560930416373</v>
+        <v>137.1726880968336</v>
       </c>
       <c r="E194" t="n">
-        <v>8467</v>
+        <v>67128</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4841,10 +4841,10 @@
         <v>6</v>
       </c>
       <c r="D195" t="n">
-        <v>137.1531938375886</v>
+        <v>267.5977690823435</v>
       </c>
       <c r="E195" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4858,10 +4858,10 @@
         <v>11</v>
       </c>
       <c r="D196" t="n">
-        <v>150.5106494023826</v>
+        <v>267.1249823392578</v>
       </c>
       <c r="E196" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4875,10 +4875,10 @@
         <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>150.5106494023826</v>
+        <v>267.1249823392578</v>
       </c>
       <c r="E197" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4892,10 +4892,10 @@
         <v>11</v>
       </c>
       <c r="D198" t="n">
-        <v>124.4607007993501</v>
+        <v>286.9074581068705</v>
       </c>
       <c r="E198" t="n">
-        <v>175</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4909,10 +4909,10 @@
         <v>6</v>
       </c>
       <c r="D199" t="n">
-        <v>120.1007523723027</v>
+        <v>237.4100837429849</v>
       </c>
       <c r="E199" t="n">
-        <v>285</v>
+        <v>207</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4926,10 +4926,10 @@
         <v>11</v>
       </c>
       <c r="D200" t="n">
-        <v>133.0976447229863</v>
+        <v>266.3844718340521</v>
       </c>
       <c r="E200" t="n">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4943,10 +4943,10 @@
         <v>6</v>
       </c>
       <c r="D201" t="n">
-        <v>88.37412492886453</v>
+        <v>182.6821584231442</v>
       </c>
       <c r="E201" t="n">
-        <v>4066</v>
+        <v>5137</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4960,10 +4960,10 @@
         <v>11</v>
       </c>
       <c r="D202" t="n">
-        <v>118.3190556102461</v>
+        <v>264.7613201433355</v>
       </c>
       <c r="E202" t="n">
-        <v>358</v>
+        <v>22</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4977,10 +4977,10 @@
         <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>68.62185263780754</v>
+        <v>120.6696831988266</v>
       </c>
       <c r="E203" t="n">
-        <v>78</v>
+        <v>172</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4994,10 +4994,10 @@
         <v>11</v>
       </c>
       <c r="D204" t="n">
-        <v>66.45906688278598</v>
+        <v>128.7636346417334</v>
       </c>
       <c r="E204" t="n">
-        <v>121</v>
+        <v>43</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5011,10 +5011,10 @@
         <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>59.57061916866655</v>
+        <v>146.0282519768285</v>
       </c>
       <c r="E205" t="n">
-        <v>590</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5028,10 +5028,10 @@
         <v>11</v>
       </c>
       <c r="D206" t="n">
-        <v>66.55449524796514</v>
+        <v>123.0523077707554</v>
       </c>
       <c r="E206" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5045,10 +5045,10 @@
         <v>6</v>
       </c>
       <c r="D207" t="n">
-        <v>74.76098591495345</v>
+        <v>131.7555370120364</v>
       </c>
       <c r="E207" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5062,10 +5062,10 @@
         <v>6</v>
       </c>
       <c r="D208" t="n">
-        <v>31.81665815307787</v>
+        <v>68.57826944143025</v>
       </c>
       <c r="E208" t="n">
-        <v>39134</v>
+        <v>77321</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5079,10 +5079,10 @@
         <v>6</v>
       </c>
       <c r="D209" t="n">
-        <v>64.40574491543053</v>
+        <v>142.6053700981484</v>
       </c>
       <c r="E209" t="n">
-        <v>183</v>
+        <v>4</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5096,10 +5096,10 @@
         <v>11</v>
       </c>
       <c r="D210" t="n">
-        <v>73.4846207996481</v>
+        <v>126.2223758327065</v>
       </c>
       <c r="E210" t="n">
-        <v>19</v>
+        <v>71</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5113,10 +5113,10 @@
         <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>23.41555444924142</v>
+        <v>109.6145714825976</v>
       </c>
       <c r="E211" t="n">
-        <v>94821</v>
+        <v>743</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5130,10 +5130,10 @@
         <v>11</v>
       </c>
       <c r="D212" t="n">
-        <v>66.50016576439465</v>
+        <v>126.5041609577949</v>
       </c>
       <c r="E212" t="n">
-        <v>119</v>
+        <v>69</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5147,10 +5147,10 @@
         <v>6</v>
       </c>
       <c r="D213" t="n">
-        <v>72.7447631395803</v>
+        <v>126.0916994313075</v>
       </c>
       <c r="E213" t="n">
-        <v>29</v>
+        <v>73</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5164,10 +5164,10 @@
         <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>68.83130516025102</v>
+        <v>124.0222516365977</v>
       </c>
       <c r="E214" t="n">
-        <v>68</v>
+        <v>102</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5181,10 +5181,10 @@
         <v>11</v>
       </c>
       <c r="D215" t="n">
-        <v>71.00502860893224</v>
+        <v>129.1814927563587</v>
       </c>
       <c r="E215" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5198,10 +5198,10 @@
         <v>6</v>
       </c>
       <c r="D216" t="n">
-        <v>78.08139292613907</v>
+        <v>125.1187225676385</v>
       </c>
       <c r="E216" t="n">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5215,10 +5215,10 @@
         <v>6</v>
       </c>
       <c r="D217" t="n">
-        <v>76.42586931351852</v>
+        <v>128.6976058513685</v>
       </c>
       <c r="E217" t="n">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5232,10 +5232,10 @@
         <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>70.61032420550143</v>
+        <v>132.9656483802116</v>
       </c>
       <c r="E218" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5249,10 +5249,10 @@
         <v>6</v>
       </c>
       <c r="D219" t="n">
-        <v>77.43308237378525</v>
+        <v>140.6758397657756</v>
       </c>
       <c r="E219" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5266,10 +5266,10 @@
         <v>6</v>
       </c>
       <c r="D220" t="n">
-        <v>67.15690147039072</v>
+        <v>103.1828619459168</v>
       </c>
       <c r="E220" t="n">
-        <v>99</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5283,10 +5283,10 @@
         <v>6</v>
       </c>
       <c r="D221" t="n">
-        <v>66.78515565953863</v>
+        <v>124.1202151753453</v>
       </c>
       <c r="E221" t="n">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5300,10 +5300,10 @@
         <v>6</v>
       </c>
       <c r="D222" t="n">
-        <v>49.9217178768743</v>
+        <v>105.9080999600517</v>
       </c>
       <c r="E222" t="n">
-        <v>3479</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5317,10 +5317,10 @@
         <v>6</v>
       </c>
       <c r="D223" t="n">
-        <v>57.47371693897392</v>
+        <v>128.3144731659955</v>
       </c>
       <c r="E223" t="n">
-        <v>898</v>
+        <v>46</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5334,10 +5334,10 @@
         <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>25.31347932756851</v>
+        <v>47.07185699123174</v>
       </c>
       <c r="E224" t="n">
-        <v>78750</v>
+        <v>204555</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5351,10 +5351,10 @@
         <v>6</v>
       </c>
       <c r="D225" t="n">
-        <v>65.83819232610486</v>
+        <v>116.4771237346717</v>
       </c>
       <c r="E225" t="n">
-        <v>139</v>
+        <v>296</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5368,10 +5368,10 @@
         <v>6</v>
       </c>
       <c r="D226" t="n">
-        <v>58.68738120796841</v>
+        <v>98.18327713265707</v>
       </c>
       <c r="E226" t="n">
-        <v>697</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5385,10 +5385,10 @@
         <v>6</v>
       </c>
       <c r="D227" t="n">
-        <v>48.07427509403499</v>
+        <v>82.9201159689874</v>
       </c>
       <c r="E227" t="n">
-        <v>4690</v>
+        <v>20046</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5402,10 +5402,10 @@
         <v>6</v>
       </c>
       <c r="D228" t="n">
-        <v>62.82257895025325</v>
+        <v>117.4762801286355</v>
       </c>
       <c r="E228" t="n">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5419,10 +5419,10 @@
         <v>6</v>
       </c>
       <c r="D229" t="n">
-        <v>61.24859264359104</v>
+        <v>118.9350538008536</v>
       </c>
       <c r="E229" t="n">
-        <v>421</v>
+        <v>220</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5436,10 +5436,10 @@
         <v>6</v>
       </c>
       <c r="D230" t="n">
-        <v>77.76828244705219</v>
+        <v>135.3299028972476</v>
       </c>
       <c r="E230" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5453,10 +5453,10 @@
         <v>6</v>
       </c>
       <c r="D231" t="n">
-        <v>71.12891522566061</v>
+        <v>123.2732379251013</v>
       </c>
       <c r="E231" t="n">
-        <v>40</v>
+        <v>111</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5470,10 +5470,10 @@
         <v>11</v>
       </c>
       <c r="D232" t="n">
-        <v>73.65181832260366</v>
+        <v>130.4953820431668</v>
       </c>
       <c r="E232" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5487,10 +5487,10 @@
         <v>11</v>
       </c>
       <c r="D233" t="n">
-        <v>64.4568297181461</v>
+        <v>124.9882397824916</v>
       </c>
       <c r="E233" t="n">
-        <v>181</v>
+        <v>83</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5504,10 +5504,10 @@
         <v>6</v>
       </c>
       <c r="D234" t="n">
-        <v>63.68711399323814</v>
+        <v>126.6766839676174</v>
       </c>
       <c r="E234" t="n">
-        <v>204</v>
+        <v>65</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5521,10 +5521,10 @@
         <v>6</v>
       </c>
       <c r="D235" t="n">
-        <v>79.28267651934883</v>
+        <v>131.143297539129</v>
       </c>
       <c r="E235" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5538,10 +5538,10 @@
         <v>6</v>
       </c>
       <c r="D236" t="n">
-        <v>27.66171022814928</v>
+        <v>74.79866308154794</v>
       </c>
       <c r="E236" t="n">
-        <v>61841</v>
+        <v>45725</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5555,10 +5555,10 @@
         <v>6</v>
       </c>
       <c r="D237" t="n">
-        <v>26.465520324501</v>
+        <v>78.13261824853613</v>
       </c>
       <c r="E237" t="n">
-        <v>70212</v>
+        <v>33255</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5572,10 +5572,10 @@
         <v>11</v>
       </c>
       <c r="D238" t="n">
-        <v>73.20652256811836</v>
+        <v>124.1862902589404</v>
       </c>
       <c r="E238" t="n">
-        <v>23</v>
+        <v>96</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5589,10 +5589,10 @@
         <v>11</v>
       </c>
       <c r="D239" t="n">
-        <v>66.54339538498498</v>
+        <v>134.5444749542079</v>
       </c>
       <c r="E239" t="n">
-        <v>118</v>
+        <v>13</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5606,10 +5606,10 @@
         <v>6</v>
       </c>
       <c r="D240" t="n">
-        <v>49.44146435931674</v>
+        <v>123.1035344802212</v>
       </c>
       <c r="E240" t="n">
-        <v>3783</v>
+        <v>117</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5623,10 +5623,10 @@
         <v>11</v>
       </c>
       <c r="D241" t="n">
-        <v>72.15172490702888</v>
+        <v>134.8507678835806</v>
       </c>
       <c r="E241" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5640,10 +5640,10 @@
         <v>6</v>
       </c>
       <c r="D242" t="n">
-        <v>41.6446293996304</v>
+        <v>79.44111997629865</v>
       </c>
       <c r="E242" t="n">
-        <v>11737</v>
+        <v>29143</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5657,10 +5657,10 @@
         <v>11</v>
       </c>
       <c r="D243" t="n">
-        <v>79.60919901015636</v>
+        <v>131.4647716761069</v>
       </c>
       <c r="E243" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5674,10 +5674,10 @@
         <v>6</v>
       </c>
       <c r="D244" t="n">
-        <v>19.10058518714986</v>
+        <v>43.22745223080241</v>
       </c>
       <c r="E244" t="n">
-        <v>136047</v>
+        <v>219244</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5691,10 +5691,10 @@
         <v>11</v>
       </c>
       <c r="D245" t="n">
-        <v>75.15882263043412</v>
+        <v>134.277644753806</v>
       </c>
       <c r="E245" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5708,10 +5708,10 @@
         <v>6</v>
       </c>
       <c r="D246" t="n">
-        <v>73.76060081195841</v>
+        <v>149.9545565966079</v>
       </c>
       <c r="E246" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5725,10 +5725,10 @@
         <v>6</v>
       </c>
       <c r="D247" t="n">
-        <v>59.91964234850325</v>
+        <v>128.6395855093239</v>
       </c>
       <c r="E247" t="n">
-        <v>556</v>
+        <v>45</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5742,10 +5742,10 @@
         <v>11</v>
       </c>
       <c r="D248" t="n">
-        <v>50.58892128576858</v>
+        <v>85.55040893827565</v>
       </c>
       <c r="E248" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5759,10 +5759,10 @@
         <v>6</v>
       </c>
       <c r="D249" t="n">
-        <v>58.47227219460291</v>
+        <v>46.91799070276905</v>
       </c>
       <c r="E249" t="n">
-        <v>6</v>
+        <v>8709</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5776,10 +5776,10 @@
         <v>6</v>
       </c>
       <c r="D250" t="n">
-        <v>42.11964489580226</v>
+        <v>29.65395754792099</v>
       </c>
       <c r="E250" t="n">
-        <v>70</v>
+        <v>132145</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5793,10 +5793,10 @@
         <v>6</v>
       </c>
       <c r="D251" t="n">
-        <v>50.05368900896975</v>
+        <v>39.68175189591244</v>
       </c>
       <c r="E251" t="n">
-        <v>21</v>
+        <v>36505</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5810,10 +5810,10 @@
         <v>11</v>
       </c>
       <c r="D252" t="n">
-        <v>47.1721614741345</v>
+        <v>75.88325246359879</v>
       </c>
       <c r="E252" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5827,10 +5827,10 @@
         <v>6</v>
       </c>
       <c r="D253" t="n">
-        <v>63.6472226007283</v>
+        <v>49.08699651757999</v>
       </c>
       <c r="E253" t="n">
-        <v>4</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5844,10 +5844,10 @@
         <v>6</v>
       </c>
       <c r="D254" t="n">
-        <v>48.61162740955937</v>
+        <v>56.70076624746903</v>
       </c>
       <c r="E254" t="n">
-        <v>27</v>
+        <v>725</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5861,10 +5861,10 @@
         <v>6</v>
       </c>
       <c r="D255" t="n">
-        <v>52.83746567406963</v>
+        <v>63.62152282273614</v>
       </c>
       <c r="E255" t="n">
-        <v>13</v>
+        <v>132</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5878,10 +5878,10 @@
         <v>11</v>
       </c>
       <c r="D256" t="n">
-        <v>39.03219545247141</v>
+        <v>59.99812717790132</v>
       </c>
       <c r="E256" t="n">
-        <v>117</v>
+        <v>292</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5895,10 +5895,10 @@
         <v>6</v>
       </c>
       <c r="D257" t="n">
-        <v>46.04901309988981</v>
+        <v>29.77992570585252</v>
       </c>
       <c r="E257" t="n">
-        <v>37</v>
+        <v>130812</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5912,10 +5912,10 @@
         <v>6</v>
       </c>
       <c r="D258" t="n">
-        <v>52.46361396407511</v>
+        <v>78.12681211797344</v>
       </c>
       <c r="E258" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5929,7 +5929,7 @@
         <v>11</v>
       </c>
       <c r="D259" t="n">
-        <v>39.38823383564109</v>
+        <v>64.65563284752929</v>
       </c>
       <c r="E259" t="n">
         <v>109</v>
@@ -5946,10 +5946,10 @@
         <v>6</v>
       </c>
       <c r="D260" t="n">
-        <v>65.21392397773718</v>
+        <v>59.31640414718091</v>
       </c>
       <c r="E260" t="n">
-        <v>3</v>
+        <v>360</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5963,10 +5963,10 @@
         <v>6</v>
       </c>
       <c r="D261" t="n">
-        <v>55.50435460378922</v>
+        <v>42.6392942549852</v>
       </c>
       <c r="E261" t="n">
-        <v>8</v>
+        <v>21132</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5980,10 +5980,10 @@
         <v>6</v>
       </c>
       <c r="D262" t="n">
-        <v>49.93933400736388</v>
+        <v>84.04373944150485</v>
       </c>
       <c r="E262" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5997,10 +5997,10 @@
         <v>11</v>
       </c>
       <c r="D263" t="n">
-        <v>53.6341703960294</v>
+        <v>71.6327514658844</v>
       </c>
       <c r="E263" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6014,10 +6014,10 @@
         <v>6</v>
       </c>
       <c r="D264" t="n">
-        <v>74.2178076222952</v>
+        <v>49.35585284391011</v>
       </c>
       <c r="E264" t="n">
-        <v>1</v>
+        <v>4856</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6031,10 +6031,10 @@
         <v>6</v>
       </c>
       <c r="D265" t="n">
-        <v>46.19747582858862</v>
+        <v>71.79162028536317</v>
       </c>
       <c r="E265" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6048,10 +6048,10 @@
         <v>6</v>
       </c>
       <c r="D266" t="n">
-        <v>47.27898926557668</v>
+        <v>83.56571909478848</v>
       </c>
       <c r="E266" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6065,10 +6065,10 @@
         <v>6</v>
       </c>
       <c r="D267" t="n">
-        <v>40.33762666857893</v>
+        <v>58.94727801479038</v>
       </c>
       <c r="E267" t="n">
-        <v>97</v>
+        <v>394</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6082,10 +6082,10 @@
         <v>6</v>
       </c>
       <c r="D268" t="n">
-        <v>69.34254124686342</v>
+        <v>56.97180616794927</v>
       </c>
       <c r="E268" t="n">
-        <v>2</v>
+        <v>677</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -6099,10 +6099,10 @@
         <v>6</v>
       </c>
       <c r="D269" t="n">
-        <v>54.41182071602137</v>
+        <v>28.4954789741852</v>
       </c>
       <c r="E269" t="n">
-        <v>9</v>
+        <v>144129</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -6116,10 +6116,10 @@
         <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>52.60652670976</v>
+        <v>79.95372222908712</v>
       </c>
       <c r="E270" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -6133,10 +6133,10 @@
         <v>6</v>
       </c>
       <c r="D271" t="n">
-        <v>40.48432061362247</v>
+        <v>73.69191750401191</v>
       </c>
       <c r="E271" t="n">
-        <v>94</v>
+        <v>15</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6150,10 +6150,10 @@
         <v>6</v>
       </c>
       <c r="D272" t="n">
-        <v>54.25269569154521</v>
+        <v>46.94712621647169</v>
       </c>
       <c r="E272" t="n">
-        <v>10</v>
+        <v>8639</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -6167,10 +6167,10 @@
         <v>11</v>
       </c>
       <c r="D273" t="n">
-        <v>48.76254255097527</v>
+        <v>78.94125761273305</v>
       </c>
       <c r="E273" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -6184,10 +6184,10 @@
         <v>11</v>
       </c>
       <c r="D274" t="n">
-        <v>30.968841864867</v>
+        <v>63.35067279036944</v>
       </c>
       <c r="E274" t="n">
-        <v>340</v>
+        <v>53</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -6201,10 +6201,10 @@
         <v>11</v>
       </c>
       <c r="D275" t="n">
-        <v>22.58102596196427</v>
+        <v>47.79253288932422</v>
       </c>
       <c r="E275" t="n">
-        <v>2634</v>
+        <v>6518</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -6218,10 +6218,10 @@
         <v>6</v>
       </c>
       <c r="D276" t="n">
-        <v>44.63321936025746</v>
+        <v>59.67917050604365</v>
       </c>
       <c r="E276" t="n">
-        <v>27</v>
+        <v>147</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -6235,10 +6235,10 @@
         <v>11</v>
       </c>
       <c r="D277" t="n">
-        <v>30.83727205509776</v>
+        <v>64.0447036314346</v>
       </c>
       <c r="E277" t="n">
-        <v>349</v>
+        <v>44</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -6252,10 +6252,10 @@
         <v>11</v>
       </c>
       <c r="D278" t="n">
-        <v>41.07226147848387</v>
+        <v>66.88679050054166</v>
       </c>
       <c r="E278" t="n">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -6269,10 +6269,10 @@
         <v>6</v>
       </c>
       <c r="D279" t="n">
-        <v>40.98953990584253</v>
+        <v>67.66672884809471</v>
       </c>
       <c r="E279" t="n">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -6286,10 +6286,10 @@
         <v>6</v>
       </c>
       <c r="D280" t="n">
-        <v>27.55587458235497</v>
+        <v>42.07248136572429</v>
       </c>
       <c r="E280" t="n">
-        <v>672</v>
+        <v>29253</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -6303,10 +6303,10 @@
         <v>11</v>
       </c>
       <c r="D281" t="n">
-        <v>43.01769406851857</v>
+        <v>65.0008420265801</v>
       </c>
       <c r="E281" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -6320,10 +6320,10 @@
         <v>6</v>
       </c>
       <c r="D282" t="n">
-        <v>15.71513423433901</v>
+        <v>40.08340062717397</v>
       </c>
       <c r="E282" t="n">
-        <v>28569</v>
+        <v>43151</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -6337,10 +6337,10 @@
         <v>11</v>
       </c>
       <c r="D283" t="n">
-        <v>29.01203203815611</v>
+        <v>38.74771506626953</v>
       </c>
       <c r="E283" t="n">
-        <v>494</v>
+        <v>54252</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -6354,10 +6354,10 @@
         <v>11</v>
       </c>
       <c r="D284" t="n">
-        <v>44.57284107711989</v>
+        <v>74.14304899451859</v>
       </c>
       <c r="E284" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -6371,10 +6371,10 @@
         <v>11</v>
       </c>
       <c r="D285" t="n">
-        <v>51.6161837275853</v>
+        <v>59.98585718023804</v>
       </c>
       <c r="E285" t="n">
-        <v>6</v>
+        <v>135</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -6388,10 +6388,10 @@
         <v>6</v>
       </c>
       <c r="D286" t="n">
-        <v>46.19956399250531</v>
+        <v>57.7189090770603</v>
       </c>
       <c r="E286" t="n">
-        <v>19</v>
+        <v>311</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -6405,10 +6405,10 @@
         <v>11</v>
       </c>
       <c r="D287" t="n">
-        <v>47.49353479930947</v>
+        <v>70.4261393418176</v>
       </c>
       <c r="E287" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -6422,10 +6422,10 @@
         <v>6</v>
       </c>
       <c r="D288" t="n">
-        <v>53.34358770860635</v>
+        <v>67.04987777536695</v>
       </c>
       <c r="E288" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -6439,10 +6439,10 @@
         <v>6</v>
       </c>
       <c r="D289" t="n">
-        <v>53.34358770860635</v>
+        <v>67.04987777536695</v>
       </c>
       <c r="E289" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -6456,10 +6456,10 @@
         <v>11</v>
       </c>
       <c r="D290" t="n">
-        <v>40.73808695053698</v>
+        <v>66.04338715716693</v>
       </c>
       <c r="E290" t="n">
-        <v>67</v>
+        <v>26</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -6473,10 +6473,10 @@
         <v>6</v>
       </c>
       <c r="D291" t="n">
-        <v>16.42673822525109</v>
+        <v>44.91621352925648</v>
       </c>
       <c r="E291" t="n">
-        <v>22489</v>
+        <v>14496</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -6490,10 +6490,10 @@
         <v>6</v>
       </c>
       <c r="D292" t="n">
-        <v>18.48370307258025</v>
+        <v>40.23154431524113</v>
       </c>
       <c r="E292" t="n">
-        <v>10893</v>
+        <v>42061</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -6507,10 +6507,10 @@
         <v>6</v>
       </c>
       <c r="D293" t="n">
-        <v>30.22683784280749</v>
+        <v>67.92498573012212</v>
       </c>
       <c r="E293" t="n">
-        <v>396</v>
+        <v>15</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -6524,10 +6524,10 @@
         <v>6</v>
       </c>
       <c r="D294" t="n">
-        <v>31.34680606609501</v>
+        <v>66.00203471528097</v>
       </c>
       <c r="E294" t="n">
-        <v>320</v>
+        <v>27</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -6541,10 +6541,10 @@
         <v>6</v>
       </c>
       <c r="D295" t="n">
-        <v>13.36143275730351</v>
+        <v>43.35298448794214</v>
       </c>
       <c r="E295" t="n">
-        <v>60549</v>
+        <v>21757</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -6558,10 +6558,10 @@
         <v>11</v>
       </c>
       <c r="D296" t="n">
-        <v>41.46252144634756</v>
+        <v>77.60781882652992</v>
       </c>
       <c r="E296" t="n">
-        <v>55</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -6575,10 +6575,10 @@
         <v>6</v>
       </c>
       <c r="D297" t="n">
-        <v>26.16512394159582</v>
+        <v>35.78373892179572</v>
       </c>
       <c r="E297" t="n">
-        <v>939</v>
+        <v>82086</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -6592,10 +6592,10 @@
         <v>11</v>
       </c>
       <c r="D298" t="n">
-        <v>41.35476401417327</v>
+        <v>56.72324603262089</v>
       </c>
       <c r="E298" t="n">
-        <v>58</v>
+        <v>419</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -6609,10 +6609,10 @@
         <v>6</v>
       </c>
       <c r="D299" t="n">
-        <v>38.40460027732438</v>
+        <v>59.66224054185387</v>
       </c>
       <c r="E299" t="n">
-        <v>98</v>
+        <v>149</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -6626,10 +6626,10 @@
         <v>11</v>
       </c>
       <c r="D300" t="n">
-        <v>40.21369061285368</v>
+        <v>70.70643798779206</v>
       </c>
       <c r="E300" t="n">
-        <v>74</v>
+        <v>6</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -6643,10 +6643,10 @@
         <v>6</v>
       </c>
       <c r="D301" t="n">
-        <v>35.86951411265996</v>
+        <v>40.08363771975726</v>
       </c>
       <c r="E301" t="n">
-        <v>152</v>
+        <v>43144</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -6660,10 +6660,10 @@
         <v>6</v>
       </c>
       <c r="D302" t="n">
-        <v>35.86951411265996</v>
+        <v>40.08363771975726</v>
       </c>
       <c r="E302" t="n">
-        <v>151</v>
+        <v>43143</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -6677,10 +6677,10 @@
         <v>6</v>
       </c>
       <c r="D303" t="n">
-        <v>14.64451597168039</v>
+        <v>52.99925421868095</v>
       </c>
       <c r="E303" t="n">
-        <v>40808</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -6694,10 +6694,10 @@
         <v>6</v>
       </c>
       <c r="D304" t="n">
-        <v>67.22708553959275</v>
+        <v>116.4811371365579</v>
       </c>
       <c r="E304" t="n">
-        <v>184</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -6711,10 +6711,10 @@
         <v>11</v>
       </c>
       <c r="D305" t="n">
-        <v>88.90663843764746</v>
+        <v>130.6713530613981</v>
       </c>
       <c r="E305" t="n">
-        <v>1</v>
+        <v>231</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -6728,10 +6728,10 @@
         <v>6</v>
       </c>
       <c r="D306" t="n">
-        <v>72.69157507399368</v>
+        <v>109.6907772456919</v>
       </c>
       <c r="E306" t="n">
-        <v>65</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -6745,10 +6745,10 @@
         <v>6</v>
       </c>
       <c r="D307" t="n">
-        <v>69.47820019903499</v>
+        <v>166.5394588961659</v>
       </c>
       <c r="E307" t="n">
-        <v>124</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -6762,10 +6762,10 @@
         <v>6</v>
       </c>
       <c r="D308" t="n">
-        <v>41.38125917184661</v>
+        <v>137.233326230001</v>
       </c>
       <c r="E308" t="n">
-        <v>28737</v>
+        <v>70</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -6779,10 +6779,10 @@
         <v>6</v>
       </c>
       <c r="D309" t="n">
-        <v>35.69150870061723</v>
+        <v>132.6669050131526</v>
       </c>
       <c r="E309" t="n">
-        <v>67499</v>
+        <v>166</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -6796,10 +6796,10 @@
         <v>6</v>
       </c>
       <c r="D310" t="n">
-        <v>79.30794601848285</v>
+        <v>134.521837976768</v>
       </c>
       <c r="E310" t="n">
-        <v>9</v>
+        <v>118</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -6813,10 +6813,10 @@
         <v>11</v>
       </c>
       <c r="D311" t="n">
-        <v>64.15936377400605</v>
+        <v>110.4457387568943</v>
       </c>
       <c r="E311" t="n">
-        <v>304</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -6830,10 +6830,10 @@
         <v>6</v>
       </c>
       <c r="D312" t="n">
-        <v>70.29876103567179</v>
+        <v>106.7095848456866</v>
       </c>
       <c r="E312" t="n">
-        <v>107</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -6847,10 +6847,10 @@
         <v>6</v>
       </c>
       <c r="D313" t="n">
-        <v>76.35435085795243</v>
+        <v>119.251044293341</v>
       </c>
       <c r="E313" t="n">
-        <v>33</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -6864,10 +6864,10 @@
         <v>6</v>
       </c>
       <c r="D314" t="n">
-        <v>14.23961507701993</v>
+        <v>86.25670877187301</v>
       </c>
       <c r="E314" t="n">
-        <v>232835</v>
+        <v>32886</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -6881,10 +6881,10 @@
         <v>6</v>
       </c>
       <c r="D315" t="n">
-        <v>39.64903405226161</v>
+        <v>114.7646732755379</v>
       </c>
       <c r="E315" t="n">
-        <v>38599</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -6898,10 +6898,10 @@
         <v>6</v>
       </c>
       <c r="D316" t="n">
-        <v>31.39977000622621</v>
+        <v>121.4201933586673</v>
       </c>
       <c r="E316" t="n">
-        <v>106248</v>
+        <v>825</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -6915,10 +6915,10 @@
         <v>11</v>
       </c>
       <c r="D317" t="n">
-        <v>78.03363814275785</v>
+        <v>120.9411164677549</v>
       </c>
       <c r="E317" t="n">
-        <v>19</v>
+        <v>884</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -6932,10 +6932,10 @@
         <v>11</v>
       </c>
       <c r="D318" t="n">
-        <v>75.63048234296687</v>
+        <v>111.6957733618616</v>
       </c>
       <c r="E318" t="n">
-        <v>36</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -6949,10 +6949,10 @@
         <v>6</v>
       </c>
       <c r="D319" t="n">
-        <v>62.72370010356556</v>
+        <v>124.857257229379</v>
       </c>
       <c r="E319" t="n">
-        <v>410</v>
+        <v>532</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -6966,10 +6966,10 @@
         <v>6</v>
       </c>
       <c r="D320" t="n">
-        <v>82.90504914596637</v>
+        <v>161.9913379883046</v>
       </c>
       <c r="E320" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -6983,10 +6983,10 @@
         <v>6</v>
       </c>
       <c r="D321" t="n">
-        <v>74.44630640144591</v>
+        <v>110.0615045121582</v>
       </c>
       <c r="E321" t="n">
-        <v>46</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -7000,10 +7000,10 @@
         <v>11</v>
       </c>
       <c r="D322" t="n">
-        <v>54.70896404256862</v>
+        <v>87.90316560403578</v>
       </c>
       <c r="E322" t="n">
-        <v>1819</v>
+        <v>27931</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -7017,10 +7017,10 @@
         <v>11</v>
       </c>
       <c r="D323" t="n">
-        <v>74.32301035257453</v>
+        <v>104.231522744282</v>
       </c>
       <c r="E323" t="n">
-        <v>49</v>
+        <v>5695</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -7034,10 +7034,10 @@
         <v>6</v>
       </c>
       <c r="D324" t="n">
-        <v>76.45917378916135</v>
+        <v>111.0891359908723</v>
       </c>
       <c r="E324" t="n">
-        <v>32</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -7051,10 +7051,10 @@
         <v>6</v>
       </c>
       <c r="D325" t="n">
-        <v>83.19481262226263</v>
+        <v>112.6581004490352</v>
       </c>
       <c r="E325" t="n">
-        <v>4</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -7068,10 +7068,10 @@
         <v>11</v>
       </c>
       <c r="D326" t="n">
-        <v>74.40041822368278</v>
+        <v>109.4703592832975</v>
       </c>
       <c r="E326" t="n">
-        <v>48</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -7085,10 +7085,10 @@
         <v>6</v>
       </c>
       <c r="D327" t="n">
-        <v>87.84792897179051</v>
+        <v>121.6701435574301</v>
       </c>
       <c r="E327" t="n">
-        <v>2</v>
+        <v>801</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -7102,10 +7102,10 @@
         <v>6</v>
       </c>
       <c r="D328" t="n">
-        <v>72.00524234398355</v>
+        <v>115.5850120570641</v>
       </c>
       <c r="E328" t="n">
-        <v>78</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -7119,10 +7119,10 @@
         <v>6</v>
       </c>
       <c r="D329" t="n">
-        <v>58.65662875898207</v>
+        <v>101.710606805481</v>
       </c>
       <c r="E329" t="n">
-        <v>841</v>
+        <v>7216</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -7136,10 +7136,10 @@
         <v>6</v>
       </c>
       <c r="D330" t="n">
-        <v>38.32919503471231</v>
+        <v>124.7322398162435</v>
       </c>
       <c r="E330" t="n">
-        <v>46983</v>
+        <v>544</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -7153,10 +7153,10 @@
         <v>6</v>
       </c>
       <c r="D331" t="n">
-        <v>72.86112493887381</v>
+        <v>106.4195455471612</v>
       </c>
       <c r="E331" t="n">
-        <v>61</v>
+        <v>4563</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -7170,10 +7170,10 @@
         <v>6</v>
       </c>
       <c r="D332" t="n">
-        <v>66.54692447802988</v>
+        <v>101.799952433845</v>
       </c>
       <c r="E332" t="n">
-        <v>210</v>
+        <v>7143</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -7187,10 +7187,10 @@
         <v>6</v>
       </c>
       <c r="D333" t="n">
-        <v>60.65245899351419</v>
+        <v>100.6029556976639</v>
       </c>
       <c r="E333" t="n">
-        <v>603</v>
+        <v>8016</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -7204,10 +7204,10 @@
         <v>6</v>
       </c>
       <c r="D334" t="n">
-        <v>72.01794749476564</v>
+        <v>106.248545225796</v>
       </c>
       <c r="E334" t="n">
-        <v>77</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -7221,10 +7221,10 @@
         <v>6</v>
       </c>
       <c r="D335" t="n">
-        <v>51.51162838901016</v>
+        <v>150.6927007620561</v>
       </c>
       <c r="E335" t="n">
-        <v>3753</v>
+        <v>4</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -7238,10 +7238,10 @@
         <v>6</v>
       </c>
       <c r="D336" t="n">
-        <v>79.39262192548523</v>
+        <v>110.4382557723549</v>
       </c>
       <c r="E336" t="n">
-        <v>8</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -7255,10 +7255,10 @@
         <v>6</v>
       </c>
       <c r="D337" t="n">
-        <v>38.78650939721689</v>
+        <v>136.333566066149</v>
       </c>
       <c r="E337" t="n">
-        <v>44037</v>
+        <v>81</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -7272,10 +7272,10 @@
         <v>6</v>
       </c>
       <c r="D338" t="n">
-        <v>44.10676163435757</v>
+        <v>130.9235953080278</v>
       </c>
       <c r="E338" t="n">
-        <v>17361</v>
+        <v>215</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -7289,10 +7289,10 @@
         <v>6</v>
       </c>
       <c r="D339" t="n">
-        <v>51.37139373557426</v>
+        <v>142.1655202995078</v>
       </c>
       <c r="E339" t="n">
-        <v>3870</v>
+        <v>23</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -7306,10 +7306,10 @@
         <v>6</v>
       </c>
       <c r="D340" t="n">
-        <v>67.56171227423903</v>
+        <v>165.4322374635804</v>
       </c>
       <c r="E340" t="n">
-        <v>166</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -7323,10 +7323,10 @@
         <v>6</v>
       </c>
       <c r="D341" t="n">
-        <v>43.50207516313127</v>
+        <v>138.617619303316</v>
       </c>
       <c r="E341" t="n">
-        <v>19482</v>
+        <v>51</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -7340,10 +7340,10 @@
         <v>6</v>
       </c>
       <c r="D342" t="n">
-        <v>37.70048682181456</v>
+        <v>138.784801928571</v>
       </c>
       <c r="E342" t="n">
-        <v>51551</v>
+        <v>49</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -7357,10 +7357,10 @@
         <v>6</v>
       </c>
       <c r="D343" t="n">
-        <v>28.69499056643371</v>
+        <v>106.7052611566686</v>
       </c>
       <c r="E343" t="n">
-        <v>131058</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -7374,10 +7374,10 @@
         <v>11</v>
       </c>
       <c r="D344" t="n">
-        <v>26.51656493717926</v>
+        <v>61.52437015998138</v>
       </c>
       <c r="E344" t="n">
-        <v>3725</v>
+        <v>60971</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -7391,10 +7391,10 @@
         <v>6</v>
       </c>
       <c r="D345" t="n">
-        <v>28.06708371336371</v>
+        <v>72.08147330534611</v>
       </c>
       <c r="E345" t="n">
-        <v>2094</v>
+        <v>9627</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -7408,10 +7408,10 @@
         <v>6</v>
       </c>
       <c r="D346" t="n">
-        <v>23.41904298398724</v>
+        <v>80.20711556346868</v>
       </c>
       <c r="E346" t="n">
-        <v>10250</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -7425,10 +7425,10 @@
         <v>11</v>
       </c>
       <c r="D347" t="n">
-        <v>33.9543159191773</v>
+        <v>84.55961961068031</v>
       </c>
       <c r="E347" t="n">
-        <v>190</v>
+        <v>283</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -7442,10 +7442,10 @@
         <v>11</v>
       </c>
       <c r="D348" t="n">
-        <v>33.89651583302726</v>
+        <v>84.72543271156056</v>
       </c>
       <c r="E348" t="n">
-        <v>198</v>
+        <v>268</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -7459,10 +7459,10 @@
         <v>6</v>
       </c>
       <c r="D349" t="n">
-        <v>25.09265167417855</v>
+        <v>76.73738345023814</v>
       </c>
       <c r="E349" t="n">
-        <v>5970</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -7476,10 +7476,10 @@
         <v>6</v>
       </c>
       <c r="D350" t="n">
-        <v>16.67116762459398</v>
+        <v>71.64102470877529</v>
       </c>
       <c r="E350" t="n">
-        <v>61976</v>
+        <v>10629</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -7493,10 +7493,10 @@
         <v>6</v>
       </c>
       <c r="D351" t="n">
-        <v>27.23133005242014</v>
+        <v>74.51842642541351</v>
       </c>
       <c r="E351" t="n">
-        <v>2852</v>
+        <v>5478</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -7510,10 +7510,10 @@
         <v>11</v>
       </c>
       <c r="D352" t="n">
-        <v>49.8461556835288</v>
+        <v>75.91992264206743</v>
       </c>
       <c r="E352" t="n">
-        <v>1</v>
+        <v>3879</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -7527,10 +7527,10 @@
         <v>6</v>
       </c>
       <c r="D353" t="n">
-        <v>17.04803885743802</v>
+        <v>70.52996177559781</v>
       </c>
       <c r="E353" t="n">
-        <v>56958</v>
+        <v>13453</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -7544,10 +7544,10 @@
         <v>6</v>
       </c>
       <c r="D354" t="n">
-        <v>48.99490083922688</v>
+        <v>66.25073231698045</v>
       </c>
       <c r="E354" t="n">
-        <v>3</v>
+        <v>30484</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -7561,10 +7561,10 @@
         <v>6</v>
       </c>
       <c r="D355" t="n">
-        <v>47.06217841003541</v>
+        <v>72.2422812274354</v>
       </c>
       <c r="E355" t="n">
-        <v>5</v>
+        <v>9324</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -7578,10 +7578,10 @@
         <v>6</v>
       </c>
       <c r="D356" t="n">
-        <v>39.59022212430217</v>
+        <v>72.68589735589359</v>
       </c>
       <c r="E356" t="n">
-        <v>20</v>
+        <v>8432</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -7595,10 +7595,10 @@
         <v>6</v>
       </c>
       <c r="D357" t="n">
-        <v>26.18813989720319</v>
+        <v>76.91292103856449</v>
       </c>
       <c r="E357" t="n">
-        <v>4147</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -7612,10 +7612,10 @@
         <v>6</v>
       </c>
       <c r="D358" t="n">
-        <v>27.81882159114704</v>
+        <v>79.91048038255045</v>
       </c>
       <c r="E358" t="n">
-        <v>2278</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -7629,10 +7629,10 @@
         <v>6</v>
       </c>
       <c r="D359" t="n">
-        <v>39.77822213008819</v>
+        <v>93.28590149393014</v>
       </c>
       <c r="E359" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -7646,10 +7646,10 @@
         <v>6</v>
       </c>
       <c r="D360" t="n">
-        <v>49.38414717065322</v>
+        <v>73.26308569321465</v>
       </c>
       <c r="E360" t="n">
-        <v>2</v>
+        <v>7425</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -7663,10 +7663,10 @@
         <v>6</v>
       </c>
       <c r="D361" t="n">
-        <v>23.57400319074343</v>
+        <v>63.50469638539339</v>
       </c>
       <c r="E361" t="n">
-        <v>9738</v>
+        <v>46578</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -7680,10 +7680,10 @@
         <v>6</v>
       </c>
       <c r="D362" t="n">
-        <v>29.1512734766026</v>
+        <v>73.45004509023661</v>
       </c>
       <c r="E362" t="n">
-        <v>1373</v>
+        <v>7142</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -7697,10 +7697,10 @@
         <v>6</v>
       </c>
       <c r="D363" t="n">
-        <v>40.90088839281951</v>
+        <v>38.01523666379232</v>
       </c>
       <c r="E363" t="n">
-        <v>15</v>
+        <v>224635</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -7714,10 +7714,10 @@
         <v>6</v>
       </c>
       <c r="D364" t="n">
-        <v>12.38172636707153</v>
+        <v>29.6987853501225</v>
       </c>
       <c r="E364" t="n">
-        <v>131465</v>
+        <v>251221</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -7731,10 +7731,10 @@
         <v>6</v>
       </c>
       <c r="D365" t="n">
-        <v>7.115544946154124</v>
+        <v>47.50433127308639</v>
       </c>
       <c r="E365" t="n">
-        <v>223193</v>
+        <v>177411</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -7748,10 +7748,10 @@
         <v>6</v>
       </c>
       <c r="D366" t="n">
-        <v>22.05207545233021</v>
+        <v>71.56231810617864</v>
       </c>
       <c r="E366" t="n">
-        <v>15696</v>
+        <v>10803</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -7765,10 +7765,10 @@
         <v>6</v>
       </c>
       <c r="D367" t="n">
-        <v>23.4845296249758</v>
+        <v>73.32669838651263</v>
       </c>
       <c r="E367" t="n">
-        <v>10045</v>
+        <v>7322</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -7782,10 +7782,10 @@
         <v>6</v>
       </c>
       <c r="D368" t="n">
-        <v>17.00246810609428</v>
+        <v>65.98518707706768</v>
       </c>
       <c r="E368" t="n">
-        <v>57473</v>
+        <v>31842</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -7799,10 +7799,10 @@
         <v>6</v>
       </c>
       <c r="D369" t="n">
-        <v>42.62698460308244</v>
+        <v>60.23718445118489</v>
       </c>
       <c r="E369" t="n">
-        <v>9</v>
+        <v>71864</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -7816,10 +7816,10 @@
         <v>6</v>
       </c>
       <c r="D370" t="n">
-        <v>14.20024742666169</v>
+        <v>40.22603462187426</v>
       </c>
       <c r="E370" t="n">
-        <v>99374</v>
+        <v>215735</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -7833,10 +7833,10 @@
         <v>6</v>
       </c>
       <c r="D371" t="n">
-        <v>17.85952840535456</v>
+        <v>58.16545568041589</v>
       </c>
       <c r="E371" t="n">
-        <v>47249</v>
+        <v>89892</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -7850,10 +7850,10 @@
         <v>6</v>
       </c>
       <c r="D372" t="n">
-        <v>48.56756126751534</v>
+        <v>59.37363273541618</v>
       </c>
       <c r="E372" t="n">
-        <v>4</v>
+        <v>79106</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -7867,10 +7867,10 @@
         <v>6</v>
       </c>
       <c r="D373" t="n">
-        <v>36.7793223252072</v>
+        <v>54.91191644967617</v>
       </c>
       <c r="E373" t="n">
-        <v>73</v>
+        <v>119283</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -7884,10 +7884,10 @@
         <v>6</v>
       </c>
       <c r="D374" t="n">
-        <v>41.51317937176908</v>
+        <v>67.53144040317983</v>
       </c>
       <c r="E374" t="n">
-        <v>12</v>
+        <v>24132</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -7901,10 +7901,10 @@
         <v>11</v>
       </c>
       <c r="D375" t="n">
-        <v>12.43672291601478</v>
+        <v>47.28938000615133</v>
       </c>
       <c r="E375" t="n">
-        <v>130439</v>
+        <v>178766</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -7918,10 +7918,10 @@
         <v>6</v>
       </c>
       <c r="D376" t="n">
-        <v>23.79526904657266</v>
+        <v>58.01688584783481</v>
       </c>
       <c r="E376" t="n">
-        <v>9071</v>
+        <v>91174</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -7935,10 +7935,10 @@
         <v>6</v>
       </c>
       <c r="D377" t="n">
-        <v>27.60951775133297</v>
+        <v>76.94678705037941</v>
       </c>
       <c r="E377" t="n">
-        <v>2431</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -7952,10 +7952,10 @@
         <v>6</v>
       </c>
       <c r="D378" t="n">
-        <v>30.49784122046125</v>
+        <v>79.6107496988139</v>
       </c>
       <c r="E378" t="n">
-        <v>837</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -7969,10 +7969,10 @@
         <v>6</v>
       </c>
       <c r="D379" t="n">
-        <v>36.19500630237402</v>
+        <v>80.99512795955293</v>
       </c>
       <c r="E379" t="n">
-        <v>88</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -7986,10 +7986,10 @@
         <v>11</v>
       </c>
       <c r="D380" t="n">
-        <v>30.51660468851517</v>
+        <v>56.26237392816894</v>
       </c>
       <c r="E380" t="n">
-        <v>827</v>
+        <v>107385</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -8003,10 +8003,10 @@
         <v>6</v>
       </c>
       <c r="D381" t="n">
-        <v>43.20184418476947</v>
+        <v>59.30053265050163</v>
       </c>
       <c r="E381" t="n">
-        <v>8</v>
+        <v>79764</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -8020,10 +8020,10 @@
         <v>6</v>
       </c>
       <c r="D382" t="n">
-        <v>16.70546732129954</v>
+        <v>61.07859056062035</v>
       </c>
       <c r="E382" t="n">
-        <v>61564</v>
+        <v>64455</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -8037,10 +8037,10 @@
         <v>6</v>
       </c>
       <c r="D383" t="n">
-        <v>38.66519308633286</v>
+        <v>41.35269028914671</v>
       </c>
       <c r="E383" t="n">
-        <v>29</v>
+        <v>210748</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -8054,10 +8054,10 @@
         <v>6</v>
       </c>
       <c r="D384" t="n">
-        <v>37.25459100987633</v>
+        <v>28.87541011952182</v>
       </c>
       <c r="E384" t="n">
-        <v>55</v>
+        <v>253518</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -8071,10 +8071,10 @@
         <v>6</v>
       </c>
       <c r="D385" t="n">
-        <v>43.5548431345353</v>
+        <v>60.07256981825606</v>
       </c>
       <c r="E385" t="n">
-        <v>7</v>
+        <v>73295</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -8088,10 +8088,10 @@
         <v>6</v>
       </c>
       <c r="D386" t="n">
-        <v>15.5450843266493</v>
+        <v>64.02122113774472</v>
       </c>
       <c r="E386" t="n">
-        <v>77953</v>
+        <v>43343</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -8105,10 +8105,10 @@
         <v>11</v>
       </c>
       <c r="D387" t="n">
-        <v>15.48895422396966</v>
+        <v>62.07542497043259</v>
       </c>
       <c r="E387" t="n">
-        <v>78798</v>
+        <v>56726</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -8122,10 +8122,10 @@
         <v>6</v>
       </c>
       <c r="D388" t="n">
-        <v>20.68903956333053</v>
+        <v>71.03808133090909</v>
       </c>
       <c r="E388" t="n">
-        <v>23084</v>
+        <v>12080</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -8139,10 +8139,10 @@
         <v>6</v>
       </c>
       <c r="D389" t="n">
-        <v>26.13650784190154</v>
+        <v>80.34406064108123</v>
       </c>
       <c r="E389" t="n">
-        <v>4228</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -8156,10 +8156,10 @@
         <v>6</v>
       </c>
       <c r="D390" t="n">
-        <v>14.86010229105173</v>
+        <v>49.02186516287636</v>
       </c>
       <c r="E390" t="n">
-        <v>88616</v>
+        <v>167030</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -8173,10 +8173,10 @@
         <v>6</v>
       </c>
       <c r="D391" t="n">
-        <v>19.37173430152278</v>
+        <v>53.88403030264835</v>
       </c>
       <c r="E391" t="n">
-        <v>32827</v>
+        <v>128388</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -8190,10 +8190,10 @@
         <v>11</v>
       </c>
       <c r="D392" t="n">
-        <v>26.48055742153799</v>
+        <v>56.78006562127679</v>
       </c>
       <c r="E392" t="n">
-        <v>3759</v>
+        <v>102610</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -8207,10 +8207,10 @@
         <v>6</v>
       </c>
       <c r="D393" t="n">
-        <v>9.444908763246591</v>
+        <v>32.41113654265452</v>
       </c>
       <c r="E393" t="n">
-        <v>184949</v>
+        <v>243356</v>
       </c>
     </row>
   </sheetData>
@@ -8287,25 +8287,25 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.36</v>
       </c>
-      <c r="I2" t="n">
-        <v>0.26</v>
-      </c>
       <c r="J2" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="K2" t="n">
-        <v>0.056</v>
+        <v>0.058</v>
       </c>
       <c r="L2" t="n">
-        <v>0.033</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8328,22 +8328,22 @@
         <v>0.2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H3" t="n">
-        <v>0.28</v>
+        <v>0.12</v>
       </c>
       <c r="I3" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K3" t="n">
-        <v>0.032</v>
+        <v>0.026</v>
       </c>
       <c r="L3" t="n">
-        <v>0.017</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -8363,7 +8363,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0.8</v>
@@ -8372,16 +8372,16 @@
         <v>0.64</v>
       </c>
       <c r="I4" t="n">
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
       <c r="J4" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -8401,25 +8401,25 @@
         <v>0.0263</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0526</v>
+        <v>0.1053</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0789</v>
+        <v>0.1579</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2368</v>
+        <v>0.3421</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3421</v>
+        <v>0.4737</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5526</v>
+        <v>0.5789</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7368</v>
+        <v>0.7632</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8683999999999999</v>
+        <v>0.8158</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -8442,22 +8442,22 @@
         <v>0.0526</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2632</v>
+        <v>0.1053</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3684</v>
+        <v>0.1579</v>
       </c>
       <c r="I6" t="n">
+        <v>0.3158</v>
+      </c>
+      <c r="J6" t="n">
         <v>0.4211</v>
       </c>
-      <c r="J6" t="n">
-        <v>0.5263</v>
-      </c>
       <c r="K6" t="n">
-        <v>0.8421</v>
+        <v>0.6842</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8947000000000001</v>
+        <v>0.6842</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -8477,7 +8477,7 @@
         <v>0.0175</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0526</v>
+        <v>0.0877</v>
       </c>
       <c r="G7" t="n">
         <v>0.1404</v>
@@ -8486,16 +8486,16 @@
         <v>0.2807</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3684</v>
+        <v>0.4211</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5439000000000001</v>
+        <v>0.5263</v>
       </c>
       <c r="K7" t="n">
+        <v>0.7368</v>
+      </c>
+      <c r="L7" t="n">
         <v>0.7719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.8772</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8515,25 +8515,25 @@
         <v>0.0513</v>
       </c>
       <c r="F8" t="n">
-        <v>0.093</v>
+        <v>0.1861</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1249</v>
+        <v>0.25</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2857</v>
+        <v>0.4127</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2955</v>
+        <v>0.4091</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3043</v>
+        <v>0.3188</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1041</v>
+        <v>0.1078</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0636</v>
+        <v>0.0597</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8556,22 +8556,22 @@
         <v>0.0833</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3449</v>
+        <v>0.138</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3182</v>
+        <v>0.1364</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2319</v>
+        <v>0.1739</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1681</v>
+        <v>0.1345</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0617</v>
+        <v>0.0501</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0334</v>
+        <v>0.0255</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -8591,7 +8591,7 @@
         <v>0.0344</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09669999999999999</v>
+        <v>0.1613</v>
       </c>
       <c r="G10" t="n">
         <v>0.2389</v>
@@ -8600,16 +8600,16 @@
         <v>0.3902</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3925</v>
+        <v>0.4486</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3949</v>
+        <v>0.3822</v>
       </c>
       <c r="K10" t="n">
-        <v>0.158</v>
+        <v>0.1508</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0946</v>
+        <v>0.0833</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8626,28 +8626,28 @@
         <v>387</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H11" t="n">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="K11" t="n">
-        <v>0.022</v>
+        <v>0.034</v>
       </c>
       <c r="L11" t="n">
-        <v>0.015</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8664,28 +8664,28 @@
         <v>387</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="J12" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="K12" t="n">
-        <v>0.022</v>
+        <v>0.02</v>
       </c>
       <c r="L12" t="n">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -8708,22 +8708,22 @@
         <v>0.6</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="I13" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="J13" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="K13" t="n">
-        <v>0.044</v>
+        <v>0.054</v>
       </c>
       <c r="L13" t="n">
-        <v>0.028</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -8740,28 +8740,28 @@
         <v>387</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="I14" t="n">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K14" t="n">
-        <v>0.44</v>
+        <v>0.68</v>
       </c>
       <c r="L14" t="n">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -8778,28 +8778,28 @@
         <v>387</v>
       </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.0294</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
         <v>0.0588</v>
       </c>
-      <c r="G15" t="n">
-        <v>0.0588</v>
-      </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>0.0882</v>
       </c>
-      <c r="I15" t="n">
-        <v>0.1176</v>
-      </c>
       <c r="J15" t="n">
-        <v>0.2353</v>
+        <v>0.1765</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3235</v>
+        <v>0.2941</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3824</v>
+        <v>0.3529</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -8822,22 +8822,22 @@
         <v>0.0508</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0678</v>
+        <v>0.0847</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0847</v>
+        <v>0.1356</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1186</v>
+        <v>0.1525</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2203</v>
+        <v>0.2712</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3729</v>
+        <v>0.4576</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4746</v>
+        <v>0.5085</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -8854,28 +8854,28 @@
         <v>387</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.0769</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0667</v>
+        <v>0.2</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1143</v>
+        <v>0.2286</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="I17" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="J17" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0419</v>
+        <v>0.0648</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0293</v>
+        <v>0.0351</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -8892,28 +8892,28 @@
         <v>387</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0571</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1025</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.0454</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1017</v>
+        <v>0.0678</v>
       </c>
       <c r="I18" t="n">
-        <v>0.09520000000000001</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1194</v>
+        <v>0.0896</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0412</v>
+        <v>0.0375</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0251</v>
+        <v>0.0232</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -8936,22 +8936,22 @@
         <v>0.09370000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1159</v>
+        <v>0.1449</v>
       </c>
       <c r="H19" t="n">
-        <v>0.119</v>
+        <v>0.1905</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1284</v>
+        <v>0.1651</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1635</v>
+        <v>0.2013</v>
       </c>
       <c r="K19" t="n">
-        <v>0.07870000000000001</v>
+        <v>0.09660000000000001</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0529</v>
+        <v>0.0567</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -8968,22 +8968,22 @@
         <v>387</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="I20" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="J20" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K20" t="n">
         <v>0.02</v>
@@ -9009,25 +9009,25 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="I21" t="n">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="K21" t="n">
-        <v>0.044</v>
+        <v>0.034</v>
       </c>
       <c r="L21" t="n">
-        <v>0.024</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -9044,28 +9044,28 @@
         <v>387</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H22" t="n">
         <v>0.44</v>
       </c>
       <c r="I22" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
       <c r="J22" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="K22" t="n">
-        <v>0.064</v>
+        <v>0.054</v>
       </c>
       <c r="L22" t="n">
-        <v>0.034</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -9082,22 +9082,22 @@
         <v>387</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>0.1</v>
       </c>
-      <c r="F23" t="n">
-        <v>0.3</v>
-      </c>
       <c r="G23" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H23" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -9123,25 +9123,25 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
+        <v>0.0357</v>
+      </c>
+      <c r="G24" t="n">
         <v>0.07140000000000001</v>
       </c>
-      <c r="G24" t="n">
-        <v>0.1071</v>
-      </c>
       <c r="H24" t="n">
+        <v>0.1429</v>
+      </c>
+      <c r="I24" t="n">
         <v>0.1786</v>
       </c>
-      <c r="I24" t="n">
-        <v>0.2857</v>
-      </c>
       <c r="J24" t="n">
-        <v>0.4643</v>
+        <v>0.3214</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7857</v>
+        <v>0.6071</v>
       </c>
       <c r="L24" t="n">
-        <v>0.8571</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -9158,28 +9158,28 @@
         <v>387</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0263</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1316</v>
+        <v>0.0526</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1842</v>
+        <v>0.0789</v>
       </c>
       <c r="H25" t="n">
         <v>0.2895</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4474</v>
+        <v>0.3158</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5789</v>
+        <v>0.4211</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8421</v>
+        <v>0.7105</v>
       </c>
       <c r="L25" t="n">
-        <v>0.8947000000000001</v>
+        <v>0.8158</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -9196,22 +9196,22 @@
         <v>387</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1818</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>0.1333</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H26" t="n">
         <v>0.4</v>
       </c>
-      <c r="G26" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.3429</v>
-      </c>
       <c r="I26" t="n">
-        <v>0.3</v>
+        <v>0.2333</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1636</v>
+        <v>0.1273</v>
       </c>
       <c r="K26" t="n">
         <v>0.0392</v>
@@ -9237,25 +9237,25 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1212</v>
+        <v>0.0606</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1578</v>
+        <v>0.1052</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1887</v>
+        <v>0.151</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2051</v>
+        <v>0.1282</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2031</v>
+        <v>0.1406</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0833</v>
+        <v>0.0644</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0467</v>
+        <v>0.0409</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -9272,28 +9272,28 @@
         <v>387</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0513</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2326</v>
+        <v>0.093</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2917</v>
+        <v>0.1249</v>
       </c>
       <c r="H28" t="n">
         <v>0.3492</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3864</v>
+        <v>0.2727</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3188</v>
+        <v>0.2319</v>
       </c>
       <c r="K28" t="n">
-        <v>0.119</v>
+        <v>0.1004</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0655</v>
+        <v>0.0597</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -9310,22 +9310,22 @@
         <v>387</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="I29" t="n">
         <v>0.14</v>
       </c>
       <c r="J29" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="K29" t="n">
         <v>0.024</v>
@@ -9351,7 +9351,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G30" t="n">
         <v>0.5</v>
@@ -9360,13 +9360,13 @@
         <v>0.28</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="J30" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="K30" t="n">
-        <v>0.038</v>
+        <v>0.044</v>
       </c>
       <c r="L30" t="n">
         <v>0.023</v>
@@ -9386,25 +9386,25 @@
         <v>387</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0.6</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="I31" t="n">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="K31" t="n">
-        <v>0.062</v>
+        <v>0.068</v>
       </c>
       <c r="L31" t="n">
         <v>0.035</v>
@@ -9424,22 +9424,22 @@
         <v>387</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0833</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0833</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1667</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4167</v>
+        <v>0.25</v>
       </c>
       <c r="I32" t="n">
         <v>0.5833</v>
       </c>
       <c r="J32" t="n">
-        <v>0.5833</v>
+        <v>0.9167</v>
       </c>
       <c r="K32" t="n">
         <v>1</v>
@@ -9465,7 +9465,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0606</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="G33" t="n">
         <v>0.1515</v>
@@ -9474,13 +9474,13 @@
         <v>0.2121</v>
       </c>
       <c r="I33" t="n">
-        <v>0.303</v>
+        <v>0.3333</v>
       </c>
       <c r="J33" t="n">
-        <v>0.3939</v>
+        <v>0.4545</v>
       </c>
       <c r="K33" t="n">
-        <v>0.5758</v>
+        <v>0.6667</v>
       </c>
       <c r="L33" t="n">
         <v>0.697</v>
@@ -9500,25 +9500,25 @@
         <v>387</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0222</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0.0667</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1556</v>
+        <v>0.1111</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2667</v>
+        <v>0.2222</v>
       </c>
       <c r="I34" t="n">
-        <v>0.3778</v>
+        <v>0.4</v>
       </c>
       <c r="J34" t="n">
-        <v>0.4444</v>
+        <v>0.5778</v>
       </c>
       <c r="K34" t="n">
-        <v>0.6889</v>
+        <v>0.7556</v>
       </c>
       <c r="L34" t="n">
         <v>0.7778</v>
@@ -9538,22 +9538,22 @@
         <v>387</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1538</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1176</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1818</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2703</v>
+        <v>0.1622</v>
       </c>
       <c r="I35" t="n">
         <v>0.2258</v>
       </c>
       <c r="J35" t="n">
-        <v>0.125</v>
+        <v>0.1964</v>
       </c>
       <c r="K35" t="n">
         <v>0.0469</v>
@@ -9579,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1053</v>
+        <v>0.1579</v>
       </c>
       <c r="G36" t="n">
         <v>0.2325</v>
@@ -9588,13 +9588,13 @@
         <v>0.2414</v>
       </c>
       <c r="I36" t="n">
-        <v>0.241</v>
+        <v>0.265</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1955</v>
+        <v>0.2256</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0713</v>
+        <v>0.08260000000000001</v>
       </c>
       <c r="L36" t="n">
         <v>0.0445</v>
@@ -9614,25 +9614,25 @@
         <v>387</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0434</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0.1201</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2546</v>
+        <v>0.1818</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3429</v>
+        <v>0.2857</v>
       </c>
       <c r="I37" t="n">
-        <v>0.3579</v>
+        <v>0.3789</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2759</v>
+        <v>0.3586</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1138</v>
+        <v>0.1248</v>
       </c>
       <c r="L37" t="n">
         <v>0.067</v>
@@ -9655,25 +9655,25 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H38" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I38" t="n">
         <v>0.08</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>0.06</v>
       </c>
-      <c r="J38" t="n">
-        <v>0.04</v>
-      </c>
       <c r="K38" t="n">
-        <v>0.014</v>
+        <v>0.012</v>
       </c>
       <c r="L38" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -9693,16 +9693,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H39" t="n">
         <v>0.2</v>
       </c>
-      <c r="G39" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.16</v>
-      </c>
       <c r="I39" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="J39" t="n">
         <v>0.06</v>
@@ -9734,22 +9734,22 @@
         <v>0.6</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H40" t="n">
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
       <c r="I40" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="K40" t="n">
-        <v>0.032</v>
+        <v>0.03</v>
       </c>
       <c r="L40" t="n">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -9769,25 +9769,25 @@
         <v>0.1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I41" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J41" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="K41" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="L41" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -9807,16 +9807,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0526</v>
+        <v>0.1053</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2105</v>
+        <v>0.1579</v>
       </c>
       <c r="H42" t="n">
-        <v>0.2105</v>
+        <v>0.2632</v>
       </c>
       <c r="I42" t="n">
-        <v>0.2632</v>
+        <v>0.3158</v>
       </c>
       <c r="J42" t="n">
         <v>0.3158</v>
@@ -9848,22 +9848,22 @@
         <v>0.1034</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2069</v>
+        <v>0.1379</v>
       </c>
       <c r="H43" t="n">
-        <v>0.2069</v>
+        <v>0.3103</v>
       </c>
       <c r="I43" t="n">
-        <v>0.2759</v>
+        <v>0.3448</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3448</v>
+        <v>0.4138</v>
       </c>
       <c r="K43" t="n">
+        <v>0.5172</v>
+      </c>
+      <c r="L43" t="n">
         <v>0.5517</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.5862000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -9883,25 +9883,25 @@
         <v>0.1818</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2667</v>
+        <v>0.1333</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1143</v>
+        <v>0.2286</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1</v>
+        <v>0.1333</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0727</v>
+        <v>0.1091</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0275</v>
+        <v>0.0235</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0139</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -9921,16 +9921,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0833</v>
+        <v>0.1667</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2758</v>
+        <v>0.2069</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1818</v>
+        <v>0.2273</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1449</v>
+        <v>0.1739</v>
       </c>
       <c r="J45" t="n">
         <v>0.1008</v>
@@ -9962,22 +9962,22 @@
         <v>0.1764</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3077</v>
+        <v>0.2051</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2222</v>
+        <v>0.3333</v>
       </c>
       <c r="I46" t="n">
-        <v>0.2025</v>
+        <v>0.2532</v>
       </c>
       <c r="J46" t="n">
-        <v>0.155</v>
+        <v>0.186</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0605</v>
+        <v>0.0567</v>
       </c>
       <c r="L46" t="n">
-        <v>0.033</v>
+        <v>0.0311</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -9994,28 +9994,28 @@
         <v>387</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H47" t="n">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="J47" t="n">
         <v>0.1</v>
       </c>
       <c r="K47" t="n">
-        <v>0.026</v>
+        <v>0.024</v>
       </c>
       <c r="L47" t="n">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -10035,25 +10035,25 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="I48" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="J48" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="K48" t="n">
-        <v>0.02</v>
+        <v>0.016</v>
       </c>
       <c r="L48" t="n">
-        <v>0.012</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -10070,28 +10070,28 @@
         <v>387</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H49" t="n">
         <v>0.4</v>
       </c>
-      <c r="G49" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.24</v>
-      </c>
       <c r="I49" t="n">
-        <v>0.18</v>
+        <v>0.28</v>
       </c>
       <c r="J49" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="K49" t="n">
-        <v>0.046</v>
+        <v>0.04</v>
       </c>
       <c r="L49" t="n">
-        <v>0.025</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -10108,28 +10108,28 @@
         <v>387</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>0.2143</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1429</v>
+        <v>0.3571</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2143</v>
+        <v>0.4286</v>
       </c>
       <c r="I50" t="n">
-        <v>0.3571</v>
+        <v>0.6429</v>
       </c>
       <c r="J50" t="n">
         <v>0.7143</v>
       </c>
       <c r="K50" t="n">
-        <v>0.9286</v>
+        <v>0.8571</v>
       </c>
       <c r="L50" t="n">
-        <v>0.9286</v>
+        <v>0.8571</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -10149,25 +10149,25 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1176</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1176</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1765</v>
+        <v>0.2353</v>
       </c>
       <c r="I51" t="n">
-        <v>0.2353</v>
+        <v>0.2941</v>
       </c>
       <c r="J51" t="n">
-        <v>0.3529</v>
+        <v>0.2941</v>
       </c>
       <c r="K51" t="n">
-        <v>0.5881999999999999</v>
+        <v>0.4706</v>
       </c>
       <c r="L51" t="n">
-        <v>0.7059</v>
+        <v>0.4706</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -10184,28 +10184,28 @@
         <v>387</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>0.0323</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0645</v>
+        <v>0.0968</v>
       </c>
       <c r="G52" t="n">
-        <v>0.129</v>
+        <v>0.1613</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1935</v>
+        <v>0.3226</v>
       </c>
       <c r="I52" t="n">
-        <v>0.2903</v>
+        <v>0.4516</v>
       </c>
       <c r="J52" t="n">
-        <v>0.5161</v>
+        <v>0.4839</v>
       </c>
       <c r="K52" t="n">
-        <v>0.7419</v>
+        <v>0.6452</v>
       </c>
       <c r="L52" t="n">
-        <v>0.8065</v>
+        <v>0.6452</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -10222,28 +10222,28 @@
         <v>387</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>0.1333</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>0.3158</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1667</v>
+        <v>0.4166</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1538</v>
+        <v>0.3077</v>
       </c>
       <c r="I53" t="n">
-        <v>0.1562</v>
+        <v>0.2813</v>
       </c>
       <c r="J53" t="n">
         <v>0.1754</v>
       </c>
       <c r="K53" t="n">
-        <v>0.0506</v>
+        <v>0.0467</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0256</v>
+        <v>0.0237</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -10263,25 +10263,25 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1818</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1481</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1429</v>
+        <v>0.1905</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1194</v>
+        <v>0.1493</v>
       </c>
       <c r="J54" t="n">
-        <v>0.1026</v>
+        <v>0.08550000000000001</v>
       </c>
       <c r="K54" t="n">
-        <v>0.0387</v>
+        <v>0.0309</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0236</v>
+        <v>0.0157</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -10298,28 +10298,28 @@
         <v>387</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>0.0626</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1111</v>
+        <v>0.1667</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1951</v>
+        <v>0.2439</v>
       </c>
       <c r="H55" t="n">
-        <v>0.2143</v>
+        <v>0.3572</v>
       </c>
       <c r="I55" t="n">
-        <v>0.2222</v>
+        <v>0.3457</v>
       </c>
       <c r="J55" t="n">
-        <v>0.2443</v>
+        <v>0.229</v>
       </c>
       <c r="K55" t="n">
-        <v>0.0866</v>
+        <v>0.07530000000000001</v>
       </c>
       <c r="L55" t="n">
-        <v>0.0485</v>
+        <v>0.0388</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -10336,13 +10336,13 @@
         <v>387</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H56" t="n">
         <v>0.08</v>
@@ -10374,28 +10374,28 @@
         <v>387</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="G57" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H57" t="n">
-        <v>0.52</v>
+        <v>0.24</v>
       </c>
       <c r="I57" t="n">
-        <v>0.34</v>
+        <v>0.12</v>
       </c>
       <c r="J57" t="n">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="K57" t="n">
-        <v>0.04</v>
+        <v>0.018</v>
       </c>
       <c r="L57" t="n">
-        <v>0.02</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -10418,22 +10418,22 @@
         <v>0.8</v>
       </c>
       <c r="G58" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H58" t="n">
-        <v>0.6</v>
+        <v>0.32</v>
       </c>
       <c r="I58" t="n">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="J58" t="n">
-        <v>0.23</v>
+        <v>0.09</v>
       </c>
       <c r="K58" t="n">
-        <v>0.05</v>
+        <v>0.028</v>
       </c>
       <c r="L58" t="n">
-        <v>0.025</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -10450,13 +10450,13 @@
         <v>387</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H59" t="n">
         <v>0.4</v>
@@ -10488,28 +10488,28 @@
         <v>387</v>
       </c>
       <c r="E60" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G60" t="n">
         <v>0.2</v>
       </c>
-      <c r="G60" t="n">
-        <v>0.4</v>
-      </c>
       <c r="H60" t="n">
-        <v>0.65</v>
+        <v>0.3</v>
       </c>
       <c r="I60" t="n">
-        <v>0.85</v>
+        <v>0.3</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -10532,22 +10532,22 @@
         <v>0.16</v>
       </c>
       <c r="G61" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H61" t="n">
         <v>0.32</v>
       </c>
-      <c r="H61" t="n">
-        <v>0.6</v>
-      </c>
       <c r="I61" t="n">
-        <v>0.8</v>
+        <v>0.36</v>
       </c>
       <c r="J61" t="n">
-        <v>0.92</v>
+        <v>0.36</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -10564,13 +10564,13 @@
         <v>387</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>0.2667</v>
       </c>
       <c r="H62" t="n">
         <v>0.1333</v>
@@ -10602,28 +10602,28 @@
         <v>387</v>
       </c>
       <c r="E63" t="n">
-        <v>0.09520000000000001</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
       <c r="G63" t="n">
-        <v>0.5333</v>
+        <v>0.2667</v>
       </c>
       <c r="H63" t="n">
-        <v>0.5778</v>
+        <v>0.2667</v>
       </c>
       <c r="I63" t="n">
-        <v>0.4857</v>
+        <v>0.1714</v>
       </c>
       <c r="J63" t="n">
-        <v>0.3333</v>
+        <v>0.1</v>
       </c>
       <c r="K63" t="n">
-        <v>0.0769</v>
+        <v>0.0346</v>
       </c>
       <c r="L63" t="n">
-        <v>0.0392</v>
+        <v>0.0216</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -10646,22 +10646,22 @@
         <v>0.2667</v>
       </c>
       <c r="G64" t="n">
-        <v>0.4571</v>
+        <v>0.3429</v>
       </c>
       <c r="H64" t="n">
-        <v>0.6</v>
+        <v>0.32</v>
       </c>
       <c r="I64" t="n">
-        <v>0.5333</v>
+        <v>0.24</v>
       </c>
       <c r="J64" t="n">
-        <v>0.368</v>
+        <v>0.144</v>
       </c>
       <c r="K64" t="n">
-        <v>0.09520000000000001</v>
+        <v>0.0533</v>
       </c>
       <c r="L64" t="n">
-        <v>0.0488</v>
+        <v>0.0312</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -10678,28 +10678,28 @@
         <v>387</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="L65" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -10719,25 +10719,25 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="J66" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="K66" t="n">
-        <v>0.03</v>
+        <v>0.002</v>
       </c>
       <c r="L66" t="n">
-        <v>0.016</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -10754,28 +10754,28 @@
         <v>387</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.48</v>
+        <v>0.04</v>
       </c>
       <c r="I67" t="n">
-        <v>0.26</v>
+        <v>0.02</v>
       </c>
       <c r="J67" t="n">
-        <v>0.16</v>
+        <v>0.01</v>
       </c>
       <c r="K67" t="n">
-        <v>0.036</v>
+        <v>0.006</v>
       </c>
       <c r="L67" t="n">
-        <v>0.02</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -10792,28 +10792,28 @@
         <v>387</v>
       </c>
       <c r="E68" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="L68" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -10833,25 +10833,25 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.09520000000000001</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0.1667</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2619</v>
+        <v>0.0238</v>
       </c>
       <c r="I69" t="n">
-        <v>0.2857</v>
+        <v>0.0238</v>
       </c>
       <c r="J69" t="n">
-        <v>0.3571</v>
+        <v>0.0238</v>
       </c>
       <c r="K69" t="n">
-        <v>0.3571</v>
+        <v>0.0238</v>
       </c>
       <c r="L69" t="n">
-        <v>0.381</v>
+        <v>0.0238</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -10868,28 +10868,28 @@
         <v>387</v>
       </c>
       <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
         <v>0.02</v>
       </c>
-      <c r="F70" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.24</v>
-      </c>
       <c r="I70" t="n">
-        <v>0.26</v>
+        <v>0.02</v>
       </c>
       <c r="J70" t="n">
-        <v>0.32</v>
+        <v>0.02</v>
       </c>
       <c r="K70" t="n">
-        <v>0.36</v>
+        <v>0.06</v>
       </c>
       <c r="L70" t="n">
-        <v>0.4</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -10906,28 +10906,28 @@
         <v>387</v>
       </c>
       <c r="E71" t="n">
-        <v>0.2222</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1538</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1111</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0606</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.0345</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0.0185</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0.0118</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="L71" t="n">
-        <v>0.007900000000000001</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -10947,25 +10947,25 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1702</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0.2693</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.3284</v>
+        <v>0.0298</v>
       </c>
       <c r="I72" t="n">
-        <v>0.2609</v>
+        <v>0.0217</v>
       </c>
       <c r="J72" t="n">
-        <v>0.2113</v>
+        <v>0.0141</v>
       </c>
       <c r="K72" t="n">
-        <v>0.0554</v>
+        <v>0.0037</v>
       </c>
       <c r="L72" t="n">
-        <v>0.0307</v>
+        <v>0.0019</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -10982,28 +10982,28 @@
         <v>387</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0392</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1818</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0.2667</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.32</v>
+        <v>0.0267</v>
       </c>
       <c r="I73" t="n">
-        <v>0.26</v>
+        <v>0.02</v>
       </c>
       <c r="J73" t="n">
-        <v>0.2133</v>
+        <v>0.0133</v>
       </c>
       <c r="K73" t="n">
-        <v>0.0655</v>
+        <v>0.0109</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0381</v>
+        <v>0.0057</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -11020,28 +11020,28 @@
         <v>387</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>0.012</v>
+        <v>0.002</v>
       </c>
       <c r="L74" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -11058,28 +11058,28 @@
         <v>387</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H75" t="n">
         <v>0.2</v>
       </c>
       <c r="I75" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="J75" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="K75" t="n">
-        <v>0.036</v>
+        <v>0.024</v>
       </c>
       <c r="L75" t="n">
-        <v>0.02</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -11102,22 +11102,22 @@
         <v>0.8</v>
       </c>
       <c r="G76" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H76" t="n">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="I76" t="n">
-        <v>0.26</v>
+        <v>0.12</v>
       </c>
       <c r="J76" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="K76" t="n">
-        <v>0.048</v>
+        <v>0.026</v>
       </c>
       <c r="L76" t="n">
-        <v>0.026</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -11134,28 +11134,28 @@
         <v>387</v>
       </c>
       <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.1429</v>
       </c>
-      <c r="F77" t="n">
-        <v>0.1429</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0.1429</v>
-      </c>
-      <c r="H77" t="n">
+      <c r="L77" t="n">
         <v>0.2857</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0.7143</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.7143</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.8571</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0.8571</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -11172,28 +11172,28 @@
         <v>387</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>0.0303</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.1212</v>
       </c>
       <c r="G78" t="n">
-        <v>0.1515</v>
+        <v>0.1212</v>
       </c>
       <c r="H78" t="n">
         <v>0.1515</v>
       </c>
       <c r="I78" t="n">
-        <v>0.2424</v>
+        <v>0.1818</v>
       </c>
       <c r="J78" t="n">
+        <v>0.2727</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.3636</v>
       </c>
-      <c r="K78" t="n">
-        <v>0.5455</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.6061</v>
+        <v>0.4848</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -11216,22 +11216,22 @@
         <v>0.1</v>
       </c>
       <c r="G79" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I79" t="n">
         <v>0.15</v>
       </c>
-      <c r="H79" t="n">
-        <v>0.175</v>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.325</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.425</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.6</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -11248,28 +11248,28 @@
         <v>387</v>
       </c>
       <c r="E80" t="n">
-        <v>0.2501</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1667</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0.1177</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0.1754</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0.0935</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0237</v>
+        <v>0.0039</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0119</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -11286,28 +11286,28 @@
         <v>387</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>0.0588</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1579</v>
+        <v>0.2105</v>
       </c>
       <c r="G81" t="n">
-        <v>0.2325</v>
+        <v>0.186</v>
       </c>
       <c r="H81" t="n">
         <v>0.1724</v>
       </c>
       <c r="I81" t="n">
-        <v>0.1928</v>
+        <v>0.1446</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1804</v>
+        <v>0.1353</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0675</v>
+        <v>0.045</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0387</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -11330,22 +11330,22 @@
         <v>0.1778</v>
       </c>
       <c r="G82" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2154</v>
+        <v>0.1538</v>
       </c>
       <c r="I82" t="n">
-        <v>0.2889</v>
+        <v>0.1333</v>
       </c>
       <c r="J82" t="n">
-        <v>0.2429</v>
+        <v>0.1286</v>
       </c>
       <c r="K82" t="n">
-        <v>0.08890000000000001</v>
+        <v>0.0481</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05</v>
+        <v>0.0346</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -11365,7 +11365,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G83" t="n">
         <v>0.2</v>
@@ -11403,25 +11403,25 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G84" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H84" t="n">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="I84" t="n">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="J84" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="K84" t="n">
-        <v>0.032</v>
+        <v>0.03</v>
       </c>
       <c r="L84" t="n">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -11444,22 +11444,22 @@
         <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I85" t="n">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="J85" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="K85" t="n">
-        <v>0.036</v>
+        <v>0.034</v>
       </c>
       <c r="L85" t="n">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -11479,7 +11479,7 @@
         <v>0.5</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -11517,25 +11517,25 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1875</v>
+        <v>0.25</v>
       </c>
       <c r="G87" t="n">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="H87" t="n">
-        <v>0.8125</v>
+        <v>0.75</v>
       </c>
       <c r="I87" t="n">
-        <v>0.8125</v>
+        <v>0.9375</v>
       </c>
       <c r="J87" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="K87" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="L87" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -11558,22 +11558,22 @@
         <v>0.2778</v>
       </c>
       <c r="G88" t="n">
-        <v>0.5556</v>
+        <v>0.5</v>
       </c>
       <c r="H88" t="n">
-        <v>0.8333</v>
+        <v>0.7778</v>
       </c>
       <c r="I88" t="n">
-        <v>0.8333</v>
+        <v>0.9444</v>
       </c>
       <c r="J88" t="n">
-        <v>1</v>
+        <v>0.9444</v>
       </c>
       <c r="K88" t="n">
-        <v>1</v>
+        <v>0.9444</v>
       </c>
       <c r="L88" t="n">
-        <v>1</v>
+        <v>0.9444</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -11593,7 +11593,7 @@
         <v>0.6667</v>
       </c>
       <c r="F89" t="n">
-        <v>0.5714</v>
+        <v>0.2857</v>
       </c>
       <c r="G89" t="n">
         <v>0.3333</v>
@@ -11631,25 +11631,25 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.2857</v>
+        <v>0.381</v>
       </c>
       <c r="G90" t="n">
-        <v>0.6153999999999999</v>
+        <v>0.5385</v>
       </c>
       <c r="H90" t="n">
-        <v>0.6341</v>
+        <v>0.5854</v>
       </c>
       <c r="I90" t="n">
-        <v>0.3939</v>
+        <v>0.4545</v>
       </c>
       <c r="J90" t="n">
-        <v>0.2759</v>
+        <v>0.2586</v>
       </c>
       <c r="K90" t="n">
-        <v>0.062</v>
+        <v>0.0581</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0315</v>
+        <v>0.0295</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -11672,22 +11672,22 @@
         <v>0.4348</v>
       </c>
       <c r="G91" t="n">
-        <v>0.7143</v>
+        <v>0.6429</v>
       </c>
       <c r="H91" t="n">
-        <v>0.6977</v>
+        <v>0.6512</v>
       </c>
       <c r="I91" t="n">
-        <v>0.4412</v>
+        <v>0.5</v>
       </c>
       <c r="J91" t="n">
-        <v>0.3051</v>
+        <v>0.2881</v>
       </c>
       <c r="K91" t="n">
-        <v>0.06950000000000001</v>
+        <v>0.06560000000000001</v>
       </c>
       <c r="L91" t="n">
-        <v>0.0354</v>
+        <v>0.0334</v>
       </c>
     </row>
   </sheetData>
@@ -11764,25 +11764,25 @@
         <v>0.02631578947368421</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06052631578947368</v>
+        <v>0.1363408521303258</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1189858539629707</v>
+        <v>0.2451007250808528</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1533970363458324</v>
+        <v>0.3010903419680945</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2015101458040185</v>
+        <v>0.3318391093112891</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2212429390181035</v>
+        <v>0.3542574233561049</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2272583033575589</v>
+        <v>0.3570031927461346</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -11805,22 +11805,22 @@
         <v>0.0131578947368421</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1088137009189641</v>
+        <v>0.03070175438596491</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1547770255200596</v>
+        <v>0.03822055137844611</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1633699363686095</v>
+        <v>0.06176030353661931</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1784229027236156</v>
+        <v>0.07461316804773906</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1949049836714332</v>
+        <v>0.08973799065172963</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1964802245906326</v>
+        <v>0.08973799065172963</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -11840,25 +11840,25 @@
         <v>0.01754385964912281</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04824561403508772</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1133110554163186</v>
+        <v>0.1384015594541911</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2189464143589867</v>
+        <v>0.2395058648400814</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2635827707498494</v>
+        <v>0.3195033003499331</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3261559120379516</v>
+        <v>0.3626685670029784</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3616064472376286</v>
+        <v>0.4002762989846558</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3692183453823299</v>
+        <v>0.4028887043149213</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -11875,28 +11875,28 @@
         <v>387</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F5" t="n">
-        <v>0.008</v>
+        <v>0.11</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02133333333333333</v>
+        <v>0.1277777777777778</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02133333333333333</v>
+        <v>0.1603052503052503</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02577777777777777</v>
+        <v>0.1603052503052503</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03118709482888587</v>
+        <v>0.179027846753505</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03861728446246971</v>
+        <v>0.1931751957316092</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04173289116075805</v>
+        <v>0.1943090539993258</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -11913,28 +11913,28 @@
         <v>387</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02941176470588235</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05882352941176471</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.003676470588235294</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06372549019607843</v>
+        <v>0.006772445820433437</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06825037707390648</v>
+        <v>0.009815042169317818</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07968548648394357</v>
+        <v>0.01623318682275659</v>
       </c>
       <c r="K6" t="n">
-        <v>0.08367440732319395</v>
+        <v>0.01965837270670413</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08472041888598814</v>
+        <v>0.0206731765339942</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -11954,25 +11954,25 @@
         <v>0.01694915254237288</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04406779661016949</v>
+        <v>0.04661016949152542</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05536723163841808</v>
+        <v>0.06450094161958568</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06007532956685499</v>
+        <v>0.08793468896055871</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06838089719445652</v>
+        <v>0.09319477078405375</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08435467941134939</v>
+        <v>0.1148908822696761</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09518536965231128</v>
+        <v>0.1293788493521169</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09890028689835506</v>
+        <v>0.1316297004878335</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -11989,28 +11989,28 @@
         <v>387</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.275</v>
+        <v>0.05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3416666666666667</v>
+        <v>0.05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3990036231884058</v>
+        <v>0.2116754079254079</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4835009776857603</v>
+        <v>0.2116754079254079</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4835009776857603</v>
+        <v>0.2116754079254079</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4898704044373526</v>
+        <v>0.2234307100891192</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4898704044373526</v>
+        <v>0.2234307100891192</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -12030,25 +12030,25 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02619047619047619</v>
+        <v>0.007142857142857144</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03690476190476191</v>
+        <v>0.01507936507936508</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05595238095238095</v>
+        <v>0.03421201814058957</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07282333377384255</v>
+        <v>0.03836484206085535</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1013977459367044</v>
+        <v>0.05369459853065227</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1278533805534431</v>
+        <v>0.07747925524441608</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1305503724719172</v>
+        <v>0.08154480656143528</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -12065,28 +12065,28 @@
         <v>387</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02631578947368421</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.131578947368421</v>
+        <v>0.02368421052631579</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1763157894736842</v>
+        <v>0.0324561403508772</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2316828756674295</v>
+        <v>0.1338130801946591</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2964177451414537</v>
+        <v>0.1411570214431291</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3351444818145246</v>
+        <v>0.1633574910066981</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3699058154988659</v>
+        <v>0.1993099643054544</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3727419028217339</v>
+        <v>0.2038591647455223</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -12103,28 +12103,28 @@
         <v>387</v>
       </c>
       <c r="E11" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09999999999999999</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1512848016781083</v>
+        <v>0.03706293706293706</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1802183263074723</v>
+        <v>0.0855494634564402</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1802183263074723</v>
+        <v>0.125363451240604</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2123756847835266</v>
+        <v>0.1337668125851418</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2123756847835266</v>
+        <v>0.1337668125851418</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -12144,25 +12144,25 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02727272727272727</v>
+        <v>0.05808080808080807</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07867965367965368</v>
+        <v>0.09343434343434343</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1115255956165047</v>
+        <v>0.1133521919966933</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1332908493532727</v>
+        <v>0.1408771118141032</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1468340005969587</v>
+        <v>0.1617915438694601</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1626676562460077</v>
+        <v>0.1866689963678553</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1665688914148301</v>
+        <v>0.187607044412229</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -12179,28 +12179,28 @@
         <v>387</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02222222222222222</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05777777777777778</v>
+        <v>0.04259259259259259</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1206878306878307</v>
+        <v>0.06851851851851851</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1905826510975253</v>
+        <v>0.1258839360885397</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2349126441593397</v>
+        <v>0.1906977279464838</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2506974403362927</v>
+        <v>0.2413837817963178</v>
       </c>
       <c r="K13" t="n">
-        <v>0.290835586040226</v>
+        <v>0.2766144744187112</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2953076337989554</v>
+        <v>0.2776612816566356</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -12220,25 +12220,25 @@
         <v>0.1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.15</v>
+        <v>0.1491622103386809</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1568181818181818</v>
+        <v>0.1491622103386809</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1645104895104895</v>
+        <v>0.1622118557287519</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1704549003438443</v>
+        <v>0.1622118557287519</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1704549003438443</v>
+        <v>0.1622118557287519</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -12258,25 +12258,25 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01754385964912281</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0711779448621554</v>
+        <v>0.07236842105263158</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0711779448621554</v>
+        <v>0.1087092731829574</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07966690920850514</v>
+        <v>0.1162280701754386</v>
       </c>
       <c r="J15" t="n">
-        <v>0.08438018493513515</v>
+        <v>0.1162280701754386</v>
       </c>
       <c r="K15" t="n">
-        <v>0.08765017916049732</v>
+        <v>0.1222724527457714</v>
       </c>
       <c r="L15" t="n">
-        <v>0.08868419839325505</v>
+        <v>0.1230999932952583</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -12296,25 +12296,25 @@
         <v>0.03448275862068965</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.09482758620689655</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1428845101258894</v>
+        <v>0.1120689655172414</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1428845101258894</v>
+        <v>0.1876408243548203</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1569405319683406</v>
+        <v>0.195851004978794</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1680553821207615</v>
+        <v>0.2053105305351648</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1762523617601389</v>
+        <v>0.2122922269914304</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1774040452504174</v>
+        <v>0.2131597177743408</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -12331,28 +12331,28 @@
         <v>387</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02619047619047619</v>
+        <v>0.2779761904761905</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04047619047619048</v>
+        <v>0.2983843537414966</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05960884353741496</v>
+        <v>0.3485520431949003</v>
       </c>
       <c r="J17" t="n">
-        <v>0.104954363390729</v>
+        <v>0.3620291321436874</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1116009837339349</v>
+        <v>0.3698949249736807</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1116009837339349</v>
+        <v>0.3698949249736807</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -12372,25 +12372,25 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.06862745098039215</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06862745098039215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07791537667698657</v>
+        <v>0.03346233230134159</v>
       </c>
       <c r="I18" t="n">
-        <v>0.08662997362687765</v>
+        <v>0.04435557848870542</v>
       </c>
       <c r="J18" t="n">
-        <v>0.09513337498742186</v>
+        <v>0.04435557848870542</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1040961232282415</v>
+        <v>0.05103320583995452</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1058107467773416</v>
+        <v>0.05103320583995452</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -12407,28 +12407,28 @@
         <v>387</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="F19" t="n">
-        <v>0.03763440860215053</v>
+        <v>0.08387096774193549</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.1255376344086022</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08760611205432937</v>
+        <v>0.1975317999299324</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1124439683437986</v>
+        <v>0.247761856611602</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1565231000893749</v>
+        <v>0.2568914975123932</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1730227305177642</v>
+        <v>0.2718526617264331</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1750336451587932</v>
+        <v>0.2718526617264331</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -12445,28 +12445,28 @@
         <v>387</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03771929824561403</v>
+        <v>0.25</v>
       </c>
       <c r="I20" t="n">
-        <v>0.05590111642743221</v>
+        <v>0.2722222222222223</v>
       </c>
       <c r="J20" t="n">
-        <v>0.05590111642743221</v>
+        <v>0.2722222222222223</v>
       </c>
       <c r="K20" t="n">
-        <v>0.07178757451572516</v>
+        <v>0.2829863292977532</v>
       </c>
       <c r="L20" t="n">
-        <v>0.07178757451572516</v>
+        <v>0.2829863292977532</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -12483,28 +12483,28 @@
         <v>387</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2</v>
+        <v>0.09583333333333333</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3580555555555555</v>
+        <v>0.1291666666666667</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5184961566211566</v>
+        <v>0.1583333333333333</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6130547777422778</v>
+        <v>0.1583333333333333</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6463275819286596</v>
+        <v>0.1583333333333333</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6463275819286596</v>
+        <v>0.163238091575655</v>
       </c>
       <c r="L21" t="n">
-        <v>0.6463275819286596</v>
+        <v>0.1647352647025332</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -12527,22 +12527,22 @@
         <v>0.16</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2864444444444444</v>
+        <v>0.2233333333333333</v>
       </c>
       <c r="H22" t="n">
-        <v>0.487854823539034</v>
+        <v>0.2553333333333333</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5973594417936523</v>
+        <v>0.2686666666666666</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6282056800037861</v>
+        <v>0.2686666666666666</v>
       </c>
       <c r="K22" t="n">
-        <v>0.645560028000336</v>
+        <v>0.2801793246284793</v>
       </c>
       <c r="L22" t="n">
-        <v>0.645560028000336</v>
+        <v>0.2819483461738366</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -12559,28 +12559,28 @@
         <v>387</v>
       </c>
       <c r="E23" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1282097288676236</v>
+        <v>0.001349810136596171</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1288143237890263</v>
+        <v>0.001349810136596171</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -12600,25 +12600,25 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.06468253968253969</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1180650037792895</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1738503003540597</v>
+        <v>0.001984126984126984</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1837025171028282</v>
+        <v>0.001984126984126984</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1979548743346375</v>
+        <v>0.001984126984126984</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1979548743346375</v>
+        <v>0.001984126984126984</v>
       </c>
       <c r="L24" t="n">
-        <v>0.198410014574724</v>
+        <v>0.001984126984126984</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -12635,28 +12635,28 @@
         <v>387</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1524206349206349</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2043329156223893</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2132984328637686</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2261352946321372</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2297429501345296</v>
+        <v>0.002027934532285568</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2306803395268864</v>
+        <v>0.002027934532285568</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -12673,28 +12673,28 @@
         <v>387</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1578947368421053</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1962815201268477</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1962815201268477</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1991010689990281</v>
+        <v>0.0006184291898577613</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1991010689990281</v>
+        <v>0.000941635395416908</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -12711,28 +12711,28 @@
         <v>387</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="F27" t="n">
-        <v>0.04848484848484848</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08047138047138049</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="H27" t="n">
-        <v>0.08047138047138049</v>
+        <v>0.1277997364953887</v>
       </c>
       <c r="I27" t="n">
-        <v>0.09785120639863723</v>
+        <v>0.1315103116345352</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1159751589488193</v>
+        <v>0.1424997579180992</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1322348965369493</v>
+        <v>0.1487671753860143</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1339103612006831</v>
+        <v>0.1514426879768461</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -12752,25 +12752,25 @@
         <v>0.025</v>
       </c>
       <c r="F28" t="n">
-        <v>0.08875</v>
+        <v>0.1</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1210416666666667</v>
+        <v>0.1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1302521929824561</v>
+        <v>0.1054347826086957</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1691257331758721</v>
+        <v>0.1084960070984916</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1912761920066588</v>
+        <v>0.1175623002824318</v>
       </c>
       <c r="K28" t="n">
-        <v>0.211151663328536</v>
+        <v>0.1241398461003882</v>
       </c>
       <c r="L28" t="n">
-        <v>0.2129610369913357</v>
+        <v>0.1270106561417063</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -12790,25 +12790,25 @@
         <v>0.5</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="G29" t="n">
-        <v>0.7</v>
+        <v>0.6428571428571428</v>
       </c>
       <c r="H29" t="n">
-        <v>0.7</v>
+        <v>0.6428571428571428</v>
       </c>
       <c r="I29" t="n">
-        <v>0.7</v>
+        <v>0.6428571428571428</v>
       </c>
       <c r="J29" t="n">
-        <v>0.7</v>
+        <v>0.6428571428571428</v>
       </c>
       <c r="K29" t="n">
-        <v>0.7</v>
+        <v>0.6428571428571428</v>
       </c>
       <c r="L29" t="n">
-        <v>0.7</v>
+        <v>0.6428571428571428</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -12828,25 +12828,25 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1197916666666667</v>
+        <v>0.1697916666666667</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3515873015873016</v>
+        <v>0.3173611111111111</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5885982073482073</v>
+        <v>0.5376918220668221</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5885982073482073</v>
+        <v>0.6153223904231969</v>
       </c>
       <c r="J30" t="n">
-        <v>0.6404505829138183</v>
+        <v>0.6153223904231969</v>
       </c>
       <c r="K30" t="n">
-        <v>0.6404505829138183</v>
+        <v>0.6153223904231969</v>
       </c>
       <c r="L30" t="n">
-        <v>0.6404505829138183</v>
+        <v>0.6153223904231969</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -12869,22 +12869,22 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8055148555148555</v>
+        <v>0.7362147112147112</v>
       </c>
       <c r="I31" t="n">
-        <v>0.8055148555148555</v>
+        <v>0.8151530966047095</v>
       </c>
       <c r="J31" t="n">
-        <v>0.8577731092436975</v>
+        <v>0.8151530966047095</v>
       </c>
       <c r="K31" t="n">
-        <v>0.8577731092436975</v>
+        <v>0.8151530966047095</v>
       </c>
       <c r="L31" t="n">
-        <v>0.8577731092436975</v>
+        <v>0.8151530966047095</v>
       </c>
     </row>
   </sheetData>

--- a/BM25.xlsx
+++ b/BM25.xlsx
@@ -1560,7 +1560,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>216.7275885235608</v>
+        <v>217.0916390853095</v>
       </c>
       <c r="E2" t="n">
         <v>22</v>
@@ -1577,7 +1577,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>230.647936435807</v>
+        <v>231.0745898324823</v>
       </c>
       <c r="E3" t="n">
         <v>11</v>
@@ -1594,7 +1594,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>237.9420401458017</v>
+        <v>237.6803409533575</v>
       </c>
       <c r="E4" t="n">
         <v>6</v>
@@ -1611,10 +1611,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>149.8157250618672</v>
+        <v>150.3860355634714</v>
       </c>
       <c r="E5" t="n">
-        <v>7245</v>
+        <v>7094</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1628,7 +1628,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>236.435770255842</v>
+        <v>236.3116764149294</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -1645,7 +1645,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>234.3254298604105</v>
+        <v>234.934056580831</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -1662,7 +1662,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>300.3254205462567</v>
+        <v>301.0801083885133</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -1679,7 +1679,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>238.7456498435287</v>
+        <v>239.1588037873373</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
@@ -1696,7 +1696,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>238.7456498435287</v>
+        <v>239.1588037873373</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -1713,7 +1713,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>228.8586020782055</v>
+        <v>228.908204923863</v>
       </c>
       <c r="E11" t="n">
         <v>12</v>
@@ -1730,7 +1730,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>231.7808621525978</v>
+        <v>232.2036518148127</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
@@ -1747,7 +1747,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>250.3347515267962</v>
+        <v>250.0787978818817</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -1764,7 +1764,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>220.0376074378016</v>
+        <v>219.8000164906704</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1781,7 +1781,7 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>193.1051975926111</v>
+        <v>193.0044645227132</v>
       </c>
       <c r="E15" t="n">
         <v>42</v>
@@ -1798,7 +1798,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>424.7962887569305</v>
+        <v>425.2994389949001</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>223.4796250247619</v>
+        <v>224.2190684176171</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
@@ -1832,7 +1832,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>200.2033043440991</v>
+        <v>200.8335435140459</v>
       </c>
       <c r="E18" t="n">
         <v>31</v>
@@ -1849,7 +1849,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>200.2033043440991</v>
+        <v>200.8335435140459</v>
       </c>
       <c r="E19" t="n">
         <v>30</v>
@@ -1866,10 +1866,10 @@
         <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>137.4650499955136</v>
+        <v>137.5462424400026</v>
       </c>
       <c r="E20" t="n">
-        <v>1457</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1883,10 +1883,10 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>132.3542135808365</v>
+        <v>132.4977185877564</v>
       </c>
       <c r="E21" t="n">
-        <v>2509</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1900,10 +1900,10 @@
         <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>131.7983995393184</v>
+        <v>131.7956194879003</v>
       </c>
       <c r="E22" t="n">
-        <v>2671</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1917,10 +1917,10 @@
         <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>183.3275578140824</v>
+        <v>183.5152838234193</v>
       </c>
       <c r="E23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1934,10 +1934,10 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>153.2830545652558</v>
+        <v>153.4285257802669</v>
       </c>
       <c r="E24" t="n">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1951,10 +1951,10 @@
         <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>148.9586534019254</v>
+        <v>149.1251965057811</v>
       </c>
       <c r="E25" t="n">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1968,10 +1968,10 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>158.3461138394263</v>
+        <v>158.3855715530867</v>
       </c>
       <c r="E26" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1985,10 +1985,10 @@
         <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>161.2499643218649</v>
+        <v>161.4015429898444</v>
       </c>
       <c r="E27" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2002,10 +2002,10 @@
         <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>166.51143568928</v>
+        <v>166.6640857641266</v>
       </c>
       <c r="E28" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2019,10 +2019,10 @@
         <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>145.7123954764939</v>
+        <v>145.7491790693636</v>
       </c>
       <c r="E29" t="n">
-        <v>671</v>
+        <v>663</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2036,7 +2036,7 @@
         <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>184.730833291298</v>
+        <v>184.9942527710693</v>
       </c>
       <c r="E30" t="n">
         <v>19</v>
@@ -2053,7 +2053,7 @@
         <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>184.6335586690883</v>
+        <v>184.7278230648258</v>
       </c>
       <c r="E31" t="n">
         <v>20</v>
@@ -2070,10 +2070,10 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>162.2519330522542</v>
+        <v>162.5145489959752</v>
       </c>
       <c r="E32" t="n">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2087,7 +2087,7 @@
         <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>194.8029037920268</v>
+        <v>195.1644673228742</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -2104,7 +2104,7 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>173.963094958129</v>
+        <v>173.8639560987392</v>
       </c>
       <c r="E34" t="n">
         <v>52</v>
@@ -2121,7 +2121,7 @@
         <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>188.8385784439814</v>
+        <v>188.6640654803221</v>
       </c>
       <c r="E35" t="n">
         <v>12</v>
@@ -2138,10 +2138,10 @@
         <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>162.5493227558096</v>
+        <v>162.4963314777613</v>
       </c>
       <c r="E36" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2155,10 +2155,10 @@
         <v>11</v>
       </c>
       <c r="D37" t="n">
-        <v>114.1372899494181</v>
+        <v>113.7343942053683</v>
       </c>
       <c r="E37" t="n">
-        <v>19715</v>
+        <v>20578</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2172,7 +2172,7 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>193.6715855672409</v>
+        <v>193.681809216308</v>
       </c>
       <c r="E38" t="n">
         <v>6</v>
@@ -2189,7 +2189,7 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>184.6185745282481</v>
+        <v>184.6355653156394</v>
       </c>
       <c r="E39" t="n">
         <v>21</v>
@@ -2206,10 +2206,10 @@
         <v>11</v>
       </c>
       <c r="D40" t="n">
-        <v>171.0003523694913</v>
+        <v>170.9128294163055</v>
       </c>
       <c r="E40" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2223,7 +2223,7 @@
         <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>176.8754250783149</v>
+        <v>176.9170637539119</v>
       </c>
       <c r="E41" t="n">
         <v>42</v>
@@ -2240,10 +2240,10 @@
         <v>11</v>
       </c>
       <c r="D42" t="n">
-        <v>168.8180998554239</v>
+        <v>168.8534639325397</v>
       </c>
       <c r="E42" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2257,10 +2257,10 @@
         <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>127.0869391128187</v>
+        <v>126.7531652280803</v>
       </c>
       <c r="E43" t="n">
-        <v>4564</v>
+        <v>4704</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2274,7 +2274,7 @@
         <v>11</v>
       </c>
       <c r="D44" t="n">
-        <v>179.1281333892996</v>
+        <v>179.0558718455604</v>
       </c>
       <c r="E44" t="n">
         <v>35</v>
@@ -2291,10 +2291,10 @@
         <v>11</v>
       </c>
       <c r="D45" t="n">
-        <v>159.0182965900918</v>
+        <v>158.4828967740769</v>
       </c>
       <c r="E45" t="n">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2308,7 +2308,7 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>161.5534223577241</v>
+        <v>161.5864770730244</v>
       </c>
       <c r="E46" t="n">
         <v>163</v>
@@ -2325,7 +2325,7 @@
         <v>11</v>
       </c>
       <c r="D47" t="n">
-        <v>194.7900620556561</v>
+        <v>194.6758269624365</v>
       </c>
       <c r="E47" t="n">
         <v>5</v>
@@ -2342,10 +2342,10 @@
         <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>137.2834429190806</v>
+        <v>137.2652491876397</v>
       </c>
       <c r="E48" t="n">
-        <v>1480</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2359,10 +2359,10 @@
         <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>140.9523715947487</v>
+        <v>140.9420581027281</v>
       </c>
       <c r="E49" t="n">
-        <v>1046</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2376,10 +2376,10 @@
         <v>11</v>
       </c>
       <c r="D50" t="n">
-        <v>117.1514015847512</v>
+        <v>117.1174609489098</v>
       </c>
       <c r="E50" t="n">
-        <v>14162</v>
+        <v>14116</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2393,7 +2393,7 @@
         <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>179.8775499099421</v>
+        <v>179.851186925923</v>
       </c>
       <c r="E51" t="n">
         <v>32</v>
@@ -2410,7 +2410,7 @@
         <v>11</v>
       </c>
       <c r="D52" t="n">
-        <v>175.618270854583</v>
+        <v>175.5653062707669</v>
       </c>
       <c r="E52" t="n">
         <v>47</v>
@@ -2427,10 +2427,10 @@
         <v>11</v>
       </c>
       <c r="D53" t="n">
-        <v>150.3105809981184</v>
+        <v>149.9372832613012</v>
       </c>
       <c r="E53" t="n">
-        <v>449</v>
+        <v>462</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2444,10 +2444,10 @@
         <v>11</v>
       </c>
       <c r="D54" t="n">
-        <v>196.2376483074576</v>
+        <v>196.1394896966328</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2461,10 +2461,10 @@
         <v>11</v>
       </c>
       <c r="D55" t="n">
-        <v>123.7356057594721</v>
+        <v>123.780727539943</v>
       </c>
       <c r="E55" t="n">
-        <v>6653</v>
+        <v>6605</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2478,10 +2478,10 @@
         <v>11</v>
       </c>
       <c r="D56" t="n">
-        <v>161.7567228552167</v>
+        <v>161.7658163446991</v>
       </c>
       <c r="E56" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2495,7 +2495,7 @@
         <v>11</v>
       </c>
       <c r="D57" t="n">
-        <v>193.1962641762745</v>
+        <v>193.3575670497569</v>
       </c>
       <c r="E57" t="n">
         <v>7</v>
@@ -2512,7 +2512,7 @@
         <v>11</v>
       </c>
       <c r="D58" t="n">
-        <v>178.9007207239992</v>
+        <v>178.7765023616812</v>
       </c>
       <c r="E58" t="n">
         <v>38</v>
@@ -2529,10 +2529,10 @@
         <v>11</v>
       </c>
       <c r="D59" t="n">
-        <v>150.7284639726282</v>
+        <v>150.6410889118663</v>
       </c>
       <c r="E59" t="n">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2546,10 +2546,10 @@
         <v>11</v>
       </c>
       <c r="D60" t="n">
-        <v>196.148034974467</v>
+        <v>196.2318386452335</v>
       </c>
       <c r="E60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2563,10 +2563,10 @@
         <v>11</v>
       </c>
       <c r="D61" t="n">
-        <v>170.1848262328717</v>
+        <v>170.1462906230039</v>
       </c>
       <c r="E61" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2580,7 +2580,7 @@
         <v>11</v>
       </c>
       <c r="D62" t="n">
-        <v>191.6896272721005</v>
+        <v>191.4260890638546</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
@@ -2597,7 +2597,7 @@
         <v>11</v>
       </c>
       <c r="D63" t="n">
-        <v>179.0342139840799</v>
+        <v>179.0470022685577</v>
       </c>
       <c r="E63" t="n">
         <v>36</v>
@@ -2614,7 +2614,7 @@
         <v>11</v>
       </c>
       <c r="D64" t="n">
-        <v>179.5710529703091</v>
+        <v>179.5544236811734</v>
       </c>
       <c r="E64" t="n">
         <v>33</v>
@@ -2631,10 +2631,10 @@
         <v>11</v>
       </c>
       <c r="D65" t="n">
-        <v>183.5153824383874</v>
+        <v>183.4031469613672</v>
       </c>
       <c r="E65" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2648,7 +2648,7 @@
         <v>11</v>
       </c>
       <c r="D66" t="n">
-        <v>189.6353110693847</v>
+        <v>189.2603370470151</v>
       </c>
       <c r="E66" t="n">
         <v>11</v>
@@ -2665,10 +2665,10 @@
         <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>180.3207491389064</v>
+        <v>180.2536810592448</v>
       </c>
       <c r="E67" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2682,10 +2682,10 @@
         <v>11</v>
       </c>
       <c r="D68" t="n">
-        <v>122.2932937480097</v>
+        <v>122.2459684175499</v>
       </c>
       <c r="E68" t="n">
-        <v>7802</v>
+        <v>7812</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2699,7 +2699,7 @@
         <v>11</v>
       </c>
       <c r="D69" t="n">
-        <v>187.6104420160193</v>
+        <v>187.5702431026295</v>
       </c>
       <c r="E69" t="n">
         <v>14</v>
@@ -2716,10 +2716,10 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>153.3061437450196</v>
+        <v>153.238162822322</v>
       </c>
       <c r="E70" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2733,10 +2733,10 @@
         <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>170.5012731024681</v>
+        <v>170.3959077427577</v>
       </c>
       <c r="E71" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2750,10 +2750,10 @@
         <v>11</v>
       </c>
       <c r="D72" t="n">
-        <v>173.5486309122732</v>
+        <v>173.4644877464764</v>
       </c>
       <c r="E72" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2767,7 +2767,7 @@
         <v>11</v>
       </c>
       <c r="D73" t="n">
-        <v>198.9000640057478</v>
+        <v>198.7870186691945</v>
       </c>
       <c r="E73" t="n">
         <v>1</v>
@@ -2784,10 +2784,10 @@
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>138.4030182377431</v>
+        <v>138.4392819230136</v>
       </c>
       <c r="E74" t="n">
-        <v>1319</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2801,10 +2801,10 @@
         <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>106.9384590261792</v>
+        <v>107.1019570256506</v>
       </c>
       <c r="E75" t="n">
-        <v>40088</v>
+        <v>39443</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2818,10 +2818,10 @@
         <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>105.9735711055695</v>
+        <v>105.8669630971552</v>
       </c>
       <c r="E76" t="n">
-        <v>43706</v>
+        <v>43997</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2835,7 +2835,7 @@
         <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>371.1218928072727</v>
+        <v>370.363993975933</v>
       </c>
       <c r="E77" t="n">
         <v>12</v>
@@ -2852,10 +2852,10 @@
         <v>11</v>
       </c>
       <c r="D78" t="n">
-        <v>355.9297025283806</v>
+        <v>356.0187588727209</v>
       </c>
       <c r="E78" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2869,10 +2869,10 @@
         <v>11</v>
       </c>
       <c r="D79" t="n">
-        <v>358.9873048959492</v>
+        <v>359.2650183315977</v>
       </c>
       <c r="E79" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2886,10 +2886,10 @@
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>284.9839129522018</v>
+        <v>284.9113426809741</v>
       </c>
       <c r="E80" t="n">
-        <v>577</v>
+        <v>561</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2903,10 +2903,10 @@
         <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>256.024961568304</v>
+        <v>255.448585459358</v>
       </c>
       <c r="E81" t="n">
-        <v>1589</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2920,10 +2920,10 @@
         <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>273.3625151955137</v>
+        <v>272.1498625423847</v>
       </c>
       <c r="E82" t="n">
-        <v>885</v>
+        <v>908</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2937,7 +2937,7 @@
         <v>11</v>
       </c>
       <c r="D83" t="n">
-        <v>395.039643020346</v>
+        <v>395.3238199982578</v>
       </c>
       <c r="E83" t="n">
         <v>2</v>
@@ -2954,10 +2954,10 @@
         <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>297.5088445580892</v>
+        <v>296.4137785790239</v>
       </c>
       <c r="E84" t="n">
-        <v>347</v>
+        <v>356</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2971,10 +2971,10 @@
         <v>11</v>
       </c>
       <c r="D85" t="n">
-        <v>320.3726940764172</v>
+        <v>320.0066804981978</v>
       </c>
       <c r="E85" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2988,10 +2988,10 @@
         <v>11</v>
       </c>
       <c r="D86" t="n">
-        <v>368.952201272627</v>
+        <v>368.7671230390582</v>
       </c>
       <c r="E86" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3005,7 +3005,7 @@
         <v>11</v>
       </c>
       <c r="D87" t="n">
-        <v>371.4927041806688</v>
+        <v>371.1569999473633</v>
       </c>
       <c r="E87" t="n">
         <v>11</v>
@@ -3022,10 +3022,10 @@
         <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>204.3090368542159</v>
+        <v>203.9931106417626</v>
       </c>
       <c r="E88" t="n">
-        <v>9709</v>
+        <v>9802</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3039,7 +3039,7 @@
         <v>11</v>
       </c>
       <c r="D89" t="n">
-        <v>368.653337472421</v>
+        <v>368.2640487375354</v>
       </c>
       <c r="E89" t="n">
         <v>15</v>
@@ -3056,10 +3056,10 @@
         <v>11</v>
       </c>
       <c r="D90" t="n">
-        <v>290.9774932425243</v>
+        <v>290.9071440467974</v>
       </c>
       <c r="E90" t="n">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3073,10 +3073,10 @@
         <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>325.774975763804</v>
+        <v>325.7268644658215</v>
       </c>
       <c r="E91" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3090,10 +3090,10 @@
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>153.5533904339233</v>
+        <v>152.8111504463449</v>
       </c>
       <c r="E92" t="n">
-        <v>85869</v>
+        <v>87423</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3107,10 +3107,10 @@
         <v>11</v>
       </c>
       <c r="D93" t="n">
-        <v>297.8185268824737</v>
+        <v>296.6867975280013</v>
       </c>
       <c r="E93" t="n">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3124,10 +3124,10 @@
         <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>368.8238199974192</v>
+        <v>369.0581797175176</v>
       </c>
       <c r="E94" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3141,10 +3141,10 @@
         <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>258.6807717207708</v>
+        <v>257.8963742722264</v>
       </c>
       <c r="E95" t="n">
-        <v>1445</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3158,10 +3158,10 @@
         <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>275.2644418748142</v>
+        <v>274.1850487897871</v>
       </c>
       <c r="E96" t="n">
-        <v>816</v>
+        <v>851</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3175,7 +3175,7 @@
         <v>11</v>
       </c>
       <c r="D97" t="n">
-        <v>367.8850378030148</v>
+        <v>365.5987712482141</v>
       </c>
       <c r="E97" t="n">
         <v>16</v>
@@ -3192,10 +3192,10 @@
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>314.8307579390375</v>
+        <v>311.6025994494895</v>
       </c>
       <c r="E98" t="n">
-        <v>152</v>
+        <v>172</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3209,7 +3209,7 @@
         <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>336.3509198677953</v>
+        <v>335.7213956186109</v>
       </c>
       <c r="E99" t="n">
         <v>55</v>
@@ -3226,10 +3226,10 @@
         <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>316.9869580661533</v>
+        <v>316.1923913480803</v>
       </c>
       <c r="E100" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3243,10 +3243,10 @@
         <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>321.9822891045991</v>
+        <v>321.0780946415687</v>
       </c>
       <c r="E101" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3260,7 +3260,7 @@
         <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>371.9785290143666</v>
+        <v>371.5327737734269</v>
       </c>
       <c r="E102" t="n">
         <v>9</v>
@@ -3277,10 +3277,10 @@
         <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>309.9117651550065</v>
+        <v>309.4786611848569</v>
       </c>
       <c r="E103" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3294,7 +3294,7 @@
         <v>6</v>
       </c>
       <c r="D104" t="n">
-        <v>341.3669407963126</v>
+        <v>341.309998940545</v>
       </c>
       <c r="E104" t="n">
         <v>43</v>
@@ -3311,10 +3311,10 @@
         <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>318.4586474903437</v>
+        <v>317.8677134491057</v>
       </c>
       <c r="E105" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3328,10 +3328,10 @@
         <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>126.8029923228428</v>
+        <v>126.7271468576391</v>
       </c>
       <c r="E106" t="n">
-        <v>155354</v>
+        <v>155480</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3345,10 +3345,10 @@
         <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>302.3976108007097</v>
+        <v>301.8993799768219</v>
       </c>
       <c r="E107" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3362,10 +3362,10 @@
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>336.4311432774745</v>
+        <v>335.6850294500639</v>
       </c>
       <c r="E108" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3379,10 +3379,10 @@
         <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>286.1595859214171</v>
+        <v>286.2812525422862</v>
       </c>
       <c r="E109" t="n">
-        <v>551</v>
+        <v>531</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3396,10 +3396,10 @@
         <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>322.8180523396446</v>
+        <v>322.5428256126228</v>
       </c>
       <c r="E110" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3413,7 +3413,7 @@
         <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>375.7779058918896</v>
+        <v>374.7581649501831</v>
       </c>
       <c r="E111" t="n">
         <v>5</v>
@@ -3430,10 +3430,10 @@
         <v>6</v>
       </c>
       <c r="D112" t="n">
-        <v>324.9956574074588</v>
+        <v>323.7557274689913</v>
       </c>
       <c r="E112" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3447,10 +3447,10 @@
         <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>236.5897488706989</v>
+        <v>236.5606901031735</v>
       </c>
       <c r="E113" t="n">
-        <v>2986</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3464,10 +3464,10 @@
         <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>246.195966383199</v>
+        <v>246.5173631388982</v>
       </c>
       <c r="E114" t="n">
-        <v>2177</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3481,10 +3481,10 @@
         <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>298.4046012482046</v>
+        <v>298.0443598720575</v>
       </c>
       <c r="E115" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3498,10 +3498,10 @@
         <v>11</v>
       </c>
       <c r="D116" t="n">
-        <v>269.9614728136122</v>
+        <v>269.6321638189299</v>
       </c>
       <c r="E116" t="n">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3515,7 +3515,7 @@
         <v>11</v>
       </c>
       <c r="D117" t="n">
-        <v>343.7257911659445</v>
+        <v>343.8705936951177</v>
       </c>
       <c r="E117" t="n">
         <v>1</v>
@@ -3532,10 +3532,10 @@
         <v>11</v>
       </c>
       <c r="D118" t="n">
-        <v>261.5020344194398</v>
+        <v>261.033269093367</v>
       </c>
       <c r="E118" t="n">
-        <v>635</v>
+        <v>661</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3549,7 +3549,7 @@
         <v>11</v>
       </c>
       <c r="D119" t="n">
-        <v>313.1370562715827</v>
+        <v>312.7739265779194</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -3566,10 +3566,10 @@
         <v>11</v>
       </c>
       <c r="D120" t="n">
-        <v>303.2770640871489</v>
+        <v>303.4266865755003</v>
       </c>
       <c r="E120" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3583,7 +3583,7 @@
         <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>309.0956236215717</v>
+        <v>308.989231957676</v>
       </c>
       <c r="E121" t="n">
         <v>8</v>
@@ -3600,10 +3600,10 @@
         <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>250.6804043601367</v>
+        <v>250.4820988700156</v>
       </c>
       <c r="E122" t="n">
-        <v>1754</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3617,10 +3617,10 @@
         <v>11</v>
       </c>
       <c r="D123" t="n">
-        <v>268.3715459574138</v>
+        <v>268.4233603198679</v>
       </c>
       <c r="E123" t="n">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3634,10 +3634,10 @@
         <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>275.9174466356907</v>
+        <v>276.1377957917277</v>
       </c>
       <c r="E124" t="n">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3651,10 +3651,10 @@
         <v>11</v>
       </c>
       <c r="D125" t="n">
-        <v>282.6631988587584</v>
+        <v>282.6875099899472</v>
       </c>
       <c r="E125" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3668,10 +3668,10 @@
         <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>270.6662502375405</v>
+        <v>270.2583573607393</v>
       </c>
       <c r="E126" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3685,7 +3685,7 @@
         <v>11</v>
       </c>
       <c r="D127" t="n">
-        <v>289.7551976087184</v>
+        <v>289.3171679004693</v>
       </c>
       <c r="E127" t="n">
         <v>60</v>
@@ -3702,7 +3702,7 @@
         <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>293.400189585998</v>
+        <v>293.0034145847034</v>
       </c>
       <c r="E128" t="n">
         <v>29</v>
@@ -3719,10 +3719,10 @@
         <v>6</v>
       </c>
       <c r="D129" t="n">
-        <v>265.402953172397</v>
+        <v>265.3489870461151</v>
       </c>
       <c r="E129" t="n">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3736,10 +3736,10 @@
         <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>224.1529297995129</v>
+        <v>223.9634376848509</v>
       </c>
       <c r="E130" t="n">
-        <v>15725</v>
+        <v>15824</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3753,10 +3753,10 @@
         <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>174.8901375245033</v>
+        <v>174.6099760893922</v>
       </c>
       <c r="E131" t="n">
-        <v>114820</v>
+        <v>115293</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3770,10 +3770,10 @@
         <v>11</v>
       </c>
       <c r="D132" t="n">
-        <v>237.0055449471227</v>
+        <v>245.5056110456804</v>
       </c>
       <c r="E132" t="n">
-        <v>6128</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3787,10 +3787,10 @@
         <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>290.6336816572892</v>
+        <v>290.9743944514576</v>
       </c>
       <c r="E133" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3804,10 +3804,10 @@
         <v>11</v>
       </c>
       <c r="D134" t="n">
-        <v>250.4352855273405</v>
+        <v>249.893771483349</v>
       </c>
       <c r="E134" t="n">
-        <v>1794</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3821,10 +3821,10 @@
         <v>11</v>
       </c>
       <c r="D135" t="n">
-        <v>269.5112185644488</v>
+        <v>280.8677788966872</v>
       </c>
       <c r="E135" t="n">
-        <v>314</v>
+        <v>119</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3838,10 +3838,10 @@
         <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>236.5128529744321</v>
+        <v>236.0164889457972</v>
       </c>
       <c r="E136" t="n">
-        <v>6389</v>
+        <v>6564</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3855,10 +3855,10 @@
         <v>11</v>
       </c>
       <c r="D137" t="n">
-        <v>265.3115633192363</v>
+        <v>265.2303718194894</v>
       </c>
       <c r="E137" t="n">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3872,10 +3872,10 @@
         <v>11</v>
       </c>
       <c r="D138" t="n">
-        <v>254.1423678405775</v>
+        <v>253.6693506083597</v>
       </c>
       <c r="E138" t="n">
-        <v>1283</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3889,10 +3889,10 @@
         <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>240.2788692654901</v>
+        <v>239.9111369181641</v>
       </c>
       <c r="E139" t="n">
-        <v>4654</v>
+        <v>4717</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3906,10 +3906,10 @@
         <v>11</v>
       </c>
       <c r="D140" t="n">
-        <v>252.97731789775</v>
+        <v>252.8681423134098</v>
       </c>
       <c r="E140" t="n">
-        <v>1429</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3923,10 +3923,10 @@
         <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>180.9256404017895</v>
+        <v>180.8167499743859</v>
       </c>
       <c r="E141" t="n">
-        <v>100106</v>
+        <v>100122</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3940,10 +3940,10 @@
         <v>11</v>
       </c>
       <c r="D142" t="n">
-        <v>265.3883660853294</v>
+        <v>264.8459886261124</v>
       </c>
       <c r="E142" t="n">
-        <v>447</v>
+        <v>470</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3957,10 +3957,10 @@
         <v>11</v>
       </c>
       <c r="D143" t="n">
-        <v>302.9662145896218</v>
+        <v>302.3273926232524</v>
       </c>
       <c r="E143" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="D144" t="n">
-        <v>319.3808190986719</v>
+        <v>319.3551946208083</v>
       </c>
       <c r="E144" t="n">
         <v>2</v>
@@ -3991,10 +3991,10 @@
         <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>259.5141439168765</v>
+        <v>258.9431982550963</v>
       </c>
       <c r="E145" t="n">
-        <v>784</v>
+        <v>809</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4008,10 +4008,10 @@
         <v>11</v>
       </c>
       <c r="D146" t="n">
-        <v>287.0401562706884</v>
+        <v>287.0936786140388</v>
       </c>
       <c r="E146" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4025,10 +4025,10 @@
         <v>6</v>
       </c>
       <c r="D147" t="n">
-        <v>227.8304979266205</v>
+        <v>227.7476927663511</v>
       </c>
       <c r="E147" t="n">
-        <v>12187</v>
+        <v>12086</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4042,10 +4042,10 @@
         <v>6</v>
       </c>
       <c r="D148" t="n">
-        <v>200.7846190294034</v>
+        <v>200.458883642783</v>
       </c>
       <c r="E148" t="n">
-        <v>52828</v>
+        <v>53255</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4059,10 +4059,10 @@
         <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>200.7846190294034</v>
+        <v>200.458883642783</v>
       </c>
       <c r="E149" t="n">
-        <v>52827</v>
+        <v>53254</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4076,10 +4076,10 @@
         <v>11</v>
       </c>
       <c r="D150" t="n">
-        <v>287.4989117658337</v>
+        <v>287.3368553326392</v>
       </c>
       <c r="E150" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4093,10 +4093,10 @@
         <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>246.398851317324</v>
+        <v>245.6087168440446</v>
       </c>
       <c r="E151" t="n">
-        <v>2731</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4110,10 +4110,10 @@
         <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>256.9259011139674</v>
+        <v>256.7619312128331</v>
       </c>
       <c r="E152" t="n">
-        <v>1004</v>
+        <v>997</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4127,10 +4127,10 @@
         <v>6</v>
       </c>
       <c r="D153" t="n">
-        <v>161.5572462150903</v>
+        <v>168.8294031371102</v>
       </c>
       <c r="E153" t="n">
-        <v>145349</v>
+        <v>129114</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4144,10 +4144,10 @@
         <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>262.9360637633386</v>
+        <v>262.455103172726</v>
       </c>
       <c r="E154" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4161,10 +4161,10 @@
         <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>286.5494254193956</v>
+        <v>285.7493493415085</v>
       </c>
       <c r="E155" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4178,10 +4178,10 @@
         <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>269.1126104557383</v>
+        <v>269.1798003122324</v>
       </c>
       <c r="E156" t="n">
-        <v>324</v>
+        <v>313</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4195,10 +4195,10 @@
         <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>232.1789509126004</v>
+        <v>232.0455707882408</v>
       </c>
       <c r="E157" t="n">
-        <v>8835</v>
+        <v>8842</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4212,10 +4212,10 @@
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>240.3527864658034</v>
+        <v>240.2456771656914</v>
       </c>
       <c r="E158" t="n">
-        <v>4617</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4229,10 +4229,10 @@
         <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>211.7631136055539</v>
+        <v>211.5088808323527</v>
       </c>
       <c r="E159" t="n">
-        <v>32320</v>
+        <v>32480</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4246,10 +4246,10 @@
         <v>6</v>
       </c>
       <c r="D160" t="n">
-        <v>239.8669372268405</v>
+        <v>239.5900758275122</v>
       </c>
       <c r="E160" t="n">
-        <v>4818</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4263,10 +4263,10 @@
         <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>159.7498076154804</v>
+        <v>159.7424697907761</v>
       </c>
       <c r="E161" t="n">
-        <v>149360</v>
+        <v>149401</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4280,10 +4280,10 @@
         <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>147.8032799280175</v>
+        <v>147.7794626505928</v>
       </c>
       <c r="E162" t="n">
-        <v>173271</v>
+        <v>173342</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4297,10 +4297,10 @@
         <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>183.0047079153827</v>
+        <v>182.9449610273635</v>
       </c>
       <c r="E163" t="n">
-        <v>94979</v>
+        <v>94899</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4314,7 +4314,7 @@
         <v>11</v>
       </c>
       <c r="D164" t="n">
-        <v>305.4486938355242</v>
+        <v>305.3417547341714</v>
       </c>
       <c r="E164" t="n">
         <v>9</v>
@@ -4331,10 +4331,10 @@
         <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>286.871863112733</v>
+        <v>286.5711549737246</v>
       </c>
       <c r="E165" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4348,10 +4348,10 @@
         <v>11</v>
       </c>
       <c r="D166" t="n">
-        <v>284.3258279607234</v>
+        <v>284.3644405643487</v>
       </c>
       <c r="E166" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4365,10 +4365,10 @@
         <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>241.5940244452214</v>
+        <v>241.4861094660955</v>
       </c>
       <c r="E167" t="n">
-        <v>4152</v>
+        <v>4138</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4382,10 +4382,10 @@
         <v>11</v>
       </c>
       <c r="D168" t="n">
-        <v>271.5818444736776</v>
+        <v>271.4883324992596</v>
       </c>
       <c r="E168" t="n">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4399,10 +4399,10 @@
         <v>11</v>
       </c>
       <c r="D169" t="n">
-        <v>232.8086562780231</v>
+        <v>245.5868792660364</v>
       </c>
       <c r="E169" t="n">
-        <v>8451</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4416,10 +4416,10 @@
         <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>226.9517726103337</v>
+        <v>226.6949815377605</v>
       </c>
       <c r="E170" t="n">
-        <v>12976</v>
+        <v>13108</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4433,10 +4433,10 @@
         <v>6</v>
       </c>
       <c r="D171" t="n">
-        <v>227.6848146891663</v>
+        <v>227.2705540576383</v>
       </c>
       <c r="E171" t="n">
-        <v>12323</v>
+        <v>12525</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4450,10 +4450,10 @@
         <v>11</v>
       </c>
       <c r="D172" t="n">
-        <v>255.5522994709288</v>
+        <v>264.0621766830087</v>
       </c>
       <c r="E172" t="n">
-        <v>1133</v>
+        <v>510</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4467,10 +4467,10 @@
         <v>11</v>
       </c>
       <c r="D173" t="n">
-        <v>220.195302074753</v>
+        <v>219.4517263185578</v>
       </c>
       <c r="E173" t="n">
-        <v>20346</v>
+        <v>21041</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4484,10 +4484,10 @@
         <v>6</v>
       </c>
       <c r="D174" t="n">
-        <v>186.4772899543301</v>
+        <v>186.1337825586872</v>
       </c>
       <c r="E174" t="n">
-        <v>4024</v>
+        <v>4066</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4501,7 +4501,7 @@
         <v>6</v>
       </c>
       <c r="D175" t="n">
-        <v>281.5376050419184</v>
+        <v>281.3231228073558</v>
       </c>
       <c r="E175" t="n">
         <v>2</v>
@@ -4518,10 +4518,10 @@
         <v>6</v>
       </c>
       <c r="D176" t="n">
-        <v>256.880834331877</v>
+        <v>256.304766172859</v>
       </c>
       <c r="E176" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4535,7 +4535,7 @@
         <v>6</v>
       </c>
       <c r="D177" t="n">
-        <v>269.9362077887544</v>
+        <v>269.544010124464</v>
       </c>
       <c r="E177" t="n">
         <v>8</v>
@@ -4552,10 +4552,10 @@
         <v>11</v>
       </c>
       <c r="D178" t="n">
-        <v>247.2424000441767</v>
+        <v>246.9688961638701</v>
       </c>
       <c r="E178" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4569,10 +4569,10 @@
         <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>143.2138530931649</v>
+        <v>142.9683492743354</v>
       </c>
       <c r="E179" t="n">
-        <v>51251</v>
+        <v>51665</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4586,10 +4586,10 @@
         <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>233.8082238612775</v>
+        <v>233.7068119886848</v>
       </c>
       <c r="E180" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4603,7 +4603,7 @@
         <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>275.1201669340246</v>
+        <v>274.6990247240017</v>
       </c>
       <c r="E181" t="n">
         <v>4</v>
@@ -4620,7 +4620,7 @@
         <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>218.5499615964469</v>
+        <v>218.3075945899046</v>
       </c>
       <c r="E182" t="n">
         <v>636</v>
@@ -4637,10 +4637,10 @@
         <v>11</v>
       </c>
       <c r="D183" t="n">
-        <v>187.6997295876317</v>
+        <v>187.4487970509181</v>
       </c>
       <c r="E183" t="n">
-        <v>3730</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4654,10 +4654,10 @@
         <v>11</v>
       </c>
       <c r="D184" t="n">
-        <v>191.1861153381399</v>
+        <v>190.8452805911139</v>
       </c>
       <c r="E184" t="n">
-        <v>3030</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4671,10 +4671,10 @@
         <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>183.1413628112304</v>
+        <v>183.0290599526157</v>
       </c>
       <c r="E185" t="n">
-        <v>4980</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4688,10 +4688,10 @@
         <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>179.4833421966429</v>
+        <v>179.1066951092781</v>
       </c>
       <c r="E186" t="n">
-        <v>6409</v>
+        <v>6512</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4705,10 +4705,10 @@
         <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>239.248707900653</v>
+        <v>239.3063003882029</v>
       </c>
       <c r="E187" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4722,10 +4722,10 @@
         <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>181.4131059328535</v>
+        <v>181.2230704288649</v>
       </c>
       <c r="E188" t="n">
-        <v>5672</v>
+        <v>5702</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4739,10 +4739,10 @@
         <v>11</v>
       </c>
       <c r="D189" t="n">
-        <v>251.1054712238634</v>
+        <v>250.6489936293216</v>
       </c>
       <c r="E189" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4756,10 +4756,10 @@
         <v>11</v>
       </c>
       <c r="D190" t="n">
-        <v>173.1952605135789</v>
+        <v>172.8398345003792</v>
       </c>
       <c r="E190" t="n">
-        <v>9428</v>
+        <v>9576</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4773,10 +4773,10 @@
         <v>6</v>
       </c>
       <c r="D191" t="n">
-        <v>189.8675328232316</v>
+        <v>189.5527096221026</v>
       </c>
       <c r="E191" t="n">
-        <v>3273</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4790,10 +4790,10 @@
         <v>6</v>
       </c>
       <c r="D192" t="n">
-        <v>116.2152383783329</v>
+        <v>116.0730959455379</v>
       </c>
       <c r="E192" t="n">
-        <v>132489</v>
+        <v>132768</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4807,10 +4807,10 @@
         <v>11</v>
       </c>
       <c r="D193" t="n">
-        <v>182.030562104158</v>
+        <v>181.6518327670455</v>
       </c>
       <c r="E193" t="n">
-        <v>5355</v>
+        <v>5438</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4824,10 +4824,10 @@
         <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>137.1726880968336</v>
+        <v>137.1461412369387</v>
       </c>
       <c r="E194" t="n">
-        <v>67128</v>
+        <v>66935</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4841,7 +4841,7 @@
         <v>6</v>
       </c>
       <c r="D195" t="n">
-        <v>267.5977690823435</v>
+        <v>267.4106786403962</v>
       </c>
       <c r="E195" t="n">
         <v>12</v>
@@ -4858,7 +4858,7 @@
         <v>11</v>
       </c>
       <c r="D196" t="n">
-        <v>267.1249823392578</v>
+        <v>266.929642117926</v>
       </c>
       <c r="E196" t="n">
         <v>15</v>
@@ -4875,7 +4875,7 @@
         <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>267.1249823392578</v>
+        <v>266.929642117926</v>
       </c>
       <c r="E197" t="n">
         <v>14</v>
@@ -4892,7 +4892,7 @@
         <v>11</v>
       </c>
       <c r="D198" t="n">
-        <v>286.9074581068705</v>
+        <v>286.0126090734778</v>
       </c>
       <c r="E198" t="n">
         <v>1</v>
@@ -4909,10 +4909,10 @@
         <v>6</v>
       </c>
       <c r="D199" t="n">
-        <v>237.4100837429849</v>
+        <v>236.6651236020837</v>
       </c>
       <c r="E199" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4926,7 +4926,7 @@
         <v>11</v>
       </c>
       <c r="D200" t="n">
-        <v>266.3844718340521</v>
+        <v>266.5758218466229</v>
       </c>
       <c r="E200" t="n">
         <v>17</v>
@@ -4943,10 +4943,10 @@
         <v>6</v>
       </c>
       <c r="D201" t="n">
-        <v>182.6821584231442</v>
+        <v>182.6761417277141</v>
       </c>
       <c r="E201" t="n">
-        <v>5137</v>
+        <v>5102</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4960,7 +4960,7 @@
         <v>11</v>
       </c>
       <c r="D202" t="n">
-        <v>264.7613201433355</v>
+        <v>264.1598968435093</v>
       </c>
       <c r="E202" t="n">
         <v>22</v>
@@ -4977,10 +4977,10 @@
         <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>120.6696831988266</v>
+        <v>120.8443349019826</v>
       </c>
       <c r="E203" t="n">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4994,10 +4994,10 @@
         <v>11</v>
       </c>
       <c r="D204" t="n">
-        <v>128.7636346417334</v>
+        <v>128.761092457607</v>
       </c>
       <c r="E204" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5011,7 +5011,7 @@
         <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>146.0282519768285</v>
+        <v>146.0461803867953</v>
       </c>
       <c r="E205" t="n">
         <v>3</v>
@@ -5028,10 +5028,10 @@
         <v>11</v>
       </c>
       <c r="D206" t="n">
-        <v>123.0523077707554</v>
+        <v>123.1666625482724</v>
       </c>
       <c r="E206" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5045,10 +5045,10 @@
         <v>6</v>
       </c>
       <c r="D207" t="n">
-        <v>131.7555370120364</v>
+        <v>131.6709212727003</v>
       </c>
       <c r="E207" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5062,10 +5062,10 @@
         <v>6</v>
       </c>
       <c r="D208" t="n">
-        <v>68.57826944143025</v>
+        <v>68.60530021792933</v>
       </c>
       <c r="E208" t="n">
-        <v>77321</v>
+        <v>77310</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5079,7 +5079,7 @@
         <v>6</v>
       </c>
       <c r="D209" t="n">
-        <v>142.6053700981484</v>
+        <v>142.3739354459231</v>
       </c>
       <c r="E209" t="n">
         <v>4</v>
@@ -5096,10 +5096,10 @@
         <v>11</v>
       </c>
       <c r="D210" t="n">
-        <v>126.2223758327065</v>
+        <v>126.1394467683126</v>
       </c>
       <c r="E210" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5113,10 +5113,10 @@
         <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>109.6145714825976</v>
+        <v>109.5659376611184</v>
       </c>
       <c r="E211" t="n">
-        <v>743</v>
+        <v>747</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5130,10 +5130,10 @@
         <v>11</v>
       </c>
       <c r="D212" t="n">
-        <v>126.5041609577949</v>
+        <v>126.4919457917065</v>
       </c>
       <c r="E212" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5147,10 +5147,10 @@
         <v>6</v>
       </c>
       <c r="D213" t="n">
-        <v>126.0916994313075</v>
+        <v>125.8306225377993</v>
       </c>
       <c r="E213" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5164,10 +5164,10 @@
         <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>124.0222516365977</v>
+        <v>123.839197458876</v>
       </c>
       <c r="E214" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5181,7 +5181,7 @@
         <v>11</v>
       </c>
       <c r="D215" t="n">
-        <v>129.1814927563587</v>
+        <v>129.3050961142162</v>
       </c>
       <c r="E215" t="n">
         <v>42</v>
@@ -5198,10 +5198,10 @@
         <v>6</v>
       </c>
       <c r="D216" t="n">
-        <v>125.1187225676385</v>
+        <v>124.9518954208883</v>
       </c>
       <c r="E216" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5215,10 +5215,10 @@
         <v>6</v>
       </c>
       <c r="D217" t="n">
-        <v>128.6976058513685</v>
+        <v>128.5355919482908</v>
       </c>
       <c r="E217" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5232,10 +5232,10 @@
         <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>132.9656483802116</v>
+        <v>132.8483389738134</v>
       </c>
       <c r="E218" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5249,7 +5249,7 @@
         <v>6</v>
       </c>
       <c r="D219" t="n">
-        <v>140.6758397657756</v>
+        <v>140.6216323327132</v>
       </c>
       <c r="E219" t="n">
         <v>6</v>
@@ -5266,10 +5266,10 @@
         <v>6</v>
       </c>
       <c r="D220" t="n">
-        <v>103.1828619459168</v>
+        <v>103.1236370043034</v>
       </c>
       <c r="E220" t="n">
-        <v>1726</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5283,10 +5283,10 @@
         <v>6</v>
       </c>
       <c r="D221" t="n">
-        <v>124.1202151753453</v>
+        <v>123.832094049051</v>
       </c>
       <c r="E221" t="n">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5300,10 +5300,10 @@
         <v>6</v>
       </c>
       <c r="D222" t="n">
-        <v>105.9080999600517</v>
+        <v>105.8294420240975</v>
       </c>
       <c r="E222" t="n">
-        <v>1214</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5317,7 +5317,7 @@
         <v>6</v>
       </c>
       <c r="D223" t="n">
-        <v>128.3144731659955</v>
+        <v>128.2936623241991</v>
       </c>
       <c r="E223" t="n">
         <v>46</v>
@@ -5334,10 +5334,10 @@
         <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>47.07185699123174</v>
+        <v>47.04489663990282</v>
       </c>
       <c r="E224" t="n">
-        <v>204555</v>
+        <v>205081</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5351,10 +5351,10 @@
         <v>6</v>
       </c>
       <c r="D225" t="n">
-        <v>116.4771237346717</v>
+        <v>116.3718220745218</v>
       </c>
       <c r="E225" t="n">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5368,10 +5368,10 @@
         <v>6</v>
       </c>
       <c r="D226" t="n">
-        <v>98.18327713265707</v>
+        <v>98.10615327554261</v>
       </c>
       <c r="E226" t="n">
-        <v>3303</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5385,10 +5385,10 @@
         <v>6</v>
       </c>
       <c r="D227" t="n">
-        <v>82.9201159689874</v>
+        <v>82.8551807821688</v>
       </c>
       <c r="E227" t="n">
-        <v>20046</v>
+        <v>20210</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5402,7 +5402,7 @@
         <v>6</v>
       </c>
       <c r="D228" t="n">
-        <v>117.4762801286355</v>
+        <v>117.4923951038285</v>
       </c>
       <c r="E228" t="n">
         <v>258</v>
@@ -5419,10 +5419,10 @@
         <v>6</v>
       </c>
       <c r="D229" t="n">
-        <v>118.9350538008536</v>
+        <v>118.8391661573363</v>
       </c>
       <c r="E229" t="n">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5436,7 +5436,7 @@
         <v>6</v>
       </c>
       <c r="D230" t="n">
-        <v>135.3299028972476</v>
+        <v>135.5196500799412</v>
       </c>
       <c r="E230" t="n">
         <v>10</v>
@@ -5453,10 +5453,10 @@
         <v>6</v>
       </c>
       <c r="D231" t="n">
-        <v>123.2732379251013</v>
+        <v>123.4195290790059</v>
       </c>
       <c r="E231" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5470,7 +5470,7 @@
         <v>11</v>
       </c>
       <c r="D232" t="n">
-        <v>130.4953820431668</v>
+        <v>130.5459238801844</v>
       </c>
       <c r="E232" t="n">
         <v>35</v>
@@ -5487,7 +5487,7 @@
         <v>11</v>
       </c>
       <c r="D233" t="n">
-        <v>124.9882397824916</v>
+        <v>124.9314549531998</v>
       </c>
       <c r="E233" t="n">
         <v>83</v>
@@ -5504,10 +5504,10 @@
         <v>6</v>
       </c>
       <c r="D234" t="n">
-        <v>126.6766839676174</v>
+        <v>126.6526528375525</v>
       </c>
       <c r="E234" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5521,10 +5521,10 @@
         <v>6</v>
       </c>
       <c r="D235" t="n">
-        <v>131.143297539129</v>
+        <v>131.0691497540547</v>
       </c>
       <c r="E235" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5538,10 +5538,10 @@
         <v>6</v>
       </c>
       <c r="D236" t="n">
-        <v>74.79866308154794</v>
+        <v>74.75843789469356</v>
       </c>
       <c r="E236" t="n">
-        <v>45725</v>
+        <v>46024</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5555,10 +5555,10 @@
         <v>6</v>
       </c>
       <c r="D237" t="n">
-        <v>78.13261824853613</v>
+        <v>78.06033583114962</v>
       </c>
       <c r="E237" t="n">
-        <v>33255</v>
+        <v>33514</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5572,10 +5572,10 @@
         <v>11</v>
       </c>
       <c r="D238" t="n">
-        <v>124.1862902589404</v>
+        <v>124.3068844454483</v>
       </c>
       <c r="E238" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5589,10 +5589,10 @@
         <v>11</v>
       </c>
       <c r="D239" t="n">
-        <v>134.5444749542079</v>
+        <v>134.8075034414148</v>
       </c>
       <c r="E239" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5606,7 +5606,7 @@
         <v>6</v>
       </c>
       <c r="D240" t="n">
-        <v>123.1035344802212</v>
+        <v>123.151753866445</v>
       </c>
       <c r="E240" t="n">
         <v>117</v>
@@ -5623,10 +5623,10 @@
         <v>11</v>
       </c>
       <c r="D241" t="n">
-        <v>134.8507678835806</v>
+        <v>134.7935133263798</v>
       </c>
       <c r="E241" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5640,10 +5640,10 @@
         <v>6</v>
       </c>
       <c r="D242" t="n">
-        <v>79.44111997629865</v>
+        <v>79.60278851948213</v>
       </c>
       <c r="E242" t="n">
-        <v>29143</v>
+        <v>28660</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5657,10 +5657,10 @@
         <v>11</v>
       </c>
       <c r="D243" t="n">
-        <v>131.4647716761069</v>
+        <v>131.1748298240684</v>
       </c>
       <c r="E243" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5674,10 +5674,10 @@
         <v>6</v>
       </c>
       <c r="D244" t="n">
-        <v>43.22745223080241</v>
+        <v>43.24007327581332</v>
       </c>
       <c r="E244" t="n">
-        <v>219244</v>
+        <v>219618</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5691,7 +5691,7 @@
         <v>11</v>
       </c>
       <c r="D245" t="n">
-        <v>134.277644753806</v>
+        <v>134.3581770976671</v>
       </c>
       <c r="E245" t="n">
         <v>15</v>
@@ -5708,7 +5708,7 @@
         <v>6</v>
       </c>
       <c r="D246" t="n">
-        <v>149.9545565966079</v>
+        <v>149.7933204581625</v>
       </c>
       <c r="E246" t="n">
         <v>2</v>
@@ -5725,10 +5725,10 @@
         <v>6</v>
       </c>
       <c r="D247" t="n">
-        <v>128.6395855093239</v>
+        <v>128.8329840265955</v>
       </c>
       <c r="E247" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5742,7 +5742,7 @@
         <v>11</v>
       </c>
       <c r="D248" t="n">
-        <v>85.55040893827565</v>
+        <v>85.49989257277275</v>
       </c>
       <c r="E248" t="n">
         <v>1</v>
@@ -5759,10 +5759,10 @@
         <v>6</v>
       </c>
       <c r="D249" t="n">
-        <v>46.91799070276905</v>
+        <v>46.82438586303657</v>
       </c>
       <c r="E249" t="n">
-        <v>8709</v>
+        <v>8810</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5776,10 +5776,10 @@
         <v>6</v>
       </c>
       <c r="D250" t="n">
-        <v>29.65395754792099</v>
+        <v>29.6606417333793</v>
       </c>
       <c r="E250" t="n">
-        <v>132145</v>
+        <v>132065</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5793,10 +5793,10 @@
         <v>6</v>
       </c>
       <c r="D251" t="n">
-        <v>39.68175189591244</v>
+        <v>39.71230963959097</v>
       </c>
       <c r="E251" t="n">
-        <v>36505</v>
+        <v>36209</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5810,7 +5810,7 @@
         <v>11</v>
       </c>
       <c r="D252" t="n">
-        <v>75.88325246359879</v>
+        <v>75.8045819404179</v>
       </c>
       <c r="E252" t="n">
         <v>8</v>
@@ -5827,10 +5827,10 @@
         <v>6</v>
       </c>
       <c r="D253" t="n">
-        <v>49.08699651757999</v>
+        <v>49.0463752654927</v>
       </c>
       <c r="E253" t="n">
-        <v>5200</v>
+        <v>5197</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5844,10 +5844,10 @@
         <v>6</v>
       </c>
       <c r="D254" t="n">
-        <v>56.70076624746903</v>
+        <v>56.68295144128023</v>
       </c>
       <c r="E254" t="n">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5861,10 +5861,10 @@
         <v>6</v>
       </c>
       <c r="D255" t="n">
-        <v>63.62152282273614</v>
+        <v>63.68876492666242</v>
       </c>
       <c r="E255" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5878,10 +5878,10 @@
         <v>11</v>
       </c>
       <c r="D256" t="n">
-        <v>59.99812717790132</v>
+        <v>60.00311778187292</v>
       </c>
       <c r="E256" t="n">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5895,10 +5895,10 @@
         <v>6</v>
       </c>
       <c r="D257" t="n">
-        <v>29.77992570585252</v>
+        <v>29.77495289005017</v>
       </c>
       <c r="E257" t="n">
-        <v>130812</v>
+        <v>130823</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5912,7 +5912,7 @@
         <v>6</v>
       </c>
       <c r="D258" t="n">
-        <v>78.12681211797344</v>
+        <v>78.04865688135652</v>
       </c>
       <c r="E258" t="n">
         <v>6</v>
@@ -5929,7 +5929,7 @@
         <v>11</v>
       </c>
       <c r="D259" t="n">
-        <v>64.65563284752929</v>
+        <v>64.58456215526581</v>
       </c>
       <c r="E259" t="n">
         <v>109</v>
@@ -5946,7 +5946,7 @@
         <v>6</v>
       </c>
       <c r="D260" t="n">
-        <v>59.31640414718091</v>
+        <v>59.2147779261222</v>
       </c>
       <c r="E260" t="n">
         <v>360</v>
@@ -5963,10 +5963,10 @@
         <v>6</v>
       </c>
       <c r="D261" t="n">
-        <v>42.6392942549852</v>
+        <v>42.54406425608019</v>
       </c>
       <c r="E261" t="n">
-        <v>21132</v>
+        <v>21526</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5980,7 +5980,7 @@
         <v>6</v>
       </c>
       <c r="D262" t="n">
-        <v>84.04373944150485</v>
+        <v>83.95748818911116</v>
       </c>
       <c r="E262" t="n">
         <v>2</v>
@@ -5997,10 +5997,10 @@
         <v>11</v>
       </c>
       <c r="D263" t="n">
-        <v>71.6327514658844</v>
+        <v>71.55142822816904</v>
       </c>
       <c r="E263" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6014,10 +6014,10 @@
         <v>6</v>
       </c>
       <c r="D264" t="n">
-        <v>49.35585284391011</v>
+        <v>49.32332716627666</v>
       </c>
       <c r="E264" t="n">
-        <v>4856</v>
+        <v>4853</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6031,10 +6031,10 @@
         <v>6</v>
       </c>
       <c r="D265" t="n">
-        <v>71.79162028536317</v>
+        <v>71.76071196757295</v>
       </c>
       <c r="E265" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6048,7 +6048,7 @@
         <v>6</v>
       </c>
       <c r="D266" t="n">
-        <v>83.56571909478848</v>
+        <v>83.40238290964817</v>
       </c>
       <c r="E266" t="n">
         <v>3</v>
@@ -6065,10 +6065,10 @@
         <v>6</v>
       </c>
       <c r="D267" t="n">
-        <v>58.94727801479038</v>
+        <v>59.06117395359693</v>
       </c>
       <c r="E267" t="n">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6082,10 +6082,10 @@
         <v>6</v>
       </c>
       <c r="D268" t="n">
-        <v>56.97180616794927</v>
+        <v>57.03089672231508</v>
       </c>
       <c r="E268" t="n">
-        <v>677</v>
+        <v>661</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -6099,10 +6099,10 @@
         <v>6</v>
       </c>
       <c r="D269" t="n">
-        <v>28.4954789741852</v>
+        <v>28.46734149388881</v>
       </c>
       <c r="E269" t="n">
-        <v>144129</v>
+        <v>144459</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -6116,7 +6116,7 @@
         <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>79.95372222908712</v>
+        <v>79.96314073592941</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -6133,7 +6133,7 @@
         <v>6</v>
       </c>
       <c r="D271" t="n">
-        <v>73.69191750401191</v>
+        <v>73.71109531310856</v>
       </c>
       <c r="E271" t="n">
         <v>15</v>
@@ -6150,10 +6150,10 @@
         <v>6</v>
       </c>
       <c r="D272" t="n">
-        <v>46.94712621647169</v>
+        <v>46.9020702612748</v>
       </c>
       <c r="E272" t="n">
-        <v>8639</v>
+        <v>8665</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -6167,7 +6167,7 @@
         <v>11</v>
       </c>
       <c r="D273" t="n">
-        <v>78.94125761273305</v>
+        <v>78.78528552267005</v>
       </c>
       <c r="E273" t="n">
         <v>1</v>
@@ -6184,7 +6184,7 @@
         <v>11</v>
       </c>
       <c r="D274" t="n">
-        <v>63.35067279036944</v>
+        <v>63.22415242648262</v>
       </c>
       <c r="E274" t="n">
         <v>53</v>
@@ -6201,10 +6201,10 @@
         <v>11</v>
       </c>
       <c r="D275" t="n">
-        <v>47.79253288932422</v>
+        <v>47.78783057586593</v>
       </c>
       <c r="E275" t="n">
-        <v>6518</v>
+        <v>6365</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -6218,10 +6218,10 @@
         <v>6</v>
       </c>
       <c r="D276" t="n">
-        <v>59.67917050604365</v>
+        <v>59.66311463708961</v>
       </c>
       <c r="E276" t="n">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -6235,7 +6235,7 @@
         <v>11</v>
       </c>
       <c r="D277" t="n">
-        <v>64.0447036314346</v>
+        <v>63.98963733858103</v>
       </c>
       <c r="E277" t="n">
         <v>44</v>
@@ -6252,7 +6252,7 @@
         <v>11</v>
       </c>
       <c r="D278" t="n">
-        <v>66.88679050054166</v>
+        <v>66.68702112108465</v>
       </c>
       <c r="E278" t="n">
         <v>21</v>
@@ -6269,7 +6269,7 @@
         <v>6</v>
       </c>
       <c r="D279" t="n">
-        <v>67.66672884809471</v>
+        <v>67.46423222783878</v>
       </c>
       <c r="E279" t="n">
         <v>16</v>
@@ -6286,10 +6286,10 @@
         <v>6</v>
       </c>
       <c r="D280" t="n">
-        <v>42.07248136572429</v>
+        <v>42.02279906232543</v>
       </c>
       <c r="E280" t="n">
-        <v>29253</v>
+        <v>28935</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -6303,10 +6303,10 @@
         <v>11</v>
       </c>
       <c r="D281" t="n">
-        <v>65.0008420265801</v>
+        <v>64.90610388149402</v>
       </c>
       <c r="E281" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -6320,10 +6320,10 @@
         <v>6</v>
       </c>
       <c r="D282" t="n">
-        <v>40.08340062717397</v>
+        <v>39.9863889534281</v>
       </c>
       <c r="E282" t="n">
-        <v>43151</v>
+        <v>43295</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -6337,10 +6337,10 @@
         <v>11</v>
       </c>
       <c r="D283" t="n">
-        <v>38.74771506626953</v>
+        <v>38.70463852389447</v>
       </c>
       <c r="E283" t="n">
-        <v>54252</v>
+        <v>53998</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -6354,7 +6354,7 @@
         <v>11</v>
       </c>
       <c r="D284" t="n">
-        <v>74.14304899451859</v>
+        <v>73.90002527440478</v>
       </c>
       <c r="E284" t="n">
         <v>5</v>
@@ -6371,7 +6371,7 @@
         <v>11</v>
       </c>
       <c r="D285" t="n">
-        <v>59.98585718023804</v>
+        <v>59.78955800683217</v>
       </c>
       <c r="E285" t="n">
         <v>135</v>
@@ -6388,10 +6388,10 @@
         <v>6</v>
       </c>
       <c r="D286" t="n">
-        <v>57.7189090770603</v>
+        <v>57.58937825962211</v>
       </c>
       <c r="E286" t="n">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -6405,10 +6405,10 @@
         <v>11</v>
       </c>
       <c r="D287" t="n">
-        <v>70.4261393418176</v>
+        <v>70.3335501631492</v>
       </c>
       <c r="E287" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -6422,10 +6422,10 @@
         <v>6</v>
       </c>
       <c r="D288" t="n">
-        <v>67.04987777536695</v>
+        <v>66.86445734471293</v>
       </c>
       <c r="E288" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -6439,10 +6439,10 @@
         <v>6</v>
       </c>
       <c r="D289" t="n">
-        <v>67.04987777536695</v>
+        <v>66.86445734471293</v>
       </c>
       <c r="E289" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -6456,7 +6456,7 @@
         <v>11</v>
       </c>
       <c r="D290" t="n">
-        <v>66.04338715716693</v>
+        <v>65.87715153290365</v>
       </c>
       <c r="E290" t="n">
         <v>26</v>
@@ -6473,10 +6473,10 @@
         <v>6</v>
       </c>
       <c r="D291" t="n">
-        <v>44.91621352925648</v>
+        <v>44.76089017972255</v>
       </c>
       <c r="E291" t="n">
-        <v>14496</v>
+        <v>14731</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -6490,10 +6490,10 @@
         <v>6</v>
       </c>
       <c r="D292" t="n">
-        <v>40.23154431524113</v>
+        <v>40.26277289730553</v>
       </c>
       <c r="E292" t="n">
-        <v>42061</v>
+        <v>41180</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -6507,7 +6507,7 @@
         <v>6</v>
       </c>
       <c r="D293" t="n">
-        <v>67.92498573012212</v>
+        <v>67.84696207557947</v>
       </c>
       <c r="E293" t="n">
         <v>15</v>
@@ -6524,7 +6524,7 @@
         <v>6</v>
       </c>
       <c r="D294" t="n">
-        <v>66.00203471528097</v>
+        <v>65.85715486222513</v>
       </c>
       <c r="E294" t="n">
         <v>27</v>
@@ -6541,10 +6541,10 @@
         <v>6</v>
       </c>
       <c r="D295" t="n">
-        <v>43.35298448794214</v>
+        <v>43.32264156414205</v>
       </c>
       <c r="E295" t="n">
-        <v>21757</v>
+        <v>21435</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -6558,7 +6558,7 @@
         <v>11</v>
       </c>
       <c r="D296" t="n">
-        <v>77.60781882652992</v>
+        <v>77.54351375044256</v>
       </c>
       <c r="E296" t="n">
         <v>2</v>
@@ -6575,10 +6575,10 @@
         <v>6</v>
       </c>
       <c r="D297" t="n">
-        <v>35.78373892179572</v>
+        <v>35.75835349347925</v>
       </c>
       <c r="E297" t="n">
-        <v>82086</v>
+        <v>81636</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -6592,10 +6592,10 @@
         <v>11</v>
       </c>
       <c r="D298" t="n">
-        <v>56.72324603262089</v>
+        <v>56.55499390465384</v>
       </c>
       <c r="E298" t="n">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -6609,10 +6609,10 @@
         <v>6</v>
       </c>
       <c r="D299" t="n">
-        <v>59.66224054185387</v>
+        <v>59.52947069321996</v>
       </c>
       <c r="E299" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -6626,7 +6626,7 @@
         <v>11</v>
       </c>
       <c r="D300" t="n">
-        <v>70.70643798779206</v>
+        <v>70.61067105208166</v>
       </c>
       <c r="E300" t="n">
         <v>6</v>
@@ -6643,10 +6643,10 @@
         <v>6</v>
       </c>
       <c r="D301" t="n">
-        <v>40.08363771975726</v>
+        <v>40.0210633453046</v>
       </c>
       <c r="E301" t="n">
-        <v>43144</v>
+        <v>43038</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -6660,10 +6660,10 @@
         <v>6</v>
       </c>
       <c r="D302" t="n">
-        <v>40.08363771975726</v>
+        <v>40.0210633453046</v>
       </c>
       <c r="E302" t="n">
-        <v>43143</v>
+        <v>43037</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -6677,10 +6677,10 @@
         <v>6</v>
       </c>
       <c r="D303" t="n">
-        <v>52.99925421868095</v>
+        <v>52.80081333181226</v>
       </c>
       <c r="E303" t="n">
-        <v>1301</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -6694,10 +6694,10 @@
         <v>6</v>
       </c>
       <c r="D304" t="n">
-        <v>116.4811371365579</v>
+        <v>116.386654964743</v>
       </c>
       <c r="E304" t="n">
-        <v>1602</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -6711,10 +6711,10 @@
         <v>11</v>
       </c>
       <c r="D305" t="n">
-        <v>130.6713530613981</v>
+        <v>130.1703088795659</v>
       </c>
       <c r="E305" t="n">
-        <v>231</v>
+        <v>246</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -6728,10 +6728,10 @@
         <v>6</v>
       </c>
       <c r="D306" t="n">
-        <v>109.6907772456919</v>
+        <v>109.7179673266151</v>
       </c>
       <c r="E306" t="n">
-        <v>3339</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -6745,7 +6745,7 @@
         <v>6</v>
       </c>
       <c r="D307" t="n">
-        <v>166.5394588961659</v>
+        <v>166.0507902023704</v>
       </c>
       <c r="E307" t="n">
         <v>1</v>
@@ -6762,10 +6762,10 @@
         <v>6</v>
       </c>
       <c r="D308" t="n">
-        <v>137.233326230001</v>
+        <v>137.0157973825792</v>
       </c>
       <c r="E308" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -6779,7 +6779,7 @@
         <v>6</v>
       </c>
       <c r="D309" t="n">
-        <v>132.6669050131526</v>
+        <v>132.3092288358316</v>
       </c>
       <c r="E309" t="n">
         <v>166</v>
@@ -6796,10 +6796,10 @@
         <v>6</v>
       </c>
       <c r="D310" t="n">
-        <v>134.521837976768</v>
+        <v>134.6760219455636</v>
       </c>
       <c r="E310" t="n">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -6813,10 +6813,10 @@
         <v>11</v>
       </c>
       <c r="D311" t="n">
-        <v>110.4457387568943</v>
+        <v>110.2815377462666</v>
       </c>
       <c r="E311" t="n">
-        <v>3111</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -6830,10 +6830,10 @@
         <v>6</v>
       </c>
       <c r="D312" t="n">
-        <v>106.7095848456866</v>
+        <v>106.3937138567105</v>
       </c>
       <c r="E312" t="n">
-        <v>4423</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -6847,10 +6847,10 @@
         <v>6</v>
       </c>
       <c r="D313" t="n">
-        <v>119.251044293341</v>
+        <v>118.6045861438621</v>
       </c>
       <c r="E313" t="n">
-        <v>1184</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -6864,10 +6864,10 @@
         <v>6</v>
       </c>
       <c r="D314" t="n">
-        <v>86.25670877187301</v>
+        <v>85.98176526956064</v>
       </c>
       <c r="E314" t="n">
-        <v>32886</v>
+        <v>33462</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -6881,10 +6881,10 @@
         <v>6</v>
       </c>
       <c r="D315" t="n">
-        <v>114.7646732755379</v>
+        <v>114.4498721811162</v>
       </c>
       <c r="E315" t="n">
-        <v>1967</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -6898,10 +6898,10 @@
         <v>6</v>
       </c>
       <c r="D316" t="n">
-        <v>121.4201933586673</v>
+        <v>121.1541291861901</v>
       </c>
       <c r="E316" t="n">
-        <v>825</v>
+        <v>846</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -6915,10 +6915,10 @@
         <v>11</v>
       </c>
       <c r="D317" t="n">
-        <v>120.9411164677549</v>
+        <v>120.7757626555766</v>
       </c>
       <c r="E317" t="n">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -6932,10 +6932,10 @@
         <v>11</v>
       </c>
       <c r="D318" t="n">
-        <v>111.6957733618616</v>
+        <v>111.5014683578008</v>
       </c>
       <c r="E318" t="n">
-        <v>2721</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -6949,10 +6949,10 @@
         <v>6</v>
       </c>
       <c r="D319" t="n">
-        <v>124.857257229379</v>
+        <v>124.696171675419</v>
       </c>
       <c r="E319" t="n">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -6966,7 +6966,7 @@
         <v>6</v>
       </c>
       <c r="D320" t="n">
-        <v>161.9913379883046</v>
+        <v>161.5634028940555</v>
       </c>
       <c r="E320" t="n">
         <v>3</v>
@@ -6983,10 +6983,10 @@
         <v>6</v>
       </c>
       <c r="D321" t="n">
-        <v>110.0615045121582</v>
+        <v>109.8379321562005</v>
       </c>
       <c r="E321" t="n">
-        <v>3228</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -7000,10 +7000,10 @@
         <v>11</v>
       </c>
       <c r="D322" t="n">
-        <v>87.90316560403578</v>
+        <v>87.72264437040241</v>
       </c>
       <c r="E322" t="n">
-        <v>27931</v>
+        <v>28234</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -7017,10 +7017,10 @@
         <v>11</v>
       </c>
       <c r="D323" t="n">
-        <v>104.231522744282</v>
+        <v>104.1139734895924</v>
       </c>
       <c r="E323" t="n">
-        <v>5695</v>
+        <v>5714</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -7034,10 +7034,10 @@
         <v>6</v>
       </c>
       <c r="D324" t="n">
-        <v>111.0891359908723</v>
+        <v>110.9549524516821</v>
       </c>
       <c r="E324" t="n">
-        <v>2906</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -7051,10 +7051,10 @@
         <v>6</v>
       </c>
       <c r="D325" t="n">
-        <v>112.6581004490352</v>
+        <v>112.4352323382494</v>
       </c>
       <c r="E325" t="n">
-        <v>2468</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -7068,10 +7068,10 @@
         <v>11</v>
       </c>
       <c r="D326" t="n">
-        <v>109.4703592832975</v>
+        <v>109.5023400147181</v>
       </c>
       <c r="E326" t="n">
-        <v>3397</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -7085,10 +7085,10 @@
         <v>6</v>
       </c>
       <c r="D327" t="n">
-        <v>121.6701435574301</v>
+        <v>121.6301622588278</v>
       </c>
       <c r="E327" t="n">
-        <v>801</v>
+        <v>792</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -7102,10 +7102,10 @@
         <v>6</v>
       </c>
       <c r="D328" t="n">
-        <v>115.5850120570641</v>
+        <v>115.444558920625</v>
       </c>
       <c r="E328" t="n">
-        <v>1789</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -7119,10 +7119,10 @@
         <v>6</v>
       </c>
       <c r="D329" t="n">
-        <v>101.710606805481</v>
+        <v>101.4493375401622</v>
       </c>
       <c r="E329" t="n">
-        <v>7216</v>
+        <v>7322</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -7136,10 +7136,10 @@
         <v>6</v>
       </c>
       <c r="D330" t="n">
-        <v>124.7322398162435</v>
+        <v>124.3038140636933</v>
       </c>
       <c r="E330" t="n">
-        <v>544</v>
+        <v>563</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -7153,10 +7153,10 @@
         <v>6</v>
       </c>
       <c r="D331" t="n">
-        <v>106.4195455471612</v>
+        <v>105.9944614305328</v>
       </c>
       <c r="E331" t="n">
-        <v>4563</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -7170,10 +7170,10 @@
         <v>6</v>
       </c>
       <c r="D332" t="n">
-        <v>101.799952433845</v>
+        <v>101.4980487393376</v>
       </c>
       <c r="E332" t="n">
-        <v>7143</v>
+        <v>7302</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -7187,10 +7187,10 @@
         <v>6</v>
       </c>
       <c r="D333" t="n">
-        <v>100.6029556976639</v>
+        <v>100.0427237705112</v>
       </c>
       <c r="E333" t="n">
-        <v>8016</v>
+        <v>8330</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -7204,10 +7204,10 @@
         <v>6</v>
       </c>
       <c r="D334" t="n">
-        <v>106.248545225796</v>
+        <v>105.9825657474589</v>
       </c>
       <c r="E334" t="n">
-        <v>4634</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -7221,7 +7221,7 @@
         <v>6</v>
       </c>
       <c r="D335" t="n">
-        <v>150.6927007620561</v>
+        <v>150.0717287648173</v>
       </c>
       <c r="E335" t="n">
         <v>4</v>
@@ -7238,10 +7238,10 @@
         <v>6</v>
       </c>
       <c r="D336" t="n">
-        <v>110.4382557723549</v>
+        <v>109.9491272182421</v>
       </c>
       <c r="E336" t="n">
-        <v>3115</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -7255,10 +7255,10 @@
         <v>6</v>
       </c>
       <c r="D337" t="n">
-        <v>136.333566066149</v>
+        <v>136.0334446354301</v>
       </c>
       <c r="E337" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -7272,10 +7272,10 @@
         <v>6</v>
       </c>
       <c r="D338" t="n">
-        <v>130.9235953080278</v>
+        <v>130.564135842558</v>
       </c>
       <c r="E338" t="n">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -7289,7 +7289,7 @@
         <v>6</v>
       </c>
       <c r="D339" t="n">
-        <v>142.1655202995078</v>
+        <v>141.9055889700221</v>
       </c>
       <c r="E339" t="n">
         <v>23</v>
@@ -7306,7 +7306,7 @@
         <v>6</v>
       </c>
       <c r="D340" t="n">
-        <v>165.4322374635804</v>
+        <v>165.2848115971822</v>
       </c>
       <c r="E340" t="n">
         <v>2</v>
@@ -7323,7 +7323,7 @@
         <v>6</v>
       </c>
       <c r="D341" t="n">
-        <v>138.617619303316</v>
+        <v>138.3690215862793</v>
       </c>
       <c r="E341" t="n">
         <v>51</v>
@@ -7340,10 +7340,10 @@
         <v>6</v>
       </c>
       <c r="D342" t="n">
-        <v>138.784801928571</v>
+        <v>138.4638520172003</v>
       </c>
       <c r="E342" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -7357,10 +7357,10 @@
         <v>6</v>
       </c>
       <c r="D343" t="n">
-        <v>106.7052611566686</v>
+        <v>106.4794927633329</v>
       </c>
       <c r="E343" t="n">
-        <v>4425</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -7374,10 +7374,10 @@
         <v>11</v>
       </c>
       <c r="D344" t="n">
-        <v>61.52437015998138</v>
+        <v>61.64963265363771</v>
       </c>
       <c r="E344" t="n">
-        <v>60971</v>
+        <v>60071</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -7391,10 +7391,10 @@
         <v>6</v>
       </c>
       <c r="D345" t="n">
-        <v>72.08147330534611</v>
+        <v>72.15275537355522</v>
       </c>
       <c r="E345" t="n">
-        <v>9627</v>
+        <v>9496</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -7408,10 +7408,10 @@
         <v>6</v>
       </c>
       <c r="D346" t="n">
-        <v>80.20711556346868</v>
+        <v>80.17448630020368</v>
       </c>
       <c r="E346" t="n">
-        <v>1279</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -7425,10 +7425,10 @@
         <v>11</v>
       </c>
       <c r="D347" t="n">
-        <v>84.55961961068031</v>
+        <v>84.58765525888461</v>
       </c>
       <c r="E347" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -7442,10 +7442,10 @@
         <v>11</v>
       </c>
       <c r="D348" t="n">
-        <v>84.72543271156056</v>
+        <v>84.76512168086644</v>
       </c>
       <c r="E348" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -7459,10 +7459,10 @@
         <v>6</v>
       </c>
       <c r="D349" t="n">
-        <v>76.73738345023814</v>
+        <v>76.75699037557891</v>
       </c>
       <c r="E349" t="n">
-        <v>3188</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -7476,10 +7476,10 @@
         <v>6</v>
       </c>
       <c r="D350" t="n">
-        <v>71.64102470877529</v>
+        <v>71.69758002738529</v>
       </c>
       <c r="E350" t="n">
-        <v>10629</v>
+        <v>10509</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -7493,10 +7493,10 @@
         <v>6</v>
       </c>
       <c r="D351" t="n">
-        <v>74.51842642541351</v>
+        <v>74.62190963467754</v>
       </c>
       <c r="E351" t="n">
-        <v>5478</v>
+        <v>5334</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -7510,10 +7510,10 @@
         <v>11</v>
       </c>
       <c r="D352" t="n">
-        <v>75.91992264206743</v>
+        <v>75.95738164127832</v>
       </c>
       <c r="E352" t="n">
-        <v>3879</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -7527,10 +7527,10 @@
         <v>6</v>
       </c>
       <c r="D353" t="n">
-        <v>70.52996177559781</v>
+        <v>70.55240506250928</v>
       </c>
       <c r="E353" t="n">
-        <v>13453</v>
+        <v>13392</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -7544,10 +7544,10 @@
         <v>6</v>
       </c>
       <c r="D354" t="n">
-        <v>66.25073231698045</v>
+        <v>66.25375324217917</v>
       </c>
       <c r="E354" t="n">
-        <v>30484</v>
+        <v>30448</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -7561,10 +7561,10 @@
         <v>6</v>
       </c>
       <c r="D355" t="n">
-        <v>72.2422812274354</v>
+        <v>72.31109840566603</v>
       </c>
       <c r="E355" t="n">
-        <v>9324</v>
+        <v>9150</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -7578,10 +7578,10 @@
         <v>6</v>
       </c>
       <c r="D356" t="n">
-        <v>72.68589735589359</v>
+        <v>72.78782527332369</v>
       </c>
       <c r="E356" t="n">
-        <v>8432</v>
+        <v>8238</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -7595,10 +7595,10 @@
         <v>6</v>
       </c>
       <c r="D357" t="n">
-        <v>76.91292103856449</v>
+        <v>76.93546303029851</v>
       </c>
       <c r="E357" t="n">
-        <v>3049</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -7612,10 +7612,10 @@
         <v>6</v>
       </c>
       <c r="D358" t="n">
-        <v>79.91048038255045</v>
+        <v>80.07682807279427</v>
       </c>
       <c r="E358" t="n">
-        <v>1366</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -7629,7 +7629,7 @@
         <v>6</v>
       </c>
       <c r="D359" t="n">
-        <v>93.28590149393014</v>
+        <v>93.39841373716492</v>
       </c>
       <c r="E359" t="n">
         <v>12</v>
@@ -7646,10 +7646,10 @@
         <v>6</v>
       </c>
       <c r="D360" t="n">
-        <v>73.26308569321465</v>
+        <v>73.22904823789044</v>
       </c>
       <c r="E360" t="n">
-        <v>7425</v>
+        <v>7483</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -7663,10 +7663,10 @@
         <v>6</v>
       </c>
       <c r="D361" t="n">
-        <v>63.50469638539339</v>
+        <v>63.49588839555085</v>
       </c>
       <c r="E361" t="n">
-        <v>46578</v>
+        <v>46652</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -7680,10 +7680,10 @@
         <v>6</v>
       </c>
       <c r="D362" t="n">
-        <v>73.45004509023661</v>
+        <v>73.4278854068242</v>
       </c>
       <c r="E362" t="n">
-        <v>7142</v>
+        <v>7169</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -7697,10 +7697,10 @@
         <v>6</v>
       </c>
       <c r="D363" t="n">
-        <v>38.01523666379232</v>
+        <v>37.99286583534217</v>
       </c>
       <c r="E363" t="n">
-        <v>224635</v>
+        <v>225140</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -7714,10 +7714,10 @@
         <v>6</v>
       </c>
       <c r="D364" t="n">
-        <v>29.6987853501225</v>
+        <v>29.67732331717271</v>
       </c>
       <c r="E364" t="n">
-        <v>251221</v>
+        <v>251623</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -7731,10 +7731,10 @@
         <v>6</v>
       </c>
       <c r="D365" t="n">
-        <v>47.50433127308639</v>
+        <v>47.38055712386252</v>
       </c>
       <c r="E365" t="n">
-        <v>177411</v>
+        <v>178502</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -7748,10 +7748,10 @@
         <v>6</v>
       </c>
       <c r="D366" t="n">
-        <v>71.56231810617864</v>
+        <v>71.33450531209144</v>
       </c>
       <c r="E366" t="n">
-        <v>10803</v>
+        <v>11361</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -7765,10 +7765,10 @@
         <v>6</v>
       </c>
       <c r="D367" t="n">
-        <v>73.32669838651263</v>
+        <v>73.35818932132493</v>
       </c>
       <c r="E367" t="n">
-        <v>7322</v>
+        <v>7280</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -7782,10 +7782,10 @@
         <v>6</v>
       </c>
       <c r="D368" t="n">
-        <v>65.98518707706768</v>
+        <v>65.9502348246467</v>
       </c>
       <c r="E368" t="n">
-        <v>31842</v>
+        <v>32016</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -7799,10 +7799,10 @@
         <v>6</v>
       </c>
       <c r="D369" t="n">
-        <v>60.23718445118489</v>
+        <v>60.21317952147313</v>
       </c>
       <c r="E369" t="n">
-        <v>71864</v>
+        <v>72103</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -7816,10 +7816,10 @@
         <v>6</v>
       </c>
       <c r="D370" t="n">
-        <v>40.22603462187426</v>
+        <v>40.25587700447695</v>
       </c>
       <c r="E370" t="n">
-        <v>215735</v>
+        <v>216035</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -7833,10 +7833,10 @@
         <v>6</v>
       </c>
       <c r="D371" t="n">
-        <v>58.16545568041589</v>
+        <v>58.15258902834648</v>
       </c>
       <c r="E371" t="n">
-        <v>89892</v>
+        <v>90113</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -7850,10 +7850,10 @@
         <v>6</v>
       </c>
       <c r="D372" t="n">
-        <v>59.37363273541618</v>
+        <v>59.30060840364668</v>
       </c>
       <c r="E372" t="n">
-        <v>79106</v>
+        <v>79863</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -7867,10 +7867,10 @@
         <v>6</v>
       </c>
       <c r="D373" t="n">
-        <v>54.91191644967617</v>
+        <v>54.8905883899765</v>
       </c>
       <c r="E373" t="n">
-        <v>119283</v>
+        <v>119662</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -7884,10 +7884,10 @@
         <v>6</v>
       </c>
       <c r="D374" t="n">
-        <v>67.53144040317983</v>
+        <v>67.41527170438117</v>
       </c>
       <c r="E374" t="n">
-        <v>24132</v>
+        <v>24600</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -7901,10 +7901,10 @@
         <v>11</v>
       </c>
       <c r="D375" t="n">
-        <v>47.28938000615133</v>
+        <v>47.30424249060142</v>
       </c>
       <c r="E375" t="n">
-        <v>178766</v>
+        <v>178990</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -7918,10 +7918,10 @@
         <v>6</v>
       </c>
       <c r="D376" t="n">
-        <v>58.01688584783481</v>
+        <v>57.86930051657099</v>
       </c>
       <c r="E376" t="n">
-        <v>91174</v>
+        <v>92638</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -7935,10 +7935,10 @@
         <v>6</v>
       </c>
       <c r="D377" t="n">
-        <v>76.94678705037941</v>
+        <v>76.79254993005232</v>
       </c>
       <c r="E377" t="n">
-        <v>3021</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -7952,10 +7952,10 @@
         <v>6</v>
       </c>
       <c r="D378" t="n">
-        <v>79.6107496988139</v>
+        <v>79.63609474441471</v>
       </c>
       <c r="E378" t="n">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -7969,10 +7969,10 @@
         <v>6</v>
       </c>
       <c r="D379" t="n">
-        <v>80.99512795955293</v>
+        <v>81.00684163103639</v>
       </c>
       <c r="E379" t="n">
-        <v>1043</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -7986,10 +7986,10 @@
         <v>11</v>
       </c>
       <c r="D380" t="n">
-        <v>56.26237392816894</v>
+        <v>56.2379315189301</v>
       </c>
       <c r="E380" t="n">
-        <v>107385</v>
+        <v>107753</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -8003,10 +8003,10 @@
         <v>6</v>
       </c>
       <c r="D381" t="n">
-        <v>59.30053265050163</v>
+        <v>59.1574921062274</v>
       </c>
       <c r="E381" t="n">
-        <v>79764</v>
+        <v>81076</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -8020,10 +8020,10 @@
         <v>6</v>
       </c>
       <c r="D382" t="n">
-        <v>61.07859056062035</v>
+        <v>61.12530967566632</v>
       </c>
       <c r="E382" t="n">
-        <v>64455</v>
+        <v>64174</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -8037,10 +8037,10 @@
         <v>6</v>
       </c>
       <c r="D383" t="n">
-        <v>41.35269028914671</v>
+        <v>41.37473405001202</v>
       </c>
       <c r="E383" t="n">
-        <v>210748</v>
+        <v>211106</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -8054,10 +8054,10 @@
         <v>6</v>
       </c>
       <c r="D384" t="n">
-        <v>28.87541011952182</v>
+        <v>28.90524402107952</v>
       </c>
       <c r="E384" t="n">
-        <v>253518</v>
+        <v>253788</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -8071,10 +8071,10 @@
         <v>6</v>
       </c>
       <c r="D385" t="n">
-        <v>60.07256981825606</v>
+        <v>60.05767562902347</v>
       </c>
       <c r="E385" t="n">
-        <v>73295</v>
+        <v>73495</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -8088,10 +8088,10 @@
         <v>6</v>
       </c>
       <c r="D386" t="n">
-        <v>64.02122113774472</v>
+        <v>64.13805716579724</v>
       </c>
       <c r="E386" t="n">
-        <v>43343</v>
+        <v>42615</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -8105,10 +8105,10 @@
         <v>11</v>
       </c>
       <c r="D387" t="n">
-        <v>62.07542497043259</v>
+        <v>62.06063217545295</v>
       </c>
       <c r="E387" t="n">
-        <v>56726</v>
+        <v>56905</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -8122,10 +8122,10 @@
         <v>6</v>
       </c>
       <c r="D388" t="n">
-        <v>71.03808133090909</v>
+        <v>70.92280984631064</v>
       </c>
       <c r="E388" t="n">
-        <v>12080</v>
+        <v>12366</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -8139,10 +8139,10 @@
         <v>6</v>
       </c>
       <c r="D389" t="n">
-        <v>80.34406064108123</v>
+        <v>80.19259288756543</v>
       </c>
       <c r="E389" t="n">
-        <v>1237</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -8156,10 +8156,10 @@
         <v>6</v>
       </c>
       <c r="D390" t="n">
-        <v>49.02186516287636</v>
+        <v>48.94064987432601</v>
       </c>
       <c r="E390" t="n">
-        <v>167030</v>
+        <v>167881</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -8173,10 +8173,10 @@
         <v>6</v>
       </c>
       <c r="D391" t="n">
-        <v>53.88403030264835</v>
+        <v>53.82527426757932</v>
       </c>
       <c r="E391" t="n">
-        <v>128388</v>
+        <v>129162</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -8190,10 +8190,10 @@
         <v>11</v>
       </c>
       <c r="D392" t="n">
-        <v>56.78006562127679</v>
+        <v>56.77219175636243</v>
       </c>
       <c r="E392" t="n">
-        <v>102610</v>
+        <v>102796</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -8207,10 +8207,10 @@
         <v>6</v>
       </c>
       <c r="D393" t="n">
-        <v>32.41113654265452</v>
+        <v>32.42152900302548</v>
       </c>
       <c r="E393" t="n">
-        <v>243356</v>
+        <v>243697</v>
       </c>
     </row>
   </sheetData>
@@ -8647,7 +8647,7 @@
         <v>0.034</v>
       </c>
       <c r="L11" t="n">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8685,7 +8685,7 @@
         <v>0.02</v>
       </c>
       <c r="L12" t="n">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -8723,7 +8723,7 @@
         <v>0.054</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -8761,7 +8761,7 @@
         <v>0.68</v>
       </c>
       <c r="L14" t="n">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -8799,7 +8799,7 @@
         <v>0.2941</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3529</v>
+        <v>0.3824</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -8837,7 +8837,7 @@
         <v>0.4576</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5085</v>
+        <v>0.5424</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -8875,7 +8875,7 @@
         <v>0.0648</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0351</v>
+        <v>0.0371</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -8913,7 +8913,7 @@
         <v>0.0375</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0232</v>
+        <v>0.0251</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -8951,7 +8951,7 @@
         <v>0.09660000000000001</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0567</v>
+        <v>0.0604</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -9363,7 +9363,7 @@
         <v>0.22</v>
       </c>
       <c r="J30" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="K30" t="n">
         <v>0.044</v>
@@ -9401,7 +9401,7 @@
         <v>0.36</v>
       </c>
       <c r="J31" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="K31" t="n">
         <v>0.068</v>
@@ -9477,7 +9477,7 @@
         <v>0.3333</v>
       </c>
       <c r="J33" t="n">
-        <v>0.4545</v>
+        <v>0.4242</v>
       </c>
       <c r="K33" t="n">
         <v>0.6667</v>
@@ -9515,7 +9515,7 @@
         <v>0.4</v>
       </c>
       <c r="J34" t="n">
-        <v>0.5778</v>
+        <v>0.5556</v>
       </c>
       <c r="K34" t="n">
         <v>0.7556</v>
@@ -9591,7 +9591,7 @@
         <v>0.265</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2256</v>
+        <v>0.2105</v>
       </c>
       <c r="K36" t="n">
         <v>0.08260000000000001</v>
@@ -9629,7 +9629,7 @@
         <v>0.3789</v>
       </c>
       <c r="J37" t="n">
-        <v>0.3586</v>
+        <v>0.3448</v>
       </c>
       <c r="K37" t="n">
         <v>0.1248</v>
@@ -11770,19 +11770,19 @@
         <v>0.1363408521303258</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2451007250808528</v>
+        <v>0.2444809691693348</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3010903419680945</v>
+        <v>0.3004705860565766</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3318391093112891</v>
+        <v>0.3315898862764451</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3542574233561049</v>
+        <v>0.3540878682021312</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3570031927461346</v>
+        <v>0.3568724019525118</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -11811,16 +11811,16 @@
         <v>0.03822055137844611</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06176030353661931</v>
+        <v>0.06122256071212513</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07461316804773906</v>
+        <v>0.07415553417141438</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08973799065172963</v>
+        <v>0.08945507632110929</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08973799065172963</v>
+        <v>0.08945507632110929</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -11846,19 +11846,19 @@
         <v>0.1384015594541911</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2395058648400814</v>
+        <v>0.2389973471690924</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3195033003499331</v>
+        <v>0.318232980344244</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3626685670029784</v>
+        <v>0.3618282320072</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4002762989846558</v>
+        <v>0.3996971744918847</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4028887043149213</v>
+        <v>0.4023464846117586</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -11884,19 +11884,19 @@
         <v>0.1277777777777778</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1603052503052503</v>
+        <v>0.1580634920634921</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1603052503052503</v>
+        <v>0.1580634920634921</v>
       </c>
       <c r="J5" t="n">
-        <v>0.179027846753505</v>
+        <v>0.1770447396716053</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1931751957316092</v>
+        <v>0.19387020271955</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1943090539993258</v>
+        <v>0.1964317404965367</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -11922,19 +11922,19 @@
         <v>0.003676470588235294</v>
       </c>
       <c r="H6" t="n">
-        <v>0.006772445820433437</v>
+        <v>0.006617647058823529</v>
       </c>
       <c r="I6" t="n">
-        <v>0.009815042169317818</v>
+        <v>0.009660243407707911</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01623318682275659</v>
+        <v>0.01612830858084752</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01965837270670413</v>
+        <v>0.01960523788627633</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0206731765339942</v>
+        <v>0.02097899850710246</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -11960,19 +11960,19 @@
         <v>0.06450094161958568</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08793468896055871</v>
+        <v>0.08645412967446867</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09319477078405375</v>
+        <v>0.0917142114979637</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1148908822696761</v>
+        <v>0.113651665013321</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1293788493521169</v>
+        <v>0.1299582266043935</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1316297004878335</v>
+        <v>0.1336931499138402</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -11998,19 +11998,19 @@
         <v>0.05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2116754079254079</v>
+        <v>0.2161545072574484</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2116754079254079</v>
+        <v>0.2161545072574484</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2116754079254079</v>
+        <v>0.2161545072574484</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2234307100891192</v>
+        <v>0.2280184213748473</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2234307100891192</v>
+        <v>0.2280184213748473</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -12036,19 +12036,19 @@
         <v>0.01507936507936508</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03421201814058957</v>
+        <v>0.0349969474969475</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03836484206085535</v>
+        <v>0.03914977141721328</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05369459853065227</v>
+        <v>0.05415138894734222</v>
       </c>
       <c r="K9" t="n">
-        <v>0.07747925524441608</v>
+        <v>0.07760259147823093</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08154480656143528</v>
+        <v>0.08168815982510699</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -12074,19 +12074,19 @@
         <v>0.0324561403508772</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1338130801946591</v>
+        <v>0.1363961309588244</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1411570214431291</v>
+        <v>0.1437400722072945</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1633574910066981</v>
+        <v>0.1654795335420676</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1993099643054544</v>
+        <v>0.2011220783180331</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2038591647455223</v>
+        <v>0.2056962287007796</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -12112,19 +12112,19 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03706293706293706</v>
+        <v>0.03813131313131313</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0855494634564402</v>
+        <v>0.08595110087045571</v>
       </c>
       <c r="J11" t="n">
-        <v>0.125363451240604</v>
+        <v>0.1264732369118812</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1337668125851418</v>
+        <v>0.1351688890857942</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1337668125851418</v>
+        <v>0.1351688890857942</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -12150,19 +12150,19 @@
         <v>0.09343434343434343</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1133521919966933</v>
+        <v>0.1113636363636363</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1408771118141032</v>
+        <v>0.1388166394010086</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1617915438694601</v>
+        <v>0.1545504744253093</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1866689963678553</v>
+        <v>0.1837441196053018</v>
       </c>
       <c r="L12" t="n">
-        <v>0.187607044412229</v>
+        <v>0.1846771446347124</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -12188,19 +12188,19 @@
         <v>0.06851851851851851</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1258839360885397</v>
+        <v>0.1247138047138047</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1906977279464838</v>
+        <v>0.1890270822571928</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2413837817963178</v>
+        <v>0.233592221786254</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2766144744187112</v>
+        <v>0.2745034881227545</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2776612816566356</v>
+        <v>0.2755446899671693</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -12232,13 +12232,13 @@
         <v>0.1491622103386809</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1622118557287519</v>
+        <v>0.161991157707102</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1622118557287519</v>
+        <v>0.161991157707102</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1622118557287519</v>
+        <v>0.161991157707102</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -12267,16 +12267,16 @@
         <v>0.1087092731829574</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1162280701754386</v>
+        <v>0.1158863066757803</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1162280701754386</v>
+        <v>0.1158863066757803</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1222724527457714</v>
+        <v>0.1219412441711003</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1230999932952583</v>
+        <v>0.1227687847205872</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -12305,16 +12305,16 @@
         <v>0.1876408243548203</v>
       </c>
       <c r="I16" t="n">
-        <v>0.195851004978794</v>
+        <v>0.1954778149504316</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2053105305351648</v>
+        <v>0.2047790853678544</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2122922269914304</v>
+        <v>0.2117778836271874</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2131597177743408</v>
+        <v>0.2126453744100979</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -12337,22 +12337,22 @@
         <v>0.1857142857142857</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2779761904761905</v>
+        <v>0.2843537414965986</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2983843537414966</v>
+        <v>0.3047619047619047</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3485520431949003</v>
+        <v>0.3564602064602064</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3620291321436874</v>
+        <v>0.3699372954089935</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3698949249736807</v>
+        <v>0.3777742079517884</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3698949249736807</v>
+        <v>0.3777742079517884</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -12378,19 +12378,19 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03346233230134159</v>
+        <v>0.03232714138286893</v>
       </c>
       <c r="I18" t="n">
-        <v>0.04435557848870542</v>
+        <v>0.04322038757023277</v>
       </c>
       <c r="J18" t="n">
-        <v>0.04435557848870542</v>
+        <v>0.04322038757023277</v>
       </c>
       <c r="K18" t="n">
-        <v>0.05103320583995452</v>
+        <v>0.05002994853395916</v>
       </c>
       <c r="L18" t="n">
-        <v>0.05103320583995452</v>
+        <v>0.05002994853395916</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -12413,22 +12413,22 @@
         <v>0.08387096774193549</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1255376344086022</v>
+        <v>0.1284178187403994</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1975317999299324</v>
+        <v>0.1988934028619937</v>
       </c>
       <c r="I19" t="n">
-        <v>0.247761856611602</v>
+        <v>0.2502467314330643</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2568914975123932</v>
+        <v>0.2593763723338555</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2718526617264331</v>
+        <v>0.2745129305479871</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2718526617264331</v>
+        <v>0.2745129305479871</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -12457,16 +12457,16 @@
         <v>0.25</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2722222222222223</v>
+        <v>0.2730769230769231</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2722222222222223</v>
+        <v>0.2730769230769231</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2829863292977532</v>
+        <v>0.2838765802306643</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2829863292977532</v>
+        <v>0.2838765802306643</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -12492,19 +12492,19 @@
         <v>0.1291666666666667</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1583333333333333</v>
+        <v>0.1578333333333333</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1583333333333333</v>
+        <v>0.1578333333333333</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1583333333333333</v>
+        <v>0.1578333333333333</v>
       </c>
       <c r="K21" t="n">
-        <v>0.163238091575655</v>
+        <v>0.1628630299707602</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1647352647025332</v>
+        <v>0.1643833485116915</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -12530,19 +12530,19 @@
         <v>0.2233333333333333</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2553333333333333</v>
+        <v>0.2548</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2686666666666666</v>
+        <v>0.2686461538461538</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2686666666666666</v>
+        <v>0.2686461538461538</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2801793246284793</v>
+        <v>0.2803324069257461</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2819483461738366</v>
+        <v>0.2821290113970858</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -12577,10 +12577,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.001349810136596171</v>
+        <v>0.001356449634725111</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001349810136596171</v>
+        <v>0.001356449634725111</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -12653,10 +12653,10 @@
         <v>0.001666666666666667</v>
       </c>
       <c r="K25" t="n">
-        <v>0.002027934532285568</v>
+        <v>0.002029808563963099</v>
       </c>
       <c r="L25" t="n">
-        <v>0.002027934532285568</v>
+        <v>0.002029808563963099</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -12691,10 +12691,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0006184291898577613</v>
+        <v>0.000580720092915215</v>
       </c>
       <c r="L26" t="n">
-        <v>0.000941635395416908</v>
+        <v>0.0009035610937223175</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -12723,16 +12723,16 @@
         <v>0.1277997364953887</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1315103116345352</v>
+        <v>0.1314361001317523</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1424997579180992</v>
+        <v>0.1423946051586023</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1487671753860143</v>
+        <v>0.1488633360375666</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1514426879768461</v>
+        <v>0.1515016171847951</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -12761,16 +12761,16 @@
         <v>0.1054347826086957</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1084960070984916</v>
+        <v>0.1084347826086957</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1175623002824318</v>
+        <v>0.1174755492558469</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1241398461003882</v>
+        <v>0.1241333904423746</v>
       </c>
       <c r="L28" t="n">
-        <v>0.1270106561417063</v>
+        <v>0.1269707849018558</v>
       </c>
     </row>
     <row r="29" spans="1:12">

--- a/BM25.xlsx
+++ b/BM25.xlsx
@@ -1560,10 +1560,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>217.0916390853095</v>
+        <v>133.9120912381229</v>
       </c>
       <c r="E2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1577,10 +1577,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>231.0745898324823</v>
+        <v>160.1727825485618</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1594,10 +1594,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>237.6803409533575</v>
+        <v>169.1004481133758</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1611,10 +1611,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>150.3860355634714</v>
+        <v>97.71197340285774</v>
       </c>
       <c r="E5" t="n">
-        <v>7094</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1628,7 +1628,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>236.3116764149294</v>
+        <v>173.0469321246057</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -1645,10 +1645,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>234.934056580831</v>
+        <v>173.6832088291904</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1662,7 +1662,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>301.0801083885133</v>
+        <v>218.1469595410219</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -1679,10 +1679,10 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>239.1588037873373</v>
+        <v>173.0613337613797</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1696,10 +1696,10 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>239.1588037873373</v>
+        <v>173.0613337613797</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1713,10 +1713,10 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>228.908204923863</v>
+        <v>159.6109108705217</v>
       </c>
       <c r="E11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1730,10 +1730,10 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>232.2036518148127</v>
+        <v>170.1015531930327</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1747,7 +1747,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>250.0787978818817</v>
+        <v>208.6399133560871</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -1764,10 +1764,10 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>219.8000164906704</v>
+        <v>157.660459507802</v>
       </c>
       <c r="E14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1781,10 +1781,10 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>193.0044645227132</v>
+        <v>145.4731524997975</v>
       </c>
       <c r="E15" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1798,7 +1798,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>425.2994389949001</v>
+        <v>338.8959459453503</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1815,10 +1815,10 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>224.2190684176171</v>
+        <v>161.6414584838691</v>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1832,10 +1832,10 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>200.8335435140459</v>
+        <v>123.1930658398295</v>
       </c>
       <c r="E18" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1849,10 +1849,10 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>200.8335435140459</v>
+        <v>123.1930658398295</v>
       </c>
       <c r="E19" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1866,10 +1866,10 @@
         <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>137.5462424400026</v>
+        <v>53.39436264879247</v>
       </c>
       <c r="E20" t="n">
-        <v>1439</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1883,10 +1883,10 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>132.4977185877564</v>
+        <v>75.90021991504162</v>
       </c>
       <c r="E21" t="n">
-        <v>2461</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1900,10 +1900,10 @@
         <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>131.7956194879003</v>
+        <v>42.51388510151975</v>
       </c>
       <c r="E22" t="n">
-        <v>2656</v>
+        <v>5937</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1917,10 +1917,10 @@
         <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>183.5152838234193</v>
+        <v>102.0595553437831</v>
       </c>
       <c r="E23" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1934,10 +1934,10 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>153.4285257802669</v>
+        <v>84.2729585594969</v>
       </c>
       <c r="E24" t="n">
-        <v>347</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1951,10 +1951,10 @@
         <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>149.1251965057811</v>
+        <v>53.95099667324541</v>
       </c>
       <c r="E25" t="n">
-        <v>508</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1968,10 +1968,10 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>158.3855715530867</v>
+        <v>91.62445806581432</v>
       </c>
       <c r="E26" t="n">
-        <v>212</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1985,10 +1985,10 @@
         <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>161.4015429898444</v>
+        <v>73.11841324876882</v>
       </c>
       <c r="E27" t="n">
-        <v>167</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2002,10 +2002,10 @@
         <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>166.6640857641266</v>
+        <v>86.71368940463402</v>
       </c>
       <c r="E28" t="n">
-        <v>103</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2019,10 +2019,10 @@
         <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>145.7491790693636</v>
+        <v>69.87124041652758</v>
       </c>
       <c r="E29" t="n">
-        <v>663</v>
+        <v>553</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2036,10 +2036,10 @@
         <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>184.9942527710693</v>
+        <v>92.17852554609381</v>
       </c>
       <c r="E30" t="n">
-        <v>19</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2053,10 +2053,10 @@
         <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>184.7278230648258</v>
+        <v>96.32046655536622</v>
       </c>
       <c r="E31" t="n">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2070,10 +2070,10 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>162.5145489959752</v>
+        <v>90.80828547706862</v>
       </c>
       <c r="E32" t="n">
-        <v>146</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2087,10 +2087,10 @@
         <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>195.1644673228742</v>
+        <v>107.5457609356911</v>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2104,10 +2104,10 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>173.8639560987392</v>
+        <v>94.4685127235702</v>
       </c>
       <c r="E34" t="n">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2121,10 +2121,10 @@
         <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>188.6640654803221</v>
+        <v>96.31387840858652</v>
       </c>
       <c r="E35" t="n">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2138,10 +2138,10 @@
         <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>162.4963314777613</v>
+        <v>84.20753024484449</v>
       </c>
       <c r="E36" t="n">
-        <v>147</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2155,10 +2155,10 @@
         <v>11</v>
       </c>
       <c r="D37" t="n">
-        <v>113.7343942053683</v>
+        <v>44.41024108925918</v>
       </c>
       <c r="E37" t="n">
-        <v>20578</v>
+        <v>5013</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2172,10 +2172,10 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>193.681809216308</v>
+        <v>110.654284360032</v>
       </c>
       <c r="E38" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2189,10 +2189,10 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>184.6355653156394</v>
+        <v>107.8758983643149</v>
       </c>
       <c r="E39" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2206,10 +2206,10 @@
         <v>11</v>
       </c>
       <c r="D40" t="n">
-        <v>170.9128294163055</v>
+        <v>98.04383157924538</v>
       </c>
       <c r="E40" t="n">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2223,10 +2223,10 @@
         <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>176.9170637539119</v>
+        <v>106.3625583658524</v>
       </c>
       <c r="E41" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2240,10 +2240,10 @@
         <v>11</v>
       </c>
       <c r="D42" t="n">
-        <v>168.8534639325397</v>
+        <v>86.16683177629962</v>
       </c>
       <c r="E42" t="n">
-        <v>81</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2257,10 +2257,10 @@
         <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>126.7531652280803</v>
+        <v>66.12274427631631</v>
       </c>
       <c r="E43" t="n">
-        <v>4704</v>
+        <v>792</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2274,10 +2274,10 @@
         <v>11</v>
       </c>
       <c r="D44" t="n">
-        <v>179.0558718455604</v>
+        <v>111.1242603966134</v>
       </c>
       <c r="E44" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2291,10 +2291,10 @@
         <v>11</v>
       </c>
       <c r="D45" t="n">
-        <v>158.4828967740769</v>
+        <v>89.52497056192846</v>
       </c>
       <c r="E45" t="n">
-        <v>209</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2308,10 +2308,10 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>161.5864770730244</v>
+        <v>94.15482791050289</v>
       </c>
       <c r="E46" t="n">
-        <v>163</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2325,10 +2325,10 @@
         <v>11</v>
       </c>
       <c r="D47" t="n">
-        <v>194.6758269624365</v>
+        <v>102.1343012850496</v>
       </c>
       <c r="E47" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2342,10 +2342,10 @@
         <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>137.2652491876397</v>
+        <v>58.67585676283689</v>
       </c>
       <c r="E48" t="n">
-        <v>1487</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2359,10 +2359,10 @@
         <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>140.9420581027281</v>
+        <v>81.31540540639058</v>
       </c>
       <c r="E49" t="n">
-        <v>1038</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2376,10 +2376,10 @@
         <v>11</v>
       </c>
       <c r="D50" t="n">
-        <v>117.1174609489098</v>
+        <v>64.73808345268637</v>
       </c>
       <c r="E50" t="n">
-        <v>14116</v>
+        <v>880</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2393,10 +2393,10 @@
         <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>179.851186925923</v>
+        <v>103.7569622994432</v>
       </c>
       <c r="E51" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2410,10 +2410,10 @@
         <v>11</v>
       </c>
       <c r="D52" t="n">
-        <v>175.5653062707669</v>
+        <v>98.93034251114156</v>
       </c>
       <c r="E52" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2427,10 +2427,10 @@
         <v>11</v>
       </c>
       <c r="D53" t="n">
-        <v>149.9372832613012</v>
+        <v>68.00504785227663</v>
       </c>
       <c r="E53" t="n">
-        <v>462</v>
+        <v>657</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2444,10 +2444,10 @@
         <v>11</v>
       </c>
       <c r="D54" t="n">
-        <v>196.1394896966328</v>
+        <v>134.1824337808622</v>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2461,10 +2461,10 @@
         <v>11</v>
       </c>
       <c r="D55" t="n">
-        <v>123.780727539943</v>
+        <v>59.52231823035938</v>
       </c>
       <c r="E55" t="n">
-        <v>6605</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2478,10 +2478,10 @@
         <v>11</v>
       </c>
       <c r="D56" t="n">
-        <v>161.7658163446991</v>
+        <v>101.0215753277589</v>
       </c>
       <c r="E56" t="n">
-        <v>157</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2495,10 +2495,10 @@
         <v>11</v>
       </c>
       <c r="D57" t="n">
-        <v>193.3575670497569</v>
+        <v>114.8516492488921</v>
       </c>
       <c r="E57" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2512,10 +2512,10 @@
         <v>11</v>
       </c>
       <c r="D58" t="n">
-        <v>178.7765023616812</v>
+        <v>90.9511423889432</v>
       </c>
       <c r="E58" t="n">
-        <v>38</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2529,10 +2529,10 @@
         <v>11</v>
       </c>
       <c r="D59" t="n">
-        <v>150.6410889118663</v>
+        <v>77.68547343712488</v>
       </c>
       <c r="E59" t="n">
-        <v>437</v>
+        <v>292</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2546,7 +2546,7 @@
         <v>11</v>
       </c>
       <c r="D60" t="n">
-        <v>196.2318386452335</v>
+        <v>121.5969055047683</v>
       </c>
       <c r="E60" t="n">
         <v>2</v>
@@ -2563,10 +2563,10 @@
         <v>11</v>
       </c>
       <c r="D61" t="n">
-        <v>170.1462906230039</v>
+        <v>87.93763408681963</v>
       </c>
       <c r="E61" t="n">
-        <v>74</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2580,10 +2580,10 @@
         <v>11</v>
       </c>
       <c r="D62" t="n">
-        <v>191.4260890638546</v>
+        <v>112.7922674668955</v>
       </c>
       <c r="E62" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2597,10 +2597,10 @@
         <v>11</v>
       </c>
       <c r="D63" t="n">
-        <v>179.0470022685577</v>
+        <v>105.3810173565816</v>
       </c>
       <c r="E63" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2614,10 +2614,10 @@
         <v>11</v>
       </c>
       <c r="D64" t="n">
-        <v>179.5544236811734</v>
+        <v>105.8145486679926</v>
       </c>
       <c r="E64" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2631,10 +2631,10 @@
         <v>11</v>
       </c>
       <c r="D65" t="n">
-        <v>183.4031469613672</v>
+        <v>107.0436379083363</v>
       </c>
       <c r="E65" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2648,10 +2648,10 @@
         <v>11</v>
       </c>
       <c r="D66" t="n">
-        <v>189.2603370470151</v>
+        <v>113.0317213616433</v>
       </c>
       <c r="E66" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2665,10 +2665,10 @@
         <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>180.2536810592448</v>
+        <v>107.749903860854</v>
       </c>
       <c r="E67" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2682,10 +2682,10 @@
         <v>11</v>
       </c>
       <c r="D68" t="n">
-        <v>122.2459684175499</v>
+        <v>52.38483061401879</v>
       </c>
       <c r="E68" t="n">
-        <v>7812</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2699,10 +2699,10 @@
         <v>11</v>
       </c>
       <c r="D69" t="n">
-        <v>187.5702431026295</v>
+        <v>113.3534824636982</v>
       </c>
       <c r="E69" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2716,10 +2716,10 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>153.238162822322</v>
+        <v>102.8710081591476</v>
       </c>
       <c r="E70" t="n">
-        <v>352</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2733,10 +2733,10 @@
         <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>170.3959077427577</v>
+        <v>112.2266894856153</v>
       </c>
       <c r="E71" t="n">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2750,10 +2750,10 @@
         <v>11</v>
       </c>
       <c r="D72" t="n">
-        <v>173.4644877464764</v>
+        <v>103.4058487819311</v>
       </c>
       <c r="E72" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2767,10 +2767,10 @@
         <v>11</v>
       </c>
       <c r="D73" t="n">
-        <v>198.7870186691945</v>
+        <v>110.8731272610139</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2784,10 +2784,10 @@
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>138.4392819230136</v>
+        <v>64.18574219035581</v>
       </c>
       <c r="E74" t="n">
-        <v>1311</v>
+        <v>933</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2801,10 +2801,10 @@
         <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>107.1019570256506</v>
+        <v>31.01096192522251</v>
       </c>
       <c r="E75" t="n">
-        <v>39443</v>
+        <v>19277</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2818,10 +2818,10 @@
         <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>105.8669630971552</v>
+        <v>22.37192085983615</v>
       </c>
       <c r="E76" t="n">
-        <v>43997</v>
+        <v>53114</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2835,10 +2835,10 @@
         <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>370.363993975933</v>
+        <v>261.9275168983598</v>
       </c>
       <c r="E77" t="n">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2852,10 +2852,10 @@
         <v>11</v>
       </c>
       <c r="D78" t="n">
-        <v>356.0187588727209</v>
+        <v>278.2716082575909</v>
       </c>
       <c r="E78" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2869,10 +2869,10 @@
         <v>11</v>
       </c>
       <c r="D79" t="n">
-        <v>359.2650183315977</v>
+        <v>230.5406010215074</v>
       </c>
       <c r="E79" t="n">
-        <v>17</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2886,10 +2886,10 @@
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>284.9113426809741</v>
+        <v>215.7244464322965</v>
       </c>
       <c r="E80" t="n">
-        <v>561</v>
+        <v>453</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2903,10 +2903,10 @@
         <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>255.448585459358</v>
+        <v>215.6015205222555</v>
       </c>
       <c r="E81" t="n">
-        <v>1608</v>
+        <v>454</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2920,10 +2920,10 @@
         <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>272.1498625423847</v>
+        <v>238.6447178931313</v>
       </c>
       <c r="E82" t="n">
-        <v>908</v>
+        <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2937,10 +2937,10 @@
         <v>11</v>
       </c>
       <c r="D83" t="n">
-        <v>395.3238199982578</v>
+        <v>349.430665855081</v>
       </c>
       <c r="E83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2954,10 +2954,10 @@
         <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>296.4137785790239</v>
+        <v>235.066005380176</v>
       </c>
       <c r="E84" t="n">
-        <v>356</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2971,10 +2971,10 @@
         <v>11</v>
       </c>
       <c r="D85" t="n">
-        <v>320.0066804981978</v>
+        <v>267.4516490331691</v>
       </c>
       <c r="E85" t="n">
-        <v>114</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2988,10 +2988,10 @@
         <v>11</v>
       </c>
       <c r="D86" t="n">
-        <v>368.7671230390582</v>
+        <v>319.8014136378782</v>
       </c>
       <c r="E86" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3005,10 +3005,10 @@
         <v>11</v>
       </c>
       <c r="D87" t="n">
-        <v>371.1569999473633</v>
+        <v>263.3121092967267</v>
       </c>
       <c r="E87" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3022,10 +3022,10 @@
         <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>203.9931106417626</v>
+        <v>165.7016040433132</v>
       </c>
       <c r="E88" t="n">
-        <v>9802</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3039,10 +3039,10 @@
         <v>11</v>
       </c>
       <c r="D89" t="n">
-        <v>368.2640487375354</v>
+        <v>347.9409143787449</v>
       </c>
       <c r="E89" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3056,10 +3056,10 @@
         <v>11</v>
       </c>
       <c r="D90" t="n">
-        <v>290.9071440467974</v>
+        <v>209.9972394968401</v>
       </c>
       <c r="E90" t="n">
-        <v>441</v>
+        <v>586</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3073,10 +3073,10 @@
         <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>325.7268644658215</v>
+        <v>223.7230793972417</v>
       </c>
       <c r="E91" t="n">
-        <v>85</v>
+        <v>326</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3090,10 +3090,10 @@
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>152.8111504463449</v>
+        <v>110.1707453916379</v>
       </c>
       <c r="E92" t="n">
-        <v>87423</v>
+        <v>11537</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3107,10 +3107,10 @@
         <v>11</v>
       </c>
       <c r="D93" t="n">
-        <v>296.6867975280013</v>
+        <v>206.7530277022429</v>
       </c>
       <c r="E93" t="n">
-        <v>349</v>
+        <v>664</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3124,10 +3124,10 @@
         <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>369.0581797175176</v>
+        <v>306.8965479507382</v>
       </c>
       <c r="E94" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3141,10 +3141,10 @@
         <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>257.8963742722264</v>
+        <v>196.6039977969898</v>
       </c>
       <c r="E95" t="n">
-        <v>1478</v>
+        <v>953</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3158,10 +3158,10 @@
         <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>274.1850487897871</v>
+        <v>208.2510174765133</v>
       </c>
       <c r="E96" t="n">
-        <v>851</v>
+        <v>630</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3175,10 +3175,10 @@
         <v>11</v>
       </c>
       <c r="D97" t="n">
-        <v>365.5987712482141</v>
+        <v>286.7651544908927</v>
       </c>
       <c r="E97" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3192,10 +3192,10 @@
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>311.6025994494895</v>
+        <v>321.6394668794236</v>
       </c>
       <c r="E98" t="n">
-        <v>172</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3209,10 +3209,10 @@
         <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>335.7213956186109</v>
+        <v>263.9776994808218</v>
       </c>
       <c r="E99" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3226,10 +3226,10 @@
         <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>316.1923913480803</v>
+        <v>247.6825779191443</v>
       </c>
       <c r="E100" t="n">
-        <v>140</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3243,10 +3243,10 @@
         <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>321.0780946415687</v>
+        <v>247.6922672315162</v>
       </c>
       <c r="E101" t="n">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3260,10 +3260,10 @@
         <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>371.5327737734269</v>
+        <v>294.7138014914497</v>
       </c>
       <c r="E102" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3277,10 +3277,10 @@
         <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>309.4786611848569</v>
+        <v>269.7216399243761</v>
       </c>
       <c r="E103" t="n">
-        <v>185</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3294,10 +3294,10 @@
         <v>6</v>
       </c>
       <c r="D104" t="n">
-        <v>341.309998940545</v>
+        <v>236.6587980767616</v>
       </c>
       <c r="E104" t="n">
-        <v>43</v>
+        <v>169</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3311,10 +3311,10 @@
         <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>317.8677134491057</v>
+        <v>293.816044303449</v>
       </c>
       <c r="E105" t="n">
-        <v>125</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3328,10 +3328,10 @@
         <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>126.7271468576391</v>
+        <v>121.6182655371845</v>
       </c>
       <c r="E106" t="n">
-        <v>155480</v>
+        <v>7527</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3345,10 +3345,10 @@
         <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>301.8993799768219</v>
+        <v>265.3495259252003</v>
       </c>
       <c r="E107" t="n">
-        <v>273</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3362,10 +3362,10 @@
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>335.6850294500639</v>
+        <v>228.8789481867917</v>
       </c>
       <c r="E108" t="n">
-        <v>56</v>
+        <v>249</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3379,10 +3379,10 @@
         <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>286.2812525422862</v>
+        <v>175.9734704814466</v>
       </c>
       <c r="E109" t="n">
-        <v>531</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3396,10 +3396,10 @@
         <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>322.5428256126228</v>
+        <v>281.3815506006674</v>
       </c>
       <c r="E110" t="n">
-        <v>103</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3413,10 +3413,10 @@
         <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>374.7581649501831</v>
+        <v>288.713657853256</v>
       </c>
       <c r="E111" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3430,10 +3430,10 @@
         <v>6</v>
       </c>
       <c r="D112" t="n">
-        <v>323.7557274689913</v>
+        <v>280.3950710415365</v>
       </c>
       <c r="E112" t="n">
-        <v>98</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3447,10 +3447,10 @@
         <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>236.5606901031735</v>
+        <v>247.56848416434</v>
       </c>
       <c r="E113" t="n">
-        <v>2974</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3464,10 +3464,10 @@
         <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>246.5173631388982</v>
+        <v>230.4109174733558</v>
       </c>
       <c r="E114" t="n">
-        <v>2135</v>
+        <v>228</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3481,10 +3481,10 @@
         <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>298.0443598720575</v>
+        <v>151.4166659451597</v>
       </c>
       <c r="E115" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3498,10 +3498,10 @@
         <v>11</v>
       </c>
       <c r="D116" t="n">
-        <v>269.6321638189299</v>
+        <v>151.4111441118995</v>
       </c>
       <c r="E116" t="n">
-        <v>300</v>
+        <v>72</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3515,7 +3515,7 @@
         <v>11</v>
       </c>
       <c r="D117" t="n">
-        <v>343.8705936951177</v>
+        <v>203.1509156710775</v>
       </c>
       <c r="E117" t="n">
         <v>1</v>
@@ -3532,10 +3532,10 @@
         <v>11</v>
       </c>
       <c r="D118" t="n">
-        <v>261.033269093367</v>
+        <v>143.7489284233757</v>
       </c>
       <c r="E118" t="n">
-        <v>661</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3549,10 +3549,10 @@
         <v>11</v>
       </c>
       <c r="D119" t="n">
-        <v>312.7739265779194</v>
+        <v>185.1364126152652</v>
       </c>
       <c r="E119" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3566,10 +3566,10 @@
         <v>11</v>
       </c>
       <c r="D120" t="n">
-        <v>303.4266865755003</v>
+        <v>175.0061465816463</v>
       </c>
       <c r="E120" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3583,10 +3583,10 @@
         <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>308.989231957676</v>
+        <v>150.8774451722735</v>
       </c>
       <c r="E121" t="n">
-        <v>8</v>
+        <v>74</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3600,10 +3600,10 @@
         <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>250.4820988700156</v>
+        <v>136.9356416873261</v>
       </c>
       <c r="E122" t="n">
-        <v>1752</v>
+        <v>238</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3617,10 +3617,10 @@
         <v>11</v>
       </c>
       <c r="D123" t="n">
-        <v>268.4233603198679</v>
+        <v>155.8938479205135</v>
       </c>
       <c r="E123" t="n">
-        <v>334</v>
+        <v>48</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3634,10 +3634,10 @@
         <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>276.1377957917277</v>
+        <v>140.1950172822259</v>
       </c>
       <c r="E124" t="n">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3651,10 +3651,10 @@
         <v>11</v>
       </c>
       <c r="D125" t="n">
-        <v>282.6875099899472</v>
+        <v>162.4121079418474</v>
       </c>
       <c r="E125" t="n">
-        <v>103</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3668,10 +3668,10 @@
         <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>270.2583573607393</v>
+        <v>173.5593486454054</v>
       </c>
       <c r="E126" t="n">
-        <v>284</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3685,10 +3685,10 @@
         <v>11</v>
       </c>
       <c r="D127" t="n">
-        <v>289.3171679004693</v>
+        <v>160.6542447465851</v>
       </c>
       <c r="E127" t="n">
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3702,10 +3702,10 @@
         <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>293.0034145847034</v>
+        <v>162.5276659644445</v>
       </c>
       <c r="E128" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3719,10 +3719,10 @@
         <v>6</v>
       </c>
       <c r="D129" t="n">
-        <v>265.3489870461151</v>
+        <v>161.918365925712</v>
       </c>
       <c r="E129" t="n">
-        <v>438</v>
+        <v>27</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3736,10 +3736,10 @@
         <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>223.9634376848509</v>
+        <v>65.53571246062469</v>
       </c>
       <c r="E130" t="n">
-        <v>15824</v>
+        <v>94465</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3753,10 +3753,10 @@
         <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>174.6099760893922</v>
+        <v>68.05952118411059</v>
       </c>
       <c r="E131" t="n">
-        <v>115293</v>
+        <v>82645</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3770,10 +3770,10 @@
         <v>11</v>
       </c>
       <c r="D132" t="n">
-        <v>245.5056110456804</v>
+        <v>131.2053897216133</v>
       </c>
       <c r="E132" t="n">
-        <v>2896</v>
+        <v>388</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3787,10 +3787,10 @@
         <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>290.9743944514576</v>
+        <v>171.5574525480976</v>
       </c>
       <c r="E133" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3804,10 +3804,10 @@
         <v>11</v>
       </c>
       <c r="D134" t="n">
-        <v>249.893771483349</v>
+        <v>168.6631013143816</v>
       </c>
       <c r="E134" t="n">
-        <v>1858</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3821,10 +3821,10 @@
         <v>11</v>
       </c>
       <c r="D135" t="n">
-        <v>280.8677788966872</v>
+        <v>173.1892295376746</v>
       </c>
       <c r="E135" t="n">
-        <v>119</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3838,10 +3838,10 @@
         <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>236.0164889457972</v>
+        <v>134.5953073713578</v>
       </c>
       <c r="E136" t="n">
-        <v>6564</v>
+        <v>287</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3855,10 +3855,10 @@
         <v>11</v>
       </c>
       <c r="D137" t="n">
-        <v>265.2303718194894</v>
+        <v>154.6929501299216</v>
       </c>
       <c r="E137" t="n">
-        <v>449</v>
+        <v>58</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3872,10 +3872,10 @@
         <v>11</v>
       </c>
       <c r="D138" t="n">
-        <v>253.6693506083597</v>
+        <v>145.5721913607688</v>
       </c>
       <c r="E138" t="n">
-        <v>1301</v>
+        <v>110</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3889,10 +3889,10 @@
         <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>239.9111369181641</v>
+        <v>141.5780925504685</v>
       </c>
       <c r="E139" t="n">
-        <v>4717</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3906,10 +3906,10 @@
         <v>11</v>
       </c>
       <c r="D140" t="n">
-        <v>252.8681423134098</v>
+        <v>149.6072467987064</v>
       </c>
       <c r="E140" t="n">
-        <v>1409</v>
+        <v>82</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3923,10 +3923,10 @@
         <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>180.8167499743859</v>
+        <v>55.38563763275129</v>
       </c>
       <c r="E141" t="n">
-        <v>100122</v>
+        <v>143446</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3940,10 +3940,10 @@
         <v>11</v>
       </c>
       <c r="D142" t="n">
-        <v>264.8459886261124</v>
+        <v>148.2401620083021</v>
       </c>
       <c r="E142" t="n">
-        <v>470</v>
+        <v>95</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3957,10 +3957,10 @@
         <v>11</v>
       </c>
       <c r="D143" t="n">
-        <v>302.3273926232524</v>
+        <v>150.2723509835074</v>
       </c>
       <c r="E143" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3974,10 +3974,10 @@
         <v>11</v>
       </c>
       <c r="D144" t="n">
-        <v>319.3551946208083</v>
+        <v>180.3187710315456</v>
       </c>
       <c r="E144" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3991,10 +3991,10 @@
         <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>258.9431982550963</v>
+        <v>136.1236934195258</v>
       </c>
       <c r="E145" t="n">
-        <v>809</v>
+        <v>255</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4008,10 +4008,10 @@
         <v>11</v>
       </c>
       <c r="D146" t="n">
-        <v>287.0936786140388</v>
+        <v>143.1143782085298</v>
       </c>
       <c r="E146" t="n">
-        <v>70</v>
+        <v>134</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4025,10 +4025,10 @@
         <v>6</v>
       </c>
       <c r="D147" t="n">
-        <v>227.7476927663511</v>
+        <v>140.2054158234907</v>
       </c>
       <c r="E147" t="n">
-        <v>12086</v>
+        <v>170</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4042,10 +4042,10 @@
         <v>6</v>
       </c>
       <c r="D148" t="n">
-        <v>200.458883642783</v>
+        <v>101.5028313875959</v>
       </c>
       <c r="E148" t="n">
-        <v>53255</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4059,10 +4059,10 @@
         <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>200.458883642783</v>
+        <v>101.5028313875959</v>
       </c>
       <c r="E149" t="n">
-        <v>53254</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4076,10 +4076,10 @@
         <v>11</v>
       </c>
       <c r="D150" t="n">
-        <v>287.3368553326392</v>
+        <v>154.8062919748083</v>
       </c>
       <c r="E150" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4093,10 +4093,10 @@
         <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>245.6087168440446</v>
+        <v>106.730052343907</v>
       </c>
       <c r="E151" t="n">
-        <v>2864</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4110,10 +4110,10 @@
         <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>256.7619312128331</v>
+        <v>142.4007426721838</v>
       </c>
       <c r="E152" t="n">
-        <v>997</v>
+        <v>145</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4127,10 +4127,10 @@
         <v>6</v>
       </c>
       <c r="D153" t="n">
-        <v>168.8294031371102</v>
+        <v>82.57756906415763</v>
       </c>
       <c r="E153" t="n">
-        <v>129114</v>
+        <v>28373</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4144,10 +4144,10 @@
         <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>262.455103172726</v>
+        <v>158.4855399282451</v>
       </c>
       <c r="E154" t="n">
-        <v>584</v>
+        <v>37</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4161,10 +4161,10 @@
         <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>285.7493493415085</v>
+        <v>145.861830733535</v>
       </c>
       <c r="E155" t="n">
-        <v>79</v>
+        <v>108</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4178,10 +4178,10 @@
         <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>269.1798003122324</v>
+        <v>161.9414715701881</v>
       </c>
       <c r="E156" t="n">
-        <v>313</v>
+        <v>26</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4195,10 +4195,10 @@
         <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>232.0455707882408</v>
+        <v>150.2427830362264</v>
       </c>
       <c r="E157" t="n">
-        <v>8842</v>
+        <v>79</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4212,10 +4212,10 @@
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>240.2456771656914</v>
+        <v>127.4424062877564</v>
       </c>
       <c r="E158" t="n">
-        <v>4581</v>
+        <v>496</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4229,10 +4229,10 @@
         <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>211.5088808323527</v>
+        <v>149.4280552047766</v>
       </c>
       <c r="E159" t="n">
-        <v>32480</v>
+        <v>84</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4246,10 +4246,10 @@
         <v>6</v>
       </c>
       <c r="D160" t="n">
-        <v>239.5900758275122</v>
+        <v>155.3502869174394</v>
       </c>
       <c r="E160" t="n">
-        <v>4860</v>
+        <v>51</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4263,10 +4263,10 @@
         <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>159.7424697907761</v>
+        <v>105.1213471211842</v>
       </c>
       <c r="E161" t="n">
-        <v>149401</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4280,10 +4280,10 @@
         <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>147.7794626505928</v>
+        <v>92.01663629555603</v>
       </c>
       <c r="E162" t="n">
-        <v>173342</v>
+        <v>11521</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4297,10 +4297,10 @@
         <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>182.9449610273635</v>
+        <v>112.5041145762928</v>
       </c>
       <c r="E163" t="n">
-        <v>94899</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4314,10 +4314,10 @@
         <v>11</v>
       </c>
       <c r="D164" t="n">
-        <v>305.3417547341714</v>
+        <v>183.3604505436446</v>
       </c>
       <c r="E164" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4331,10 +4331,10 @@
         <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>286.5711549737246</v>
+        <v>138.701150149015</v>
       </c>
       <c r="E165" t="n">
-        <v>73</v>
+        <v>211</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4348,10 +4348,10 @@
         <v>11</v>
       </c>
       <c r="D166" t="n">
-        <v>284.3644405643487</v>
+        <v>160.3706650280976</v>
       </c>
       <c r="E166" t="n">
-        <v>91</v>
+        <v>33</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4365,10 +4365,10 @@
         <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>241.4861094660955</v>
+        <v>140.0738444394909</v>
       </c>
       <c r="E167" t="n">
-        <v>4138</v>
+        <v>172</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4382,10 +4382,10 @@
         <v>11</v>
       </c>
       <c r="D168" t="n">
-        <v>271.4883324992596</v>
+        <v>168.4440211420462</v>
       </c>
       <c r="E168" t="n">
-        <v>262</v>
+        <v>16</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4399,10 +4399,10 @@
         <v>11</v>
       </c>
       <c r="D169" t="n">
-        <v>245.5868792660364</v>
+        <v>149.1233141622832</v>
       </c>
       <c r="E169" t="n">
-        <v>2868</v>
+        <v>89</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4416,10 +4416,10 @@
         <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>226.6949815377605</v>
+        <v>125.2380535509271</v>
       </c>
       <c r="E170" t="n">
-        <v>13108</v>
+        <v>584</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4433,10 +4433,10 @@
         <v>6</v>
       </c>
       <c r="D171" t="n">
-        <v>227.2705540576383</v>
+        <v>156.2040430190578</v>
       </c>
       <c r="E171" t="n">
-        <v>12525</v>
+        <v>46</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4450,10 +4450,10 @@
         <v>11</v>
       </c>
       <c r="D172" t="n">
-        <v>264.0621766830087</v>
+        <v>141.6188359993344</v>
       </c>
       <c r="E172" t="n">
-        <v>510</v>
+        <v>158</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4467,10 +4467,10 @@
         <v>11</v>
       </c>
       <c r="D173" t="n">
-        <v>219.4517263185578</v>
+        <v>131.0004414295374</v>
       </c>
       <c r="E173" t="n">
-        <v>21041</v>
+        <v>394</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4484,10 +4484,10 @@
         <v>6</v>
       </c>
       <c r="D174" t="n">
-        <v>186.1337825586872</v>
+        <v>120.924684837135</v>
       </c>
       <c r="E174" t="n">
-        <v>4066</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4501,10 +4501,10 @@
         <v>6</v>
       </c>
       <c r="D175" t="n">
-        <v>281.3231228073558</v>
+        <v>190.1750083200532</v>
       </c>
       <c r="E175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4518,10 +4518,10 @@
         <v>6</v>
       </c>
       <c r="D176" t="n">
-        <v>256.304766172859</v>
+        <v>163.8720433395722</v>
       </c>
       <c r="E176" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4535,10 +4535,10 @@
         <v>6</v>
       </c>
       <c r="D177" t="n">
-        <v>269.544010124464</v>
+        <v>178.8719089547223</v>
       </c>
       <c r="E177" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4552,10 +4552,10 @@
         <v>11</v>
       </c>
       <c r="D178" t="n">
-        <v>246.9688961638701</v>
+        <v>165.1147780114063</v>
       </c>
       <c r="E178" t="n">
-        <v>96</v>
+        <v>34</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4569,10 +4569,10 @@
         <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>142.9683492743354</v>
+        <v>37.54541495027276</v>
       </c>
       <c r="E179" t="n">
-        <v>51665</v>
+        <v>175427</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4586,10 +4586,10 @@
         <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>233.7068119886848</v>
+        <v>117.4834958789885</v>
       </c>
       <c r="E180" t="n">
-        <v>258</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4603,10 +4603,10 @@
         <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>274.6990247240017</v>
+        <v>168.8032297501215</v>
       </c>
       <c r="E181" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4620,10 +4620,10 @@
         <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>218.3075945899046</v>
+        <v>105.7617517357932</v>
       </c>
       <c r="E182" t="n">
-        <v>636</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4637,10 +4637,10 @@
         <v>11</v>
       </c>
       <c r="D183" t="n">
-        <v>187.4487970509181</v>
+        <v>126.2094918093954</v>
       </c>
       <c r="E183" t="n">
-        <v>3768</v>
+        <v>934</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4654,10 +4654,10 @@
         <v>11</v>
       </c>
       <c r="D184" t="n">
-        <v>190.8452805911139</v>
+        <v>117.4917599807838</v>
       </c>
       <c r="E184" t="n">
-        <v>3067</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4671,10 +4671,10 @@
         <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>183.0290599526157</v>
+        <v>107.8345335292482</v>
       </c>
       <c r="E185" t="n">
-        <v>4973</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4688,10 +4688,10 @@
         <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>179.1066951092781</v>
+        <v>108.3178704002544</v>
       </c>
       <c r="E186" t="n">
-        <v>6512</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4705,10 +4705,10 @@
         <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>239.3063003882029</v>
+        <v>158.9583219586464</v>
       </c>
       <c r="E187" t="n">
-        <v>165</v>
+        <v>68</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4722,10 +4722,10 @@
         <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>181.2230704288649</v>
+        <v>96.63301939176706</v>
       </c>
       <c r="E188" t="n">
-        <v>5702</v>
+        <v>5611</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4739,10 +4739,10 @@
         <v>11</v>
       </c>
       <c r="D189" t="n">
-        <v>250.6489936293216</v>
+        <v>157.4742365471252</v>
       </c>
       <c r="E189" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4756,10 +4756,10 @@
         <v>11</v>
       </c>
       <c r="D190" t="n">
-        <v>172.8398345003792</v>
+        <v>97.00986811611662</v>
       </c>
       <c r="E190" t="n">
-        <v>9576</v>
+        <v>5506</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4773,10 +4773,10 @@
         <v>6</v>
       </c>
       <c r="D191" t="n">
-        <v>189.5527096221026</v>
+        <v>118.4649014063466</v>
       </c>
       <c r="E191" t="n">
-        <v>3316</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4790,10 +4790,10 @@
         <v>6</v>
       </c>
       <c r="D192" t="n">
-        <v>116.0730959455379</v>
+        <v>66.80993480329602</v>
       </c>
       <c r="E192" t="n">
-        <v>132768</v>
+        <v>39569</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4807,10 +4807,10 @@
         <v>11</v>
       </c>
       <c r="D193" t="n">
-        <v>181.6518327670455</v>
+        <v>110.7985021746839</v>
       </c>
       <c r="E193" t="n">
-        <v>5438</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4824,10 +4824,10 @@
         <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>137.1461412369387</v>
+        <v>79.17031341200412</v>
       </c>
       <c r="E194" t="n">
-        <v>66935</v>
+        <v>16511</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4841,10 +4841,10 @@
         <v>6</v>
       </c>
       <c r="D195" t="n">
-        <v>267.4106786403962</v>
+        <v>180.4598050626288</v>
       </c>
       <c r="E195" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4858,10 +4858,10 @@
         <v>11</v>
       </c>
       <c r="D196" t="n">
-        <v>266.929642117926</v>
+        <v>162.5604110575924</v>
       </c>
       <c r="E196" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4875,10 +4875,10 @@
         <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>266.929642117926</v>
+        <v>162.5604110575924</v>
       </c>
       <c r="E197" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4892,10 +4892,10 @@
         <v>11</v>
       </c>
       <c r="D198" t="n">
-        <v>286.0126090734778</v>
+        <v>151.6171119246282</v>
       </c>
       <c r="E198" t="n">
-        <v>1</v>
+        <v>143</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4909,10 +4909,10 @@
         <v>6</v>
       </c>
       <c r="D199" t="n">
-        <v>236.6651236020837</v>
+        <v>150.9216043520801</v>
       </c>
       <c r="E199" t="n">
-        <v>212</v>
+        <v>153</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4926,10 +4926,10 @@
         <v>11</v>
       </c>
       <c r="D200" t="n">
-        <v>266.5758218466229</v>
+        <v>174.8162906456494</v>
       </c>
       <c r="E200" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4943,10 +4943,10 @@
         <v>6</v>
       </c>
       <c r="D201" t="n">
-        <v>182.6761417277141</v>
+        <v>93.94669540493811</v>
       </c>
       <c r="E201" t="n">
-        <v>5102</v>
+        <v>6552</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4960,10 +4960,10 @@
         <v>11</v>
       </c>
       <c r="D202" t="n">
-        <v>264.1598968435093</v>
+        <v>132.0303462639813</v>
       </c>
       <c r="E202" t="n">
-        <v>22</v>
+        <v>631</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4977,10 +4977,10 @@
         <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>120.8443349019826</v>
+        <v>97.81766080760757</v>
       </c>
       <c r="E203" t="n">
-        <v>166</v>
+        <v>29</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4994,10 +4994,10 @@
         <v>11</v>
       </c>
       <c r="D204" t="n">
-        <v>128.761092457607</v>
+        <v>97.06359787584084</v>
       </c>
       <c r="E204" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5011,10 +5011,10 @@
         <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>146.0461803867953</v>
+        <v>82.42231560765924</v>
       </c>
       <c r="E205" t="n">
-        <v>3</v>
+        <v>407</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5028,10 +5028,10 @@
         <v>11</v>
       </c>
       <c r="D206" t="n">
-        <v>123.1666625482724</v>
+        <v>94.60225605402083</v>
       </c>
       <c r="E206" t="n">
-        <v>115</v>
+        <v>48</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5045,10 +5045,10 @@
         <v>6</v>
       </c>
       <c r="D207" t="n">
-        <v>131.6709212727003</v>
+        <v>106.7827776200494</v>
       </c>
       <c r="E207" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5062,10 +5062,10 @@
         <v>6</v>
       </c>
       <c r="D208" t="n">
-        <v>68.60530021792933</v>
+        <v>45.41149837497515</v>
       </c>
       <c r="E208" t="n">
-        <v>77310</v>
+        <v>43284</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5079,10 +5079,10 @@
         <v>6</v>
       </c>
       <c r="D209" t="n">
-        <v>142.3739354459231</v>
+        <v>93.75982229247889</v>
       </c>
       <c r="E209" t="n">
-        <v>4</v>
+        <v>66</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5096,10 +5096,10 @@
         <v>11</v>
       </c>
       <c r="D210" t="n">
-        <v>126.1394467683126</v>
+        <v>90.56706149284918</v>
       </c>
       <c r="E210" t="n">
-        <v>70</v>
+        <v>121</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5113,10 +5113,10 @@
         <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>109.5659376611184</v>
+        <v>54.03065744572275</v>
       </c>
       <c r="E211" t="n">
-        <v>747</v>
+        <v>16737</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5130,10 +5130,10 @@
         <v>11</v>
       </c>
       <c r="D212" t="n">
-        <v>126.4919457917065</v>
+        <v>90.13186222349496</v>
       </c>
       <c r="E212" t="n">
-        <v>68</v>
+        <v>130</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5147,10 +5147,10 @@
         <v>6</v>
       </c>
       <c r="D213" t="n">
-        <v>125.8306225377993</v>
+        <v>75.35968627884807</v>
       </c>
       <c r="E213" t="n">
-        <v>78</v>
+        <v>874</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5164,10 +5164,10 @@
         <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>123.839197458876</v>
+        <v>76.34715121168489</v>
       </c>
       <c r="E214" t="n">
-        <v>104</v>
+        <v>778</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5181,10 +5181,10 @@
         <v>11</v>
       </c>
       <c r="D215" t="n">
-        <v>129.3050961142162</v>
+        <v>100.3129604891216</v>
       </c>
       <c r="E215" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5198,10 +5198,10 @@
         <v>6</v>
       </c>
       <c r="D216" t="n">
-        <v>124.9518954208883</v>
+        <v>101.3546465074157</v>
       </c>
       <c r="E216" t="n">
-        <v>82</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5215,10 +5215,10 @@
         <v>6</v>
       </c>
       <c r="D217" t="n">
-        <v>128.5355919482908</v>
+        <v>98.14091882703489</v>
       </c>
       <c r="E217" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5232,10 +5232,10 @@
         <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>132.8483389738134</v>
+        <v>99.43008058708551</v>
       </c>
       <c r="E218" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5249,10 +5249,10 @@
         <v>6</v>
       </c>
       <c r="D219" t="n">
-        <v>140.6216323327132</v>
+        <v>100.7684488300635</v>
       </c>
       <c r="E219" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5266,10 +5266,10 @@
         <v>6</v>
       </c>
       <c r="D220" t="n">
-        <v>103.1236370043034</v>
+        <v>80.94778096506016</v>
       </c>
       <c r="E220" t="n">
-        <v>1745</v>
+        <v>485</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5283,10 +5283,10 @@
         <v>6</v>
       </c>
       <c r="D221" t="n">
-        <v>123.832094049051</v>
+        <v>99.08089574290547</v>
       </c>
       <c r="E221" t="n">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5300,10 +5300,10 @@
         <v>6</v>
       </c>
       <c r="D222" t="n">
-        <v>105.8294420240975</v>
+        <v>79.32458229749227</v>
       </c>
       <c r="E222" t="n">
-        <v>1225</v>
+        <v>566</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5317,10 +5317,10 @@
         <v>6</v>
       </c>
       <c r="D223" t="n">
-        <v>128.2936623241991</v>
+        <v>77.61789929685901</v>
       </c>
       <c r="E223" t="n">
-        <v>46</v>
+        <v>669</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5334,10 +5334,10 @@
         <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>47.04489663990282</v>
+        <v>36.375408052794</v>
       </c>
       <c r="E224" t="n">
-        <v>205081</v>
+        <v>98387</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5351,10 +5351,10 @@
         <v>6</v>
       </c>
       <c r="D225" t="n">
-        <v>116.3718220745218</v>
+        <v>94.0753832204375</v>
       </c>
       <c r="E225" t="n">
-        <v>302</v>
+        <v>57</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5368,10 +5368,10 @@
         <v>6</v>
       </c>
       <c r="D226" t="n">
-        <v>98.10615327554261</v>
+        <v>74.01716801863446</v>
       </c>
       <c r="E226" t="n">
-        <v>3307</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5385,10 +5385,10 @@
         <v>6</v>
       </c>
       <c r="D227" t="n">
-        <v>82.8551807821688</v>
+        <v>76.74902714713073</v>
       </c>
       <c r="E227" t="n">
-        <v>20210</v>
+        <v>747</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5402,10 +5402,10 @@
         <v>6</v>
       </c>
       <c r="D228" t="n">
-        <v>117.4923951038285</v>
+        <v>92.56600013657233</v>
       </c>
       <c r="E228" t="n">
-        <v>258</v>
+        <v>84</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5419,10 +5419,10 @@
         <v>6</v>
       </c>
       <c r="D229" t="n">
-        <v>118.8391661573363</v>
+        <v>93.8106919592073</v>
       </c>
       <c r="E229" t="n">
-        <v>223</v>
+        <v>65</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5436,10 +5436,10 @@
         <v>6</v>
       </c>
       <c r="D230" t="n">
-        <v>135.5196500799412</v>
+        <v>112.3043542542893</v>
       </c>
       <c r="E230" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5453,10 +5453,10 @@
         <v>6</v>
       </c>
       <c r="D231" t="n">
-        <v>123.4195290790059</v>
+        <v>100.2510767558341</v>
       </c>
       <c r="E231" t="n">
-        <v>110</v>
+        <v>14</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5470,10 +5470,10 @@
         <v>11</v>
       </c>
       <c r="D232" t="n">
-        <v>130.5459238801844</v>
+        <v>105.091013850565</v>
       </c>
       <c r="E232" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5487,10 +5487,10 @@
         <v>11</v>
       </c>
       <c r="D233" t="n">
-        <v>124.9314549531998</v>
+        <v>87.86895893213396</v>
       </c>
       <c r="E233" t="n">
-        <v>83</v>
+        <v>195</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5504,10 +5504,10 @@
         <v>6</v>
       </c>
       <c r="D234" t="n">
-        <v>126.6526528375525</v>
+        <v>98.92551748055351</v>
       </c>
       <c r="E234" t="n">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5521,10 +5521,10 @@
         <v>6</v>
       </c>
       <c r="D235" t="n">
-        <v>131.0691497540547</v>
+        <v>100.5491804455942</v>
       </c>
       <c r="E235" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5538,10 +5538,10 @@
         <v>6</v>
       </c>
       <c r="D236" t="n">
-        <v>74.75843789469356</v>
+        <v>57.74354579891364</v>
       </c>
       <c r="E236" t="n">
-        <v>46024</v>
+        <v>10451</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5555,10 +5555,10 @@
         <v>6</v>
       </c>
       <c r="D237" t="n">
-        <v>78.06033583114962</v>
+        <v>56.19212051732042</v>
       </c>
       <c r="E237" t="n">
-        <v>33514</v>
+        <v>12699</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5572,10 +5572,10 @@
         <v>11</v>
       </c>
       <c r="D238" t="n">
-        <v>124.3068844454483</v>
+        <v>91.35295564395742</v>
       </c>
       <c r="E238" t="n">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5589,10 +5589,10 @@
         <v>11</v>
       </c>
       <c r="D239" t="n">
-        <v>134.8075034414148</v>
+        <v>86.35020205014075</v>
       </c>
       <c r="E239" t="n">
-        <v>11</v>
+        <v>242</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5606,10 +5606,10 @@
         <v>6</v>
       </c>
       <c r="D240" t="n">
-        <v>123.151753866445</v>
+        <v>66.83677756411801</v>
       </c>
       <c r="E240" t="n">
-        <v>117</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5623,10 +5623,10 @@
         <v>11</v>
       </c>
       <c r="D241" t="n">
-        <v>134.7935133263798</v>
+        <v>99.15612681842657</v>
       </c>
       <c r="E241" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5640,10 +5640,10 @@
         <v>6</v>
       </c>
       <c r="D242" t="n">
-        <v>79.60278851948213</v>
+        <v>42.5740362695111</v>
       </c>
       <c r="E242" t="n">
-        <v>28660</v>
+        <v>57531</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5657,10 +5657,10 @@
         <v>11</v>
       </c>
       <c r="D243" t="n">
-        <v>131.1748298240684</v>
+        <v>91.09487326380915</v>
       </c>
       <c r="E243" t="n">
-        <v>31</v>
+        <v>108</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5674,10 +5674,10 @@
         <v>6</v>
       </c>
       <c r="D244" t="n">
-        <v>43.24007327581332</v>
+        <v>55.24138113927709</v>
       </c>
       <c r="E244" t="n">
-        <v>219618</v>
+        <v>14356</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5691,10 +5691,10 @@
         <v>11</v>
       </c>
       <c r="D245" t="n">
-        <v>134.3581770976671</v>
+        <v>103.1885825093743</v>
       </c>
       <c r="E245" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5708,10 +5708,10 @@
         <v>6</v>
       </c>
       <c r="D246" t="n">
-        <v>149.7933204581625</v>
+        <v>78.65066147162219</v>
       </c>
       <c r="E246" t="n">
-        <v>2</v>
+        <v>602</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5725,10 +5725,10 @@
         <v>6</v>
       </c>
       <c r="D247" t="n">
-        <v>128.8329840265955</v>
+        <v>74.93638566476048</v>
       </c>
       <c r="E247" t="n">
-        <v>43</v>
+        <v>923</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5742,10 +5742,10 @@
         <v>11</v>
       </c>
       <c r="D248" t="n">
-        <v>85.49989257277275</v>
+        <v>48.97505263060387</v>
       </c>
       <c r="E248" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5759,10 +5759,10 @@
         <v>6</v>
       </c>
       <c r="D249" t="n">
-        <v>46.82438586303657</v>
+        <v>36.09687643882533</v>
       </c>
       <c r="E249" t="n">
-        <v>8810</v>
+        <v>201</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5776,10 +5776,10 @@
         <v>6</v>
       </c>
       <c r="D250" t="n">
-        <v>29.6606417333793</v>
+        <v>22.87162000313521</v>
       </c>
       <c r="E250" t="n">
-        <v>132065</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5793,10 +5793,10 @@
         <v>6</v>
       </c>
       <c r="D251" t="n">
-        <v>39.71230963959097</v>
+        <v>29.56947947925733</v>
       </c>
       <c r="E251" t="n">
-        <v>36209</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5810,10 +5810,10 @@
         <v>11</v>
       </c>
       <c r="D252" t="n">
-        <v>75.8045819404179</v>
+        <v>47.26416901197231</v>
       </c>
       <c r="E252" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5827,10 +5827,10 @@
         <v>6</v>
       </c>
       <c r="D253" t="n">
-        <v>49.0463752654927</v>
+        <v>24.88337359987393</v>
       </c>
       <c r="E253" t="n">
-        <v>5197</v>
+        <v>9836</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5844,10 +5844,10 @@
         <v>6</v>
       </c>
       <c r="D254" t="n">
-        <v>56.68295144128023</v>
+        <v>28.23832439928007</v>
       </c>
       <c r="E254" t="n">
-        <v>720</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5861,10 +5861,10 @@
         <v>6</v>
       </c>
       <c r="D255" t="n">
-        <v>63.68876492666242</v>
+        <v>51.57449457340155</v>
       </c>
       <c r="E255" t="n">
-        <v>128</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5878,10 +5878,10 @@
         <v>11</v>
       </c>
       <c r="D256" t="n">
-        <v>60.00311778187292</v>
+        <v>37.50560538109223</v>
       </c>
       <c r="E256" t="n">
-        <v>289</v>
+        <v>149</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5895,10 +5895,10 @@
         <v>6</v>
       </c>
       <c r="D257" t="n">
-        <v>29.77495289005017</v>
+        <v>20.1755133674592</v>
       </c>
       <c r="E257" t="n">
-        <v>130823</v>
+        <v>42745</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5912,10 +5912,10 @@
         <v>6</v>
       </c>
       <c r="D258" t="n">
-        <v>78.04865688135652</v>
+        <v>46.92445309327533</v>
       </c>
       <c r="E258" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5929,10 +5929,10 @@
         <v>11</v>
       </c>
       <c r="D259" t="n">
-        <v>64.58456215526581</v>
+        <v>34.36664617792886</v>
       </c>
       <c r="E259" t="n">
-        <v>109</v>
+        <v>342</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5946,10 +5946,10 @@
         <v>6</v>
       </c>
       <c r="D260" t="n">
-        <v>59.2147779261222</v>
+        <v>25.59580351076546</v>
       </c>
       <c r="E260" t="n">
-        <v>360</v>
+        <v>7734</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5963,10 +5963,10 @@
         <v>6</v>
       </c>
       <c r="D261" t="n">
-        <v>42.54406425608019</v>
+        <v>25.86864678260285</v>
       </c>
       <c r="E261" t="n">
-        <v>21526</v>
+        <v>6984</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5980,10 +5980,10 @@
         <v>6</v>
       </c>
       <c r="D262" t="n">
-        <v>83.95748818911116</v>
+        <v>41.68623466769183</v>
       </c>
       <c r="E262" t="n">
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5997,10 +5997,10 @@
         <v>11</v>
       </c>
       <c r="D263" t="n">
-        <v>71.55142822816904</v>
+        <v>58.28237488143363</v>
       </c>
       <c r="E263" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6014,10 +6014,10 @@
         <v>6</v>
       </c>
       <c r="D264" t="n">
-        <v>49.32332716627666</v>
+        <v>33.23206581799413</v>
       </c>
       <c r="E264" t="n">
-        <v>4853</v>
+        <v>526</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6031,10 +6031,10 @@
         <v>6</v>
       </c>
       <c r="D265" t="n">
-        <v>71.76071196757295</v>
+        <v>48.79705078666946</v>
       </c>
       <c r="E265" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6048,10 +6048,10 @@
         <v>6</v>
       </c>
       <c r="D266" t="n">
-        <v>83.40238290964817</v>
+        <v>45.75847378711259</v>
       </c>
       <c r="E266" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6065,10 +6065,10 @@
         <v>6</v>
       </c>
       <c r="D267" t="n">
-        <v>59.06117395359693</v>
+        <v>47.0019873234795</v>
       </c>
       <c r="E267" t="n">
-        <v>380</v>
+        <v>9</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6082,10 +6082,10 @@
         <v>6</v>
       </c>
       <c r="D268" t="n">
-        <v>57.03089672231508</v>
+        <v>34.04955215802606</v>
       </c>
       <c r="E268" t="n">
-        <v>661</v>
+        <v>398</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -6099,10 +6099,10 @@
         <v>6</v>
       </c>
       <c r="D269" t="n">
-        <v>28.46734149388881</v>
+        <v>21.38547934134928</v>
       </c>
       <c r="E269" t="n">
-        <v>144459</v>
+        <v>30372</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -6116,10 +6116,10 @@
         <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>79.96314073592941</v>
+        <v>52.73853903500309</v>
       </c>
       <c r="E270" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -6133,10 +6133,10 @@
         <v>6</v>
       </c>
       <c r="D271" t="n">
-        <v>73.71109531310856</v>
+        <v>41.78048845989805</v>
       </c>
       <c r="E271" t="n">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6150,10 +6150,10 @@
         <v>6</v>
       </c>
       <c r="D272" t="n">
-        <v>46.9020702612748</v>
+        <v>23.3941533247675</v>
       </c>
       <c r="E272" t="n">
-        <v>8665</v>
+        <v>16435</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -6167,7 +6167,7 @@
         <v>11</v>
       </c>
       <c r="D273" t="n">
-        <v>78.78528552267005</v>
+        <v>48.80321156247813</v>
       </c>
       <c r="E273" t="n">
         <v>1</v>
@@ -6184,10 +6184,10 @@
         <v>11</v>
       </c>
       <c r="D274" t="n">
-        <v>63.22415242648262</v>
+        <v>34.94205377479526</v>
       </c>
       <c r="E274" t="n">
-        <v>53</v>
+        <v>121</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -6201,10 +6201,10 @@
         <v>11</v>
       </c>
       <c r="D275" t="n">
-        <v>47.78783057586593</v>
+        <v>24.22186923184915</v>
       </c>
       <c r="E275" t="n">
-        <v>6365</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -6218,10 +6218,10 @@
         <v>6</v>
       </c>
       <c r="D276" t="n">
-        <v>59.66311463708961</v>
+        <v>38.82224478519597</v>
       </c>
       <c r="E276" t="n">
-        <v>142</v>
+        <v>36</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -6235,10 +6235,10 @@
         <v>11</v>
       </c>
       <c r="D277" t="n">
-        <v>63.98963733858103</v>
+        <v>32.68075158485857</v>
       </c>
       <c r="E277" t="n">
-        <v>44</v>
+        <v>238</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -6252,10 +6252,10 @@
         <v>11</v>
       </c>
       <c r="D278" t="n">
-        <v>66.68702112108465</v>
+        <v>33.47922630541259</v>
       </c>
       <c r="E278" t="n">
-        <v>21</v>
+        <v>195</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -6269,10 +6269,10 @@
         <v>6</v>
       </c>
       <c r="D279" t="n">
-        <v>67.46423222783878</v>
+        <v>33.12880204917558</v>
       </c>
       <c r="E279" t="n">
-        <v>16</v>
+        <v>212</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -6286,10 +6286,10 @@
         <v>6</v>
       </c>
       <c r="D280" t="n">
-        <v>42.02279906232543</v>
+        <v>25.24648709699585</v>
       </c>
       <c r="E280" t="n">
-        <v>28935</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -6303,10 +6303,10 @@
         <v>11</v>
       </c>
       <c r="D281" t="n">
-        <v>64.90610388149402</v>
+        <v>44.107163128675</v>
       </c>
       <c r="E281" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -6320,10 +6320,10 @@
         <v>6</v>
       </c>
       <c r="D282" t="n">
-        <v>39.9863889534281</v>
+        <v>22.82311101677909</v>
       </c>
       <c r="E282" t="n">
-        <v>43295</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -6337,10 +6337,10 @@
         <v>11</v>
       </c>
       <c r="D283" t="n">
-        <v>38.70463852389447</v>
+        <v>33.91054896908073</v>
       </c>
       <c r="E283" t="n">
-        <v>53998</v>
+        <v>179</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -6354,10 +6354,10 @@
         <v>11</v>
       </c>
       <c r="D284" t="n">
-        <v>73.90002527440478</v>
+        <v>42.76781454227945</v>
       </c>
       <c r="E284" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -6371,10 +6371,10 @@
         <v>11</v>
       </c>
       <c r="D285" t="n">
-        <v>59.78955800683217</v>
+        <v>42.59881684561025</v>
       </c>
       <c r="E285" t="n">
-        <v>135</v>
+        <v>13</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -6388,10 +6388,10 @@
         <v>6</v>
       </c>
       <c r="D286" t="n">
-        <v>57.58937825962211</v>
+        <v>37.27982776655988</v>
       </c>
       <c r="E286" t="n">
-        <v>309</v>
+        <v>55</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -6405,10 +6405,10 @@
         <v>11</v>
       </c>
       <c r="D287" t="n">
-        <v>70.3335501631492</v>
+        <v>41.34489550074343</v>
       </c>
       <c r="E287" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -6422,10 +6422,10 @@
         <v>6</v>
       </c>
       <c r="D288" t="n">
-        <v>66.86445734471293</v>
+        <v>47.71152634842755</v>
       </c>
       <c r="E288" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -6439,10 +6439,10 @@
         <v>6</v>
       </c>
       <c r="D289" t="n">
-        <v>66.86445734471293</v>
+        <v>47.71152634842755</v>
       </c>
       <c r="E289" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -6456,10 +6456,10 @@
         <v>11</v>
       </c>
       <c r="D290" t="n">
-        <v>65.87715153290365</v>
+        <v>42.21548462726448</v>
       </c>
       <c r="E290" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -6473,10 +6473,10 @@
         <v>6</v>
       </c>
       <c r="D291" t="n">
-        <v>44.76089017972255</v>
+        <v>30.87406304017662</v>
       </c>
       <c r="E291" t="n">
-        <v>14731</v>
+        <v>348</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -6490,10 +6490,10 @@
         <v>6</v>
       </c>
       <c r="D292" t="n">
-        <v>40.26277289730553</v>
+        <v>30.02390807678001</v>
       </c>
       <c r="E292" t="n">
-        <v>41180</v>
+        <v>438</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -6507,10 +6507,10 @@
         <v>6</v>
       </c>
       <c r="D293" t="n">
-        <v>67.84696207557947</v>
+        <v>40.5124628311742</v>
       </c>
       <c r="E293" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -6524,10 +6524,10 @@
         <v>6</v>
       </c>
       <c r="D294" t="n">
-        <v>65.85715486222513</v>
+        <v>40.56333452246989</v>
       </c>
       <c r="E294" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -6541,10 +6541,10 @@
         <v>6</v>
       </c>
       <c r="D295" t="n">
-        <v>43.32264156414205</v>
+        <v>25.87068570834479</v>
       </c>
       <c r="E295" t="n">
-        <v>21435</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -6558,10 +6558,10 @@
         <v>11</v>
       </c>
       <c r="D296" t="n">
-        <v>77.54351375044256</v>
+        <v>43.76920265658919</v>
       </c>
       <c r="E296" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -6575,10 +6575,10 @@
         <v>6</v>
       </c>
       <c r="D297" t="n">
-        <v>35.75835349347925</v>
+        <v>28.67904395910922</v>
       </c>
       <c r="E297" t="n">
-        <v>81636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -6592,10 +6592,10 @@
         <v>11</v>
       </c>
       <c r="D298" t="n">
-        <v>56.55499390465384</v>
+        <v>38.69796674829776</v>
       </c>
       <c r="E298" t="n">
-        <v>425</v>
+        <v>38</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -6609,10 +6609,10 @@
         <v>6</v>
       </c>
       <c r="D299" t="n">
-        <v>59.52947069321996</v>
+        <v>36.39560856334335</v>
       </c>
       <c r="E299" t="n">
-        <v>147</v>
+        <v>66</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -6626,10 +6626,10 @@
         <v>11</v>
       </c>
       <c r="D300" t="n">
-        <v>70.61067105208166</v>
+        <v>37.88997068193425</v>
       </c>
       <c r="E300" t="n">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -6643,10 +6643,10 @@
         <v>6</v>
       </c>
       <c r="D301" t="n">
-        <v>40.0210633453046</v>
+        <v>27.51146623955308</v>
       </c>
       <c r="E301" t="n">
-        <v>43038</v>
+        <v>899</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -6660,10 +6660,10 @@
         <v>6</v>
       </c>
       <c r="D302" t="n">
-        <v>40.0210633453046</v>
+        <v>27.51146623955308</v>
       </c>
       <c r="E302" t="n">
-        <v>43037</v>
+        <v>898</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -6677,10 +6677,10 @@
         <v>6</v>
       </c>
       <c r="D303" t="n">
-        <v>52.80081333181226</v>
+        <v>24.8886568693223</v>
       </c>
       <c r="E303" t="n">
-        <v>1359</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -6694,10 +6694,10 @@
         <v>6</v>
       </c>
       <c r="D304" t="n">
-        <v>116.386654964743</v>
+        <v>78.21784010430207</v>
       </c>
       <c r="E304" t="n">
-        <v>1595</v>
+        <v>22</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -6711,10 +6711,10 @@
         <v>11</v>
       </c>
       <c r="D305" t="n">
-        <v>130.1703088795659</v>
+        <v>89.23683457385079</v>
       </c>
       <c r="E305" t="n">
-        <v>246</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -6728,10 +6728,10 @@
         <v>6</v>
       </c>
       <c r="D306" t="n">
-        <v>109.7179673266151</v>
+        <v>75.39422003715559</v>
       </c>
       <c r="E306" t="n">
-        <v>3292</v>
+        <v>43</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -6745,10 +6745,10 @@
         <v>6</v>
       </c>
       <c r="D307" t="n">
-        <v>166.0507902023704</v>
+        <v>69.65440363338985</v>
       </c>
       <c r="E307" t="n">
-        <v>1</v>
+        <v>116</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -6762,10 +6762,10 @@
         <v>6</v>
       </c>
       <c r="D308" t="n">
-        <v>137.0157973825792</v>
+        <v>46.84915038456293</v>
       </c>
       <c r="E308" t="n">
-        <v>69</v>
+        <v>10516</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -6779,10 +6779,10 @@
         <v>6</v>
       </c>
       <c r="D309" t="n">
-        <v>132.3092288358316</v>
+        <v>42.86692724306102</v>
       </c>
       <c r="E309" t="n">
-        <v>166</v>
+        <v>23282</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -6796,10 +6796,10 @@
         <v>6</v>
       </c>
       <c r="D310" t="n">
-        <v>134.6760219455636</v>
+        <v>82.96559276971929</v>
       </c>
       <c r="E310" t="n">
-        <v>106</v>
+        <v>6</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -6813,10 +6813,10 @@
         <v>11</v>
       </c>
       <c r="D311" t="n">
-        <v>110.2815377462666</v>
+        <v>62.82004059326858</v>
       </c>
       <c r="E311" t="n">
-        <v>3112</v>
+        <v>370</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -6830,10 +6830,10 @@
         <v>6</v>
       </c>
       <c r="D312" t="n">
-        <v>106.3937138567105</v>
+        <v>76.49032562636565</v>
       </c>
       <c r="E312" t="n">
-        <v>4518</v>
+        <v>33</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -6847,10 +6847,10 @@
         <v>6</v>
       </c>
       <c r="D313" t="n">
-        <v>118.6045861438621</v>
+        <v>83.05219670446508</v>
       </c>
       <c r="E313" t="n">
-        <v>1256</v>
+        <v>5</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -6864,10 +6864,10 @@
         <v>6</v>
       </c>
       <c r="D314" t="n">
-        <v>85.98176526956064</v>
+        <v>16.09385395934008</v>
       </c>
       <c r="E314" t="n">
-        <v>33462</v>
+        <v>232707</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -6881,10 +6881,10 @@
         <v>6</v>
       </c>
       <c r="D315" t="n">
-        <v>114.4498721811162</v>
+        <v>41.93155308962331</v>
       </c>
       <c r="E315" t="n">
-        <v>1999</v>
+        <v>27616</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -6898,10 +6898,10 @@
         <v>6</v>
       </c>
       <c r="D316" t="n">
-        <v>121.1541291861901</v>
+        <v>35.62356910980248</v>
       </c>
       <c r="E316" t="n">
-        <v>846</v>
+        <v>70577</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -6915,10 +6915,10 @@
         <v>11</v>
       </c>
       <c r="D317" t="n">
-        <v>120.7757626555766</v>
+        <v>82.79212028712038</v>
       </c>
       <c r="E317" t="n">
-        <v>885</v>
+        <v>7</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -6932,10 +6932,10 @@
         <v>11</v>
       </c>
       <c r="D318" t="n">
-        <v>111.5014683578008</v>
+        <v>80.312647565389</v>
       </c>
       <c r="E318" t="n">
-        <v>2739</v>
+        <v>9</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -6949,10 +6949,10 @@
         <v>6</v>
       </c>
       <c r="D319" t="n">
-        <v>124.696171675419</v>
+        <v>53.33777936712849</v>
       </c>
       <c r="E319" t="n">
-        <v>534</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -6966,10 +6966,10 @@
         <v>6</v>
       </c>
       <c r="D320" t="n">
-        <v>161.5634028940555</v>
+        <v>90.25458795916025</v>
       </c>
       <c r="E320" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -6983,10 +6983,10 @@
         <v>6</v>
       </c>
       <c r="D321" t="n">
-        <v>109.8379321562005</v>
+        <v>74.97097300098237</v>
       </c>
       <c r="E321" t="n">
-        <v>3255</v>
+        <v>46</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -7000,10 +7000,10 @@
         <v>11</v>
       </c>
       <c r="D322" t="n">
-        <v>87.72264437040241</v>
+        <v>54.44171439436851</v>
       </c>
       <c r="E322" t="n">
-        <v>28234</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -7017,10 +7017,10 @@
         <v>11</v>
       </c>
       <c r="D323" t="n">
-        <v>104.1139734895924</v>
+        <v>72.61783236046278</v>
       </c>
       <c r="E323" t="n">
-        <v>5714</v>
+        <v>66</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -7034,10 +7034,10 @@
         <v>6</v>
       </c>
       <c r="D324" t="n">
-        <v>110.9549524516821</v>
+        <v>74.09038083310894</v>
       </c>
       <c r="E324" t="n">
-        <v>2910</v>
+        <v>51</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -7051,10 +7051,10 @@
         <v>6</v>
       </c>
       <c r="D325" t="n">
-        <v>112.4352323382494</v>
+        <v>84.22564295925267</v>
       </c>
       <c r="E325" t="n">
-        <v>2502</v>
+        <v>4</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -7068,10 +7068,10 @@
         <v>11</v>
       </c>
       <c r="D326" t="n">
-        <v>109.5023400147181</v>
+        <v>72.67374763788717</v>
       </c>
       <c r="E326" t="n">
-        <v>3360</v>
+        <v>65</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -7085,10 +7085,10 @@
         <v>6</v>
       </c>
       <c r="D327" t="n">
-        <v>121.6301622588278</v>
+        <v>87.76140033252572</v>
       </c>
       <c r="E327" t="n">
-        <v>792</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -7102,10 +7102,10 @@
         <v>6</v>
       </c>
       <c r="D328" t="n">
-        <v>115.444558920625</v>
+        <v>77.92469688326328</v>
       </c>
       <c r="E328" t="n">
-        <v>1796</v>
+        <v>24</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -7119,10 +7119,10 @@
         <v>6</v>
       </c>
       <c r="D329" t="n">
-        <v>101.4493375401622</v>
+        <v>63.45832996163887</v>
       </c>
       <c r="E329" t="n">
-        <v>7322</v>
+        <v>337</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -7136,10 +7136,10 @@
         <v>6</v>
       </c>
       <c r="D330" t="n">
-        <v>124.3038140636933</v>
+        <v>37.07503236519739</v>
       </c>
       <c r="E330" t="n">
-        <v>563</v>
+        <v>58873</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -7153,10 +7153,10 @@
         <v>6</v>
       </c>
       <c r="D331" t="n">
-        <v>105.9944614305328</v>
+        <v>70.24056369500325</v>
       </c>
       <c r="E331" t="n">
-        <v>4700</v>
+        <v>104</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -7170,10 +7170,10 @@
         <v>6</v>
       </c>
       <c r="D332" t="n">
-        <v>101.4980487393376</v>
+        <v>77.40313463175926</v>
       </c>
       <c r="E332" t="n">
-        <v>7302</v>
+        <v>27</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -7187,10 +7187,10 @@
         <v>6</v>
       </c>
       <c r="D333" t="n">
-        <v>100.0427237705112</v>
+        <v>73.24366546944589</v>
       </c>
       <c r="E333" t="n">
-        <v>8330</v>
+        <v>61</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -7204,10 +7204,10 @@
         <v>6</v>
       </c>
       <c r="D334" t="n">
-        <v>105.9825657474589</v>
+        <v>69.83268924866528</v>
       </c>
       <c r="E334" t="n">
-        <v>4706</v>
+        <v>112</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -7221,10 +7221,10 @@
         <v>6</v>
       </c>
       <c r="D335" t="n">
-        <v>150.0717287648173</v>
+        <v>53.87908252268064</v>
       </c>
       <c r="E335" t="n">
-        <v>4</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -7238,10 +7238,10 @@
         <v>6</v>
       </c>
       <c r="D336" t="n">
-        <v>109.9491272182421</v>
+        <v>73.94437278559353</v>
       </c>
       <c r="E336" t="n">
-        <v>3222</v>
+        <v>53</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -7255,10 +7255,10 @@
         <v>6</v>
       </c>
       <c r="D337" t="n">
-        <v>136.0334446354301</v>
+        <v>43.12957490685412</v>
       </c>
       <c r="E337" t="n">
-        <v>83</v>
+        <v>22115</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -7272,10 +7272,10 @@
         <v>6</v>
       </c>
       <c r="D338" t="n">
-        <v>130.564135842558</v>
+        <v>43.63971270763823</v>
       </c>
       <c r="E338" t="n">
-        <v>227</v>
+        <v>20060</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -7289,10 +7289,10 @@
         <v>6</v>
       </c>
       <c r="D339" t="n">
-        <v>141.9055889700221</v>
+        <v>51.42112547227777</v>
       </c>
       <c r="E339" t="n">
-        <v>23</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -7306,10 +7306,10 @@
         <v>6</v>
       </c>
       <c r="D340" t="n">
-        <v>165.2848115971822</v>
+        <v>71.5348131965975</v>
       </c>
       <c r="E340" t="n">
-        <v>2</v>
+        <v>83</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -7323,10 +7323,10 @@
         <v>6</v>
       </c>
       <c r="D341" t="n">
-        <v>138.3690215862793</v>
+        <v>40.11886185208867</v>
       </c>
       <c r="E341" t="n">
-        <v>51</v>
+        <v>37340</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -7340,10 +7340,10 @@
         <v>6</v>
       </c>
       <c r="D342" t="n">
-        <v>138.4638520172003</v>
+        <v>46.62324391910642</v>
       </c>
       <c r="E342" t="n">
-        <v>50</v>
+        <v>11058</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -7357,10 +7357,10 @@
         <v>6</v>
       </c>
       <c r="D343" t="n">
-        <v>106.4794927633329</v>
+        <v>28.50769805048019</v>
       </c>
       <c r="E343" t="n">
-        <v>4474</v>
+        <v>138763</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -7374,10 +7374,10 @@
         <v>11</v>
       </c>
       <c r="D344" t="n">
-        <v>61.64963265363771</v>
+        <v>38.18695223473362</v>
       </c>
       <c r="E344" t="n">
-        <v>60071</v>
+        <v>145</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -7391,10 +7391,10 @@
         <v>6</v>
       </c>
       <c r="D345" t="n">
-        <v>72.15275537355522</v>
+        <v>30.82526743484202</v>
       </c>
       <c r="E345" t="n">
-        <v>9496</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -7408,10 +7408,10 @@
         <v>6</v>
       </c>
       <c r="D346" t="n">
-        <v>80.17448630020368</v>
+        <v>36.2955967456659</v>
       </c>
       <c r="E346" t="n">
-        <v>1290</v>
+        <v>366</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -7425,10 +7425,10 @@
         <v>11</v>
       </c>
       <c r="D347" t="n">
-        <v>84.58765525888461</v>
+        <v>40.9862770224787</v>
       </c>
       <c r="E347" t="n">
-        <v>282</v>
+        <v>25</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -7442,10 +7442,10 @@
         <v>11</v>
       </c>
       <c r="D348" t="n">
-        <v>84.76512168086644</v>
+        <v>41.10952325061967</v>
       </c>
       <c r="E348" t="n">
-        <v>266</v>
+        <v>24</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -7459,10 +7459,10 @@
         <v>6</v>
       </c>
       <c r="D349" t="n">
-        <v>76.75699037557891</v>
+        <v>30.3163182292523</v>
       </c>
       <c r="E349" t="n">
-        <v>3174</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -7476,10 +7476,10 @@
         <v>6</v>
       </c>
       <c r="D350" t="n">
-        <v>71.69758002738529</v>
+        <v>27.73078736837719</v>
       </c>
       <c r="E350" t="n">
-        <v>10509</v>
+        <v>10574</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -7493,10 +7493,10 @@
         <v>6</v>
       </c>
       <c r="D351" t="n">
-        <v>74.62190963467754</v>
+        <v>39.21623021047634</v>
       </c>
       <c r="E351" t="n">
-        <v>5334</v>
+        <v>85</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -7510,10 +7510,10 @@
         <v>11</v>
       </c>
       <c r="D352" t="n">
-        <v>75.95738164127832</v>
+        <v>30.301332679848</v>
       </c>
       <c r="E352" t="n">
-        <v>3850</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -7527,10 +7527,10 @@
         <v>6</v>
       </c>
       <c r="D353" t="n">
-        <v>70.55240506250928</v>
+        <v>28.35484118641701</v>
       </c>
       <c r="E353" t="n">
-        <v>13392</v>
+        <v>8593</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -7544,10 +7544,10 @@
         <v>6</v>
       </c>
       <c r="D354" t="n">
-        <v>66.25375324217917</v>
+        <v>26.25414584179361</v>
       </c>
       <c r="E354" t="n">
-        <v>30448</v>
+        <v>16568</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -7561,10 +7561,10 @@
         <v>6</v>
       </c>
       <c r="D355" t="n">
-        <v>72.31109840566603</v>
+        <v>35.87338823177154</v>
       </c>
       <c r="E355" t="n">
-        <v>9150</v>
+        <v>453</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -7578,10 +7578,10 @@
         <v>6</v>
       </c>
       <c r="D356" t="n">
-        <v>72.78782527332369</v>
+        <v>27.83943081574477</v>
       </c>
       <c r="E356" t="n">
-        <v>8238</v>
+        <v>10220</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -7595,10 +7595,10 @@
         <v>6</v>
       </c>
       <c r="D357" t="n">
-        <v>76.93546303029851</v>
+        <v>34.26251328110334</v>
       </c>
       <c r="E357" t="n">
-        <v>3017</v>
+        <v>933</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -7612,10 +7612,10 @@
         <v>6</v>
       </c>
       <c r="D358" t="n">
-        <v>80.07682807279427</v>
+        <v>38.81282935020233</v>
       </c>
       <c r="E358" t="n">
-        <v>1314</v>
+        <v>105</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -7629,10 +7629,10 @@
         <v>6</v>
       </c>
       <c r="D359" t="n">
-        <v>93.39841373716492</v>
+        <v>49.80086429509743</v>
       </c>
       <c r="E359" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -7646,10 +7646,10 @@
         <v>6</v>
       </c>
       <c r="D360" t="n">
-        <v>73.22904823789044</v>
+        <v>25.01670031731487</v>
       </c>
       <c r="E360" t="n">
-        <v>7483</v>
+        <v>23370</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -7663,10 +7663,10 @@
         <v>6</v>
       </c>
       <c r="D361" t="n">
-        <v>63.49588839555085</v>
+        <v>35.00530602161719</v>
       </c>
       <c r="E361" t="n">
-        <v>46652</v>
+        <v>664</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -7680,10 +7680,10 @@
         <v>6</v>
       </c>
       <c r="D362" t="n">
-        <v>73.4278854068242</v>
+        <v>37.78191340274688</v>
       </c>
       <c r="E362" t="n">
-        <v>7169</v>
+        <v>182</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -7697,10 +7697,10 @@
         <v>6</v>
       </c>
       <c r="D363" t="n">
-        <v>37.99286583534217</v>
+        <v>10.62604946624962</v>
       </c>
       <c r="E363" t="n">
-        <v>225140</v>
+        <v>222089</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -7714,10 +7714,10 @@
         <v>6</v>
       </c>
       <c r="D364" t="n">
-        <v>29.67732331717271</v>
+        <v>12.48941509402243</v>
       </c>
       <c r="E364" t="n">
-        <v>251623</v>
+        <v>194710</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -7731,10 +7731,10 @@
         <v>6</v>
       </c>
       <c r="D365" t="n">
-        <v>47.38055712386252</v>
+        <v>9.880151435053508</v>
       </c>
       <c r="E365" t="n">
-        <v>178502</v>
+        <v>230930</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -7748,10 +7748,10 @@
         <v>6</v>
       </c>
       <c r="D366" t="n">
-        <v>71.33450531209144</v>
+        <v>28.6333634283484</v>
       </c>
       <c r="E366" t="n">
-        <v>11361</v>
+        <v>7802</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -7765,10 +7765,10 @@
         <v>6</v>
       </c>
       <c r="D367" t="n">
-        <v>73.35818932132493</v>
+        <v>34.89609574372653</v>
       </c>
       <c r="E367" t="n">
-        <v>7280</v>
+        <v>699</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -7782,10 +7782,10 @@
         <v>6</v>
       </c>
       <c r="D368" t="n">
-        <v>65.9502348246467</v>
+        <v>30.30376290229655</v>
       </c>
       <c r="E368" t="n">
-        <v>32016</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -7799,10 +7799,10 @@
         <v>6</v>
       </c>
       <c r="D369" t="n">
-        <v>60.21317952147313</v>
+        <v>26.5692139796921</v>
       </c>
       <c r="E369" t="n">
-        <v>72103</v>
+        <v>15055</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -7816,10 +7816,10 @@
         <v>6</v>
       </c>
       <c r="D370" t="n">
-        <v>40.25587700447695</v>
+        <v>22.13162492925813</v>
       </c>
       <c r="E370" t="n">
-        <v>216035</v>
+        <v>47665</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -7833,10 +7833,10 @@
         <v>6</v>
       </c>
       <c r="D371" t="n">
-        <v>58.15258902834648</v>
+        <v>21.37465128406977</v>
       </c>
       <c r="E371" t="n">
-        <v>90113</v>
+        <v>56215</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -7850,10 +7850,10 @@
         <v>6</v>
       </c>
       <c r="D372" t="n">
-        <v>59.30060840364668</v>
+        <v>25.57211898054268</v>
       </c>
       <c r="E372" t="n">
-        <v>79863</v>
+        <v>20095</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -7867,10 +7867,10 @@
         <v>6</v>
       </c>
       <c r="D373" t="n">
-        <v>54.8905883899765</v>
+        <v>20.75207218491316</v>
       </c>
       <c r="E373" t="n">
-        <v>119662</v>
+        <v>63709</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -7884,10 +7884,10 @@
         <v>6</v>
       </c>
       <c r="D374" t="n">
-        <v>67.41527170438117</v>
+        <v>24.31211451133116</v>
       </c>
       <c r="E374" t="n">
-        <v>24600</v>
+        <v>28104</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -7901,10 +7901,10 @@
         <v>11</v>
       </c>
       <c r="D375" t="n">
-        <v>47.30424249060142</v>
+        <v>29.08249418599219</v>
       </c>
       <c r="E375" t="n">
-        <v>178990</v>
+        <v>6603</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -7918,10 +7918,10 @@
         <v>6</v>
       </c>
       <c r="D376" t="n">
-        <v>57.86930051657099</v>
+        <v>32.63256816621049</v>
       </c>
       <c r="E376" t="n">
-        <v>92638</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -7935,10 +7935,10 @@
         <v>6</v>
       </c>
       <c r="D377" t="n">
-        <v>76.79254993005232</v>
+        <v>29.44909839056897</v>
       </c>
       <c r="E377" t="n">
-        <v>3144</v>
+        <v>5849</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -7952,10 +7952,10 @@
         <v>6</v>
       </c>
       <c r="D378" t="n">
-        <v>79.63609474441471</v>
+        <v>40.29360511300511</v>
       </c>
       <c r="E378" t="n">
-        <v>1475</v>
+        <v>35</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -7969,10 +7969,10 @@
         <v>6</v>
       </c>
       <c r="D379" t="n">
-        <v>81.00684163103639</v>
+        <v>42.20282873001669</v>
       </c>
       <c r="E379" t="n">
-        <v>1033</v>
+        <v>13</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -7986,10 +7986,10 @@
         <v>11</v>
       </c>
       <c r="D380" t="n">
-        <v>56.2379315189301</v>
+        <v>33.97546565679004</v>
       </c>
       <c r="E380" t="n">
-        <v>107753</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -8003,10 +8003,10 @@
         <v>6</v>
       </c>
       <c r="D381" t="n">
-        <v>59.1574921062274</v>
+        <v>19.32851925014008</v>
       </c>
       <c r="E381" t="n">
-        <v>81076</v>
+        <v>83487</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -8020,10 +8020,10 @@
         <v>6</v>
       </c>
       <c r="D382" t="n">
-        <v>61.12530967566632</v>
+        <v>25.28931611076031</v>
       </c>
       <c r="E382" t="n">
-        <v>64174</v>
+        <v>21736</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -8037,10 +8037,10 @@
         <v>6</v>
       </c>
       <c r="D383" t="n">
-        <v>41.37473405001202</v>
+        <v>18.9551092634076</v>
       </c>
       <c r="E383" t="n">
-        <v>211106</v>
+        <v>89216</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -8054,10 +8054,10 @@
         <v>6</v>
       </c>
       <c r="D384" t="n">
-        <v>28.90524402107952</v>
+        <v>19.93186493567089</v>
       </c>
       <c r="E384" t="n">
-        <v>253788</v>
+        <v>74725</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -8071,10 +8071,10 @@
         <v>6</v>
       </c>
       <c r="D385" t="n">
-        <v>60.05767562902347</v>
+        <v>33.48284783825077</v>
       </c>
       <c r="E385" t="n">
-        <v>73495</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -8088,10 +8088,10 @@
         <v>6</v>
       </c>
       <c r="D386" t="n">
-        <v>64.13805716579724</v>
+        <v>25.13638369321414</v>
       </c>
       <c r="E386" t="n">
-        <v>42615</v>
+        <v>22649</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -8105,10 +8105,10 @@
         <v>11</v>
       </c>
       <c r="D387" t="n">
-        <v>62.06063217545295</v>
+        <v>27.53581444785467</v>
       </c>
       <c r="E387" t="n">
-        <v>56905</v>
+        <v>11274</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -8122,10 +8122,10 @@
         <v>6</v>
       </c>
       <c r="D388" t="n">
-        <v>70.92280984631064</v>
+        <v>37.39027367359781</v>
       </c>
       <c r="E388" t="n">
-        <v>12366</v>
+        <v>224</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -8139,10 +8139,10 @@
         <v>6</v>
       </c>
       <c r="D389" t="n">
-        <v>80.19259288756543</v>
+        <v>34.26542318724234</v>
       </c>
       <c r="E389" t="n">
-        <v>1285</v>
+        <v>932</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -8156,10 +8156,10 @@
         <v>6</v>
       </c>
       <c r="D390" t="n">
-        <v>48.94064987432601</v>
+        <v>17.7293815942694</v>
       </c>
       <c r="E390" t="n">
-        <v>167881</v>
+        <v>108698</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -8173,10 +8173,10 @@
         <v>6</v>
       </c>
       <c r="D391" t="n">
-        <v>53.82527426757932</v>
+        <v>15.40191690611633</v>
       </c>
       <c r="E391" t="n">
-        <v>129162</v>
+        <v>148183</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -8190,10 +8190,10 @@
         <v>11</v>
       </c>
       <c r="D392" t="n">
-        <v>56.77219175636243</v>
+        <v>35.94788522924014</v>
       </c>
       <c r="E392" t="n">
-        <v>102796</v>
+        <v>446</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -8207,10 +8207,10 @@
         <v>6</v>
       </c>
       <c r="D393" t="n">
-        <v>32.42152900302548</v>
+        <v>13.74791448017468</v>
       </c>
       <c r="E393" t="n">
-        <v>243697</v>
+        <v>174924</v>
       </c>
     </row>
   </sheetData>
@@ -8287,25 +8287,25 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.8</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.6</v>
-      </c>
       <c r="H2" t="n">
-        <v>0.52</v>
+        <v>0.44</v>
       </c>
       <c r="I2" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="J2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="K2" t="n">
-        <v>0.058</v>
+        <v>0.056</v>
       </c>
       <c r="L2" t="n">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8325,25 +8325,25 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0.2</v>
       </c>
       <c r="H3" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J3" t="n">
         <v>0.12</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.08</v>
-      </c>
       <c r="K3" t="n">
-        <v>0.026</v>
+        <v>0.03</v>
       </c>
       <c r="L3" t="n">
-        <v>0.013</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -8366,22 +8366,22 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.64</v>
+        <v>0.68</v>
       </c>
       <c r="I4" t="n">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>0.044</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -8401,25 +8401,25 @@
         <v>0.0263</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1053</v>
+        <v>0.1316</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1579</v>
+        <v>0.2105</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3421</v>
+        <v>0.2895</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4737</v>
+        <v>0.4474</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5789</v>
+        <v>0.5526</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7632</v>
+        <v>0.7368</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8158</v>
+        <v>0.8421</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -8439,25 +8439,25 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0526</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0.1053</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1579</v>
+        <v>0.3158</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3158</v>
+        <v>0.4211</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4211</v>
+        <v>0.6316000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6842</v>
+        <v>0.7895</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6842</v>
+        <v>0.8421</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -8480,22 +8480,22 @@
         <v>0.0877</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1404</v>
+        <v>0.1754</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2807</v>
+        <v>0.2982</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4211</v>
+        <v>0.4386</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5263</v>
+        <v>0.5789</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7368</v>
+        <v>0.7544</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7719</v>
+        <v>0.8421</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8515,25 +8515,25 @@
         <v>0.0513</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1861</v>
+        <v>0.2326</v>
       </c>
       <c r="G8" t="n">
-        <v>0.25</v>
+        <v>0.3333</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4127</v>
+        <v>0.3492</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4091</v>
+        <v>0.3864</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3188</v>
+        <v>0.3043</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1078</v>
+        <v>0.1041</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0597</v>
+        <v>0.0617</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8553,25 +8553,25 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0833</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0.138</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1364</v>
+        <v>0.2727</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1739</v>
+        <v>0.2319</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1345</v>
+        <v>0.2017</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0501</v>
+        <v>0.0578</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0255</v>
+        <v>0.0314</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -8594,22 +8594,22 @@
         <v>0.1613</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2389</v>
+        <v>0.2985</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3902</v>
+        <v>0.4146</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4486</v>
+        <v>0.4673</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3822</v>
+        <v>0.4204</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1508</v>
+        <v>0.1544</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0833</v>
+        <v>0.09080000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8632,22 +8632,22 @@
         <v>0.6</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H11" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I11" t="n">
         <v>0.24</v>
       </c>
-      <c r="I11" t="n">
-        <v>0.12</v>
-      </c>
       <c r="J11" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="K11" t="n">
-        <v>0.034</v>
+        <v>0.05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.019</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8673,19 +8673,19 @@
         <v>0.1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I12" t="n">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
       <c r="J12" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02</v>
+        <v>0.046</v>
       </c>
       <c r="L12" t="n">
-        <v>0.013</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -8708,22 +8708,22 @@
         <v>0.6</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H13" t="n">
-        <v>0.32</v>
+        <v>0.48</v>
       </c>
       <c r="I13" t="n">
-        <v>0.18</v>
+        <v>0.38</v>
       </c>
       <c r="J13" t="n">
-        <v>0.16</v>
+        <v>0.31</v>
       </c>
       <c r="K13" t="n">
-        <v>0.054</v>
+        <v>0.096</v>
       </c>
       <c r="L13" t="n">
-        <v>0.032</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -8746,22 +8746,22 @@
         <v>0.12</v>
       </c>
       <c r="G14" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="H14" t="n">
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
       <c r="I14" t="n">
-        <v>0.24</v>
+        <v>0.48</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4</v>
+        <v>0.76</v>
       </c>
       <c r="K14" t="n">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0.76</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -8787,19 +8787,19 @@
         <v>0.0294</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0588</v>
+        <v>0.0882</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0882</v>
+        <v>0.2059</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1765</v>
+        <v>0.3529</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2941</v>
+        <v>0.6765</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3824</v>
+        <v>0.7059</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -8822,22 +8822,22 @@
         <v>0.0508</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0847</v>
+        <v>0.1186</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1356</v>
+        <v>0.2034</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1525</v>
+        <v>0.322</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2712</v>
+        <v>0.5254</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4576</v>
+        <v>0.8136</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5424</v>
+        <v>0.8305</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -8860,22 +8860,22 @@
         <v>0.2</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2286</v>
+        <v>0.3429</v>
       </c>
       <c r="H17" t="n">
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
       <c r="I17" t="n">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="J17" t="n">
-        <v>0.16</v>
+        <v>0.304</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0648</v>
+        <v>0.09520000000000001</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0371</v>
+        <v>0.0488</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -8901,19 +8901,19 @@
         <v>0.0454</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0678</v>
+        <v>0.1017</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07140000000000001</v>
+        <v>0.1667</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0896</v>
+        <v>0.1791</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0375</v>
+        <v>0.0861</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0251</v>
+        <v>0.0464</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -8936,22 +8936,22 @@
         <v>0.09370000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1449</v>
+        <v>0.2028</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1905</v>
+        <v>0.2857</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1651</v>
+        <v>0.3486</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2013</v>
+        <v>0.3899</v>
       </c>
       <c r="K19" t="n">
-        <v>0.09660000000000001</v>
+        <v>0.1717</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0604</v>
+        <v>0.0925</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -8968,16 +8968,16 @@
         <v>387</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.2</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.28</v>
       </c>
       <c r="I20" t="n">
         <v>0.14</v>
@@ -8986,7 +8986,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.02</v>
+        <v>0.016</v>
       </c>
       <c r="L20" t="n">
         <v>0.01</v>
@@ -9012,22 +9012,22 @@
         <v>0.2</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H21" t="n">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
       <c r="J21" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="K21" t="n">
-        <v>0.034</v>
+        <v>0.044</v>
       </c>
       <c r="L21" t="n">
-        <v>0.021</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -9044,28 +9044,28 @@
         <v>387</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H22" t="n">
-        <v>0.44</v>
+        <v>0.52</v>
       </c>
       <c r="I22" t="n">
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
       <c r="J22" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="K22" t="n">
-        <v>0.054</v>
+        <v>0.06</v>
       </c>
       <c r="L22" t="n">
-        <v>0.031</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -9082,16 +9082,16 @@
         <v>387</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H23" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="I23" t="n">
         <v>0.7</v>
@@ -9100,7 +9100,7 @@
         <v>0.7</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L23" t="n">
         <v>1</v>
@@ -9126,22 +9126,22 @@
         <v>0.0357</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07140000000000001</v>
+        <v>0.1429</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1429</v>
+        <v>0.2857</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1786</v>
+        <v>0.3929</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3214</v>
+        <v>0.3929</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6071</v>
+        <v>0.7857</v>
       </c>
       <c r="L24" t="n">
-        <v>0.75</v>
+        <v>0.8571</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -9158,28 +9158,28 @@
         <v>387</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.0263</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0526</v>
+        <v>0.1053</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0789</v>
+        <v>0.1842</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2895</v>
+        <v>0.3421</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3158</v>
+        <v>0.4737</v>
       </c>
       <c r="J25" t="n">
-        <v>0.4211</v>
+        <v>0.4737</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7105</v>
+        <v>0.7895</v>
       </c>
       <c r="L25" t="n">
-        <v>0.8158</v>
+        <v>0.8947000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -9196,16 +9196,16 @@
         <v>387</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.1818</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1333</v>
+        <v>0.4</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4</v>
+        <v>0.2857</v>
       </c>
       <c r="I26" t="n">
         <v>0.2333</v>
@@ -9214,7 +9214,7 @@
         <v>0.1273</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0392</v>
+        <v>0.0314</v>
       </c>
       <c r="L26" t="n">
         <v>0.0198</v>
@@ -9240,22 +9240,22 @@
         <v>0.0606</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1052</v>
+        <v>0.2106</v>
       </c>
       <c r="H27" t="n">
-        <v>0.151</v>
+        <v>0.3019</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1282</v>
+        <v>0.2821</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1406</v>
+        <v>0.1719</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0644</v>
+        <v>0.0833</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0409</v>
+        <v>0.0467</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -9272,28 +9272,28 @@
         <v>387</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.0513</v>
       </c>
       <c r="F28" t="n">
-        <v>0.093</v>
+        <v>0.1861</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1249</v>
+        <v>0.2917</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3492</v>
+        <v>0.4127</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2727</v>
+        <v>0.4091</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2319</v>
+        <v>0.2609</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1004</v>
+        <v>0.1115</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0597</v>
+        <v>0.0655</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -9313,19 +9313,19 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H29" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I29" t="n">
         <v>0.12</v>
       </c>
-      <c r="I29" t="n">
-        <v>0.14</v>
-      </c>
       <c r="J29" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="K29" t="n">
         <v>0.024</v>
@@ -9348,28 +9348,28 @@
         <v>387</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="G30" t="n">
         <v>0.5</v>
       </c>
       <c r="H30" t="n">
-        <v>0.28</v>
+        <v>0.36</v>
       </c>
       <c r="I30" t="n">
         <v>0.22</v>
       </c>
       <c r="J30" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="K30" t="n">
-        <v>0.044</v>
+        <v>0.034</v>
       </c>
       <c r="L30" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -9386,28 +9386,28 @@
         <v>387</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4</v>
+        <v>0.52</v>
       </c>
       <c r="I31" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="J31" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="K31" t="n">
-        <v>0.068</v>
+        <v>0.058</v>
       </c>
       <c r="L31" t="n">
-        <v>0.035</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -9427,19 +9427,19 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.1667</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.1667</v>
       </c>
       <c r="H32" t="n">
-        <v>0.25</v>
+        <v>0.3333</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5833</v>
+        <v>0.5</v>
       </c>
       <c r="J32" t="n">
-        <v>0.9167</v>
+        <v>0.5</v>
       </c>
       <c r="K32" t="n">
         <v>1</v>
@@ -9462,28 +9462,28 @@
         <v>387</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.0303</v>
       </c>
       <c r="F33" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.0606</v>
       </c>
       <c r="G33" t="n">
         <v>0.1515</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2121</v>
+        <v>0.2727</v>
       </c>
       <c r="I33" t="n">
         <v>0.3333</v>
       </c>
       <c r="J33" t="n">
-        <v>0.4242</v>
+        <v>0.4545</v>
       </c>
       <c r="K33" t="n">
-        <v>0.6667</v>
+        <v>0.5152</v>
       </c>
       <c r="L33" t="n">
-        <v>0.697</v>
+        <v>0.7272999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -9500,28 +9500,28 @@
         <v>387</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.0222</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0667</v>
+        <v>0.08890000000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1111</v>
+        <v>0.1556</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2222</v>
+        <v>0.2889</v>
       </c>
       <c r="I34" t="n">
-        <v>0.4</v>
+        <v>0.3778</v>
       </c>
       <c r="J34" t="n">
-        <v>0.5556</v>
+        <v>0.4667</v>
       </c>
       <c r="K34" t="n">
-        <v>0.7556</v>
+        <v>0.6444</v>
       </c>
       <c r="L34" t="n">
-        <v>0.7778</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -9541,19 +9541,19 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.2353</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.1818</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1622</v>
+        <v>0.2162</v>
       </c>
       <c r="I35" t="n">
-        <v>0.2258</v>
+        <v>0.1935</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1964</v>
+        <v>0.1071</v>
       </c>
       <c r="K35" t="n">
         <v>0.0469</v>
@@ -9576,28 +9576,28 @@
         <v>387</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.0588</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1579</v>
+        <v>0.1053</v>
       </c>
       <c r="G36" t="n">
         <v>0.2325</v>
       </c>
       <c r="H36" t="n">
-        <v>0.2414</v>
+        <v>0.3103</v>
       </c>
       <c r="I36" t="n">
         <v>0.265</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2105</v>
+        <v>0.2256</v>
       </c>
       <c r="K36" t="n">
-        <v>0.08260000000000001</v>
+        <v>0.0638</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0445</v>
+        <v>0.0465</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -9614,28 +9614,28 @@
         <v>387</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.0434</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1201</v>
+        <v>0.16</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1818</v>
+        <v>0.2546</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2857</v>
+        <v>0.3714</v>
       </c>
       <c r="I37" t="n">
-        <v>0.3789</v>
+        <v>0.3579</v>
       </c>
       <c r="J37" t="n">
-        <v>0.3448</v>
+        <v>0.2897</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1248</v>
+        <v>0.1064</v>
       </c>
       <c r="L37" t="n">
-        <v>0.067</v>
+        <v>0.0689</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -9652,28 +9652,28 @@
         <v>387</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
       <c r="I38" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="J38" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="K38" t="n">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="L38" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -9690,28 +9690,28 @@
         <v>387</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G39" t="n">
         <v>0.3</v>
       </c>
       <c r="H39" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="I39" t="n">
         <v>0.12</v>
       </c>
       <c r="J39" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K39" t="n">
-        <v>0.018</v>
+        <v>0.016</v>
       </c>
       <c r="L39" t="n">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -9734,22 +9734,22 @@
         <v>0.6</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H40" t="n">
-        <v>0.36</v>
+        <v>0.2</v>
       </c>
       <c r="I40" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="J40" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="K40" t="n">
-        <v>0.03</v>
+        <v>0.026</v>
       </c>
       <c r="L40" t="n">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -9766,28 +9766,28 @@
         <v>387</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>0.1</v>
       </c>
-      <c r="F41" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J41" t="n">
         <v>0.4</v>
       </c>
-      <c r="I41" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.6</v>
-      </c>
       <c r="K41" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L41" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -9804,28 +9804,28 @@
         <v>387</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>0.0526</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1053</v>
+        <v>0.1579</v>
       </c>
       <c r="G42" t="n">
         <v>0.1579</v>
       </c>
       <c r="H42" t="n">
-        <v>0.2632</v>
+        <v>0.2105</v>
       </c>
       <c r="I42" t="n">
         <v>0.3158</v>
       </c>
       <c r="J42" t="n">
-        <v>0.3158</v>
+        <v>0.3684</v>
       </c>
       <c r="K42" t="n">
-        <v>0.4737</v>
+        <v>0.4211</v>
       </c>
       <c r="L42" t="n">
-        <v>0.5263</v>
+        <v>0.4211</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -9848,22 +9848,22 @@
         <v>0.1034</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1379</v>
+        <v>0.1034</v>
       </c>
       <c r="H43" t="n">
+        <v>0.1724</v>
+      </c>
+      <c r="I43" t="n">
         <v>0.3103</v>
       </c>
-      <c r="I43" t="n">
-        <v>0.3448</v>
-      </c>
       <c r="J43" t="n">
-        <v>0.4138</v>
+        <v>0.3793</v>
       </c>
       <c r="K43" t="n">
+        <v>0.4483</v>
+      </c>
+      <c r="L43" t="n">
         <v>0.5172</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.5517</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -9880,28 +9880,28 @@
         <v>387</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1818</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1333</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.0571</v>
+      </c>
+      <c r="I44" t="n">
         <v>0.1</v>
       </c>
-      <c r="H44" t="n">
-        <v>0.2286</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.1333</v>
-      </c>
       <c r="J44" t="n">
-        <v>0.1091</v>
+        <v>0.0727</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0235</v>
+        <v>0.0196</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0119</v>
+        <v>0.0139</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -9918,28 +9918,28 @@
         <v>387</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>0.0999</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1667</v>
+        <v>0.25</v>
       </c>
       <c r="G45" t="n">
         <v>0.2069</v>
       </c>
       <c r="H45" t="n">
-        <v>0.2273</v>
+        <v>0.1818</v>
       </c>
       <c r="I45" t="n">
         <v>0.1739</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1008</v>
+        <v>0.1176</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0347</v>
+        <v>0.0308</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0196</v>
+        <v>0.0157</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -9962,22 +9962,22 @@
         <v>0.1764</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2051</v>
+        <v>0.1538</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3333</v>
+        <v>0.1852</v>
       </c>
       <c r="I46" t="n">
-        <v>0.2532</v>
+        <v>0.2278</v>
       </c>
       <c r="J46" t="n">
-        <v>0.186</v>
+        <v>0.1705</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0567</v>
+        <v>0.0491</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0311</v>
+        <v>0.0292</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -9997,25 +9997,25 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H47" t="n">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="I47" t="n">
         <v>0.18</v>
       </c>
       <c r="J47" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="K47" t="n">
-        <v>0.024</v>
+        <v>0.026</v>
       </c>
       <c r="L47" t="n">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -10035,10 +10035,10 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H48" t="n">
         <v>0.16</v>
@@ -10047,13 +10047,13 @@
         <v>0.1</v>
       </c>
       <c r="J48" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K48" t="n">
-        <v>0.016</v>
+        <v>0.02</v>
       </c>
       <c r="L48" t="n">
-        <v>0.008</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -10079,19 +10079,19 @@
         <v>0.5</v>
       </c>
       <c r="H49" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="I49" t="n">
         <v>0.28</v>
       </c>
       <c r="J49" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="K49" t="n">
-        <v>0.04</v>
+        <v>0.046</v>
       </c>
       <c r="L49" t="n">
-        <v>0.02</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -10111,25 +10111,25 @@
         <v>0.07140000000000001</v>
       </c>
       <c r="F50" t="n">
+        <v>0.07140000000000001</v>
+      </c>
+      <c r="G50" t="n">
         <v>0.2143</v>
       </c>
-      <c r="G50" t="n">
-        <v>0.3571</v>
-      </c>
       <c r="H50" t="n">
-        <v>0.4286</v>
+        <v>0.5</v>
       </c>
       <c r="I50" t="n">
         <v>0.6429</v>
       </c>
       <c r="J50" t="n">
-        <v>0.7143</v>
+        <v>0.6429</v>
       </c>
       <c r="K50" t="n">
-        <v>0.8571</v>
+        <v>0.9286</v>
       </c>
       <c r="L50" t="n">
-        <v>0.8571</v>
+        <v>0.9286</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -10149,10 +10149,10 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>0.1176</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>0.1176</v>
       </c>
       <c r="H51" t="n">
         <v>0.2353</v>
@@ -10161,13 +10161,13 @@
         <v>0.2941</v>
       </c>
       <c r="J51" t="n">
-        <v>0.2941</v>
+        <v>0.4118</v>
       </c>
       <c r="K51" t="n">
-        <v>0.4706</v>
+        <v>0.5881999999999999</v>
       </c>
       <c r="L51" t="n">
-        <v>0.4706</v>
+        <v>0.7647</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -10193,19 +10193,19 @@
         <v>0.1613</v>
       </c>
       <c r="H52" t="n">
-        <v>0.3226</v>
+        <v>0.3548</v>
       </c>
       <c r="I52" t="n">
         <v>0.4516</v>
       </c>
       <c r="J52" t="n">
-        <v>0.4839</v>
+        <v>0.5161</v>
       </c>
       <c r="K52" t="n">
-        <v>0.6452</v>
+        <v>0.7419</v>
       </c>
       <c r="L52" t="n">
-        <v>0.6452</v>
+        <v>0.8387</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -10225,25 +10225,25 @@
         <v>0.1333</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3158</v>
+        <v>0.1052</v>
       </c>
       <c r="G53" t="n">
-        <v>0.4166</v>
+        <v>0.25</v>
       </c>
       <c r="H53" t="n">
-        <v>0.3077</v>
+        <v>0.359</v>
       </c>
       <c r="I53" t="n">
         <v>0.2813</v>
       </c>
       <c r="J53" t="n">
-        <v>0.1754</v>
+        <v>0.1579</v>
       </c>
       <c r="K53" t="n">
-        <v>0.0467</v>
+        <v>0.0506</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0237</v>
+        <v>0.0256</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -10263,10 +10263,10 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>0.1818</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>0.1481</v>
       </c>
       <c r="H54" t="n">
         <v>0.1905</v>
@@ -10275,13 +10275,13 @@
         <v>0.1493</v>
       </c>
       <c r="J54" t="n">
-        <v>0.08550000000000001</v>
+        <v>0.1197</v>
       </c>
       <c r="K54" t="n">
-        <v>0.0309</v>
+        <v>0.0387</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0157</v>
+        <v>0.0256</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -10307,19 +10307,19 @@
         <v>0.2439</v>
       </c>
       <c r="H55" t="n">
-        <v>0.3572</v>
+        <v>0.3928</v>
       </c>
       <c r="I55" t="n">
         <v>0.3457</v>
       </c>
       <c r="J55" t="n">
-        <v>0.229</v>
+        <v>0.2443</v>
       </c>
       <c r="K55" t="n">
-        <v>0.07530000000000001</v>
+        <v>0.0866</v>
       </c>
       <c r="L55" t="n">
-        <v>0.0388</v>
+        <v>0.0504</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -10339,13 +10339,13 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H56" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I56" t="n">
         <v>0.06</v>
@@ -10380,19 +10380,19 @@
         <v>0.6</v>
       </c>
       <c r="G57" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H57" t="n">
         <v>0.24</v>
       </c>
       <c r="I57" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="J57" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="K57" t="n">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
       <c r="L57" t="n">
         <v>0.011</v>
@@ -10415,22 +10415,22 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" t="n">
         <v>0.8</v>
       </c>
-      <c r="G58" t="n">
-        <v>0.6</v>
-      </c>
       <c r="H58" t="n">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="I58" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="J58" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="K58" t="n">
-        <v>0.028</v>
+        <v>0.03</v>
       </c>
       <c r="L58" t="n">
         <v>0.016</v>
@@ -10453,13 +10453,13 @@
         <v>0.2</v>
       </c>
       <c r="F59" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G59" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I59" t="n">
         <v>0.6</v>
@@ -10494,19 +10494,19 @@
         <v>0.15</v>
       </c>
       <c r="G60" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="H60" t="n">
         <v>0.3</v>
       </c>
       <c r="I60" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J60" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="K60" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="L60" t="n">
         <v>0.55</v>
@@ -10529,22 +10529,22 @@
         <v>0.04</v>
       </c>
       <c r="F61" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="G61" t="n">
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
       <c r="H61" t="n">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="I61" t="n">
-        <v>0.36</v>
+        <v>0.44</v>
       </c>
       <c r="J61" t="n">
-        <v>0.36</v>
+        <v>0.44</v>
       </c>
       <c r="K61" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="L61" t="n">
         <v>0.64</v>
@@ -10567,13 +10567,13 @@
         <v>0.3333</v>
       </c>
       <c r="F62" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H62" t="n">
         <v>0.2</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0.2667</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.1333</v>
       </c>
       <c r="I62" t="n">
         <v>0.1091</v>
@@ -10608,19 +10608,19 @@
         <v>0.24</v>
       </c>
       <c r="G63" t="n">
-        <v>0.2667</v>
+        <v>0.3333</v>
       </c>
       <c r="H63" t="n">
         <v>0.2667</v>
       </c>
       <c r="I63" t="n">
-        <v>0.1714</v>
+        <v>0.2286</v>
       </c>
       <c r="J63" t="n">
-        <v>0.1</v>
+        <v>0.1333</v>
       </c>
       <c r="K63" t="n">
-        <v>0.0346</v>
+        <v>0.0385</v>
       </c>
       <c r="L63" t="n">
         <v>0.0216</v>
@@ -10643,22 +10643,22 @@
         <v>0.0769</v>
       </c>
       <c r="F64" t="n">
-        <v>0.2667</v>
+        <v>0.3333</v>
       </c>
       <c r="G64" t="n">
-        <v>0.3429</v>
+        <v>0.4571</v>
       </c>
       <c r="H64" t="n">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="I64" t="n">
-        <v>0.24</v>
+        <v>0.2933</v>
       </c>
       <c r="J64" t="n">
-        <v>0.144</v>
+        <v>0.176</v>
       </c>
       <c r="K64" t="n">
-        <v>0.0533</v>
+        <v>0.0571</v>
       </c>
       <c r="L64" t="n">
         <v>0.0312</v>
@@ -10687,19 +10687,19 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K65" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="L65" t="n">
         <v>0.004</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0.002</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -10716,28 +10716,28 @@
         <v>387</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H66" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J66" t="n">
         <v>0.04</v>
       </c>
-      <c r="I66" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.01</v>
-      </c>
       <c r="K66" t="n">
-        <v>0.002</v>
+        <v>0.018</v>
       </c>
       <c r="L66" t="n">
-        <v>0.001</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -10754,28 +10754,28 @@
         <v>387</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H67" t="n">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
       <c r="I67" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="J67" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="K67" t="n">
-        <v>0.006</v>
+        <v>0.026</v>
       </c>
       <c r="L67" t="n">
-        <v>0.003</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -10801,19 +10801,19 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K68" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L68" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -10830,28 +10830,28 @@
         <v>387</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>0.0238</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>0.0238</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>0.0238</v>
       </c>
       <c r="H69" t="n">
-        <v>0.0238</v>
+        <v>0.0476</v>
       </c>
       <c r="I69" t="n">
-        <v>0.0238</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="J69" t="n">
-        <v>0.0238</v>
+        <v>0.09520000000000001</v>
       </c>
       <c r="K69" t="n">
-        <v>0.0238</v>
+        <v>0.2143</v>
       </c>
       <c r="L69" t="n">
-        <v>0.0238</v>
+        <v>0.3095</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -10868,28 +10868,28 @@
         <v>387</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H70" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="I70" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="J70" t="n">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="K70" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="L70" t="n">
-        <v>0.06</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -10915,19 +10915,19 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1212</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="K71" t="n">
+        <v>0.0157</v>
+      </c>
+      <c r="L71" t="n">
         <v>0.007900000000000001</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0.004</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -10944,28 +10944,28 @@
         <v>387</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>0.0465</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>0.0425</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>0.0384</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0298</v>
+        <v>0.0597</v>
       </c>
       <c r="I72" t="n">
-        <v>0.0217</v>
+        <v>0.06519999999999999</v>
       </c>
       <c r="J72" t="n">
-        <v>0.0141</v>
+        <v>0.0563</v>
       </c>
       <c r="K72" t="n">
-        <v>0.0037</v>
+        <v>0.0332</v>
       </c>
       <c r="L72" t="n">
-        <v>0.0019</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -10982,28 +10982,28 @@
         <v>387</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>0.0392</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>0.0364</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>0.0333</v>
       </c>
       <c r="H73" t="n">
-        <v>0.0267</v>
+        <v>0.1067</v>
       </c>
       <c r="I73" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="J73" t="n">
-        <v>0.0133</v>
+        <v>0.08</v>
       </c>
       <c r="K73" t="n">
-        <v>0.0109</v>
+        <v>0.0473</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0057</v>
+        <v>0.0324</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -11023,25 +11023,25 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="K74" t="n">
-        <v>0.002</v>
+        <v>0.012</v>
       </c>
       <c r="L74" t="n">
-        <v>0.002</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -11064,22 +11064,22 @@
         <v>0.8</v>
       </c>
       <c r="G75" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="I75" t="n">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="J75" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="K75" t="n">
-        <v>0.024</v>
+        <v>0.038</v>
       </c>
       <c r="L75" t="n">
-        <v>0.016</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -11099,25 +11099,25 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" t="n">
         <v>0.8</v>
       </c>
-      <c r="G76" t="n">
+      <c r="H76" t="n">
         <v>0.4</v>
       </c>
-      <c r="H76" t="n">
+      <c r="I76" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="J76" t="n">
         <v>0.2</v>
       </c>
-      <c r="I76" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.09</v>
-      </c>
       <c r="K76" t="n">
-        <v>0.026</v>
+        <v>0.05</v>
       </c>
       <c r="L76" t="n">
-        <v>0.018</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -11137,25 +11137,25 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>0.1429</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>0.4286</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>0.4286</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>0.4286</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>0.7143</v>
       </c>
       <c r="K77" t="n">
-        <v>0.1429</v>
+        <v>0.8571</v>
       </c>
       <c r="L77" t="n">
-        <v>0.2857</v>
+        <v>0.8571</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -11178,22 +11178,22 @@
         <v>0.1212</v>
       </c>
       <c r="G78" t="n">
-        <v>0.1212</v>
+        <v>0.1515</v>
       </c>
       <c r="H78" t="n">
-        <v>0.1515</v>
+        <v>0.2121</v>
       </c>
       <c r="I78" t="n">
-        <v>0.1818</v>
+        <v>0.3333</v>
       </c>
       <c r="J78" t="n">
-        <v>0.2727</v>
+        <v>0.4545</v>
       </c>
       <c r="K78" t="n">
-        <v>0.3636</v>
+        <v>0.5758</v>
       </c>
       <c r="L78" t="n">
-        <v>0.4848</v>
+        <v>0.5758</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -11213,25 +11213,25 @@
         <v>0.025</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="G79" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H79" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="I79" t="n">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="J79" t="n">
-        <v>0.225</v>
+        <v>0.5</v>
       </c>
       <c r="K79" t="n">
-        <v>0.325</v>
+        <v>0.625</v>
       </c>
       <c r="L79" t="n">
-        <v>0.45</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -11251,25 +11251,25 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>0.1667</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>0.353</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>0.1053</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>0.0935</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0039</v>
+        <v>0.0237</v>
       </c>
       <c r="L80" t="n">
-        <v>0.004</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -11292,22 +11292,22 @@
         <v>0.2105</v>
       </c>
       <c r="G81" t="n">
-        <v>0.186</v>
+        <v>0.2325</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1724</v>
+        <v>0.2414</v>
       </c>
       <c r="I81" t="n">
-        <v>0.1446</v>
+        <v>0.265</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1353</v>
+        <v>0.2256</v>
       </c>
       <c r="K81" t="n">
-        <v>0.045</v>
+        <v>0.0713</v>
       </c>
       <c r="L81" t="n">
-        <v>0.031</v>
+        <v>0.0368</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -11327,25 +11327,25 @@
         <v>0.0488</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1778</v>
+        <v>0.2222</v>
       </c>
       <c r="G82" t="n">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="H82" t="n">
-        <v>0.1538</v>
+        <v>0.3077</v>
       </c>
       <c r="I82" t="n">
-        <v>0.1333</v>
+        <v>0.3111</v>
       </c>
       <c r="J82" t="n">
-        <v>0.1286</v>
+        <v>0.2857</v>
       </c>
       <c r="K82" t="n">
+        <v>0.0926</v>
+      </c>
+      <c r="L82" t="n">
         <v>0.0481</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0.0346</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -11409,7 +11409,7 @@
         <v>0.7</v>
       </c>
       <c r="H84" t="n">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="I84" t="n">
         <v>0.3</v>
@@ -11421,7 +11421,7 @@
         <v>0.03</v>
       </c>
       <c r="L84" t="n">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -11447,7 +11447,7 @@
         <v>0.9</v>
       </c>
       <c r="H85" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="I85" t="n">
         <v>0.34</v>
@@ -11459,7 +11459,7 @@
         <v>0.034</v>
       </c>
       <c r="L85" t="n">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -11523,7 +11523,7 @@
         <v>0.4375</v>
       </c>
       <c r="H87" t="n">
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
       <c r="I87" t="n">
         <v>0.9375</v>
@@ -11535,7 +11535,7 @@
         <v>0.9375</v>
       </c>
       <c r="L87" t="n">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -11561,7 +11561,7 @@
         <v>0.5</v>
       </c>
       <c r="H88" t="n">
-        <v>0.7778</v>
+        <v>0.8333</v>
       </c>
       <c r="I88" t="n">
         <v>0.9444</v>
@@ -11573,7 +11573,7 @@
         <v>0.9444</v>
       </c>
       <c r="L88" t="n">
-        <v>0.9444</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -11637,7 +11637,7 @@
         <v>0.5385</v>
       </c>
       <c r="H90" t="n">
-        <v>0.5854</v>
+        <v>0.6341</v>
       </c>
       <c r="I90" t="n">
         <v>0.4545</v>
@@ -11649,7 +11649,7 @@
         <v>0.0581</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0295</v>
+        <v>0.0315</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -11675,7 +11675,7 @@
         <v>0.6429</v>
       </c>
       <c r="H91" t="n">
-        <v>0.6512</v>
+        <v>0.6977</v>
       </c>
       <c r="I91" t="n">
         <v>0.5</v>
@@ -11687,7 +11687,7 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="L91" t="n">
-        <v>0.0334</v>
+        <v>0.0354</v>
       </c>
     </row>
   </sheetData>
@@ -11764,25 +11764,25 @@
         <v>0.02631578947368421</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1363408521303258</v>
+        <v>0.204312865497076</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2444809691693348</v>
+        <v>0.2407886136910904</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3004705860565766</v>
+        <v>0.3008231924370169</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3315898862764451</v>
+        <v>0.3302192411703528</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3540878682021312</v>
+        <v>0.3581442992111034</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3568724019525118</v>
+        <v>0.3627129408063164</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -11802,25 +11802,25 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0131578947368421</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03070175438596491</v>
+        <v>0.01804511278195489</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03822055137844611</v>
+        <v>0.0741598313966735</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06122256071212513</v>
+        <v>0.1013873985223731</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07415553417141438</v>
+        <v>0.129880774998706</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08945507632110929</v>
+        <v>0.1396694949644171</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08945507632110929</v>
+        <v>0.1405720729527965</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -11843,22 +11843,22 @@
         <v>0.08771929824561403</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1384015594541911</v>
+        <v>0.1754385964912281</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2389973471690924</v>
+        <v>0.2675478692274358</v>
       </c>
       <c r="I4" t="n">
-        <v>0.318232980344244</v>
+        <v>0.3524690697106899</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3618282320072</v>
+        <v>0.4087257227905837</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3996971744918847</v>
+        <v>0.4462579291308795</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4023464846117586</v>
+        <v>0.4517139992822671</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -11878,25 +11878,25 @@
         <v>0.04</v>
       </c>
       <c r="F5" t="n">
-        <v>0.11</v>
+        <v>0.09666666666666666</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1277777777777778</v>
+        <v>0.1759047619047619</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1580634920634921</v>
+        <v>0.2289714285714286</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1580634920634921</v>
+        <v>0.2652079877112135</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1770447396716053</v>
+        <v>0.3250699065164611</v>
       </c>
       <c r="K5" t="n">
-        <v>0.19387020271955</v>
+        <v>0.3562565085555097</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1964317404965367</v>
+        <v>0.3562565085555097</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -11919,22 +11919,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.003676470588235294</v>
+        <v>0.00326797385620915</v>
       </c>
       <c r="H6" t="n">
-        <v>0.006617647058823529</v>
+        <v>0.01184640522875817</v>
       </c>
       <c r="I6" t="n">
-        <v>0.009660243407707911</v>
+        <v>0.03106309388278698</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01612830858084752</v>
+        <v>0.05172976911781226</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01960523788627633</v>
+        <v>0.08081523087284805</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02097899850710246</v>
+        <v>0.0820239335319939</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -11954,25 +11954,25 @@
         <v>0.01694915254237288</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04661016949152542</v>
+        <v>0.04096045197740113</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06450094161958568</v>
+        <v>0.08753026634382567</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08645412967446867</v>
+        <v>0.1354963680387409</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0917142114979637</v>
+        <v>0.1903071326442972</v>
       </c>
       <c r="J7" t="n">
-        <v>0.113651665013321</v>
+        <v>0.2610090181286815</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1299582266043935</v>
+        <v>0.3218207651276553</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1336931499138402</v>
+        <v>0.323242868680012</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -11989,28 +11989,28 @@
         <v>387</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05</v>
+        <v>0.275</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05</v>
+        <v>0.275</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2161545072574484</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2161545072574484</v>
+        <v>0.3722222222222222</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2161545072574484</v>
+        <v>0.3722222222222222</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2280184213748473</v>
+        <v>0.3757620452310718</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2280184213748473</v>
+        <v>0.3788039055049318</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -12030,25 +12030,25 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.007142857142857144</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01507936507936508</v>
+        <v>0.05137471655328798</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0349969474969475</v>
+        <v>0.1057937797891502</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03914977141721328</v>
+        <v>0.1335955815008763</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05415138894734222</v>
+        <v>0.1335955815008763</v>
       </c>
       <c r="K9" t="n">
-        <v>0.07760259147823093</v>
+        <v>0.1685223016627353</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08168815982510699</v>
+        <v>0.1707255719180218</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -12065,28 +12065,28 @@
         <v>387</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02368421052631579</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0324561403508772</v>
+        <v>0.1642648287385129</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1363961309588244</v>
+        <v>0.2645193756099807</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1437400722072945</v>
+        <v>0.3223104750379709</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1654795335420676</v>
+        <v>0.3223104750379709</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2011220783180331</v>
+        <v>0.3630034554391878</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2056962287007796</v>
+        <v>0.3679789891217828</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -12106,25 +12106,25 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.06944444444444443</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.06944444444444443</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03813131313131313</v>
+        <v>0.1071937321937322</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08595110087045571</v>
+        <v>0.1306312321937322</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1264732369118812</v>
+        <v>0.1306312321937322</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1351688890857942</v>
+        <v>0.1637489059775009</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1351688890857942</v>
+        <v>0.1637489059775009</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -12141,28 +12141,28 @@
         <v>387</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05808080808080807</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="G12" t="n">
-        <v>0.09343434343434343</v>
+        <v>0.1022126022126022</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1113636363636363</v>
+        <v>0.153565416065416</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1388166394010086</v>
+        <v>0.1762830134956572</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1545504744253093</v>
+        <v>0.200562375813297</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1837441196053018</v>
+        <v>0.202815817804321</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1846771446347124</v>
+        <v>0.2089360295993258</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -12179,28 +12179,28 @@
         <v>387</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04259259259259259</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06851851851851851</v>
+        <v>0.1351322751322752</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1247138047138047</v>
+        <v>0.2176522859856193</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1890270822571928</v>
+        <v>0.25965065408552</v>
       </c>
       <c r="J13" t="n">
-        <v>0.233592221786254</v>
+        <v>0.285453486730458</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2745034881227545</v>
+        <v>0.3117792288863749</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2755446899671693</v>
+        <v>0.3188738657597927</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -12217,28 +12217,28 @@
         <v>387</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1491622103386809</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1491622103386809</v>
+        <v>0.02229033520281727</v>
       </c>
       <c r="J14" t="n">
-        <v>0.161991157707102</v>
+        <v>0.0274185403310224</v>
       </c>
       <c r="K14" t="n">
-        <v>0.161991157707102</v>
+        <v>0.03091504382752589</v>
       </c>
       <c r="L14" t="n">
-        <v>0.161991157707102</v>
+        <v>0.03261538012794975</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -12255,28 +12255,28 @@
         <v>387</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="F15" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07236842105263158</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1087092731829574</v>
+        <v>0.1670480549199085</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1158863066757803</v>
+        <v>0.1820551672954419</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1158863066757803</v>
+        <v>0.1874731239517886</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1219412441711003</v>
+        <v>0.1902251019359648</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1227687847205872</v>
+        <v>0.1902251019359648</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -12296,25 +12296,25 @@
         <v>0.03448275862068965</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09482758620689655</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1120689655172414</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1876408243548203</v>
+        <v>0.12348371268911</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1954778149504316</v>
+        <v>0.1505586082941595</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2047790853678544</v>
+        <v>0.160492555347782</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2117778836271874</v>
+        <v>0.1663161210090758</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2126453744100979</v>
+        <v>0.1676349817652071</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -12334,25 +12334,25 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1857142857142857</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2843537414965986</v>
+        <v>0.1156462585034014</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3047619047619047</v>
+        <v>0.2269523193892941</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3564602064602064</v>
+        <v>0.2559650686537596</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3699372954089935</v>
+        <v>0.2559650686537596</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3777742079517884</v>
+        <v>0.2745548866783033</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3777742079517884</v>
+        <v>0.2745548866783033</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -12372,25 +12372,25 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.06862745098039215</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.06862745098039215</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03232714138286893</v>
+        <v>0.08571184995737424</v>
       </c>
       <c r="I18" t="n">
-        <v>0.04322038757023277</v>
+        <v>0.0938817845978971</v>
       </c>
       <c r="J18" t="n">
-        <v>0.04322038757023277</v>
+        <v>0.106537756077398</v>
       </c>
       <c r="K18" t="n">
-        <v>0.05002994853395916</v>
+        <v>0.1116218130333057</v>
       </c>
       <c r="L18" t="n">
-        <v>0.05002994853395916</v>
+        <v>0.1142855693917287</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -12410,25 +12410,25 @@
         <v>0.03225806451612903</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08387096774193549</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1284178187403994</v>
+        <v>0.1331285202252944</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1988934028619937</v>
+        <v>0.2303570519443797</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2502467314330643</v>
+        <v>0.261963065575934</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2593763723338555</v>
+        <v>0.2785808563872733</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2745129305479871</v>
+        <v>0.2991226353392487</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2745129305479871</v>
+        <v>0.3021825032459289</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -12448,25 +12448,25 @@
         <v>0.2</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G20" t="n">
-        <v>0.25</v>
+        <v>0.3857142857142857</v>
       </c>
       <c r="H20" t="n">
-        <v>0.25</v>
+        <v>0.3857142857142857</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2730769230769231</v>
+        <v>0.3857142857142857</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2730769230769231</v>
+        <v>0.3857142857142857</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2838765802306643</v>
+        <v>0.3940073898392514</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2838765802306643</v>
+        <v>0.3940073898392514</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -12486,25 +12486,25 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09583333333333333</v>
+        <v>0.08833333333333333</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1291666666666667</v>
+        <v>0.1355555555555556</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1578333333333333</v>
+        <v>0.1586324786324786</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1578333333333333</v>
+        <v>0.1740874106052678</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1578333333333333</v>
+        <v>0.1740874106052678</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1628630299707602</v>
+        <v>0.1775824979824522</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1643833485116915</v>
+        <v>0.1786281253588781</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -12524,25 +12524,25 @@
         <v>0.04</v>
       </c>
       <c r="F22" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2233333333333333</v>
+        <v>0.2973968253968254</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2548</v>
+        <v>0.3250891330891331</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2686461538461538</v>
+        <v>0.3424020582592011</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2686461538461538</v>
+        <v>0.3424020582592011</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2803324069257461</v>
+        <v>0.3513555640349121</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2821290113970858</v>
+        <v>0.3525722940729349</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -12568,19 +12568,19 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.01520833333333333</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.01520833333333333</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.01520833333333333</v>
       </c>
       <c r="K23" t="n">
-        <v>0.001356449634725111</v>
+        <v>0.01891561646306892</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001356449634725111</v>
+        <v>0.01891561646306892</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -12597,28 +12597,28 @@
         <v>387</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001984126984126984</v>
+        <v>0.02747252747252747</v>
       </c>
       <c r="I24" t="n">
-        <v>0.001984126984126984</v>
+        <v>0.02951334379905808</v>
       </c>
       <c r="J24" t="n">
-        <v>0.001984126984126984</v>
+        <v>0.03063379197832979</v>
       </c>
       <c r="K24" t="n">
-        <v>0.001984126984126984</v>
+        <v>0.03429001944862081</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001984126984126984</v>
+        <v>0.035661593066475</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -12635,28 +12635,28 @@
         <v>387</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.02877692307692307</v>
       </c>
       <c r="I25" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.03163406593406593</v>
       </c>
       <c r="J25" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.03304583063994828</v>
       </c>
       <c r="K25" t="n">
-        <v>0.002029808563963099</v>
+        <v>0.03907764130399351</v>
       </c>
       <c r="L25" t="n">
-        <v>0.002029808563963099</v>
+        <v>0.04063627610263082</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -12676,25 +12676,25 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.1598639455782313</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1598639455782313</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.1598639455782313</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.1794776651919509</v>
       </c>
       <c r="K26" t="n">
-        <v>0.000580720092915215</v>
+        <v>0.1817942675085532</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0009035610937223175</v>
+        <v>0.1817942675085532</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -12714,25 +12714,25 @@
         <v>0.0303030303030303</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.09747474747474748</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.1227272727272727</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1277997364953887</v>
+        <v>0.1398301193755739</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1314361001317523</v>
+        <v>0.1713668509919697</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1423946051586023</v>
+        <v>0.1983610396223503</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1488633360375666</v>
+        <v>0.2140332851945754</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1515016171847951</v>
+        <v>0.2140332851945754</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -12752,25 +12752,25 @@
         <v>0.025</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1</v>
+        <v>0.1972222222222222</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1054347826086957</v>
+        <v>0.2178661616161616</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1084347826086957</v>
+        <v>0.2523090910793135</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1174755492558469</v>
+        <v>0.2943205581874477</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1241333904423746</v>
+        <v>0.3127058505674193</v>
       </c>
       <c r="L28" t="n">
-        <v>0.1269707849018558</v>
+        <v>0.3127058505674193</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -12834,19 +12834,19 @@
         <v>0.3173611111111111</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5376918220668221</v>
+        <v>0.5810413891663891</v>
       </c>
       <c r="I30" t="n">
-        <v>0.6153223904231969</v>
+        <v>0.6257822428249257</v>
       </c>
       <c r="J30" t="n">
-        <v>0.6153223904231969</v>
+        <v>0.6257822428249257</v>
       </c>
       <c r="K30" t="n">
-        <v>0.6153223904231969</v>
+        <v>0.6257822428249257</v>
       </c>
       <c r="L30" t="n">
-        <v>0.6153223904231969</v>
+        <v>0.6275647740192216</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -12872,19 +12872,19 @@
         <v>0.5</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7362147112147112</v>
+        <v>0.7808435391768724</v>
       </c>
       <c r="I31" t="n">
-        <v>0.8151530966047095</v>
+        <v>0.8261009917513982</v>
       </c>
       <c r="J31" t="n">
-        <v>0.8151530966047095</v>
+        <v>0.8261009917513982</v>
       </c>
       <c r="K31" t="n">
-        <v>0.8151530966047095</v>
+        <v>0.8261009917513982</v>
       </c>
       <c r="L31" t="n">
-        <v>0.8151530966047095</v>
+        <v>0.8278835229456941</v>
       </c>
     </row>
   </sheetData>

--- a/BM25.xlsx
+++ b/BM25.xlsx
@@ -1560,7 +1560,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>133.9120912381229</v>
+        <v>135.1886886567266</v>
       </c>
       <c r="E2" t="n">
         <v>25</v>
@@ -1577,10 +1577,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>160.1727825485618</v>
+        <v>143.7422350749186</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1594,10 +1594,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>169.1004481133758</v>
+        <v>170.6556890959031</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1611,10 +1611,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>97.71197340285774</v>
+        <v>93.9350116399378</v>
       </c>
       <c r="E5" t="n">
-        <v>561</v>
+        <v>905</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1628,10 +1628,10 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>173.0469321246057</v>
+        <v>172.9932534387448</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1645,10 +1645,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>173.6832088291904</v>
+        <v>167.1463843613007</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1662,7 +1662,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>218.1469595410219</v>
+        <v>209.936587119922</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -1679,10 +1679,10 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>173.0613337613797</v>
+        <v>161.240165388634</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1696,10 +1696,10 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>173.0613337613797</v>
+        <v>161.240165388634</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1713,7 +1713,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6109108705217</v>
+        <v>151.0157417075735</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1730,10 +1730,10 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>170.1015531930327</v>
+        <v>170.8820485714271</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1747,7 +1747,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>208.6399133560871</v>
+        <v>209.7829531534098</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -1764,10 +1764,10 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>157.660459507802</v>
+        <v>140.6347412628365</v>
       </c>
       <c r="E14" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1781,10 +1781,10 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>145.4731524997975</v>
+        <v>145.8545087846336</v>
       </c>
       <c r="E15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1798,7 +1798,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>338.8959459453503</v>
+        <v>322.1941495002917</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>161.6414584838691</v>
+        <v>159.5610269432888</v>
       </c>
       <c r="E17" t="n">
         <v>11</v>
@@ -1832,10 +1832,10 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>123.1930658398295</v>
+        <v>120.177672263195</v>
       </c>
       <c r="E18" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1849,10 +1849,10 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>123.1930658398295</v>
+        <v>120.177672263195</v>
       </c>
       <c r="E19" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1866,10 +1866,10 @@
         <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>53.39436264879247</v>
+        <v>53.31102101855149</v>
       </c>
       <c r="E20" t="n">
-        <v>2280</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1883,10 +1883,10 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>75.90021991504162</v>
+        <v>42.1565736495662</v>
       </c>
       <c r="E21" t="n">
-        <v>339</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1900,10 +1900,10 @@
         <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>42.51388510151975</v>
+        <v>41.92514672335959</v>
       </c>
       <c r="E22" t="n">
-        <v>5937</v>
+        <v>5631</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1917,10 +1917,10 @@
         <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>102.0595553437831</v>
+        <v>65.65785119724339</v>
       </c>
       <c r="E23" t="n">
-        <v>36</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1934,10 +1934,10 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>84.2729585594969</v>
+        <v>82.45298603036666</v>
       </c>
       <c r="E24" t="n">
-        <v>166</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1951,10 +1951,10 @@
         <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>53.95099667324541</v>
+        <v>53.0285193076005</v>
       </c>
       <c r="E25" t="n">
-        <v>2177</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1968,10 +1968,10 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>91.62445806581432</v>
+        <v>73.44559469671285</v>
       </c>
       <c r="E26" t="n">
-        <v>81</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1985,10 +1985,10 @@
         <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>73.11841324876882</v>
+        <v>38.64059178596271</v>
       </c>
       <c r="E27" t="n">
-        <v>430</v>
+        <v>7791</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2002,10 +2002,10 @@
         <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>86.71368940463402</v>
+        <v>84.10182579053351</v>
       </c>
       <c r="E28" t="n">
-        <v>133</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2019,10 +2019,10 @@
         <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>69.87124041652758</v>
+        <v>68.36413976092119</v>
       </c>
       <c r="E29" t="n">
-        <v>553</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2036,10 +2036,10 @@
         <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>92.17852554609381</v>
+        <v>91.24787880421522</v>
       </c>
       <c r="E30" t="n">
-        <v>78</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2053,10 +2053,10 @@
         <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>96.32046655536622</v>
+        <v>94.35383946739755</v>
       </c>
       <c r="E31" t="n">
-        <v>58</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2070,10 +2070,10 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>90.80828547706862</v>
+        <v>87.41000278765136</v>
       </c>
       <c r="E32" t="n">
-        <v>95</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2087,10 +2087,10 @@
         <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>107.5457609356911</v>
+        <v>92.13634983679513</v>
       </c>
       <c r="E33" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2104,10 +2104,10 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>94.4685127235702</v>
+        <v>92.94777690014705</v>
       </c>
       <c r="E34" t="n">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2121,10 +2121,10 @@
         <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>96.31387840858652</v>
+        <v>97.79032696008913</v>
       </c>
       <c r="E35" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2138,10 +2138,10 @@
         <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>84.20753024484449</v>
+        <v>48.8797587963318</v>
       </c>
       <c r="E36" t="n">
-        <v>169</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2155,10 +2155,10 @@
         <v>11</v>
       </c>
       <c r="D37" t="n">
-        <v>44.41024108925918</v>
+        <v>45.19219161412488</v>
       </c>
       <c r="E37" t="n">
-        <v>5013</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2172,10 +2172,10 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>110.654284360032</v>
+        <v>79.49761652393494</v>
       </c>
       <c r="E38" t="n">
-        <v>10</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2189,10 +2189,10 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>107.8758983643149</v>
+        <v>73.43188277172874</v>
       </c>
       <c r="E39" t="n">
-        <v>14</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2206,10 +2206,10 @@
         <v>11</v>
       </c>
       <c r="D40" t="n">
-        <v>98.04383157924538</v>
+        <v>65.08304738853833</v>
       </c>
       <c r="E40" t="n">
-        <v>48</v>
+        <v>462</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2223,10 +2223,10 @@
         <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>106.3625583658524</v>
+        <v>70.35630332425163</v>
       </c>
       <c r="E41" t="n">
-        <v>22</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2240,10 +2240,10 @@
         <v>11</v>
       </c>
       <c r="D42" t="n">
-        <v>86.16683177629962</v>
+        <v>88.52592734051619</v>
       </c>
       <c r="E42" t="n">
-        <v>141</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2257,10 +2257,10 @@
         <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>66.12274427631631</v>
+        <v>49.67624204177292</v>
       </c>
       <c r="E43" t="n">
-        <v>792</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2274,10 +2274,10 @@
         <v>11</v>
       </c>
       <c r="D44" t="n">
-        <v>111.1242603966134</v>
+        <v>79.78455332227389</v>
       </c>
       <c r="E44" t="n">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2291,10 +2291,10 @@
         <v>11</v>
       </c>
       <c r="D45" t="n">
-        <v>89.52497056192846</v>
+        <v>58.71367146683649</v>
       </c>
       <c r="E45" t="n">
-        <v>108</v>
+        <v>975</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2308,10 +2308,10 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>94.15482791050289</v>
+        <v>65.41753440913689</v>
       </c>
       <c r="E46" t="n">
-        <v>69</v>
+        <v>444</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2325,10 +2325,10 @@
         <v>11</v>
       </c>
       <c r="D47" t="n">
-        <v>102.1343012850496</v>
+        <v>73.35910320298339</v>
       </c>
       <c r="E47" t="n">
-        <v>35</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2342,10 +2342,10 @@
         <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>58.67585676283689</v>
+        <v>23.51595526900565</v>
       </c>
       <c r="E48" t="n">
-        <v>1468</v>
+        <v>44626</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2359,10 +2359,10 @@
         <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>81.31540540639058</v>
+        <v>51.77665633877822</v>
       </c>
       <c r="E49" t="n">
-        <v>216</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2376,10 +2376,10 @@
         <v>11</v>
       </c>
       <c r="D50" t="n">
-        <v>64.73808345268637</v>
+        <v>30.43411712869674</v>
       </c>
       <c r="E50" t="n">
-        <v>880</v>
+        <v>19438</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2393,10 +2393,10 @@
         <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>103.7569622994432</v>
+        <v>71.54608996822758</v>
       </c>
       <c r="E51" t="n">
-        <v>27</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2410,10 +2410,10 @@
         <v>11</v>
       </c>
       <c r="D52" t="n">
-        <v>98.93034251114156</v>
+        <v>67.87418246670528</v>
       </c>
       <c r="E52" t="n">
-        <v>43</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2427,10 +2427,10 @@
         <v>11</v>
       </c>
       <c r="D53" t="n">
-        <v>68.00504785227663</v>
+        <v>69.198962328435</v>
       </c>
       <c r="E53" t="n">
-        <v>657</v>
+        <v>267</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2444,7 +2444,7 @@
         <v>11</v>
       </c>
       <c r="D54" t="n">
-        <v>134.1824337808622</v>
+        <v>99.49946602626596</v>
       </c>
       <c r="E54" t="n">
         <v>1</v>
@@ -2461,10 +2461,10 @@
         <v>11</v>
       </c>
       <c r="D55" t="n">
-        <v>59.52231823035938</v>
+        <v>59.42988186328672</v>
       </c>
       <c r="E55" t="n">
-        <v>1362</v>
+        <v>894</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2478,10 +2478,10 @@
         <v>11</v>
       </c>
       <c r="D56" t="n">
-        <v>101.0215753277589</v>
+        <v>73.22816982551424</v>
       </c>
       <c r="E56" t="n">
-        <v>38</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2495,10 +2495,10 @@
         <v>11</v>
       </c>
       <c r="D57" t="n">
-        <v>114.8516492488921</v>
+        <v>78.99703278422129</v>
       </c>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2512,10 +2512,10 @@
         <v>11</v>
       </c>
       <c r="D58" t="n">
-        <v>90.9511423889432</v>
+        <v>69.63835002105714</v>
       </c>
       <c r="E58" t="n">
-        <v>92</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2529,10 +2529,10 @@
         <v>11</v>
       </c>
       <c r="D59" t="n">
-        <v>77.68547343712488</v>
+        <v>48.45338697519431</v>
       </c>
       <c r="E59" t="n">
-        <v>292</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2546,10 +2546,10 @@
         <v>11</v>
       </c>
       <c r="D60" t="n">
-        <v>121.5969055047683</v>
+        <v>90.65970775773785</v>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2563,10 +2563,10 @@
         <v>11</v>
       </c>
       <c r="D61" t="n">
-        <v>87.93763408681963</v>
+        <v>62.86771688159936</v>
       </c>
       <c r="E61" t="n">
-        <v>124</v>
+        <v>608</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2580,10 +2580,10 @@
         <v>11</v>
       </c>
       <c r="D62" t="n">
-        <v>112.7922674668955</v>
+        <v>74.4942266495495</v>
       </c>
       <c r="E62" t="n">
-        <v>6</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2597,10 +2597,10 @@
         <v>11</v>
       </c>
       <c r="D63" t="n">
-        <v>105.3810173565816</v>
+        <v>76.29091594050698</v>
       </c>
       <c r="E63" t="n">
-        <v>25</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2614,10 +2614,10 @@
         <v>11</v>
       </c>
       <c r="D64" t="n">
-        <v>105.8145486679926</v>
+        <v>79.14173075775112</v>
       </c>
       <c r="E64" t="n">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2631,10 +2631,10 @@
         <v>11</v>
       </c>
       <c r="D65" t="n">
-        <v>107.0436379083363</v>
+        <v>83.34853146095486</v>
       </c>
       <c r="E65" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2648,10 +2648,10 @@
         <v>11</v>
       </c>
       <c r="D66" t="n">
-        <v>113.0317213616433</v>
+        <v>79.63204260143746</v>
       </c>
       <c r="E66" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2665,10 +2665,10 @@
         <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>107.749903860854</v>
+        <v>77.39168674151661</v>
       </c>
       <c r="E67" t="n">
-        <v>15</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2682,10 +2682,10 @@
         <v>11</v>
       </c>
       <c r="D68" t="n">
-        <v>52.38483061401879</v>
+        <v>52.95268418599166</v>
       </c>
       <c r="E68" t="n">
-        <v>2497</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2699,10 +2699,10 @@
         <v>11</v>
       </c>
       <c r="D69" t="n">
-        <v>113.3534824636982</v>
+        <v>80.75913085695791</v>
       </c>
       <c r="E69" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2716,10 +2716,10 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>102.8710081591476</v>
+        <v>63.81973983228206</v>
       </c>
       <c r="E70" t="n">
-        <v>31</v>
+        <v>544</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2733,10 +2733,10 @@
         <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>112.2266894856153</v>
+        <v>80.16658746871346</v>
       </c>
       <c r="E71" t="n">
-        <v>7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2750,10 +2750,10 @@
         <v>11</v>
       </c>
       <c r="D72" t="n">
-        <v>103.4058487819311</v>
+        <v>70.30075218835992</v>
       </c>
       <c r="E72" t="n">
-        <v>30</v>
+        <v>238</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2767,10 +2767,10 @@
         <v>11</v>
       </c>
       <c r="D73" t="n">
-        <v>110.8731272610139</v>
+        <v>79.8759168513221</v>
       </c>
       <c r="E73" t="n">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2784,10 +2784,10 @@
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>64.18574219035581</v>
+        <v>32.08736720989226</v>
       </c>
       <c r="E74" t="n">
-        <v>933</v>
+        <v>15940</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2801,10 +2801,10 @@
         <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>31.01096192522251</v>
+        <v>31.22335795574465</v>
       </c>
       <c r="E75" t="n">
-        <v>19277</v>
+        <v>17658</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2818,10 +2818,10 @@
         <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>22.37192085983615</v>
+        <v>21.48456074518713</v>
       </c>
       <c r="E76" t="n">
-        <v>53114</v>
+        <v>56541</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2835,10 +2835,10 @@
         <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>261.9275168983598</v>
+        <v>232.9926163685945</v>
       </c>
       <c r="E77" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2852,10 +2852,10 @@
         <v>11</v>
       </c>
       <c r="D78" t="n">
-        <v>278.2716082575909</v>
+        <v>236.5187348566315</v>
       </c>
       <c r="E78" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2869,10 +2869,10 @@
         <v>11</v>
       </c>
       <c r="D79" t="n">
-        <v>230.5406010215074</v>
+        <v>221.2490290723111</v>
       </c>
       <c r="E79" t="n">
-        <v>226</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2886,10 +2886,10 @@
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>215.7244464322965</v>
+        <v>188.5236241083817</v>
       </c>
       <c r="E80" t="n">
-        <v>453</v>
+        <v>274</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2903,10 +2903,10 @@
         <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>215.6015205222555</v>
+        <v>217.8911243845241</v>
       </c>
       <c r="E81" t="n">
-        <v>454</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2920,10 +2920,10 @@
         <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>238.6447178931313</v>
+        <v>201.3776471390393</v>
       </c>
       <c r="E82" t="n">
-        <v>155</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2937,10 +2937,10 @@
         <v>11</v>
       </c>
       <c r="D83" t="n">
-        <v>349.430665855081</v>
+        <v>240.1089445674966</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2954,10 +2954,10 @@
         <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>235.066005380176</v>
+        <v>191.3932638212605</v>
       </c>
       <c r="E84" t="n">
-        <v>183</v>
+        <v>225</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2971,10 +2971,10 @@
         <v>11</v>
       </c>
       <c r="D85" t="n">
-        <v>267.4516490331691</v>
+        <v>218.7866638131652</v>
       </c>
       <c r="E85" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2988,10 +2988,10 @@
         <v>11</v>
       </c>
       <c r="D86" t="n">
-        <v>319.8014136378782</v>
+        <v>272.3791839897644</v>
       </c>
       <c r="E86" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3005,10 +3005,10 @@
         <v>11</v>
       </c>
       <c r="D87" t="n">
-        <v>263.3121092967267</v>
+        <v>241.9979471334033</v>
       </c>
       <c r="E87" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3022,10 +3022,10 @@
         <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>165.7016040433132</v>
+        <v>138.1391411421813</v>
       </c>
       <c r="E88" t="n">
-        <v>2361</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3039,10 +3039,10 @@
         <v>11</v>
       </c>
       <c r="D89" t="n">
-        <v>347.9409143787449</v>
+        <v>258.9671803748074</v>
       </c>
       <c r="E89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3056,10 +3056,10 @@
         <v>11</v>
       </c>
       <c r="D90" t="n">
-        <v>209.9972394968401</v>
+        <v>206.6625235040227</v>
       </c>
       <c r="E90" t="n">
-        <v>586</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3073,10 +3073,10 @@
         <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>223.7230793972417</v>
+        <v>181.5196448258423</v>
       </c>
       <c r="E91" t="n">
-        <v>326</v>
+        <v>406</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3090,10 +3090,10 @@
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>110.1707453916379</v>
+        <v>110.9958318008096</v>
       </c>
       <c r="E92" t="n">
-        <v>11537</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3107,10 +3107,10 @@
         <v>11</v>
       </c>
       <c r="D93" t="n">
-        <v>206.7530277022429</v>
+        <v>182.7079346159859</v>
       </c>
       <c r="E93" t="n">
-        <v>664</v>
+        <v>385</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3124,10 +3124,10 @@
         <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>306.8965479507382</v>
+        <v>255.1065541010892</v>
       </c>
       <c r="E94" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3141,10 +3141,10 @@
         <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>196.6039977969898</v>
+        <v>176.684502459713</v>
       </c>
       <c r="E95" t="n">
-        <v>953</v>
+        <v>506</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3158,10 +3158,10 @@
         <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>208.2510174765133</v>
+        <v>187.6622103981058</v>
       </c>
       <c r="E96" t="n">
-        <v>630</v>
+        <v>289</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3175,10 +3175,10 @@
         <v>11</v>
       </c>
       <c r="D97" t="n">
-        <v>286.7651544908927</v>
+        <v>239.6494300600664</v>
       </c>
       <c r="E97" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3192,10 +3192,10 @@
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>321.6394668794236</v>
+        <v>217.0193379774787</v>
       </c>
       <c r="E98" t="n">
-        <v>3</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3209,10 +3209,10 @@
         <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>263.9776994808218</v>
+        <v>223.2496795302134</v>
       </c>
       <c r="E99" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3226,10 +3226,10 @@
         <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>247.6825779191443</v>
+        <v>204.9941241701604</v>
       </c>
       <c r="E100" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3243,10 +3243,10 @@
         <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>247.6922672315162</v>
+        <v>204.8974685173293</v>
       </c>
       <c r="E101" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3260,10 +3260,10 @@
         <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>294.7138014914497</v>
+        <v>213.2139670489096</v>
       </c>
       <c r="E102" t="n">
-        <v>8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3277,10 +3277,10 @@
         <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>269.7216399243761</v>
+        <v>225.494046612752</v>
       </c>
       <c r="E103" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3294,10 +3294,10 @@
         <v>6</v>
       </c>
       <c r="D104" t="n">
-        <v>236.6587980767616</v>
+        <v>189.7207553825478</v>
       </c>
       <c r="E104" t="n">
-        <v>169</v>
+        <v>258</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3311,10 +3311,10 @@
         <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>293.816044303449</v>
+        <v>230.1380412292353</v>
       </c>
       <c r="E105" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3328,10 +3328,10 @@
         <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>121.6182655371845</v>
+        <v>82.73330044298739</v>
       </c>
       <c r="E106" t="n">
-        <v>7527</v>
+        <v>22810</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3345,10 +3345,10 @@
         <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>265.3495259252003</v>
+        <v>197.8482824638442</v>
       </c>
       <c r="E107" t="n">
-        <v>32</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3362,10 +3362,10 @@
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>228.8789481867917</v>
+        <v>219.8840128393535</v>
       </c>
       <c r="E108" t="n">
-        <v>249</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3379,10 +3379,10 @@
         <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>175.9734704814466</v>
+        <v>172.4580826506439</v>
       </c>
       <c r="E109" t="n">
-        <v>1802</v>
+        <v>601</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3396,10 +3396,10 @@
         <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>281.3815506006674</v>
+        <v>241.9307047850919</v>
       </c>
       <c r="E110" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3413,10 +3413,10 @@
         <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>288.713657853256</v>
+        <v>251.0316249460711</v>
       </c>
       <c r="E111" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3430,10 +3430,10 @@
         <v>6</v>
       </c>
       <c r="D112" t="n">
-        <v>280.3950710415365</v>
+        <v>240.4773550969087</v>
       </c>
       <c r="E112" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3447,10 +3447,10 @@
         <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>247.56848416434</v>
+        <v>197.853117813468</v>
       </c>
       <c r="E113" t="n">
-        <v>103</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3464,10 +3464,10 @@
         <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>230.4109174733558</v>
+        <v>208.9537730813587</v>
       </c>
       <c r="E114" t="n">
-        <v>228</v>
+        <v>76</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3481,10 +3481,10 @@
         <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>151.4166659451597</v>
+        <v>131.4428560218161</v>
       </c>
       <c r="E115" t="n">
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3498,10 +3498,10 @@
         <v>11</v>
       </c>
       <c r="D116" t="n">
-        <v>151.4111441118995</v>
+        <v>103.0341711770624</v>
       </c>
       <c r="E116" t="n">
-        <v>72</v>
+        <v>760</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3515,10 +3515,10 @@
         <v>11</v>
       </c>
       <c r="D117" t="n">
-        <v>203.1509156710775</v>
+        <v>131.9571655744307</v>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3532,10 +3532,10 @@
         <v>11</v>
       </c>
       <c r="D118" t="n">
-        <v>143.7489284233757</v>
+        <v>94.24073670817681</v>
       </c>
       <c r="E118" t="n">
-        <v>129</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3549,10 +3549,10 @@
         <v>11</v>
       </c>
       <c r="D119" t="n">
-        <v>185.1364126152652</v>
+        <v>125.1009490482023</v>
       </c>
       <c r="E119" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3566,10 +3566,10 @@
         <v>11</v>
       </c>
       <c r="D120" t="n">
-        <v>175.0061465816463</v>
+        <v>118.3106680353945</v>
       </c>
       <c r="E120" t="n">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3583,10 +3583,10 @@
         <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>150.8774451722735</v>
+        <v>141.272570542261</v>
       </c>
       <c r="E121" t="n">
-        <v>74</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3600,10 +3600,10 @@
         <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>136.9356416873261</v>
+        <v>97.23513306499419</v>
       </c>
       <c r="E122" t="n">
-        <v>238</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3617,10 +3617,10 @@
         <v>11</v>
       </c>
       <c r="D123" t="n">
-        <v>155.8938479205135</v>
+        <v>92.35398883759513</v>
       </c>
       <c r="E123" t="n">
-        <v>48</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3634,10 +3634,10 @@
         <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>140.1950172822259</v>
+        <v>127.6159062092758</v>
       </c>
       <c r="E124" t="n">
-        <v>171</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3651,10 +3651,10 @@
         <v>11</v>
       </c>
       <c r="D125" t="n">
-        <v>162.4121079418474</v>
+        <v>108.4296728127382</v>
       </c>
       <c r="E125" t="n">
-        <v>25</v>
+        <v>324</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3668,10 +3668,10 @@
         <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>173.5593486454054</v>
+        <v>122.8915079233957</v>
       </c>
       <c r="E126" t="n">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3685,10 +3685,10 @@
         <v>11</v>
       </c>
       <c r="D127" t="n">
-        <v>160.6542447465851</v>
+        <v>97.92247409787298</v>
       </c>
       <c r="E127" t="n">
-        <v>31</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3702,10 +3702,10 @@
         <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>162.5276659644445</v>
+        <v>110.3520475429441</v>
       </c>
       <c r="E128" t="n">
-        <v>24</v>
+        <v>249</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3719,10 +3719,10 @@
         <v>6</v>
       </c>
       <c r="D129" t="n">
-        <v>161.918365925712</v>
+        <v>109.1323493899981</v>
       </c>
       <c r="E129" t="n">
-        <v>27</v>
+        <v>295</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3736,10 +3736,10 @@
         <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>65.53571246062469</v>
+        <v>55.34549582451048</v>
       </c>
       <c r="E130" t="n">
-        <v>94465</v>
+        <v>115803</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3753,10 +3753,10 @@
         <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>68.05952118411059</v>
+        <v>58.44395405212036</v>
       </c>
       <c r="E131" t="n">
-        <v>82645</v>
+        <v>98938</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3770,10 +3770,10 @@
         <v>11</v>
       </c>
       <c r="D132" t="n">
-        <v>131.2053897216133</v>
+        <v>127.1019383988361</v>
       </c>
       <c r="E132" t="n">
-        <v>388</v>
+        <v>33</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3787,10 +3787,10 @@
         <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>171.5574525480976</v>
+        <v>116.5857756339792</v>
       </c>
       <c r="E133" t="n">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3804,10 +3804,10 @@
         <v>11</v>
       </c>
       <c r="D134" t="n">
-        <v>168.6631013143816</v>
+        <v>108.1647955806125</v>
       </c>
       <c r="E134" t="n">
-        <v>15</v>
+        <v>344</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3821,10 +3821,10 @@
         <v>11</v>
       </c>
       <c r="D135" t="n">
-        <v>173.1892295376746</v>
+        <v>124.1995071174013</v>
       </c>
       <c r="E135" t="n">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3838,10 +3838,10 @@
         <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>134.5953073713578</v>
+        <v>86.29472725512618</v>
       </c>
       <c r="E136" t="n">
-        <v>287</v>
+        <v>7765</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3855,10 +3855,10 @@
         <v>11</v>
       </c>
       <c r="D137" t="n">
-        <v>154.6929501299216</v>
+        <v>104.5458463380128</v>
       </c>
       <c r="E137" t="n">
-        <v>58</v>
+        <v>593</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3872,10 +3872,10 @@
         <v>11</v>
       </c>
       <c r="D138" t="n">
-        <v>145.5721913607688</v>
+        <v>96.23143137156742</v>
       </c>
       <c r="E138" t="n">
-        <v>110</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3889,10 +3889,10 @@
         <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>141.5780925504685</v>
+        <v>92.95079030984712</v>
       </c>
       <c r="E139" t="n">
-        <v>159</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3906,10 +3906,10 @@
         <v>11</v>
       </c>
       <c r="D140" t="n">
-        <v>149.6072467987064</v>
+        <v>99.37234590447153</v>
       </c>
       <c r="E140" t="n">
-        <v>82</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3923,10 +3923,10 @@
         <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>55.38563763275129</v>
+        <v>51.13348585569675</v>
       </c>
       <c r="E141" t="n">
-        <v>143446</v>
+        <v>137750</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3940,10 +3940,10 @@
         <v>11</v>
       </c>
       <c r="D142" t="n">
-        <v>148.2401620083021</v>
+        <v>100.5779970267756</v>
       </c>
       <c r="E142" t="n">
-        <v>95</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3957,10 +3957,10 @@
         <v>11</v>
       </c>
       <c r="D143" t="n">
-        <v>150.2723509835074</v>
+        <v>116.0591377598749</v>
       </c>
       <c r="E143" t="n">
-        <v>78</v>
+        <v>117</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3974,10 +3974,10 @@
         <v>11</v>
       </c>
       <c r="D144" t="n">
-        <v>180.3187710315456</v>
+        <v>131.0108287390768</v>
       </c>
       <c r="E144" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3991,10 +3991,10 @@
         <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>136.1236934195258</v>
+        <v>129.1177621509081</v>
       </c>
       <c r="E145" t="n">
-        <v>255</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4008,10 +4008,10 @@
         <v>11</v>
       </c>
       <c r="D146" t="n">
-        <v>143.1143782085298</v>
+        <v>134.8534450717716</v>
       </c>
       <c r="E146" t="n">
-        <v>134</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4025,10 +4025,10 @@
         <v>6</v>
       </c>
       <c r="D147" t="n">
-        <v>140.2054158234907</v>
+        <v>130.5679714640738</v>
       </c>
       <c r="E147" t="n">
-        <v>170</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4042,10 +4042,10 @@
         <v>6</v>
       </c>
       <c r="D148" t="n">
-        <v>101.5028313875959</v>
+        <v>78.82660492232256</v>
       </c>
       <c r="E148" t="n">
-        <v>4314</v>
+        <v>18632</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4059,10 +4059,10 @@
         <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>101.5028313875959</v>
+        <v>78.82660492232256</v>
       </c>
       <c r="E149" t="n">
-        <v>4313</v>
+        <v>18631</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4076,10 +4076,10 @@
         <v>11</v>
       </c>
       <c r="D150" t="n">
-        <v>154.8062919748083</v>
+        <v>107.6195744562897</v>
       </c>
       <c r="E150" t="n">
-        <v>56</v>
+        <v>371</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4093,10 +4093,10 @@
         <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>106.730052343907</v>
+        <v>102.104579030875</v>
       </c>
       <c r="E151" t="n">
-        <v>2559</v>
+        <v>864</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4110,10 +4110,10 @@
         <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>142.4007426721838</v>
+        <v>97.17595284279889</v>
       </c>
       <c r="E152" t="n">
-        <v>145</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4127,10 +4127,10 @@
         <v>6</v>
       </c>
       <c r="D153" t="n">
-        <v>82.57756906415763</v>
+        <v>78.88995044676024</v>
       </c>
       <c r="E153" t="n">
-        <v>28373</v>
+        <v>18526</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4144,10 +4144,10 @@
         <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>158.4855399282451</v>
+        <v>94.77981101753679</v>
       </c>
       <c r="E154" t="n">
-        <v>37</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4161,10 +4161,10 @@
         <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>145.861830733535</v>
+        <v>82.98556622489605</v>
       </c>
       <c r="E155" t="n">
-        <v>108</v>
+        <v>11626</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4178,10 +4178,10 @@
         <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>161.9414715701881</v>
+        <v>102.0232037547891</v>
       </c>
       <c r="E156" t="n">
-        <v>26</v>
+        <v>869</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4195,10 +4195,10 @@
         <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>150.2427830362264</v>
+        <v>89.82275807474068</v>
       </c>
       <c r="E157" t="n">
-        <v>79</v>
+        <v>4899</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4212,10 +4212,10 @@
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>127.4424062877564</v>
+        <v>80.22676634838652</v>
       </c>
       <c r="E158" t="n">
-        <v>496</v>
+        <v>15963</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4229,10 +4229,10 @@
         <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>149.4280552047766</v>
+        <v>86.07836452983267</v>
       </c>
       <c r="E159" t="n">
-        <v>84</v>
+        <v>7989</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4246,10 +4246,10 @@
         <v>6</v>
       </c>
       <c r="D160" t="n">
-        <v>155.3502869174394</v>
+        <v>104.2069741738686</v>
       </c>
       <c r="E160" t="n">
-        <v>51</v>
+        <v>628</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4263,10 +4263,10 @@
         <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>105.1213471211842</v>
+        <v>45.25423078869809</v>
       </c>
       <c r="E161" t="n">
-        <v>2980</v>
+        <v>166013</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4280,10 +4280,10 @@
         <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>92.01663629555603</v>
+        <v>35.74722752880613</v>
       </c>
       <c r="E162" t="n">
-        <v>11521</v>
+        <v>203038</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4297,10 +4297,10 @@
         <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>112.5041145762928</v>
+        <v>54.96797399833473</v>
       </c>
       <c r="E163" t="n">
-        <v>1553</v>
+        <v>117718</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4314,10 +4314,10 @@
         <v>11</v>
       </c>
       <c r="D164" t="n">
-        <v>183.3604505436446</v>
+        <v>116.3077159936518</v>
       </c>
       <c r="E164" t="n">
-        <v>4</v>
+        <v>113</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4331,10 +4331,10 @@
         <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>138.701150149015</v>
+        <v>115.6548030837175</v>
       </c>
       <c r="E165" t="n">
-        <v>211</v>
+        <v>124</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4348,10 +4348,10 @@
         <v>11</v>
       </c>
       <c r="D166" t="n">
-        <v>160.3706650280976</v>
+        <v>99.40865061605137</v>
       </c>
       <c r="E166" t="n">
-        <v>33</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4365,10 +4365,10 @@
         <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>140.0738444394909</v>
+        <v>87.98912842717426</v>
       </c>
       <c r="E167" t="n">
-        <v>172</v>
+        <v>6262</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4382,10 +4382,10 @@
         <v>11</v>
       </c>
       <c r="D168" t="n">
-        <v>168.4440211420462</v>
+        <v>114.3920768876239</v>
       </c>
       <c r="E168" t="n">
-        <v>16</v>
+        <v>153</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4399,10 +4399,10 @@
         <v>11</v>
       </c>
       <c r="D169" t="n">
-        <v>149.1233141622832</v>
+        <v>86.14933471733904</v>
       </c>
       <c r="E169" t="n">
-        <v>89</v>
+        <v>7920</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4416,10 +4416,10 @@
         <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>125.2380535509271</v>
+        <v>74.78210110532369</v>
       </c>
       <c r="E170" t="n">
-        <v>584</v>
+        <v>28414</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4433,10 +4433,10 @@
         <v>6</v>
       </c>
       <c r="D171" t="n">
-        <v>156.2040430190578</v>
+        <v>101.1787043820739</v>
       </c>
       <c r="E171" t="n">
-        <v>46</v>
+        <v>974</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4450,10 +4450,10 @@
         <v>11</v>
       </c>
       <c r="D172" t="n">
-        <v>141.6188359993344</v>
+        <v>76.38567553183375</v>
       </c>
       <c r="E172" t="n">
-        <v>158</v>
+        <v>24120</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4467,10 +4467,10 @@
         <v>11</v>
       </c>
       <c r="D173" t="n">
-        <v>131.0004414295374</v>
+        <v>65.37657876534084</v>
       </c>
       <c r="E173" t="n">
-        <v>394</v>
+        <v>63730</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4484,10 +4484,10 @@
         <v>6</v>
       </c>
       <c r="D174" t="n">
-        <v>120.924684837135</v>
+        <v>118.1691085744301</v>
       </c>
       <c r="E174" t="n">
-        <v>1308</v>
+        <v>803</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4501,10 +4501,10 @@
         <v>6</v>
       </c>
       <c r="D175" t="n">
-        <v>190.1750083200532</v>
+        <v>149.8007501373704</v>
       </c>
       <c r="E175" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4518,10 +4518,10 @@
         <v>6</v>
       </c>
       <c r="D176" t="n">
-        <v>163.8720433395722</v>
+        <v>144.3996078034899</v>
       </c>
       <c r="E176" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4535,10 +4535,10 @@
         <v>6</v>
       </c>
       <c r="D177" t="n">
-        <v>178.8719089547223</v>
+        <v>138.2177225644618</v>
       </c>
       <c r="E177" t="n">
-        <v>3</v>
+        <v>83</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4552,10 +4552,10 @@
         <v>11</v>
       </c>
       <c r="D178" t="n">
-        <v>165.1147780114063</v>
+        <v>156.6512596664101</v>
       </c>
       <c r="E178" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4569,10 +4569,10 @@
         <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>37.54541495027276</v>
+        <v>31.39196590042399</v>
       </c>
       <c r="E179" t="n">
-        <v>175427</v>
+        <v>194672</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4586,10 +4586,10 @@
         <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>117.4834958789885</v>
+        <v>118.2563849677421</v>
       </c>
       <c r="E180" t="n">
-        <v>1592</v>
+        <v>796</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4603,10 +4603,10 @@
         <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>168.8032297501215</v>
+        <v>141.4143000336829</v>
       </c>
       <c r="E181" t="n">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4620,10 +4620,10 @@
         <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>105.7617517357932</v>
+        <v>99.45125892375559</v>
       </c>
       <c r="E182" t="n">
-        <v>3215</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4637,10 +4637,10 @@
         <v>11</v>
       </c>
       <c r="D183" t="n">
-        <v>126.2094918093954</v>
+        <v>107.3698988720655</v>
       </c>
       <c r="E183" t="n">
-        <v>934</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4654,10 +4654,10 @@
         <v>11</v>
       </c>
       <c r="D184" t="n">
-        <v>117.4917599807838</v>
+        <v>107.5289617063289</v>
       </c>
       <c r="E184" t="n">
-        <v>1591</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4671,10 +4671,10 @@
         <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>107.8345335292482</v>
+        <v>95.73583316550594</v>
       </c>
       <c r="E185" t="n">
-        <v>2826</v>
+        <v>4177</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4688,10 +4688,10 @@
         <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>108.3178704002544</v>
+        <v>104.5013200273602</v>
       </c>
       <c r="E186" t="n">
-        <v>2745</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4705,10 +4705,10 @@
         <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>158.9583219586464</v>
+        <v>130.8980321729707</v>
       </c>
       <c r="E187" t="n">
-        <v>68</v>
+        <v>222</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4722,10 +4722,10 @@
         <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>96.63301939176706</v>
+        <v>99.18198595118952</v>
       </c>
       <c r="E188" t="n">
-        <v>5611</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4739,10 +4739,10 @@
         <v>11</v>
       </c>
       <c r="D189" t="n">
-        <v>157.4742365471252</v>
+        <v>142.8978682935717</v>
       </c>
       <c r="E189" t="n">
-        <v>78</v>
+        <v>45</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4756,10 +4756,10 @@
         <v>11</v>
       </c>
       <c r="D190" t="n">
-        <v>97.00986811611662</v>
+        <v>77.79226394181782</v>
       </c>
       <c r="E190" t="n">
-        <v>5506</v>
+        <v>12848</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4773,10 +4773,10 @@
         <v>6</v>
       </c>
       <c r="D191" t="n">
-        <v>118.4649014063466</v>
+        <v>120.6820211355416</v>
       </c>
       <c r="E191" t="n">
-        <v>1486</v>
+        <v>619</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4790,10 +4790,10 @@
         <v>6</v>
       </c>
       <c r="D192" t="n">
-        <v>66.80993480329602</v>
+        <v>58.14504721452674</v>
       </c>
       <c r="E192" t="n">
-        <v>39569</v>
+        <v>55782</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4807,10 +4807,10 @@
         <v>11</v>
       </c>
       <c r="D193" t="n">
-        <v>110.7985021746839</v>
+        <v>109.7696876685714</v>
       </c>
       <c r="E193" t="n">
-        <v>2346</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4824,10 +4824,10 @@
         <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>79.17031341200412</v>
+        <v>80.53104405020103</v>
       </c>
       <c r="E194" t="n">
-        <v>16511</v>
+        <v>10697</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4841,10 +4841,10 @@
         <v>6</v>
       </c>
       <c r="D195" t="n">
-        <v>180.4598050626288</v>
+        <v>148.0983188446919</v>
       </c>
       <c r="E195" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4858,10 +4858,10 @@
         <v>11</v>
       </c>
       <c r="D196" t="n">
-        <v>162.5604110575924</v>
+        <v>143.4637385269439</v>
       </c>
       <c r="E196" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4875,10 +4875,10 @@
         <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>162.5604110575924</v>
+        <v>143.4637385269439</v>
       </c>
       <c r="E197" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4892,10 +4892,10 @@
         <v>11</v>
       </c>
       <c r="D198" t="n">
-        <v>151.6171119246282</v>
+        <v>128.2550920486715</v>
       </c>
       <c r="E198" t="n">
-        <v>143</v>
+        <v>290</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4909,10 +4909,10 @@
         <v>6</v>
       </c>
       <c r="D199" t="n">
-        <v>150.9216043520801</v>
+        <v>136.6324900145194</v>
       </c>
       <c r="E199" t="n">
-        <v>153</v>
+        <v>108</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4926,10 +4926,10 @@
         <v>11</v>
       </c>
       <c r="D200" t="n">
-        <v>174.8162906456494</v>
+        <v>148.5983490491666</v>
       </c>
       <c r="E200" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4943,10 +4943,10 @@
         <v>6</v>
       </c>
       <c r="D201" t="n">
-        <v>93.94669540493811</v>
+        <v>93.27506022348304</v>
       </c>
       <c r="E201" t="n">
-        <v>6552</v>
+        <v>4901</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4960,10 +4960,10 @@
         <v>11</v>
       </c>
       <c r="D202" t="n">
-        <v>132.0303462639813</v>
+        <v>119.2106960933479</v>
       </c>
       <c r="E202" t="n">
-        <v>631</v>
+        <v>720</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4977,10 +4977,10 @@
         <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>97.81766080760757</v>
+        <v>76.78978951344585</v>
       </c>
       <c r="E203" t="n">
-        <v>29</v>
+        <v>139</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4994,10 +4994,10 @@
         <v>11</v>
       </c>
       <c r="D204" t="n">
-        <v>97.06359787584084</v>
+        <v>81.6774447946035</v>
       </c>
       <c r="E204" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5011,10 +5011,10 @@
         <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>82.42231560765924</v>
+        <v>69.85691776047548</v>
       </c>
       <c r="E205" t="n">
-        <v>407</v>
+        <v>614</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5028,10 +5028,10 @@
         <v>11</v>
       </c>
       <c r="D206" t="n">
-        <v>94.60225605402083</v>
+        <v>77.19384192917352</v>
       </c>
       <c r="E206" t="n">
-        <v>48</v>
+        <v>125</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5045,10 +5045,10 @@
         <v>6</v>
       </c>
       <c r="D207" t="n">
-        <v>106.7827776200494</v>
+        <v>90.61299236117642</v>
       </c>
       <c r="E207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5062,10 +5062,10 @@
         <v>6</v>
       </c>
       <c r="D208" t="n">
-        <v>45.41149837497515</v>
+        <v>35.74468722141327</v>
       </c>
       <c r="E208" t="n">
-        <v>43284</v>
+        <v>80173</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5079,10 +5079,10 @@
         <v>6</v>
       </c>
       <c r="D209" t="n">
-        <v>93.75982229247889</v>
+        <v>77.52579031365872</v>
       </c>
       <c r="E209" t="n">
-        <v>66</v>
+        <v>112</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5096,10 +5096,10 @@
         <v>11</v>
       </c>
       <c r="D210" t="n">
-        <v>90.56706149284918</v>
+        <v>77.85782243381253</v>
       </c>
       <c r="E210" t="n">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5113,10 +5113,10 @@
         <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>54.03065744572275</v>
+        <v>39.59870156764219</v>
       </c>
       <c r="E211" t="n">
-        <v>16737</v>
+        <v>55747</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5130,10 +5130,10 @@
         <v>11</v>
       </c>
       <c r="D212" t="n">
-        <v>90.13186222349496</v>
+        <v>76.94506571686937</v>
       </c>
       <c r="E212" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5147,10 +5147,10 @@
         <v>6</v>
       </c>
       <c r="D213" t="n">
-        <v>75.35968627884807</v>
+        <v>71.31292735931618</v>
       </c>
       <c r="E213" t="n">
-        <v>874</v>
+        <v>458</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5164,10 +5164,10 @@
         <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>76.34715121168489</v>
+        <v>62.9319390469552</v>
       </c>
       <c r="E214" t="n">
-        <v>778</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5181,10 +5181,10 @@
         <v>11</v>
       </c>
       <c r="D215" t="n">
-        <v>100.3129604891216</v>
+        <v>85.48440485901391</v>
       </c>
       <c r="E215" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5198,10 +5198,10 @@
         <v>6</v>
       </c>
       <c r="D216" t="n">
-        <v>101.3546465074157</v>
+        <v>88.60130778796429</v>
       </c>
       <c r="E216" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5215,10 +5215,10 @@
         <v>6</v>
       </c>
       <c r="D217" t="n">
-        <v>98.14091882703489</v>
+        <v>78.08368862098079</v>
       </c>
       <c r="E217" t="n">
-        <v>27</v>
+        <v>88</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5232,10 +5232,10 @@
         <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>99.43008058708551</v>
+        <v>78.99063170414898</v>
       </c>
       <c r="E218" t="n">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5249,10 +5249,10 @@
         <v>6</v>
       </c>
       <c r="D219" t="n">
-        <v>100.7684488300635</v>
+        <v>78.51236830485243</v>
       </c>
       <c r="E219" t="n">
-        <v>9</v>
+        <v>81</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5266,10 +5266,10 @@
         <v>6</v>
       </c>
       <c r="D220" t="n">
-        <v>80.94778096506016</v>
+        <v>66.14616333047202</v>
       </c>
       <c r="E220" t="n">
-        <v>485</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5283,10 +5283,10 @@
         <v>6</v>
       </c>
       <c r="D221" t="n">
-        <v>99.08089574290547</v>
+        <v>87.61705944429372</v>
       </c>
       <c r="E221" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5300,10 +5300,10 @@
         <v>6</v>
       </c>
       <c r="D222" t="n">
-        <v>79.32458229749227</v>
+        <v>62.48953739814604</v>
       </c>
       <c r="E222" t="n">
-        <v>566</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5317,10 +5317,10 @@
         <v>6</v>
       </c>
       <c r="D223" t="n">
-        <v>77.61789929685901</v>
+        <v>64.5989321885169</v>
       </c>
       <c r="E223" t="n">
-        <v>669</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5334,10 +5334,10 @@
         <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>36.375408052794</v>
+        <v>24.35181649526763</v>
       </c>
       <c r="E224" t="n">
-        <v>98387</v>
+        <v>168467</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5351,10 +5351,10 @@
         <v>6</v>
       </c>
       <c r="D225" t="n">
-        <v>94.0753832204375</v>
+        <v>71.54703100827361</v>
       </c>
       <c r="E225" t="n">
-        <v>57</v>
+        <v>438</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5368,10 +5368,10 @@
         <v>6</v>
       </c>
       <c r="D226" t="n">
-        <v>74.01716801863446</v>
+        <v>58.67825753833822</v>
       </c>
       <c r="E226" t="n">
-        <v>1015</v>
+        <v>5426</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5385,10 +5385,10 @@
         <v>6</v>
       </c>
       <c r="D227" t="n">
-        <v>76.74902714713073</v>
+        <v>63.05713941087322</v>
       </c>
       <c r="E227" t="n">
-        <v>747</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5402,10 +5402,10 @@
         <v>6</v>
       </c>
       <c r="D228" t="n">
-        <v>92.56600013657233</v>
+        <v>66.06064267554341</v>
       </c>
       <c r="E228" t="n">
-        <v>84</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5419,10 +5419,10 @@
         <v>6</v>
       </c>
       <c r="D229" t="n">
-        <v>93.8106919592073</v>
+        <v>62.9817691067384</v>
       </c>
       <c r="E229" t="n">
-        <v>65</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5436,10 +5436,10 @@
         <v>6</v>
       </c>
       <c r="D230" t="n">
-        <v>112.3043542542893</v>
+        <v>88.30312988511011</v>
       </c>
       <c r="E230" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5453,10 +5453,10 @@
         <v>6</v>
       </c>
       <c r="D231" t="n">
-        <v>100.2510767558341</v>
+        <v>76.72945596032925</v>
       </c>
       <c r="E231" t="n">
-        <v>14</v>
+        <v>142</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5470,10 +5470,10 @@
         <v>11</v>
       </c>
       <c r="D232" t="n">
-        <v>105.091013850565</v>
+        <v>79.33808130447618</v>
       </c>
       <c r="E232" t="n">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5487,10 +5487,10 @@
         <v>11</v>
       </c>
       <c r="D233" t="n">
-        <v>87.86895893213396</v>
+        <v>73.15257565378414</v>
       </c>
       <c r="E233" t="n">
-        <v>195</v>
+        <v>309</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5504,10 +5504,10 @@
         <v>6</v>
       </c>
       <c r="D234" t="n">
-        <v>98.92551748055351</v>
+        <v>79.64111378628758</v>
       </c>
       <c r="E234" t="n">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5521,10 +5521,10 @@
         <v>6</v>
       </c>
       <c r="D235" t="n">
-        <v>100.5491804455942</v>
+        <v>77.54085426458698</v>
       </c>
       <c r="E235" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5538,10 +5538,10 @@
         <v>6</v>
       </c>
       <c r="D236" t="n">
-        <v>57.74354579891364</v>
+        <v>37.74182943696255</v>
       </c>
       <c r="E236" t="n">
-        <v>10451</v>
+        <v>66601</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5555,10 +5555,10 @@
         <v>6</v>
       </c>
       <c r="D237" t="n">
-        <v>56.19212051732042</v>
+        <v>28.55972000984561</v>
       </c>
       <c r="E237" t="n">
-        <v>12699</v>
+        <v>135002</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5572,10 +5572,10 @@
         <v>11</v>
       </c>
       <c r="D238" t="n">
-        <v>91.35295564395742</v>
+        <v>76.79672957606685</v>
       </c>
       <c r="E238" t="n">
-        <v>106</v>
+        <v>138</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5589,10 +5589,10 @@
         <v>11</v>
       </c>
       <c r="D239" t="n">
-        <v>86.35020205014075</v>
+        <v>64.03098034746078</v>
       </c>
       <c r="E239" t="n">
-        <v>242</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5606,10 +5606,10 @@
         <v>6</v>
       </c>
       <c r="D240" t="n">
-        <v>66.83677756411801</v>
+        <v>54.51359065436124</v>
       </c>
       <c r="E240" t="n">
-        <v>2877</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5623,10 +5623,10 @@
         <v>11</v>
       </c>
       <c r="D241" t="n">
-        <v>99.15612681842657</v>
+        <v>74.20409451694832</v>
       </c>
       <c r="E241" t="n">
-        <v>18</v>
+        <v>232</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5640,10 +5640,10 @@
         <v>6</v>
       </c>
       <c r="D242" t="n">
-        <v>42.5740362695111</v>
+        <v>28.03837529666417</v>
       </c>
       <c r="E242" t="n">
-        <v>57531</v>
+        <v>139289</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5657,10 +5657,10 @@
         <v>11</v>
       </c>
       <c r="D243" t="n">
-        <v>91.09487326380915</v>
+        <v>77.89586378331607</v>
       </c>
       <c r="E243" t="n">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5674,10 +5674,10 @@
         <v>6</v>
       </c>
       <c r="D244" t="n">
-        <v>55.24138113927709</v>
+        <v>31.16608276474516</v>
       </c>
       <c r="E244" t="n">
-        <v>14356</v>
+        <v>114394</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5691,10 +5691,10 @@
         <v>11</v>
       </c>
       <c r="D245" t="n">
-        <v>103.1885825093743</v>
+        <v>87.87184966320751</v>
       </c>
       <c r="E245" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5708,10 +5708,10 @@
         <v>6</v>
       </c>
       <c r="D246" t="n">
-        <v>78.65066147162219</v>
+        <v>62.72127879595624</v>
       </c>
       <c r="E246" t="n">
-        <v>602</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5725,10 +5725,10 @@
         <v>6</v>
       </c>
       <c r="D247" t="n">
-        <v>74.93638566476048</v>
+        <v>58.17981080864045</v>
       </c>
       <c r="E247" t="n">
-        <v>923</v>
+        <v>5905</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5742,10 +5742,10 @@
         <v>11</v>
       </c>
       <c r="D248" t="n">
-        <v>48.97505263060387</v>
+        <v>45.11011291881562</v>
       </c>
       <c r="E248" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5759,10 +5759,10 @@
         <v>6</v>
       </c>
       <c r="D249" t="n">
-        <v>36.09687643882533</v>
+        <v>34.1044661745719</v>
       </c>
       <c r="E249" t="n">
-        <v>201</v>
+        <v>175</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5776,10 +5776,10 @@
         <v>6</v>
       </c>
       <c r="D250" t="n">
-        <v>22.87162000313521</v>
+        <v>19.4395883630058</v>
       </c>
       <c r="E250" t="n">
-        <v>19500</v>
+        <v>26019</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5793,10 +5793,10 @@
         <v>6</v>
       </c>
       <c r="D251" t="n">
-        <v>29.56947947925733</v>
+        <v>26.47164502424886</v>
       </c>
       <c r="E251" t="n">
-        <v>1784</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5810,10 +5810,10 @@
         <v>11</v>
       </c>
       <c r="D252" t="n">
-        <v>47.26416901197231</v>
+        <v>44.14053452239479</v>
       </c>
       <c r="E252" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5827,10 +5827,10 @@
         <v>6</v>
       </c>
       <c r="D253" t="n">
-        <v>24.88337359987393</v>
+        <v>22.7934493395982</v>
       </c>
       <c r="E253" t="n">
-        <v>9836</v>
+        <v>8503</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5844,10 +5844,10 @@
         <v>6</v>
       </c>
       <c r="D254" t="n">
-        <v>28.23832439928007</v>
+        <v>26.85421926986773</v>
       </c>
       <c r="E254" t="n">
-        <v>2900</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5861,7 +5861,7 @@
         <v>6</v>
       </c>
       <c r="D255" t="n">
-        <v>51.57449457340155</v>
+        <v>49.06471494718105</v>
       </c>
       <c r="E255" t="n">
         <v>3</v>
@@ -5878,10 +5878,10 @@
         <v>11</v>
       </c>
       <c r="D256" t="n">
-        <v>37.50560538109223</v>
+        <v>34.73515511577776</v>
       </c>
       <c r="E256" t="n">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5895,10 +5895,10 @@
         <v>6</v>
       </c>
       <c r="D257" t="n">
-        <v>20.1755133674592</v>
+        <v>17.22471751055107</v>
       </c>
       <c r="E257" t="n">
-        <v>42745</v>
+        <v>48929</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5912,10 +5912,10 @@
         <v>6</v>
       </c>
       <c r="D258" t="n">
-        <v>46.92445309327533</v>
+        <v>44.25391288469774</v>
       </c>
       <c r="E258" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5929,10 +5929,10 @@
         <v>11</v>
       </c>
       <c r="D259" t="n">
-        <v>34.36664617792886</v>
+        <v>32.34508643708717</v>
       </c>
       <c r="E259" t="n">
-        <v>342</v>
+        <v>299</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5946,10 +5946,10 @@
         <v>6</v>
       </c>
       <c r="D260" t="n">
-        <v>25.59580351076546</v>
+        <v>23.20659121033357</v>
       </c>
       <c r="E260" t="n">
-        <v>7734</v>
+        <v>7290</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5963,10 +5963,10 @@
         <v>6</v>
       </c>
       <c r="D261" t="n">
-        <v>25.86864678260285</v>
+        <v>23.71944663093175</v>
       </c>
       <c r="E261" t="n">
-        <v>6984</v>
+        <v>6061</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5980,7 +5980,7 @@
         <v>6</v>
       </c>
       <c r="D262" t="n">
-        <v>41.68623466769183</v>
+        <v>39.08735754374705</v>
       </c>
       <c r="E262" t="n">
         <v>49</v>
@@ -5997,7 +5997,7 @@
         <v>11</v>
       </c>
       <c r="D263" t="n">
-        <v>58.28237488143363</v>
+        <v>55.54213899811108</v>
       </c>
       <c r="E263" t="n">
         <v>1</v>
@@ -6014,10 +6014,10 @@
         <v>6</v>
       </c>
       <c r="D264" t="n">
-        <v>33.23206581799413</v>
+        <v>30.53868479431044</v>
       </c>
       <c r="E264" t="n">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6031,10 +6031,10 @@
         <v>6</v>
       </c>
       <c r="D265" t="n">
-        <v>48.79705078666946</v>
+        <v>46.0638877894866</v>
       </c>
       <c r="E265" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6048,10 +6048,10 @@
         <v>6</v>
       </c>
       <c r="D266" t="n">
-        <v>45.75847378711259</v>
+        <v>43.45740276203873</v>
       </c>
       <c r="E266" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6065,10 +6065,10 @@
         <v>6</v>
       </c>
       <c r="D267" t="n">
-        <v>47.0019873234795</v>
+        <v>43.17562208206861</v>
       </c>
       <c r="E267" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6082,10 +6082,10 @@
         <v>6</v>
       </c>
       <c r="D268" t="n">
-        <v>34.04955215802606</v>
+        <v>30.85158784640917</v>
       </c>
       <c r="E268" t="n">
-        <v>398</v>
+        <v>473</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -6099,10 +6099,10 @@
         <v>6</v>
       </c>
       <c r="D269" t="n">
-        <v>21.38547934134928</v>
+        <v>18.24142026293211</v>
       </c>
       <c r="E269" t="n">
-        <v>30372</v>
+        <v>37330</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -6116,7 +6116,7 @@
         <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>52.73853903500309</v>
+        <v>50.89643109370076</v>
       </c>
       <c r="E270" t="n">
         <v>2</v>
@@ -6133,10 +6133,10 @@
         <v>6</v>
       </c>
       <c r="D271" t="n">
-        <v>41.78048845989805</v>
+        <v>39.43867672815888</v>
       </c>
       <c r="E271" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6150,10 +6150,10 @@
         <v>6</v>
       </c>
       <c r="D272" t="n">
-        <v>23.3941533247675</v>
+        <v>22.12470361663323</v>
       </c>
       <c r="E272" t="n">
-        <v>16435</v>
+        <v>10752</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -6167,10 +6167,10 @@
         <v>11</v>
       </c>
       <c r="D273" t="n">
-        <v>48.80321156247813</v>
+        <v>37.48324490001835</v>
       </c>
       <c r="E273" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -6184,10 +6184,10 @@
         <v>11</v>
       </c>
       <c r="D274" t="n">
-        <v>34.94205377479526</v>
+        <v>24.67651103617983</v>
       </c>
       <c r="E274" t="n">
-        <v>121</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -6201,10 +6201,10 @@
         <v>11</v>
       </c>
       <c r="D275" t="n">
-        <v>24.22186923184915</v>
+        <v>17.07113935494069</v>
       </c>
       <c r="E275" t="n">
-        <v>2626</v>
+        <v>32939</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -6218,10 +6218,10 @@
         <v>6</v>
       </c>
       <c r="D276" t="n">
-        <v>38.82224478519597</v>
+        <v>36.95570024101426</v>
       </c>
       <c r="E276" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -6235,10 +6235,10 @@
         <v>11</v>
       </c>
       <c r="D277" t="n">
-        <v>32.68075158485857</v>
+        <v>20.32395153533662</v>
       </c>
       <c r="E277" t="n">
-        <v>238</v>
+        <v>10219</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -6252,10 +6252,10 @@
         <v>11</v>
       </c>
       <c r="D278" t="n">
-        <v>33.47922630541259</v>
+        <v>22.71085539767358</v>
       </c>
       <c r="E278" t="n">
-        <v>195</v>
+        <v>3987</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -6269,10 +6269,10 @@
         <v>6</v>
       </c>
       <c r="D279" t="n">
-        <v>33.12880204917558</v>
+        <v>22.76421648063223</v>
       </c>
       <c r="E279" t="n">
-        <v>212</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -6286,10 +6286,10 @@
         <v>6</v>
       </c>
       <c r="D280" t="n">
-        <v>25.24648709699585</v>
+        <v>25.69414311470678</v>
       </c>
       <c r="E280" t="n">
-        <v>1834</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -6303,10 +6303,10 @@
         <v>11</v>
       </c>
       <c r="D281" t="n">
-        <v>44.107163128675</v>
+        <v>34.82865965162159</v>
       </c>
       <c r="E281" t="n">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -6320,10 +6320,10 @@
         <v>6</v>
       </c>
       <c r="D282" t="n">
-        <v>22.82311101677909</v>
+        <v>17.16755317265035</v>
       </c>
       <c r="E282" t="n">
-        <v>4343</v>
+        <v>31879</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -6337,10 +6337,10 @@
         <v>11</v>
       </c>
       <c r="D283" t="n">
-        <v>33.91054896908073</v>
+        <v>23.0165662481232</v>
       </c>
       <c r="E283" t="n">
-        <v>179</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -6354,10 +6354,10 @@
         <v>11</v>
       </c>
       <c r="D284" t="n">
-        <v>42.76781454227945</v>
+        <v>33.21239984302349</v>
       </c>
       <c r="E284" t="n">
-        <v>12</v>
+        <v>140</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -6371,10 +6371,10 @@
         <v>11</v>
       </c>
       <c r="D285" t="n">
-        <v>42.59881684561025</v>
+        <v>33.17813376118912</v>
       </c>
       <c r="E285" t="n">
-        <v>13</v>
+        <v>143</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -6388,10 +6388,10 @@
         <v>6</v>
       </c>
       <c r="D286" t="n">
-        <v>37.27982776655988</v>
+        <v>37.85434731567923</v>
       </c>
       <c r="E286" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -6405,10 +6405,10 @@
         <v>11</v>
       </c>
       <c r="D287" t="n">
-        <v>41.34489550074343</v>
+        <v>29.02765324318416</v>
       </c>
       <c r="E287" t="n">
-        <v>17</v>
+        <v>419</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -6422,10 +6422,10 @@
         <v>6</v>
       </c>
       <c r="D288" t="n">
-        <v>47.71152634842755</v>
+        <v>38.25436105964927</v>
       </c>
       <c r="E288" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -6439,10 +6439,10 @@
         <v>6</v>
       </c>
       <c r="D289" t="n">
-        <v>47.71152634842755</v>
+        <v>38.25436105964927</v>
       </c>
       <c r="E289" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -6456,10 +6456,10 @@
         <v>11</v>
       </c>
       <c r="D290" t="n">
-        <v>42.21548462726448</v>
+        <v>31.66471318519481</v>
       </c>
       <c r="E290" t="n">
-        <v>14</v>
+        <v>201</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -6473,10 +6473,10 @@
         <v>6</v>
       </c>
       <c r="D291" t="n">
-        <v>30.87406304017662</v>
+        <v>19.66307986191922</v>
       </c>
       <c r="E291" t="n">
-        <v>348</v>
+        <v>13122</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -6490,10 +6490,10 @@
         <v>6</v>
       </c>
       <c r="D292" t="n">
-        <v>30.02390807678001</v>
+        <v>18.58320098148319</v>
       </c>
       <c r="E292" t="n">
-        <v>438</v>
+        <v>19671</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -6507,10 +6507,10 @@
         <v>6</v>
       </c>
       <c r="D293" t="n">
-        <v>40.5124628311742</v>
+        <v>29.17741312954644</v>
       </c>
       <c r="E293" t="n">
-        <v>25</v>
+        <v>397</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -6524,10 +6524,10 @@
         <v>6</v>
       </c>
       <c r="D294" t="n">
-        <v>40.56333452246989</v>
+        <v>29.52675786080859</v>
       </c>
       <c r="E294" t="n">
-        <v>23</v>
+        <v>369</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -6541,10 +6541,10 @@
         <v>6</v>
       </c>
       <c r="D295" t="n">
-        <v>25.87068570834479</v>
+        <v>16.9899741599746</v>
       </c>
       <c r="E295" t="n">
-        <v>1511</v>
+        <v>33829</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -6558,10 +6558,10 @@
         <v>11</v>
       </c>
       <c r="D296" t="n">
-        <v>43.76920265658919</v>
+        <v>31.34214387026449</v>
       </c>
       <c r="E296" t="n">
-        <v>9</v>
+        <v>226</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -6575,10 +6575,10 @@
         <v>6</v>
       </c>
       <c r="D297" t="n">
-        <v>28.67904395910922</v>
+        <v>17.26496353316252</v>
       </c>
       <c r="E297" t="n">
-        <v>630</v>
+        <v>30879</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -6592,10 +6592,10 @@
         <v>11</v>
       </c>
       <c r="D298" t="n">
-        <v>38.69796674829776</v>
+        <v>27.69843989697192</v>
       </c>
       <c r="E298" t="n">
-        <v>38</v>
+        <v>634</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -6609,10 +6609,10 @@
         <v>6</v>
       </c>
       <c r="D299" t="n">
-        <v>36.39560856334335</v>
+        <v>24.23802861620666</v>
       </c>
       <c r="E299" t="n">
-        <v>66</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -6626,10 +6626,10 @@
         <v>11</v>
       </c>
       <c r="D300" t="n">
-        <v>37.88997068193425</v>
+        <v>28.67568898075045</v>
       </c>
       <c r="E300" t="n">
-        <v>46</v>
+        <v>457</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -6643,10 +6643,10 @@
         <v>6</v>
       </c>
       <c r="D301" t="n">
-        <v>27.51146623955308</v>
+        <v>26.71186864951529</v>
       </c>
       <c r="E301" t="n">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -6660,10 +6660,10 @@
         <v>6</v>
       </c>
       <c r="D302" t="n">
-        <v>27.51146623955308</v>
+        <v>26.71186864951529</v>
       </c>
       <c r="E302" t="n">
-        <v>898</v>
+        <v>893</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -6677,10 +6677,10 @@
         <v>6</v>
       </c>
       <c r="D303" t="n">
-        <v>24.8886568693223</v>
+        <v>24.51144800114863</v>
       </c>
       <c r="E303" t="n">
-        <v>2066</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -6694,10 +6694,10 @@
         <v>6</v>
       </c>
       <c r="D304" t="n">
-        <v>78.21784010430207</v>
+        <v>71.13629315057311</v>
       </c>
       <c r="E304" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -6711,10 +6711,10 @@
         <v>11</v>
       </c>
       <c r="D305" t="n">
-        <v>89.23683457385079</v>
+        <v>83.02638030556508</v>
       </c>
       <c r="E305" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -6728,10 +6728,10 @@
         <v>6</v>
       </c>
       <c r="D306" t="n">
-        <v>75.39422003715559</v>
+        <v>67.72961453837543</v>
       </c>
       <c r="E306" t="n">
-        <v>43</v>
+        <v>72</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -6745,10 +6745,10 @@
         <v>6</v>
       </c>
       <c r="D307" t="n">
-        <v>69.65440363338985</v>
+        <v>61.55795172120571</v>
       </c>
       <c r="E307" t="n">
-        <v>116</v>
+        <v>200</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -6762,10 +6762,10 @@
         <v>6</v>
       </c>
       <c r="D308" t="n">
-        <v>46.84915038456293</v>
+        <v>40.01641535950752</v>
       </c>
       <c r="E308" t="n">
-        <v>10516</v>
+        <v>18745</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -6779,10 +6779,10 @@
         <v>6</v>
       </c>
       <c r="D309" t="n">
-        <v>42.86692724306102</v>
+        <v>37.68237030460138</v>
       </c>
       <c r="E309" t="n">
-        <v>23282</v>
+        <v>29547</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -6796,10 +6796,10 @@
         <v>6</v>
       </c>
       <c r="D310" t="n">
-        <v>82.96559276971929</v>
+        <v>75.20799875946619</v>
       </c>
       <c r="E310" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -6813,10 +6813,10 @@
         <v>11</v>
       </c>
       <c r="D311" t="n">
-        <v>62.82004059326858</v>
+        <v>58.52963031321976</v>
       </c>
       <c r="E311" t="n">
-        <v>370</v>
+        <v>348</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -6830,10 +6830,10 @@
         <v>6</v>
       </c>
       <c r="D312" t="n">
-        <v>76.49032562636565</v>
+        <v>73.36476780686307</v>
       </c>
       <c r="E312" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -6847,10 +6847,10 @@
         <v>6</v>
       </c>
       <c r="D313" t="n">
-        <v>83.05219670446508</v>
+        <v>77.44790866536319</v>
       </c>
       <c r="E313" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -6864,10 +6864,10 @@
         <v>6</v>
       </c>
       <c r="D314" t="n">
-        <v>16.09385395934008</v>
+        <v>13.66297939880449</v>
       </c>
       <c r="E314" t="n">
-        <v>232707</v>
+        <v>234671</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -6881,10 +6881,10 @@
         <v>6</v>
       </c>
       <c r="D315" t="n">
-        <v>41.93155308962331</v>
+        <v>38.75897163061491</v>
       </c>
       <c r="E315" t="n">
-        <v>27616</v>
+        <v>24148</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -6898,10 +6898,10 @@
         <v>6</v>
       </c>
       <c r="D316" t="n">
-        <v>35.62356910980248</v>
+        <v>29.21228122833343</v>
       </c>
       <c r="E316" t="n">
-        <v>70577</v>
+        <v>99241</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -6915,10 +6915,10 @@
         <v>11</v>
       </c>
       <c r="D317" t="n">
-        <v>82.79212028712038</v>
+        <v>80.69387615293272</v>
       </c>
       <c r="E317" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -6932,10 +6932,10 @@
         <v>11</v>
       </c>
       <c r="D318" t="n">
-        <v>80.312647565389</v>
+        <v>75.58073559390577</v>
       </c>
       <c r="E318" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -6949,10 +6949,10 @@
         <v>6</v>
       </c>
       <c r="D319" t="n">
-        <v>53.33777936712849</v>
+        <v>49.61968571155813</v>
       </c>
       <c r="E319" t="n">
-        <v>2587</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -6966,7 +6966,7 @@
         <v>6</v>
       </c>
       <c r="D320" t="n">
-        <v>90.25458795916025</v>
+        <v>85.45562055289999</v>
       </c>
       <c r="E320" t="n">
         <v>1</v>
@@ -6983,10 +6983,10 @@
         <v>6</v>
       </c>
       <c r="D321" t="n">
-        <v>74.97097300098237</v>
+        <v>71.20081284830354</v>
       </c>
       <c r="E321" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -7000,10 +7000,10 @@
         <v>11</v>
       </c>
       <c r="D322" t="n">
-        <v>54.44171439436851</v>
+        <v>51.74383853536617</v>
       </c>
       <c r="E322" t="n">
-        <v>2044</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -7017,10 +7017,10 @@
         <v>11</v>
       </c>
       <c r="D323" t="n">
-        <v>72.61783236046278</v>
+        <v>70.08215214172954</v>
       </c>
       <c r="E323" t="n">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -7034,10 +7034,10 @@
         <v>6</v>
       </c>
       <c r="D324" t="n">
-        <v>74.09038083310894</v>
+        <v>71.45348200348627</v>
       </c>
       <c r="E324" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -7051,7 +7051,7 @@
         <v>6</v>
       </c>
       <c r="D325" t="n">
-        <v>84.22564295925267</v>
+        <v>82.06980149658042</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -7068,10 +7068,10 @@
         <v>11</v>
       </c>
       <c r="D326" t="n">
-        <v>72.67374763788717</v>
+        <v>65.92081422564551</v>
       </c>
       <c r="E326" t="n">
-        <v>65</v>
+        <v>96</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -7085,10 +7085,10 @@
         <v>6</v>
       </c>
       <c r="D327" t="n">
-        <v>87.76140033252572</v>
+        <v>83.08519293782982</v>
       </c>
       <c r="E327" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -7102,10 +7102,10 @@
         <v>6</v>
       </c>
       <c r="D328" t="n">
-        <v>77.92469688326328</v>
+        <v>70.51605471074467</v>
       </c>
       <c r="E328" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -7119,10 +7119,10 @@
         <v>6</v>
       </c>
       <c r="D329" t="n">
-        <v>63.45832996163887</v>
+        <v>58.83086924242179</v>
       </c>
       <c r="E329" t="n">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -7136,10 +7136,10 @@
         <v>6</v>
       </c>
       <c r="D330" t="n">
-        <v>37.07503236519739</v>
+        <v>33.03115069004023</v>
       </c>
       <c r="E330" t="n">
-        <v>58873</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -7153,10 +7153,10 @@
         <v>6</v>
       </c>
       <c r="D331" t="n">
-        <v>70.24056369500325</v>
+        <v>67.56112352777613</v>
       </c>
       <c r="E331" t="n">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -7170,10 +7170,10 @@
         <v>6</v>
       </c>
       <c r="D332" t="n">
-        <v>77.40313463175926</v>
+        <v>75.87674744809303</v>
       </c>
       <c r="E332" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -7187,10 +7187,10 @@
         <v>6</v>
       </c>
       <c r="D333" t="n">
-        <v>73.24366546944589</v>
+        <v>69.12758814084954</v>
       </c>
       <c r="E333" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -7204,10 +7204,10 @@
         <v>6</v>
       </c>
       <c r="D334" t="n">
-        <v>69.83268924866528</v>
+        <v>68.24977883756502</v>
       </c>
       <c r="E334" t="n">
-        <v>112</v>
+        <v>65</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -7221,10 +7221,10 @@
         <v>6</v>
       </c>
       <c r="D335" t="n">
-        <v>53.87908252268064</v>
+        <v>49.19810295914316</v>
       </c>
       <c r="E335" t="n">
-        <v>2298</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -7238,10 +7238,10 @@
         <v>6</v>
       </c>
       <c r="D336" t="n">
-        <v>73.94437278559353</v>
+        <v>69.0580532501438</v>
       </c>
       <c r="E336" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -7255,10 +7255,10 @@
         <v>6</v>
       </c>
       <c r="D337" t="n">
-        <v>43.12957490685412</v>
+        <v>37.22539618081134</v>
       </c>
       <c r="E337" t="n">
-        <v>22115</v>
+        <v>32048</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -7272,10 +7272,10 @@
         <v>6</v>
       </c>
       <c r="D338" t="n">
-        <v>43.63971270763823</v>
+        <v>39.03835333510425</v>
       </c>
       <c r="E338" t="n">
-        <v>20060</v>
+        <v>22772</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -7289,10 +7289,10 @@
         <v>6</v>
       </c>
       <c r="D339" t="n">
-        <v>51.42112547227777</v>
+        <v>45.74786887522988</v>
       </c>
       <c r="E339" t="n">
-        <v>3924</v>
+        <v>5308</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -7306,10 +7306,10 @@
         <v>6</v>
       </c>
       <c r="D340" t="n">
-        <v>71.5348131965975</v>
+        <v>63.09993425738114</v>
       </c>
       <c r="E340" t="n">
-        <v>83</v>
+        <v>155</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -7323,10 +7323,10 @@
         <v>6</v>
       </c>
       <c r="D341" t="n">
-        <v>40.11886185208867</v>
+        <v>36.8891806249816</v>
       </c>
       <c r="E341" t="n">
-        <v>37340</v>
+        <v>33982</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -7340,10 +7340,10 @@
         <v>6</v>
       </c>
       <c r="D342" t="n">
-        <v>46.62324391910642</v>
+        <v>41.24006169400118</v>
       </c>
       <c r="E342" t="n">
-        <v>11058</v>
+        <v>14529</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -7357,10 +7357,10 @@
         <v>6</v>
       </c>
       <c r="D343" t="n">
-        <v>28.50769805048019</v>
+        <v>28.31883943320135</v>
       </c>
       <c r="E343" t="n">
-        <v>138763</v>
+        <v>108675</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -7374,10 +7374,10 @@
         <v>11</v>
       </c>
       <c r="D344" t="n">
-        <v>38.18695223473362</v>
+        <v>26.54619097776025</v>
       </c>
       <c r="E344" t="n">
-        <v>145</v>
+        <v>14857</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -7391,10 +7391,10 @@
         <v>6</v>
       </c>
       <c r="D345" t="n">
-        <v>30.82526743484202</v>
+        <v>30.19829894939318</v>
       </c>
       <c r="E345" t="n">
-        <v>3534</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -7408,10 +7408,10 @@
         <v>6</v>
       </c>
       <c r="D346" t="n">
-        <v>36.2955967456659</v>
+        <v>25.38328192717577</v>
       </c>
       <c r="E346" t="n">
-        <v>366</v>
+        <v>20826</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -7425,10 +7425,10 @@
         <v>11</v>
       </c>
       <c r="D347" t="n">
-        <v>40.9862770224787</v>
+        <v>33.44918996059266</v>
       </c>
       <c r="E347" t="n">
-        <v>25</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -7442,10 +7442,10 @@
         <v>11</v>
       </c>
       <c r="D348" t="n">
-        <v>41.10952325061967</v>
+        <v>33.44918996059266</v>
       </c>
       <c r="E348" t="n">
-        <v>24</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -7459,10 +7459,10 @@
         <v>6</v>
       </c>
       <c r="D349" t="n">
-        <v>30.3163182292523</v>
+        <v>25.42810759363968</v>
       </c>
       <c r="E349" t="n">
-        <v>4261</v>
+        <v>20579</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -7476,10 +7476,10 @@
         <v>6</v>
       </c>
       <c r="D350" t="n">
-        <v>27.73078736837719</v>
+        <v>16.66314890388317</v>
       </c>
       <c r="E350" t="n">
-        <v>10574</v>
+        <v>126930</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -7493,10 +7493,10 @@
         <v>6</v>
       </c>
       <c r="D351" t="n">
-        <v>39.21623021047634</v>
+        <v>30.85680615371766</v>
       </c>
       <c r="E351" t="n">
-        <v>85</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -7510,10 +7510,10 @@
         <v>11</v>
       </c>
       <c r="D352" t="n">
-        <v>30.301332679848</v>
+        <v>29.26636989072914</v>
       </c>
       <c r="E352" t="n">
-        <v>4291</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -7527,10 +7527,10 @@
         <v>6</v>
       </c>
       <c r="D353" t="n">
-        <v>28.35484118641701</v>
+        <v>18.17695530125541</v>
       </c>
       <c r="E353" t="n">
-        <v>8593</v>
+        <v>101261</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -7544,10 +7544,10 @@
         <v>6</v>
       </c>
       <c r="D354" t="n">
-        <v>26.25414584179361</v>
+        <v>26.10775698080968</v>
       </c>
       <c r="E354" t="n">
-        <v>16568</v>
+        <v>16901</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -7561,10 +7561,10 @@
         <v>6</v>
       </c>
       <c r="D355" t="n">
-        <v>35.87338823177154</v>
+        <v>34.25748813656635</v>
       </c>
       <c r="E355" t="n">
-        <v>453</v>
+        <v>842</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -7578,10 +7578,10 @@
         <v>6</v>
       </c>
       <c r="D356" t="n">
-        <v>27.83943081574477</v>
+        <v>27.03840430455149</v>
       </c>
       <c r="E356" t="n">
-        <v>10220</v>
+        <v>12819</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -7595,10 +7595,10 @@
         <v>6</v>
       </c>
       <c r="D357" t="n">
-        <v>34.26251328110334</v>
+        <v>27.47884210724301</v>
       </c>
       <c r="E357" t="n">
-        <v>933</v>
+        <v>11119</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -7612,10 +7612,10 @@
         <v>6</v>
       </c>
       <c r="D358" t="n">
-        <v>38.81282935020233</v>
+        <v>31.51550740916054</v>
       </c>
       <c r="E358" t="n">
-        <v>105</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -7629,10 +7629,10 @@
         <v>6</v>
       </c>
       <c r="D359" t="n">
-        <v>49.80086429509743</v>
+        <v>39.25350566867586</v>
       </c>
       <c r="E359" t="n">
-        <v>1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -7646,10 +7646,10 @@
         <v>6</v>
       </c>
       <c r="D360" t="n">
-        <v>25.01670031731487</v>
+        <v>25.65380001678737</v>
       </c>
       <c r="E360" t="n">
-        <v>23370</v>
+        <v>19213</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -7663,10 +7663,10 @@
         <v>6</v>
       </c>
       <c r="D361" t="n">
-        <v>35.00530602161719</v>
+        <v>24.48414739796517</v>
       </c>
       <c r="E361" t="n">
-        <v>664</v>
+        <v>26515</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -7680,10 +7680,10 @@
         <v>6</v>
       </c>
       <c r="D362" t="n">
-        <v>37.78191340274688</v>
+        <v>37.7798266174699</v>
       </c>
       <c r="E362" t="n">
-        <v>182</v>
+        <v>152</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -7697,10 +7697,10 @@
         <v>6</v>
       </c>
       <c r="D363" t="n">
-        <v>10.62604946624962</v>
+        <v>11.01789496963191</v>
       </c>
       <c r="E363" t="n">
-        <v>222089</v>
+        <v>217499</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -7714,10 +7714,10 @@
         <v>6</v>
       </c>
       <c r="D364" t="n">
-        <v>12.48941509402243</v>
+        <v>12.76179313123714</v>
       </c>
       <c r="E364" t="n">
-        <v>194710</v>
+        <v>190526</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -7731,10 +7731,10 @@
         <v>6</v>
       </c>
       <c r="D365" t="n">
-        <v>9.880151435053508</v>
+        <v>9.858267242319018</v>
       </c>
       <c r="E365" t="n">
-        <v>230930</v>
+        <v>231828</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -7748,10 +7748,10 @@
         <v>6</v>
       </c>
       <c r="D366" t="n">
-        <v>28.6333634283484</v>
+        <v>19.69769699776484</v>
       </c>
       <c r="E366" t="n">
-        <v>7802</v>
+        <v>77987</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -7765,10 +7765,10 @@
         <v>6</v>
       </c>
       <c r="D367" t="n">
-        <v>34.89609574372653</v>
+        <v>26.22106722270636</v>
       </c>
       <c r="E367" t="n">
-        <v>699</v>
+        <v>16333</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -7782,10 +7782,10 @@
         <v>6</v>
       </c>
       <c r="D368" t="n">
-        <v>30.30376290229655</v>
+        <v>19.70188986337794</v>
       </c>
       <c r="E368" t="n">
-        <v>4286</v>
+        <v>77904</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -7799,10 +7799,10 @@
         <v>6</v>
       </c>
       <c r="D369" t="n">
-        <v>26.5692139796921</v>
+        <v>26.61975951568861</v>
       </c>
       <c r="E369" t="n">
-        <v>15055</v>
+        <v>14513</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -7816,10 +7816,10 @@
         <v>6</v>
       </c>
       <c r="D370" t="n">
-        <v>22.13162492925813</v>
+        <v>12.53414156945779</v>
       </c>
       <c r="E370" t="n">
-        <v>47665</v>
+        <v>194352</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -7833,10 +7833,10 @@
         <v>6</v>
       </c>
       <c r="D371" t="n">
-        <v>21.37465128406977</v>
+        <v>21.83082154562521</v>
       </c>
       <c r="E371" t="n">
-        <v>56215</v>
+        <v>50561</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -7850,10 +7850,10 @@
         <v>6</v>
       </c>
       <c r="D372" t="n">
-        <v>25.57211898054268</v>
+        <v>26.06682555538383</v>
       </c>
       <c r="E372" t="n">
-        <v>20095</v>
+        <v>17086</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -7867,10 +7867,10 @@
         <v>6</v>
       </c>
       <c r="D373" t="n">
-        <v>20.75207218491316</v>
+        <v>20.93847980033311</v>
       </c>
       <c r="E373" t="n">
-        <v>63709</v>
+        <v>61060</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -7884,10 +7884,10 @@
         <v>6</v>
       </c>
       <c r="D374" t="n">
-        <v>24.31211451133116</v>
+        <v>24.74037173284404</v>
       </c>
       <c r="E374" t="n">
-        <v>28104</v>
+        <v>24794</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -7901,10 +7901,10 @@
         <v>11</v>
       </c>
       <c r="D375" t="n">
-        <v>29.08249418599219</v>
+        <v>19.92575932043265</v>
       </c>
       <c r="E375" t="n">
-        <v>6603</v>
+        <v>74601</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -7918,10 +7918,10 @@
         <v>6</v>
       </c>
       <c r="D376" t="n">
-        <v>32.63256816621049</v>
+        <v>23.80433898070079</v>
       </c>
       <c r="E376" t="n">
-        <v>1732</v>
+        <v>31403</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -7935,10 +7935,10 @@
         <v>6</v>
       </c>
       <c r="D377" t="n">
-        <v>29.44909839056897</v>
+        <v>24.2669102654662</v>
       </c>
       <c r="E377" t="n">
-        <v>5849</v>
+        <v>28047</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -7952,10 +7952,10 @@
         <v>6</v>
       </c>
       <c r="D378" t="n">
-        <v>40.29360511300511</v>
+        <v>31.51652630201296</v>
       </c>
       <c r="E378" t="n">
-        <v>35</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -7969,10 +7969,10 @@
         <v>6</v>
       </c>
       <c r="D379" t="n">
-        <v>42.20282873001669</v>
+        <v>33.5748778206621</v>
       </c>
       <c r="E379" t="n">
-        <v>13</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -7986,10 +7986,10 @@
         <v>11</v>
       </c>
       <c r="D380" t="n">
-        <v>33.97546565679004</v>
+        <v>34.30644778743958</v>
       </c>
       <c r="E380" t="n">
-        <v>1034</v>
+        <v>823</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -8003,10 +8003,10 @@
         <v>6</v>
       </c>
       <c r="D381" t="n">
-        <v>19.32851925014008</v>
+        <v>18.90747782697407</v>
       </c>
       <c r="E381" t="n">
-        <v>83487</v>
+        <v>89732</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -8020,10 +8020,10 @@
         <v>6</v>
       </c>
       <c r="D382" t="n">
-        <v>25.28931611076031</v>
+        <v>14.57570330890344</v>
       </c>
       <c r="E382" t="n">
-        <v>21736</v>
+        <v>161907</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -8037,10 +8037,10 @@
         <v>6</v>
       </c>
       <c r="D383" t="n">
-        <v>18.9551092634076</v>
+        <v>19.19664457502775</v>
       </c>
       <c r="E383" t="n">
-        <v>89216</v>
+        <v>85268</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -8054,10 +8054,10 @@
         <v>6</v>
       </c>
       <c r="D384" t="n">
-        <v>19.93186493567089</v>
+        <v>20.21839755332246</v>
       </c>
       <c r="E384" t="n">
-        <v>74725</v>
+        <v>70494</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -8071,10 +8071,10 @@
         <v>6</v>
       </c>
       <c r="D385" t="n">
-        <v>33.48284783825077</v>
+        <v>33.9476106148517</v>
       </c>
       <c r="E385" t="n">
-        <v>1267</v>
+        <v>946</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -8088,10 +8088,10 @@
         <v>6</v>
       </c>
       <c r="D386" t="n">
-        <v>25.13638369321414</v>
+        <v>15.61486458760313</v>
       </c>
       <c r="E386" t="n">
-        <v>22649</v>
+        <v>144789</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -8105,10 +8105,10 @@
         <v>11</v>
       </c>
       <c r="D387" t="n">
-        <v>27.53581444785467</v>
+        <v>17.85026288334438</v>
       </c>
       <c r="E387" t="n">
-        <v>11274</v>
+        <v>106807</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -8122,10 +8122,10 @@
         <v>6</v>
       </c>
       <c r="D388" t="n">
-        <v>37.39027367359781</v>
+        <v>28.77147040562764</v>
       </c>
       <c r="E388" t="n">
-        <v>224</v>
+        <v>7139</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -8139,10 +8139,10 @@
         <v>6</v>
       </c>
       <c r="D389" t="n">
-        <v>34.26542318724234</v>
+        <v>26.44864666228535</v>
       </c>
       <c r="E389" t="n">
-        <v>932</v>
+        <v>15305</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -8156,10 +8156,10 @@
         <v>6</v>
       </c>
       <c r="D390" t="n">
-        <v>17.7293815942694</v>
+        <v>17.89648536005454</v>
       </c>
       <c r="E390" t="n">
-        <v>108698</v>
+        <v>106020</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -8173,10 +8173,10 @@
         <v>6</v>
       </c>
       <c r="D391" t="n">
-        <v>15.40191690611633</v>
+        <v>15.65444627150259</v>
       </c>
       <c r="E391" t="n">
-        <v>148183</v>
+        <v>144111</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -8190,10 +8190,10 @@
         <v>11</v>
       </c>
       <c r="D392" t="n">
-        <v>35.94788522924014</v>
+        <v>28.72704606904627</v>
       </c>
       <c r="E392" t="n">
-        <v>446</v>
+        <v>7285</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -8207,10 +8207,10 @@
         <v>6</v>
       </c>
       <c r="D393" t="n">
-        <v>13.74791448017468</v>
+        <v>13.88133714161181</v>
       </c>
       <c r="E393" t="n">
-        <v>174924</v>
+        <v>173195</v>
       </c>
     </row>
   </sheetData>
@@ -8287,25 +8287,25 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H2" t="n">
-        <v>0.44</v>
+        <v>0.24</v>
       </c>
       <c r="I2" t="n">
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="K2" t="n">
-        <v>0.056</v>
+        <v>0.052</v>
       </c>
       <c r="L2" t="n">
-        <v>0.032</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8325,25 +8325,25 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G3" t="n">
         <v>0.2</v>
       </c>
       <c r="H3" t="n">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="I3" t="n">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="J3" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03</v>
+        <v>0.022</v>
       </c>
       <c r="L3" t="n">
-        <v>0.016</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -8363,25 +8363,25 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H4" t="n">
-        <v>0.68</v>
+        <v>0.36</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5</v>
+        <v>0.26</v>
       </c>
       <c r="J4" t="n">
-        <v>0.33</v>
+        <v>0.21</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.074</v>
       </c>
       <c r="L4" t="n">
-        <v>0.048</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -8401,25 +8401,25 @@
         <v>0.0263</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1316</v>
+        <v>0.0789</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2105</v>
+        <v>0.1053</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2895</v>
+        <v>0.1579</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4474</v>
+        <v>0.2632</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5526</v>
+        <v>0.3947</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7368</v>
+        <v>0.6842</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8421</v>
+        <v>0.7632</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -8439,25 +8439,25 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.0526</v>
       </c>
       <c r="G6" t="n">
         <v>0.1053</v>
       </c>
       <c r="H6" t="n">
+        <v>0.1579</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1579</v>
+      </c>
+      <c r="J6" t="n">
         <v>0.3158</v>
       </c>
-      <c r="I6" t="n">
-        <v>0.4211</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
+        <v>0.5789</v>
+      </c>
+      <c r="L6" t="n">
         <v>0.6316000000000001</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.7895</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.8421</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -8477,25 +8477,25 @@
         <v>0.0175</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0877</v>
+        <v>0.0702</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1754</v>
+        <v>0.1053</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2982</v>
+        <v>0.1579</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4386</v>
+        <v>0.2281</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5789</v>
+        <v>0.3684</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7544</v>
+        <v>0.6491</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8421</v>
+        <v>0.7193000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8515,25 +8515,25 @@
         <v>0.0513</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2326</v>
+        <v>0.1395</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3333</v>
+        <v>0.1667</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3492</v>
+        <v>0.1905</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3864</v>
+        <v>0.2273</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3043</v>
+        <v>0.2174</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1041</v>
+        <v>0.09669999999999999</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0617</v>
+        <v>0.0559</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8553,25 +8553,25 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.0833</v>
       </c>
       <c r="G9" t="n">
         <v>0.138</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2727</v>
+        <v>0.1364</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2319</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2017</v>
+        <v>0.1008</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0578</v>
+        <v>0.0424</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0314</v>
+        <v>0.0236</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -8591,25 +8591,25 @@
         <v>0.0344</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1613</v>
+        <v>0.1291</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2985</v>
+        <v>0.1792</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4146</v>
+        <v>0.2195</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4673</v>
+        <v>0.243</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4204</v>
+        <v>0.2675</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1544</v>
+        <v>0.1329</v>
       </c>
       <c r="L10" t="n">
-        <v>0.09080000000000001</v>
+        <v>0.0776</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8626,28 +8626,28 @@
         <v>387</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H11" t="n">
-        <v>0.36</v>
+        <v>0.12</v>
       </c>
       <c r="I11" t="n">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="J11" t="n">
-        <v>0.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05</v>
+        <v>0.026</v>
       </c>
       <c r="L11" t="n">
-        <v>0.025</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8664,28 +8664,28 @@
         <v>387</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I12" t="n">
         <v>0.1</v>
       </c>
-      <c r="H12" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.14</v>
-      </c>
       <c r="J12" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="K12" t="n">
-        <v>0.046</v>
+        <v>0.02</v>
       </c>
       <c r="L12" t="n">
-        <v>0.024</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -8705,25 +8705,25 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G13" t="n">
         <v>0.7</v>
       </c>
       <c r="H13" t="n">
-        <v>0.48</v>
+        <v>0.28</v>
       </c>
       <c r="I13" t="n">
-        <v>0.38</v>
+        <v>0.22</v>
       </c>
       <c r="J13" t="n">
-        <v>0.31</v>
+        <v>0.13</v>
       </c>
       <c r="K13" t="n">
-        <v>0.096</v>
+        <v>0.046</v>
       </c>
       <c r="L13" t="n">
-        <v>0.049</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -8740,28 +8740,28 @@
         <v>387</v>
       </c>
       <c r="E14" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.12</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I14" t="n">
         <v>0.24</v>
       </c>
-      <c r="H14" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.48</v>
-      </c>
       <c r="J14" t="n">
-        <v>0.76</v>
+        <v>0.28</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0.52</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -8778,28 +8778,28 @@
         <v>387</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.0294</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.0588</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0294</v>
+        <v>0.1176</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0882</v>
+        <v>0.1176</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2059</v>
+        <v>0.1471</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3529</v>
+        <v>0.1765</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6765</v>
+        <v>0.2941</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7059</v>
+        <v>0.4118</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -8819,25 +8819,25 @@
         <v>0.0169</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0508</v>
+        <v>0.0678</v>
       </c>
       <c r="G16" t="n">
         <v>0.1186</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2034</v>
+        <v>0.1186</v>
       </c>
       <c r="I16" t="n">
-        <v>0.322</v>
+        <v>0.1864</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5254</v>
+        <v>0.2203</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8136</v>
+        <v>0.3898</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8305</v>
+        <v>0.4915</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -8854,28 +8854,28 @@
         <v>387</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0769</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2</v>
+        <v>0.1333</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3429</v>
+        <v>0.1714</v>
       </c>
       <c r="H17" t="n">
-        <v>0.36</v>
+        <v>0.12</v>
       </c>
       <c r="I17" t="n">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="J17" t="n">
-        <v>0.304</v>
+        <v>0.112</v>
       </c>
       <c r="K17" t="n">
-        <v>0.09520000000000001</v>
+        <v>0.0495</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0488</v>
+        <v>0.0293</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -8892,28 +8892,28 @@
         <v>387</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.0571</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.1025</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0454</v>
+        <v>0.1818</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1017</v>
+        <v>0.1356</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1667</v>
+        <v>0.1191</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1791</v>
+        <v>0.0896</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0861</v>
+        <v>0.0375</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0464</v>
+        <v>0.0271</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -8933,25 +8933,25 @@
         <v>0.0332</v>
       </c>
       <c r="F19" t="n">
-        <v>0.09370000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="G19" t="n">
         <v>0.2028</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2857</v>
+        <v>0.1666</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3486</v>
+        <v>0.2018</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3899</v>
+        <v>0.1635</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1717</v>
+        <v>0.0823</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0925</v>
+        <v>0.0548</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -8971,22 +8971,22 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="G20" t="n">
         <v>0.3</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="I20" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="J20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="K20" t="n">
-        <v>0.016</v>
+        <v>0.02</v>
       </c>
       <c r="L20" t="n">
         <v>0.01</v>
@@ -9009,25 +9009,25 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I21" t="n">
         <v>0.2</v>
       </c>
-      <c r="G21" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.22</v>
-      </c>
       <c r="J21" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="K21" t="n">
-        <v>0.044</v>
+        <v>0.046</v>
       </c>
       <c r="L21" t="n">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -9050,22 +9050,22 @@
         <v>0.8</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H22" t="n">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="I22" t="n">
         <v>0.36</v>
       </c>
       <c r="J22" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="K22" t="n">
-        <v>0.06</v>
+        <v>0.066</v>
       </c>
       <c r="L22" t="n">
-        <v>0.034</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -9085,22 +9085,22 @@
         <v>0.1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G23" t="n">
         <v>0.3</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I23" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J23" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="K23" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
         <v>1</v>
@@ -9123,25 +9123,25 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0357</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1429</v>
+        <v>0.1071</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2857</v>
+        <v>0.2143</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3929</v>
+        <v>0.3571</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3929</v>
+        <v>0.4643</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7857</v>
+        <v>0.8214</v>
       </c>
       <c r="L24" t="n">
-        <v>0.8571</v>
+        <v>0.8929</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -9164,22 +9164,22 @@
         <v>0.1053</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1842</v>
+        <v>0.1579</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3421</v>
+        <v>0.3158</v>
       </c>
       <c r="I25" t="n">
         <v>0.4737</v>
       </c>
       <c r="J25" t="n">
-        <v>0.4737</v>
+        <v>0.5789</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7895</v>
+        <v>0.8683999999999999</v>
       </c>
       <c r="L25" t="n">
-        <v>0.8947000000000001</v>
+        <v>0.9211</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -9199,22 +9199,22 @@
         <v>0.1818</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4</v>
+        <v>0.2667</v>
       </c>
       <c r="G26" t="n">
         <v>0.3</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2857</v>
+        <v>0.3429</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2333</v>
+        <v>0.2667</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1273</v>
+        <v>0.1636</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0314</v>
+        <v>0.0392</v>
       </c>
       <c r="L26" t="n">
         <v>0.0198</v>
@@ -9237,25 +9237,25 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0606</v>
+        <v>0.1212</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2106</v>
+        <v>0.1578</v>
       </c>
       <c r="H27" t="n">
-        <v>0.3019</v>
+        <v>0.2264</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2821</v>
+        <v>0.2564</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1719</v>
+        <v>0.2031</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0833</v>
+        <v>0.0871</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0467</v>
+        <v>0.0486</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -9278,22 +9278,22 @@
         <v>0.1861</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2917</v>
+        <v>0.25</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4127</v>
+        <v>0.381</v>
       </c>
       <c r="I28" t="n">
         <v>0.4091</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2609</v>
+        <v>0.3188</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1115</v>
+        <v>0.1227</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0655</v>
+        <v>0.0674</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -9313,25 +9313,25 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I29" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="J29" t="n">
         <v>0.06</v>
       </c>
       <c r="K29" t="n">
-        <v>0.024</v>
+        <v>0.022</v>
       </c>
       <c r="L29" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -9351,25 +9351,25 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G30" t="n">
         <v>0.4</v>
       </c>
-      <c r="G30" t="n">
-        <v>0.5</v>
-      </c>
       <c r="H30" t="n">
-        <v>0.36</v>
+        <v>0.16</v>
       </c>
       <c r="I30" t="n">
-        <v>0.22</v>
+        <v>0.08</v>
       </c>
       <c r="J30" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="K30" t="n">
-        <v>0.034</v>
+        <v>0.028</v>
       </c>
       <c r="L30" t="n">
-        <v>0.024</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -9392,22 +9392,22 @@
         <v>0.8</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
-        <v>0.52</v>
+        <v>0.24</v>
       </c>
       <c r="I31" t="n">
-        <v>0.34</v>
+        <v>0.14</v>
       </c>
       <c r="J31" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="K31" t="n">
-        <v>0.058</v>
+        <v>0.05</v>
       </c>
       <c r="L31" t="n">
-        <v>0.036</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -9427,25 +9427,25 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0.0833</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0833</v>
+      </c>
+      <c r="H32" t="n">
         <v>0.1667</v>
       </c>
-      <c r="G32" t="n">
-        <v>0.1667</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.3333</v>
-      </c>
       <c r="I32" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="J32" t="n">
         <v>0.5</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>0.9167</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>0.9167</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -9465,25 +9465,25 @@
         <v>0.0303</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0606</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1515</v>
+        <v>0.1212</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2727</v>
+        <v>0.1212</v>
       </c>
       <c r="I33" t="n">
-        <v>0.3333</v>
+        <v>0.1212</v>
       </c>
       <c r="J33" t="n">
+        <v>0.2424</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.4242</v>
+      </c>
+      <c r="L33" t="n">
         <v>0.4545</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.5152</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.7272999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -9506,22 +9506,22 @@
         <v>0.08890000000000001</v>
       </c>
       <c r="G34" t="n">
+        <v>0.1111</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.1333</v>
+      </c>
+      <c r="I34" t="n">
         <v>0.1556</v>
       </c>
-      <c r="H34" t="n">
-        <v>0.2889</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.3778</v>
-      </c>
       <c r="J34" t="n">
-        <v>0.4667</v>
+        <v>0.3111</v>
       </c>
       <c r="K34" t="n">
-        <v>0.6444</v>
+        <v>0.5556</v>
       </c>
       <c r="L34" t="n">
-        <v>0.8</v>
+        <v>0.5778</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -9541,25 +9541,25 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2353</v>
+        <v>0.1176</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1818</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2162</v>
+        <v>0.1081</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1935</v>
+        <v>0.0968</v>
       </c>
       <c r="J35" t="n">
         <v>0.1071</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0469</v>
+        <v>0.043</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0237</v>
+        <v>0.0217</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -9579,25 +9579,25 @@
         <v>0.0588</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1053</v>
+        <v>0.1579</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2325</v>
+        <v>0.186</v>
       </c>
       <c r="H36" t="n">
-        <v>0.3103</v>
+        <v>0.1379</v>
       </c>
       <c r="I36" t="n">
-        <v>0.265</v>
+        <v>0.0964</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2256</v>
+        <v>0.1203</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0638</v>
+        <v>0.0525</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0465</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -9620,22 +9620,22 @@
         <v>0.16</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2546</v>
+        <v>0.1818</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3714</v>
+        <v>0.1714</v>
       </c>
       <c r="I37" t="n">
-        <v>0.3579</v>
+        <v>0.1474</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2897</v>
+        <v>0.1931</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1064</v>
+        <v>0.0917</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0689</v>
+        <v>0.0498</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -9652,19 +9652,19 @@
         <v>387</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H38" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I38" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="J38" t="n">
         <v>0.04</v>
@@ -9673,7 +9673,7 @@
         <v>0.01</v>
       </c>
       <c r="L38" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -9690,28 +9690,28 @@
         <v>387</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H39" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I39" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="J39" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="K39" t="n">
         <v>0.016</v>
       </c>
       <c r="L39" t="n">
-        <v>0.008</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -9731,25 +9731,25 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="I40" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="J40" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="K40" t="n">
         <v>0.026</v>
       </c>
       <c r="L40" t="n">
-        <v>0.015</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -9766,19 +9766,19 @@
         <v>387</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I41" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J41" t="n">
         <v>0.4</v>
@@ -9787,7 +9787,7 @@
         <v>0.5</v>
       </c>
       <c r="L41" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -9804,28 +9804,28 @@
         <v>387</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0526</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1579</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1579</v>
+        <v>0.1053</v>
       </c>
       <c r="H42" t="n">
+        <v>0.1053</v>
+      </c>
+      <c r="I42" t="n">
         <v>0.2105</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>0.3158</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.3684</v>
       </c>
       <c r="K42" t="n">
         <v>0.4211</v>
       </c>
       <c r="L42" t="n">
-        <v>0.4211</v>
+        <v>0.5789</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -9845,25 +9845,25 @@
         <v>0.0345</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1034</v>
+        <v>0.0345</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1034</v>
+        <v>0.1379</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1724</v>
+        <v>0.1379</v>
       </c>
       <c r="I43" t="n">
-        <v>0.3103</v>
+        <v>0.2759</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3793</v>
+        <v>0.3448</v>
       </c>
       <c r="K43" t="n">
         <v>0.4483</v>
       </c>
       <c r="L43" t="n">
-        <v>0.5172</v>
+        <v>0.5862000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -9880,19 +9880,19 @@
         <v>387</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>0.1818</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>0.1333</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0571</v>
+        <v>0.1143</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1</v>
+        <v>0.1333</v>
       </c>
       <c r="J44" t="n">
         <v>0.0727</v>
@@ -9901,7 +9901,7 @@
         <v>0.0196</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0139</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -9918,28 +9918,28 @@
         <v>387</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0999</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2069</v>
+        <v>0.138</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1818</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1739</v>
+        <v>0.1159</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1176</v>
+        <v>0.1008</v>
       </c>
       <c r="K45" t="n">
         <v>0.0308</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0157</v>
+        <v>0.0216</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -9959,25 +9959,25 @@
         <v>0.0667</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1764</v>
+        <v>0.0588</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1538</v>
+        <v>0.2051</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1852</v>
+        <v>0.1481</v>
       </c>
       <c r="I46" t="n">
-        <v>0.2278</v>
+        <v>0.2025</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1705</v>
+        <v>0.155</v>
       </c>
       <c r="K46" t="n">
         <v>0.0491</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0292</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -9994,28 +9994,28 @@
         <v>387</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.28</v>
+        <v>0.04</v>
       </c>
       <c r="I47" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="J47" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="K47" t="n">
-        <v>0.026</v>
+        <v>0.016</v>
       </c>
       <c r="L47" t="n">
-        <v>0.013</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -10035,25 +10035,25 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="J48" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="K48" t="n">
-        <v>0.02</v>
+        <v>0.012</v>
       </c>
       <c r="L48" t="n">
-        <v>0.013</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -10070,28 +10070,28 @@
         <v>387</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.44</v>
+        <v>0.16</v>
       </c>
       <c r="I49" t="n">
-        <v>0.28</v>
+        <v>0.1</v>
       </c>
       <c r="J49" t="n">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="K49" t="n">
-        <v>0.046</v>
+        <v>0.028</v>
       </c>
       <c r="L49" t="n">
-        <v>0.026</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -10108,28 +10108,28 @@
         <v>387</v>
       </c>
       <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
         <v>0.07140000000000001</v>
       </c>
-      <c r="F50" t="n">
+      <c r="I50" t="n">
         <v>0.07140000000000001</v>
       </c>
-      <c r="G50" t="n">
-        <v>0.2143</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
+        <v>0.1429</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.5714</v>
+      </c>
+      <c r="L50" t="n">
         <v>0.6429</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.6429</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.9286</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.9286</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -10149,25 +10149,25 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1176</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1176</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
+        <v>0.1765</v>
+      </c>
+      <c r="I51" t="n">
         <v>0.2353</v>
       </c>
-      <c r="I51" t="n">
-        <v>0.2941</v>
-      </c>
       <c r="J51" t="n">
-        <v>0.4118</v>
+        <v>0.2353</v>
       </c>
       <c r="K51" t="n">
-        <v>0.5881999999999999</v>
+        <v>0.3529</v>
       </c>
       <c r="L51" t="n">
-        <v>0.7647</v>
+        <v>0.4706</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -10184,28 +10184,28 @@
         <v>387</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0323</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0968</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="I52" t="n">
         <v>0.1613</v>
       </c>
-      <c r="H52" t="n">
-        <v>0.3548</v>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
+        <v>0.1935</v>
+      </c>
+      <c r="K52" t="n">
         <v>0.4516</v>
       </c>
-      <c r="J52" t="n">
-        <v>0.5161</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.7419</v>
-      </c>
       <c r="L52" t="n">
-        <v>0.8387</v>
+        <v>0.5484</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -10222,28 +10222,28 @@
         <v>387</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1333</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1052</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.359</v>
+        <v>0.0513</v>
       </c>
       <c r="I53" t="n">
-        <v>0.2813</v>
+        <v>0.0312</v>
       </c>
       <c r="J53" t="n">
-        <v>0.1579</v>
+        <v>0.0351</v>
       </c>
       <c r="K53" t="n">
-        <v>0.0506</v>
+        <v>0.0311</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0256</v>
+        <v>0.0178</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -10263,25 +10263,25 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1818</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1481</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1905</v>
+        <v>0.1429</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1493</v>
+        <v>0.1194</v>
       </c>
       <c r="J54" t="n">
-        <v>0.1197</v>
+        <v>0.0684</v>
       </c>
       <c r="K54" t="n">
-        <v>0.0387</v>
+        <v>0.0232</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0256</v>
+        <v>0.0157</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -10298,28 +10298,28 @@
         <v>387</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0626</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1667</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2439</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.3928</v>
+        <v>0.1428</v>
       </c>
       <c r="I55" t="n">
-        <v>0.3457</v>
+        <v>0.1235</v>
       </c>
       <c r="J55" t="n">
-        <v>0.2443</v>
+        <v>0.0916</v>
       </c>
       <c r="K55" t="n">
-        <v>0.0866</v>
+        <v>0.0527</v>
       </c>
       <c r="L55" t="n">
-        <v>0.0504</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -10339,7 +10339,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G56" t="n">
         <v>0.3</v>
@@ -10380,7 +10380,7 @@
         <v>0.6</v>
       </c>
       <c r="G57" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H57" t="n">
         <v>0.24</v>
@@ -10415,10 +10415,10 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G58" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H58" t="n">
         <v>0.36</v>
@@ -10453,7 +10453,7 @@
         <v>0.2</v>
       </c>
       <c r="F59" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G59" t="n">
         <v>0.6</v>
@@ -10494,7 +10494,7 @@
         <v>0.15</v>
       </c>
       <c r="G60" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="H60" t="n">
         <v>0.3</v>
@@ -10529,10 +10529,10 @@
         <v>0.04</v>
       </c>
       <c r="F61" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="G61" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="H61" t="n">
         <v>0.36</v>
@@ -10567,7 +10567,7 @@
         <v>0.3333</v>
       </c>
       <c r="F62" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G62" t="n">
         <v>0.4</v>
@@ -10608,7 +10608,7 @@
         <v>0.24</v>
       </c>
       <c r="G63" t="n">
-        <v>0.3333</v>
+        <v>0.2667</v>
       </c>
       <c r="H63" t="n">
         <v>0.2667</v>
@@ -10643,10 +10643,10 @@
         <v>0.0769</v>
       </c>
       <c r="F64" t="n">
-        <v>0.3333</v>
+        <v>0.2667</v>
       </c>
       <c r="G64" t="n">
-        <v>0.4571</v>
+        <v>0.4</v>
       </c>
       <c r="H64" t="n">
         <v>0.36</v>
@@ -10687,19 +10687,19 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -10716,28 +10716,28 @@
         <v>387</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="K66" t="n">
-        <v>0.018</v>
+        <v>0.004</v>
       </c>
       <c r="L66" t="n">
-        <v>0.013</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -10754,28 +10754,28 @@
         <v>387</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="K67" t="n">
-        <v>0.026</v>
+        <v>0.004</v>
       </c>
       <c r="L67" t="n">
-        <v>0.017</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -10801,19 +10801,19 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -10830,28 +10830,28 @@
         <v>387</v>
       </c>
       <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
         <v>0.0238</v>
       </c>
-      <c r="F69" t="n">
-        <v>0.0238</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0.0238</v>
-      </c>
-      <c r="H69" t="n">
+      <c r="K69" t="n">
         <v>0.0476</v>
       </c>
-      <c r="I69" t="n">
-        <v>0.07140000000000001</v>
-      </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>0.09520000000000001</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2143</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0.3095</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -10868,28 +10868,28 @@
         <v>387</v>
       </c>
       <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
         <v>0.02</v>
       </c>
-      <c r="F70" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="I70" t="n">
+      <c r="K70" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L70" t="n">
         <v>0.1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0.34</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -10915,19 +10915,19 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1212</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.06900000000000001</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0.037</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0.0157</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0.007900000000000001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -10944,28 +10944,28 @@
         <v>387</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0465</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0425</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0384</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0597</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0.06519999999999999</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>0.0563</v>
+        <v>0.0141</v>
       </c>
       <c r="K72" t="n">
-        <v>0.0332</v>
+        <v>0.0074</v>
       </c>
       <c r="L72" t="n">
-        <v>0.025</v>
+        <v>0.0077</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -10982,28 +10982,28 @@
         <v>387</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0392</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0364</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0333</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1067</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>0.08</v>
+        <v>0.0133</v>
       </c>
       <c r="K73" t="n">
-        <v>0.0473</v>
+        <v>0.0073</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0324</v>
+        <v>0.0095</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -11023,7 +11023,7 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G74" t="n">
         <v>0.3</v>
@@ -11032,7 +11032,7 @@
         <v>0.12</v>
       </c>
       <c r="I74" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="J74" t="n">
         <v>0.05</v>
@@ -11061,7 +11061,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="G75" t="n">
         <v>0.5</v>
@@ -11073,7 +11073,7 @@
         <v>0.22</v>
       </c>
       <c r="J75" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="K75" t="n">
         <v>0.038</v>
@@ -11108,10 +11108,10 @@
         <v>0.4</v>
       </c>
       <c r="I76" t="n">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="J76" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="K76" t="n">
         <v>0.05</v>
@@ -11137,7 +11137,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1429</v>
+        <v>0.2857</v>
       </c>
       <c r="G77" t="n">
         <v>0.4286</v>
@@ -11146,7 +11146,7 @@
         <v>0.4286</v>
       </c>
       <c r="I77" t="n">
-        <v>0.4286</v>
+        <v>0.5714</v>
       </c>
       <c r="J77" t="n">
         <v>0.7143</v>
@@ -11175,7 +11175,7 @@
         <v>0.0303</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1212</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="G78" t="n">
         <v>0.1515</v>
@@ -11187,7 +11187,7 @@
         <v>0.3333</v>
       </c>
       <c r="J78" t="n">
-        <v>0.4545</v>
+        <v>0.4848</v>
       </c>
       <c r="K78" t="n">
         <v>0.5758</v>
@@ -11222,10 +11222,10 @@
         <v>0.25</v>
       </c>
       <c r="I79" t="n">
-        <v>0.35</v>
+        <v>0.375</v>
       </c>
       <c r="J79" t="n">
-        <v>0.5</v>
+        <v>0.525</v>
       </c>
       <c r="K79" t="n">
         <v>0.625</v>
@@ -11251,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1667</v>
+        <v>0.3333</v>
       </c>
       <c r="G80" t="n">
         <v>0.353</v>
@@ -11260,7 +11260,7 @@
         <v>0.1875</v>
       </c>
       <c r="I80" t="n">
-        <v>0.1053</v>
+        <v>0.1404</v>
       </c>
       <c r="J80" t="n">
         <v>0.0935</v>
@@ -11289,7 +11289,7 @@
         <v>0.0588</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2105</v>
+        <v>0.1579</v>
       </c>
       <c r="G81" t="n">
         <v>0.2325</v>
@@ -11301,7 +11301,7 @@
         <v>0.265</v>
       </c>
       <c r="J81" t="n">
-        <v>0.2256</v>
+        <v>0.2406</v>
       </c>
       <c r="K81" t="n">
         <v>0.0713</v>
@@ -11336,10 +11336,10 @@
         <v>0.3077</v>
       </c>
       <c r="I82" t="n">
-        <v>0.3111</v>
+        <v>0.3333</v>
       </c>
       <c r="J82" t="n">
-        <v>0.2857</v>
+        <v>0.3</v>
       </c>
       <c r="K82" t="n">
         <v>0.0926</v>
@@ -11365,7 +11365,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G83" t="n">
         <v>0.2</v>
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="G84" t="n">
         <v>0.7</v>
@@ -11479,7 +11479,7 @@
         <v>0.5</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -11517,7 +11517,7 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0.25</v>
+        <v>0.1875</v>
       </c>
       <c r="G87" t="n">
         <v>0.4375</v>
@@ -11593,7 +11593,7 @@
         <v>0.6667</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2857</v>
+        <v>0.5714</v>
       </c>
       <c r="G89" t="n">
         <v>0.3333</v>
@@ -11631,7 +11631,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.381</v>
+        <v>0.2857</v>
       </c>
       <c r="G90" t="n">
         <v>0.5385</v>
@@ -11764,25 +11764,25 @@
         <v>0.02631578947368421</v>
       </c>
       <c r="F2" t="n">
-        <v>0.131578947368421</v>
+        <v>0.07236842105263158</v>
       </c>
       <c r="G2" t="n">
-        <v>0.204312865497076</v>
+        <v>0.08289473684210526</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2407886136910904</v>
+        <v>0.1051378446115288</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3008231924370169</v>
+        <v>0.130203699940542</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3302192411703528</v>
+        <v>0.157722475696465</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3581442992111034</v>
+        <v>0.1850104735103063</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3627129408063164</v>
+        <v>0.1877860365364898</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -11802,25 +11802,25 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01804511278195489</v>
+        <v>0.02556390977443609</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0741598313966735</v>
+        <v>0.0343358395989975</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1013873985223731</v>
+        <v>0.0343358395989975</v>
       </c>
       <c r="J3" t="n">
-        <v>0.129880774998706</v>
+        <v>0.04633623481929244</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1396694949644171</v>
+        <v>0.05731031979613423</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1405720729527965</v>
+        <v>0.05847131050820854</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -11840,25 +11840,25 @@
         <v>0.01754385964912281</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08771929824561403</v>
+        <v>0.06228070175438596</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1754385964912281</v>
+        <v>0.08533834586466164</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2675478692274358</v>
+        <v>0.1143692564745196</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3524690697106899</v>
+        <v>0.1371489879603915</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4087257227905837</v>
+        <v>0.175841786281759</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4462579291308795</v>
+        <v>0.2132510634510221</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4517139992822671</v>
+        <v>0.2171246018611334</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -11875,28 +11875,28 @@
         <v>387</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09666666666666666</v>
+        <v>0.04666666666666666</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1759047619047619</v>
+        <v>0.0638095238095238</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2289714285714286</v>
+        <v>0.0638095238095238</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2652079877112135</v>
+        <v>0.07911255411255411</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3250699065164611</v>
+        <v>0.08240667175961294</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3562565085555097</v>
+        <v>0.09508482310782418</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3562565085555097</v>
+        <v>0.096818647550888</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -11913,28 +11913,28 @@
         <v>387</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.04117647058823529</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00326797385620915</v>
+        <v>0.06527777777777777</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01184640522875817</v>
+        <v>0.06527777777777777</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03106309388278698</v>
+        <v>0.0705298786181139</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05172976911781226</v>
+        <v>0.07385951235840246</v>
       </c>
       <c r="K6" t="n">
-        <v>0.08081523087284805</v>
+        <v>0.07981598816660247</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0820239335319939</v>
+        <v>0.08160240736979937</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -11954,25 +11954,25 @@
         <v>0.01694915254237288</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04096045197740113</v>
+        <v>0.06440677966101695</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08753026634382567</v>
+        <v>0.1024078557976863</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1354963680387409</v>
+        <v>0.1024078557976863</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1903071326442972</v>
+        <v>0.1203475432288992</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2610090181286815</v>
+        <v>0.1267773105307671</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3218207651276553</v>
+        <v>0.1436421648714877</v>
       </c>
       <c r="L7" t="n">
-        <v>0.323242868680012</v>
+        <v>0.147163125715828</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -11992,25 +11992,25 @@
         <v>0.1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.275</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G8" t="n">
-        <v>0.275</v>
+        <v>0.2041666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.3112556561085973</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3722222222222222</v>
+        <v>0.3482519931049343</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3722222222222222</v>
+        <v>0.3580346018005864</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3757620452310718</v>
+        <v>0.360632004397989</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3788039055049318</v>
+        <v>0.360632004397989</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -12030,25 +12030,25 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0119047619047619</v>
+        <v>0.02321428571428572</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05137471655328798</v>
+        <v>0.03511904761904762</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1057937797891502</v>
+        <v>0.06770863847931517</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1335955815008763</v>
+        <v>0.09980893352840588</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1335955815008763</v>
+        <v>0.1202144439106965</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1685223016627353</v>
+        <v>0.1568282121405682</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1707255719180218</v>
+        <v>0.1600077895623506</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -12068,25 +12068,25 @@
         <v>0.02631578947368421</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.08464912280701754</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1642648287385129</v>
+        <v>0.118640350877193</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2645193756099807</v>
+        <v>0.2169021727010158</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3223104750379709</v>
+        <v>0.2801721430424826</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3223104750379709</v>
+        <v>0.3116376049255469</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3630034554391878</v>
+        <v>0.3549276912584958</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3679789891217828</v>
+        <v>0.3582284793839659</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -12106,25 +12106,25 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06944444444444443</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06944444444444443</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1071937321937322</v>
+        <v>0.03055555555555556</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1306312321937322</v>
+        <v>0.03917624521072797</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1306312321937322</v>
+        <v>0.05389481422192551</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1637489059775009</v>
+        <v>0.07560528136258289</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1637489059775009</v>
+        <v>0.07560528136258289</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -12144,25 +12144,25 @@
         <v>0.0303030303030303</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.07323232323232323</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1022126022126022</v>
+        <v>0.09343434343434343</v>
       </c>
       <c r="H12" t="n">
-        <v>0.153565416065416</v>
+        <v>0.09343434343434343</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1762830134956572</v>
+        <v>0.09343434343434343</v>
       </c>
       <c r="J12" t="n">
-        <v>0.200562375813297</v>
+        <v>0.1037423975588207</v>
       </c>
       <c r="K12" t="n">
-        <v>0.202815817804321</v>
+        <v>0.1157119636161305</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2089360295993258</v>
+        <v>0.1164522656593641</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -12182,25 +12182,25 @@
         <v>0.02222222222222222</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08888888888888889</v>
+        <v>0.07148148148148148</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1351322751322752</v>
+        <v>0.09</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2176522859856193</v>
+        <v>0.1011111111111111</v>
       </c>
       <c r="I13" t="n">
-        <v>0.25965065408552</v>
+        <v>0.1064750957854406</v>
       </c>
       <c r="J13" t="n">
-        <v>0.285453486730458</v>
+        <v>0.1278010155728176</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3117792288863749</v>
+        <v>0.1557938757413931</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3188738657597927</v>
+        <v>0.1567348818941256</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -12217,28 +12217,28 @@
         <v>387</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00909090909090909</v>
+        <v>0.125</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02229033520281727</v>
+        <v>0.1413888888888889</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0274185403310224</v>
+        <v>0.1413888888888889</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03091504382752589</v>
+        <v>0.1431130268199234</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03261538012794975</v>
+        <v>0.1439463601532567</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -12255,28 +12255,28 @@
         <v>387</v>
       </c>
       <c r="E15" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1578947368421053</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.02046783625730994</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1670480549199085</v>
+        <v>0.02046783625730994</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1820551672954419</v>
+        <v>0.03171390013495277</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1874731239517886</v>
+        <v>0.04013539775980118</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1902251019359648</v>
+        <v>0.04544333727826701</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1902251019359648</v>
+        <v>0.04759075960326848</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -12296,25 +12296,25 @@
         <v>0.03448275862068965</v>
       </c>
       <c r="F16" t="n">
-        <v>0.103448275862069</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="G16" t="n">
-        <v>0.103448275862069</v>
+        <v>0.07423371647509579</v>
       </c>
       <c r="H16" t="n">
-        <v>0.12348371268911</v>
+        <v>0.07423371647509579</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1505586082941595</v>
+        <v>0.09808920326161703</v>
       </c>
       <c r="J16" t="n">
-        <v>0.160492555347782</v>
+        <v>0.1076883985910291</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1663161210090758</v>
+        <v>0.1146102431466429</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1676349817652071</v>
+        <v>0.1175316766104976</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -12331,28 +12331,28 @@
         <v>387</v>
       </c>
       <c r="E17" t="n">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1156462585034014</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2269523193892941</v>
+        <v>0.003246753246753247</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2559650686537596</v>
+        <v>0.003246753246753247</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2559650686537596</v>
+        <v>0.004947433518862091</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2745548866783033</v>
+        <v>0.01459291982108481</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2745548866783033</v>
+        <v>0.01560689007795728</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -12372,25 +12372,25 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.06862745098039215</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06862745098039215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08571184995737424</v>
+        <v>0.01988481150974322</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0938817845978971</v>
+        <v>0.02747494433706769</v>
       </c>
       <c r="J18" t="n">
-        <v>0.106537756077398</v>
+        <v>0.02747494433706769</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1116218130333057</v>
+        <v>0.02916103172690884</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1142855693917287</v>
+        <v>0.03014851947173058</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -12407,28 +12407,28 @@
         <v>387</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03225806451612903</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.09677419354838709</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1331285202252944</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2303570519443797</v>
+        <v>0.01676967669302633</v>
       </c>
       <c r="I19" t="n">
-        <v>0.261963065575934</v>
+        <v>0.02197259032466005</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2785808563872733</v>
+        <v>0.02427673779009784</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2991226353392487</v>
+        <v>0.03449176319654887</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3021825032459289</v>
+        <v>0.03644634704195619</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -12448,25 +12448,25 @@
         <v>0.2</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3940073898392514</v>
+        <v>0.3421950563179949</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3940073898392514</v>
+        <v>0.3421950563179949</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -12486,25 +12486,25 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08833333333333333</v>
+        <v>0.09583333333333333</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1355555555555556</v>
+        <v>0.1208333333333333</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1586324786324786</v>
+        <v>0.168560606060606</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1740874106052678</v>
+        <v>0.184678416821274</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1740874106052678</v>
+        <v>0.184678416821274</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1775824979824522</v>
+        <v>0.1883069278451338</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1786281253588781</v>
+        <v>0.1893646201528261</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -12524,25 +12524,25 @@
         <v>0.04</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2973968253968254</v>
+        <v>0.2544444444444444</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3250891330891331</v>
+        <v>0.3135353535353536</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3424020582592011</v>
+        <v>0.3316058544629973</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3424020582592011</v>
+        <v>0.3316058544629973</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3513555640349121</v>
+        <v>0.3410290365039262</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3525722940729349</v>
+        <v>0.3422598057346955</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -12568,19 +12568,19 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01520833333333333</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01520833333333333</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01520833333333333</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01891561646306892</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01891561646306892</v>
+        <v>0.0001518833535844471</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -12597,28 +12597,28 @@
         <v>387</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02380952380952381</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.02380952380952381</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02380952380952381</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.02747252747252747</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02951334379905808</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.03063379197832979</v>
+        <v>0.000350140056022409</v>
       </c>
       <c r="K24" t="n">
-        <v>0.03429001944862081</v>
+        <v>0.000663423264042459</v>
       </c>
       <c r="L24" t="n">
-        <v>0.035661593066475</v>
+        <v>0.00084892981589713</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -12635,28 +12635,28 @@
         <v>387</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02877692307692307</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.03163406593406593</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.03304583063994828</v>
+        <v>0.0002941176470588235</v>
       </c>
       <c r="K25" t="n">
-        <v>0.03907764130399351</v>
+        <v>0.0005572755417956656</v>
       </c>
       <c r="L25" t="n">
-        <v>0.04063627610263082</v>
+        <v>0.0008308996732438897</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -12676,25 +12676,25 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.1047619047619048</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1598639455782313</v>
+        <v>0.1476190476190476</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1598639455782313</v>
+        <v>0.1476190476190476</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1598639455782313</v>
+        <v>0.1606060606060606</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1794776651919509</v>
+        <v>0.1680465367965368</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1817942675085532</v>
+        <v>0.1705095909837289</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1817942675085532</v>
+        <v>0.1705095909837289</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -12714,25 +12714,25 @@
         <v>0.0303030303030303</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09747474747474748</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1227272727272727</v>
+        <v>0.1224747474747475</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1398301193755739</v>
+        <v>0.1541551882460973</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1713668509919697</v>
+        <v>0.1880801094264358</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1983610396223503</v>
+        <v>0.2211961737625958</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2140332851945754</v>
+        <v>0.228965683982756</v>
       </c>
       <c r="L27" t="n">
-        <v>0.2140332851945754</v>
+        <v>0.228965683982756</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -12755,22 +12755,22 @@
         <v>0.125</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1972222222222222</v>
+        <v>0.191875</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2178661616161616</v>
+        <v>0.2301866883116883</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2523090910793135</v>
+        <v>0.2756625831003706</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2943205581874477</v>
+        <v>0.316365259748771</v>
       </c>
       <c r="K28" t="n">
-        <v>0.3127058505674193</v>
+        <v>0.3263756686331588</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3127058505674193</v>
+        <v>0.3263756686331588</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -12790,25 +12790,25 @@
         <v>0.5</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6428571428571428</v>
+        <v>0.75</v>
       </c>
       <c r="H29" t="n">
-        <v>0.6428571428571428</v>
+        <v>0.75</v>
       </c>
       <c r="I29" t="n">
-        <v>0.6428571428571428</v>
+        <v>0.75</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6428571428571428</v>
+        <v>0.75</v>
       </c>
       <c r="K29" t="n">
-        <v>0.6428571428571428</v>
+        <v>0.75</v>
       </c>
       <c r="L29" t="n">
-        <v>0.6428571428571428</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -12828,25 +12828,25 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1697916666666667</v>
+        <v>0.1104166666666667</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3173611111111111</v>
+        <v>0.2821428571428571</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5810413891663891</v>
+        <v>0.5185845955515074</v>
       </c>
       <c r="I30" t="n">
-        <v>0.6257822428249257</v>
+        <v>0.560240250942628</v>
       </c>
       <c r="J30" t="n">
-        <v>0.6257822428249257</v>
+        <v>0.560240250942628</v>
       </c>
       <c r="K30" t="n">
-        <v>0.6257822428249257</v>
+        <v>0.560240250942628</v>
       </c>
       <c r="L30" t="n">
-        <v>0.6275647740192216</v>
+        <v>0.5613452233183186</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -12869,22 +12869,22 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>0.4882716049382717</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7808435391768724</v>
+        <v>0.7403058996196251</v>
       </c>
       <c r="I31" t="n">
-        <v>0.8261009917513982</v>
+        <v>0.7824423807095946</v>
       </c>
       <c r="J31" t="n">
-        <v>0.8261009917513982</v>
+        <v>0.7824423807095946</v>
       </c>
       <c r="K31" t="n">
-        <v>0.8261009917513982</v>
+        <v>0.7824423807095946</v>
       </c>
       <c r="L31" t="n">
-        <v>0.8278835229456941</v>
+        <v>0.7835473530852853</v>
       </c>
     </row>
   </sheetData>

--- a/BM25.xlsx
+++ b/BM25.xlsx
@@ -1560,7 +1560,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>135.1886886567266</v>
+        <v>135.1986175126195</v>
       </c>
       <c r="E2" t="n">
         <v>25</v>
@@ -1577,7 +1577,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>143.7422350749186</v>
+        <v>143.6889976217253</v>
       </c>
       <c r="E3" t="n">
         <v>17</v>
@@ -1594,7 +1594,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>170.6556890959031</v>
+        <v>170.5620420792548</v>
       </c>
       <c r="E4" t="n">
         <v>6</v>
@@ -1611,10 +1611,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>93.9350116399378</v>
+        <v>93.71627008708295</v>
       </c>
       <c r="E5" t="n">
-        <v>905</v>
+        <v>939</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1628,7 +1628,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>172.9932534387448</v>
+        <v>172.6743603701964</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -1645,7 +1645,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>167.1463843613007</v>
+        <v>166.7993159891085</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -1662,10 +1662,10 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>209.936587119922</v>
+        <v>209.6816015117207</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1679,7 +1679,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>161.240165388634</v>
+        <v>161.0175804816921</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>161.240165388634</v>
+        <v>161.0175804816921</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1713,7 +1713,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>151.0157417075735</v>
+        <v>150.8436951265174</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1730,7 +1730,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>170.8820485714271</v>
+        <v>170.9140714133579</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1747,10 +1747,10 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>209.7829531534098</v>
+        <v>209.862079847574</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1764,7 +1764,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>140.6347412628365</v>
+        <v>140.4625101339007</v>
       </c>
       <c r="E14" t="n">
         <v>21</v>
@@ -1781,7 +1781,7 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>145.8545087846336</v>
+        <v>145.8377573092221</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1798,7 +1798,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>322.1941495002917</v>
+        <v>322.1307370517255</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>159.5610269432888</v>
+        <v>159.6364922191243</v>
       </c>
       <c r="E17" t="n">
         <v>11</v>
@@ -1832,10 +1832,10 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>120.177672263195</v>
+        <v>119.8101426281855</v>
       </c>
       <c r="E18" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1849,10 +1849,10 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>120.177672263195</v>
+        <v>119.8101426281855</v>
       </c>
       <c r="E19" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1866,10 +1866,10 @@
         <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>53.31102101855149</v>
+        <v>62.3840455492956</v>
       </c>
       <c r="E20" t="n">
-        <v>1769</v>
+        <v>642</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1883,10 +1883,10 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>42.1565736495662</v>
+        <v>42.18932221113962</v>
       </c>
       <c r="E21" t="n">
-        <v>5500</v>
+        <v>5490</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1900,10 +1900,10 @@
         <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>41.92514672335959</v>
+        <v>49.9552207906609</v>
       </c>
       <c r="E22" t="n">
-        <v>5631</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1917,10 +1917,10 @@
         <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>65.65785119724339</v>
+        <v>65.72379137861883</v>
       </c>
       <c r="E23" t="n">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1934,7 +1934,7 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>82.45298603036666</v>
+        <v>82.48864195716537</v>
       </c>
       <c r="E24" t="n">
         <v>37</v>
@@ -1951,10 +1951,10 @@
         <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>53.0285193076005</v>
+        <v>52.97851178372841</v>
       </c>
       <c r="E25" t="n">
-        <v>1830</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1968,7 +1968,7 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>73.44559469671285</v>
+        <v>73.48250349834532</v>
       </c>
       <c r="E26" t="n">
         <v>155</v>
@@ -1985,10 +1985,10 @@
         <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>38.64059178596271</v>
+        <v>38.66530513577295</v>
       </c>
       <c r="E27" t="n">
-        <v>7791</v>
+        <v>7783</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2002,7 +2002,7 @@
         <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>84.10182579053351</v>
+        <v>84.17570273942174</v>
       </c>
       <c r="E28" t="n">
         <v>27</v>
@@ -2019,10 +2019,10 @@
         <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>68.36413976092119</v>
+        <v>68.38606561344326</v>
       </c>
       <c r="E29" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2036,7 +2036,7 @@
         <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>91.24787880421522</v>
+        <v>91.27443717206221</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -2053,10 +2053,10 @@
         <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>94.35383946739755</v>
+        <v>94.39255146651514</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2070,7 +2070,7 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>87.41000278765136</v>
+        <v>87.49753905173527</v>
       </c>
       <c r="E32" t="n">
         <v>18</v>
@@ -2087,10 +2087,10 @@
         <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>92.13634983679513</v>
+        <v>104.9409305972386</v>
       </c>
       <c r="E33" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2104,10 +2104,10 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>92.94777690014705</v>
+        <v>92.76714338335886</v>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2121,10 +2121,10 @@
         <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>97.79032696008913</v>
+        <v>97.84075064976554</v>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2138,10 +2138,10 @@
         <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>48.8797587963318</v>
+        <v>48.88978019676024</v>
       </c>
       <c r="E36" t="n">
-        <v>2808</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2155,10 +2155,10 @@
         <v>11</v>
       </c>
       <c r="D37" t="n">
-        <v>45.19219161412488</v>
+        <v>56.08920411570863</v>
       </c>
       <c r="E37" t="n">
-        <v>4092</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2172,10 +2172,10 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>79.49761652393494</v>
+        <v>79.55479888133706</v>
       </c>
       <c r="E38" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2189,10 +2189,10 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>73.43188277172874</v>
+        <v>73.41332844990254</v>
       </c>
       <c r="E39" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2206,10 +2206,10 @@
         <v>11</v>
       </c>
       <c r="D40" t="n">
-        <v>65.08304738853833</v>
+        <v>65.10766660904167</v>
       </c>
       <c r="E40" t="n">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2223,10 +2223,10 @@
         <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>70.35630332425163</v>
+        <v>70.4017251784403</v>
       </c>
       <c r="E41" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2240,7 +2240,7 @@
         <v>11</v>
       </c>
       <c r="D42" t="n">
-        <v>88.52592734051619</v>
+        <v>88.52657836846649</v>
       </c>
       <c r="E42" t="n">
         <v>14</v>
@@ -2257,10 +2257,10 @@
         <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>49.67624204177292</v>
+        <v>58.12688732801934</v>
       </c>
       <c r="E43" t="n">
-        <v>2572</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2274,7 +2274,7 @@
         <v>11</v>
       </c>
       <c r="D44" t="n">
-        <v>79.78455332227389</v>
+        <v>79.80537690445112</v>
       </c>
       <c r="E44" t="n">
         <v>59</v>
@@ -2291,10 +2291,10 @@
         <v>11</v>
       </c>
       <c r="D45" t="n">
-        <v>58.71367146683649</v>
+        <v>58.70559780293042</v>
       </c>
       <c r="E45" t="n">
-        <v>975</v>
+        <v>978</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2308,10 +2308,10 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>65.41753440913689</v>
+        <v>65.45325757117349</v>
       </c>
       <c r="E46" t="n">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2325,7 +2325,7 @@
         <v>11</v>
       </c>
       <c r="D47" t="n">
-        <v>73.35910320298339</v>
+        <v>73.37246797481782</v>
       </c>
       <c r="E47" t="n">
         <v>158</v>
@@ -2342,10 +2342,10 @@
         <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>23.51595526900565</v>
+        <v>23.52613660779472</v>
       </c>
       <c r="E48" t="n">
-        <v>44626</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2359,10 +2359,10 @@
         <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>51.77665633877822</v>
+        <v>51.79322918979491</v>
       </c>
       <c r="E49" t="n">
-        <v>2101</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2376,10 +2376,10 @@
         <v>11</v>
       </c>
       <c r="D50" t="n">
-        <v>30.43411712869674</v>
+        <v>30.44262214695637</v>
       </c>
       <c r="E50" t="n">
-        <v>19438</v>
+        <v>19416</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2393,10 +2393,10 @@
         <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>71.54608996822758</v>
+        <v>71.56886905404542</v>
       </c>
       <c r="E51" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2410,10 +2410,10 @@
         <v>11</v>
       </c>
       <c r="D52" t="n">
-        <v>67.87418246670528</v>
+        <v>67.91681287410387</v>
       </c>
       <c r="E52" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2427,10 +2427,10 @@
         <v>11</v>
       </c>
       <c r="D53" t="n">
-        <v>69.198962328435</v>
+        <v>69.1815015487627</v>
       </c>
       <c r="E53" t="n">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2444,10 +2444,10 @@
         <v>11</v>
       </c>
       <c r="D54" t="n">
-        <v>99.49946602626596</v>
+        <v>99.4535777578368</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2461,10 +2461,10 @@
         <v>11</v>
       </c>
       <c r="D55" t="n">
-        <v>59.42988186328672</v>
+        <v>72.78703258227401</v>
       </c>
       <c r="E55" t="n">
-        <v>894</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2478,7 +2478,7 @@
         <v>11</v>
       </c>
       <c r="D56" t="n">
-        <v>73.22816982551424</v>
+        <v>73.27751148208971</v>
       </c>
       <c r="E56" t="n">
         <v>162</v>
@@ -2495,7 +2495,7 @@
         <v>11</v>
       </c>
       <c r="D57" t="n">
-        <v>78.99703278422129</v>
+        <v>79.03500956893023</v>
       </c>
       <c r="E57" t="n">
         <v>67</v>
@@ -2512,7 +2512,7 @@
         <v>11</v>
       </c>
       <c r="D58" t="n">
-        <v>69.63835002105714</v>
+        <v>69.66063217673241</v>
       </c>
       <c r="E58" t="n">
         <v>252</v>
@@ -2529,10 +2529,10 @@
         <v>11</v>
       </c>
       <c r="D59" t="n">
-        <v>48.45338697519431</v>
+        <v>48.47817286978545</v>
       </c>
       <c r="E59" t="n">
-        <v>2937</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2546,7 +2546,7 @@
         <v>11</v>
       </c>
       <c r="D60" t="n">
-        <v>90.65970775773785</v>
+        <v>90.73210640330909</v>
       </c>
       <c r="E60" t="n">
         <v>12</v>
@@ -2563,7 +2563,7 @@
         <v>11</v>
       </c>
       <c r="D61" t="n">
-        <v>62.86771688159936</v>
+        <v>62.91271565697446</v>
       </c>
       <c r="E61" t="n">
         <v>608</v>
@@ -2580,10 +2580,10 @@
         <v>11</v>
       </c>
       <c r="D62" t="n">
-        <v>74.4942266495495</v>
+        <v>74.44344255292113</v>
       </c>
       <c r="E62" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2597,10 +2597,10 @@
         <v>11</v>
       </c>
       <c r="D63" t="n">
-        <v>76.29091594050698</v>
+        <v>76.32698045334475</v>
       </c>
       <c r="E63" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2614,7 +2614,7 @@
         <v>11</v>
       </c>
       <c r="D64" t="n">
-        <v>79.14173075775112</v>
+        <v>79.0484053244937</v>
       </c>
       <c r="E64" t="n">
         <v>66</v>
@@ -2631,7 +2631,7 @@
         <v>11</v>
       </c>
       <c r="D65" t="n">
-        <v>83.34853146095486</v>
+        <v>83.40002081877296</v>
       </c>
       <c r="E65" t="n">
         <v>32</v>
@@ -2648,10 +2648,10 @@
         <v>11</v>
       </c>
       <c r="D66" t="n">
-        <v>79.63204260143746</v>
+        <v>79.37784671015643</v>
       </c>
       <c r="E66" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2665,7 +2665,7 @@
         <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>77.39168674151661</v>
+        <v>77.38790147818717</v>
       </c>
       <c r="E67" t="n">
         <v>82</v>
@@ -2682,10 +2682,10 @@
         <v>11</v>
       </c>
       <c r="D68" t="n">
-        <v>52.95268418599166</v>
+        <v>65.8677296614708</v>
       </c>
       <c r="E68" t="n">
-        <v>1844</v>
+        <v>418</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2699,7 +2699,7 @@
         <v>11</v>
       </c>
       <c r="D69" t="n">
-        <v>80.75913085695791</v>
+        <v>80.75591917465796</v>
       </c>
       <c r="E69" t="n">
         <v>50</v>
@@ -2716,10 +2716,10 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>63.81973983228206</v>
+        <v>63.8494012443155</v>
       </c>
       <c r="E70" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2733,7 +2733,7 @@
         <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>80.16658746871346</v>
+        <v>80.19677313992017</v>
       </c>
       <c r="E71" t="n">
         <v>53</v>
@@ -2750,10 +2750,10 @@
         <v>11</v>
       </c>
       <c r="D72" t="n">
-        <v>70.30075218835992</v>
+        <v>70.22112834659933</v>
       </c>
       <c r="E72" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2767,10 +2767,10 @@
         <v>11</v>
       </c>
       <c r="D73" t="n">
-        <v>79.8759168513221</v>
+        <v>79.92214158373619</v>
       </c>
       <c r="E73" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2784,10 +2784,10 @@
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>32.08736720989226</v>
+        <v>32.09224912050983</v>
       </c>
       <c r="E74" t="n">
-        <v>15940</v>
+        <v>15939</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2801,10 +2801,10 @@
         <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>31.22335795574465</v>
+        <v>48.92643264142209</v>
       </c>
       <c r="E75" t="n">
-        <v>17658</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2818,10 +2818,10 @@
         <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>21.48456074518713</v>
+        <v>35.67620589613271</v>
       </c>
       <c r="E76" t="n">
-        <v>56541</v>
+        <v>10615</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2835,10 +2835,10 @@
         <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>232.9926163685945</v>
+        <v>232.2186111859997</v>
       </c>
       <c r="E77" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2852,10 +2852,10 @@
         <v>11</v>
       </c>
       <c r="D78" t="n">
-        <v>236.5187348566315</v>
+        <v>236.5985577738585</v>
       </c>
       <c r="E78" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2869,10 +2869,10 @@
         <v>11</v>
       </c>
       <c r="D79" t="n">
-        <v>221.2490290723111</v>
+        <v>219.885746941496</v>
       </c>
       <c r="E79" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2886,10 +2886,10 @@
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>188.5236241083817</v>
+        <v>188.0652876907861</v>
       </c>
       <c r="E80" t="n">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2903,10 +2903,10 @@
         <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>217.8911243845241</v>
+        <v>278.796577508415</v>
       </c>
       <c r="E81" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2920,10 +2920,10 @@
         <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>201.3776471390393</v>
+        <v>200.8289154842831</v>
       </c>
       <c r="E82" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2937,7 +2937,7 @@
         <v>11</v>
       </c>
       <c r="D83" t="n">
-        <v>240.1089445674966</v>
+        <v>240.2614044750541</v>
       </c>
       <c r="E83" t="n">
         <v>12</v>
@@ -2954,10 +2954,10 @@
         <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>191.3932638212605</v>
+        <v>190.6869319734735</v>
       </c>
       <c r="E84" t="n">
-        <v>225</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2971,10 +2971,10 @@
         <v>11</v>
       </c>
       <c r="D85" t="n">
-        <v>218.7866638131652</v>
+        <v>218.8889491104375</v>
       </c>
       <c r="E85" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2988,10 +2988,10 @@
         <v>11</v>
       </c>
       <c r="D86" t="n">
-        <v>272.3791839897644</v>
+        <v>272.2402542954196</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3005,10 +3005,10 @@
         <v>11</v>
       </c>
       <c r="D87" t="n">
-        <v>241.9979471334033</v>
+        <v>242.1143753384306</v>
       </c>
       <c r="E87" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3022,10 +3022,10 @@
         <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>138.1391411421813</v>
+        <v>198.3276809669132</v>
       </c>
       <c r="E88" t="n">
-        <v>2131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3039,10 +3039,10 @@
         <v>11</v>
       </c>
       <c r="D89" t="n">
-        <v>258.9671803748074</v>
+        <v>259.065099729524</v>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3056,10 +3056,10 @@
         <v>11</v>
       </c>
       <c r="D90" t="n">
-        <v>206.6625235040227</v>
+        <v>206.7356926388327</v>
       </c>
       <c r="E90" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3073,10 +3073,10 @@
         <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>181.5196448258423</v>
+        <v>181.5773010259416</v>
       </c>
       <c r="E91" t="n">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3090,10 +3090,10 @@
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>110.9958318008096</v>
+        <v>167.6941365209343</v>
       </c>
       <c r="E92" t="n">
-        <v>5041</v>
+        <v>740</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3107,10 +3107,10 @@
         <v>11</v>
       </c>
       <c r="D93" t="n">
-        <v>182.7079346159859</v>
+        <v>182.6817170494155</v>
       </c>
       <c r="E93" t="n">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3124,10 +3124,10 @@
         <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>255.1065541010892</v>
+        <v>277.8835203748777</v>
       </c>
       <c r="E94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3141,10 +3141,10 @@
         <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>176.684502459713</v>
+        <v>176.2856598232471</v>
       </c>
       <c r="E95" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3158,10 +3158,10 @@
         <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>187.6622103981058</v>
+        <v>187.1318138694183</v>
       </c>
       <c r="E96" t="n">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3175,10 +3175,10 @@
         <v>11</v>
       </c>
       <c r="D97" t="n">
-        <v>239.6494300600664</v>
+        <v>238.6284957901218</v>
       </c>
       <c r="E97" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3192,10 +3192,10 @@
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>217.0193379774787</v>
+        <v>214.4912576268609</v>
       </c>
       <c r="E98" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3209,10 +3209,10 @@
         <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>223.2496795302134</v>
+        <v>223.1783835419789</v>
       </c>
       <c r="E99" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3226,10 +3226,10 @@
         <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>204.9941241701604</v>
+        <v>204.8180195123273</v>
       </c>
       <c r="E100" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3243,10 +3243,10 @@
         <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>204.8974685173293</v>
+        <v>204.7216607042732</v>
       </c>
       <c r="E101" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3260,7 +3260,7 @@
         <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>213.2139670489096</v>
+        <v>212.8856744289828</v>
       </c>
       <c r="E102" t="n">
         <v>65</v>
@@ -3277,10 +3277,10 @@
         <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>225.494046612752</v>
+        <v>224.5560993997464</v>
       </c>
       <c r="E103" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3294,10 +3294,10 @@
         <v>6</v>
       </c>
       <c r="D104" t="n">
-        <v>189.7207553825478</v>
+        <v>188.9094209307399</v>
       </c>
       <c r="E104" t="n">
-        <v>258</v>
+        <v>271</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3311,10 +3311,10 @@
         <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>230.1380412292353</v>
+        <v>228.342205372848</v>
       </c>
       <c r="E105" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3328,10 +3328,10 @@
         <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>82.73330044298739</v>
+        <v>82.74038953990882</v>
       </c>
       <c r="E106" t="n">
-        <v>22810</v>
+        <v>22781</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3345,10 +3345,10 @@
         <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>197.8482824638442</v>
+        <v>196.8174251196465</v>
       </c>
       <c r="E107" t="n">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3362,10 +3362,10 @@
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>219.8840128393535</v>
+        <v>218.6045094059002</v>
       </c>
       <c r="E108" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3379,10 +3379,10 @@
         <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>172.4580826506439</v>
+        <v>172.5582740673353</v>
       </c>
       <c r="E109" t="n">
-        <v>601</v>
+        <v>592</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3396,10 +3396,10 @@
         <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>241.9307047850919</v>
+        <v>242.105384213534</v>
       </c>
       <c r="E110" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3413,10 +3413,10 @@
         <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>251.0316249460711</v>
+        <v>249.8164792712269</v>
       </c>
       <c r="E111" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3430,7 +3430,7 @@
         <v>6</v>
       </c>
       <c r="D112" t="n">
-        <v>240.4773550969087</v>
+        <v>240.3768033816448</v>
       </c>
       <c r="E112" t="n">
         <v>11</v>
@@ -3447,10 +3447,10 @@
         <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>197.853117813468</v>
+        <v>197.3791509324347</v>
       </c>
       <c r="E113" t="n">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3464,10 +3464,10 @@
         <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>208.9537730813587</v>
+        <v>208.8285445558264</v>
       </c>
       <c r="E114" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3481,7 +3481,7 @@
         <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>131.4428560218161</v>
+        <v>131.4379830510267</v>
       </c>
       <c r="E115" t="n">
         <v>5</v>
@@ -3498,10 +3498,10 @@
         <v>11</v>
       </c>
       <c r="D116" t="n">
-        <v>103.0341711770624</v>
+        <v>103.0454060767306</v>
       </c>
       <c r="E116" t="n">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3515,7 +3515,7 @@
         <v>11</v>
       </c>
       <c r="D117" t="n">
-        <v>131.9571655744307</v>
+        <v>132.0956225332234</v>
       </c>
       <c r="E117" t="n">
         <v>3</v>
@@ -3532,10 +3532,10 @@
         <v>11</v>
       </c>
       <c r="D118" t="n">
-        <v>94.24073670817681</v>
+        <v>94.20475947817674</v>
       </c>
       <c r="E118" t="n">
-        <v>2691</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3549,7 +3549,7 @@
         <v>11</v>
       </c>
       <c r="D119" t="n">
-        <v>125.1009490482023</v>
+        <v>125.0752190785205</v>
       </c>
       <c r="E119" t="n">
         <v>40</v>
@@ -3566,10 +3566,10 @@
         <v>11</v>
       </c>
       <c r="D120" t="n">
-        <v>118.3106680353945</v>
+        <v>118.3995421493584</v>
       </c>
       <c r="E120" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3583,7 +3583,7 @@
         <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>141.272570542261</v>
+        <v>141.2297076204665</v>
       </c>
       <c r="E121" t="n">
         <v>1</v>
@@ -3600,10 +3600,10 @@
         <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>97.23513306499419</v>
+        <v>97.19743096908611</v>
       </c>
       <c r="E122" t="n">
-        <v>1742</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3617,10 +3617,10 @@
         <v>11</v>
       </c>
       <c r="D123" t="n">
-        <v>92.35398883759513</v>
+        <v>92.41820298248845</v>
       </c>
       <c r="E123" t="n">
-        <v>3487</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3634,10 +3634,10 @@
         <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>127.6159062092758</v>
+        <v>127.544736480357</v>
       </c>
       <c r="E124" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3651,10 +3651,10 @@
         <v>11</v>
       </c>
       <c r="D125" t="n">
-        <v>108.4296728127382</v>
+        <v>108.5103563053691</v>
       </c>
       <c r="E125" t="n">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3668,10 +3668,10 @@
         <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>122.8915079233957</v>
+        <v>122.9683240358311</v>
       </c>
       <c r="E126" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3685,10 +3685,10 @@
         <v>11</v>
       </c>
       <c r="D127" t="n">
-        <v>97.92247409787298</v>
+        <v>98.00287926479947</v>
       </c>
       <c r="E127" t="n">
-        <v>1588</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3702,10 +3702,10 @@
         <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>110.3520475429441</v>
+        <v>110.4423713540347</v>
       </c>
       <c r="E128" t="n">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3719,10 +3719,10 @@
         <v>6</v>
       </c>
       <c r="D129" t="n">
-        <v>109.1323493899981</v>
+        <v>109.2186378324352</v>
       </c>
       <c r="E129" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3736,10 +3736,10 @@
         <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>55.34549582451048</v>
+        <v>55.34238469333735</v>
       </c>
       <c r="E130" t="n">
-        <v>115803</v>
+        <v>115837</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3753,10 +3753,10 @@
         <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>58.44395405212036</v>
+        <v>58.4668577407554</v>
       </c>
       <c r="E131" t="n">
-        <v>98938</v>
+        <v>98858</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3770,7 +3770,7 @@
         <v>11</v>
       </c>
       <c r="D132" t="n">
-        <v>127.1019383988361</v>
+        <v>127.0252181794325</v>
       </c>
       <c r="E132" t="n">
         <v>33</v>
@@ -3787,10 +3787,10 @@
         <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>116.5857756339792</v>
+        <v>116.6026087816074</v>
       </c>
       <c r="E133" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3804,10 +3804,10 @@
         <v>11</v>
       </c>
       <c r="D134" t="n">
-        <v>108.1647955806125</v>
+        <v>108.1501229212906</v>
       </c>
       <c r="E134" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3821,10 +3821,10 @@
         <v>11</v>
       </c>
       <c r="D135" t="n">
-        <v>124.1995071174013</v>
+        <v>124.239088080905</v>
       </c>
       <c r="E135" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3838,10 +3838,10 @@
         <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>86.29472725512618</v>
+        <v>86.32687866131766</v>
       </c>
       <c r="E136" t="n">
-        <v>7765</v>
+        <v>7721</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3855,10 +3855,10 @@
         <v>11</v>
       </c>
       <c r="D137" t="n">
-        <v>104.5458463380128</v>
+        <v>104.4519969422565</v>
       </c>
       <c r="E137" t="n">
-        <v>593</v>
+        <v>600</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3872,10 +3872,10 @@
         <v>11</v>
       </c>
       <c r="D138" t="n">
-        <v>96.23143137156742</v>
+        <v>96.2848465016645</v>
       </c>
       <c r="E138" t="n">
-        <v>2019</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3889,10 +3889,10 @@
         <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>92.95079030984712</v>
+        <v>93.00129048605216</v>
       </c>
       <c r="E139" t="n">
-        <v>3228</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3906,10 +3906,10 @@
         <v>11</v>
       </c>
       <c r="D140" t="n">
-        <v>99.37234590447153</v>
+        <v>99.28456767958642</v>
       </c>
       <c r="E140" t="n">
-        <v>1275</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3923,10 +3923,10 @@
         <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>51.13348585569675</v>
+        <v>51.1613004798235</v>
       </c>
       <c r="E141" t="n">
-        <v>137750</v>
+        <v>137661</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3940,10 +3940,10 @@
         <v>11</v>
       </c>
       <c r="D142" t="n">
-        <v>100.5779970267756</v>
+        <v>100.6582858089078</v>
       </c>
       <c r="E142" t="n">
-        <v>1054</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3957,10 +3957,10 @@
         <v>11</v>
       </c>
       <c r="D143" t="n">
-        <v>116.0591377598749</v>
+        <v>115.7919575009954</v>
       </c>
       <c r="E143" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="D144" t="n">
-        <v>131.0108287390768</v>
+        <v>131.0981794149625</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
@@ -3991,7 +3991,7 @@
         <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>129.1177621509081</v>
+        <v>129.0176236890262</v>
       </c>
       <c r="E145" t="n">
         <v>9</v>
@@ -4008,7 +4008,7 @@
         <v>11</v>
       </c>
       <c r="D146" t="n">
-        <v>134.8534450717716</v>
+        <v>134.9402422311497</v>
       </c>
       <c r="E146" t="n">
         <v>2</v>
@@ -4025,7 +4025,7 @@
         <v>6</v>
       </c>
       <c r="D147" t="n">
-        <v>130.5679714640738</v>
+        <v>130.658306703398</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -4042,10 +4042,10 @@
         <v>6</v>
       </c>
       <c r="D148" t="n">
-        <v>78.82660492232256</v>
+        <v>78.8786331058654</v>
       </c>
       <c r="E148" t="n">
-        <v>18632</v>
+        <v>18529</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4059,10 +4059,10 @@
         <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>78.82660492232256</v>
+        <v>78.8786331058654</v>
       </c>
       <c r="E149" t="n">
-        <v>18631</v>
+        <v>18528</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4076,7 +4076,7 @@
         <v>11</v>
       </c>
       <c r="D150" t="n">
-        <v>107.6195744562897</v>
+        <v>107.5972164737922</v>
       </c>
       <c r="E150" t="n">
         <v>371</v>
@@ -4093,10 +4093,10 @@
         <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>102.104579030875</v>
+        <v>101.7037035359364</v>
       </c>
       <c r="E151" t="n">
-        <v>864</v>
+        <v>911</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4110,10 +4110,10 @@
         <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>97.17595284279889</v>
+        <v>97.24969539935313</v>
       </c>
       <c r="E152" t="n">
-        <v>1754</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4127,10 +4127,10 @@
         <v>6</v>
       </c>
       <c r="D153" t="n">
-        <v>78.88995044676024</v>
+        <v>78.84100186650379</v>
       </c>
       <c r="E153" t="n">
-        <v>18526</v>
+        <v>18611</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4144,10 +4144,10 @@
         <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>94.77981101753679</v>
+        <v>94.77782850303581</v>
       </c>
       <c r="E154" t="n">
-        <v>2496</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4161,10 +4161,10 @@
         <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>82.98556622489605</v>
+        <v>83.05668087974441</v>
       </c>
       <c r="E155" t="n">
-        <v>11626</v>
+        <v>11523</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4178,10 +4178,10 @@
         <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>102.0232037547891</v>
+        <v>102.094809719967</v>
       </c>
       <c r="E156" t="n">
-        <v>869</v>
+        <v>862</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4195,10 +4195,10 @@
         <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>89.82275807474068</v>
+        <v>89.87992988288924</v>
       </c>
       <c r="E157" t="n">
-        <v>4899</v>
+        <v>4833</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4212,10 +4212,10 @@
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>80.22676634838652</v>
+        <v>80.26895018769598</v>
       </c>
       <c r="E158" t="n">
-        <v>15963</v>
+        <v>15868</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4229,10 +4229,10 @@
         <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>86.07836452983267</v>
+        <v>86.07359105620102</v>
       </c>
       <c r="E159" t="n">
-        <v>7989</v>
+        <v>7988</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4246,10 +4246,10 @@
         <v>6</v>
       </c>
       <c r="D160" t="n">
-        <v>104.2069741738686</v>
+        <v>104.2662413275713</v>
       </c>
       <c r="E160" t="n">
-        <v>628</v>
+        <v>617</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4263,10 +4263,10 @@
         <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>45.25423078869809</v>
+        <v>45.27582709162108</v>
       </c>
       <c r="E161" t="n">
-        <v>166013</v>
+        <v>165953</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4280,10 +4280,10 @@
         <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>35.74722752880613</v>
+        <v>35.76121369120904</v>
       </c>
       <c r="E162" t="n">
-        <v>203038</v>
+        <v>203017</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4297,10 +4297,10 @@
         <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>54.96797399833473</v>
+        <v>54.99097750467771</v>
       </c>
       <c r="E163" t="n">
-        <v>117718</v>
+        <v>117639</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4314,10 +4314,10 @@
         <v>11</v>
       </c>
       <c r="D164" t="n">
-        <v>116.3077159936518</v>
+        <v>116.036212640654</v>
       </c>
       <c r="E164" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4331,10 +4331,10 @@
         <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>115.6548030837175</v>
+        <v>115.7425519715892</v>
       </c>
       <c r="E165" t="n">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4348,10 +4348,10 @@
         <v>11</v>
       </c>
       <c r="D166" t="n">
-        <v>99.40865061605137</v>
+        <v>99.47299232760733</v>
       </c>
       <c r="E166" t="n">
-        <v>1268</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4365,10 +4365,10 @@
         <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>87.98912842717426</v>
+        <v>88.04195987498191</v>
       </c>
       <c r="E167" t="n">
-        <v>6262</v>
+        <v>6207</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4382,10 +4382,10 @@
         <v>11</v>
       </c>
       <c r="D168" t="n">
-        <v>114.3920768876239</v>
+        <v>114.4639535568007</v>
       </c>
       <c r="E168" t="n">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4399,10 +4399,10 @@
         <v>11</v>
       </c>
       <c r="D169" t="n">
-        <v>86.14933471733904</v>
+        <v>86.20330115496741</v>
       </c>
       <c r="E169" t="n">
-        <v>7920</v>
+        <v>7851</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4416,10 +4416,10 @@
         <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>74.78210110532369</v>
+        <v>74.70705169557044</v>
       </c>
       <c r="E170" t="n">
-        <v>28414</v>
+        <v>28639</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4433,10 +4433,10 @@
         <v>6</v>
       </c>
       <c r="D171" t="n">
-        <v>101.1787043820739</v>
+        <v>101.2605247656107</v>
       </c>
       <c r="E171" t="n">
-        <v>974</v>
+        <v>964</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4450,10 +4450,10 @@
         <v>11</v>
       </c>
       <c r="D172" t="n">
-        <v>76.38567553183375</v>
+        <v>76.44105556657939</v>
       </c>
       <c r="E172" t="n">
-        <v>24120</v>
+        <v>23953</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4467,10 +4467,10 @@
         <v>11</v>
       </c>
       <c r="D173" t="n">
-        <v>65.37657876534084</v>
+        <v>65.24204277477382</v>
       </c>
       <c r="E173" t="n">
-        <v>63730</v>
+        <v>64360</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4484,7 +4484,7 @@
         <v>6</v>
       </c>
       <c r="D174" t="n">
-        <v>118.1691085744301</v>
+        <v>118.1395559533621</v>
       </c>
       <c r="E174" t="n">
         <v>803</v>
@@ -4501,7 +4501,7 @@
         <v>6</v>
       </c>
       <c r="D175" t="n">
-        <v>149.8007501373704</v>
+        <v>149.8294643096412</v>
       </c>
       <c r="E175" t="n">
         <v>6</v>
@@ -4518,10 +4518,10 @@
         <v>6</v>
       </c>
       <c r="D176" t="n">
-        <v>144.3996078034899</v>
+        <v>144.4800812389108</v>
       </c>
       <c r="E176" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4535,10 +4535,10 @@
         <v>6</v>
       </c>
       <c r="D177" t="n">
-        <v>138.2177225644618</v>
+        <v>138.2770228242618</v>
       </c>
       <c r="E177" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4552,7 +4552,7 @@
         <v>11</v>
       </c>
       <c r="D178" t="n">
-        <v>156.6512596664101</v>
+        <v>156.7123186014059</v>
       </c>
       <c r="E178" t="n">
         <v>1</v>
@@ -4569,10 +4569,10 @@
         <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>31.39196590042399</v>
+        <v>31.40451386558012</v>
       </c>
       <c r="E179" t="n">
-        <v>194672</v>
+        <v>194635</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4586,7 +4586,7 @@
         <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>118.2563849677421</v>
+        <v>118.2674138296735</v>
       </c>
       <c r="E180" t="n">
         <v>796</v>
@@ -4603,7 +4603,7 @@
         <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>141.4143000336829</v>
+        <v>141.2999941456844</v>
       </c>
       <c r="E181" t="n">
         <v>57</v>
@@ -4620,10 +4620,10 @@
         <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>99.45125892375559</v>
+        <v>99.50598146804012</v>
       </c>
       <c r="E182" t="n">
-        <v>3253</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4637,10 +4637,10 @@
         <v>11</v>
       </c>
       <c r="D183" t="n">
-        <v>107.3698988720655</v>
+        <v>107.4057617722844</v>
       </c>
       <c r="E183" t="n">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4654,10 +4654,10 @@
         <v>11</v>
       </c>
       <c r="D184" t="n">
-        <v>107.5289617063289</v>
+        <v>107.5572530997841</v>
       </c>
       <c r="E184" t="n">
-        <v>1848</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4671,10 +4671,10 @@
         <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>95.73583316550594</v>
+        <v>95.80018037398568</v>
       </c>
       <c r="E185" t="n">
-        <v>4177</v>
+        <v>4155</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4688,10 +4688,10 @@
         <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>104.5013200273602</v>
+        <v>104.568516920156</v>
       </c>
       <c r="E186" t="n">
-        <v>2307</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4705,7 +4705,7 @@
         <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>130.8980321729707</v>
+        <v>130.8680812047515</v>
       </c>
       <c r="E187" t="n">
         <v>222</v>
@@ -4722,10 +4722,10 @@
         <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>99.18198595118952</v>
+        <v>99.23831329045888</v>
       </c>
       <c r="E188" t="n">
-        <v>3312</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4739,7 +4739,7 @@
         <v>11</v>
       </c>
       <c r="D189" t="n">
-        <v>142.8978682935717</v>
+        <v>142.8865194162193</v>
       </c>
       <c r="E189" t="n">
         <v>45</v>
@@ -4756,10 +4756,10 @@
         <v>11</v>
       </c>
       <c r="D190" t="n">
-        <v>77.79226394181782</v>
+        <v>77.82973558343743</v>
       </c>
       <c r="E190" t="n">
-        <v>12848</v>
+        <v>12793</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4773,10 +4773,10 @@
         <v>6</v>
       </c>
       <c r="D191" t="n">
-        <v>120.6820211355416</v>
+        <v>120.6072966275725</v>
       </c>
       <c r="E191" t="n">
-        <v>619</v>
+        <v>630</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4790,10 +4790,10 @@
         <v>6</v>
       </c>
       <c r="D192" t="n">
-        <v>58.14504721452674</v>
+        <v>58.15521931551459</v>
       </c>
       <c r="E192" t="n">
-        <v>55782</v>
+        <v>55769</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4807,10 +4807,10 @@
         <v>11</v>
       </c>
       <c r="D193" t="n">
-        <v>109.7696876685714</v>
+        <v>109.8350797643367</v>
       </c>
       <c r="E193" t="n">
-        <v>1543</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4824,10 +4824,10 @@
         <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>80.53104405020103</v>
+        <v>80.54039776824538</v>
       </c>
       <c r="E194" t="n">
-        <v>10697</v>
+        <v>10686</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4841,7 +4841,7 @@
         <v>6</v>
       </c>
       <c r="D195" t="n">
-        <v>148.0983188446919</v>
+        <v>148.1202993139823</v>
       </c>
       <c r="E195" t="n">
         <v>9</v>
@@ -4858,10 +4858,10 @@
         <v>11</v>
       </c>
       <c r="D196" t="n">
-        <v>143.4637385269439</v>
+        <v>143.3669106549289</v>
       </c>
       <c r="E196" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4875,10 +4875,10 @@
         <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>143.4637385269439</v>
+        <v>143.3669106549289</v>
       </c>
       <c r="E197" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4892,10 +4892,10 @@
         <v>11</v>
       </c>
       <c r="D198" t="n">
-        <v>128.2550920486715</v>
+        <v>127.3474715413607</v>
       </c>
       <c r="E198" t="n">
-        <v>290</v>
+        <v>318</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4909,7 +4909,7 @@
         <v>6</v>
       </c>
       <c r="D199" t="n">
-        <v>136.6324900145194</v>
+        <v>136.6306318690813</v>
       </c>
       <c r="E199" t="n">
         <v>108</v>
@@ -4926,7 +4926,7 @@
         <v>11</v>
       </c>
       <c r="D200" t="n">
-        <v>148.5983490491666</v>
+        <v>148.6894805697455</v>
       </c>
       <c r="E200" t="n">
         <v>8</v>
@@ -4943,7 +4943,7 @@
         <v>6</v>
       </c>
       <c r="D201" t="n">
-        <v>93.27506022348304</v>
+        <v>93.28846481346092</v>
       </c>
       <c r="E201" t="n">
         <v>4901</v>
@@ -4960,10 +4960,10 @@
         <v>11</v>
       </c>
       <c r="D202" t="n">
-        <v>119.2106960933479</v>
+        <v>119.2267395987022</v>
       </c>
       <c r="E202" t="n">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4977,10 +4977,10 @@
         <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>76.78978951344585</v>
+        <v>76.83732786146552</v>
       </c>
       <c r="E203" t="n">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4994,7 +4994,7 @@
         <v>11</v>
       </c>
       <c r="D204" t="n">
-        <v>81.6774447946035</v>
+        <v>81.55642928538066</v>
       </c>
       <c r="E204" t="n">
         <v>29</v>
@@ -5011,10 +5011,10 @@
         <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>69.85691776047548</v>
+        <v>69.87183291441123</v>
       </c>
       <c r="E205" t="n">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5028,10 +5028,10 @@
         <v>11</v>
       </c>
       <c r="D206" t="n">
-        <v>77.19384192917352</v>
+        <v>77.24052817671311</v>
       </c>
       <c r="E206" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5045,7 +5045,7 @@
         <v>6</v>
       </c>
       <c r="D207" t="n">
-        <v>90.61299236117642</v>
+        <v>90.66261074395257</v>
       </c>
       <c r="E207" t="n">
         <v>1</v>
@@ -5062,10 +5062,10 @@
         <v>6</v>
       </c>
       <c r="D208" t="n">
-        <v>35.74468722141327</v>
+        <v>35.74528018088897</v>
       </c>
       <c r="E208" t="n">
-        <v>80173</v>
+        <v>80206</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5079,10 +5079,10 @@
         <v>6</v>
       </c>
       <c r="D209" t="n">
-        <v>77.52579031365872</v>
+        <v>77.53499893451583</v>
       </c>
       <c r="E209" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5096,10 +5096,10 @@
         <v>11</v>
       </c>
       <c r="D210" t="n">
-        <v>77.85782243381253</v>
+        <v>77.88824382546615</v>
       </c>
       <c r="E210" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5113,10 +5113,10 @@
         <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>39.59870156764219</v>
+        <v>39.61241407933533</v>
       </c>
       <c r="E211" t="n">
-        <v>55747</v>
+        <v>55719</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5130,10 +5130,10 @@
         <v>11</v>
       </c>
       <c r="D212" t="n">
-        <v>76.94506571686937</v>
+        <v>76.97537885196847</v>
       </c>
       <c r="E212" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5147,10 +5147,10 @@
         <v>6</v>
       </c>
       <c r="D213" t="n">
-        <v>71.31292735931618</v>
+        <v>71.34360337448364</v>
       </c>
       <c r="E213" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5164,10 +5164,10 @@
         <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>62.9319390469552</v>
+        <v>62.95137712652719</v>
       </c>
       <c r="E214" t="n">
-        <v>2610</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5181,7 +5181,7 @@
         <v>11</v>
       </c>
       <c r="D215" t="n">
-        <v>85.48440485901391</v>
+        <v>85.47588908515965</v>
       </c>
       <c r="E215" t="n">
         <v>12</v>
@@ -5198,7 +5198,7 @@
         <v>6</v>
       </c>
       <c r="D216" t="n">
-        <v>88.60130778796429</v>
+        <v>88.63905931211234</v>
       </c>
       <c r="E216" t="n">
         <v>3</v>
@@ -5215,7 +5215,7 @@
         <v>6</v>
       </c>
       <c r="D217" t="n">
-        <v>78.08368862098079</v>
+        <v>78.1019768446057</v>
       </c>
       <c r="E217" t="n">
         <v>88</v>
@@ -5232,7 +5232,7 @@
         <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>78.99063170414898</v>
+        <v>78.98957453876589</v>
       </c>
       <c r="E218" t="n">
         <v>73</v>
@@ -5249,7 +5249,7 @@
         <v>6</v>
       </c>
       <c r="D219" t="n">
-        <v>78.51236830485243</v>
+        <v>78.5220523389518</v>
       </c>
       <c r="E219" t="n">
         <v>81</v>
@@ -5266,10 +5266,10 @@
         <v>6</v>
       </c>
       <c r="D220" t="n">
-        <v>66.14616333047202</v>
+        <v>66.15084921291727</v>
       </c>
       <c r="E220" t="n">
-        <v>1476</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5283,7 +5283,7 @@
         <v>6</v>
       </c>
       <c r="D221" t="n">
-        <v>87.61705944429372</v>
+        <v>87.65598253644774</v>
       </c>
       <c r="E221" t="n">
         <v>6</v>
@@ -5300,10 +5300,10 @@
         <v>6</v>
       </c>
       <c r="D222" t="n">
-        <v>62.48953739814604</v>
+        <v>62.4938667716561</v>
       </c>
       <c r="E222" t="n">
-        <v>2821</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5317,10 +5317,10 @@
         <v>6</v>
       </c>
       <c r="D223" t="n">
-        <v>64.5989321885169</v>
+        <v>64.61846525748555</v>
       </c>
       <c r="E223" t="n">
-        <v>1931</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5334,10 +5334,10 @@
         <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>24.35181649526763</v>
+        <v>24.34687397260358</v>
       </c>
       <c r="E224" t="n">
-        <v>168467</v>
+        <v>168507</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5351,10 +5351,10 @@
         <v>6</v>
       </c>
       <c r="D225" t="n">
-        <v>71.54703100827361</v>
+        <v>71.57705900482794</v>
       </c>
       <c r="E225" t="n">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5368,10 +5368,10 @@
         <v>6</v>
       </c>
       <c r="D226" t="n">
-        <v>58.67825753833822</v>
+        <v>58.70910285985875</v>
       </c>
       <c r="E226" t="n">
-        <v>5426</v>
+        <v>5414</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5385,10 +5385,10 @@
         <v>6</v>
       </c>
       <c r="D227" t="n">
-        <v>63.05713941087322</v>
+        <v>63.07080074436701</v>
       </c>
       <c r="E227" t="n">
-        <v>2540</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5402,10 +5402,10 @@
         <v>6</v>
       </c>
       <c r="D228" t="n">
-        <v>66.06064267554341</v>
+        <v>66.08439587908745</v>
       </c>
       <c r="E228" t="n">
-        <v>1494</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5419,10 +5419,10 @@
         <v>6</v>
       </c>
       <c r="D229" t="n">
-        <v>62.9817691067384</v>
+        <v>63.00139427388932</v>
       </c>
       <c r="E229" t="n">
-        <v>2579</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5436,7 +5436,7 @@
         <v>6</v>
       </c>
       <c r="D230" t="n">
-        <v>88.30312988511011</v>
+        <v>88.32590720542872</v>
       </c>
       <c r="E230" t="n">
         <v>4</v>
@@ -5453,7 +5453,7 @@
         <v>6</v>
       </c>
       <c r="D231" t="n">
-        <v>76.72945596032925</v>
+        <v>76.76863734604686</v>
       </c>
       <c r="E231" t="n">
         <v>142</v>
@@ -5470,7 +5470,7 @@
         <v>11</v>
       </c>
       <c r="D232" t="n">
-        <v>79.33808130447618</v>
+        <v>79.37645431686899</v>
       </c>
       <c r="E232" t="n">
         <v>67</v>
@@ -5487,10 +5487,10 @@
         <v>11</v>
       </c>
       <c r="D233" t="n">
-        <v>73.15257565378414</v>
+        <v>73.17682813768056</v>
       </c>
       <c r="E233" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5504,10 +5504,10 @@
         <v>6</v>
       </c>
       <c r="D234" t="n">
-        <v>79.64111378628758</v>
+        <v>79.65294475363011</v>
       </c>
       <c r="E234" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5521,10 +5521,10 @@
         <v>6</v>
       </c>
       <c r="D235" t="n">
-        <v>77.54085426458698</v>
+        <v>77.58011815318808</v>
       </c>
       <c r="E235" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5538,10 +5538,10 @@
         <v>6</v>
       </c>
       <c r="D236" t="n">
-        <v>37.74182943696255</v>
+        <v>37.76194425999601</v>
       </c>
       <c r="E236" t="n">
-        <v>66601</v>
+        <v>66511</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5555,10 +5555,10 @@
         <v>6</v>
       </c>
       <c r="D237" t="n">
-        <v>28.55972000984561</v>
+        <v>28.57747937901037</v>
       </c>
       <c r="E237" t="n">
-        <v>135002</v>
+        <v>134854</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5572,10 +5572,10 @@
         <v>11</v>
       </c>
       <c r="D238" t="n">
-        <v>76.79672957606685</v>
+        <v>76.82872914160636</v>
       </c>
       <c r="E238" t="n">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5589,7 +5589,7 @@
         <v>11</v>
       </c>
       <c r="D239" t="n">
-        <v>64.03098034746078</v>
+        <v>64.05184426163696</v>
       </c>
       <c r="E239" t="n">
         <v>2140</v>
@@ -5606,7 +5606,7 @@
         <v>6</v>
       </c>
       <c r="D240" t="n">
-        <v>54.51359065436124</v>
+        <v>54.53448303110654</v>
       </c>
       <c r="E240" t="n">
         <v>10000</v>
@@ -5623,7 +5623,7 @@
         <v>11</v>
       </c>
       <c r="D241" t="n">
-        <v>74.20409451694832</v>
+        <v>74.23380558502545</v>
       </c>
       <c r="E241" t="n">
         <v>232</v>
@@ -5640,10 +5640,10 @@
         <v>6</v>
       </c>
       <c r="D242" t="n">
-        <v>28.03837529666417</v>
+        <v>28.04216159443817</v>
       </c>
       <c r="E242" t="n">
-        <v>139289</v>
+        <v>139250</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5657,10 +5657,10 @@
         <v>11</v>
       </c>
       <c r="D243" t="n">
-        <v>77.89586378331607</v>
+        <v>77.84893647763151</v>
       </c>
       <c r="E243" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5674,10 +5674,10 @@
         <v>6</v>
       </c>
       <c r="D244" t="n">
-        <v>31.16608276474516</v>
+        <v>31.17156961329666</v>
       </c>
       <c r="E244" t="n">
-        <v>114394</v>
+        <v>114338</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5691,7 +5691,7 @@
         <v>11</v>
       </c>
       <c r="D245" t="n">
-        <v>87.87184966320751</v>
+        <v>87.8952124128902</v>
       </c>
       <c r="E245" t="n">
         <v>5</v>
@@ -5708,10 +5708,10 @@
         <v>6</v>
       </c>
       <c r="D246" t="n">
-        <v>62.72127879595624</v>
+        <v>62.7500874716535</v>
       </c>
       <c r="E246" t="n">
-        <v>2714</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5725,10 +5725,10 @@
         <v>6</v>
       </c>
       <c r="D247" t="n">
-        <v>58.17981080864045</v>
+        <v>58.21109776512517</v>
       </c>
       <c r="E247" t="n">
-        <v>5905</v>
+        <v>5889</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5742,10 +5742,10 @@
         <v>11</v>
       </c>
       <c r="D248" t="n">
-        <v>45.11011291881562</v>
+        <v>45.11728251943301</v>
       </c>
       <c r="E248" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5759,10 +5759,10 @@
         <v>6</v>
       </c>
       <c r="D249" t="n">
-        <v>34.1044661745719</v>
+        <v>53.88447527889695</v>
       </c>
       <c r="E249" t="n">
-        <v>175</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5776,10 +5776,10 @@
         <v>6</v>
       </c>
       <c r="D250" t="n">
-        <v>19.4395883630058</v>
+        <v>42.86982860513911</v>
       </c>
       <c r="E250" t="n">
-        <v>26019</v>
+        <v>38</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5793,10 +5793,10 @@
         <v>6</v>
       </c>
       <c r="D251" t="n">
-        <v>26.47164502424886</v>
+        <v>55.19367195078521</v>
       </c>
       <c r="E251" t="n">
-        <v>2122</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5810,10 +5810,10 @@
         <v>11</v>
       </c>
       <c r="D252" t="n">
-        <v>44.14053452239479</v>
+        <v>44.15322704640574</v>
       </c>
       <c r="E252" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5827,10 +5827,10 @@
         <v>6</v>
       </c>
       <c r="D253" t="n">
-        <v>22.7934493395982</v>
+        <v>57.30651513166156</v>
       </c>
       <c r="E253" t="n">
-        <v>8503</v>
+        <v>6</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5844,10 +5844,10 @@
         <v>6</v>
       </c>
       <c r="D254" t="n">
-        <v>26.85421926986773</v>
+        <v>45.07225698468878</v>
       </c>
       <c r="E254" t="n">
-        <v>1841</v>
+        <v>26</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5861,10 +5861,10 @@
         <v>6</v>
       </c>
       <c r="D255" t="n">
-        <v>49.06471494718105</v>
+        <v>49.08893238001116</v>
       </c>
       <c r="E255" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5878,10 +5878,10 @@
         <v>11</v>
       </c>
       <c r="D256" t="n">
-        <v>34.73515511577776</v>
+        <v>34.74581075394007</v>
       </c>
       <c r="E256" t="n">
-        <v>145</v>
+        <v>182</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5895,10 +5895,10 @@
         <v>6</v>
       </c>
       <c r="D257" t="n">
-        <v>17.22471751055107</v>
+        <v>52.66332110693557</v>
       </c>
       <c r="E257" t="n">
-        <v>48929</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5912,10 +5912,10 @@
         <v>6</v>
       </c>
       <c r="D258" t="n">
-        <v>44.25391288469774</v>
+        <v>44.25400608059295</v>
       </c>
       <c r="E258" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5929,10 +5929,10 @@
         <v>11</v>
       </c>
       <c r="D259" t="n">
-        <v>32.34508643708717</v>
+        <v>32.33864408504178</v>
       </c>
       <c r="E259" t="n">
-        <v>299</v>
+        <v>337</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5946,10 +5946,10 @@
         <v>6</v>
       </c>
       <c r="D260" t="n">
-        <v>23.20659121033357</v>
+        <v>60.4815918116022</v>
       </c>
       <c r="E260" t="n">
-        <v>7290</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5963,10 +5963,10 @@
         <v>6</v>
       </c>
       <c r="D261" t="n">
-        <v>23.71944663093175</v>
+        <v>58.39875323217033</v>
       </c>
       <c r="E261" t="n">
-        <v>6061</v>
+        <v>4</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5980,10 +5980,10 @@
         <v>6</v>
       </c>
       <c r="D262" t="n">
-        <v>39.08735754374705</v>
+        <v>39.10671378500308</v>
       </c>
       <c r="E262" t="n">
-        <v>49</v>
+        <v>81</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5997,10 +5997,10 @@
         <v>11</v>
       </c>
       <c r="D263" t="n">
-        <v>55.54213899811108</v>
+        <v>55.55256094130563</v>
       </c>
       <c r="E263" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6014,10 +6014,10 @@
         <v>6</v>
       </c>
       <c r="D264" t="n">
-        <v>30.53868479431044</v>
+        <v>67.39482762902036</v>
       </c>
       <c r="E264" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6031,10 +6031,10 @@
         <v>6</v>
       </c>
       <c r="D265" t="n">
-        <v>46.0638877894866</v>
+        <v>46.06309688848089</v>
       </c>
       <c r="E265" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6048,10 +6048,10 @@
         <v>6</v>
       </c>
       <c r="D266" t="n">
-        <v>43.45740276203873</v>
+        <v>43.23718569357258</v>
       </c>
       <c r="E266" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6065,10 +6065,10 @@
         <v>6</v>
       </c>
       <c r="D267" t="n">
-        <v>43.17562208206861</v>
+        <v>43.20692719568264</v>
       </c>
       <c r="E267" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6082,10 +6082,10 @@
         <v>6</v>
       </c>
       <c r="D268" t="n">
-        <v>30.85158784640917</v>
+        <v>65.71204738971004</v>
       </c>
       <c r="E268" t="n">
-        <v>473</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -6099,10 +6099,10 @@
         <v>6</v>
       </c>
       <c r="D269" t="n">
-        <v>18.24142026293211</v>
+        <v>53.10598869315964</v>
       </c>
       <c r="E269" t="n">
-        <v>37330</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -6116,10 +6116,10 @@
         <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>50.89643109370076</v>
+        <v>50.87245004949214</v>
       </c>
       <c r="E270" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -6133,10 +6133,10 @@
         <v>6</v>
       </c>
       <c r="D271" t="n">
-        <v>39.43867672815888</v>
+        <v>39.4619455135017</v>
       </c>
       <c r="E271" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6150,10 +6150,10 @@
         <v>6</v>
       </c>
       <c r="D272" t="n">
-        <v>22.12470361663323</v>
+        <v>55.59199507481018</v>
       </c>
       <c r="E272" t="n">
-        <v>10752</v>
+        <v>8</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -6167,7 +6167,7 @@
         <v>11</v>
       </c>
       <c r="D273" t="n">
-        <v>37.48324490001835</v>
+        <v>37.49877302076514</v>
       </c>
       <c r="E273" t="n">
         <v>22</v>
@@ -6184,10 +6184,10 @@
         <v>11</v>
       </c>
       <c r="D274" t="n">
-        <v>24.67651103617983</v>
+        <v>24.65563602836095</v>
       </c>
       <c r="E274" t="n">
-        <v>1825</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -6201,10 +6201,10 @@
         <v>11</v>
       </c>
       <c r="D275" t="n">
-        <v>17.07113935494069</v>
+        <v>17.07663555549387</v>
       </c>
       <c r="E275" t="n">
-        <v>32939</v>
+        <v>32892</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -6218,7 +6218,7 @@
         <v>6</v>
       </c>
       <c r="D276" t="n">
-        <v>36.95570024101426</v>
+        <v>36.93448767460129</v>
       </c>
       <c r="E276" t="n">
         <v>31</v>
@@ -6235,10 +6235,10 @@
         <v>11</v>
       </c>
       <c r="D277" t="n">
-        <v>20.32395153533662</v>
+        <v>20.32885424411294</v>
       </c>
       <c r="E277" t="n">
-        <v>10219</v>
+        <v>10198</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -6252,10 +6252,10 @@
         <v>11</v>
       </c>
       <c r="D278" t="n">
-        <v>22.71085539767358</v>
+        <v>22.68425058043705</v>
       </c>
       <c r="E278" t="n">
-        <v>3987</v>
+        <v>4021</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -6269,10 +6269,10 @@
         <v>6</v>
       </c>
       <c r="D279" t="n">
-        <v>22.76421648063223</v>
+        <v>22.7230523556463</v>
       </c>
       <c r="E279" t="n">
-        <v>3883</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -6286,10 +6286,10 @@
         <v>6</v>
       </c>
       <c r="D280" t="n">
-        <v>25.69414311470678</v>
+        <v>25.66740659788598</v>
       </c>
       <c r="E280" t="n">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -6303,10 +6303,10 @@
         <v>11</v>
       </c>
       <c r="D281" t="n">
-        <v>34.82865965162159</v>
+        <v>34.84828145980187</v>
       </c>
       <c r="E281" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -6320,10 +6320,10 @@
         <v>6</v>
       </c>
       <c r="D282" t="n">
-        <v>17.16755317265035</v>
+        <v>17.1731791747186</v>
       </c>
       <c r="E282" t="n">
-        <v>31879</v>
+        <v>31837</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -6337,10 +6337,10 @@
         <v>11</v>
       </c>
       <c r="D283" t="n">
-        <v>23.0165662481232</v>
+        <v>23.01640377240486</v>
       </c>
       <c r="E283" t="n">
-        <v>3523</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -6354,10 +6354,10 @@
         <v>11</v>
       </c>
       <c r="D284" t="n">
-        <v>33.21239984302349</v>
+        <v>33.21391197996333</v>
       </c>
       <c r="E284" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -6371,7 +6371,7 @@
         <v>11</v>
       </c>
       <c r="D285" t="n">
-        <v>33.17813376118912</v>
+        <v>33.15303177774733</v>
       </c>
       <c r="E285" t="n">
         <v>143</v>
@@ -6388,7 +6388,7 @@
         <v>6</v>
       </c>
       <c r="D286" t="n">
-        <v>37.85434731567923</v>
+        <v>37.85229541438905</v>
       </c>
       <c r="E286" t="n">
         <v>19</v>
@@ -6405,10 +6405,10 @@
         <v>11</v>
       </c>
       <c r="D287" t="n">
-        <v>29.02765324318416</v>
+        <v>28.98679175927799</v>
       </c>
       <c r="E287" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -6422,7 +6422,7 @@
         <v>6</v>
       </c>
       <c r="D288" t="n">
-        <v>38.25436105964927</v>
+        <v>38.18887929398609</v>
       </c>
       <c r="E288" t="n">
         <v>17</v>
@@ -6439,7 +6439,7 @@
         <v>6</v>
       </c>
       <c r="D289" t="n">
-        <v>38.25436105964927</v>
+        <v>38.18887929398609</v>
       </c>
       <c r="E289" t="n">
         <v>16</v>
@@ -6456,10 +6456,10 @@
         <v>11</v>
       </c>
       <c r="D290" t="n">
-        <v>31.66471318519481</v>
+        <v>31.63098382348987</v>
       </c>
       <c r="E290" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -6473,10 +6473,10 @@
         <v>6</v>
       </c>
       <c r="D291" t="n">
-        <v>19.66307986191922</v>
+        <v>19.60474977948805</v>
       </c>
       <c r="E291" t="n">
-        <v>13122</v>
+        <v>13392</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -6490,10 +6490,10 @@
         <v>6</v>
       </c>
       <c r="D292" t="n">
-        <v>18.58320098148319</v>
+        <v>18.5852824640971</v>
       </c>
       <c r="E292" t="n">
-        <v>19671</v>
+        <v>19638</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -6507,10 +6507,10 @@
         <v>6</v>
       </c>
       <c r="D293" t="n">
-        <v>29.17741312954644</v>
+        <v>29.18910776470846</v>
       </c>
       <c r="E293" t="n">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -6524,10 +6524,10 @@
         <v>6</v>
       </c>
       <c r="D294" t="n">
-        <v>29.52675786080859</v>
+        <v>29.51637173309898</v>
       </c>
       <c r="E294" t="n">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -6541,10 +6541,10 @@
         <v>6</v>
       </c>
       <c r="D295" t="n">
-        <v>16.9899741599746</v>
+        <v>16.97692701420839</v>
       </c>
       <c r="E295" t="n">
-        <v>33829</v>
+        <v>33976</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -6558,10 +6558,10 @@
         <v>11</v>
       </c>
       <c r="D296" t="n">
-        <v>31.34214387026449</v>
+        <v>31.33997826153646</v>
       </c>
       <c r="E296" t="n">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -6575,10 +6575,10 @@
         <v>6</v>
       </c>
       <c r="D297" t="n">
-        <v>17.26496353316252</v>
+        <v>17.27259505988158</v>
       </c>
       <c r="E297" t="n">
-        <v>30879</v>
+        <v>30815</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -6592,10 +6592,10 @@
         <v>11</v>
       </c>
       <c r="D298" t="n">
-        <v>27.69843989697192</v>
+        <v>27.69353622441202</v>
       </c>
       <c r="E298" t="n">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -6609,10 +6609,10 @@
         <v>6</v>
       </c>
       <c r="D299" t="n">
-        <v>24.23802861620666</v>
+        <v>24.2453553409691</v>
       </c>
       <c r="E299" t="n">
-        <v>2144</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -6626,10 +6626,10 @@
         <v>11</v>
       </c>
       <c r="D300" t="n">
-        <v>28.67568898075045</v>
+        <v>28.5740956870509</v>
       </c>
       <c r="E300" t="n">
-        <v>457</v>
+        <v>463</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -6643,10 +6643,10 @@
         <v>6</v>
       </c>
       <c r="D301" t="n">
-        <v>26.71186864951529</v>
+        <v>26.63757588128324</v>
       </c>
       <c r="E301" t="n">
-        <v>894</v>
+        <v>907</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -6660,10 +6660,10 @@
         <v>6</v>
       </c>
       <c r="D302" t="n">
-        <v>26.71186864951529</v>
+        <v>26.63757588128324</v>
       </c>
       <c r="E302" t="n">
-        <v>893</v>
+        <v>906</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -6677,10 +6677,10 @@
         <v>6</v>
       </c>
       <c r="D303" t="n">
-        <v>24.51144800114863</v>
+        <v>24.43097715579102</v>
       </c>
       <c r="E303" t="n">
-        <v>1946</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -6694,10 +6694,10 @@
         <v>6</v>
       </c>
       <c r="D304" t="n">
-        <v>71.13629315057311</v>
+        <v>71.1422859040792</v>
       </c>
       <c r="E304" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -6711,7 +6711,7 @@
         <v>11</v>
       </c>
       <c r="D305" t="n">
-        <v>83.02638030556508</v>
+        <v>82.80940004928175</v>
       </c>
       <c r="E305" t="n">
         <v>3</v>
@@ -6728,7 +6728,7 @@
         <v>6</v>
       </c>
       <c r="D306" t="n">
-        <v>67.72961453837543</v>
+        <v>67.72763743426577</v>
       </c>
       <c r="E306" t="n">
         <v>72</v>
@@ -6745,10 +6745,10 @@
         <v>6</v>
       </c>
       <c r="D307" t="n">
-        <v>61.55795172120571</v>
+        <v>61.55689954903049</v>
       </c>
       <c r="E307" t="n">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -6762,10 +6762,10 @@
         <v>6</v>
       </c>
       <c r="D308" t="n">
-        <v>40.01641535950752</v>
+        <v>40.02980552927659</v>
       </c>
       <c r="E308" t="n">
-        <v>18745</v>
+        <v>18677</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -6779,10 +6779,10 @@
         <v>6</v>
       </c>
       <c r="D309" t="n">
-        <v>37.68237030460138</v>
+        <v>37.62792298201823</v>
       </c>
       <c r="E309" t="n">
-        <v>29547</v>
+        <v>29898</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -6796,7 +6796,7 @@
         <v>6</v>
       </c>
       <c r="D310" t="n">
-        <v>75.20799875946619</v>
+        <v>75.13944497154741</v>
       </c>
       <c r="E310" t="n">
         <v>11</v>
@@ -6813,7 +6813,7 @@
         <v>11</v>
       </c>
       <c r="D311" t="n">
-        <v>58.52963031321976</v>
+        <v>58.52354719716347</v>
       </c>
       <c r="E311" t="n">
         <v>348</v>
@@ -6830,7 +6830,7 @@
         <v>6</v>
       </c>
       <c r="D312" t="n">
-        <v>73.36476780686307</v>
+        <v>73.41686759582763</v>
       </c>
       <c r="E312" t="n">
         <v>14</v>
@@ -6847,7 +6847,7 @@
         <v>6</v>
       </c>
       <c r="D313" t="n">
-        <v>77.44790866536319</v>
+        <v>77.0910830181338</v>
       </c>
       <c r="E313" t="n">
         <v>6</v>
@@ -6864,10 +6864,10 @@
         <v>6</v>
       </c>
       <c r="D314" t="n">
-        <v>13.66297939880449</v>
+        <v>13.66675815610942</v>
       </c>
       <c r="E314" t="n">
-        <v>234671</v>
+        <v>234667</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -6881,10 +6881,10 @@
         <v>6</v>
       </c>
       <c r="D315" t="n">
-        <v>38.75897163061491</v>
+        <v>38.7729281276429</v>
       </c>
       <c r="E315" t="n">
-        <v>24148</v>
+        <v>24056</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -6898,10 +6898,10 @@
         <v>6</v>
       </c>
       <c r="D316" t="n">
-        <v>29.21228122833343</v>
+        <v>29.22490807063387</v>
       </c>
       <c r="E316" t="n">
-        <v>99241</v>
+        <v>99156</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -6915,7 +6915,7 @@
         <v>11</v>
       </c>
       <c r="D317" t="n">
-        <v>80.69387615293272</v>
+        <v>80.73977071703527</v>
       </c>
       <c r="E317" t="n">
         <v>5</v>
@@ -6932,10 +6932,10 @@
         <v>11</v>
       </c>
       <c r="D318" t="n">
-        <v>75.58073559390577</v>
+        <v>75.53528267642433</v>
       </c>
       <c r="E318" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -6949,10 +6949,10 @@
         <v>6</v>
       </c>
       <c r="D319" t="n">
-        <v>49.61968571155813</v>
+        <v>49.64415112599211</v>
       </c>
       <c r="E319" t="n">
-        <v>2179</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -6966,7 +6966,7 @@
         <v>6</v>
       </c>
       <c r="D320" t="n">
-        <v>85.45562055289999</v>
+        <v>85.07354597997853</v>
       </c>
       <c r="E320" t="n">
         <v>1</v>
@@ -6983,10 +6983,10 @@
         <v>6</v>
       </c>
       <c r="D321" t="n">
-        <v>71.20081284830354</v>
+        <v>71.21968024590696</v>
       </c>
       <c r="E321" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -7000,10 +7000,10 @@
         <v>11</v>
       </c>
       <c r="D322" t="n">
-        <v>51.74383853536617</v>
+        <v>51.75837110395155</v>
       </c>
       <c r="E322" t="n">
-        <v>1389</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -7017,10 +7017,10 @@
         <v>11</v>
       </c>
       <c r="D323" t="n">
-        <v>70.08215214172954</v>
+        <v>70.10810997311955</v>
       </c>
       <c r="E323" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -7034,7 +7034,7 @@
         <v>6</v>
       </c>
       <c r="D324" t="n">
-        <v>71.45348200348627</v>
+        <v>71.49819618254359</v>
       </c>
       <c r="E324" t="n">
         <v>29</v>
@@ -7051,7 +7051,7 @@
         <v>6</v>
       </c>
       <c r="D325" t="n">
-        <v>82.06980149658042</v>
+        <v>82.08393721800091</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -7068,10 +7068,10 @@
         <v>11</v>
       </c>
       <c r="D326" t="n">
-        <v>65.92081422564551</v>
+        <v>65.90116494062001</v>
       </c>
       <c r="E326" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -7085,7 +7085,7 @@
         <v>6</v>
       </c>
       <c r="D327" t="n">
-        <v>83.08519293782982</v>
+        <v>83.12382765671835</v>
       </c>
       <c r="E327" t="n">
         <v>2</v>
@@ -7102,10 +7102,10 @@
         <v>6</v>
       </c>
       <c r="D328" t="n">
-        <v>70.51605471074467</v>
+        <v>70.30646313958893</v>
       </c>
       <c r="E328" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -7119,10 +7119,10 @@
         <v>6</v>
       </c>
       <c r="D329" t="n">
-        <v>58.83086924242179</v>
+        <v>58.7592667684723</v>
       </c>
       <c r="E329" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -7136,10 +7136,10 @@
         <v>6</v>
       </c>
       <c r="D330" t="n">
-        <v>33.03115069004023</v>
+        <v>33.04975273646089</v>
       </c>
       <c r="E330" t="n">
-        <v>62501</v>
+        <v>62406</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -7153,10 +7153,10 @@
         <v>6</v>
       </c>
       <c r="D331" t="n">
-        <v>67.56112352777613</v>
+        <v>67.39280668816875</v>
       </c>
       <c r="E331" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -7170,7 +7170,7 @@
         <v>6</v>
       </c>
       <c r="D332" t="n">
-        <v>75.87674744809303</v>
+        <v>75.9042815670595</v>
       </c>
       <c r="E332" t="n">
         <v>8</v>
@@ -7187,10 +7187,10 @@
         <v>6</v>
       </c>
       <c r="D333" t="n">
-        <v>69.12758814084954</v>
+        <v>68.81051188026419</v>
       </c>
       <c r="E333" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -7204,7 +7204,7 @@
         <v>6</v>
       </c>
       <c r="D334" t="n">
-        <v>68.24977883756502</v>
+        <v>68.22861203268127</v>
       </c>
       <c r="E334" t="n">
         <v>65</v>
@@ -7221,10 +7221,10 @@
         <v>6</v>
       </c>
       <c r="D335" t="n">
-        <v>49.19810295914316</v>
+        <v>49.12632418269649</v>
       </c>
       <c r="E335" t="n">
-        <v>2401</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -7238,10 +7238,10 @@
         <v>6</v>
       </c>
       <c r="D336" t="n">
-        <v>69.0580532501438</v>
+        <v>69.00165191222585</v>
       </c>
       <c r="E336" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -7255,10 +7255,10 @@
         <v>6</v>
       </c>
       <c r="D337" t="n">
-        <v>37.22539618081134</v>
+        <v>37.19769807906916</v>
       </c>
       <c r="E337" t="n">
-        <v>32048</v>
+        <v>32181</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -7272,10 +7272,10 @@
         <v>6</v>
       </c>
       <c r="D338" t="n">
-        <v>39.03835333510425</v>
+        <v>39.04811446168625</v>
       </c>
       <c r="E338" t="n">
-        <v>22772</v>
+        <v>22718</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -7289,10 +7289,10 @@
         <v>6</v>
       </c>
       <c r="D339" t="n">
-        <v>45.74786887522988</v>
+        <v>45.69950386887913</v>
       </c>
       <c r="E339" t="n">
-        <v>5308</v>
+        <v>5357</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -7306,10 +7306,10 @@
         <v>6</v>
       </c>
       <c r="D340" t="n">
-        <v>63.09993425738114</v>
+        <v>63.00824864386836</v>
       </c>
       <c r="E340" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -7323,10 +7323,10 @@
         <v>6</v>
       </c>
       <c r="D341" t="n">
-        <v>36.8891806249816</v>
+        <v>36.88266999194407</v>
       </c>
       <c r="E341" t="n">
-        <v>33982</v>
+        <v>34053</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -7340,10 +7340,10 @@
         <v>6</v>
       </c>
       <c r="D342" t="n">
-        <v>41.24006169400118</v>
+        <v>41.18613365101113</v>
       </c>
       <c r="E342" t="n">
-        <v>14529</v>
+        <v>14708</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -7357,10 +7357,10 @@
         <v>6</v>
       </c>
       <c r="D343" t="n">
-        <v>28.31883943320135</v>
+        <v>28.33048030427646</v>
       </c>
       <c r="E343" t="n">
-        <v>108675</v>
+        <v>108595</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -7374,10 +7374,10 @@
         <v>11</v>
       </c>
       <c r="D344" t="n">
-        <v>26.54619097776025</v>
+        <v>26.5584369446289</v>
       </c>
       <c r="E344" t="n">
-        <v>14857</v>
+        <v>14867</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -7391,10 +7391,10 @@
         <v>6</v>
       </c>
       <c r="D345" t="n">
-        <v>30.19829894939318</v>
+        <v>30.1817956072462</v>
       </c>
       <c r="E345" t="n">
-        <v>4238</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -7408,10 +7408,10 @@
         <v>6</v>
       </c>
       <c r="D346" t="n">
-        <v>25.38328192717577</v>
+        <v>25.39886530103596</v>
       </c>
       <c r="E346" t="n">
-        <v>20826</v>
+        <v>20808</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -7425,10 +7425,10 @@
         <v>11</v>
       </c>
       <c r="D347" t="n">
-        <v>33.44918996059266</v>
+        <v>33.44025706520794</v>
       </c>
       <c r="E347" t="n">
-        <v>1174</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -7442,10 +7442,10 @@
         <v>11</v>
       </c>
       <c r="D348" t="n">
-        <v>33.44918996059266</v>
+        <v>33.44025706520794</v>
       </c>
       <c r="E348" t="n">
-        <v>1173</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -7459,10 +7459,10 @@
         <v>6</v>
       </c>
       <c r="D349" t="n">
-        <v>25.42810759363968</v>
+        <v>25.43913597081315</v>
       </c>
       <c r="E349" t="n">
-        <v>20579</v>
+        <v>20578</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -7476,10 +7476,10 @@
         <v>6</v>
       </c>
       <c r="D350" t="n">
-        <v>16.66314890388317</v>
+        <v>16.6732827940516</v>
       </c>
       <c r="E350" t="n">
-        <v>126930</v>
+        <v>126793</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -7493,10 +7493,10 @@
         <v>6</v>
       </c>
       <c r="D351" t="n">
-        <v>30.85680615371766</v>
+        <v>30.86640240774553</v>
       </c>
       <c r="E351" t="n">
-        <v>3279</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -7510,10 +7510,10 @@
         <v>11</v>
       </c>
       <c r="D352" t="n">
-        <v>29.26636989072914</v>
+        <v>53.7619565495952</v>
       </c>
       <c r="E352" t="n">
-        <v>6029</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -7527,10 +7527,10 @@
         <v>6</v>
       </c>
       <c r="D353" t="n">
-        <v>18.17695530125541</v>
+        <v>18.18232084007389</v>
       </c>
       <c r="E353" t="n">
-        <v>101261</v>
+        <v>101219</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -7544,10 +7544,10 @@
         <v>6</v>
       </c>
       <c r="D354" t="n">
-        <v>26.10775698080968</v>
+        <v>51.48006136556984</v>
       </c>
       <c r="E354" t="n">
-        <v>16901</v>
+        <v>5</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -7561,10 +7561,10 @@
         <v>6</v>
       </c>
       <c r="D355" t="n">
-        <v>34.25748813656635</v>
+        <v>48.61418618242783</v>
       </c>
       <c r="E355" t="n">
-        <v>842</v>
+        <v>6</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -7578,10 +7578,10 @@
         <v>6</v>
       </c>
       <c r="D356" t="n">
-        <v>27.03840430455149</v>
+        <v>43.03143714014688</v>
       </c>
       <c r="E356" t="n">
-        <v>12819</v>
+        <v>19</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -7595,10 +7595,10 @@
         <v>6</v>
       </c>
       <c r="D357" t="n">
-        <v>27.47884210724301</v>
+        <v>27.4997755591717</v>
       </c>
       <c r="E357" t="n">
-        <v>11119</v>
+        <v>11108</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -7612,10 +7612,10 @@
         <v>6</v>
       </c>
       <c r="D358" t="n">
-        <v>31.51550740916054</v>
+        <v>31.53962887339191</v>
       </c>
       <c r="E358" t="n">
-        <v>2591</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -7629,10 +7629,10 @@
         <v>6</v>
       </c>
       <c r="D359" t="n">
-        <v>39.25350566867586</v>
+        <v>39.27530053540662</v>
       </c>
       <c r="E359" t="n">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -7646,10 +7646,10 @@
         <v>6</v>
       </c>
       <c r="D360" t="n">
-        <v>25.65380001678737</v>
+        <v>54.52656238976865</v>
       </c>
       <c r="E360" t="n">
-        <v>19213</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -7663,10 +7663,10 @@
         <v>6</v>
       </c>
       <c r="D361" t="n">
-        <v>24.48414739796517</v>
+        <v>24.48779834959312</v>
       </c>
       <c r="E361" t="n">
-        <v>26515</v>
+        <v>26560</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -7680,10 +7680,10 @@
         <v>6</v>
       </c>
       <c r="D362" t="n">
-        <v>37.7798266174699</v>
+        <v>37.79463548704585</v>
       </c>
       <c r="E362" t="n">
-        <v>152</v>
+        <v>180</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -7697,10 +7697,10 @@
         <v>6</v>
       </c>
       <c r="D363" t="n">
-        <v>11.01789496963191</v>
+        <v>41.79955599647113</v>
       </c>
       <c r="E363" t="n">
-        <v>217499</v>
+        <v>29</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -7714,10 +7714,10 @@
         <v>6</v>
       </c>
       <c r="D364" t="n">
-        <v>12.76179313123714</v>
+        <v>12.76555935036538</v>
       </c>
       <c r="E364" t="n">
-        <v>190526</v>
+        <v>190493</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -7731,10 +7731,10 @@
         <v>6</v>
       </c>
       <c r="D365" t="n">
-        <v>9.858267242319018</v>
+        <v>9.859971007305028</v>
       </c>
       <c r="E365" t="n">
-        <v>231828</v>
+        <v>231823</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -7748,10 +7748,10 @@
         <v>6</v>
       </c>
       <c r="D366" t="n">
-        <v>19.69769699776484</v>
+        <v>19.70518236544937</v>
       </c>
       <c r="E366" t="n">
-        <v>77987</v>
+        <v>77914</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -7765,10 +7765,10 @@
         <v>6</v>
       </c>
       <c r="D367" t="n">
-        <v>26.22106722270636</v>
+        <v>26.22436820644506</v>
       </c>
       <c r="E367" t="n">
-        <v>16333</v>
+        <v>16390</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -7782,10 +7782,10 @@
         <v>6</v>
       </c>
       <c r="D368" t="n">
-        <v>19.70188986337794</v>
+        <v>19.70961915963521</v>
       </c>
       <c r="E368" t="n">
-        <v>77904</v>
+        <v>77853</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -7799,10 +7799,10 @@
         <v>6</v>
       </c>
       <c r="D369" t="n">
-        <v>26.61975951568861</v>
+        <v>47.41275784682119</v>
       </c>
       <c r="E369" t="n">
-        <v>14513</v>
+        <v>8</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -7816,10 +7816,10 @@
         <v>6</v>
       </c>
       <c r="D370" t="n">
-        <v>12.53414156945779</v>
+        <v>12.53828191077075</v>
       </c>
       <c r="E370" t="n">
-        <v>194352</v>
+        <v>194288</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -7833,10 +7833,10 @@
         <v>6</v>
       </c>
       <c r="D371" t="n">
-        <v>21.83082154562521</v>
+        <v>21.8413343315549</v>
       </c>
       <c r="E371" t="n">
-        <v>50561</v>
+        <v>50496</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -7850,10 +7850,10 @@
         <v>6</v>
       </c>
       <c r="D372" t="n">
-        <v>26.06682555538383</v>
+        <v>52.23707899644346</v>
       </c>
       <c r="E372" t="n">
-        <v>17086</v>
+        <v>4</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -7867,10 +7867,10 @@
         <v>6</v>
       </c>
       <c r="D373" t="n">
-        <v>20.93847980033311</v>
+        <v>41.73061394158249</v>
       </c>
       <c r="E373" t="n">
-        <v>61060</v>
+        <v>31</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -7884,10 +7884,10 @@
         <v>6</v>
       </c>
       <c r="D374" t="n">
-        <v>24.74037173284404</v>
+        <v>45.9352479654209</v>
       </c>
       <c r="E374" t="n">
-        <v>24794</v>
+        <v>9</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -7901,10 +7901,10 @@
         <v>11</v>
       </c>
       <c r="D375" t="n">
-        <v>19.92575932043265</v>
+        <v>19.93323934998728</v>
       </c>
       <c r="E375" t="n">
-        <v>74601</v>
+        <v>74563</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -7918,10 +7918,10 @@
         <v>6</v>
       </c>
       <c r="D376" t="n">
-        <v>23.80433898070079</v>
+        <v>23.81829055442002</v>
       </c>
       <c r="E376" t="n">
-        <v>31403</v>
+        <v>31367</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -7935,10 +7935,10 @@
         <v>6</v>
       </c>
       <c r="D377" t="n">
-        <v>24.2669102654662</v>
+        <v>24.25734210062227</v>
       </c>
       <c r="E377" t="n">
-        <v>28047</v>
+        <v>28188</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -7952,10 +7952,10 @@
         <v>6</v>
       </c>
       <c r="D378" t="n">
-        <v>31.51652630201296</v>
+        <v>31.53954565467825</v>
       </c>
       <c r="E378" t="n">
-        <v>2589</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -7969,10 +7969,10 @@
         <v>6</v>
       </c>
       <c r="D379" t="n">
-        <v>33.5748778206621</v>
+        <v>33.59252133555092</v>
       </c>
       <c r="E379" t="n">
-        <v>1107</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -7986,10 +7986,10 @@
         <v>11</v>
       </c>
       <c r="D380" t="n">
-        <v>34.30644778743958</v>
+        <v>34.32545941988212</v>
       </c>
       <c r="E380" t="n">
-        <v>823</v>
+        <v>853</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -8003,10 +8003,10 @@
         <v>6</v>
       </c>
       <c r="D381" t="n">
-        <v>18.90747782697407</v>
+        <v>45.23606473860529</v>
       </c>
       <c r="E381" t="n">
-        <v>89732</v>
+        <v>12</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -8020,10 +8020,10 @@
         <v>6</v>
       </c>
       <c r="D382" t="n">
-        <v>14.57570330890344</v>
+        <v>14.57144363527446</v>
       </c>
       <c r="E382" t="n">
-        <v>161907</v>
+        <v>161961</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -8037,10 +8037,10 @@
         <v>6</v>
       </c>
       <c r="D383" t="n">
-        <v>19.19664457502775</v>
+        <v>42.39510003440701</v>
       </c>
       <c r="E383" t="n">
-        <v>85268</v>
+        <v>24</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -8054,10 +8054,10 @@
         <v>6</v>
       </c>
       <c r="D384" t="n">
-        <v>20.21839755332246</v>
+        <v>45.70128486500062</v>
       </c>
       <c r="E384" t="n">
-        <v>70494</v>
+        <v>10</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -8071,10 +8071,10 @@
         <v>6</v>
       </c>
       <c r="D385" t="n">
-        <v>33.9476106148517</v>
+        <v>53.16740170274004</v>
       </c>
       <c r="E385" t="n">
-        <v>946</v>
+        <v>3</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -8088,10 +8088,10 @@
         <v>6</v>
       </c>
       <c r="D386" t="n">
-        <v>15.61486458760313</v>
+        <v>15.62860421709525</v>
       </c>
       <c r="E386" t="n">
-        <v>144789</v>
+        <v>144585</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -8105,10 +8105,10 @@
         <v>11</v>
       </c>
       <c r="D387" t="n">
-        <v>17.85026288334438</v>
+        <v>17.85992786858018</v>
       </c>
       <c r="E387" t="n">
-        <v>106807</v>
+        <v>106698</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -8122,10 +8122,10 @@
         <v>6</v>
       </c>
       <c r="D388" t="n">
-        <v>28.77147040562764</v>
+        <v>28.74647382750129</v>
       </c>
       <c r="E388" t="n">
-        <v>7139</v>
+        <v>7301</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -8139,10 +8139,10 @@
         <v>6</v>
       </c>
       <c r="D389" t="n">
-        <v>26.44864666228535</v>
+        <v>26.41095490883872</v>
       </c>
       <c r="E389" t="n">
-        <v>15305</v>
+        <v>15534</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -8156,10 +8156,10 @@
         <v>6</v>
       </c>
       <c r="D390" t="n">
-        <v>17.89648536005454</v>
+        <v>17.89388287025905</v>
       </c>
       <c r="E390" t="n">
-        <v>106020</v>
+        <v>106134</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -8173,10 +8173,10 @@
         <v>6</v>
       </c>
       <c r="D391" t="n">
-        <v>15.65444627150259</v>
+        <v>15.65410950672855</v>
       </c>
       <c r="E391" t="n">
-        <v>144111</v>
+        <v>144109</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -8190,10 +8190,10 @@
         <v>11</v>
       </c>
       <c r="D392" t="n">
-        <v>28.72704606904627</v>
+        <v>28.74018926401153</v>
       </c>
       <c r="E392" t="n">
-        <v>7285</v>
+        <v>7316</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -8207,10 +8207,10 @@
         <v>6</v>
       </c>
       <c r="D393" t="n">
-        <v>13.88133714161181</v>
+        <v>13.8835562064902</v>
       </c>
       <c r="E393" t="n">
-        <v>173195</v>
+        <v>173156</v>
       </c>
     </row>
   </sheetData>
@@ -8284,7 +8284,7 @@
         <v>387</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0.6</v>
@@ -8302,10 +8302,10 @@
         <v>0.15</v>
       </c>
       <c r="K2" t="n">
-        <v>0.052</v>
+        <v>0.056</v>
       </c>
       <c r="L2" t="n">
-        <v>0.029</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8322,7 +8322,7 @@
         <v>387</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0.2</v>
@@ -8378,10 +8378,10 @@
         <v>0.21</v>
       </c>
       <c r="K4" t="n">
-        <v>0.074</v>
+        <v>0.078</v>
       </c>
       <c r="L4" t="n">
-        <v>0.041</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -8398,7 +8398,7 @@
         <v>387</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0263</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0.0789</v>
@@ -8416,10 +8416,10 @@
         <v>0.3947</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6842</v>
+        <v>0.7368</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7632</v>
+        <v>0.8158</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -8436,7 +8436,7 @@
         <v>387</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.0526</v>
       </c>
       <c r="F6" t="n">
         <v>0.0526</v>
@@ -8492,10 +8492,10 @@
         <v>0.3684</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6491</v>
+        <v>0.6842</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7193000000000001</v>
+        <v>0.7544</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8512,7 +8512,7 @@
         <v>387</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0513</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0.1395</v>
@@ -8530,10 +8530,10 @@
         <v>0.2174</v>
       </c>
       <c r="K8" t="n">
-        <v>0.09669999999999999</v>
+        <v>0.1041</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0559</v>
+        <v>0.0597</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8550,7 +8550,7 @@
         <v>387</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.0999</v>
       </c>
       <c r="F9" t="n">
         <v>0.0833</v>
@@ -8606,10 +8606,10 @@
         <v>0.2675</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1329</v>
+        <v>0.14</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0776</v>
+        <v>0.0814</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8968,7 +8968,7 @@
         <v>387</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0.4</v>
@@ -9006,16 +9006,16 @@
         <v>387</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>0.4</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H21" t="n">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="I21" t="n">
         <v>0.2</v>
@@ -9024,10 +9024,10 @@
         <v>0.13</v>
       </c>
       <c r="K21" t="n">
-        <v>0.046</v>
+        <v>0.048</v>
       </c>
       <c r="L21" t="n">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -9050,10 +9050,10 @@
         <v>0.8</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H22" t="n">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="I22" t="n">
         <v>0.36</v>
@@ -9062,10 +9062,10 @@
         <v>0.22</v>
       </c>
       <c r="K22" t="n">
-        <v>0.066</v>
+        <v>0.068</v>
       </c>
       <c r="L22" t="n">
-        <v>0.035</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -9082,7 +9082,7 @@
         <v>387</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0.2</v>
@@ -9120,16 +9120,16 @@
         <v>387</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.0357</v>
       </c>
       <c r="F24" t="n">
         <v>0.07140000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1071</v>
+        <v>0.1429</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2143</v>
+        <v>0.25</v>
       </c>
       <c r="I24" t="n">
         <v>0.3571</v>
@@ -9138,10 +9138,10 @@
         <v>0.4643</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8214</v>
+        <v>0.8571</v>
       </c>
       <c r="L24" t="n">
-        <v>0.8929</v>
+        <v>0.9643</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -9164,10 +9164,10 @@
         <v>0.1053</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1579</v>
+        <v>0.1842</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3158</v>
+        <v>0.3421</v>
       </c>
       <c r="I25" t="n">
         <v>0.4737</v>
@@ -9176,10 +9176,10 @@
         <v>0.5789</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8683999999999999</v>
+        <v>0.8947000000000001</v>
       </c>
       <c r="L25" t="n">
-        <v>0.9211</v>
+        <v>0.9737</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -9196,7 +9196,7 @@
         <v>387</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1818</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0.2667</v>
@@ -9234,16 +9234,16 @@
         <v>387</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.0689</v>
       </c>
       <c r="F27" t="n">
         <v>0.1212</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1578</v>
+        <v>0.2106</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2264</v>
+        <v>0.2642</v>
       </c>
       <c r="I27" t="n">
         <v>0.2564</v>
@@ -9252,10 +9252,10 @@
         <v>0.2031</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0871</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0486</v>
+        <v>0.0525</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -9278,10 +9278,10 @@
         <v>0.1861</v>
       </c>
       <c r="G28" t="n">
-        <v>0.25</v>
+        <v>0.2917</v>
       </c>
       <c r="H28" t="n">
-        <v>0.381</v>
+        <v>0.4127</v>
       </c>
       <c r="I28" t="n">
         <v>0.4091</v>
@@ -9290,10 +9290,10 @@
         <v>0.3188</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1227</v>
+        <v>0.1264</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0674</v>
+        <v>0.0713</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -9699,7 +9699,7 @@
         <v>0.2</v>
       </c>
       <c r="H39" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I39" t="n">
         <v>0.08</v>
@@ -9737,7 +9737,7 @@
         <v>0.4</v>
       </c>
       <c r="H40" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="I40" t="n">
         <v>0.16</v>
@@ -9813,7 +9813,7 @@
         <v>0.1053</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1053</v>
+        <v>0.1579</v>
       </c>
       <c r="I42" t="n">
         <v>0.2105</v>
@@ -9851,7 +9851,7 @@
         <v>0.1379</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1379</v>
+        <v>0.1724</v>
       </c>
       <c r="I43" t="n">
         <v>0.2759</v>
@@ -9927,7 +9927,7 @@
         <v>0.138</v>
       </c>
       <c r="H45" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.1364</v>
       </c>
       <c r="I45" t="n">
         <v>0.1159</v>
@@ -9965,7 +9965,7 @@
         <v>0.2051</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1481</v>
+        <v>0.1852</v>
       </c>
       <c r="I46" t="n">
         <v>0.2025</v>
@@ -10336,16 +10336,16 @@
         <v>387</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H56" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I56" t="n">
         <v>0.06</v>
@@ -10374,28 +10374,28 @@
         <v>387</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G57" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H57" t="n">
-        <v>0.24</v>
+        <v>0.52</v>
       </c>
       <c r="I57" t="n">
-        <v>0.16</v>
+        <v>0.36</v>
       </c>
       <c r="J57" t="n">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="K57" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L57" t="n">
         <v>0.02</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0.011</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -10418,22 +10418,22 @@
         <v>0.8</v>
       </c>
       <c r="G58" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H58" t="n">
-        <v>0.36</v>
+        <v>0.6</v>
       </c>
       <c r="I58" t="n">
-        <v>0.22</v>
+        <v>0.42</v>
       </c>
       <c r="J58" t="n">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="K58" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="L58" t="n">
-        <v>0.016</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -10450,16 +10450,16 @@
         <v>387</v>
       </c>
       <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
         <v>0.2</v>
       </c>
-      <c r="F59" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0.6</v>
-      </c>
       <c r="H59" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I59" t="n">
         <v>0.6</v>
@@ -10488,28 +10488,28 @@
         <v>387</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F60" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="G60" t="n">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="H60" t="n">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="I60" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="J60" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L60" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -10532,22 +10532,22 @@
         <v>0.16</v>
       </c>
       <c r="G61" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="H61" t="n">
-        <v>0.36</v>
+        <v>0.6</v>
       </c>
       <c r="I61" t="n">
-        <v>0.44</v>
+        <v>0.84</v>
       </c>
       <c r="J61" t="n">
-        <v>0.44</v>
+        <v>0.92</v>
       </c>
       <c r="K61" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="L61" t="n">
-        <v>0.64</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -10564,16 +10564,16 @@
         <v>387</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0.4</v>
+        <v>0.1333</v>
       </c>
       <c r="H62" t="n">
-        <v>0.2</v>
+        <v>0.1333</v>
       </c>
       <c r="I62" t="n">
         <v>0.1091</v>
@@ -10602,28 +10602,28 @@
         <v>387</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>0.09520000000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
       <c r="G63" t="n">
-        <v>0.2667</v>
+        <v>0.4667</v>
       </c>
       <c r="H63" t="n">
-        <v>0.2667</v>
+        <v>0.5778</v>
       </c>
       <c r="I63" t="n">
-        <v>0.2286</v>
+        <v>0.5143</v>
       </c>
       <c r="J63" t="n">
-        <v>0.1333</v>
+        <v>0.3333</v>
       </c>
       <c r="K63" t="n">
-        <v>0.0385</v>
+        <v>0.0769</v>
       </c>
       <c r="L63" t="n">
-        <v>0.0216</v>
+        <v>0.0392</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -10646,22 +10646,22 @@
         <v>0.2667</v>
       </c>
       <c r="G64" t="n">
-        <v>0.4</v>
+        <v>0.4571</v>
       </c>
       <c r="H64" t="n">
-        <v>0.36</v>
+        <v>0.6</v>
       </c>
       <c r="I64" t="n">
-        <v>0.2933</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J64" t="n">
-        <v>0.176</v>
+        <v>0.368</v>
       </c>
       <c r="K64" t="n">
-        <v>0.0571</v>
+        <v>0.09520000000000001</v>
       </c>
       <c r="L64" t="n">
-        <v>0.0312</v>
+        <v>0.0488</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -10681,25 +10681,25 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="L65" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -10716,28 +10716,28 @@
         <v>387</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="J66" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="K66" t="n">
-        <v>0.004</v>
+        <v>0.03</v>
       </c>
       <c r="L66" t="n">
-        <v>0.004</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -10754,28 +10754,28 @@
         <v>387</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="J67" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="K67" t="n">
-        <v>0.004</v>
+        <v>0.032</v>
       </c>
       <c r="L67" t="n">
-        <v>0.005</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -10795,25 +10795,25 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="L68" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -10830,28 +10830,28 @@
         <v>387</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>0.0238</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>0.09520000000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>0.1905</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>0.2619</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>0.3095</v>
       </c>
       <c r="J69" t="n">
-        <v>0.0238</v>
+        <v>0.3333</v>
       </c>
       <c r="K69" t="n">
-        <v>0.0476</v>
+        <v>0.3571</v>
       </c>
       <c r="L69" t="n">
-        <v>0.09520000000000001</v>
+        <v>0.3571</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -10868,28 +10868,28 @@
         <v>387</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="J70" t="n">
-        <v>0.02</v>
+        <v>0.3</v>
       </c>
       <c r="K70" t="n">
-        <v>0.04</v>
+        <v>0.32</v>
       </c>
       <c r="L70" t="n">
-        <v>0.1</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -10909,25 +10909,25 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>0.1111</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>0.0606</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>0.0345</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>0.0185</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>0.0039</v>
       </c>
       <c r="L71" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -10944,28 +10944,28 @@
         <v>387</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>0.0465</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>0.1702</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>0.3077</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>0.3284</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>0.2826</v>
       </c>
       <c r="J72" t="n">
-        <v>0.0141</v>
+        <v>0.1972</v>
       </c>
       <c r="K72" t="n">
-        <v>0.0074</v>
+        <v>0.0554</v>
       </c>
       <c r="L72" t="n">
-        <v>0.0077</v>
+        <v>0.0288</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -10982,28 +10982,28 @@
         <v>387</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>0.0392</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>0.1818</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="J73" t="n">
-        <v>0.0133</v>
+        <v>0.2</v>
       </c>
       <c r="K73" t="n">
-        <v>0.0073</v>
+        <v>0.0582</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0095</v>
+        <v>0.0324</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -11761,28 +11761,28 @@
         <v>387</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02631578947368421</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07236842105263158</v>
+        <v>0.04649122807017544</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08289473684210526</v>
+        <v>0.05701754385964912</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1051378446115288</v>
+        <v>0.07926065162907267</v>
       </c>
       <c r="I2" t="n">
-        <v>0.130203699940542</v>
+        <v>0.1043265069580859</v>
       </c>
       <c r="J2" t="n">
-        <v>0.157722475696465</v>
+        <v>0.1315764831629533</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1850104735103063</v>
+        <v>0.1642564848950591</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1877860365364898</v>
+        <v>0.1675755291555055</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -11799,28 +11799,28 @@
         <v>387</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01052631578947368</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02556390977443609</v>
+        <v>0.06766917293233082</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0343358395989975</v>
+        <v>0.07644110275689223</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0343358395989975</v>
+        <v>0.07644110275689223</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04633623481929244</v>
+        <v>0.08865035344920054</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05731031979613423</v>
+        <v>0.0995949945992919</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05847131050820854</v>
+        <v>0.1007517325981352</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -11840,25 +11840,25 @@
         <v>0.01754385964912281</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06228070175438596</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08533834586466164</v>
+        <v>0.08972431077694235</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1143692564745196</v>
+        <v>0.1187552213868003</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1371489879603915</v>
+        <v>0.1415349528726722</v>
       </c>
       <c r="J4" t="n">
-        <v>0.175841786281759</v>
+        <v>0.1802290304811867</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2132510634510221</v>
+        <v>0.2226719942443046</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2171246018611334</v>
+        <v>0.2270593999407546</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -11887,16 +11887,16 @@
         <v>0.0638095238095238</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07911255411255411</v>
+        <v>0.07923940400684587</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08240667175961294</v>
+        <v>0.0825727373401792</v>
       </c>
       <c r="K5" t="n">
-        <v>0.09508482310782418</v>
+        <v>0.09541969284972676</v>
       </c>
       <c r="L5" t="n">
-        <v>0.096818647550888</v>
+        <v>0.09714667697671089</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -11925,16 +11925,16 @@
         <v>0.06527777777777777</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0705298786181139</v>
+        <v>0.07072440087145969</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07385951235840246</v>
+        <v>0.07418460848391643</v>
       </c>
       <c r="K6" t="n">
-        <v>0.07981598816660247</v>
+        <v>0.08022373246656536</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08160240736979937</v>
+        <v>0.08200438450095217</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -11963,16 +11963,16 @@
         <v>0.1024078557976863</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1203475432288992</v>
+        <v>0.1206254409250073</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1267773105307671</v>
+        <v>0.1272365599488881</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1436421648714877</v>
+        <v>0.1443352212748233</v>
       </c>
       <c r="L7" t="n">
-        <v>0.147163125715828</v>
+        <v>0.1478445623233143</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -11989,28 +11989,28 @@
         <v>387</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.07333333333333333</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2041666666666667</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3112556561085973</v>
+        <v>0.2045833333333333</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3482519931049343</v>
+        <v>0.2398546511627907</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3580346018005864</v>
+        <v>0.2500819238900634</v>
       </c>
       <c r="K8" t="n">
-        <v>0.360632004397989</v>
+        <v>0.2527135028374318</v>
       </c>
       <c r="L8" t="n">
-        <v>0.360632004397989</v>
+        <v>0.2527135028374318</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -12027,28 +12027,28 @@
         <v>387</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02321428571428572</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03511904761904762</v>
+        <v>0.1035714285714286</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06770863847931517</v>
+        <v>0.1413890457368718</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09980893352840588</v>
+        <v>0.1671217589695851</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1202144439106965</v>
+        <v>0.186536915884742</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1568282121405682</v>
+        <v>0.2274479070256124</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1600077895623506</v>
+        <v>0.2320805881006012</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -12068,25 +12068,25 @@
         <v>0.02631578947368421</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08464912280701754</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>0.118640350877193</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2169021727010158</v>
+        <v>0.2599631902549522</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2801721430424826</v>
+        <v>0.3133394411143732</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3116376049255469</v>
+        <v>0.3438168821181301</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3549276912584958</v>
+        <v>0.3916479061908325</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3582284793839659</v>
+        <v>0.3963806520166958</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -12118,13 +12118,13 @@
         <v>0.03917624521072797</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05389481422192551</v>
+        <v>0.05384715159704944</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07560528136258289</v>
+        <v>0.07578646939216475</v>
       </c>
       <c r="L11" t="n">
-        <v>0.07560528136258289</v>
+        <v>0.07578646939216475</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -12156,13 +12156,13 @@
         <v>0.09343434343434343</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1037423975588207</v>
+        <v>0.1037036071974497</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1157119636161305</v>
+        <v>0.1159041498238022</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1164522656593641</v>
+        <v>0.1166432481238762</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -12194,13 +12194,13 @@
         <v>0.1064750957854406</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1278010155728176</v>
+        <v>0.1277224554622282</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1557938757413931</v>
+        <v>0.1561399366195507</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1567348818941256</v>
+        <v>0.157079412680978</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -12229,16 +12229,16 @@
         <v>0.125</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1413888888888889</v>
+        <v>0.1415811965811966</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1413888888888889</v>
+        <v>0.1415811965811966</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1431130268199234</v>
+        <v>0.1431535236252217</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1439463601532567</v>
+        <v>0.1439915124520374</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -12264,19 +12264,19 @@
         <v>0.02046783625730994</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02046783625730994</v>
+        <v>0.02704678362573099</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03171390013495277</v>
+        <v>0.03258694983071714</v>
       </c>
       <c r="J15" t="n">
-        <v>0.04013539775980118</v>
+        <v>0.04110239047912177</v>
       </c>
       <c r="K15" t="n">
-        <v>0.04544333727826701</v>
+        <v>0.0464103299975876</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04759075960326848</v>
+        <v>0.04854439097090615</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -12302,19 +12302,19 @@
         <v>0.07423371647509579</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07423371647509579</v>
+        <v>0.0814176245210728</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09808920326161703</v>
+        <v>0.09918175190407494</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1076883985910291</v>
+        <v>0.1088835286959909</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1146102431466429</v>
+        <v>0.1156692669391136</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1175316766104976</v>
+        <v>0.1185810964431441</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -12346,13 +12346,13 @@
         <v>0.003246753246753247</v>
       </c>
       <c r="J17" t="n">
-        <v>0.004947433518862091</v>
+        <v>0.005010421677088344</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01459291982108481</v>
+        <v>0.01468751098830301</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01560689007795728</v>
+        <v>0.01569829265946204</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -12387,10 +12387,10 @@
         <v>0.02747494433706769</v>
       </c>
       <c r="K18" t="n">
-        <v>0.02916103172690884</v>
+        <v>0.02918325494034503</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03014851947173058</v>
+        <v>0.03015658176240325</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -12422,13 +12422,13 @@
         <v>0.02197259032466005</v>
       </c>
       <c r="J19" t="n">
-        <v>0.02427673779009784</v>
+        <v>0.02436207658511405</v>
       </c>
       <c r="K19" t="n">
-        <v>0.03449176319654887</v>
+        <v>0.03463151747203085</v>
       </c>
       <c r="L19" t="n">
-        <v>0.03644634704195619</v>
+        <v>0.03656661614820941</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -12445,28 +12445,28 @@
         <v>387</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.03822222222222223</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.05822222222222222</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.05822222222222222</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3421950563179949</v>
+        <v>0.06558518566827172</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3421950563179949</v>
+        <v>0.06558518566827172</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -12483,28 +12483,28 @@
         <v>387</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09583333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1208333333333333</v>
+        <v>0.3141666666666666</v>
       </c>
       <c r="H21" t="n">
-        <v>0.168560606060606</v>
+        <v>0.5227039627039627</v>
       </c>
       <c r="I21" t="n">
-        <v>0.184678416821274</v>
+        <v>0.6479120904894898</v>
       </c>
       <c r="J21" t="n">
-        <v>0.184678416821274</v>
+        <v>0.6729244361685022</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1883069278451338</v>
+        <v>0.6729244361685022</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1893646201528261</v>
+        <v>0.6729244361685022</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -12527,22 +12527,22 @@
         <v>0.16</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2544444444444444</v>
+        <v>0.2864444444444444</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3135353535353536</v>
+        <v>0.4938057498057498</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3316058544629973</v>
+        <v>0.6340221958983568</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3316058544629973</v>
+        <v>0.6571135539230483</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3410290365039262</v>
+        <v>0.6653556382482186</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3422598057346955</v>
+        <v>0.6653556382482186</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -12562,25 +12562,25 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0001518833535844471</v>
+        <v>0.06279308323563892</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -12597,28 +12597,28 @@
         <v>387</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.07658730158730159</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.1518518518518518</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.1931530214424951</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.2129898772081607</v>
       </c>
       <c r="J24" t="n">
-        <v>0.000350140056022409</v>
+        <v>0.2166935809118644</v>
       </c>
       <c r="K24" t="n">
-        <v>0.000663423264042459</v>
+        <v>0.2186777078959914</v>
       </c>
       <c r="L24" t="n">
-        <v>0.00084892981589713</v>
+        <v>0.2186777078959914</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -12635,28 +12635,28 @@
         <v>387</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.1732777777777778</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.2115233918128655</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.229521167118761</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0002941176470588235</v>
+        <v>0.2328545004520943</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0005572755417956656</v>
+        <v>0.2346322782298721</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0008308996732438897</v>
+        <v>0.235030871430341</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -12679,22 +12679,22 @@
         <v>0.1047619047619048</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1476190476190476</v>
+        <v>0.1523809523809524</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1476190476190476</v>
+        <v>0.1523809523809524</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1606060606060606</v>
+        <v>0.1659863945578231</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1680465367965368</v>
+        <v>0.1737503697131026</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1705095909837289</v>
+        <v>0.1762134239002947</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1705095909837289</v>
+        <v>0.1762134239002947</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -12723,16 +12723,16 @@
         <v>0.1541551882460973</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1880801094264358</v>
+        <v>0.1890420438428325</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2211961737625958</v>
+        <v>0.22194735402087</v>
       </c>
       <c r="K27" t="n">
-        <v>0.228965683982756</v>
+        <v>0.2297865869674828</v>
       </c>
       <c r="L27" t="n">
-        <v>0.228965683982756</v>
+        <v>0.2297865869674828</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -12755,22 +12755,22 @@
         <v>0.125</v>
       </c>
       <c r="G28" t="n">
-        <v>0.191875</v>
+        <v>0.1940972222222222</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2301866883116883</v>
+        <v>0.2324089105339105</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2756625831003706</v>
+        <v>0.2793205037608542</v>
       </c>
       <c r="J28" t="n">
-        <v>0.316365259748771</v>
+        <v>0.3200375242604834</v>
       </c>
       <c r="K28" t="n">
-        <v>0.3263756686331588</v>
+        <v>0.33012220216869</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3263756686331588</v>
+        <v>0.33012220216869</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -12837,16 +12837,16 @@
         <v>0.5185845955515074</v>
       </c>
       <c r="I30" t="n">
-        <v>0.560240250942628</v>
+        <v>0.5575531431925805</v>
       </c>
       <c r="J30" t="n">
-        <v>0.560240250942628</v>
+        <v>0.5575531431925805</v>
       </c>
       <c r="K30" t="n">
-        <v>0.560240250942628</v>
+        <v>0.5575531431925805</v>
       </c>
       <c r="L30" t="n">
-        <v>0.5613452233183186</v>
+        <v>0.5586181059188852</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -12875,16 +12875,16 @@
         <v>0.7403058996196251</v>
       </c>
       <c r="I31" t="n">
-        <v>0.7824423807095946</v>
+        <v>0.7797241337649639</v>
       </c>
       <c r="J31" t="n">
-        <v>0.7824423807095946</v>
+        <v>0.7797241337649639</v>
       </c>
       <c r="K31" t="n">
-        <v>0.7824423807095946</v>
+        <v>0.7797241337649639</v>
       </c>
       <c r="L31" t="n">
-        <v>0.7835473530852853</v>
+        <v>0.7807890964912684</v>
       </c>
     </row>
   </sheetData>

--- a/BM25.xlsx
+++ b/BM25.xlsx
@@ -1560,7 +1560,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>135.1986175126195</v>
+        <v>135.1886886567266</v>
       </c>
       <c r="E2" t="n">
         <v>25</v>
@@ -1577,7 +1577,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>143.6889976217253</v>
+        <v>143.7422350749186</v>
       </c>
       <c r="E3" t="n">
         <v>17</v>
@@ -1594,7 +1594,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>170.5620420792548</v>
+        <v>170.6556890959031</v>
       </c>
       <c r="E4" t="n">
         <v>6</v>
@@ -1611,10 +1611,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>93.71627008708295</v>
+        <v>93.9350116399378</v>
       </c>
       <c r="E5" t="n">
-        <v>939</v>
+        <v>905</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1628,7 +1628,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>172.6743603701964</v>
+        <v>172.9932534387448</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -1645,7 +1645,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>166.7993159891085</v>
+        <v>167.1463843613007</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -1662,10 +1662,10 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>209.6816015117207</v>
+        <v>209.936587119922</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1679,7 +1679,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>161.0175804816921</v>
+        <v>161.240165388634</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>161.0175804816921</v>
+        <v>161.240165388634</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1713,7 +1713,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>150.8436951265174</v>
+        <v>151.0157417075735</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1730,7 +1730,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>170.9140714133579</v>
+        <v>170.8820485714271</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1747,10 +1747,10 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>209.862079847574</v>
+        <v>209.7829531534098</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1764,7 +1764,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>140.4625101339007</v>
+        <v>140.6347412628365</v>
       </c>
       <c r="E14" t="n">
         <v>21</v>
@@ -1781,7 +1781,7 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>145.8377573092221</v>
+        <v>145.8545087846336</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1798,7 +1798,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>322.1307370517255</v>
+        <v>322.1941495002917</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>159.6364922191243</v>
+        <v>159.5610269432888</v>
       </c>
       <c r="E17" t="n">
         <v>11</v>
@@ -1832,10 +1832,10 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>119.8101426281855</v>
+        <v>120.177672263195</v>
       </c>
       <c r="E18" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1849,10 +1849,10 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>119.8101426281855</v>
+        <v>120.177672263195</v>
       </c>
       <c r="E19" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1866,10 +1866,10 @@
         <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>62.3840455492956</v>
+        <v>53.31102101855149</v>
       </c>
       <c r="E20" t="n">
-        <v>642</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1883,10 +1883,10 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>42.18932221113962</v>
+        <v>42.1565736495662</v>
       </c>
       <c r="E21" t="n">
-        <v>5490</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1900,10 +1900,10 @@
         <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>49.9552207906609</v>
+        <v>41.92514672335959</v>
       </c>
       <c r="E22" t="n">
-        <v>2521</v>
+        <v>5631</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1917,10 +1917,10 @@
         <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>65.72379137861883</v>
+        <v>65.65785119724339</v>
       </c>
       <c r="E23" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1934,7 +1934,7 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>82.48864195716537</v>
+        <v>82.45298603036666</v>
       </c>
       <c r="E24" t="n">
         <v>37</v>
@@ -1951,10 +1951,10 @@
         <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>52.97851178372841</v>
+        <v>53.0285193076005</v>
       </c>
       <c r="E25" t="n">
-        <v>1840</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1968,7 +1968,7 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>73.48250349834532</v>
+        <v>73.44559469671285</v>
       </c>
       <c r="E26" t="n">
         <v>155</v>
@@ -1985,10 +1985,10 @@
         <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>38.66530513577295</v>
+        <v>38.64059178596271</v>
       </c>
       <c r="E27" t="n">
-        <v>7783</v>
+        <v>7791</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2002,7 +2002,7 @@
         <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>84.17570273942174</v>
+        <v>84.10182579053351</v>
       </c>
       <c r="E28" t="n">
         <v>27</v>
@@ -2019,10 +2019,10 @@
         <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>68.38606561344326</v>
+        <v>68.36413976092119</v>
       </c>
       <c r="E29" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2036,7 +2036,7 @@
         <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>91.27443717206221</v>
+        <v>91.24787880421522</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -2053,10 +2053,10 @@
         <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>94.39255146651514</v>
+        <v>94.35383946739755</v>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2070,7 +2070,7 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>87.49753905173527</v>
+        <v>87.41000278765136</v>
       </c>
       <c r="E32" t="n">
         <v>18</v>
@@ -2087,10 +2087,10 @@
         <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>104.9409305972386</v>
+        <v>92.13634983679513</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2104,10 +2104,10 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>92.76714338335886</v>
+        <v>92.94777690014705</v>
       </c>
       <c r="E34" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2121,10 +2121,10 @@
         <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>97.84075064976554</v>
+        <v>97.79032696008913</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2138,10 +2138,10 @@
         <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>48.88978019676024</v>
+        <v>48.8797587963318</v>
       </c>
       <c r="E36" t="n">
-        <v>2806</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2155,10 +2155,10 @@
         <v>11</v>
       </c>
       <c r="D37" t="n">
-        <v>56.08920411570863</v>
+        <v>45.19219161412488</v>
       </c>
       <c r="E37" t="n">
-        <v>1329</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2172,10 +2172,10 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>79.55479888133706</v>
+        <v>79.49761652393494</v>
       </c>
       <c r="E38" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2189,10 +2189,10 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>73.41332844990254</v>
+        <v>73.43188277172874</v>
       </c>
       <c r="E39" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2206,10 +2206,10 @@
         <v>11</v>
       </c>
       <c r="D40" t="n">
-        <v>65.10766660904167</v>
+        <v>65.08304738853833</v>
       </c>
       <c r="E40" t="n">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2223,10 +2223,10 @@
         <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>70.4017251784403</v>
+        <v>70.35630332425163</v>
       </c>
       <c r="E41" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2240,7 +2240,7 @@
         <v>11</v>
       </c>
       <c r="D42" t="n">
-        <v>88.52657836846649</v>
+        <v>88.52592734051619</v>
       </c>
       <c r="E42" t="n">
         <v>14</v>
@@ -2257,10 +2257,10 @@
         <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>58.12688732801934</v>
+        <v>49.67624204177292</v>
       </c>
       <c r="E43" t="n">
-        <v>1037</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2274,7 +2274,7 @@
         <v>11</v>
       </c>
       <c r="D44" t="n">
-        <v>79.80537690445112</v>
+        <v>79.78455332227389</v>
       </c>
       <c r="E44" t="n">
         <v>59</v>
@@ -2291,10 +2291,10 @@
         <v>11</v>
       </c>
       <c r="D45" t="n">
-        <v>58.70559780293042</v>
+        <v>58.71367146683649</v>
       </c>
       <c r="E45" t="n">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2308,10 +2308,10 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>65.45325757117349</v>
+        <v>65.41753440913689</v>
       </c>
       <c r="E46" t="n">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2325,7 +2325,7 @@
         <v>11</v>
       </c>
       <c r="D47" t="n">
-        <v>73.37246797481782</v>
+        <v>73.35910320298339</v>
       </c>
       <c r="E47" t="n">
         <v>158</v>
@@ -2342,10 +2342,10 @@
         <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>23.52613660779472</v>
+        <v>23.51595526900565</v>
       </c>
       <c r="E48" t="n">
-        <v>44590</v>
+        <v>44626</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2359,10 +2359,10 @@
         <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>51.79322918979491</v>
+        <v>51.77665633877822</v>
       </c>
       <c r="E49" t="n">
-        <v>2105</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2376,10 +2376,10 @@
         <v>11</v>
       </c>
       <c r="D50" t="n">
-        <v>30.44262214695637</v>
+        <v>30.43411712869674</v>
       </c>
       <c r="E50" t="n">
-        <v>19416</v>
+        <v>19438</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2393,10 +2393,10 @@
         <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>71.56886905404542</v>
+        <v>71.54608996822758</v>
       </c>
       <c r="E51" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2410,10 +2410,10 @@
         <v>11</v>
       </c>
       <c r="D52" t="n">
-        <v>67.91681287410387</v>
+        <v>67.87418246670528</v>
       </c>
       <c r="E52" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2427,10 +2427,10 @@
         <v>11</v>
       </c>
       <c r="D53" t="n">
-        <v>69.1815015487627</v>
+        <v>69.198962328435</v>
       </c>
       <c r="E53" t="n">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2444,10 +2444,10 @@
         <v>11</v>
       </c>
       <c r="D54" t="n">
-        <v>99.4535777578368</v>
+        <v>99.49946602626596</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2461,10 +2461,10 @@
         <v>11</v>
       </c>
       <c r="D55" t="n">
-        <v>72.78703258227401</v>
+        <v>59.42988186328672</v>
       </c>
       <c r="E55" t="n">
-        <v>168</v>
+        <v>894</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2478,7 +2478,7 @@
         <v>11</v>
       </c>
       <c r="D56" t="n">
-        <v>73.27751148208971</v>
+        <v>73.22816982551424</v>
       </c>
       <c r="E56" t="n">
         <v>162</v>
@@ -2495,7 +2495,7 @@
         <v>11</v>
       </c>
       <c r="D57" t="n">
-        <v>79.03500956893023</v>
+        <v>78.99703278422129</v>
       </c>
       <c r="E57" t="n">
         <v>67</v>
@@ -2512,7 +2512,7 @@
         <v>11</v>
       </c>
       <c r="D58" t="n">
-        <v>69.66063217673241</v>
+        <v>69.63835002105714</v>
       </c>
       <c r="E58" t="n">
         <v>252</v>
@@ -2529,10 +2529,10 @@
         <v>11</v>
       </c>
       <c r="D59" t="n">
-        <v>48.47817286978545</v>
+        <v>48.45338697519431</v>
       </c>
       <c r="E59" t="n">
-        <v>2931</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2546,7 +2546,7 @@
         <v>11</v>
       </c>
       <c r="D60" t="n">
-        <v>90.73210640330909</v>
+        <v>90.65970775773785</v>
       </c>
       <c r="E60" t="n">
         <v>12</v>
@@ -2563,7 +2563,7 @@
         <v>11</v>
       </c>
       <c r="D61" t="n">
-        <v>62.91271565697446</v>
+        <v>62.86771688159936</v>
       </c>
       <c r="E61" t="n">
         <v>608</v>
@@ -2580,10 +2580,10 @@
         <v>11</v>
       </c>
       <c r="D62" t="n">
-        <v>74.44344255292113</v>
+        <v>74.4942266495495</v>
       </c>
       <c r="E62" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2597,10 +2597,10 @@
         <v>11</v>
       </c>
       <c r="D63" t="n">
-        <v>76.32698045334475</v>
+        <v>76.29091594050698</v>
       </c>
       <c r="E63" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2614,7 +2614,7 @@
         <v>11</v>
       </c>
       <c r="D64" t="n">
-        <v>79.0484053244937</v>
+        <v>79.14173075775112</v>
       </c>
       <c r="E64" t="n">
         <v>66</v>
@@ -2631,7 +2631,7 @@
         <v>11</v>
       </c>
       <c r="D65" t="n">
-        <v>83.40002081877296</v>
+        <v>83.34853146095486</v>
       </c>
       <c r="E65" t="n">
         <v>32</v>
@@ -2648,10 +2648,10 @@
         <v>11</v>
       </c>
       <c r="D66" t="n">
-        <v>79.37784671015643</v>
+        <v>79.63204260143746</v>
       </c>
       <c r="E66" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2665,7 +2665,7 @@
         <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>77.38790147818717</v>
+        <v>77.39168674151661</v>
       </c>
       <c r="E67" t="n">
         <v>82</v>
@@ -2682,10 +2682,10 @@
         <v>11</v>
       </c>
       <c r="D68" t="n">
-        <v>65.8677296614708</v>
+        <v>52.95268418599166</v>
       </c>
       <c r="E68" t="n">
-        <v>418</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2699,7 +2699,7 @@
         <v>11</v>
       </c>
       <c r="D69" t="n">
-        <v>80.75591917465796</v>
+        <v>80.75913085695791</v>
       </c>
       <c r="E69" t="n">
         <v>50</v>
@@ -2716,10 +2716,10 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>63.8494012443155</v>
+        <v>63.81973983228206</v>
       </c>
       <c r="E70" t="n">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2733,7 +2733,7 @@
         <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>80.19677313992017</v>
+        <v>80.16658746871346</v>
       </c>
       <c r="E71" t="n">
         <v>53</v>
@@ -2750,10 +2750,10 @@
         <v>11</v>
       </c>
       <c r="D72" t="n">
-        <v>70.22112834659933</v>
+        <v>70.30075218835992</v>
       </c>
       <c r="E72" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2767,10 +2767,10 @@
         <v>11</v>
       </c>
       <c r="D73" t="n">
-        <v>79.92214158373619</v>
+        <v>79.8759168513221</v>
       </c>
       <c r="E73" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2784,10 +2784,10 @@
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>32.09224912050983</v>
+        <v>32.08736720989226</v>
       </c>
       <c r="E74" t="n">
-        <v>15939</v>
+        <v>15940</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2801,10 +2801,10 @@
         <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>48.92643264142209</v>
+        <v>31.22335795574465</v>
       </c>
       <c r="E75" t="n">
-        <v>2795</v>
+        <v>17658</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2818,10 +2818,10 @@
         <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>35.67620589613271</v>
+        <v>21.48456074518713</v>
       </c>
       <c r="E76" t="n">
-        <v>10615</v>
+        <v>56541</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2835,10 +2835,10 @@
         <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>232.2186111859997</v>
+        <v>232.9926163685945</v>
       </c>
       <c r="E77" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2852,10 +2852,10 @@
         <v>11</v>
       </c>
       <c r="D78" t="n">
-        <v>236.5985577738585</v>
+        <v>236.5187348566315</v>
       </c>
       <c r="E78" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2869,10 +2869,10 @@
         <v>11</v>
       </c>
       <c r="D79" t="n">
-        <v>219.885746941496</v>
+        <v>221.2490290723111</v>
       </c>
       <c r="E79" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2886,10 +2886,10 @@
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>188.0652876907861</v>
+        <v>188.5236241083817</v>
       </c>
       <c r="E80" t="n">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2903,10 +2903,10 @@
         <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>278.796577508415</v>
+        <v>217.8911243845241</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2920,10 +2920,10 @@
         <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>200.8289154842831</v>
+        <v>201.3776471390393</v>
       </c>
       <c r="E82" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2937,7 +2937,7 @@
         <v>11</v>
       </c>
       <c r="D83" t="n">
-        <v>240.2614044750541</v>
+        <v>240.1089445674966</v>
       </c>
       <c r="E83" t="n">
         <v>12</v>
@@ -2954,10 +2954,10 @@
         <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>190.6869319734735</v>
+        <v>191.3932638212605</v>
       </c>
       <c r="E84" t="n">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2971,10 +2971,10 @@
         <v>11</v>
       </c>
       <c r="D85" t="n">
-        <v>218.8889491104375</v>
+        <v>218.7866638131652</v>
       </c>
       <c r="E85" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2988,10 +2988,10 @@
         <v>11</v>
       </c>
       <c r="D86" t="n">
-        <v>272.2402542954196</v>
+        <v>272.3791839897644</v>
       </c>
       <c r="E86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3005,10 +3005,10 @@
         <v>11</v>
       </c>
       <c r="D87" t="n">
-        <v>242.1143753384306</v>
+        <v>241.9979471334033</v>
       </c>
       <c r="E87" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3022,10 +3022,10 @@
         <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>198.3276809669132</v>
+        <v>138.1391411421813</v>
       </c>
       <c r="E88" t="n">
-        <v>139</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3039,10 +3039,10 @@
         <v>11</v>
       </c>
       <c r="D89" t="n">
-        <v>259.065099729524</v>
+        <v>258.9671803748074</v>
       </c>
       <c r="E89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3056,10 +3056,10 @@
         <v>11</v>
       </c>
       <c r="D90" t="n">
-        <v>206.7356926388327</v>
+        <v>206.6625235040227</v>
       </c>
       <c r="E90" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3073,10 +3073,10 @@
         <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>181.5773010259416</v>
+        <v>181.5196448258423</v>
       </c>
       <c r="E91" t="n">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3090,10 +3090,10 @@
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>167.6941365209343</v>
+        <v>110.9958318008096</v>
       </c>
       <c r="E92" t="n">
-        <v>740</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3107,10 +3107,10 @@
         <v>11</v>
       </c>
       <c r="D93" t="n">
-        <v>182.6817170494155</v>
+        <v>182.7079346159859</v>
       </c>
       <c r="E93" t="n">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3124,10 +3124,10 @@
         <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>277.8835203748777</v>
+        <v>255.1065541010892</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3141,10 +3141,10 @@
         <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>176.2856598232471</v>
+        <v>176.684502459713</v>
       </c>
       <c r="E95" t="n">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3158,10 +3158,10 @@
         <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>187.1318138694183</v>
+        <v>187.6622103981058</v>
       </c>
       <c r="E96" t="n">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3175,10 +3175,10 @@
         <v>11</v>
       </c>
       <c r="D97" t="n">
-        <v>238.6284957901218</v>
+        <v>239.6494300600664</v>
       </c>
       <c r="E97" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3192,10 +3192,10 @@
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>214.4912576268609</v>
+        <v>217.0193379774787</v>
       </c>
       <c r="E98" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3209,10 +3209,10 @@
         <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>223.1783835419789</v>
+        <v>223.2496795302134</v>
       </c>
       <c r="E99" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3226,10 +3226,10 @@
         <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>204.8180195123273</v>
+        <v>204.9941241701604</v>
       </c>
       <c r="E100" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3243,10 +3243,10 @@
         <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>204.7216607042732</v>
+        <v>204.8974685173293</v>
       </c>
       <c r="E101" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3260,7 +3260,7 @@
         <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>212.8856744289828</v>
+        <v>213.2139670489096</v>
       </c>
       <c r="E102" t="n">
         <v>65</v>
@@ -3277,10 +3277,10 @@
         <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>224.5560993997464</v>
+        <v>225.494046612752</v>
       </c>
       <c r="E103" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3294,10 +3294,10 @@
         <v>6</v>
       </c>
       <c r="D104" t="n">
-        <v>188.9094209307399</v>
+        <v>189.7207553825478</v>
       </c>
       <c r="E104" t="n">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3311,10 +3311,10 @@
         <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>228.342205372848</v>
+        <v>230.1380412292353</v>
       </c>
       <c r="E105" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3328,10 +3328,10 @@
         <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>82.74038953990882</v>
+        <v>82.73330044298739</v>
       </c>
       <c r="E106" t="n">
-        <v>22781</v>
+        <v>22810</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3345,10 +3345,10 @@
         <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>196.8174251196465</v>
+        <v>197.8482824638442</v>
       </c>
       <c r="E107" t="n">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3362,10 +3362,10 @@
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>218.6045094059002</v>
+        <v>219.8840128393535</v>
       </c>
       <c r="E108" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3379,10 +3379,10 @@
         <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>172.5582740673353</v>
+        <v>172.4580826506439</v>
       </c>
       <c r="E109" t="n">
-        <v>592</v>
+        <v>601</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3396,10 +3396,10 @@
         <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>242.105384213534</v>
+        <v>241.9307047850919</v>
       </c>
       <c r="E110" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3413,10 +3413,10 @@
         <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>249.8164792712269</v>
+        <v>251.0316249460711</v>
       </c>
       <c r="E111" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3430,7 +3430,7 @@
         <v>6</v>
       </c>
       <c r="D112" t="n">
-        <v>240.3768033816448</v>
+        <v>240.4773550969087</v>
       </c>
       <c r="E112" t="n">
         <v>11</v>
@@ -3447,10 +3447,10 @@
         <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>197.3791509324347</v>
+        <v>197.853117813468</v>
       </c>
       <c r="E113" t="n">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3464,10 +3464,10 @@
         <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>208.8285445558264</v>
+        <v>208.9537730813587</v>
       </c>
       <c r="E114" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3481,7 +3481,7 @@
         <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>131.4379830510267</v>
+        <v>131.4428560218161</v>
       </c>
       <c r="E115" t="n">
         <v>5</v>
@@ -3498,10 +3498,10 @@
         <v>11</v>
       </c>
       <c r="D116" t="n">
-        <v>103.0454060767306</v>
+        <v>103.0341711770624</v>
       </c>
       <c r="E116" t="n">
-        <v>756</v>
+        <v>760</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3515,7 +3515,7 @@
         <v>11</v>
       </c>
       <c r="D117" t="n">
-        <v>132.0956225332234</v>
+        <v>131.9571655744307</v>
       </c>
       <c r="E117" t="n">
         <v>3</v>
@@ -3532,10 +3532,10 @@
         <v>11</v>
       </c>
       <c r="D118" t="n">
-        <v>94.20475947817674</v>
+        <v>94.24073670817681</v>
       </c>
       <c r="E118" t="n">
-        <v>2704</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3549,7 +3549,7 @@
         <v>11</v>
       </c>
       <c r="D119" t="n">
-        <v>125.0752190785205</v>
+        <v>125.1009490482023</v>
       </c>
       <c r="E119" t="n">
         <v>40</v>
@@ -3566,10 +3566,10 @@
         <v>11</v>
       </c>
       <c r="D120" t="n">
-        <v>118.3995421493584</v>
+        <v>118.3106680353945</v>
       </c>
       <c r="E120" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3583,7 +3583,7 @@
         <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>141.2297076204665</v>
+        <v>141.272570542261</v>
       </c>
       <c r="E121" t="n">
         <v>1</v>
@@ -3600,10 +3600,10 @@
         <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>97.19743096908611</v>
+        <v>97.23513306499419</v>
       </c>
       <c r="E122" t="n">
-        <v>1744</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3617,10 +3617,10 @@
         <v>11</v>
       </c>
       <c r="D123" t="n">
-        <v>92.41820298248845</v>
+        <v>92.35398883759513</v>
       </c>
       <c r="E123" t="n">
-        <v>3449</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3634,10 +3634,10 @@
         <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>127.544736480357</v>
+        <v>127.6159062092758</v>
       </c>
       <c r="E124" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3651,10 +3651,10 @@
         <v>11</v>
       </c>
       <c r="D125" t="n">
-        <v>108.5103563053691</v>
+        <v>108.4296728127382</v>
       </c>
       <c r="E125" t="n">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3668,10 +3668,10 @@
         <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>122.9683240358311</v>
+        <v>122.8915079233957</v>
       </c>
       <c r="E126" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3685,10 +3685,10 @@
         <v>11</v>
       </c>
       <c r="D127" t="n">
-        <v>98.00287926479947</v>
+        <v>97.92247409787298</v>
       </c>
       <c r="E127" t="n">
-        <v>1562</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3702,10 +3702,10 @@
         <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>110.4423713540347</v>
+        <v>110.3520475429441</v>
       </c>
       <c r="E128" t="n">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3719,10 +3719,10 @@
         <v>6</v>
       </c>
       <c r="D129" t="n">
-        <v>109.2186378324352</v>
+        <v>109.1323493899981</v>
       </c>
       <c r="E129" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3736,10 +3736,10 @@
         <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>55.34238469333735</v>
+        <v>55.34549582451048</v>
       </c>
       <c r="E130" t="n">
-        <v>115837</v>
+        <v>115803</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3753,10 +3753,10 @@
         <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>58.4668577407554</v>
+        <v>58.44395405212036</v>
       </c>
       <c r="E131" t="n">
-        <v>98858</v>
+        <v>98938</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3770,7 +3770,7 @@
         <v>11</v>
       </c>
       <c r="D132" t="n">
-        <v>127.0252181794325</v>
+        <v>127.1019383988361</v>
       </c>
       <c r="E132" t="n">
         <v>33</v>
@@ -3787,10 +3787,10 @@
         <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>116.6026087816074</v>
+        <v>116.5857756339792</v>
       </c>
       <c r="E133" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3804,10 +3804,10 @@
         <v>11</v>
       </c>
       <c r="D134" t="n">
-        <v>108.1501229212906</v>
+        <v>108.1647955806125</v>
       </c>
       <c r="E134" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3821,10 +3821,10 @@
         <v>11</v>
       </c>
       <c r="D135" t="n">
-        <v>124.239088080905</v>
+        <v>124.1995071174013</v>
       </c>
       <c r="E135" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3838,10 +3838,10 @@
         <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>86.32687866131766</v>
+        <v>86.29472725512618</v>
       </c>
       <c r="E136" t="n">
-        <v>7721</v>
+        <v>7765</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3855,10 +3855,10 @@
         <v>11</v>
       </c>
       <c r="D137" t="n">
-        <v>104.4519969422565</v>
+        <v>104.5458463380128</v>
       </c>
       <c r="E137" t="n">
-        <v>600</v>
+        <v>593</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3872,10 +3872,10 @@
         <v>11</v>
       </c>
       <c r="D138" t="n">
-        <v>96.2848465016645</v>
+        <v>96.23143137156742</v>
       </c>
       <c r="E138" t="n">
-        <v>1995</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3889,10 +3889,10 @@
         <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>93.00129048605216</v>
+        <v>92.95079030984712</v>
       </c>
       <c r="E139" t="n">
-        <v>3200</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3906,10 +3906,10 @@
         <v>11</v>
       </c>
       <c r="D140" t="n">
-        <v>99.28456767958642</v>
+        <v>99.37234590447153</v>
       </c>
       <c r="E140" t="n">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3923,10 +3923,10 @@
         <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>51.1613004798235</v>
+        <v>51.13348585569675</v>
       </c>
       <c r="E141" t="n">
-        <v>137661</v>
+        <v>137750</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3940,10 +3940,10 @@
         <v>11</v>
       </c>
       <c r="D142" t="n">
-        <v>100.6582858089078</v>
+        <v>100.5779970267756</v>
       </c>
       <c r="E142" t="n">
-        <v>1045</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3957,10 +3957,10 @@
         <v>11</v>
       </c>
       <c r="D143" t="n">
-        <v>115.7919575009954</v>
+        <v>116.0591377598749</v>
       </c>
       <c r="E143" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="D144" t="n">
-        <v>131.0981794149625</v>
+        <v>131.0108287390768</v>
       </c>
       <c r="E144" t="n">
         <v>7</v>
@@ -3991,7 +3991,7 @@
         <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>129.0176236890262</v>
+        <v>129.1177621509081</v>
       </c>
       <c r="E145" t="n">
         <v>9</v>
@@ -4008,7 +4008,7 @@
         <v>11</v>
       </c>
       <c r="D146" t="n">
-        <v>134.9402422311497</v>
+        <v>134.8534450717716</v>
       </c>
       <c r="E146" t="n">
         <v>2</v>
@@ -4025,7 +4025,7 @@
         <v>6</v>
       </c>
       <c r="D147" t="n">
-        <v>130.658306703398</v>
+        <v>130.5679714640738</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -4042,10 +4042,10 @@
         <v>6</v>
       </c>
       <c r="D148" t="n">
-        <v>78.8786331058654</v>
+        <v>78.82660492232256</v>
       </c>
       <c r="E148" t="n">
-        <v>18529</v>
+        <v>18632</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4059,10 +4059,10 @@
         <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>78.8786331058654</v>
+        <v>78.82660492232256</v>
       </c>
       <c r="E149" t="n">
-        <v>18528</v>
+        <v>18631</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4076,7 +4076,7 @@
         <v>11</v>
       </c>
       <c r="D150" t="n">
-        <v>107.5972164737922</v>
+        <v>107.6195744562897</v>
       </c>
       <c r="E150" t="n">
         <v>371</v>
@@ -4093,10 +4093,10 @@
         <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>101.7037035359364</v>
+        <v>102.104579030875</v>
       </c>
       <c r="E151" t="n">
-        <v>911</v>
+        <v>864</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4110,10 +4110,10 @@
         <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>97.24969539935313</v>
+        <v>97.17595284279889</v>
       </c>
       <c r="E152" t="n">
-        <v>1732</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4127,10 +4127,10 @@
         <v>6</v>
       </c>
       <c r="D153" t="n">
-        <v>78.84100186650379</v>
+        <v>78.88995044676024</v>
       </c>
       <c r="E153" t="n">
-        <v>18611</v>
+        <v>18526</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4144,10 +4144,10 @@
         <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>94.77782850303581</v>
+        <v>94.77981101753679</v>
       </c>
       <c r="E154" t="n">
-        <v>2480</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4161,10 +4161,10 @@
         <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>83.05668087974441</v>
+        <v>82.98556622489605</v>
       </c>
       <c r="E155" t="n">
-        <v>11523</v>
+        <v>11626</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4178,10 +4178,10 @@
         <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>102.094809719967</v>
+        <v>102.0232037547891</v>
       </c>
       <c r="E156" t="n">
-        <v>862</v>
+        <v>869</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4195,10 +4195,10 @@
         <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>89.87992988288924</v>
+        <v>89.82275807474068</v>
       </c>
       <c r="E157" t="n">
-        <v>4833</v>
+        <v>4899</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4212,10 +4212,10 @@
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>80.26895018769598</v>
+        <v>80.22676634838652</v>
       </c>
       <c r="E158" t="n">
-        <v>15868</v>
+        <v>15963</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4229,10 +4229,10 @@
         <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>86.07359105620102</v>
+        <v>86.07836452983267</v>
       </c>
       <c r="E159" t="n">
-        <v>7988</v>
+        <v>7989</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4246,10 +4246,10 @@
         <v>6</v>
       </c>
       <c r="D160" t="n">
-        <v>104.2662413275713</v>
+        <v>104.2069741738686</v>
       </c>
       <c r="E160" t="n">
-        <v>617</v>
+        <v>628</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4263,10 +4263,10 @@
         <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>45.27582709162108</v>
+        <v>45.25423078869809</v>
       </c>
       <c r="E161" t="n">
-        <v>165953</v>
+        <v>166013</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4280,10 +4280,10 @@
         <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>35.76121369120904</v>
+        <v>35.74722752880613</v>
       </c>
       <c r="E162" t="n">
-        <v>203017</v>
+        <v>203038</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4297,10 +4297,10 @@
         <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>54.99097750467771</v>
+        <v>54.96797399833473</v>
       </c>
       <c r="E163" t="n">
-        <v>117639</v>
+        <v>117718</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4314,10 +4314,10 @@
         <v>11</v>
       </c>
       <c r="D164" t="n">
-        <v>116.036212640654</v>
+        <v>116.3077159936518</v>
       </c>
       <c r="E164" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4331,10 +4331,10 @@
         <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>115.7425519715892</v>
+        <v>115.6548030837175</v>
       </c>
       <c r="E165" t="n">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4348,10 +4348,10 @@
         <v>11</v>
       </c>
       <c r="D166" t="n">
-        <v>99.47299232760733</v>
+        <v>99.40865061605137</v>
       </c>
       <c r="E166" t="n">
-        <v>1249</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4365,10 +4365,10 @@
         <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>88.04195987498191</v>
+        <v>87.98912842717426</v>
       </c>
       <c r="E167" t="n">
-        <v>6207</v>
+        <v>6262</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4382,10 +4382,10 @@
         <v>11</v>
       </c>
       <c r="D168" t="n">
-        <v>114.4639535568007</v>
+        <v>114.3920768876239</v>
       </c>
       <c r="E168" t="n">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4399,10 +4399,10 @@
         <v>11</v>
       </c>
       <c r="D169" t="n">
-        <v>86.20330115496741</v>
+        <v>86.14933471733904</v>
       </c>
       <c r="E169" t="n">
-        <v>7851</v>
+        <v>7920</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4416,10 +4416,10 @@
         <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>74.70705169557044</v>
+        <v>74.78210110532369</v>
       </c>
       <c r="E170" t="n">
-        <v>28639</v>
+        <v>28414</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4433,10 +4433,10 @@
         <v>6</v>
       </c>
       <c r="D171" t="n">
-        <v>101.2605247656107</v>
+        <v>101.1787043820739</v>
       </c>
       <c r="E171" t="n">
-        <v>964</v>
+        <v>974</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4450,10 +4450,10 @@
         <v>11</v>
       </c>
       <c r="D172" t="n">
-        <v>76.44105556657939</v>
+        <v>76.38567553183375</v>
       </c>
       <c r="E172" t="n">
-        <v>23953</v>
+        <v>24120</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4467,10 +4467,10 @@
         <v>11</v>
       </c>
       <c r="D173" t="n">
-        <v>65.24204277477382</v>
+        <v>65.37657876534084</v>
       </c>
       <c r="E173" t="n">
-        <v>64360</v>
+        <v>63730</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4484,7 +4484,7 @@
         <v>6</v>
       </c>
       <c r="D174" t="n">
-        <v>118.1395559533621</v>
+        <v>118.1691085744301</v>
       </c>
       <c r="E174" t="n">
         <v>803</v>
@@ -4501,7 +4501,7 @@
         <v>6</v>
       </c>
       <c r="D175" t="n">
-        <v>149.8294643096412</v>
+        <v>149.8007501373704</v>
       </c>
       <c r="E175" t="n">
         <v>6</v>
@@ -4518,10 +4518,10 @@
         <v>6</v>
       </c>
       <c r="D176" t="n">
-        <v>144.4800812389108</v>
+        <v>144.3996078034899</v>
       </c>
       <c r="E176" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4535,10 +4535,10 @@
         <v>6</v>
       </c>
       <c r="D177" t="n">
-        <v>138.2770228242618</v>
+        <v>138.2177225644618</v>
       </c>
       <c r="E177" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4552,7 +4552,7 @@
         <v>11</v>
       </c>
       <c r="D178" t="n">
-        <v>156.7123186014059</v>
+        <v>156.6512596664101</v>
       </c>
       <c r="E178" t="n">
         <v>1</v>
@@ -4569,10 +4569,10 @@
         <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>31.40451386558012</v>
+        <v>31.39196590042399</v>
       </c>
       <c r="E179" t="n">
-        <v>194635</v>
+        <v>194672</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4586,7 +4586,7 @@
         <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>118.2674138296735</v>
+        <v>118.2563849677421</v>
       </c>
       <c r="E180" t="n">
         <v>796</v>
@@ -4603,7 +4603,7 @@
         <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>141.2999941456844</v>
+        <v>141.4143000336829</v>
       </c>
       <c r="E181" t="n">
         <v>57</v>
@@ -4620,10 +4620,10 @@
         <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>99.50598146804012</v>
+        <v>99.45125892375559</v>
       </c>
       <c r="E182" t="n">
-        <v>3246</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4637,10 +4637,10 @@
         <v>11</v>
       </c>
       <c r="D183" t="n">
-        <v>107.4057617722844</v>
+        <v>107.3698988720655</v>
       </c>
       <c r="E183" t="n">
-        <v>1876</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4654,10 +4654,10 @@
         <v>11</v>
       </c>
       <c r="D184" t="n">
-        <v>107.5572530997841</v>
+        <v>107.5289617063289</v>
       </c>
       <c r="E184" t="n">
-        <v>1846</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4671,10 +4671,10 @@
         <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>95.80018037398568</v>
+        <v>95.73583316550594</v>
       </c>
       <c r="E185" t="n">
-        <v>4155</v>
+        <v>4177</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4688,10 +4688,10 @@
         <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>104.568516920156</v>
+        <v>104.5013200273602</v>
       </c>
       <c r="E186" t="n">
-        <v>2301</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4705,7 +4705,7 @@
         <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>130.8680812047515</v>
+        <v>130.8980321729707</v>
       </c>
       <c r="E187" t="n">
         <v>222</v>
@@ -4722,10 +4722,10 @@
         <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>99.23831329045888</v>
+        <v>99.18198595118952</v>
       </c>
       <c r="E188" t="n">
-        <v>3297</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4739,7 +4739,7 @@
         <v>11</v>
       </c>
       <c r="D189" t="n">
-        <v>142.8865194162193</v>
+        <v>142.8978682935717</v>
       </c>
       <c r="E189" t="n">
         <v>45</v>
@@ -4756,10 +4756,10 @@
         <v>11</v>
       </c>
       <c r="D190" t="n">
-        <v>77.82973558343743</v>
+        <v>77.79226394181782</v>
       </c>
       <c r="E190" t="n">
-        <v>12793</v>
+        <v>12848</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4773,10 +4773,10 @@
         <v>6</v>
       </c>
       <c r="D191" t="n">
-        <v>120.6072966275725</v>
+        <v>120.6820211355416</v>
       </c>
       <c r="E191" t="n">
-        <v>630</v>
+        <v>619</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4790,10 +4790,10 @@
         <v>6</v>
       </c>
       <c r="D192" t="n">
-        <v>58.15521931551459</v>
+        <v>58.14504721452674</v>
       </c>
       <c r="E192" t="n">
-        <v>55769</v>
+        <v>55782</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4807,10 +4807,10 @@
         <v>11</v>
       </c>
       <c r="D193" t="n">
-        <v>109.8350797643367</v>
+        <v>109.7696876685714</v>
       </c>
       <c r="E193" t="n">
-        <v>1539</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4824,10 +4824,10 @@
         <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>80.54039776824538</v>
+        <v>80.53104405020103</v>
       </c>
       <c r="E194" t="n">
-        <v>10686</v>
+        <v>10697</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4841,7 +4841,7 @@
         <v>6</v>
       </c>
       <c r="D195" t="n">
-        <v>148.1202993139823</v>
+        <v>148.0983188446919</v>
       </c>
       <c r="E195" t="n">
         <v>9</v>
@@ -4858,10 +4858,10 @@
         <v>11</v>
       </c>
       <c r="D196" t="n">
-        <v>143.3669106549289</v>
+        <v>143.4637385269439</v>
       </c>
       <c r="E196" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4875,10 +4875,10 @@
         <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>143.3669106549289</v>
+        <v>143.4637385269439</v>
       </c>
       <c r="E197" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4892,10 +4892,10 @@
         <v>11</v>
       </c>
       <c r="D198" t="n">
-        <v>127.3474715413607</v>
+        <v>128.2550920486715</v>
       </c>
       <c r="E198" t="n">
-        <v>318</v>
+        <v>290</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4909,7 +4909,7 @@
         <v>6</v>
       </c>
       <c r="D199" t="n">
-        <v>136.6306318690813</v>
+        <v>136.6324900145194</v>
       </c>
       <c r="E199" t="n">
         <v>108</v>
@@ -4926,7 +4926,7 @@
         <v>11</v>
       </c>
       <c r="D200" t="n">
-        <v>148.6894805697455</v>
+        <v>148.5983490491666</v>
       </c>
       <c r="E200" t="n">
         <v>8</v>
@@ -4943,7 +4943,7 @@
         <v>6</v>
       </c>
       <c r="D201" t="n">
-        <v>93.28846481346092</v>
+        <v>93.27506022348304</v>
       </c>
       <c r="E201" t="n">
         <v>4901</v>
@@ -4960,10 +4960,10 @@
         <v>11</v>
       </c>
       <c r="D202" t="n">
-        <v>119.2267395987022</v>
+        <v>119.2106960933479</v>
       </c>
       <c r="E202" t="n">
-        <v>716</v>
+        <v>720</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4977,10 +4977,10 @@
         <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>76.83732786146552</v>
+        <v>76.78978951344585</v>
       </c>
       <c r="E203" t="n">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4994,7 +4994,7 @@
         <v>11</v>
       </c>
       <c r="D204" t="n">
-        <v>81.55642928538066</v>
+        <v>81.6774447946035</v>
       </c>
       <c r="E204" t="n">
         <v>29</v>
@@ -5011,10 +5011,10 @@
         <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>69.87183291441123</v>
+        <v>69.85691776047548</v>
       </c>
       <c r="E205" t="n">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5028,10 +5028,10 @@
         <v>11</v>
       </c>
       <c r="D206" t="n">
-        <v>77.24052817671311</v>
+        <v>77.19384192917352</v>
       </c>
       <c r="E206" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5045,7 +5045,7 @@
         <v>6</v>
       </c>
       <c r="D207" t="n">
-        <v>90.66261074395257</v>
+        <v>90.61299236117642</v>
       </c>
       <c r="E207" t="n">
         <v>1</v>
@@ -5062,10 +5062,10 @@
         <v>6</v>
       </c>
       <c r="D208" t="n">
-        <v>35.74528018088897</v>
+        <v>35.74468722141327</v>
       </c>
       <c r="E208" t="n">
-        <v>80206</v>
+        <v>80173</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5079,10 +5079,10 @@
         <v>6</v>
       </c>
       <c r="D209" t="n">
-        <v>77.53499893451583</v>
+        <v>77.52579031365872</v>
       </c>
       <c r="E209" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5096,10 +5096,10 @@
         <v>11</v>
       </c>
       <c r="D210" t="n">
-        <v>77.88824382546615</v>
+        <v>77.85782243381253</v>
       </c>
       <c r="E210" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5113,10 +5113,10 @@
         <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>39.61241407933533</v>
+        <v>39.59870156764219</v>
       </c>
       <c r="E211" t="n">
-        <v>55719</v>
+        <v>55747</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5130,10 +5130,10 @@
         <v>11</v>
       </c>
       <c r="D212" t="n">
-        <v>76.97537885196847</v>
+        <v>76.94506571686937</v>
       </c>
       <c r="E212" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5147,10 +5147,10 @@
         <v>6</v>
       </c>
       <c r="D213" t="n">
-        <v>71.34360337448364</v>
+        <v>71.31292735931618</v>
       </c>
       <c r="E213" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5164,10 +5164,10 @@
         <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>62.95137712652719</v>
+        <v>62.9319390469552</v>
       </c>
       <c r="E214" t="n">
-        <v>2606</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5181,7 +5181,7 @@
         <v>11</v>
       </c>
       <c r="D215" t="n">
-        <v>85.47588908515965</v>
+        <v>85.48440485901391</v>
       </c>
       <c r="E215" t="n">
         <v>12</v>
@@ -5198,7 +5198,7 @@
         <v>6</v>
       </c>
       <c r="D216" t="n">
-        <v>88.63905931211234</v>
+        <v>88.60130778796429</v>
       </c>
       <c r="E216" t="n">
         <v>3</v>
@@ -5215,7 +5215,7 @@
         <v>6</v>
       </c>
       <c r="D217" t="n">
-        <v>78.1019768446057</v>
+        <v>78.08368862098079</v>
       </c>
       <c r="E217" t="n">
         <v>88</v>
@@ -5232,7 +5232,7 @@
         <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>78.98957453876589</v>
+        <v>78.99063170414898</v>
       </c>
       <c r="E218" t="n">
         <v>73</v>
@@ -5249,7 +5249,7 @@
         <v>6</v>
       </c>
       <c r="D219" t="n">
-        <v>78.5220523389518</v>
+        <v>78.51236830485243</v>
       </c>
       <c r="E219" t="n">
         <v>81</v>
@@ -5266,10 +5266,10 @@
         <v>6</v>
       </c>
       <c r="D220" t="n">
-        <v>66.15084921291727</v>
+        <v>66.14616333047202</v>
       </c>
       <c r="E220" t="n">
-        <v>1482</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5283,7 +5283,7 @@
         <v>6</v>
       </c>
       <c r="D221" t="n">
-        <v>87.65598253644774</v>
+        <v>87.61705944429372</v>
       </c>
       <c r="E221" t="n">
         <v>6</v>
@@ -5300,10 +5300,10 @@
         <v>6</v>
       </c>
       <c r="D222" t="n">
-        <v>62.4938667716561</v>
+        <v>62.48953739814604</v>
       </c>
       <c r="E222" t="n">
-        <v>2831</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5317,10 +5317,10 @@
         <v>6</v>
       </c>
       <c r="D223" t="n">
-        <v>64.61846525748555</v>
+        <v>64.5989321885169</v>
       </c>
       <c r="E223" t="n">
-        <v>1933</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5334,10 +5334,10 @@
         <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>24.34687397260358</v>
+        <v>24.35181649526763</v>
       </c>
       <c r="E224" t="n">
-        <v>168507</v>
+        <v>168467</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5351,10 +5351,10 @@
         <v>6</v>
       </c>
       <c r="D225" t="n">
-        <v>71.57705900482794</v>
+        <v>71.54703100827361</v>
       </c>
       <c r="E225" t="n">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5368,10 +5368,10 @@
         <v>6</v>
       </c>
       <c r="D226" t="n">
-        <v>58.70910285985875</v>
+        <v>58.67825753833822</v>
       </c>
       <c r="E226" t="n">
-        <v>5414</v>
+        <v>5426</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5385,10 +5385,10 @@
         <v>6</v>
       </c>
       <c r="D227" t="n">
-        <v>63.07080074436701</v>
+        <v>63.05713941087322</v>
       </c>
       <c r="E227" t="n">
-        <v>2544</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5402,10 +5402,10 @@
         <v>6</v>
       </c>
       <c r="D228" t="n">
-        <v>66.08439587908745</v>
+        <v>66.06064267554341</v>
       </c>
       <c r="E228" t="n">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5419,10 +5419,10 @@
         <v>6</v>
       </c>
       <c r="D229" t="n">
-        <v>63.00139427388932</v>
+        <v>62.9817691067384</v>
       </c>
       <c r="E229" t="n">
-        <v>2582</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5436,7 +5436,7 @@
         <v>6</v>
       </c>
       <c r="D230" t="n">
-        <v>88.32590720542872</v>
+        <v>88.30312988511011</v>
       </c>
       <c r="E230" t="n">
         <v>4</v>
@@ -5453,7 +5453,7 @@
         <v>6</v>
       </c>
       <c r="D231" t="n">
-        <v>76.76863734604686</v>
+        <v>76.72945596032925</v>
       </c>
       <c r="E231" t="n">
         <v>142</v>
@@ -5470,7 +5470,7 @@
         <v>11</v>
       </c>
       <c r="D232" t="n">
-        <v>79.37645431686899</v>
+        <v>79.33808130447618</v>
       </c>
       <c r="E232" t="n">
         <v>67</v>
@@ -5487,10 +5487,10 @@
         <v>11</v>
       </c>
       <c r="D233" t="n">
-        <v>73.17682813768056</v>
+        <v>73.15257565378414</v>
       </c>
       <c r="E233" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5504,10 +5504,10 @@
         <v>6</v>
       </c>
       <c r="D234" t="n">
-        <v>79.65294475363011</v>
+        <v>79.64111378628758</v>
       </c>
       <c r="E234" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5521,10 +5521,10 @@
         <v>6</v>
       </c>
       <c r="D235" t="n">
-        <v>77.58011815318808</v>
+        <v>77.54085426458698</v>
       </c>
       <c r="E235" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5538,10 +5538,10 @@
         <v>6</v>
       </c>
       <c r="D236" t="n">
-        <v>37.76194425999601</v>
+        <v>37.74182943696255</v>
       </c>
       <c r="E236" t="n">
-        <v>66511</v>
+        <v>66601</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5555,10 +5555,10 @@
         <v>6</v>
       </c>
       <c r="D237" t="n">
-        <v>28.57747937901037</v>
+        <v>28.55972000984561</v>
       </c>
       <c r="E237" t="n">
-        <v>134854</v>
+        <v>135002</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5572,10 +5572,10 @@
         <v>11</v>
       </c>
       <c r="D238" t="n">
-        <v>76.82872914160636</v>
+        <v>76.79672957606685</v>
       </c>
       <c r="E238" t="n">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5589,7 +5589,7 @@
         <v>11</v>
       </c>
       <c r="D239" t="n">
-        <v>64.05184426163696</v>
+        <v>64.03098034746078</v>
       </c>
       <c r="E239" t="n">
         <v>2140</v>
@@ -5606,7 +5606,7 @@
         <v>6</v>
       </c>
       <c r="D240" t="n">
-        <v>54.53448303110654</v>
+        <v>54.51359065436124</v>
       </c>
       <c r="E240" t="n">
         <v>10000</v>
@@ -5623,7 +5623,7 @@
         <v>11</v>
       </c>
       <c r="D241" t="n">
-        <v>74.23380558502545</v>
+        <v>74.20409451694832</v>
       </c>
       <c r="E241" t="n">
         <v>232</v>
@@ -5640,10 +5640,10 @@
         <v>6</v>
       </c>
       <c r="D242" t="n">
-        <v>28.04216159443817</v>
+        <v>28.03837529666417</v>
       </c>
       <c r="E242" t="n">
-        <v>139250</v>
+        <v>139289</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5657,10 +5657,10 @@
         <v>11</v>
       </c>
       <c r="D243" t="n">
-        <v>77.84893647763151</v>
+        <v>77.89586378331607</v>
       </c>
       <c r="E243" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5674,10 +5674,10 @@
         <v>6</v>
       </c>
       <c r="D244" t="n">
-        <v>31.17156961329666</v>
+        <v>31.16608276474516</v>
       </c>
       <c r="E244" t="n">
-        <v>114338</v>
+        <v>114394</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5691,7 +5691,7 @@
         <v>11</v>
       </c>
       <c r="D245" t="n">
-        <v>87.8952124128902</v>
+        <v>87.87184966320751</v>
       </c>
       <c r="E245" t="n">
         <v>5</v>
@@ -5708,10 +5708,10 @@
         <v>6</v>
       </c>
       <c r="D246" t="n">
-        <v>62.7500874716535</v>
+        <v>62.72127879595624</v>
       </c>
       <c r="E246" t="n">
-        <v>2710</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5725,10 +5725,10 @@
         <v>6</v>
       </c>
       <c r="D247" t="n">
-        <v>58.21109776512517</v>
+        <v>58.17981080864045</v>
       </c>
       <c r="E247" t="n">
-        <v>5889</v>
+        <v>5905</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5742,10 +5742,10 @@
         <v>11</v>
       </c>
       <c r="D248" t="n">
-        <v>45.11728251943301</v>
+        <v>45.11011291881562</v>
       </c>
       <c r="E248" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5759,10 +5759,10 @@
         <v>6</v>
       </c>
       <c r="D249" t="n">
-        <v>53.88447527889695</v>
+        <v>34.1044661745719</v>
       </c>
       <c r="E249" t="n">
-        <v>11</v>
+        <v>175</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5776,10 +5776,10 @@
         <v>6</v>
       </c>
       <c r="D250" t="n">
-        <v>42.86982860513911</v>
+        <v>19.4395883630058</v>
       </c>
       <c r="E250" t="n">
-        <v>38</v>
+        <v>26019</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5793,10 +5793,10 @@
         <v>6</v>
       </c>
       <c r="D251" t="n">
-        <v>55.19367195078521</v>
+        <v>26.47164502424886</v>
       </c>
       <c r="E251" t="n">
-        <v>10</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5810,10 +5810,10 @@
         <v>11</v>
       </c>
       <c r="D252" t="n">
-        <v>44.15322704640574</v>
+        <v>44.14053452239479</v>
       </c>
       <c r="E252" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5827,10 +5827,10 @@
         <v>6</v>
       </c>
       <c r="D253" t="n">
-        <v>57.30651513166156</v>
+        <v>22.7934493395982</v>
       </c>
       <c r="E253" t="n">
-        <v>6</v>
+        <v>8503</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5844,10 +5844,10 @@
         <v>6</v>
       </c>
       <c r="D254" t="n">
-        <v>45.07225698468878</v>
+        <v>26.85421926986773</v>
       </c>
       <c r="E254" t="n">
-        <v>26</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5861,10 +5861,10 @@
         <v>6</v>
       </c>
       <c r="D255" t="n">
-        <v>49.08893238001116</v>
+        <v>49.06471494718105</v>
       </c>
       <c r="E255" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5878,10 +5878,10 @@
         <v>11</v>
       </c>
       <c r="D256" t="n">
-        <v>34.74581075394007</v>
+        <v>34.73515511577776</v>
       </c>
       <c r="E256" t="n">
-        <v>182</v>
+        <v>145</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5895,10 +5895,10 @@
         <v>6</v>
       </c>
       <c r="D257" t="n">
-        <v>52.66332110693557</v>
+        <v>17.22471751055107</v>
       </c>
       <c r="E257" t="n">
-        <v>13</v>
+        <v>48929</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5912,10 +5912,10 @@
         <v>6</v>
       </c>
       <c r="D258" t="n">
-        <v>44.25400608059295</v>
+        <v>44.25391288469774</v>
       </c>
       <c r="E258" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5929,10 +5929,10 @@
         <v>11</v>
       </c>
       <c r="D259" t="n">
-        <v>32.33864408504178</v>
+        <v>32.34508643708717</v>
       </c>
       <c r="E259" t="n">
-        <v>337</v>
+        <v>299</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5946,10 +5946,10 @@
         <v>6</v>
       </c>
       <c r="D260" t="n">
-        <v>60.4815918116022</v>
+        <v>23.20659121033357</v>
       </c>
       <c r="E260" t="n">
-        <v>3</v>
+        <v>7290</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5963,10 +5963,10 @@
         <v>6</v>
       </c>
       <c r="D261" t="n">
-        <v>58.39875323217033</v>
+        <v>23.71944663093175</v>
       </c>
       <c r="E261" t="n">
-        <v>4</v>
+        <v>6061</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5980,10 +5980,10 @@
         <v>6</v>
       </c>
       <c r="D262" t="n">
-        <v>39.10671378500308</v>
+        <v>39.08735754374705</v>
       </c>
       <c r="E262" t="n">
-        <v>81</v>
+        <v>49</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5997,10 +5997,10 @@
         <v>11</v>
       </c>
       <c r="D263" t="n">
-        <v>55.55256094130563</v>
+        <v>55.54213899811108</v>
       </c>
       <c r="E263" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6014,10 +6014,10 @@
         <v>6</v>
       </c>
       <c r="D264" t="n">
-        <v>67.39482762902036</v>
+        <v>30.53868479431044</v>
       </c>
       <c r="E264" t="n">
-        <v>1</v>
+        <v>520</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6031,10 +6031,10 @@
         <v>6</v>
       </c>
       <c r="D265" t="n">
-        <v>46.06309688848089</v>
+        <v>46.0638877894866</v>
       </c>
       <c r="E265" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6048,10 +6048,10 @@
         <v>6</v>
       </c>
       <c r="D266" t="n">
-        <v>43.23718569357258</v>
+        <v>43.45740276203873</v>
       </c>
       <c r="E266" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6065,10 +6065,10 @@
         <v>6</v>
       </c>
       <c r="D267" t="n">
-        <v>43.20692719568264</v>
+        <v>43.17562208206861</v>
       </c>
       <c r="E267" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6082,10 +6082,10 @@
         <v>6</v>
       </c>
       <c r="D268" t="n">
-        <v>65.71204738971004</v>
+        <v>30.85158784640917</v>
       </c>
       <c r="E268" t="n">
-        <v>2</v>
+        <v>473</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -6099,10 +6099,10 @@
         <v>6</v>
       </c>
       <c r="D269" t="n">
-        <v>53.10598869315964</v>
+        <v>18.24142026293211</v>
       </c>
       <c r="E269" t="n">
-        <v>12</v>
+        <v>37330</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -6116,10 +6116,10 @@
         <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>50.87245004949214</v>
+        <v>50.89643109370076</v>
       </c>
       <c r="E270" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -6133,10 +6133,10 @@
         <v>6</v>
       </c>
       <c r="D271" t="n">
-        <v>39.4619455135017</v>
+        <v>39.43867672815888</v>
       </c>
       <c r="E271" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6150,10 +6150,10 @@
         <v>6</v>
       </c>
       <c r="D272" t="n">
-        <v>55.59199507481018</v>
+        <v>22.12470361663323</v>
       </c>
       <c r="E272" t="n">
-        <v>8</v>
+        <v>10752</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -6167,7 +6167,7 @@
         <v>11</v>
       </c>
       <c r="D273" t="n">
-        <v>37.49877302076514</v>
+        <v>37.48324490001835</v>
       </c>
       <c r="E273" t="n">
         <v>22</v>
@@ -6184,10 +6184,10 @@
         <v>11</v>
       </c>
       <c r="D274" t="n">
-        <v>24.65563602836095</v>
+        <v>24.67651103617983</v>
       </c>
       <c r="E274" t="n">
-        <v>1833</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -6201,10 +6201,10 @@
         <v>11</v>
       </c>
       <c r="D275" t="n">
-        <v>17.07663555549387</v>
+        <v>17.07113935494069</v>
       </c>
       <c r="E275" t="n">
-        <v>32892</v>
+        <v>32939</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -6218,7 +6218,7 @@
         <v>6</v>
       </c>
       <c r="D276" t="n">
-        <v>36.93448767460129</v>
+        <v>36.95570024101426</v>
       </c>
       <c r="E276" t="n">
         <v>31</v>
@@ -6235,10 +6235,10 @@
         <v>11</v>
       </c>
       <c r="D277" t="n">
-        <v>20.32885424411294</v>
+        <v>20.32395153533662</v>
       </c>
       <c r="E277" t="n">
-        <v>10198</v>
+        <v>10219</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -6252,10 +6252,10 @@
         <v>11</v>
       </c>
       <c r="D278" t="n">
-        <v>22.68425058043705</v>
+        <v>22.71085539767358</v>
       </c>
       <c r="E278" t="n">
-        <v>4021</v>
+        <v>3987</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -6269,10 +6269,10 @@
         <v>6</v>
       </c>
       <c r="D279" t="n">
-        <v>22.7230523556463</v>
+        <v>22.76421648063223</v>
       </c>
       <c r="E279" t="n">
-        <v>3953</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -6286,10 +6286,10 @@
         <v>6</v>
       </c>
       <c r="D280" t="n">
-        <v>25.66740659788598</v>
+        <v>25.69414311470678</v>
       </c>
       <c r="E280" t="n">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -6303,10 +6303,10 @@
         <v>11</v>
       </c>
       <c r="D281" t="n">
-        <v>34.84828145980187</v>
+        <v>34.82865965162159</v>
       </c>
       <c r="E281" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -6320,10 +6320,10 @@
         <v>6</v>
       </c>
       <c r="D282" t="n">
-        <v>17.1731791747186</v>
+        <v>17.16755317265035</v>
       </c>
       <c r="E282" t="n">
-        <v>31837</v>
+        <v>31879</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -6337,10 +6337,10 @@
         <v>11</v>
       </c>
       <c r="D283" t="n">
-        <v>23.01640377240486</v>
+        <v>23.0165662481232</v>
       </c>
       <c r="E283" t="n">
-        <v>3513</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -6354,10 +6354,10 @@
         <v>11</v>
       </c>
       <c r="D284" t="n">
-        <v>33.21391197996333</v>
+        <v>33.21239984302349</v>
       </c>
       <c r="E284" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -6371,7 +6371,7 @@
         <v>11</v>
       </c>
       <c r="D285" t="n">
-        <v>33.15303177774733</v>
+        <v>33.17813376118912</v>
       </c>
       <c r="E285" t="n">
         <v>143</v>
@@ -6388,7 +6388,7 @@
         <v>6</v>
       </c>
       <c r="D286" t="n">
-        <v>37.85229541438905</v>
+        <v>37.85434731567923</v>
       </c>
       <c r="E286" t="n">
         <v>19</v>
@@ -6405,10 +6405,10 @@
         <v>11</v>
       </c>
       <c r="D287" t="n">
-        <v>28.98679175927799</v>
+        <v>29.02765324318416</v>
       </c>
       <c r="E287" t="n">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -6422,7 +6422,7 @@
         <v>6</v>
       </c>
       <c r="D288" t="n">
-        <v>38.18887929398609</v>
+        <v>38.25436105964927</v>
       </c>
       <c r="E288" t="n">
         <v>17</v>
@@ -6439,7 +6439,7 @@
         <v>6</v>
       </c>
       <c r="D289" t="n">
-        <v>38.18887929398609</v>
+        <v>38.25436105964927</v>
       </c>
       <c r="E289" t="n">
         <v>16</v>
@@ -6456,10 +6456,10 @@
         <v>11</v>
       </c>
       <c r="D290" t="n">
-        <v>31.63098382348987</v>
+        <v>31.66471318519481</v>
       </c>
       <c r="E290" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -6473,10 +6473,10 @@
         <v>6</v>
       </c>
       <c r="D291" t="n">
-        <v>19.60474977948805</v>
+        <v>19.66307986191922</v>
       </c>
       <c r="E291" t="n">
-        <v>13392</v>
+        <v>13122</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -6490,10 +6490,10 @@
         <v>6</v>
       </c>
       <c r="D292" t="n">
-        <v>18.5852824640971</v>
+        <v>18.58320098148319</v>
       </c>
       <c r="E292" t="n">
-        <v>19638</v>
+        <v>19671</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -6507,10 +6507,10 @@
         <v>6</v>
       </c>
       <c r="D293" t="n">
-        <v>29.18910776470846</v>
+        <v>29.17741312954644</v>
       </c>
       <c r="E293" t="n">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -6524,10 +6524,10 @@
         <v>6</v>
       </c>
       <c r="D294" t="n">
-        <v>29.51637173309898</v>
+        <v>29.52675786080859</v>
       </c>
       <c r="E294" t="n">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -6541,10 +6541,10 @@
         <v>6</v>
       </c>
       <c r="D295" t="n">
-        <v>16.97692701420839</v>
+        <v>16.9899741599746</v>
       </c>
       <c r="E295" t="n">
-        <v>33976</v>
+        <v>33829</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -6558,10 +6558,10 @@
         <v>11</v>
       </c>
       <c r="D296" t="n">
-        <v>31.33997826153646</v>
+        <v>31.34214387026449</v>
       </c>
       <c r="E296" t="n">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -6575,10 +6575,10 @@
         <v>6</v>
       </c>
       <c r="D297" t="n">
-        <v>17.27259505988158</v>
+        <v>17.26496353316252</v>
       </c>
       <c r="E297" t="n">
-        <v>30815</v>
+        <v>30879</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -6592,10 +6592,10 @@
         <v>11</v>
       </c>
       <c r="D298" t="n">
-        <v>27.69353622441202</v>
+        <v>27.69843989697192</v>
       </c>
       <c r="E298" t="n">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -6609,10 +6609,10 @@
         <v>6</v>
       </c>
       <c r="D299" t="n">
-        <v>24.2453553409691</v>
+        <v>24.23802861620666</v>
       </c>
       <c r="E299" t="n">
-        <v>2134</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -6626,10 +6626,10 @@
         <v>11</v>
       </c>
       <c r="D300" t="n">
-        <v>28.5740956870509</v>
+        <v>28.67568898075045</v>
       </c>
       <c r="E300" t="n">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -6643,10 +6643,10 @@
         <v>6</v>
       </c>
       <c r="D301" t="n">
-        <v>26.63757588128324</v>
+        <v>26.71186864951529</v>
       </c>
       <c r="E301" t="n">
-        <v>907</v>
+        <v>894</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -6660,10 +6660,10 @@
         <v>6</v>
       </c>
       <c r="D302" t="n">
-        <v>26.63757588128324</v>
+        <v>26.71186864951529</v>
       </c>
       <c r="E302" t="n">
-        <v>906</v>
+        <v>893</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -6677,10 +6677,10 @@
         <v>6</v>
       </c>
       <c r="D303" t="n">
-        <v>24.43097715579102</v>
+        <v>24.51144800114863</v>
       </c>
       <c r="E303" t="n">
-        <v>2001</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -6694,10 +6694,10 @@
         <v>6</v>
       </c>
       <c r="D304" t="n">
-        <v>71.1422859040792</v>
+        <v>71.13629315057311</v>
       </c>
       <c r="E304" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -6711,7 +6711,7 @@
         <v>11</v>
       </c>
       <c r="D305" t="n">
-        <v>82.80940004928175</v>
+        <v>83.02638030556508</v>
       </c>
       <c r="E305" t="n">
         <v>3</v>
@@ -6728,7 +6728,7 @@
         <v>6</v>
       </c>
       <c r="D306" t="n">
-        <v>67.72763743426577</v>
+        <v>67.72961453837543</v>
       </c>
       <c r="E306" t="n">
         <v>72</v>
@@ -6745,10 +6745,10 @@
         <v>6</v>
       </c>
       <c r="D307" t="n">
-        <v>61.55689954903049</v>
+        <v>61.55795172120571</v>
       </c>
       <c r="E307" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -6762,10 +6762,10 @@
         <v>6</v>
       </c>
       <c r="D308" t="n">
-        <v>40.02980552927659</v>
+        <v>40.01641535950752</v>
       </c>
       <c r="E308" t="n">
-        <v>18677</v>
+        <v>18745</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -6779,10 +6779,10 @@
         <v>6</v>
       </c>
       <c r="D309" t="n">
-        <v>37.62792298201823</v>
+        <v>37.68237030460138</v>
       </c>
       <c r="E309" t="n">
-        <v>29898</v>
+        <v>29547</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -6796,7 +6796,7 @@
         <v>6</v>
       </c>
       <c r="D310" t="n">
-        <v>75.13944497154741</v>
+        <v>75.20799875946619</v>
       </c>
       <c r="E310" t="n">
         <v>11</v>
@@ -6813,7 +6813,7 @@
         <v>11</v>
       </c>
       <c r="D311" t="n">
-        <v>58.52354719716347</v>
+        <v>58.52963031321976</v>
       </c>
       <c r="E311" t="n">
         <v>348</v>
@@ -6830,7 +6830,7 @@
         <v>6</v>
       </c>
       <c r="D312" t="n">
-        <v>73.41686759582763</v>
+        <v>73.36476780686307</v>
       </c>
       <c r="E312" t="n">
         <v>14</v>
@@ -6847,7 +6847,7 @@
         <v>6</v>
       </c>
       <c r="D313" t="n">
-        <v>77.0910830181338</v>
+        <v>77.44790866536319</v>
       </c>
       <c r="E313" t="n">
         <v>6</v>
@@ -6864,10 +6864,10 @@
         <v>6</v>
       </c>
       <c r="D314" t="n">
-        <v>13.66675815610942</v>
+        <v>13.66297939880449</v>
       </c>
       <c r="E314" t="n">
-        <v>234667</v>
+        <v>234671</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -6881,10 +6881,10 @@
         <v>6</v>
       </c>
       <c r="D315" t="n">
-        <v>38.7729281276429</v>
+        <v>38.75897163061491</v>
       </c>
       <c r="E315" t="n">
-        <v>24056</v>
+        <v>24148</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -6898,10 +6898,10 @@
         <v>6</v>
       </c>
       <c r="D316" t="n">
-        <v>29.22490807063387</v>
+        <v>29.21228122833343</v>
       </c>
       <c r="E316" t="n">
-        <v>99156</v>
+        <v>99241</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -6915,7 +6915,7 @@
         <v>11</v>
       </c>
       <c r="D317" t="n">
-        <v>80.73977071703527</v>
+        <v>80.69387615293272</v>
       </c>
       <c r="E317" t="n">
         <v>5</v>
@@ -6932,10 +6932,10 @@
         <v>11</v>
       </c>
       <c r="D318" t="n">
-        <v>75.53528267642433</v>
+        <v>75.58073559390577</v>
       </c>
       <c r="E318" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -6949,10 +6949,10 @@
         <v>6</v>
       </c>
       <c r="D319" t="n">
-        <v>49.64415112599211</v>
+        <v>49.61968571155813</v>
       </c>
       <c r="E319" t="n">
-        <v>2142</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -6966,7 +6966,7 @@
         <v>6</v>
       </c>
       <c r="D320" t="n">
-        <v>85.07354597997853</v>
+        <v>85.45562055289999</v>
       </c>
       <c r="E320" t="n">
         <v>1</v>
@@ -6983,10 +6983,10 @@
         <v>6</v>
       </c>
       <c r="D321" t="n">
-        <v>71.21968024590696</v>
+        <v>71.20081284830354</v>
       </c>
       <c r="E321" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -7000,10 +7000,10 @@
         <v>11</v>
       </c>
       <c r="D322" t="n">
-        <v>51.75837110395155</v>
+        <v>51.74383853536617</v>
       </c>
       <c r="E322" t="n">
-        <v>1385</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -7017,10 +7017,10 @@
         <v>11</v>
       </c>
       <c r="D323" t="n">
-        <v>70.10810997311955</v>
+        <v>70.08215214172954</v>
       </c>
       <c r="E323" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -7034,7 +7034,7 @@
         <v>6</v>
       </c>
       <c r="D324" t="n">
-        <v>71.49819618254359</v>
+        <v>71.45348200348627</v>
       </c>
       <c r="E324" t="n">
         <v>29</v>
@@ -7051,7 +7051,7 @@
         <v>6</v>
       </c>
       <c r="D325" t="n">
-        <v>82.08393721800091</v>
+        <v>82.06980149658042</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -7068,10 +7068,10 @@
         <v>11</v>
       </c>
       <c r="D326" t="n">
-        <v>65.90116494062001</v>
+        <v>65.92081422564551</v>
       </c>
       <c r="E326" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -7085,7 +7085,7 @@
         <v>6</v>
       </c>
       <c r="D327" t="n">
-        <v>83.12382765671835</v>
+        <v>83.08519293782982</v>
       </c>
       <c r="E327" t="n">
         <v>2</v>
@@ -7102,10 +7102,10 @@
         <v>6</v>
       </c>
       <c r="D328" t="n">
-        <v>70.30646313958893</v>
+        <v>70.51605471074467</v>
       </c>
       <c r="E328" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -7119,10 +7119,10 @@
         <v>6</v>
       </c>
       <c r="D329" t="n">
-        <v>58.7592667684723</v>
+        <v>58.83086924242179</v>
       </c>
       <c r="E329" t="n">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -7136,10 +7136,10 @@
         <v>6</v>
       </c>
       <c r="D330" t="n">
-        <v>33.04975273646089</v>
+        <v>33.03115069004023</v>
       </c>
       <c r="E330" t="n">
-        <v>62406</v>
+        <v>62501</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -7153,10 +7153,10 @@
         <v>6</v>
       </c>
       <c r="D331" t="n">
-        <v>67.39280668816875</v>
+        <v>67.56112352777613</v>
       </c>
       <c r="E331" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -7170,7 +7170,7 @@
         <v>6</v>
       </c>
       <c r="D332" t="n">
-        <v>75.9042815670595</v>
+        <v>75.87674744809303</v>
       </c>
       <c r="E332" t="n">
         <v>8</v>
@@ -7187,10 +7187,10 @@
         <v>6</v>
       </c>
       <c r="D333" t="n">
-        <v>68.81051188026419</v>
+        <v>69.12758814084954</v>
       </c>
       <c r="E333" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -7204,7 +7204,7 @@
         <v>6</v>
       </c>
       <c r="D334" t="n">
-        <v>68.22861203268127</v>
+        <v>68.24977883756502</v>
       </c>
       <c r="E334" t="n">
         <v>65</v>
@@ -7221,10 +7221,10 @@
         <v>6</v>
       </c>
       <c r="D335" t="n">
-        <v>49.12632418269649</v>
+        <v>49.19810295914316</v>
       </c>
       <c r="E335" t="n">
-        <v>2441</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -7238,10 +7238,10 @@
         <v>6</v>
       </c>
       <c r="D336" t="n">
-        <v>69.00165191222585</v>
+        <v>69.0580532501438</v>
       </c>
       <c r="E336" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -7255,10 +7255,10 @@
         <v>6</v>
       </c>
       <c r="D337" t="n">
-        <v>37.19769807906916</v>
+        <v>37.22539618081134</v>
       </c>
       <c r="E337" t="n">
-        <v>32181</v>
+        <v>32048</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -7272,10 +7272,10 @@
         <v>6</v>
       </c>
       <c r="D338" t="n">
-        <v>39.04811446168625</v>
+        <v>39.03835333510425</v>
       </c>
       <c r="E338" t="n">
-        <v>22718</v>
+        <v>22772</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -7289,10 +7289,10 @@
         <v>6</v>
       </c>
       <c r="D339" t="n">
-        <v>45.69950386887913</v>
+        <v>45.74786887522988</v>
       </c>
       <c r="E339" t="n">
-        <v>5357</v>
+        <v>5308</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -7306,10 +7306,10 @@
         <v>6</v>
       </c>
       <c r="D340" t="n">
-        <v>63.00824864386836</v>
+        <v>63.09993425738114</v>
       </c>
       <c r="E340" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -7323,10 +7323,10 @@
         <v>6</v>
       </c>
       <c r="D341" t="n">
-        <v>36.88266999194407</v>
+        <v>36.8891806249816</v>
       </c>
       <c r="E341" t="n">
-        <v>34053</v>
+        <v>33982</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -7340,10 +7340,10 @@
         <v>6</v>
       </c>
       <c r="D342" t="n">
-        <v>41.18613365101113</v>
+        <v>41.24006169400118</v>
       </c>
       <c r="E342" t="n">
-        <v>14708</v>
+        <v>14529</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -7357,10 +7357,10 @@
         <v>6</v>
       </c>
       <c r="D343" t="n">
-        <v>28.33048030427646</v>
+        <v>28.31883943320135</v>
       </c>
       <c r="E343" t="n">
-        <v>108595</v>
+        <v>108675</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -7374,10 +7374,10 @@
         <v>11</v>
       </c>
       <c r="D344" t="n">
-        <v>26.5584369446289</v>
+        <v>26.54619097776025</v>
       </c>
       <c r="E344" t="n">
-        <v>14867</v>
+        <v>14857</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -7391,10 +7391,10 @@
         <v>6</v>
       </c>
       <c r="D345" t="n">
-        <v>30.1817956072462</v>
+        <v>30.19829894939318</v>
       </c>
       <c r="E345" t="n">
-        <v>4331</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -7408,10 +7408,10 @@
         <v>6</v>
       </c>
       <c r="D346" t="n">
-        <v>25.39886530103596</v>
+        <v>25.38328192717577</v>
       </c>
       <c r="E346" t="n">
-        <v>20808</v>
+        <v>20826</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -7425,10 +7425,10 @@
         <v>11</v>
       </c>
       <c r="D347" t="n">
-        <v>33.44025706520794</v>
+        <v>33.44918996059266</v>
       </c>
       <c r="E347" t="n">
-        <v>1219</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -7442,10 +7442,10 @@
         <v>11</v>
       </c>
       <c r="D348" t="n">
-        <v>33.44025706520794</v>
+        <v>33.44918996059266</v>
       </c>
       <c r="E348" t="n">
-        <v>1218</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -7459,10 +7459,10 @@
         <v>6</v>
       </c>
       <c r="D349" t="n">
-        <v>25.43913597081315</v>
+        <v>25.42810759363968</v>
       </c>
       <c r="E349" t="n">
-        <v>20578</v>
+        <v>20579</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -7476,10 +7476,10 @@
         <v>6</v>
       </c>
       <c r="D350" t="n">
-        <v>16.6732827940516</v>
+        <v>16.66314890388317</v>
       </c>
       <c r="E350" t="n">
-        <v>126793</v>
+        <v>126930</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -7493,10 +7493,10 @@
         <v>6</v>
       </c>
       <c r="D351" t="n">
-        <v>30.86640240774553</v>
+        <v>30.85680615371766</v>
       </c>
       <c r="E351" t="n">
-        <v>3317</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -7510,10 +7510,10 @@
         <v>11</v>
       </c>
       <c r="D352" t="n">
-        <v>53.7619565495952</v>
+        <v>29.26636989072914</v>
       </c>
       <c r="E352" t="n">
-        <v>2</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -7527,10 +7527,10 @@
         <v>6</v>
       </c>
       <c r="D353" t="n">
-        <v>18.18232084007389</v>
+        <v>18.17695530125541</v>
       </c>
       <c r="E353" t="n">
-        <v>101219</v>
+        <v>101261</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -7544,10 +7544,10 @@
         <v>6</v>
       </c>
       <c r="D354" t="n">
-        <v>51.48006136556984</v>
+        <v>26.10775698080968</v>
       </c>
       <c r="E354" t="n">
-        <v>5</v>
+        <v>16901</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -7561,10 +7561,10 @@
         <v>6</v>
       </c>
       <c r="D355" t="n">
-        <v>48.61418618242783</v>
+        <v>34.25748813656635</v>
       </c>
       <c r="E355" t="n">
-        <v>6</v>
+        <v>842</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -7578,10 +7578,10 @@
         <v>6</v>
       </c>
       <c r="D356" t="n">
-        <v>43.03143714014688</v>
+        <v>27.03840430455149</v>
       </c>
       <c r="E356" t="n">
-        <v>19</v>
+        <v>12819</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -7595,10 +7595,10 @@
         <v>6</v>
       </c>
       <c r="D357" t="n">
-        <v>27.4997755591717</v>
+        <v>27.47884210724301</v>
       </c>
       <c r="E357" t="n">
-        <v>11108</v>
+        <v>11119</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -7612,10 +7612,10 @@
         <v>6</v>
       </c>
       <c r="D358" t="n">
-        <v>31.53962887339191</v>
+        <v>31.51550740916054</v>
       </c>
       <c r="E358" t="n">
-        <v>2613</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -7629,10 +7629,10 @@
         <v>6</v>
       </c>
       <c r="D359" t="n">
-        <v>39.27530053540662</v>
+        <v>39.25350566867586</v>
       </c>
       <c r="E359" t="n">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -7646,10 +7646,10 @@
         <v>6</v>
       </c>
       <c r="D360" t="n">
-        <v>54.52656238976865</v>
+        <v>25.65380001678737</v>
       </c>
       <c r="E360" t="n">
-        <v>1</v>
+        <v>19213</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -7663,10 +7663,10 @@
         <v>6</v>
       </c>
       <c r="D361" t="n">
-        <v>24.48779834959312</v>
+        <v>24.48414739796517</v>
       </c>
       <c r="E361" t="n">
-        <v>26560</v>
+        <v>26515</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -7680,10 +7680,10 @@
         <v>6</v>
       </c>
       <c r="D362" t="n">
-        <v>37.79463548704585</v>
+        <v>37.7798266174699</v>
       </c>
       <c r="E362" t="n">
-        <v>180</v>
+        <v>152</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -7697,10 +7697,10 @@
         <v>6</v>
       </c>
       <c r="D363" t="n">
-        <v>41.79955599647113</v>
+        <v>11.01789496963191</v>
       </c>
       <c r="E363" t="n">
-        <v>29</v>
+        <v>217499</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -7714,10 +7714,10 @@
         <v>6</v>
       </c>
       <c r="D364" t="n">
-        <v>12.76555935036538</v>
+        <v>12.76179313123714</v>
       </c>
       <c r="E364" t="n">
-        <v>190493</v>
+        <v>190526</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -7731,10 +7731,10 @@
         <v>6</v>
       </c>
       <c r="D365" t="n">
-        <v>9.859971007305028</v>
+        <v>9.858267242319018</v>
       </c>
       <c r="E365" t="n">
-        <v>231823</v>
+        <v>231828</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -7748,10 +7748,10 @@
         <v>6</v>
       </c>
       <c r="D366" t="n">
-        <v>19.70518236544937</v>
+        <v>19.69769699776484</v>
       </c>
       <c r="E366" t="n">
-        <v>77914</v>
+        <v>77987</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -7765,10 +7765,10 @@
         <v>6</v>
       </c>
       <c r="D367" t="n">
-        <v>26.22436820644506</v>
+        <v>26.22106722270636</v>
       </c>
       <c r="E367" t="n">
-        <v>16390</v>
+        <v>16333</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -7782,10 +7782,10 @@
         <v>6</v>
       </c>
       <c r="D368" t="n">
-        <v>19.70961915963521</v>
+        <v>19.70188986337794</v>
       </c>
       <c r="E368" t="n">
-        <v>77853</v>
+        <v>77904</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -7799,10 +7799,10 @@
         <v>6</v>
       </c>
       <c r="D369" t="n">
-        <v>47.41275784682119</v>
+        <v>26.61975951568861</v>
       </c>
       <c r="E369" t="n">
-        <v>8</v>
+        <v>14513</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -7816,10 +7816,10 @@
         <v>6</v>
       </c>
       <c r="D370" t="n">
-        <v>12.53828191077075</v>
+        <v>12.53414156945779</v>
       </c>
       <c r="E370" t="n">
-        <v>194288</v>
+        <v>194352</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -7833,10 +7833,10 @@
         <v>6</v>
       </c>
       <c r="D371" t="n">
-        <v>21.8413343315549</v>
+        <v>21.83082154562521</v>
       </c>
       <c r="E371" t="n">
-        <v>50496</v>
+        <v>50561</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -7850,10 +7850,10 @@
         <v>6</v>
       </c>
       <c r="D372" t="n">
-        <v>52.23707899644346</v>
+        <v>26.06682555538383</v>
       </c>
       <c r="E372" t="n">
-        <v>4</v>
+        <v>17086</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -7867,10 +7867,10 @@
         <v>6</v>
       </c>
       <c r="D373" t="n">
-        <v>41.73061394158249</v>
+        <v>20.93847980033311</v>
       </c>
       <c r="E373" t="n">
-        <v>31</v>
+        <v>61060</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -7884,10 +7884,10 @@
         <v>6</v>
       </c>
       <c r="D374" t="n">
-        <v>45.9352479654209</v>
+        <v>24.74037173284404</v>
       </c>
       <c r="E374" t="n">
-        <v>9</v>
+        <v>24794</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -7901,10 +7901,10 @@
         <v>11</v>
       </c>
       <c r="D375" t="n">
-        <v>19.93323934998728</v>
+        <v>19.92575932043265</v>
       </c>
       <c r="E375" t="n">
-        <v>74563</v>
+        <v>74601</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -7918,10 +7918,10 @@
         <v>6</v>
       </c>
       <c r="D376" t="n">
-        <v>23.81829055442002</v>
+        <v>23.80433898070079</v>
       </c>
       <c r="E376" t="n">
-        <v>31367</v>
+        <v>31403</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -7935,10 +7935,10 @@
         <v>6</v>
       </c>
       <c r="D377" t="n">
-        <v>24.25734210062227</v>
+        <v>24.2669102654662</v>
       </c>
       <c r="E377" t="n">
-        <v>28188</v>
+        <v>28047</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -7952,10 +7952,10 @@
         <v>6</v>
       </c>
       <c r="D378" t="n">
-        <v>31.53954565467825</v>
+        <v>31.51652630201296</v>
       </c>
       <c r="E378" t="n">
-        <v>2614</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -7969,10 +7969,10 @@
         <v>6</v>
       </c>
       <c r="D379" t="n">
-        <v>33.59252133555092</v>
+        <v>33.5748778206621</v>
       </c>
       <c r="E379" t="n">
-        <v>1138</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -7986,10 +7986,10 @@
         <v>11</v>
       </c>
       <c r="D380" t="n">
-        <v>34.32545941988212</v>
+        <v>34.30644778743958</v>
       </c>
       <c r="E380" t="n">
-        <v>853</v>
+        <v>823</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -8003,10 +8003,10 @@
         <v>6</v>
       </c>
       <c r="D381" t="n">
-        <v>45.23606473860529</v>
+        <v>18.90747782697407</v>
       </c>
       <c r="E381" t="n">
-        <v>12</v>
+        <v>89732</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -8020,10 +8020,10 @@
         <v>6</v>
       </c>
       <c r="D382" t="n">
-        <v>14.57144363527446</v>
+        <v>14.57570330890344</v>
       </c>
       <c r="E382" t="n">
-        <v>161961</v>
+        <v>161907</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -8037,10 +8037,10 @@
         <v>6</v>
       </c>
       <c r="D383" t="n">
-        <v>42.39510003440701</v>
+        <v>19.19664457502775</v>
       </c>
       <c r="E383" t="n">
-        <v>24</v>
+        <v>85268</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -8054,10 +8054,10 @@
         <v>6</v>
       </c>
       <c r="D384" t="n">
-        <v>45.70128486500062</v>
+        <v>20.21839755332246</v>
       </c>
       <c r="E384" t="n">
-        <v>10</v>
+        <v>70494</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -8071,10 +8071,10 @@
         <v>6</v>
       </c>
       <c r="D385" t="n">
-        <v>53.16740170274004</v>
+        <v>33.9476106148517</v>
       </c>
       <c r="E385" t="n">
-        <v>3</v>
+        <v>946</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -8088,10 +8088,10 @@
         <v>6</v>
       </c>
       <c r="D386" t="n">
-        <v>15.62860421709525</v>
+        <v>15.61486458760313</v>
       </c>
       <c r="E386" t="n">
-        <v>144585</v>
+        <v>144789</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -8105,10 +8105,10 @@
         <v>11</v>
       </c>
       <c r="D387" t="n">
-        <v>17.85992786858018</v>
+        <v>17.85026288334438</v>
       </c>
       <c r="E387" t="n">
-        <v>106698</v>
+        <v>106807</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -8122,10 +8122,10 @@
         <v>6</v>
       </c>
       <c r="D388" t="n">
-        <v>28.74647382750129</v>
+        <v>28.77147040562764</v>
       </c>
       <c r="E388" t="n">
-        <v>7301</v>
+        <v>7139</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -8139,10 +8139,10 @@
         <v>6</v>
       </c>
       <c r="D389" t="n">
-        <v>26.41095490883872</v>
+        <v>26.44864666228535</v>
       </c>
       <c r="E389" t="n">
-        <v>15534</v>
+        <v>15305</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -8156,10 +8156,10 @@
         <v>6</v>
       </c>
       <c r="D390" t="n">
-        <v>17.89388287025905</v>
+        <v>17.89648536005454</v>
       </c>
       <c r="E390" t="n">
-        <v>106134</v>
+        <v>106020</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -8173,10 +8173,10 @@
         <v>6</v>
       </c>
       <c r="D391" t="n">
-        <v>15.65410950672855</v>
+        <v>15.65444627150259</v>
       </c>
       <c r="E391" t="n">
-        <v>144109</v>
+        <v>144111</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -8190,10 +8190,10 @@
         <v>11</v>
       </c>
       <c r="D392" t="n">
-        <v>28.74018926401153</v>
+        <v>28.72704606904627</v>
       </c>
       <c r="E392" t="n">
-        <v>7316</v>
+        <v>7285</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -8207,10 +8207,10 @@
         <v>6</v>
       </c>
       <c r="D393" t="n">
-        <v>13.8835562064902</v>
+        <v>13.88133714161181</v>
       </c>
       <c r="E393" t="n">
-        <v>173156</v>
+        <v>173195</v>
       </c>
     </row>
   </sheetData>
@@ -8284,7 +8284,7 @@
         <v>387</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>0.6</v>
@@ -8302,10 +8302,10 @@
         <v>0.15</v>
       </c>
       <c r="K2" t="n">
-        <v>0.056</v>
+        <v>0.052</v>
       </c>
       <c r="L2" t="n">
-        <v>0.031</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8322,7 +8322,7 @@
         <v>387</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0.2</v>
@@ -8378,10 +8378,10 @@
         <v>0.21</v>
       </c>
       <c r="K4" t="n">
-        <v>0.078</v>
+        <v>0.074</v>
       </c>
       <c r="L4" t="n">
-        <v>0.043</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -8398,7 +8398,7 @@
         <v>387</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.0263</v>
       </c>
       <c r="F5" t="n">
         <v>0.0789</v>
@@ -8416,10 +8416,10 @@
         <v>0.3947</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7368</v>
+        <v>0.6842</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8158</v>
+        <v>0.7632</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -8436,7 +8436,7 @@
         <v>387</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0526</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0.0526</v>
@@ -8492,10 +8492,10 @@
         <v>0.3684</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6842</v>
+        <v>0.6491</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7544</v>
+        <v>0.7193000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8512,7 +8512,7 @@
         <v>387</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.0513</v>
       </c>
       <c r="F8" t="n">
         <v>0.1395</v>
@@ -8530,10 +8530,10 @@
         <v>0.2174</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1041</v>
+        <v>0.09669999999999999</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0597</v>
+        <v>0.0559</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8550,7 +8550,7 @@
         <v>387</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0999</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0.0833</v>
@@ -8606,10 +8606,10 @@
         <v>0.2675</v>
       </c>
       <c r="K10" t="n">
-        <v>0.14</v>
+        <v>0.1329</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0814</v>
+        <v>0.0776</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8968,7 +8968,7 @@
         <v>387</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>0.4</v>
@@ -9006,16 +9006,16 @@
         <v>387</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0.4</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H21" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="I21" t="n">
         <v>0.2</v>
@@ -9024,10 +9024,10 @@
         <v>0.13</v>
       </c>
       <c r="K21" t="n">
-        <v>0.048</v>
+        <v>0.046</v>
       </c>
       <c r="L21" t="n">
-        <v>0.027</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -9050,10 +9050,10 @@
         <v>0.8</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H22" t="n">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="I22" t="n">
         <v>0.36</v>
@@ -9062,10 +9062,10 @@
         <v>0.22</v>
       </c>
       <c r="K22" t="n">
-        <v>0.068</v>
+        <v>0.066</v>
       </c>
       <c r="L22" t="n">
-        <v>0.037</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -9082,7 +9082,7 @@
         <v>387</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F23" t="n">
         <v>0.2</v>
@@ -9120,16 +9120,16 @@
         <v>387</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0357</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0.07140000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1429</v>
+        <v>0.1071</v>
       </c>
       <c r="H24" t="n">
-        <v>0.25</v>
+        <v>0.2143</v>
       </c>
       <c r="I24" t="n">
         <v>0.3571</v>
@@ -9138,10 +9138,10 @@
         <v>0.4643</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8571</v>
+        <v>0.8214</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9643</v>
+        <v>0.8929</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -9164,10 +9164,10 @@
         <v>0.1053</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1842</v>
+        <v>0.1579</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3421</v>
+        <v>0.3158</v>
       </c>
       <c r="I25" t="n">
         <v>0.4737</v>
@@ -9176,10 +9176,10 @@
         <v>0.5789</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8947000000000001</v>
+        <v>0.8683999999999999</v>
       </c>
       <c r="L25" t="n">
-        <v>0.9737</v>
+        <v>0.9211</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -9196,7 +9196,7 @@
         <v>387</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.1818</v>
       </c>
       <c r="F26" t="n">
         <v>0.2667</v>
@@ -9234,16 +9234,16 @@
         <v>387</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0689</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0.1212</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2106</v>
+        <v>0.1578</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2642</v>
+        <v>0.2264</v>
       </c>
       <c r="I27" t="n">
         <v>0.2564</v>
@@ -9252,10 +9252,10 @@
         <v>0.2031</v>
       </c>
       <c r="K27" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.0871</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0525</v>
+        <v>0.0486</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -9278,10 +9278,10 @@
         <v>0.1861</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2917</v>
+        <v>0.25</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4127</v>
+        <v>0.381</v>
       </c>
       <c r="I28" t="n">
         <v>0.4091</v>
@@ -9290,10 +9290,10 @@
         <v>0.3188</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1264</v>
+        <v>0.1227</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0713</v>
+        <v>0.0674</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -9699,7 +9699,7 @@
         <v>0.2</v>
       </c>
       <c r="H39" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I39" t="n">
         <v>0.08</v>
@@ -9737,7 +9737,7 @@
         <v>0.4</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="I40" t="n">
         <v>0.16</v>
@@ -9813,7 +9813,7 @@
         <v>0.1053</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1579</v>
+        <v>0.1053</v>
       </c>
       <c r="I42" t="n">
         <v>0.2105</v>
@@ -9851,7 +9851,7 @@
         <v>0.1379</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1724</v>
+        <v>0.1379</v>
       </c>
       <c r="I43" t="n">
         <v>0.2759</v>
@@ -9927,7 +9927,7 @@
         <v>0.138</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1364</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="I45" t="n">
         <v>0.1159</v>
@@ -9965,7 +9965,7 @@
         <v>0.2051</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1852</v>
+        <v>0.1481</v>
       </c>
       <c r="I46" t="n">
         <v>0.2025</v>
@@ -10336,16 +10336,16 @@
         <v>387</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H56" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I56" t="n">
         <v>0.06</v>
@@ -10374,28 +10374,28 @@
         <v>387</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="G57" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H57" t="n">
-        <v>0.52</v>
+        <v>0.24</v>
       </c>
       <c r="I57" t="n">
-        <v>0.36</v>
+        <v>0.16</v>
       </c>
       <c r="J57" t="n">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="K57" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="L57" t="n">
-        <v>0.02</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -10418,22 +10418,22 @@
         <v>0.8</v>
       </c>
       <c r="G58" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H58" t="n">
-        <v>0.6</v>
+        <v>0.36</v>
       </c>
       <c r="I58" t="n">
-        <v>0.42</v>
+        <v>0.22</v>
       </c>
       <c r="J58" t="n">
-        <v>0.23</v>
+        <v>0.11</v>
       </c>
       <c r="K58" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="L58" t="n">
-        <v>0.025</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -10450,16 +10450,16 @@
         <v>387</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G59" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I59" t="n">
         <v>0.6</v>
@@ -10488,28 +10488,28 @@
         <v>387</v>
       </c>
       <c r="E60" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G60" t="n">
         <v>0.2</v>
       </c>
-      <c r="G60" t="n">
-        <v>0.35</v>
-      </c>
       <c r="H60" t="n">
-        <v>0.65</v>
+        <v>0.3</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -10532,22 +10532,22 @@
         <v>0.16</v>
       </c>
       <c r="G61" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="H61" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K61" t="n">
         <v>0.6</v>
       </c>
-      <c r="I61" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="K61" t="n">
-        <v>1</v>
-      </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -10564,16 +10564,16 @@
         <v>387</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1333</v>
+        <v>0.4</v>
       </c>
       <c r="H62" t="n">
-        <v>0.1333</v>
+        <v>0.2</v>
       </c>
       <c r="I62" t="n">
         <v>0.1091</v>
@@ -10602,28 +10602,28 @@
         <v>387</v>
       </c>
       <c r="E63" t="n">
-        <v>0.09520000000000001</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
       <c r="G63" t="n">
-        <v>0.4667</v>
+        <v>0.2667</v>
       </c>
       <c r="H63" t="n">
-        <v>0.5778</v>
+        <v>0.2667</v>
       </c>
       <c r="I63" t="n">
-        <v>0.5143</v>
+        <v>0.2286</v>
       </c>
       <c r="J63" t="n">
-        <v>0.3333</v>
+        <v>0.1333</v>
       </c>
       <c r="K63" t="n">
-        <v>0.0769</v>
+        <v>0.0385</v>
       </c>
       <c r="L63" t="n">
-        <v>0.0392</v>
+        <v>0.0216</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -10646,22 +10646,22 @@
         <v>0.2667</v>
       </c>
       <c r="G64" t="n">
-        <v>0.4571</v>
+        <v>0.4</v>
       </c>
       <c r="H64" t="n">
-        <v>0.6</v>
+        <v>0.36</v>
       </c>
       <c r="I64" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.2933</v>
       </c>
       <c r="J64" t="n">
-        <v>0.368</v>
+        <v>0.176</v>
       </c>
       <c r="K64" t="n">
-        <v>0.09520000000000001</v>
+        <v>0.0571</v>
       </c>
       <c r="L64" t="n">
-        <v>0.0488</v>
+        <v>0.0312</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -10681,25 +10681,25 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -10716,28 +10716,28 @@
         <v>387</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="K66" t="n">
-        <v>0.03</v>
+        <v>0.004</v>
       </c>
       <c r="L66" t="n">
-        <v>0.015</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -10754,28 +10754,28 @@
         <v>387</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="K67" t="n">
-        <v>0.032</v>
+        <v>0.004</v>
       </c>
       <c r="L67" t="n">
-        <v>0.017</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -10795,25 +10795,25 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
         <v>0.125</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0.25</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -10830,28 +10830,28 @@
         <v>387</v>
       </c>
       <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
         <v>0.0238</v>
       </c>
-      <c r="F69" t="n">
+      <c r="K69" t="n">
+        <v>0.0476</v>
+      </c>
+      <c r="L69" t="n">
         <v>0.09520000000000001</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0.1905</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.2619</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.3095</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.3333</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.3571</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0.3571</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -10868,28 +10868,28 @@
         <v>387</v>
       </c>
       <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
         <v>0.02</v>
       </c>
-      <c r="F70" t="n">
+      <c r="K70" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L70" t="n">
         <v>0.1</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0.34</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -10909,25 +10909,25 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1538</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1111</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0606</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.0345</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0.0185</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0.0039</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -10944,28 +10944,28 @@
         <v>387</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0465</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1702</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0.3077</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.3284</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0.2826</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>0.1972</v>
+        <v>0.0141</v>
       </c>
       <c r="K72" t="n">
-        <v>0.0554</v>
+        <v>0.0074</v>
       </c>
       <c r="L72" t="n">
-        <v>0.0288</v>
+        <v>0.0077</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -10982,28 +10982,28 @@
         <v>387</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0392</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1818</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>0.2</v>
+        <v>0.0133</v>
       </c>
       <c r="K73" t="n">
-        <v>0.0582</v>
+        <v>0.0073</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0324</v>
+        <v>0.0095</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -11761,28 +11761,28 @@
         <v>387</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04649122807017544</v>
+        <v>0.07236842105263158</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05701754385964912</v>
+        <v>0.08289473684210526</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07926065162907267</v>
+        <v>0.1051378446115288</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1043265069580859</v>
+        <v>0.130203699940542</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1315764831629533</v>
+        <v>0.157722475696465</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1642564848950591</v>
+        <v>0.1850104735103063</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1675755291555055</v>
+        <v>0.1877860365364898</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -11799,28 +11799,28 @@
         <v>387</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06766917293233082</v>
+        <v>0.02556390977443609</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07644110275689223</v>
+        <v>0.0343358395989975</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07644110275689223</v>
+        <v>0.0343358395989975</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08865035344920054</v>
+        <v>0.04633623481929244</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0995949945992919</v>
+        <v>0.05731031979613423</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1007517325981352</v>
+        <v>0.05847131050820854</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -11840,25 +11840,25 @@
         <v>0.01754385964912281</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.06228070175438596</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08972431077694235</v>
+        <v>0.08533834586466164</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1187552213868003</v>
+        <v>0.1143692564745196</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1415349528726722</v>
+        <v>0.1371489879603915</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1802290304811867</v>
+        <v>0.175841786281759</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2226719942443046</v>
+        <v>0.2132510634510221</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2270593999407546</v>
+        <v>0.2171246018611334</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -11887,16 +11887,16 @@
         <v>0.0638095238095238</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07923940400684587</v>
+        <v>0.07911255411255411</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0825727373401792</v>
+        <v>0.08240667175961294</v>
       </c>
       <c r="K5" t="n">
-        <v>0.09541969284972676</v>
+        <v>0.09508482310782418</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09714667697671089</v>
+        <v>0.096818647550888</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -11925,16 +11925,16 @@
         <v>0.06527777777777777</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07072440087145969</v>
+        <v>0.0705298786181139</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07418460848391643</v>
+        <v>0.07385951235840246</v>
       </c>
       <c r="K6" t="n">
-        <v>0.08022373246656536</v>
+        <v>0.07981598816660247</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08200438450095217</v>
+        <v>0.08160240736979937</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -11963,16 +11963,16 @@
         <v>0.1024078557976863</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1206254409250073</v>
+        <v>0.1203475432288992</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1272365599488881</v>
+        <v>0.1267773105307671</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1443352212748233</v>
+        <v>0.1436421648714877</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1478445623233143</v>
+        <v>0.147163125715828</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -11989,28 +11989,28 @@
         <v>387</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1066666666666667</v>
+        <v>0.2041666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2045833333333333</v>
+        <v>0.3112556561085973</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2398546511627907</v>
+        <v>0.3482519931049343</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2500819238900634</v>
+        <v>0.3580346018005864</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2527135028374318</v>
+        <v>0.360632004397989</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2527135028374318</v>
+        <v>0.360632004397989</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -12027,28 +12027,28 @@
         <v>387</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03571428571428571</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.02321428571428572</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1035714285714286</v>
+        <v>0.03511904761904762</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1413890457368718</v>
+        <v>0.06770863847931517</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1671217589695851</v>
+        <v>0.09980893352840588</v>
       </c>
       <c r="J9" t="n">
-        <v>0.186536915884742</v>
+        <v>0.1202144439106965</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2274479070256124</v>
+        <v>0.1568282121405682</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2320805881006012</v>
+        <v>0.1600077895623506</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -12068,25 +12068,25 @@
         <v>0.02631578947368421</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.08464912280701754</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.118640350877193</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2599631902549522</v>
+        <v>0.2169021727010158</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3133394411143732</v>
+        <v>0.2801721430424826</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3438168821181301</v>
+        <v>0.3116376049255469</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3916479061908325</v>
+        <v>0.3549276912584958</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3963806520166958</v>
+        <v>0.3582284793839659</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -12118,13 +12118,13 @@
         <v>0.03917624521072797</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05384715159704944</v>
+        <v>0.05389481422192551</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07578646939216475</v>
+        <v>0.07560528136258289</v>
       </c>
       <c r="L11" t="n">
-        <v>0.07578646939216475</v>
+        <v>0.07560528136258289</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -12156,13 +12156,13 @@
         <v>0.09343434343434343</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1037036071974497</v>
+        <v>0.1037423975588207</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1159041498238022</v>
+        <v>0.1157119636161305</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1166432481238762</v>
+        <v>0.1164522656593641</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -12194,13 +12194,13 @@
         <v>0.1064750957854406</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1277224554622282</v>
+        <v>0.1278010155728176</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1561399366195507</v>
+        <v>0.1557938757413931</v>
       </c>
       <c r="L13" t="n">
-        <v>0.157079412680978</v>
+        <v>0.1567348818941256</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -12229,16 +12229,16 @@
         <v>0.125</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1415811965811966</v>
+        <v>0.1413888888888889</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1415811965811966</v>
+        <v>0.1413888888888889</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1431535236252217</v>
+        <v>0.1431130268199234</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1439915124520374</v>
+        <v>0.1439463601532567</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -12264,19 +12264,19 @@
         <v>0.02046783625730994</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02704678362573099</v>
+        <v>0.02046783625730994</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03258694983071714</v>
+        <v>0.03171390013495277</v>
       </c>
       <c r="J15" t="n">
-        <v>0.04110239047912177</v>
+        <v>0.04013539775980118</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0464103299975876</v>
+        <v>0.04544333727826701</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04854439097090615</v>
+        <v>0.04759075960326848</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -12302,19 +12302,19 @@
         <v>0.07423371647509579</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0814176245210728</v>
+        <v>0.07423371647509579</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09918175190407494</v>
+        <v>0.09808920326161703</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1088835286959909</v>
+        <v>0.1076883985910291</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1156692669391136</v>
+        <v>0.1146102431466429</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1185810964431441</v>
+        <v>0.1175316766104976</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -12346,13 +12346,13 @@
         <v>0.003246753246753247</v>
       </c>
       <c r="J17" t="n">
-        <v>0.005010421677088344</v>
+        <v>0.004947433518862091</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01468751098830301</v>
+        <v>0.01459291982108481</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01569829265946204</v>
+        <v>0.01560689007795728</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -12387,10 +12387,10 @@
         <v>0.02747494433706769</v>
       </c>
       <c r="K18" t="n">
-        <v>0.02918325494034503</v>
+        <v>0.02916103172690884</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03015658176240325</v>
+        <v>0.03014851947173058</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -12422,13 +12422,13 @@
         <v>0.02197259032466005</v>
       </c>
       <c r="J19" t="n">
-        <v>0.02436207658511405</v>
+        <v>0.02427673779009784</v>
       </c>
       <c r="K19" t="n">
-        <v>0.03463151747203085</v>
+        <v>0.03449176319654887</v>
       </c>
       <c r="L19" t="n">
-        <v>0.03656661614820941</v>
+        <v>0.03644634704195619</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -12445,28 +12445,28 @@
         <v>387</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03822222222222223</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I20" t="n">
-        <v>0.05822222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J20" t="n">
-        <v>0.05822222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K20" t="n">
-        <v>0.06558518566827172</v>
+        <v>0.3421950563179949</v>
       </c>
       <c r="L20" t="n">
-        <v>0.06558518566827172</v>
+        <v>0.3421950563179949</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -12483,28 +12483,28 @@
         <v>387</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2</v>
+        <v>0.09583333333333333</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3141666666666666</v>
+        <v>0.1208333333333333</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5227039627039627</v>
+        <v>0.168560606060606</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6479120904894898</v>
+        <v>0.184678416821274</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6729244361685022</v>
+        <v>0.184678416821274</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6729244361685022</v>
+        <v>0.1883069278451338</v>
       </c>
       <c r="L21" t="n">
-        <v>0.6729244361685022</v>
+        <v>0.1893646201528261</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -12527,22 +12527,22 @@
         <v>0.16</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2864444444444444</v>
+        <v>0.2544444444444444</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4938057498057498</v>
+        <v>0.3135353535353536</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6340221958983568</v>
+        <v>0.3316058544629973</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6571135539230483</v>
+        <v>0.3316058544629973</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6653556382482186</v>
+        <v>0.3410290365039262</v>
       </c>
       <c r="L22" t="n">
-        <v>0.6653556382482186</v>
+        <v>0.3422598057346955</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -12562,25 +12562,25 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.06279308323563892</v>
+        <v>0.0001518833535844471</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -12597,28 +12597,28 @@
         <v>387</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02380952380952381</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07658730158730159</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1518518518518518</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1931530214424951</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2129898772081607</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2166935809118644</v>
+        <v>0.000350140056022409</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2186777078959914</v>
+        <v>0.000663423264042459</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2186777078959914</v>
+        <v>0.00084892981589713</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -12635,28 +12635,28 @@
         <v>387</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1732777777777778</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2115233918128655</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.229521167118761</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2328545004520943</v>
+        <v>0.0002941176470588235</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2346322782298721</v>
+        <v>0.0005572755417956656</v>
       </c>
       <c r="L25" t="n">
-        <v>0.235030871430341</v>
+        <v>0.0008308996732438897</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -12679,22 +12679,22 @@
         <v>0.1047619047619048</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1523809523809524</v>
+        <v>0.1476190476190476</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1523809523809524</v>
+        <v>0.1476190476190476</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1659863945578231</v>
+        <v>0.1606060606060606</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1737503697131026</v>
+        <v>0.1680465367965368</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1762134239002947</v>
+        <v>0.1705095909837289</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1762134239002947</v>
+        <v>0.1705095909837289</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -12723,16 +12723,16 @@
         <v>0.1541551882460973</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1890420438428325</v>
+        <v>0.1880801094264358</v>
       </c>
       <c r="J27" t="n">
-        <v>0.22194735402087</v>
+        <v>0.2211961737625958</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2297865869674828</v>
+        <v>0.228965683982756</v>
       </c>
       <c r="L27" t="n">
-        <v>0.2297865869674828</v>
+        <v>0.228965683982756</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -12755,22 +12755,22 @@
         <v>0.125</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1940972222222222</v>
+        <v>0.191875</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2324089105339105</v>
+        <v>0.2301866883116883</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2793205037608542</v>
+        <v>0.2756625831003706</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3200375242604834</v>
+        <v>0.316365259748771</v>
       </c>
       <c r="K28" t="n">
-        <v>0.33012220216869</v>
+        <v>0.3263756686331588</v>
       </c>
       <c r="L28" t="n">
-        <v>0.33012220216869</v>
+        <v>0.3263756686331588</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -12837,16 +12837,16 @@
         <v>0.5185845955515074</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5575531431925805</v>
+        <v>0.560240250942628</v>
       </c>
       <c r="J30" t="n">
-        <v>0.5575531431925805</v>
+        <v>0.560240250942628</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5575531431925805</v>
+        <v>0.560240250942628</v>
       </c>
       <c r="L30" t="n">
-        <v>0.5586181059188852</v>
+        <v>0.5613452233183186</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -12875,16 +12875,16 @@
         <v>0.7403058996196251</v>
       </c>
       <c r="I31" t="n">
-        <v>0.7797241337649639</v>
+        <v>0.7824423807095946</v>
       </c>
       <c r="J31" t="n">
-        <v>0.7797241337649639</v>
+        <v>0.7824423807095946</v>
       </c>
       <c r="K31" t="n">
-        <v>0.7797241337649639</v>
+        <v>0.7824423807095946</v>
       </c>
       <c r="L31" t="n">
-        <v>0.7807890964912684</v>
+        <v>0.7835473530852853</v>
       </c>
     </row>
   </sheetData>

--- a/BM25.xlsx
+++ b/BM25.xlsx
@@ -1560,10 +1560,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>135.1886886567266</v>
+        <v>133.4051205327981</v>
       </c>
       <c r="E2" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1577,7 +1577,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>143.7422350749186</v>
+        <v>143.7839508368621</v>
       </c>
       <c r="E3" t="n">
         <v>17</v>
@@ -1594,7 +1594,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>170.6556890959031</v>
+        <v>169.8506534310787</v>
       </c>
       <c r="E4" t="n">
         <v>6</v>
@@ -1611,10 +1611,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>93.9350116399378</v>
+        <v>93.21301813904847</v>
       </c>
       <c r="E5" t="n">
-        <v>905</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1628,7 +1628,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>172.9932534387448</v>
+        <v>173.2586547410483</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -1645,7 +1645,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>167.1463843613007</v>
+        <v>167.1124855558283</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -1662,10 +1662,10 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>209.936587119922</v>
+        <v>209.9804976618936</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1679,7 +1679,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>161.240165388634</v>
+        <v>161.0898369382514</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>161.240165388634</v>
+        <v>161.0898369382514</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -1713,7 +1713,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>151.0157417075735</v>
+        <v>151.0869493959829</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1730,7 +1730,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>170.8820485714271</v>
+        <v>171.3515848648744</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1747,10 +1747,10 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>209.7829531534098</v>
+        <v>210.3945135152442</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1764,10 +1764,10 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>140.6347412628365</v>
+        <v>140.2802765379824</v>
       </c>
       <c r="E14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1781,7 +1781,7 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>145.8545087846336</v>
+        <v>145.8435802907226</v>
       </c>
       <c r="E15" t="n">
         <v>16</v>
@@ -1798,7 +1798,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>322.1941495002917</v>
+        <v>322.58010698917</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>159.5610269432888</v>
+        <v>160.2185900588009</v>
       </c>
       <c r="E17" t="n">
         <v>11</v>
@@ -1832,7 +1832,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>120.177672263195</v>
+        <v>120.4486177020989</v>
       </c>
       <c r="E18" t="n">
         <v>44</v>
@@ -1849,7 +1849,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>120.177672263195</v>
+        <v>120.4486177020989</v>
       </c>
       <c r="E19" t="n">
         <v>43</v>
@@ -1866,10 +1866,10 @@
         <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>53.31102101855149</v>
+        <v>62.22117918419801</v>
       </c>
       <c r="E20" t="n">
-        <v>1769</v>
+        <v>649</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1883,10 +1883,10 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>42.1565736495662</v>
+        <v>42.27040805514954</v>
       </c>
       <c r="E21" t="n">
-        <v>5500</v>
+        <v>5397</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1900,10 +1900,10 @@
         <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>41.92514672335959</v>
+        <v>50.07818535333503</v>
       </c>
       <c r="E22" t="n">
-        <v>5631</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1917,10 +1917,10 @@
         <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>65.65785119724339</v>
+        <v>65.92378816847719</v>
       </c>
       <c r="E23" t="n">
-        <v>423</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1934,10 +1934,10 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>82.45298603036666</v>
+        <v>82.817724479986</v>
       </c>
       <c r="E24" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1951,10 +1951,10 @@
         <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>53.0285193076005</v>
+        <v>52.40332562767502</v>
       </c>
       <c r="E25" t="n">
-        <v>1830</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1968,10 +1968,10 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>73.44559469671285</v>
+        <v>73.60062685803464</v>
       </c>
       <c r="E26" t="n">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1985,10 +1985,10 @@
         <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>38.64059178596271</v>
+        <v>38.30487576675174</v>
       </c>
       <c r="E27" t="n">
-        <v>7791</v>
+        <v>8042</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2002,10 +2002,10 @@
         <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>84.10182579053351</v>
+        <v>84.78744029628442</v>
       </c>
       <c r="E28" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2019,10 +2019,10 @@
         <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>68.36413976092119</v>
+        <v>68.68017685915099</v>
       </c>
       <c r="E29" t="n">
-        <v>298</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2036,7 +2036,7 @@
         <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>91.24787880421522</v>
+        <v>91.18563051491738</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -2053,10 +2053,10 @@
         <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>94.35383946739755</v>
+        <v>94.92333695046651</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2070,7 +2070,7 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>87.41000278765136</v>
+        <v>87.5700969500903</v>
       </c>
       <c r="E32" t="n">
         <v>18</v>
@@ -2087,10 +2087,10 @@
         <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>92.13634983679513</v>
+        <v>105.0268900601413</v>
       </c>
       <c r="E33" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2104,10 +2104,10 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>92.94777690014705</v>
+        <v>92.44382460930436</v>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2121,10 +2121,10 @@
         <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>97.79032696008913</v>
+        <v>96.8093587818849</v>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2138,10 +2138,10 @@
         <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>48.8797587963318</v>
+        <v>48.76448364032947</v>
       </c>
       <c r="E36" t="n">
-        <v>2808</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2155,10 +2155,10 @@
         <v>11</v>
       </c>
       <c r="D37" t="n">
-        <v>45.19219161412488</v>
+        <v>55.88523591401375</v>
       </c>
       <c r="E37" t="n">
-        <v>4092</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2172,10 +2172,10 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>79.49761652393494</v>
+        <v>79.64414415998921</v>
       </c>
       <c r="E38" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2189,10 +2189,10 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>73.43188277172874</v>
+        <v>73.49783538042152</v>
       </c>
       <c r="E39" t="n">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2206,10 +2206,10 @@
         <v>11</v>
       </c>
       <c r="D40" t="n">
-        <v>65.08304738853833</v>
+        <v>65.95450776959879</v>
       </c>
       <c r="E40" t="n">
-        <v>462</v>
+        <v>406</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2223,10 +2223,10 @@
         <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>70.35630332425163</v>
+        <v>69.26771131321206</v>
       </c>
       <c r="E41" t="n">
-        <v>234</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2240,7 +2240,7 @@
         <v>11</v>
       </c>
       <c r="D42" t="n">
-        <v>88.52592734051619</v>
+        <v>88.70907804406896</v>
       </c>
       <c r="E42" t="n">
         <v>14</v>
@@ -2257,10 +2257,10 @@
         <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>49.67624204177292</v>
+        <v>58.22097350300972</v>
       </c>
       <c r="E43" t="n">
-        <v>2572</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2274,10 +2274,10 @@
         <v>11</v>
       </c>
       <c r="D44" t="n">
-        <v>79.78455332227389</v>
+        <v>79.15844702880349</v>
       </c>
       <c r="E44" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2291,10 +2291,10 @@
         <v>11</v>
       </c>
       <c r="D45" t="n">
-        <v>58.71367146683649</v>
+        <v>58.25012096412597</v>
       </c>
       <c r="E45" t="n">
-        <v>975</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2308,10 +2308,10 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>65.41753440913689</v>
+        <v>65.13791410974012</v>
       </c>
       <c r="E46" t="n">
-        <v>444</v>
+        <v>457</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2325,10 +2325,10 @@
         <v>11</v>
       </c>
       <c r="D47" t="n">
-        <v>73.35910320298339</v>
+        <v>72.86757637566505</v>
       </c>
       <c r="E47" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2342,10 +2342,10 @@
         <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>23.51595526900565</v>
+        <v>23.41727981417083</v>
       </c>
       <c r="E48" t="n">
-        <v>44626</v>
+        <v>45130</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2359,10 +2359,10 @@
         <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>51.77665633877822</v>
+        <v>51.64751193535858</v>
       </c>
       <c r="E49" t="n">
-        <v>2101</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2376,10 +2376,10 @@
         <v>11</v>
       </c>
       <c r="D50" t="n">
-        <v>30.43411712869674</v>
+        <v>30.30726617652956</v>
       </c>
       <c r="E50" t="n">
-        <v>19438</v>
+        <v>19676</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2393,10 +2393,10 @@
         <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>71.54608996822758</v>
+        <v>71.68047096029474</v>
       </c>
       <c r="E51" t="n">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2410,10 +2410,10 @@
         <v>11</v>
       </c>
       <c r="D52" t="n">
-        <v>67.87418246670528</v>
+        <v>68.15240262751219</v>
       </c>
       <c r="E52" t="n">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2427,10 +2427,10 @@
         <v>11</v>
       </c>
       <c r="D53" t="n">
-        <v>69.198962328435</v>
+        <v>68.609472120738</v>
       </c>
       <c r="E53" t="n">
-        <v>267</v>
+        <v>290</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2444,10 +2444,10 @@
         <v>11</v>
       </c>
       <c r="D54" t="n">
-        <v>99.49946602626596</v>
+        <v>99.86741840048714</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2461,10 +2461,10 @@
         <v>11</v>
       </c>
       <c r="D55" t="n">
-        <v>59.42988186328672</v>
+        <v>72.39079581550249</v>
       </c>
       <c r="E55" t="n">
-        <v>894</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2478,10 +2478,10 @@
         <v>11</v>
       </c>
       <c r="D56" t="n">
-        <v>73.22816982551424</v>
+        <v>72.81770675343887</v>
       </c>
       <c r="E56" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2495,10 +2495,10 @@
         <v>11</v>
       </c>
       <c r="D57" t="n">
-        <v>78.99703278422129</v>
+        <v>78.82929657511903</v>
       </c>
       <c r="E57" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2512,10 +2512,10 @@
         <v>11</v>
       </c>
       <c r="D58" t="n">
-        <v>69.63835002105714</v>
+        <v>68.9698527091426</v>
       </c>
       <c r="E58" t="n">
-        <v>252</v>
+        <v>274</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2529,10 +2529,10 @@
         <v>11</v>
       </c>
       <c r="D59" t="n">
-        <v>48.45338697519431</v>
+        <v>48.21934247791327</v>
       </c>
       <c r="E59" t="n">
-        <v>2937</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2546,10 +2546,10 @@
         <v>11</v>
       </c>
       <c r="D60" t="n">
-        <v>90.65970775773785</v>
+        <v>90.04185143847944</v>
       </c>
       <c r="E60" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2563,10 +2563,10 @@
         <v>11</v>
       </c>
       <c r="D61" t="n">
-        <v>62.86771688159936</v>
+        <v>62.46971162090632</v>
       </c>
       <c r="E61" t="n">
-        <v>608</v>
+        <v>626</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2580,7 +2580,7 @@
         <v>11</v>
       </c>
       <c r="D62" t="n">
-        <v>74.4942266495495</v>
+        <v>74.72458408107813</v>
       </c>
       <c r="E62" t="n">
         <v>129</v>
@@ -2597,10 +2597,10 @@
         <v>11</v>
       </c>
       <c r="D63" t="n">
-        <v>76.29091594050698</v>
+        <v>75.42614665996355</v>
       </c>
       <c r="E63" t="n">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2614,10 +2614,10 @@
         <v>11</v>
       </c>
       <c r="D64" t="n">
-        <v>79.14173075775112</v>
+        <v>78.17133356293813</v>
       </c>
       <c r="E64" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2631,10 +2631,10 @@
         <v>11</v>
       </c>
       <c r="D65" t="n">
-        <v>83.34853146095486</v>
+        <v>83.54818088117244</v>
       </c>
       <c r="E65" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2648,10 +2648,10 @@
         <v>11</v>
       </c>
       <c r="D66" t="n">
-        <v>79.63204260143746</v>
+        <v>79.43200817571262</v>
       </c>
       <c r="E66" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2665,10 +2665,10 @@
         <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>77.39168674151661</v>
+        <v>76.75209627607244</v>
       </c>
       <c r="E67" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2682,10 +2682,10 @@
         <v>11</v>
       </c>
       <c r="D68" t="n">
-        <v>52.95268418599166</v>
+        <v>65.79127498259248</v>
       </c>
       <c r="E68" t="n">
-        <v>1844</v>
+        <v>415</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2699,10 +2699,10 @@
         <v>11</v>
       </c>
       <c r="D69" t="n">
-        <v>80.75913085695791</v>
+        <v>80.70902483081295</v>
       </c>
       <c r="E69" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2716,10 +2716,10 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>63.81973983228206</v>
+        <v>63.76818348960886</v>
       </c>
       <c r="E70" t="n">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2733,10 +2733,10 @@
         <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>80.16658746871346</v>
+        <v>80.11323195421082</v>
       </c>
       <c r="E71" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2750,10 +2750,10 @@
         <v>11</v>
       </c>
       <c r="D72" t="n">
-        <v>70.30075218835992</v>
+        <v>70.09193521998762</v>
       </c>
       <c r="E72" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2767,10 +2767,10 @@
         <v>11</v>
       </c>
       <c r="D73" t="n">
-        <v>79.8759168513221</v>
+        <v>79.33583885599933</v>
       </c>
       <c r="E73" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2784,10 +2784,10 @@
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>32.08736720989226</v>
+        <v>31.92626267805249</v>
       </c>
       <c r="E74" t="n">
-        <v>15940</v>
+        <v>16207</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2801,10 +2801,10 @@
         <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>31.22335795574465</v>
+        <v>49.06754764264296</v>
       </c>
       <c r="E75" t="n">
-        <v>17658</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2818,10 +2818,10 @@
         <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>21.48456074518713</v>
+        <v>35.6640910148149</v>
       </c>
       <c r="E76" t="n">
-        <v>56541</v>
+        <v>10590</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2835,10 +2835,10 @@
         <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>232.9926163685945</v>
+        <v>230.8425615466637</v>
       </c>
       <c r="E77" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2852,10 +2852,10 @@
         <v>11</v>
       </c>
       <c r="D78" t="n">
-        <v>236.5187348566315</v>
+        <v>236.5677261656505</v>
       </c>
       <c r="E78" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2869,10 +2869,10 @@
         <v>11</v>
       </c>
       <c r="D79" t="n">
-        <v>221.2490290723111</v>
+        <v>218.5341617358014</v>
       </c>
       <c r="E79" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2886,10 +2886,10 @@
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>188.5236241083817</v>
+        <v>187.2512013585165</v>
       </c>
       <c r="E80" t="n">
-        <v>274</v>
+        <v>311</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2903,10 +2903,10 @@
         <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>217.8911243845241</v>
+        <v>271.6057906066146</v>
       </c>
       <c r="E81" t="n">
-        <v>46</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2920,10 +2920,10 @@
         <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>201.3776471390393</v>
+        <v>202.1996239455098</v>
       </c>
       <c r="E82" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2937,10 +2937,10 @@
         <v>11</v>
       </c>
       <c r="D83" t="n">
-        <v>240.1089445674966</v>
+        <v>241.1536397278636</v>
       </c>
       <c r="E83" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2954,10 +2954,10 @@
         <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>191.3932638212605</v>
+        <v>192.691783597129</v>
       </c>
       <c r="E84" t="n">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2971,10 +2971,10 @@
         <v>11</v>
       </c>
       <c r="D85" t="n">
-        <v>218.7866638131652</v>
+        <v>217.9788087033086</v>
       </c>
       <c r="E85" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2988,10 +2988,10 @@
         <v>11</v>
       </c>
       <c r="D86" t="n">
-        <v>272.3791839897644</v>
+        <v>270.5671867624785</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3005,10 +3005,10 @@
         <v>11</v>
       </c>
       <c r="D87" t="n">
-        <v>241.9979471334033</v>
+        <v>240.352561474376</v>
       </c>
       <c r="E87" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3022,10 +3022,10 @@
         <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>138.1391411421813</v>
+        <v>197.1878995879708</v>
       </c>
       <c r="E88" t="n">
-        <v>2131</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3039,10 +3039,10 @@
         <v>11</v>
       </c>
       <c r="D89" t="n">
-        <v>258.9671803748074</v>
+        <v>259.5796349184878</v>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3056,10 +3056,10 @@
         <v>11</v>
       </c>
       <c r="D90" t="n">
-        <v>206.6625235040227</v>
+        <v>207.2921005169985</v>
       </c>
       <c r="E90" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3073,10 +3073,10 @@
         <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>181.5196448258423</v>
+        <v>181.658521814726</v>
       </c>
       <c r="E91" t="n">
-        <v>406</v>
+        <v>421</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3090,10 +3090,10 @@
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>110.9958318008096</v>
+        <v>167.8536251921047</v>
       </c>
       <c r="E92" t="n">
-        <v>5041</v>
+        <v>775</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3107,10 +3107,10 @@
         <v>11</v>
       </c>
       <c r="D93" t="n">
-        <v>182.7079346159859</v>
+        <v>183.1284307532612</v>
       </c>
       <c r="E93" t="n">
-        <v>385</v>
+        <v>393</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3124,10 +3124,10 @@
         <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>255.1065541010892</v>
+        <v>283.2194579319729</v>
       </c>
       <c r="E94" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3141,10 +3141,10 @@
         <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>176.684502459713</v>
+        <v>175.9903124350467</v>
       </c>
       <c r="E95" t="n">
-        <v>506</v>
+        <v>538</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3158,10 +3158,10 @@
         <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>187.6622103981058</v>
+        <v>187.7634000200486</v>
       </c>
       <c r="E96" t="n">
-        <v>289</v>
+        <v>302</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3175,10 +3175,10 @@
         <v>11</v>
       </c>
       <c r="D97" t="n">
-        <v>239.6494300600664</v>
+        <v>239.6455315723245</v>
       </c>
       <c r="E97" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3192,10 +3192,10 @@
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>217.0193379774787</v>
+        <v>212.8384732909217</v>
       </c>
       <c r="E98" t="n">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3209,7 +3209,7 @@
         <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>223.2496795302134</v>
+        <v>223.8554821189631</v>
       </c>
       <c r="E99" t="n">
         <v>35</v>
@@ -3226,10 +3226,10 @@
         <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>204.9941241701604</v>
+        <v>206.5730682527065</v>
       </c>
       <c r="E100" t="n">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3243,10 +3243,10 @@
         <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>204.8974685173293</v>
+        <v>206.3987445581912</v>
       </c>
       <c r="E101" t="n">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3260,10 +3260,10 @@
         <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>213.2139670489096</v>
+        <v>218.5790968454245</v>
       </c>
       <c r="E102" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3277,10 +3277,10 @@
         <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>225.494046612752</v>
+        <v>224.6795240505941</v>
       </c>
       <c r="E103" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3294,7 +3294,7 @@
         <v>6</v>
       </c>
       <c r="D104" t="n">
-        <v>189.7207553825478</v>
+        <v>190.9614412080029</v>
       </c>
       <c r="E104" t="n">
         <v>258</v>
@@ -3311,10 +3311,10 @@
         <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>230.1380412292353</v>
+        <v>230.3907463722743</v>
       </c>
       <c r="E105" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3328,10 +3328,10 @@
         <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>82.73330044298739</v>
+        <v>82.46015611025359</v>
       </c>
       <c r="E106" t="n">
-        <v>22810</v>
+        <v>25582</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3345,10 +3345,10 @@
         <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>197.8482824638442</v>
+        <v>198.0855326000472</v>
       </c>
       <c r="E107" t="n">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3362,10 +3362,10 @@
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>219.8840128393535</v>
+        <v>218.4498950268238</v>
       </c>
       <c r="E108" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3379,10 +3379,10 @@
         <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>172.4580826506439</v>
+        <v>171.5190322732205</v>
       </c>
       <c r="E109" t="n">
-        <v>601</v>
+        <v>657</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3396,10 +3396,10 @@
         <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>241.9307047850919</v>
+        <v>244.3557342976804</v>
       </c>
       <c r="E110" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3413,10 +3413,10 @@
         <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>251.0316249460711</v>
+        <v>249.7740227300907</v>
       </c>
       <c r="E111" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3430,10 +3430,10 @@
         <v>6</v>
       </c>
       <c r="D112" t="n">
-        <v>240.4773550969087</v>
+        <v>242.644809870402</v>
       </c>
       <c r="E112" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3447,10 +3447,10 @@
         <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>197.853117813468</v>
+        <v>199.6253099933182</v>
       </c>
       <c r="E113" t="n">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3464,10 +3464,10 @@
         <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>208.9537730813587</v>
+        <v>211.9391925360099</v>
       </c>
       <c r="E114" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3481,10 +3481,10 @@
         <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>131.4428560218161</v>
+        <v>138.3418521517285</v>
       </c>
       <c r="E115" t="n">
-        <v>5</v>
+        <v>115</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3498,10 +3498,10 @@
         <v>11</v>
       </c>
       <c r="D116" t="n">
-        <v>103.0341711770624</v>
+        <v>148.659753419933</v>
       </c>
       <c r="E116" t="n">
-        <v>760</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3515,10 +3515,10 @@
         <v>11</v>
       </c>
       <c r="D117" t="n">
-        <v>131.9571655744307</v>
+        <v>178.5874998382297</v>
       </c>
       <c r="E117" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3532,10 +3532,10 @@
         <v>11</v>
       </c>
       <c r="D118" t="n">
-        <v>94.24073670817681</v>
+        <v>138.6409822382917</v>
       </c>
       <c r="E118" t="n">
-        <v>2691</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3549,10 +3549,10 @@
         <v>11</v>
       </c>
       <c r="D119" t="n">
-        <v>125.1009490482023</v>
+        <v>168.8743486934284</v>
       </c>
       <c r="E119" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3566,10 +3566,10 @@
         <v>11</v>
       </c>
       <c r="D120" t="n">
-        <v>118.3106680353945</v>
+        <v>165.4560165284932</v>
       </c>
       <c r="E120" t="n">
-        <v>85</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3583,10 +3583,10 @@
         <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>141.272570542261</v>
+        <v>143.8290567289143</v>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3600,10 +3600,10 @@
         <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>97.23513306499419</v>
+        <v>128.2233698677844</v>
       </c>
       <c r="E122" t="n">
-        <v>1742</v>
+        <v>276</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3617,10 +3617,10 @@
         <v>11</v>
       </c>
       <c r="D123" t="n">
-        <v>92.35398883759513</v>
+        <v>135.2623255845721</v>
       </c>
       <c r="E123" t="n">
-        <v>3487</v>
+        <v>164</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3634,10 +3634,10 @@
         <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>127.6159062092758</v>
+        <v>130.1190628059315</v>
       </c>
       <c r="E124" t="n">
-        <v>28</v>
+        <v>231</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3651,10 +3651,10 @@
         <v>11</v>
       </c>
       <c r="D125" t="n">
-        <v>108.4296728127382</v>
+        <v>153.7339186461381</v>
       </c>
       <c r="E125" t="n">
-        <v>324</v>
+        <v>27</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3668,10 +3668,10 @@
         <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>122.8915079233957</v>
+        <v>168.5462335477322</v>
       </c>
       <c r="E126" t="n">
-        <v>53</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3685,10 +3685,10 @@
         <v>11</v>
       </c>
       <c r="D127" t="n">
-        <v>97.92247409787298</v>
+        <v>142.1557847102891</v>
       </c>
       <c r="E127" t="n">
-        <v>1588</v>
+        <v>76</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3702,10 +3702,10 @@
         <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>110.3520475429441</v>
+        <v>157.0001633078676</v>
       </c>
       <c r="E128" t="n">
-        <v>249</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3719,10 +3719,10 @@
         <v>6</v>
       </c>
       <c r="D129" t="n">
-        <v>109.1323493899981</v>
+        <v>155.2418221289529</v>
       </c>
       <c r="E129" t="n">
-        <v>295</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3736,10 +3736,10 @@
         <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>55.34549582451048</v>
+        <v>58.300568757154</v>
       </c>
       <c r="E130" t="n">
-        <v>115803</v>
+        <v>107491</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3753,10 +3753,10 @@
         <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>58.44395405212036</v>
+        <v>61.53389725441492</v>
       </c>
       <c r="E131" t="n">
-        <v>98938</v>
+        <v>90769</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3770,10 +3770,10 @@
         <v>11</v>
       </c>
       <c r="D132" t="n">
-        <v>127.1019383988361</v>
+        <v>125.6304354344327</v>
       </c>
       <c r="E132" t="n">
-        <v>33</v>
+        <v>364</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3787,10 +3787,10 @@
         <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>116.5857756339792</v>
+        <v>161.6171364875621</v>
       </c>
       <c r="E133" t="n">
-        <v>103</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3804,10 +3804,10 @@
         <v>11</v>
       </c>
       <c r="D134" t="n">
-        <v>108.1647955806125</v>
+        <v>152.2038749108194</v>
       </c>
       <c r="E134" t="n">
-        <v>344</v>
+        <v>31</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3821,10 +3821,10 @@
         <v>11</v>
       </c>
       <c r="D135" t="n">
-        <v>124.1995071174013</v>
+        <v>167.611273749088</v>
       </c>
       <c r="E135" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3838,10 +3838,10 @@
         <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>86.29472725512618</v>
+        <v>129.3951487516678</v>
       </c>
       <c r="E136" t="n">
-        <v>7765</v>
+        <v>247</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3855,10 +3855,10 @@
         <v>11</v>
       </c>
       <c r="D137" t="n">
-        <v>104.5458463380128</v>
+        <v>148.886417504612</v>
       </c>
       <c r="E137" t="n">
-        <v>593</v>
+        <v>46</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3872,10 +3872,10 @@
         <v>11</v>
       </c>
       <c r="D138" t="n">
-        <v>96.23143137156742</v>
+        <v>140.9166963435752</v>
       </c>
       <c r="E138" t="n">
-        <v>2019</v>
+        <v>91</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3889,10 +3889,10 @@
         <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>92.95079030984712</v>
+        <v>136.4381658996191</v>
       </c>
       <c r="E139" t="n">
-        <v>3228</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3906,10 +3906,10 @@
         <v>11</v>
       </c>
       <c r="D140" t="n">
-        <v>99.37234590447153</v>
+        <v>143.8542485397269</v>
       </c>
       <c r="E140" t="n">
-        <v>1275</v>
+        <v>72</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3923,10 +3923,10 @@
         <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>51.13348585569675</v>
+        <v>51.31982213793962</v>
       </c>
       <c r="E141" t="n">
-        <v>137750</v>
+        <v>143006</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3940,10 +3940,10 @@
         <v>11</v>
       </c>
       <c r="D142" t="n">
-        <v>100.5779970267756</v>
+        <v>127.7844811644455</v>
       </c>
       <c r="E142" t="n">
-        <v>1054</v>
+        <v>285</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3957,10 +3957,10 @@
         <v>11</v>
       </c>
       <c r="D143" t="n">
-        <v>116.0591377598749</v>
+        <v>137.8899373370618</v>
       </c>
       <c r="E143" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3974,10 +3974,10 @@
         <v>11</v>
       </c>
       <c r="D144" t="n">
-        <v>131.0108287390768</v>
+        <v>175.8837279161529</v>
       </c>
       <c r="E144" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3991,10 +3991,10 @@
         <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>129.1177621509081</v>
+        <v>129.6062594800329</v>
       </c>
       <c r="E145" t="n">
-        <v>9</v>
+        <v>240</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4008,10 +4008,10 @@
         <v>11</v>
       </c>
       <c r="D146" t="n">
-        <v>134.8534450717716</v>
+        <v>135.7096009653254</v>
       </c>
       <c r="E146" t="n">
-        <v>2</v>
+        <v>157</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4025,10 +4025,10 @@
         <v>6</v>
       </c>
       <c r="D147" t="n">
-        <v>130.5679714640738</v>
+        <v>133.2453402574461</v>
       </c>
       <c r="E147" t="n">
-        <v>8</v>
+        <v>187</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4042,10 +4042,10 @@
         <v>6</v>
       </c>
       <c r="D148" t="n">
-        <v>78.82660492232256</v>
+        <v>78.57170977393358</v>
       </c>
       <c r="E148" t="n">
-        <v>18632</v>
+        <v>24293</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4059,10 +4059,10 @@
         <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>78.82660492232256</v>
+        <v>78.57170977393358</v>
       </c>
       <c r="E149" t="n">
-        <v>18631</v>
+        <v>24292</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4076,10 +4076,10 @@
         <v>11</v>
       </c>
       <c r="D150" t="n">
-        <v>107.6195744562897</v>
+        <v>150.2014093830794</v>
       </c>
       <c r="E150" t="n">
-        <v>371</v>
+        <v>41</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4093,10 +4093,10 @@
         <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>102.104579030875</v>
+        <v>102.3152693052733</v>
       </c>
       <c r="E151" t="n">
-        <v>864</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4110,10 +4110,10 @@
         <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>97.17595284279889</v>
+        <v>140.3492208473958</v>
       </c>
       <c r="E152" t="n">
-        <v>1754</v>
+        <v>93</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4127,10 +4127,10 @@
         <v>6</v>
       </c>
       <c r="D153" t="n">
-        <v>78.88995044676024</v>
+        <v>79.27876920485096</v>
       </c>
       <c r="E153" t="n">
-        <v>18526</v>
+        <v>22628</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4144,10 +4144,10 @@
         <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>94.77981101753679</v>
+        <v>141.6940751596805</v>
       </c>
       <c r="E154" t="n">
-        <v>2496</v>
+        <v>79</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4161,10 +4161,10 @@
         <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>82.98556622489605</v>
+        <v>128.9930417543665</v>
       </c>
       <c r="E155" t="n">
-        <v>11626</v>
+        <v>255</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4178,10 +4178,10 @@
         <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>102.0232037547891</v>
+        <v>145.0215910388015</v>
       </c>
       <c r="E156" t="n">
-        <v>869</v>
+        <v>63</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4195,10 +4195,10 @@
         <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>89.82275807474068</v>
+        <v>134.0894531942781</v>
       </c>
       <c r="E157" t="n">
-        <v>4899</v>
+        <v>177</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4212,10 +4212,10 @@
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>80.22676634838652</v>
+        <v>123.1600274482943</v>
       </c>
       <c r="E158" t="n">
-        <v>15963</v>
+        <v>449</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4229,10 +4229,10 @@
         <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>86.07836452983267</v>
+        <v>131.394317815702</v>
       </c>
       <c r="E159" t="n">
-        <v>7989</v>
+        <v>210</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4246,10 +4246,10 @@
         <v>6</v>
       </c>
       <c r="D160" t="n">
-        <v>104.2069741738686</v>
+        <v>151.1400786006392</v>
       </c>
       <c r="E160" t="n">
-        <v>628</v>
+        <v>39</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4263,10 +4263,10 @@
         <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>45.25423078869809</v>
+        <v>91.92607718372135</v>
       </c>
       <c r="E161" t="n">
-        <v>166013</v>
+        <v>6186</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4280,10 +4280,10 @@
         <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>35.74722752880613</v>
+        <v>77.66750492491441</v>
       </c>
       <c r="E162" t="n">
-        <v>203038</v>
+        <v>26517</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4297,10 +4297,10 @@
         <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>54.96797399833473</v>
+        <v>98.20569515940637</v>
       </c>
       <c r="E163" t="n">
-        <v>117718</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4314,10 +4314,10 @@
         <v>11</v>
       </c>
       <c r="D164" t="n">
-        <v>116.3077159936518</v>
+        <v>161.0959113251059</v>
       </c>
       <c r="E164" t="n">
-        <v>113</v>
+        <v>15</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4331,10 +4331,10 @@
         <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>115.6548030837175</v>
+        <v>118.2810482096035</v>
       </c>
       <c r="E165" t="n">
-        <v>124</v>
+        <v>597</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4348,10 +4348,10 @@
         <v>11</v>
       </c>
       <c r="D166" t="n">
-        <v>99.40865061605137</v>
+        <v>144.9092697442088</v>
       </c>
       <c r="E166" t="n">
-        <v>1268</v>
+        <v>65</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4365,10 +4365,10 @@
         <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>87.98912842717426</v>
+        <v>133.7955302379937</v>
       </c>
       <c r="E167" t="n">
-        <v>6262</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4382,10 +4382,10 @@
         <v>11</v>
       </c>
       <c r="D168" t="n">
-        <v>114.3920768876239</v>
+        <v>161.5944434364296</v>
       </c>
       <c r="E168" t="n">
-        <v>153</v>
+        <v>14</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4399,10 +4399,10 @@
         <v>11</v>
       </c>
       <c r="D169" t="n">
-        <v>86.14933471733904</v>
+        <v>130.6500270411711</v>
       </c>
       <c r="E169" t="n">
-        <v>7920</v>
+        <v>219</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4416,10 +4416,10 @@
         <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>74.78210110532369</v>
+        <v>120.6129292158388</v>
       </c>
       <c r="E170" t="n">
-        <v>28414</v>
+        <v>527</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4433,10 +4433,10 @@
         <v>6</v>
       </c>
       <c r="D171" t="n">
-        <v>101.1787043820739</v>
+        <v>145.9032518289953</v>
       </c>
       <c r="E171" t="n">
-        <v>974</v>
+        <v>58</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4450,10 +4450,10 @@
         <v>11</v>
       </c>
       <c r="D172" t="n">
-        <v>76.38567553183375</v>
+        <v>121.1867477160912</v>
       </c>
       <c r="E172" t="n">
-        <v>24120</v>
+        <v>508</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4467,10 +4467,10 @@
         <v>11</v>
       </c>
       <c r="D173" t="n">
-        <v>65.37657876534084</v>
+        <v>110.3108518171624</v>
       </c>
       <c r="E173" t="n">
-        <v>63730</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4484,10 +4484,10 @@
         <v>6</v>
       </c>
       <c r="D174" t="n">
-        <v>118.1691085744301</v>
+        <v>122.4170747088228</v>
       </c>
       <c r="E174" t="n">
-        <v>803</v>
+        <v>640</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4501,10 +4501,10 @@
         <v>6</v>
       </c>
       <c r="D175" t="n">
-        <v>149.8007501373704</v>
+        <v>157.8409203501737</v>
       </c>
       <c r="E175" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4518,10 +4518,10 @@
         <v>6</v>
       </c>
       <c r="D176" t="n">
-        <v>144.3996078034899</v>
+        <v>152.4787657709884</v>
       </c>
       <c r="E176" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4535,10 +4535,10 @@
         <v>6</v>
       </c>
       <c r="D177" t="n">
-        <v>138.2177225644618</v>
+        <v>145.5879053762472</v>
       </c>
       <c r="E177" t="n">
-        <v>83</v>
+        <v>33</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4552,10 +4552,10 @@
         <v>11</v>
       </c>
       <c r="D178" t="n">
-        <v>156.6512596664101</v>
+        <v>156.1094264483559</v>
       </c>
       <c r="E178" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4569,10 +4569,10 @@
         <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>31.39196590042399</v>
+        <v>37.20103306891706</v>
       </c>
       <c r="E179" t="n">
-        <v>194672</v>
+        <v>172807</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4586,10 +4586,10 @@
         <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>118.2563849677421</v>
+        <v>118.2908963588159</v>
       </c>
       <c r="E180" t="n">
-        <v>796</v>
+        <v>937</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4603,10 +4603,10 @@
         <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>141.4143000336829</v>
+        <v>143.7391710664093</v>
       </c>
       <c r="E181" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4620,10 +4620,10 @@
         <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>99.45125892375559</v>
+        <v>100.8174830174711</v>
       </c>
       <c r="E182" t="n">
-        <v>3253</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4637,10 +4637,10 @@
         <v>11</v>
       </c>
       <c r="D183" t="n">
-        <v>107.3698988720655</v>
+        <v>106.9880644332331</v>
       </c>
       <c r="E183" t="n">
-        <v>1877</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4654,10 +4654,10 @@
         <v>11</v>
       </c>
       <c r="D184" t="n">
-        <v>107.5289617063289</v>
+        <v>107.8413326583959</v>
       </c>
       <c r="E184" t="n">
-        <v>1848</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4671,10 +4671,10 @@
         <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>95.73583316550594</v>
+        <v>96.19352051216202</v>
       </c>
       <c r="E185" t="n">
-        <v>4177</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4688,10 +4688,10 @@
         <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>104.5013200273602</v>
+        <v>111.0215186785607</v>
       </c>
       <c r="E186" t="n">
-        <v>2307</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4705,10 +4705,10 @@
         <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>130.8980321729707</v>
+        <v>130.3548490133956</v>
       </c>
       <c r="E187" t="n">
-        <v>222</v>
+        <v>294</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4722,10 +4722,10 @@
         <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>99.18198595118952</v>
+        <v>98.21611783406945</v>
       </c>
       <c r="E188" t="n">
-        <v>3312</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4739,10 +4739,10 @@
         <v>11</v>
       </c>
       <c r="D189" t="n">
-        <v>142.8978682935717</v>
+        <v>141.7060945365633</v>
       </c>
       <c r="E189" t="n">
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4756,10 +4756,10 @@
         <v>11</v>
       </c>
       <c r="D190" t="n">
-        <v>77.79226394181782</v>
+        <v>77.43325757006237</v>
       </c>
       <c r="E190" t="n">
-        <v>12848</v>
+        <v>14912</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4773,10 +4773,10 @@
         <v>6</v>
       </c>
       <c r="D191" t="n">
-        <v>120.6820211355416</v>
+        <v>119.591624037992</v>
       </c>
       <c r="E191" t="n">
-        <v>619</v>
+        <v>822</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4790,10 +4790,10 @@
         <v>6</v>
       </c>
       <c r="D192" t="n">
-        <v>58.14504721452674</v>
+        <v>57.93069189267411</v>
       </c>
       <c r="E192" t="n">
-        <v>55782</v>
+        <v>64331</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4807,10 +4807,10 @@
         <v>11</v>
       </c>
       <c r="D193" t="n">
-        <v>109.7696876685714</v>
+        <v>107.2598577373738</v>
       </c>
       <c r="E193" t="n">
-        <v>1543</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4824,10 +4824,10 @@
         <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>80.53104405020103</v>
+        <v>80.66177750165096</v>
       </c>
       <c r="E194" t="n">
-        <v>10697</v>
+        <v>12055</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4841,10 +4841,10 @@
         <v>6</v>
       </c>
       <c r="D195" t="n">
-        <v>148.0983188446919</v>
+        <v>162.778110869054</v>
       </c>
       <c r="E195" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4858,10 +4858,10 @@
         <v>11</v>
       </c>
       <c r="D196" t="n">
-        <v>143.4637385269439</v>
+        <v>143.367914793929</v>
       </c>
       <c r="E196" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4875,10 +4875,10 @@
         <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>143.4637385269439</v>
+        <v>143.367914793929</v>
       </c>
       <c r="E197" t="n">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4892,10 +4892,10 @@
         <v>11</v>
       </c>
       <c r="D198" t="n">
-        <v>128.2550920486715</v>
+        <v>130.0106340508229</v>
       </c>
       <c r="E198" t="n">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4909,10 +4909,10 @@
         <v>6</v>
       </c>
       <c r="D199" t="n">
-        <v>136.6324900145194</v>
+        <v>142.5974411735264</v>
       </c>
       <c r="E199" t="n">
-        <v>108</v>
+        <v>67</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4926,10 +4926,10 @@
         <v>11</v>
       </c>
       <c r="D200" t="n">
-        <v>148.5983490491666</v>
+        <v>149.5031565099177</v>
       </c>
       <c r="E200" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4943,10 +4943,10 @@
         <v>6</v>
       </c>
       <c r="D201" t="n">
-        <v>93.27506022348304</v>
+        <v>92.90213268521597</v>
       </c>
       <c r="E201" t="n">
-        <v>4901</v>
+        <v>5608</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4960,10 +4960,10 @@
         <v>11</v>
       </c>
       <c r="D202" t="n">
-        <v>119.2106960933479</v>
+        <v>122.531724991948</v>
       </c>
       <c r="E202" t="n">
-        <v>720</v>
+        <v>633</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4977,10 +4977,10 @@
         <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>76.78978951344585</v>
+        <v>76.99777521875022</v>
       </c>
       <c r="E203" t="n">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4994,10 +4994,10 @@
         <v>11</v>
       </c>
       <c r="D204" t="n">
-        <v>81.6774447946035</v>
+        <v>81.79154124817293</v>
       </c>
       <c r="E204" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5011,10 +5011,10 @@
         <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>69.85691776047548</v>
+        <v>69.8700368369437</v>
       </c>
       <c r="E205" t="n">
-        <v>614</v>
+        <v>601</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5028,10 +5028,10 @@
         <v>11</v>
       </c>
       <c r="D206" t="n">
-        <v>77.19384192917352</v>
+        <v>77.48278514655327</v>
       </c>
       <c r="E206" t="n">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5045,7 +5045,7 @@
         <v>6</v>
       </c>
       <c r="D207" t="n">
-        <v>90.61299236117642</v>
+        <v>90.42837262129977</v>
       </c>
       <c r="E207" t="n">
         <v>1</v>
@@ -5062,10 +5062,10 @@
         <v>6</v>
       </c>
       <c r="D208" t="n">
-        <v>35.74468722141327</v>
+        <v>35.66841821167557</v>
       </c>
       <c r="E208" t="n">
-        <v>80173</v>
+        <v>80410</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5079,10 +5079,10 @@
         <v>6</v>
       </c>
       <c r="D209" t="n">
-        <v>77.52579031365872</v>
+        <v>77.75370360800106</v>
       </c>
       <c r="E209" t="n">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5096,10 +5096,10 @@
         <v>11</v>
       </c>
       <c r="D210" t="n">
-        <v>77.85782243381253</v>
+        <v>78.04642827044225</v>
       </c>
       <c r="E210" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5113,10 +5113,10 @@
         <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>39.59870156764219</v>
+        <v>39.56127547291728</v>
       </c>
       <c r="E211" t="n">
-        <v>55747</v>
+        <v>55778</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5130,10 +5130,10 @@
         <v>11</v>
       </c>
       <c r="D212" t="n">
-        <v>76.94506571686937</v>
+        <v>76.81984104100533</v>
       </c>
       <c r="E212" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5147,10 +5147,10 @@
         <v>6</v>
       </c>
       <c r="D213" t="n">
-        <v>71.31292735931618</v>
+        <v>71.03949733941286</v>
       </c>
       <c r="E213" t="n">
-        <v>458</v>
+        <v>475</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5164,10 +5164,10 @@
         <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>62.9319390469552</v>
+        <v>62.70081372177322</v>
       </c>
       <c r="E214" t="n">
-        <v>2610</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5181,10 +5181,10 @@
         <v>11</v>
       </c>
       <c r="D215" t="n">
-        <v>85.48440485901391</v>
+        <v>85.41939149560184</v>
       </c>
       <c r="E215" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5198,10 +5198,10 @@
         <v>6</v>
       </c>
       <c r="D216" t="n">
-        <v>88.60130778796429</v>
+        <v>88.1022575205792</v>
       </c>
       <c r="E216" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5215,10 +5215,10 @@
         <v>6</v>
       </c>
       <c r="D217" t="n">
-        <v>78.08368862098079</v>
+        <v>77.87116951271798</v>
       </c>
       <c r="E217" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5232,10 +5232,10 @@
         <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>78.99063170414898</v>
+        <v>78.95570018988799</v>
       </c>
       <c r="E218" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5249,10 +5249,10 @@
         <v>6</v>
       </c>
       <c r="D219" t="n">
-        <v>78.51236830485243</v>
+        <v>78.47006528890518</v>
       </c>
       <c r="E219" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5266,10 +5266,10 @@
         <v>6</v>
       </c>
       <c r="D220" t="n">
-        <v>66.14616333047202</v>
+        <v>66.12277743275936</v>
       </c>
       <c r="E220" t="n">
-        <v>1476</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5283,10 +5283,10 @@
         <v>6</v>
       </c>
       <c r="D221" t="n">
-        <v>87.61705944429372</v>
+        <v>87.16641822611309</v>
       </c>
       <c r="E221" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5300,10 +5300,10 @@
         <v>6</v>
       </c>
       <c r="D222" t="n">
-        <v>62.48953739814604</v>
+        <v>62.48442971808394</v>
       </c>
       <c r="E222" t="n">
-        <v>2821</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5317,10 +5317,10 @@
         <v>6</v>
       </c>
       <c r="D223" t="n">
-        <v>64.5989321885169</v>
+        <v>64.6023596153277</v>
       </c>
       <c r="E223" t="n">
-        <v>1931</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5334,10 +5334,10 @@
         <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>24.35181649526763</v>
+        <v>24.24044425948101</v>
       </c>
       <c r="E224" t="n">
-        <v>168467</v>
+        <v>169348</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5351,10 +5351,10 @@
         <v>6</v>
       </c>
       <c r="D225" t="n">
-        <v>71.54703100827361</v>
+        <v>71.25534400819575</v>
       </c>
       <c r="E225" t="n">
-        <v>438</v>
+        <v>460</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5368,10 +5368,10 @@
         <v>6</v>
       </c>
       <c r="D226" t="n">
-        <v>58.67825753833822</v>
+        <v>58.66375252371449</v>
       </c>
       <c r="E226" t="n">
-        <v>5426</v>
+        <v>5386</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5385,10 +5385,10 @@
         <v>6</v>
       </c>
       <c r="D227" t="n">
-        <v>63.05713941087322</v>
+        <v>63.11849818047379</v>
       </c>
       <c r="E227" t="n">
-        <v>2540</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5402,10 +5402,10 @@
         <v>6</v>
       </c>
       <c r="D228" t="n">
-        <v>66.06064267554341</v>
+        <v>65.73200305680629</v>
       </c>
       <c r="E228" t="n">
-        <v>1494</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5419,10 +5419,10 @@
         <v>6</v>
       </c>
       <c r="D229" t="n">
-        <v>62.9817691067384</v>
+        <v>62.81582487491719</v>
       </c>
       <c r="E229" t="n">
-        <v>2579</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5436,10 +5436,10 @@
         <v>6</v>
       </c>
       <c r="D230" t="n">
-        <v>88.30312988511011</v>
+        <v>88.51397685654149</v>
       </c>
       <c r="E230" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5453,10 +5453,10 @@
         <v>6</v>
       </c>
       <c r="D231" t="n">
-        <v>76.72945596032925</v>
+        <v>76.6656403720915</v>
       </c>
       <c r="E231" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5470,10 +5470,10 @@
         <v>11</v>
       </c>
       <c r="D232" t="n">
-        <v>79.33808130447618</v>
+        <v>79.02350424764882</v>
       </c>
       <c r="E232" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5487,10 +5487,10 @@
         <v>11</v>
       </c>
       <c r="D233" t="n">
-        <v>73.15257565378414</v>
+        <v>72.08206599211884</v>
       </c>
       <c r="E233" t="n">
-        <v>309</v>
+        <v>386</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5504,10 +5504,10 @@
         <v>6</v>
       </c>
       <c r="D234" t="n">
-        <v>79.64111378628758</v>
+        <v>79.90318026669844</v>
       </c>
       <c r="E234" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5521,10 +5521,10 @@
         <v>6</v>
       </c>
       <c r="D235" t="n">
-        <v>77.54085426458698</v>
+        <v>77.15968245582884</v>
       </c>
       <c r="E235" t="n">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5538,10 +5538,10 @@
         <v>6</v>
       </c>
       <c r="D236" t="n">
-        <v>37.74182943696255</v>
+        <v>37.50186312720557</v>
       </c>
       <c r="E236" t="n">
-        <v>66601</v>
+        <v>67913</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5555,10 +5555,10 @@
         <v>6</v>
       </c>
       <c r="D237" t="n">
-        <v>28.55972000984561</v>
+        <v>28.57002506785867</v>
       </c>
       <c r="E237" t="n">
-        <v>135002</v>
+        <v>134856</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5572,10 +5572,10 @@
         <v>11</v>
       </c>
       <c r="D238" t="n">
-        <v>76.79672957606685</v>
+        <v>76.50700728388848</v>
       </c>
       <c r="E238" t="n">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5589,10 +5589,10 @@
         <v>11</v>
       </c>
       <c r="D239" t="n">
-        <v>64.03098034746078</v>
+        <v>64.3497418362539</v>
       </c>
       <c r="E239" t="n">
-        <v>2140</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5606,10 +5606,10 @@
         <v>6</v>
       </c>
       <c r="D240" t="n">
-        <v>54.51359065436124</v>
+        <v>54.59501857052238</v>
       </c>
       <c r="E240" t="n">
-        <v>10000</v>
+        <v>9760</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5623,10 +5623,10 @@
         <v>11</v>
       </c>
       <c r="D241" t="n">
-        <v>74.20409451694832</v>
+        <v>74.38845766830198</v>
       </c>
       <c r="E241" t="n">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5640,10 +5640,10 @@
         <v>6</v>
       </c>
       <c r="D242" t="n">
-        <v>28.03837529666417</v>
+        <v>28.08704140825175</v>
       </c>
       <c r="E242" t="n">
-        <v>139289</v>
+        <v>138830</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5657,10 +5657,10 @@
         <v>11</v>
       </c>
       <c r="D243" t="n">
-        <v>77.89586378331607</v>
+        <v>78.21136885927081</v>
       </c>
       <c r="E243" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5674,10 +5674,10 @@
         <v>6</v>
       </c>
       <c r="D244" t="n">
-        <v>31.16608276474516</v>
+        <v>31.09723094771789</v>
       </c>
       <c r="E244" t="n">
-        <v>114394</v>
+        <v>114755</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5691,7 +5691,7 @@
         <v>11</v>
       </c>
       <c r="D245" t="n">
-        <v>87.87184966320751</v>
+        <v>88.0790366115713</v>
       </c>
       <c r="E245" t="n">
         <v>5</v>
@@ -5708,10 +5708,10 @@
         <v>6</v>
       </c>
       <c r="D246" t="n">
-        <v>62.72127879595624</v>
+        <v>62.73742376755283</v>
       </c>
       <c r="E246" t="n">
-        <v>2714</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5725,10 +5725,10 @@
         <v>6</v>
       </c>
       <c r="D247" t="n">
-        <v>58.17981080864045</v>
+        <v>58.42001443036248</v>
       </c>
       <c r="E247" t="n">
-        <v>5905</v>
+        <v>5639</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5742,10 +5742,10 @@
         <v>11</v>
       </c>
       <c r="D248" t="n">
-        <v>45.11011291881562</v>
+        <v>45.1503061941598</v>
       </c>
       <c r="E248" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5759,10 +5759,10 @@
         <v>6</v>
       </c>
       <c r="D249" t="n">
-        <v>34.1044661745719</v>
+        <v>53.85094404377063</v>
       </c>
       <c r="E249" t="n">
-        <v>175</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5776,10 +5776,10 @@
         <v>6</v>
       </c>
       <c r="D250" t="n">
-        <v>19.4395883630058</v>
+        <v>42.8702522136824</v>
       </c>
       <c r="E250" t="n">
-        <v>26019</v>
+        <v>37</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5793,10 +5793,10 @@
         <v>6</v>
       </c>
       <c r="D251" t="n">
-        <v>26.47164502424886</v>
+        <v>55.21138647701662</v>
       </c>
       <c r="E251" t="n">
-        <v>2122</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5810,10 +5810,10 @@
         <v>11</v>
       </c>
       <c r="D252" t="n">
-        <v>44.14053452239479</v>
+        <v>44.08249097354131</v>
       </c>
       <c r="E252" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5827,10 +5827,10 @@
         <v>6</v>
       </c>
       <c r="D253" t="n">
-        <v>22.7934493395982</v>
+        <v>57.14716524774659</v>
       </c>
       <c r="E253" t="n">
-        <v>8503</v>
+        <v>6</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5844,10 +5844,10 @@
         <v>6</v>
       </c>
       <c r="D254" t="n">
-        <v>26.85421926986773</v>
+        <v>45.14729509322296</v>
       </c>
       <c r="E254" t="n">
-        <v>1841</v>
+        <v>26</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5861,10 +5861,10 @@
         <v>6</v>
       </c>
       <c r="D255" t="n">
-        <v>49.06471494718105</v>
+        <v>49.04273049094025</v>
       </c>
       <c r="E255" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5878,10 +5878,10 @@
         <v>11</v>
       </c>
       <c r="D256" t="n">
-        <v>34.73515511577776</v>
+        <v>34.76143582625674</v>
       </c>
       <c r="E256" t="n">
-        <v>145</v>
+        <v>184</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5895,10 +5895,10 @@
         <v>6</v>
       </c>
       <c r="D257" t="n">
-        <v>17.22471751055107</v>
+        <v>52.72415009489426</v>
       </c>
       <c r="E257" t="n">
-        <v>48929</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5912,10 +5912,10 @@
         <v>6</v>
       </c>
       <c r="D258" t="n">
-        <v>44.25391288469774</v>
+        <v>44.33390686693989</v>
       </c>
       <c r="E258" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5929,10 +5929,10 @@
         <v>11</v>
       </c>
       <c r="D259" t="n">
-        <v>32.34508643708717</v>
+        <v>32.26200172112148</v>
       </c>
       <c r="E259" t="n">
-        <v>299</v>
+        <v>342</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5946,10 +5946,10 @@
         <v>6</v>
       </c>
       <c r="D260" t="n">
-        <v>23.20659121033357</v>
+        <v>60.12976807287423</v>
       </c>
       <c r="E260" t="n">
-        <v>7290</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5963,10 +5963,10 @@
         <v>6</v>
       </c>
       <c r="D261" t="n">
-        <v>23.71944663093175</v>
+        <v>57.99894145845988</v>
       </c>
       <c r="E261" t="n">
-        <v>6061</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5980,10 +5980,10 @@
         <v>6</v>
       </c>
       <c r="D262" t="n">
-        <v>39.08735754374705</v>
+        <v>39.09861461735762</v>
       </c>
       <c r="E262" t="n">
-        <v>49</v>
+        <v>81</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5997,10 +5997,10 @@
         <v>11</v>
       </c>
       <c r="D263" t="n">
-        <v>55.54213899811108</v>
+        <v>55.6872554125319</v>
       </c>
       <c r="E263" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6014,10 +6014,10 @@
         <v>6</v>
       </c>
       <c r="D264" t="n">
-        <v>30.53868479431044</v>
+        <v>67.35988591712282</v>
       </c>
       <c r="E264" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6031,10 +6031,10 @@
         <v>6</v>
       </c>
       <c r="D265" t="n">
-        <v>46.0638877894866</v>
+        <v>46.1044795931589</v>
       </c>
       <c r="E265" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6048,10 +6048,10 @@
         <v>6</v>
       </c>
       <c r="D266" t="n">
-        <v>43.45740276203873</v>
+        <v>43.18535452630442</v>
       </c>
       <c r="E266" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6065,10 +6065,10 @@
         <v>6</v>
       </c>
       <c r="D267" t="n">
-        <v>43.17562208206861</v>
+        <v>43.26415391708753</v>
       </c>
       <c r="E267" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6082,10 +6082,10 @@
         <v>6</v>
       </c>
       <c r="D268" t="n">
-        <v>30.85158784640917</v>
+        <v>65.78615282216975</v>
       </c>
       <c r="E268" t="n">
-        <v>473</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -6099,10 +6099,10 @@
         <v>6</v>
       </c>
       <c r="D269" t="n">
-        <v>18.24142026293211</v>
+        <v>53.10355653055343</v>
       </c>
       <c r="E269" t="n">
-        <v>37330</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -6116,10 +6116,10 @@
         <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>50.89643109370076</v>
+        <v>50.88301460880147</v>
       </c>
       <c r="E270" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -6133,10 +6133,10 @@
         <v>6</v>
       </c>
       <c r="D271" t="n">
-        <v>39.43867672815888</v>
+        <v>39.33015980106143</v>
       </c>
       <c r="E271" t="n">
-        <v>44</v>
+        <v>77</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6150,10 +6150,10 @@
         <v>6</v>
       </c>
       <c r="D272" t="n">
-        <v>22.12470361663323</v>
+        <v>55.71405115690226</v>
       </c>
       <c r="E272" t="n">
-        <v>10752</v>
+        <v>8</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -6167,10 +6167,10 @@
         <v>11</v>
       </c>
       <c r="D273" t="n">
-        <v>37.48324490001835</v>
+        <v>37.26114927409525</v>
       </c>
       <c r="E273" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -6184,10 +6184,10 @@
         <v>11</v>
       </c>
       <c r="D274" t="n">
-        <v>24.67651103617983</v>
+        <v>24.80698195047643</v>
       </c>
       <c r="E274" t="n">
-        <v>1825</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -6201,10 +6201,10 @@
         <v>11</v>
       </c>
       <c r="D275" t="n">
-        <v>17.07113935494069</v>
+        <v>17.15070862222791</v>
       </c>
       <c r="E275" t="n">
-        <v>32939</v>
+        <v>32131</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -6218,10 +6218,10 @@
         <v>6</v>
       </c>
       <c r="D276" t="n">
-        <v>36.95570024101426</v>
+        <v>37.17035916463865</v>
       </c>
       <c r="E276" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -6235,10 +6235,10 @@
         <v>11</v>
       </c>
       <c r="D277" t="n">
-        <v>20.32395153533662</v>
+        <v>20.451053769601</v>
       </c>
       <c r="E277" t="n">
-        <v>10219</v>
+        <v>9724</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -6252,10 +6252,10 @@
         <v>11</v>
       </c>
       <c r="D278" t="n">
-        <v>22.71085539767358</v>
+        <v>22.63022685009791</v>
       </c>
       <c r="E278" t="n">
-        <v>3987</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -6269,10 +6269,10 @@
         <v>6</v>
       </c>
       <c r="D279" t="n">
-        <v>22.76421648063223</v>
+        <v>22.6498956133075</v>
       </c>
       <c r="E279" t="n">
-        <v>3883</v>
+        <v>4057</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -6286,10 +6286,10 @@
         <v>6</v>
       </c>
       <c r="D280" t="n">
-        <v>25.69414311470678</v>
+        <v>25.62397941518083</v>
       </c>
       <c r="E280" t="n">
-        <v>1247</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -6303,10 +6303,10 @@
         <v>11</v>
       </c>
       <c r="D281" t="n">
-        <v>34.82865965162159</v>
+        <v>34.82630941018984</v>
       </c>
       <c r="E281" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -6320,10 +6320,10 @@
         <v>6</v>
       </c>
       <c r="D282" t="n">
-        <v>17.16755317265035</v>
+        <v>17.1858004529299</v>
       </c>
       <c r="E282" t="n">
-        <v>31879</v>
+        <v>31714</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -6337,10 +6337,10 @@
         <v>11</v>
       </c>
       <c r="D283" t="n">
-        <v>23.0165662481232</v>
+        <v>22.91089661646392</v>
       </c>
       <c r="E283" t="n">
-        <v>3523</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -6354,10 +6354,10 @@
         <v>11</v>
       </c>
       <c r="D284" t="n">
-        <v>33.21239984302349</v>
+        <v>32.94259281002151</v>
       </c>
       <c r="E284" t="n">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -6371,10 +6371,10 @@
         <v>11</v>
       </c>
       <c r="D285" t="n">
-        <v>33.17813376118912</v>
+        <v>32.96909048916638</v>
       </c>
       <c r="E285" t="n">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -6388,10 +6388,10 @@
         <v>6</v>
       </c>
       <c r="D286" t="n">
-        <v>37.85434731567923</v>
+        <v>37.59295068088655</v>
       </c>
       <c r="E286" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -6405,10 +6405,10 @@
         <v>11</v>
       </c>
       <c r="D287" t="n">
-        <v>29.02765324318416</v>
+        <v>29.04022739978951</v>
       </c>
       <c r="E287" t="n">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -6422,10 +6422,10 @@
         <v>6</v>
       </c>
       <c r="D288" t="n">
-        <v>38.25436105964927</v>
+        <v>38.22151075201685</v>
       </c>
       <c r="E288" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -6439,10 +6439,10 @@
         <v>6</v>
       </c>
       <c r="D289" t="n">
-        <v>38.25436105964927</v>
+        <v>38.22151075201685</v>
       </c>
       <c r="E289" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -6456,10 +6456,10 @@
         <v>11</v>
       </c>
       <c r="D290" t="n">
-        <v>31.66471318519481</v>
+        <v>31.68247129159726</v>
       </c>
       <c r="E290" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -6473,10 +6473,10 @@
         <v>6</v>
       </c>
       <c r="D291" t="n">
-        <v>19.66307986191922</v>
+        <v>19.64702212887073</v>
       </c>
       <c r="E291" t="n">
-        <v>13122</v>
+        <v>13243</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -6490,10 +6490,10 @@
         <v>6</v>
       </c>
       <c r="D292" t="n">
-        <v>18.58320098148319</v>
+        <v>18.6161407231172</v>
       </c>
       <c r="E292" t="n">
-        <v>19671</v>
+        <v>19444</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -6507,10 +6507,10 @@
         <v>6</v>
       </c>
       <c r="D293" t="n">
-        <v>29.17741312954644</v>
+        <v>29.27397730618652</v>
       </c>
       <c r="E293" t="n">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -6524,10 +6524,10 @@
         <v>6</v>
       </c>
       <c r="D294" t="n">
-        <v>29.52675786080859</v>
+        <v>29.55239006667065</v>
       </c>
       <c r="E294" t="n">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -6541,10 +6541,10 @@
         <v>6</v>
       </c>
       <c r="D295" t="n">
-        <v>16.9899741599746</v>
+        <v>16.87883182985473</v>
       </c>
       <c r="E295" t="n">
-        <v>33829</v>
+        <v>35104</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -6558,10 +6558,10 @@
         <v>11</v>
       </c>
       <c r="D296" t="n">
-        <v>31.34214387026449</v>
+        <v>31.34635775847327</v>
       </c>
       <c r="E296" t="n">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -6575,10 +6575,10 @@
         <v>6</v>
       </c>
       <c r="D297" t="n">
-        <v>17.26496353316252</v>
+        <v>17.20751448369029</v>
       </c>
       <c r="E297" t="n">
-        <v>30879</v>
+        <v>31480</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -6592,10 +6592,10 @@
         <v>11</v>
       </c>
       <c r="D298" t="n">
-        <v>27.69843989697192</v>
+        <v>27.68783721483868</v>
       </c>
       <c r="E298" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -6609,10 +6609,10 @@
         <v>6</v>
       </c>
       <c r="D299" t="n">
-        <v>24.23802861620666</v>
+        <v>24.30551835738061</v>
       </c>
       <c r="E299" t="n">
-        <v>2144</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -6626,10 +6626,10 @@
         <v>11</v>
       </c>
       <c r="D300" t="n">
-        <v>28.67568898075045</v>
+        <v>28.81573147901042</v>
       </c>
       <c r="E300" t="n">
-        <v>457</v>
+        <v>444</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -6643,10 +6643,10 @@
         <v>6</v>
       </c>
       <c r="D301" t="n">
-        <v>26.71186864951529</v>
+        <v>26.80391530480922</v>
       </c>
       <c r="E301" t="n">
-        <v>894</v>
+        <v>865</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -6660,10 +6660,10 @@
         <v>6</v>
       </c>
       <c r="D302" t="n">
-        <v>26.71186864951529</v>
+        <v>26.80391530480922</v>
       </c>
       <c r="E302" t="n">
-        <v>893</v>
+        <v>864</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -6677,10 +6677,10 @@
         <v>6</v>
       </c>
       <c r="D303" t="n">
-        <v>24.51144800114863</v>
+        <v>24.46732014227078</v>
       </c>
       <c r="E303" t="n">
-        <v>1946</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -6694,10 +6694,10 @@
         <v>6</v>
       </c>
       <c r="D304" t="n">
-        <v>71.13629315057311</v>
+        <v>73.73687429745438</v>
       </c>
       <c r="E304" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -6711,10 +6711,10 @@
         <v>11</v>
       </c>
       <c r="D305" t="n">
-        <v>83.02638030556508</v>
+        <v>85.22539310345786</v>
       </c>
       <c r="E305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -6728,10 +6728,10 @@
         <v>6</v>
       </c>
       <c r="D306" t="n">
-        <v>67.72961453837543</v>
+        <v>70.50803562363848</v>
       </c>
       <c r="E306" t="n">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -6745,10 +6745,10 @@
         <v>6</v>
       </c>
       <c r="D307" t="n">
-        <v>61.55795172120571</v>
+        <v>64.57255308440649</v>
       </c>
       <c r="E307" t="n">
-        <v>200</v>
+        <v>156</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -6762,10 +6762,10 @@
         <v>6</v>
       </c>
       <c r="D308" t="n">
-        <v>40.01641535950752</v>
+        <v>43.09804897212769</v>
       </c>
       <c r="E308" t="n">
-        <v>18745</v>
+        <v>13221</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -6779,10 +6779,10 @@
         <v>6</v>
       </c>
       <c r="D309" t="n">
-        <v>37.68237030460138</v>
+        <v>40.67109722858496</v>
       </c>
       <c r="E309" t="n">
-        <v>29547</v>
+        <v>21899</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -6796,10 +6796,10 @@
         <v>6</v>
       </c>
       <c r="D310" t="n">
-        <v>75.20799875946619</v>
+        <v>77.54271897512491</v>
       </c>
       <c r="E310" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -6813,10 +6813,10 @@
         <v>11</v>
       </c>
       <c r="D311" t="n">
-        <v>58.52963031321976</v>
+        <v>59.95952527056944</v>
       </c>
       <c r="E311" t="n">
-        <v>348</v>
+        <v>363</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -6830,10 +6830,10 @@
         <v>6</v>
       </c>
       <c r="D312" t="n">
-        <v>73.36476780686307</v>
+        <v>74.66426069018755</v>
       </c>
       <c r="E312" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -6847,7 +6847,7 @@
         <v>6</v>
       </c>
       <c r="D313" t="n">
-        <v>77.44790866536319</v>
+        <v>78.65978406376549</v>
       </c>
       <c r="E313" t="n">
         <v>6</v>
@@ -6864,10 +6864,10 @@
         <v>6</v>
       </c>
       <c r="D314" t="n">
-        <v>13.66297939880449</v>
+        <v>13.61565917380837</v>
       </c>
       <c r="E314" t="n">
-        <v>234671</v>
+        <v>240440</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -6881,10 +6881,10 @@
         <v>6</v>
       </c>
       <c r="D315" t="n">
-        <v>38.75897163061491</v>
+        <v>38.69203554253335</v>
       </c>
       <c r="E315" t="n">
-        <v>24148</v>
+        <v>31480</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -6898,10 +6898,10 @@
         <v>6</v>
       </c>
       <c r="D316" t="n">
-        <v>29.21228122833343</v>
+        <v>32.32678949071974</v>
       </c>
       <c r="E316" t="n">
-        <v>99241</v>
+        <v>80099</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -6915,7 +6915,7 @@
         <v>11</v>
       </c>
       <c r="D317" t="n">
-        <v>80.69387615293272</v>
+        <v>81.76868586732004</v>
       </c>
       <c r="E317" t="n">
         <v>5</v>
@@ -6932,10 +6932,10 @@
         <v>11</v>
       </c>
       <c r="D318" t="n">
-        <v>75.58073559390577</v>
+        <v>77.68882527509275</v>
       </c>
       <c r="E318" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -6949,10 +6949,10 @@
         <v>6</v>
       </c>
       <c r="D319" t="n">
-        <v>49.61968571155813</v>
+        <v>50.98278534641611</v>
       </c>
       <c r="E319" t="n">
-        <v>2179</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -6966,7 +6966,7 @@
         <v>6</v>
       </c>
       <c r="D320" t="n">
-        <v>85.45562055289999</v>
+        <v>86.63651999419879</v>
       </c>
       <c r="E320" t="n">
         <v>1</v>
@@ -6983,10 +6983,10 @@
         <v>6</v>
       </c>
       <c r="D321" t="n">
-        <v>71.20081284830354</v>
+        <v>72.71296985296152</v>
       </c>
       <c r="E321" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -7000,10 +7000,10 @@
         <v>11</v>
       </c>
       <c r="D322" t="n">
-        <v>51.74383853536617</v>
+        <v>51.80126888578134</v>
       </c>
       <c r="E322" t="n">
-        <v>1389</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -7017,10 +7017,10 @@
         <v>11</v>
       </c>
       <c r="D323" t="n">
-        <v>70.08215214172954</v>
+        <v>70.16240888764784</v>
       </c>
       <c r="E323" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -7034,10 +7034,10 @@
         <v>6</v>
       </c>
       <c r="D324" t="n">
-        <v>71.45348200348627</v>
+        <v>71.55982493452264</v>
       </c>
       <c r="E324" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -7051,7 +7051,7 @@
         <v>6</v>
       </c>
       <c r="D325" t="n">
-        <v>82.06980149658042</v>
+        <v>81.90071215290826</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -7068,10 +7068,10 @@
         <v>11</v>
       </c>
       <c r="D326" t="n">
-        <v>65.92081422564551</v>
+        <v>68.56277032774744</v>
       </c>
       <c r="E326" t="n">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -7085,10 +7085,10 @@
         <v>6</v>
       </c>
       <c r="D327" t="n">
-        <v>83.08519293782982</v>
+        <v>83.35537070925744</v>
       </c>
       <c r="E327" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -7102,10 +7102,10 @@
         <v>6</v>
       </c>
       <c r="D328" t="n">
-        <v>70.51605471074467</v>
+        <v>72.57512857609304</v>
       </c>
       <c r="E328" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -7119,10 +7119,10 @@
         <v>6</v>
       </c>
       <c r="D329" t="n">
-        <v>58.83086924242179</v>
+        <v>60.85769923504982</v>
       </c>
       <c r="E329" t="n">
-        <v>335</v>
+        <v>304</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -7136,10 +7136,10 @@
         <v>6</v>
       </c>
       <c r="D330" t="n">
-        <v>33.03115069004023</v>
+        <v>35.07399904475336</v>
       </c>
       <c r="E330" t="n">
-        <v>62501</v>
+        <v>56463</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -7153,10 +7153,10 @@
         <v>6</v>
       </c>
       <c r="D331" t="n">
-        <v>67.56112352777613</v>
+        <v>66.79207797679</v>
       </c>
       <c r="E331" t="n">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -7170,10 +7170,10 @@
         <v>6</v>
       </c>
       <c r="D332" t="n">
-        <v>75.87674744809303</v>
+        <v>76.25481280469977</v>
       </c>
       <c r="E332" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -7187,10 +7187,10 @@
         <v>6</v>
       </c>
       <c r="D333" t="n">
-        <v>69.12758814084954</v>
+        <v>69.88692867779304</v>
       </c>
       <c r="E333" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -7204,10 +7204,10 @@
         <v>6</v>
       </c>
       <c r="D334" t="n">
-        <v>68.24977883756502</v>
+        <v>67.52383169675296</v>
       </c>
       <c r="E334" t="n">
-        <v>65</v>
+        <v>93</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -7221,10 +7221,10 @@
         <v>6</v>
       </c>
       <c r="D335" t="n">
-        <v>49.19810295914316</v>
+        <v>51.02130627211476</v>
       </c>
       <c r="E335" t="n">
-        <v>2401</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -7238,10 +7238,10 @@
         <v>6</v>
       </c>
       <c r="D336" t="n">
-        <v>69.0580532501438</v>
+        <v>70.98704439581272</v>
       </c>
       <c r="E336" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -7255,10 +7255,10 @@
         <v>6</v>
       </c>
       <c r="D337" t="n">
-        <v>37.22539618081134</v>
+        <v>40.26194400644373</v>
       </c>
       <c r="E337" t="n">
-        <v>32048</v>
+        <v>23708</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -7272,10 +7272,10 @@
         <v>6</v>
       </c>
       <c r="D338" t="n">
-        <v>39.03835333510425</v>
+        <v>41.6855545964732</v>
       </c>
       <c r="E338" t="n">
-        <v>22772</v>
+        <v>17822</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -7289,10 +7289,10 @@
         <v>6</v>
       </c>
       <c r="D339" t="n">
-        <v>45.74786887522988</v>
+        <v>48.86484337647016</v>
       </c>
       <c r="E339" t="n">
-        <v>5308</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -7306,10 +7306,10 @@
         <v>6</v>
       </c>
       <c r="D340" t="n">
-        <v>63.09993425738114</v>
+        <v>65.77828053314292</v>
       </c>
       <c r="E340" t="n">
-        <v>155</v>
+        <v>128</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -7323,10 +7323,10 @@
         <v>6</v>
       </c>
       <c r="D341" t="n">
-        <v>36.8891806249816</v>
+        <v>39.40484800524123</v>
       </c>
       <c r="E341" t="n">
-        <v>33982</v>
+        <v>27747</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -7340,10 +7340,10 @@
         <v>6</v>
       </c>
       <c r="D342" t="n">
-        <v>41.24006169400118</v>
+        <v>44.19850194971933</v>
       </c>
       <c r="E342" t="n">
-        <v>14529</v>
+        <v>10549</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -7357,10 +7357,10 @@
         <v>6</v>
       </c>
       <c r="D343" t="n">
-        <v>28.31883943320135</v>
+        <v>28.33588719440577</v>
       </c>
       <c r="E343" t="n">
-        <v>108675</v>
+        <v>120392</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -7374,10 +7374,10 @@
         <v>11</v>
       </c>
       <c r="D344" t="n">
-        <v>26.54619097776025</v>
+        <v>26.6004906341443</v>
       </c>
       <c r="E344" t="n">
-        <v>14857</v>
+        <v>14518</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -7391,10 +7391,10 @@
         <v>6</v>
       </c>
       <c r="D345" t="n">
-        <v>30.19829894939318</v>
+        <v>30.09893230557194</v>
       </c>
       <c r="E345" t="n">
-        <v>4238</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -7408,10 +7408,10 @@
         <v>6</v>
       </c>
       <c r="D346" t="n">
-        <v>25.38328192717577</v>
+        <v>25.3658782106936</v>
       </c>
       <c r="E346" t="n">
-        <v>20826</v>
+        <v>20771</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -7425,10 +7425,10 @@
         <v>11</v>
       </c>
       <c r="D347" t="n">
-        <v>33.44918996059266</v>
+        <v>33.078243080113</v>
       </c>
       <c r="E347" t="n">
-        <v>1174</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -7442,10 +7442,10 @@
         <v>11</v>
       </c>
       <c r="D348" t="n">
-        <v>33.44918996059266</v>
+        <v>33.11479157778189</v>
       </c>
       <c r="E348" t="n">
-        <v>1173</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -7459,10 +7459,10 @@
         <v>6</v>
       </c>
       <c r="D349" t="n">
-        <v>25.42810759363968</v>
+        <v>25.47498455375696</v>
       </c>
       <c r="E349" t="n">
-        <v>20579</v>
+        <v>20176</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -7476,10 +7476,10 @@
         <v>6</v>
       </c>
       <c r="D350" t="n">
-        <v>16.66314890388317</v>
+        <v>16.71952594229273</v>
       </c>
       <c r="E350" t="n">
-        <v>126930</v>
+        <v>125962</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -7493,10 +7493,10 @@
         <v>6</v>
       </c>
       <c r="D351" t="n">
-        <v>30.85680615371766</v>
+        <v>31.03996489857707</v>
       </c>
       <c r="E351" t="n">
-        <v>3279</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -7510,10 +7510,10 @@
         <v>11</v>
       </c>
       <c r="D352" t="n">
-        <v>29.26636989072914</v>
+        <v>53.99785911202568</v>
       </c>
       <c r="E352" t="n">
-        <v>6029</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -7527,10 +7527,10 @@
         <v>6</v>
       </c>
       <c r="D353" t="n">
-        <v>18.17695530125541</v>
+        <v>18.18906729265141</v>
       </c>
       <c r="E353" t="n">
-        <v>101261</v>
+        <v>101020</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -7544,10 +7544,10 @@
         <v>6</v>
       </c>
       <c r="D354" t="n">
-        <v>26.10775698080968</v>
+        <v>51.46993452042593</v>
       </c>
       <c r="E354" t="n">
-        <v>16901</v>
+        <v>5</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -7561,10 +7561,10 @@
         <v>6</v>
       </c>
       <c r="D355" t="n">
-        <v>34.25748813656635</v>
+        <v>49.09285900360418</v>
       </c>
       <c r="E355" t="n">
-        <v>842</v>
+        <v>6</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -7578,10 +7578,10 @@
         <v>6</v>
       </c>
       <c r="D356" t="n">
-        <v>27.03840430455149</v>
+        <v>43.06793238761557</v>
       </c>
       <c r="E356" t="n">
-        <v>12819</v>
+        <v>19</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -7595,10 +7595,10 @@
         <v>6</v>
       </c>
       <c r="D357" t="n">
-        <v>27.47884210724301</v>
+        <v>27.61910302945874</v>
       </c>
       <c r="E357" t="n">
-        <v>11119</v>
+        <v>10590</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -7612,10 +7612,10 @@
         <v>6</v>
       </c>
       <c r="D358" t="n">
-        <v>31.51550740916054</v>
+        <v>31.18005319748872</v>
       </c>
       <c r="E358" t="n">
-        <v>2591</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -7629,10 +7629,10 @@
         <v>6</v>
       </c>
       <c r="D359" t="n">
-        <v>39.25350566867586</v>
+        <v>39.25822537318255</v>
       </c>
       <c r="E359" t="n">
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -7646,10 +7646,10 @@
         <v>6</v>
       </c>
       <c r="D360" t="n">
-        <v>25.65380001678737</v>
+        <v>54.39064697940582</v>
       </c>
       <c r="E360" t="n">
-        <v>19213</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -7663,10 +7663,10 @@
         <v>6</v>
       </c>
       <c r="D361" t="n">
-        <v>24.48414739796517</v>
+        <v>24.46795649621147</v>
       </c>
       <c r="E361" t="n">
-        <v>26515</v>
+        <v>26600</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -7680,10 +7680,10 @@
         <v>6</v>
       </c>
       <c r="D362" t="n">
-        <v>37.7798266174699</v>
+        <v>37.79075175132512</v>
       </c>
       <c r="E362" t="n">
-        <v>152</v>
+        <v>176</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -7697,10 +7697,10 @@
         <v>6</v>
       </c>
       <c r="D363" t="n">
-        <v>11.01789496963191</v>
+        <v>41.34623038471507</v>
       </c>
       <c r="E363" t="n">
-        <v>217499</v>
+        <v>32</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -7714,10 +7714,10 @@
         <v>6</v>
       </c>
       <c r="D364" t="n">
-        <v>12.76179313123714</v>
+        <v>12.7467723893029</v>
       </c>
       <c r="E364" t="n">
-        <v>190526</v>
+        <v>190720</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -7731,10 +7731,10 @@
         <v>6</v>
       </c>
       <c r="D365" t="n">
-        <v>9.858267242319018</v>
+        <v>9.836932531224843</v>
       </c>
       <c r="E365" t="n">
-        <v>231828</v>
+        <v>232040</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -7748,10 +7748,10 @@
         <v>6</v>
       </c>
       <c r="D366" t="n">
-        <v>19.69769699776484</v>
+        <v>19.66609180300799</v>
       </c>
       <c r="E366" t="n">
-        <v>77987</v>
+        <v>78305</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -7765,10 +7765,10 @@
         <v>6</v>
       </c>
       <c r="D367" t="n">
-        <v>26.22106722270636</v>
+        <v>25.91947713783273</v>
       </c>
       <c r="E367" t="n">
-        <v>16333</v>
+        <v>17779</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -7782,10 +7782,10 @@
         <v>6</v>
       </c>
       <c r="D368" t="n">
-        <v>19.70188986337794</v>
+        <v>19.67283227010844</v>
       </c>
       <c r="E368" t="n">
-        <v>77904</v>
+        <v>78205</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -7799,10 +7799,10 @@
         <v>6</v>
       </c>
       <c r="D369" t="n">
-        <v>26.61975951568861</v>
+        <v>47.49654201185368</v>
       </c>
       <c r="E369" t="n">
-        <v>14513</v>
+        <v>8</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -7816,10 +7816,10 @@
         <v>6</v>
       </c>
       <c r="D370" t="n">
-        <v>12.53414156945779</v>
+        <v>12.47367029503573</v>
       </c>
       <c r="E370" t="n">
-        <v>194352</v>
+        <v>195272</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -7833,10 +7833,10 @@
         <v>6</v>
       </c>
       <c r="D371" t="n">
-        <v>21.83082154562521</v>
+        <v>21.7114941959768</v>
       </c>
       <c r="E371" t="n">
-        <v>50561</v>
+        <v>51905</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -7850,10 +7850,10 @@
         <v>6</v>
       </c>
       <c r="D372" t="n">
-        <v>26.06682555538383</v>
+        <v>52.30068004229513</v>
       </c>
       <c r="E372" t="n">
-        <v>17086</v>
+        <v>4</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -7867,10 +7867,10 @@
         <v>6</v>
       </c>
       <c r="D373" t="n">
-        <v>20.93847980033311</v>
+        <v>41.76967273044863</v>
       </c>
       <c r="E373" t="n">
-        <v>61060</v>
+        <v>29</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -7884,10 +7884,10 @@
         <v>6</v>
       </c>
       <c r="D374" t="n">
-        <v>24.74037173284404</v>
+        <v>46.14372563107346</v>
       </c>
       <c r="E374" t="n">
-        <v>24794</v>
+        <v>9</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -7901,10 +7901,10 @@
         <v>11</v>
       </c>
       <c r="D375" t="n">
-        <v>19.92575932043265</v>
+        <v>19.73819163121286</v>
       </c>
       <c r="E375" t="n">
-        <v>74601</v>
+        <v>77256</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -7918,10 +7918,10 @@
         <v>6</v>
       </c>
       <c r="D376" t="n">
-        <v>23.80433898070079</v>
+        <v>23.73124863047791</v>
       </c>
       <c r="E376" t="n">
-        <v>31403</v>
+        <v>31981</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -7935,10 +7935,10 @@
         <v>6</v>
       </c>
       <c r="D377" t="n">
-        <v>24.2669102654662</v>
+        <v>24.23613228047251</v>
       </c>
       <c r="E377" t="n">
-        <v>28047</v>
+        <v>28170</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -7952,10 +7952,10 @@
         <v>6</v>
       </c>
       <c r="D378" t="n">
-        <v>31.51652630201296</v>
+        <v>31.67210566171718</v>
       </c>
       <c r="E378" t="n">
-        <v>2589</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -7969,10 +7969,10 @@
         <v>6</v>
       </c>
       <c r="D379" t="n">
-        <v>33.5748778206621</v>
+        <v>33.64374006970372</v>
       </c>
       <c r="E379" t="n">
-        <v>1107</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -7986,10 +7986,10 @@
         <v>11</v>
       </c>
       <c r="D380" t="n">
-        <v>34.30644778743958</v>
+        <v>34.40551298000693</v>
       </c>
       <c r="E380" t="n">
-        <v>823</v>
+        <v>809</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -8003,10 +8003,10 @@
         <v>6</v>
       </c>
       <c r="D381" t="n">
-        <v>18.90747782697407</v>
+        <v>45.09609189274413</v>
       </c>
       <c r="E381" t="n">
-        <v>89732</v>
+        <v>13</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -8020,10 +8020,10 @@
         <v>6</v>
       </c>
       <c r="D382" t="n">
-        <v>14.57570330890344</v>
+        <v>14.45558869416511</v>
       </c>
       <c r="E382" t="n">
-        <v>161907</v>
+        <v>163793</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -8037,10 +8037,10 @@
         <v>6</v>
       </c>
       <c r="D383" t="n">
-        <v>19.19664457502775</v>
+        <v>41.9011161683827</v>
       </c>
       <c r="E383" t="n">
-        <v>85268</v>
+        <v>26</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -8054,10 +8054,10 @@
         <v>6</v>
       </c>
       <c r="D384" t="n">
-        <v>20.21839755332246</v>
+        <v>45.52318017973364</v>
       </c>
       <c r="E384" t="n">
-        <v>70494</v>
+        <v>11</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -8071,10 +8071,10 @@
         <v>6</v>
       </c>
       <c r="D385" t="n">
-        <v>33.9476106148517</v>
+        <v>53.36816581527325</v>
       </c>
       <c r="E385" t="n">
-        <v>946</v>
+        <v>3</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -8088,10 +8088,10 @@
         <v>6</v>
       </c>
       <c r="D386" t="n">
-        <v>15.61486458760313</v>
+        <v>15.63264470502136</v>
       </c>
       <c r="E386" t="n">
-        <v>144789</v>
+        <v>144480</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -8105,10 +8105,10 @@
         <v>11</v>
       </c>
       <c r="D387" t="n">
-        <v>17.85026288334438</v>
+        <v>17.84999428382803</v>
       </c>
       <c r="E387" t="n">
-        <v>106807</v>
+        <v>106684</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -8122,10 +8122,10 @@
         <v>6</v>
       </c>
       <c r="D388" t="n">
-        <v>28.77147040562764</v>
+        <v>28.65987062105016</v>
       </c>
       <c r="E388" t="n">
-        <v>7139</v>
+        <v>7439</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -8139,10 +8139,10 @@
         <v>6</v>
       </c>
       <c r="D389" t="n">
-        <v>26.44864666228535</v>
+        <v>26.47383631301096</v>
       </c>
       <c r="E389" t="n">
-        <v>15305</v>
+        <v>15116</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -8156,10 +8156,10 @@
         <v>6</v>
       </c>
       <c r="D390" t="n">
-        <v>17.89648536005454</v>
+        <v>17.83701754034684</v>
       </c>
       <c r="E390" t="n">
-        <v>106020</v>
+        <v>106875</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -8173,10 +8173,10 @@
         <v>6</v>
       </c>
       <c r="D391" t="n">
-        <v>15.65444627150259</v>
+        <v>15.61092944347773</v>
       </c>
       <c r="E391" t="n">
-        <v>144111</v>
+        <v>144829</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -8190,10 +8190,10 @@
         <v>11</v>
       </c>
       <c r="D392" t="n">
-        <v>28.72704606904627</v>
+        <v>28.57071558163276</v>
       </c>
       <c r="E392" t="n">
-        <v>7285</v>
+        <v>7680</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -8207,10 +8207,10 @@
         <v>6</v>
       </c>
       <c r="D393" t="n">
-        <v>13.88133714161181</v>
+        <v>13.87089768593665</v>
       </c>
       <c r="E393" t="n">
-        <v>173195</v>
+        <v>173345</v>
       </c>
     </row>
   </sheetData>
@@ -8284,7 +8284,7 @@
         <v>387</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0.6</v>
@@ -8293,7 +8293,7 @@
         <v>0.4</v>
       </c>
       <c r="H2" t="n">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="I2" t="n">
         <v>0.2</v>
@@ -8302,10 +8302,10 @@
         <v>0.15</v>
       </c>
       <c r="K2" t="n">
-        <v>0.052</v>
+        <v>0.056</v>
       </c>
       <c r="L2" t="n">
-        <v>0.029</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8322,7 +8322,7 @@
         <v>387</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0.2</v>
@@ -8369,7 +8369,7 @@
         <v>0.6</v>
       </c>
       <c r="H4" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="I4" t="n">
         <v>0.26</v>
@@ -8378,10 +8378,10 @@
         <v>0.21</v>
       </c>
       <c r="K4" t="n">
-        <v>0.074</v>
+        <v>0.078</v>
       </c>
       <c r="L4" t="n">
-        <v>0.041</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -8398,7 +8398,7 @@
         <v>387</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0263</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0.0789</v>
@@ -8407,7 +8407,7 @@
         <v>0.1053</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1579</v>
+        <v>0.1842</v>
       </c>
       <c r="I5" t="n">
         <v>0.2632</v>
@@ -8416,10 +8416,10 @@
         <v>0.3947</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6842</v>
+        <v>0.7368</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7632</v>
+        <v>0.7895</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -8436,7 +8436,7 @@
         <v>387</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.0526</v>
       </c>
       <c r="F6" t="n">
         <v>0.0526</v>
@@ -8483,7 +8483,7 @@
         <v>0.1053</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1579</v>
+        <v>0.1754</v>
       </c>
       <c r="I7" t="n">
         <v>0.2281</v>
@@ -8492,10 +8492,10 @@
         <v>0.3684</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6491</v>
+        <v>0.6842</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7193000000000001</v>
+        <v>0.7368</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8512,7 +8512,7 @@
         <v>387</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0513</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0.1395</v>
@@ -8521,7 +8521,7 @@
         <v>0.1667</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1905</v>
+        <v>0.2222</v>
       </c>
       <c r="I8" t="n">
         <v>0.2273</v>
@@ -8530,10 +8530,10 @@
         <v>0.2174</v>
       </c>
       <c r="K8" t="n">
-        <v>0.09669999999999999</v>
+        <v>0.1041</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0559</v>
+        <v>0.0578</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8550,7 +8550,7 @@
         <v>387</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.0999</v>
       </c>
       <c r="F9" t="n">
         <v>0.0833</v>
@@ -8597,7 +8597,7 @@
         <v>0.1792</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2195</v>
+        <v>0.2439</v>
       </c>
       <c r="I10" t="n">
         <v>0.243</v>
@@ -8606,10 +8606,10 @@
         <v>0.2675</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1329</v>
+        <v>0.14</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0776</v>
+        <v>0.0795</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8626,28 +8626,28 @@
         <v>387</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H11" t="n">
-        <v>0.12</v>
+        <v>0.28</v>
       </c>
       <c r="I11" t="n">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="J11" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="K11" t="n">
-        <v>0.026</v>
+        <v>0.046</v>
       </c>
       <c r="L11" t="n">
-        <v>0.015</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8664,13 +8664,13 @@
         <v>387</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H12" t="n">
         <v>0.16</v>
@@ -8679,13 +8679,13 @@
         <v>0.1</v>
       </c>
       <c r="J12" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02</v>
+        <v>0.044</v>
       </c>
       <c r="L12" t="n">
-        <v>0.014</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -8705,25 +8705,25 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H13" t="n">
-        <v>0.28</v>
+        <v>0.44</v>
       </c>
       <c r="I13" t="n">
-        <v>0.22</v>
+        <v>0.34</v>
       </c>
       <c r="J13" t="n">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="K13" t="n">
-        <v>0.046</v>
+        <v>0.09</v>
       </c>
       <c r="L13" t="n">
-        <v>0.029</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -8740,28 +8740,28 @@
         <v>387</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="G14" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="H14" t="n">
-        <v>0.12</v>
+        <v>0.28</v>
       </c>
       <c r="I14" t="n">
-        <v>0.24</v>
+        <v>0.48</v>
       </c>
       <c r="J14" t="n">
-        <v>0.28</v>
+        <v>0.64</v>
       </c>
       <c r="K14" t="n">
-        <v>0.52</v>
+        <v>0.92</v>
       </c>
       <c r="L14" t="n">
-        <v>0.6</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -8778,13 +8778,13 @@
         <v>387</v>
       </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.0294</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.0588</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.1176</v>
       </c>
       <c r="H15" t="n">
         <v>0.1176</v>
@@ -8793,13 +8793,13 @@
         <v>0.1471</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1765</v>
+        <v>0.2941</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2941</v>
+        <v>0.6471</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4118</v>
+        <v>0.7059</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -8819,25 +8819,25 @@
         <v>0.0169</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0678</v>
+        <v>0.0508</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1186</v>
+        <v>0.1017</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1186</v>
+        <v>0.1864</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1864</v>
+        <v>0.2881</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2203</v>
+        <v>0.4407</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3898</v>
+        <v>0.7627</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4915</v>
+        <v>0.8136</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -8854,28 +8854,28 @@
         <v>387</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.0769</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1333</v>
+        <v>0.2</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1714</v>
+        <v>0.2857</v>
       </c>
       <c r="H17" t="n">
-        <v>0.12</v>
+        <v>0.28</v>
       </c>
       <c r="I17" t="n">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="J17" t="n">
-        <v>0.112</v>
+        <v>0.256</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0495</v>
+        <v>0.0876</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0293</v>
+        <v>0.0468</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -8892,13 +8892,13 @@
         <v>387</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0571</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1025</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1818</v>
+        <v>0.0454</v>
       </c>
       <c r="H18" t="n">
         <v>0.1356</v>
@@ -8907,13 +8907,13 @@
         <v>0.1191</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0896</v>
+        <v>0.1493</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0375</v>
+        <v>0.0824</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0271</v>
+        <v>0.0464</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -8933,25 +8933,25 @@
         <v>0.0332</v>
       </c>
       <c r="F19" t="n">
-        <v>0.125</v>
+        <v>0.09370000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2028</v>
+        <v>0.1739</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1666</v>
+        <v>0.2619</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2018</v>
+        <v>0.3119</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1635</v>
+        <v>0.3271</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0823</v>
+        <v>0.161</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0548</v>
+        <v>0.0907</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -8968,13 +8968,13 @@
         <v>387</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0.4</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H20" t="n">
         <v>0.24</v>
@@ -9006,28 +9006,28 @@
         <v>387</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>0.4</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="J21" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="K21" t="n">
-        <v>0.046</v>
+        <v>0.048</v>
       </c>
       <c r="L21" t="n">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -9050,22 +9050,22 @@
         <v>0.8</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H22" t="n">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="I22" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="J22" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="K22" t="n">
-        <v>0.066</v>
+        <v>0.068</v>
       </c>
       <c r="L22" t="n">
-        <v>0.035</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -9082,13 +9082,13 @@
         <v>387</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0.2</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H23" t="n">
         <v>0.6</v>
@@ -9120,28 +9120,28 @@
         <v>387</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.0357</v>
       </c>
       <c r="F24" t="n">
         <v>0.07140000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1071</v>
+        <v>0.1786</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2143</v>
+        <v>0.25</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3571</v>
+        <v>0.3929</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4643</v>
+        <v>0.5357</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8214</v>
+        <v>0.8571</v>
       </c>
       <c r="L24" t="n">
-        <v>0.8929</v>
+        <v>0.9643</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -9164,22 +9164,22 @@
         <v>0.1053</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1579</v>
+        <v>0.1842</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3158</v>
+        <v>0.3421</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4737</v>
+        <v>0.5</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5789</v>
+        <v>0.6316000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8683999999999999</v>
+        <v>0.8947000000000001</v>
       </c>
       <c r="L25" t="n">
-        <v>0.9211</v>
+        <v>0.9737</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -9196,13 +9196,13 @@
         <v>387</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1818</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0.2667</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H26" t="n">
         <v>0.3429</v>
@@ -9234,28 +9234,28 @@
         <v>387</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.0689</v>
       </c>
       <c r="F27" t="n">
         <v>0.1212</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1578</v>
+        <v>0.2632</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2264</v>
+        <v>0.2642</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2564</v>
+        <v>0.2821</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2031</v>
+        <v>0.2344</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0871</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0486</v>
+        <v>0.0525</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -9278,22 +9278,22 @@
         <v>0.1861</v>
       </c>
       <c r="G28" t="n">
-        <v>0.25</v>
+        <v>0.2917</v>
       </c>
       <c r="H28" t="n">
-        <v>0.381</v>
+        <v>0.4127</v>
       </c>
       <c r="I28" t="n">
-        <v>0.4091</v>
+        <v>0.4318</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3188</v>
+        <v>0.3478</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1227</v>
+        <v>0.1264</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0674</v>
+        <v>0.0713</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -9652,19 +9652,19 @@
         <v>387</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H38" t="n">
         <v>0.08</v>
       </c>
       <c r="I38" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="J38" t="n">
         <v>0.04</v>
@@ -9690,22 +9690,22 @@
         <v>387</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G39" t="n">
         <v>0.2</v>
       </c>
       <c r="H39" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I39" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="J39" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K39" t="n">
         <v>0.016</v>
@@ -9731,19 +9731,19 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H40" t="n">
         <v>0.2</v>
       </c>
-      <c r="G40" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.16</v>
-      </c>
       <c r="I40" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="K40" t="n">
         <v>0.026</v>
@@ -9766,19 +9766,19 @@
         <v>387</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>0.1</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.2</v>
       </c>
       <c r="H41" t="n">
         <v>0.2</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J41" t="n">
         <v>0.4</v>
@@ -9804,22 +9804,22 @@
         <v>387</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>0.0526</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>0.1053</v>
       </c>
       <c r="G42" t="n">
         <v>0.1053</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1053</v>
+        <v>0.1579</v>
       </c>
       <c r="I42" t="n">
-        <v>0.2105</v>
+        <v>0.2632</v>
       </c>
       <c r="J42" t="n">
-        <v>0.3158</v>
+        <v>0.3684</v>
       </c>
       <c r="K42" t="n">
         <v>0.4211</v>
@@ -9845,19 +9845,19 @@
         <v>0.0345</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0345</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1379</v>
+        <v>0.1034</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1379</v>
+        <v>0.1724</v>
       </c>
       <c r="I43" t="n">
-        <v>0.2759</v>
+        <v>0.2414</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3448</v>
+        <v>0.3793</v>
       </c>
       <c r="K43" t="n">
         <v>0.4483</v>
@@ -9880,19 +9880,19 @@
         <v>387</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1818</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1333</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H44" t="n">
         <v>0.1143</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1333</v>
+        <v>0.0667</v>
       </c>
       <c r="J44" t="n">
         <v>0.0727</v>
@@ -9918,22 +9918,22 @@
         <v>387</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>0.0999</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>0.1667</v>
       </c>
       <c r="G45" t="n">
         <v>0.138</v>
       </c>
       <c r="H45" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.1364</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1159</v>
+        <v>0.1449</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1008</v>
+        <v>0.1176</v>
       </c>
       <c r="K45" t="n">
         <v>0.0308</v>
@@ -9959,19 +9959,19 @@
         <v>0.0667</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0588</v>
+        <v>0.1177</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2051</v>
+        <v>0.1538</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1481</v>
+        <v>0.1852</v>
       </c>
       <c r="I46" t="n">
-        <v>0.2025</v>
+        <v>0.1772</v>
       </c>
       <c r="J46" t="n">
-        <v>0.155</v>
+        <v>0.1705</v>
       </c>
       <c r="K46" t="n">
         <v>0.0491</v>
@@ -10336,16 +10336,16 @@
         <v>387</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H56" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I56" t="n">
         <v>0.06</v>
@@ -10374,28 +10374,28 @@
         <v>387</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G57" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H57" t="n">
-        <v>0.24</v>
+        <v>0.52</v>
       </c>
       <c r="I57" t="n">
-        <v>0.16</v>
+        <v>0.36</v>
       </c>
       <c r="J57" t="n">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="K57" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L57" t="n">
         <v>0.02</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0.011</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -10418,22 +10418,22 @@
         <v>0.8</v>
       </c>
       <c r="G58" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H58" t="n">
-        <v>0.36</v>
+        <v>0.6</v>
       </c>
       <c r="I58" t="n">
-        <v>0.22</v>
+        <v>0.42</v>
       </c>
       <c r="J58" t="n">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="K58" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="L58" t="n">
-        <v>0.016</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -10450,16 +10450,16 @@
         <v>387</v>
       </c>
       <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
         <v>0.2</v>
       </c>
-      <c r="F59" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0.6</v>
-      </c>
       <c r="H59" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I59" t="n">
         <v>0.6</v>
@@ -10488,28 +10488,28 @@
         <v>387</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F60" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="G60" t="n">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="H60" t="n">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="I60" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="J60" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L60" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -10532,22 +10532,22 @@
         <v>0.16</v>
       </c>
       <c r="G61" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="H61" t="n">
-        <v>0.36</v>
+        <v>0.6</v>
       </c>
       <c r="I61" t="n">
-        <v>0.44</v>
+        <v>0.84</v>
       </c>
       <c r="J61" t="n">
-        <v>0.44</v>
+        <v>0.92</v>
       </c>
       <c r="K61" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="L61" t="n">
-        <v>0.64</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -10564,16 +10564,16 @@
         <v>387</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3333</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0.4</v>
+        <v>0.1333</v>
       </c>
       <c r="H62" t="n">
-        <v>0.2</v>
+        <v>0.1333</v>
       </c>
       <c r="I62" t="n">
         <v>0.1091</v>
@@ -10602,28 +10602,28 @@
         <v>387</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>0.09520000000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
       <c r="G63" t="n">
-        <v>0.2667</v>
+        <v>0.4667</v>
       </c>
       <c r="H63" t="n">
-        <v>0.2667</v>
+        <v>0.5778</v>
       </c>
       <c r="I63" t="n">
-        <v>0.2286</v>
+        <v>0.5143</v>
       </c>
       <c r="J63" t="n">
-        <v>0.1333</v>
+        <v>0.3333</v>
       </c>
       <c r="K63" t="n">
-        <v>0.0385</v>
+        <v>0.0769</v>
       </c>
       <c r="L63" t="n">
-        <v>0.0216</v>
+        <v>0.0392</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -10646,22 +10646,22 @@
         <v>0.2667</v>
       </c>
       <c r="G64" t="n">
-        <v>0.4</v>
+        <v>0.4571</v>
       </c>
       <c r="H64" t="n">
-        <v>0.36</v>
+        <v>0.6</v>
       </c>
       <c r="I64" t="n">
-        <v>0.2933</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J64" t="n">
-        <v>0.176</v>
+        <v>0.368</v>
       </c>
       <c r="K64" t="n">
-        <v>0.0571</v>
+        <v>0.09520000000000001</v>
       </c>
       <c r="L64" t="n">
-        <v>0.0312</v>
+        <v>0.0488</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -10681,25 +10681,25 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="L65" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -10716,28 +10716,28 @@
         <v>387</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="J66" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="K66" t="n">
-        <v>0.004</v>
+        <v>0.03</v>
       </c>
       <c r="L66" t="n">
-        <v>0.004</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -10754,28 +10754,28 @@
         <v>387</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="J67" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="K67" t="n">
-        <v>0.004</v>
+        <v>0.032</v>
       </c>
       <c r="L67" t="n">
-        <v>0.005</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -10795,25 +10795,25 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="L68" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -10830,28 +10830,28 @@
         <v>387</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>0.0238</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>0.09520000000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>0.1667</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>0.2381</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>0.3095</v>
       </c>
       <c r="J69" t="n">
-        <v>0.0238</v>
+        <v>0.3333</v>
       </c>
       <c r="K69" t="n">
-        <v>0.0476</v>
+        <v>0.3571</v>
       </c>
       <c r="L69" t="n">
-        <v>0.09520000000000001</v>
+        <v>0.3571</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -10868,28 +10868,28 @@
         <v>387</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="J70" t="n">
-        <v>0.02</v>
+        <v>0.3</v>
       </c>
       <c r="K70" t="n">
-        <v>0.04</v>
+        <v>0.32</v>
       </c>
       <c r="L70" t="n">
-        <v>0.1</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -10909,25 +10909,25 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>0.1538</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>0.1111</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>0.0606</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>0.0345</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>0.0185</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>0.0039</v>
       </c>
       <c r="L71" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -10944,28 +10944,28 @@
         <v>387</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>0.0465</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>0.1702</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>0.2693</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>0.2985</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>0.2826</v>
       </c>
       <c r="J72" t="n">
-        <v>0.0141</v>
+        <v>0.1972</v>
       </c>
       <c r="K72" t="n">
-        <v>0.0074</v>
+        <v>0.0554</v>
       </c>
       <c r="L72" t="n">
-        <v>0.0077</v>
+        <v>0.0288</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -10982,28 +10982,28 @@
         <v>387</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>0.0392</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>0.1818</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>0.2667</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>0.2933</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="J73" t="n">
-        <v>0.0133</v>
+        <v>0.2</v>
       </c>
       <c r="K73" t="n">
-        <v>0.0073</v>
+        <v>0.0582</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0095</v>
+        <v>0.0324</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -11032,7 +11032,7 @@
         <v>0.12</v>
       </c>
       <c r="I74" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="J74" t="n">
         <v>0.05</v>
@@ -11073,7 +11073,7 @@
         <v>0.22</v>
       </c>
       <c r="J75" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="K75" t="n">
         <v>0.038</v>
@@ -11108,10 +11108,10 @@
         <v>0.4</v>
       </c>
       <c r="I76" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="J76" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="K76" t="n">
         <v>0.05</v>
@@ -11146,7 +11146,7 @@
         <v>0.4286</v>
       </c>
       <c r="I77" t="n">
-        <v>0.5714</v>
+        <v>0.4286</v>
       </c>
       <c r="J77" t="n">
         <v>0.7143</v>
@@ -11187,7 +11187,7 @@
         <v>0.3333</v>
       </c>
       <c r="J78" t="n">
-        <v>0.4848</v>
+        <v>0.4545</v>
       </c>
       <c r="K78" t="n">
         <v>0.5758</v>
@@ -11222,10 +11222,10 @@
         <v>0.25</v>
       </c>
       <c r="I79" t="n">
-        <v>0.375</v>
+        <v>0.35</v>
       </c>
       <c r="J79" t="n">
-        <v>0.525</v>
+        <v>0.5</v>
       </c>
       <c r="K79" t="n">
         <v>0.625</v>
@@ -11260,7 +11260,7 @@
         <v>0.1875</v>
       </c>
       <c r="I80" t="n">
-        <v>0.1404</v>
+        <v>0.1053</v>
       </c>
       <c r="J80" t="n">
         <v>0.0935</v>
@@ -11301,7 +11301,7 @@
         <v>0.265</v>
       </c>
       <c r="J81" t="n">
-        <v>0.2406</v>
+        <v>0.2256</v>
       </c>
       <c r="K81" t="n">
         <v>0.0713</v>
@@ -11336,10 +11336,10 @@
         <v>0.3077</v>
       </c>
       <c r="I82" t="n">
-        <v>0.3333</v>
+        <v>0.3111</v>
       </c>
       <c r="J82" t="n">
-        <v>0.3</v>
+        <v>0.2857</v>
       </c>
       <c r="K82" t="n">
         <v>0.0926</v>
@@ -11409,7 +11409,7 @@
         <v>0.7</v>
       </c>
       <c r="H84" t="n">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="I84" t="n">
         <v>0.3</v>
@@ -11421,7 +11421,7 @@
         <v>0.03</v>
       </c>
       <c r="L84" t="n">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -11447,7 +11447,7 @@
         <v>0.9</v>
       </c>
       <c r="H85" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I85" t="n">
         <v>0.34</v>
@@ -11459,7 +11459,7 @@
         <v>0.034</v>
       </c>
       <c r="L85" t="n">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -11523,7 +11523,7 @@
         <v>0.4375</v>
       </c>
       <c r="H87" t="n">
-        <v>0.8125</v>
+        <v>0.75</v>
       </c>
       <c r="I87" t="n">
         <v>0.9375</v>
@@ -11535,7 +11535,7 @@
         <v>0.9375</v>
       </c>
       <c r="L87" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -11561,7 +11561,7 @@
         <v>0.5</v>
       </c>
       <c r="H88" t="n">
-        <v>0.8333</v>
+        <v>0.7778</v>
       </c>
       <c r="I88" t="n">
         <v>0.9444</v>
@@ -11573,7 +11573,7 @@
         <v>0.9444</v>
       </c>
       <c r="L88" t="n">
-        <v>1</v>
+        <v>0.9444</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -11637,7 +11637,7 @@
         <v>0.5385</v>
       </c>
       <c r="H90" t="n">
-        <v>0.6341</v>
+        <v>0.5854</v>
       </c>
       <c r="I90" t="n">
         <v>0.4545</v>
@@ -11649,7 +11649,7 @@
         <v>0.0581</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0315</v>
+        <v>0.0295</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -11675,7 +11675,7 @@
         <v>0.6429</v>
       </c>
       <c r="H91" t="n">
-        <v>0.6977</v>
+        <v>0.6512</v>
       </c>
       <c r="I91" t="n">
         <v>0.5</v>
@@ -11687,7 +11687,7 @@
         <v>0.06560000000000001</v>
       </c>
       <c r="L91" t="n">
-        <v>0.0354</v>
+        <v>0.0334</v>
       </c>
     </row>
   </sheetData>
@@ -11761,28 +11761,28 @@
         <v>387</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02631578947368421</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07236842105263158</v>
+        <v>0.04210526315789474</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08289473684210526</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1051378446115288</v>
+        <v>0.08170667052245999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.130203699940542</v>
+        <v>0.101302712205921</v>
       </c>
       <c r="J2" t="n">
-        <v>0.157722475696465</v>
+        <v>0.1280489194966022</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1850104735103063</v>
+        <v>0.1602488437991978</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1877860365364898</v>
+        <v>0.1626843922221833</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -11799,28 +11799,28 @@
         <v>387</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01052631578947368</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02556390977443609</v>
+        <v>0.06766917293233082</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0343358395989975</v>
+        <v>0.07644110275689223</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0343358395989975</v>
+        <v>0.07644110275689223</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04633623481929244</v>
+        <v>0.08827627303126395</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05731031979613423</v>
+        <v>0.09928779170697029</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05847131050820854</v>
+        <v>0.1004466521608573</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -11846,19 +11846,19 @@
         <v>0.08533834586466164</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1143692564745196</v>
+        <v>0.1208919735235525</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1371489879603915</v>
+        <v>0.1383929848173622</v>
       </c>
       <c r="J4" t="n">
-        <v>0.175841786281759</v>
+        <v>0.1761753495646302</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2132510634510221</v>
+        <v>0.2182435090637592</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2171246018611334</v>
+        <v>0.2218155204523812</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -11875,28 +11875,28 @@
         <v>387</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04666666666666666</v>
+        <v>0.09066666666666666</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0638095238095238</v>
+        <v>0.1357460317460317</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0638095238095238</v>
+        <v>0.1715555555555555</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07911255411255411</v>
+        <v>0.2245543915429405</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08240667175961294</v>
+        <v>0.2552598731957907</v>
       </c>
       <c r="K5" t="n">
-        <v>0.09508482310782418</v>
+        <v>0.2864025624872538</v>
       </c>
       <c r="L5" t="n">
-        <v>0.096818647550888</v>
+        <v>0.2882923262667814</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -11913,28 +11913,28 @@
         <v>387</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02941176470588235</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04117647058823529</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06527777777777777</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06527777777777777</v>
+        <v>0.01874057315233786</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0705298786181139</v>
+        <v>0.02251131221719457</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07385951235840246</v>
+        <v>0.03855835222961845</v>
       </c>
       <c r="K6" t="n">
-        <v>0.07981598816660247</v>
+        <v>0.06541024285683293</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08160240736979937</v>
+        <v>0.06787625076219296</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -11954,25 +11954,25 @@
         <v>0.01694915254237288</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06440677966101695</v>
+        <v>0.03841807909604519</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1024078557976863</v>
+        <v>0.07312348668280871</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1024078557976863</v>
+        <v>0.1183476128391382</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1203475432288992</v>
+        <v>0.1572994012337342</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1267773105307671</v>
+        <v>0.2026110144718083</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1436421648714877</v>
+        <v>0.260123630288215</v>
       </c>
       <c r="L7" t="n">
-        <v>0.147163125715828</v>
+        <v>0.2645327362521756</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -11989,28 +11989,28 @@
         <v>387</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.07333333333333333</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2041666666666667</v>
+        <v>0.07333333333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3112556561085973</v>
+        <v>0.1958441558441558</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3482519931049343</v>
+        <v>0.228420987995456</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3580346018005864</v>
+        <v>0.238311097885566</v>
       </c>
       <c r="K8" t="n">
-        <v>0.360632004397989</v>
+        <v>0.2408556271476525</v>
       </c>
       <c r="L8" t="n">
-        <v>0.360632004397989</v>
+        <v>0.2408556271476525</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -12027,28 +12027,28 @@
         <v>387</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02321428571428572</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03511904761904762</v>
+        <v>0.132015306122449</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06770863847931517</v>
+        <v>0.1530889529724933</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09980893352840588</v>
+        <v>0.1878584536581431</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1202144439106965</v>
+        <v>0.2114861956615343</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1568282121405682</v>
+        <v>0.2420437304797428</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1600077895623506</v>
+        <v>0.2463609066068908</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -12068,25 +12068,25 @@
         <v>0.02631578947368421</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08464912280701754</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>0.118640350877193</v>
+        <v>0.1675125313283208</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2169021727010158</v>
+        <v>0.2671060473978094</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2801721430424826</v>
+        <v>0.330344079949404</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3116376049255469</v>
+        <v>0.3651119346934739</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3549276912584958</v>
+        <v>0.4005517169688944</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3582284793839659</v>
+        <v>0.4049620384981997</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -12112,19 +12112,19 @@
         <v>0.01666666666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03055555555555556</v>
+        <v>0.02948717948717949</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03917624521072797</v>
+        <v>0.0391025641025641</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05389481422192551</v>
+        <v>0.0541548729048729</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07560528136258289</v>
+        <v>0.0754802747440111</v>
       </c>
       <c r="L11" t="n">
-        <v>0.07560528136258289</v>
+        <v>0.0754802747440111</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -12147,22 +12147,22 @@
         <v>0.07323232323232323</v>
       </c>
       <c r="G12" t="n">
-        <v>0.09343434343434343</v>
+        <v>0.09054834054834054</v>
       </c>
       <c r="H12" t="n">
-        <v>0.09343434343434343</v>
+        <v>0.09054834054834054</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09343434343434343</v>
+        <v>0.09054834054834054</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1037423975588207</v>
+        <v>0.1007866498750273</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1157119636161305</v>
+        <v>0.1127828714527337</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1164522656593641</v>
+        <v>0.1135391866849225</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -12185,22 +12185,22 @@
         <v>0.07148148148148148</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09</v>
+        <v>0.08735449735449737</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1011111111111111</v>
+        <v>0.09761090761090761</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1064750957854406</v>
+        <v>0.1035938135938136</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1278010155728176</v>
+        <v>0.125048908990492</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1557938757413931</v>
+        <v>0.1528763409261904</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1567348818941256</v>
+        <v>0.1538377016213281</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -12217,28 +12217,28 @@
         <v>387</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.125</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>0.125</v>
+        <v>0.02619047619047619</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1413888888888889</v>
+        <v>0.02619047619047619</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1413888888888889</v>
+        <v>0.03702707110241356</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1431130268199234</v>
+        <v>0.03868270024148641</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1439463601532567</v>
+        <v>0.03963056754006461</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -12255,28 +12255,28 @@
         <v>387</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02046783625730994</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02046783625730994</v>
+        <v>0.09986504723346828</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03171390013495277</v>
+        <v>0.1115077904551589</v>
       </c>
       <c r="J15" t="n">
-        <v>0.04013539775980118</v>
+        <v>0.1227482389304856</v>
       </c>
       <c r="K15" t="n">
-        <v>0.04544333727826701</v>
+        <v>0.1241803907385772</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04759075960326848</v>
+        <v>0.1261786825581577</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -12296,25 +12296,25 @@
         <v>0.03448275862068965</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03448275862068965</v>
+        <v>0.05747126436781608</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07423371647509579</v>
+        <v>0.07471264367816091</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07423371647509579</v>
+        <v>0.09353290387773147</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09808920326161703</v>
+        <v>0.104630082561117</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1076883985910291</v>
+        <v>0.1255303409755641</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1146102431466429</v>
+        <v>0.1284221576702712</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1175316766104976</v>
+        <v>0.1312898174438319</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -12340,19 +12340,19 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.003246753246753247</v>
+        <v>0.003105590062111801</v>
       </c>
       <c r="I17" t="n">
-        <v>0.003246753246753247</v>
+        <v>0.003105590062111801</v>
       </c>
       <c r="J17" t="n">
-        <v>0.004947433518862091</v>
+        <v>0.004847750340857445</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01459291982108481</v>
+        <v>0.01433227742165906</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01560689007795728</v>
+        <v>0.01534784952727856</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -12378,19 +12378,19 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01988481150974322</v>
+        <v>0.02009803921568628</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02747494433706769</v>
+        <v>0.02881263616557734</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02747494433706769</v>
+        <v>0.02881263616557734</v>
       </c>
       <c r="K18" t="n">
-        <v>0.02916103172690884</v>
+        <v>0.03052808014573966</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03014851947173058</v>
+        <v>0.03154869230839535</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -12416,19 +12416,19 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01676967669302633</v>
+        <v>0.01663160355306218</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02197259032466005</v>
+        <v>0.02260531920419718</v>
       </c>
       <c r="J19" t="n">
-        <v>0.02427673779009784</v>
+        <v>0.02496566538830418</v>
       </c>
       <c r="K19" t="n">
-        <v>0.03449176319654887</v>
+        <v>0.03504753992129452</v>
       </c>
       <c r="L19" t="n">
-        <v>0.03644634704195619</v>
+        <v>0.03704329412044694</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -12445,28 +12445,28 @@
         <v>387</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.03822222222222223</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.05822222222222222</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.05822222222222222</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3421950563179949</v>
+        <v>0.06549402491736586</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3421950563179949</v>
+        <v>0.06549402491736586</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -12483,28 +12483,28 @@
         <v>387</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09583333333333333</v>
+        <v>0.19</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1208333333333333</v>
+        <v>0.3041666666666666</v>
       </c>
       <c r="H21" t="n">
-        <v>0.168560606060606</v>
+        <v>0.5129983250921466</v>
       </c>
       <c r="I21" t="n">
-        <v>0.184678416821274</v>
+        <v>0.6379229213554852</v>
       </c>
       <c r="J21" t="n">
-        <v>0.184678416821274</v>
+        <v>0.6626062627054933</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1883069278451338</v>
+        <v>0.6626062627054933</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1893646201528261</v>
+        <v>0.6626062627054933</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -12524,25 +12524,25 @@
         <v>0.04</v>
       </c>
       <c r="F22" t="n">
-        <v>0.16</v>
+        <v>0.152</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2544444444444444</v>
+        <v>0.2784444444444444</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3135353535353536</v>
+        <v>0.4860674514907925</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3316058544629973</v>
+        <v>0.6260438987045621</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3316058544629973</v>
+        <v>0.6488304948244916</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3410290365039262</v>
+        <v>0.6569718627370266</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3422598057346955</v>
+        <v>0.6569718627370266</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -12562,25 +12562,25 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0001518833535844471</v>
+        <v>0.06280902348578492</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -12597,28 +12597,28 @@
         <v>387</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.07658730158730159</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.1328042328042328</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.1791350949245686</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.2087331907942162</v>
       </c>
       <c r="J24" t="n">
-        <v>0.000350140056022409</v>
+        <v>0.2126091597864643</v>
       </c>
       <c r="K24" t="n">
-        <v>0.000663423264042459</v>
+        <v>0.2146383805656851</v>
       </c>
       <c r="L24" t="n">
-        <v>0.00084892981589713</v>
+        <v>0.2146383805656851</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -12635,28 +12635,28 @@
         <v>387</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.1552777777777778</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.1986049768944506</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.2255512633665992</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0002941176470588235</v>
+        <v>0.2290396354596224</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0005572755417956656</v>
+        <v>0.2308578172778042</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0008308996732438897</v>
+        <v>0.2312780892184717</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -12676,25 +12676,25 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1047619047619048</v>
+        <v>0.1285714285714286</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1476190476190476</v>
+        <v>0.1761904761904762</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1476190476190476</v>
+        <v>0.1761904761904762</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1606060606060606</v>
+        <v>0.1761904761904762</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1680465367965368</v>
+        <v>0.1955665024630542</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1705095909837289</v>
+        <v>0.197927777551602</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1705095909837289</v>
+        <v>0.197927777551602</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -12714,25 +12714,25 @@
         <v>0.0303030303030303</v>
       </c>
       <c r="F27" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.07323232323232323</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1224747474747475</v>
+        <v>0.1085858585858586</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1541551882460973</v>
+        <v>0.1347566574839302</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1880801094264358</v>
+        <v>0.1679128951856224</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2211961737625958</v>
+        <v>0.1942964865281006</v>
       </c>
       <c r="K27" t="n">
-        <v>0.228965683982756</v>
+        <v>0.2083735552926693</v>
       </c>
       <c r="L27" t="n">
-        <v>0.228965683982756</v>
+        <v>0.2083735552926693</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -12755,22 +12755,22 @@
         <v>0.125</v>
       </c>
       <c r="G28" t="n">
-        <v>0.191875</v>
+        <v>0.1894444444444444</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2301866883116883</v>
+        <v>0.2212626262626263</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2756625831003706</v>
+        <v>0.2574152236652237</v>
       </c>
       <c r="J28" t="n">
-        <v>0.316365259748771</v>
+        <v>0.2987128358753531</v>
       </c>
       <c r="K28" t="n">
-        <v>0.3263756686331588</v>
+        <v>0.3154391325302532</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3263756686331588</v>
+        <v>0.3154391325302532</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -12834,19 +12834,19 @@
         <v>0.2821428571428571</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5185845955515074</v>
+        <v>0.4878703098372216</v>
       </c>
       <c r="I30" t="n">
-        <v>0.560240250942628</v>
+        <v>0.5585438223711994</v>
       </c>
       <c r="J30" t="n">
-        <v>0.560240250942628</v>
+        <v>0.5585438223711994</v>
       </c>
       <c r="K30" t="n">
-        <v>0.560240250942628</v>
+        <v>0.5585438223711994</v>
       </c>
       <c r="L30" t="n">
-        <v>0.5613452233183186</v>
+        <v>0.5585438223711994</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -12872,19 +12872,19 @@
         <v>0.4882716049382717</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7403058996196251</v>
+        <v>0.7088244181381437</v>
       </c>
       <c r="I31" t="n">
-        <v>0.7824423807095946</v>
+        <v>0.780722803990018</v>
       </c>
       <c r="J31" t="n">
-        <v>0.7824423807095946</v>
+        <v>0.780722803990018</v>
       </c>
       <c r="K31" t="n">
-        <v>0.7824423807095946</v>
+        <v>0.780722803990018</v>
       </c>
       <c r="L31" t="n">
-        <v>0.7835473530852853</v>
+        <v>0.780722803990018</v>
       </c>
     </row>
   </sheetData>

--- a/BM25.xlsx
+++ b/BM25.xlsx
@@ -1560,10 +1560,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>133.4051205327981</v>
+        <v>150.9447778782927</v>
       </c>
       <c r="E2" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1577,10 +1577,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>143.7839508368621</v>
+        <v>152.4500014971742</v>
       </c>
       <c r="E3" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1594,10 +1594,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>169.8506534310787</v>
+        <v>184.3033941603967</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1611,10 +1611,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>93.21301813904847</v>
+        <v>105.3238323149178</v>
       </c>
       <c r="E5" t="n">
-        <v>1014</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1628,10 +1628,10 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>173.2586547410483</v>
+        <v>173.6265514976948</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1645,7 +1645,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>167.1124855558283</v>
+        <v>170.8499699969706</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -1662,7 +1662,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>209.9804976618936</v>
+        <v>211.5357193971705</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
@@ -1679,10 +1679,10 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>161.0898369382514</v>
+        <v>162.327845045257</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1696,10 +1696,10 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>161.0898369382514</v>
+        <v>162.327845045257</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1713,10 +1713,10 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>151.0869493959829</v>
+        <v>151.6647842218684</v>
       </c>
       <c r="E11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1730,7 +1730,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>171.3515848648744</v>
+        <v>173.7180452629188</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1747,7 +1747,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>210.3945135152442</v>
+        <v>221.159413800372</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -1764,10 +1764,10 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>140.2802765379824</v>
+        <v>141.3132198654199</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1781,10 +1781,10 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>145.8435802907226</v>
+        <v>167.5030232957706</v>
       </c>
       <c r="E15" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1798,7 +1798,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>322.58010698917</v>
+        <v>349.8897425044003</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1815,10 +1815,10 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>160.2185900588009</v>
+        <v>160.5513058381848</v>
       </c>
       <c r="E17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1832,10 +1832,10 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>120.4486177020989</v>
+        <v>123.4110615389742</v>
       </c>
       <c r="E18" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1849,10 +1849,10 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>120.4486177020989</v>
+        <v>123.4110615389742</v>
       </c>
       <c r="E19" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1866,10 +1866,10 @@
         <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>62.22117918419801</v>
+        <v>62.53234155849559</v>
       </c>
       <c r="E20" t="n">
-        <v>649</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1883,10 +1883,10 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>42.27040805514954</v>
+        <v>83.6858596227725</v>
       </c>
       <c r="E21" t="n">
-        <v>5397</v>
+        <v>369</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1900,10 +1900,10 @@
         <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>50.07818535333503</v>
+        <v>49.9681904815899</v>
       </c>
       <c r="E22" t="n">
-        <v>2468</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1917,10 +1917,10 @@
         <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>65.92378816847719</v>
+        <v>112.3924048144007</v>
       </c>
       <c r="E23" t="n">
-        <v>407</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1934,10 +1934,10 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>82.817724479986</v>
+        <v>83.09657112763455</v>
       </c>
       <c r="E24" t="n">
-        <v>34</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1951,10 +1951,10 @@
         <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>52.40332562767502</v>
+        <v>69.0433961151474</v>
       </c>
       <c r="E25" t="n">
-        <v>1938</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1968,10 +1968,10 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>73.60062685803464</v>
+        <v>96.92319335948171</v>
       </c>
       <c r="E26" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1985,10 +1985,10 @@
         <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>38.30487576675174</v>
+        <v>94.202933353463</v>
       </c>
       <c r="E27" t="n">
-        <v>8042</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2002,10 +2002,10 @@
         <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>84.78744029628442</v>
+        <v>85.02276078772192</v>
       </c>
       <c r="E28" t="n">
-        <v>24</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2019,10 +2019,10 @@
         <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>68.68017685915099</v>
+        <v>68.48050916807199</v>
       </c>
       <c r="E29" t="n">
-        <v>287</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2036,10 +2036,10 @@
         <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>91.18563051491738</v>
+        <v>99.68952117442548</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2053,10 +2053,10 @@
         <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>94.92333695046651</v>
+        <v>99.30659778476181</v>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2070,10 +2070,10 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>87.5700969500903</v>
+        <v>91.09376408357973</v>
       </c>
       <c r="E32" t="n">
-        <v>18</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2087,10 +2087,10 @@
         <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>105.0268900601413</v>
+        <v>124.2710242724109</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2104,10 +2104,10 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>92.44382460930436</v>
+        <v>93.42552498295299</v>
       </c>
       <c r="E34" t="n">
-        <v>7</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2121,10 +2121,10 @@
         <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>96.8093587818849</v>
+        <v>107.6733349475674</v>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2138,10 +2138,10 @@
         <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>48.76448364032947</v>
+        <v>99.36727834607871</v>
       </c>
       <c r="E36" t="n">
-        <v>2816</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2155,10 +2155,10 @@
         <v>11</v>
       </c>
       <c r="D37" t="n">
-        <v>55.88523591401375</v>
+        <v>55.02958376108162</v>
       </c>
       <c r="E37" t="n">
-        <v>1341</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2172,10 +2172,10 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>79.64414415998921</v>
+        <v>120.1223168983223</v>
       </c>
       <c r="E38" t="n">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2189,10 +2189,10 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>73.49783538042152</v>
+        <v>120.5248910327301</v>
       </c>
       <c r="E39" t="n">
-        <v>149</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2206,10 +2206,10 @@
         <v>11</v>
       </c>
       <c r="D40" t="n">
-        <v>65.95450776959879</v>
+        <v>112.5830405042024</v>
       </c>
       <c r="E40" t="n">
-        <v>406</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2223,10 +2223,10 @@
         <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>69.26771131321206</v>
+        <v>124.9643584052767</v>
       </c>
       <c r="E41" t="n">
-        <v>266</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2240,10 +2240,10 @@
         <v>11</v>
       </c>
       <c r="D42" t="n">
-        <v>88.70907804406896</v>
+        <v>88.73636577842406</v>
       </c>
       <c r="E42" t="n">
-        <v>14</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2257,10 +2257,10 @@
         <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>58.22097350300972</v>
+        <v>80.28550541265531</v>
       </c>
       <c r="E43" t="n">
-        <v>1018</v>
+        <v>472</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2274,10 +2274,10 @@
         <v>11</v>
       </c>
       <c r="D44" t="n">
-        <v>79.15844702880349</v>
+        <v>122.3509451313078</v>
       </c>
       <c r="E44" t="n">
-        <v>63</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2291,10 +2291,10 @@
         <v>11</v>
       </c>
       <c r="D45" t="n">
-        <v>58.25012096412597</v>
+        <v>99.47284534226557</v>
       </c>
       <c r="E45" t="n">
-        <v>1015</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2308,10 +2308,10 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>65.13791410974012</v>
+        <v>106.6762587083421</v>
       </c>
       <c r="E46" t="n">
-        <v>457</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2325,10 +2325,10 @@
         <v>11</v>
       </c>
       <c r="D47" t="n">
-        <v>72.86757637566505</v>
+        <v>117.0616767182173</v>
       </c>
       <c r="E47" t="n">
-        <v>163</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2342,10 +2342,10 @@
         <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>23.41727981417083</v>
+        <v>73.11661026519047</v>
       </c>
       <c r="E48" t="n">
-        <v>45130</v>
+        <v>782</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2359,10 +2359,10 @@
         <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>51.64751193535858</v>
+        <v>86.20576057142219</v>
       </c>
       <c r="E49" t="n">
-        <v>2123</v>
+        <v>306</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2376,10 +2376,10 @@
         <v>11</v>
       </c>
       <c r="D50" t="n">
-        <v>30.30726617652956</v>
+        <v>77.12508630684324</v>
       </c>
       <c r="E50" t="n">
-        <v>19676</v>
+        <v>607</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2393,10 +2393,10 @@
         <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>71.68047096029474</v>
+        <v>121.6064707294031</v>
       </c>
       <c r="E51" t="n">
-        <v>196</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2410,10 +2410,10 @@
         <v>11</v>
       </c>
       <c r="D52" t="n">
-        <v>68.15240262751219</v>
+        <v>109.1954916644919</v>
       </c>
       <c r="E52" t="n">
-        <v>306</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2427,10 +2427,10 @@
         <v>11</v>
       </c>
       <c r="D53" t="n">
-        <v>68.609472120738</v>
+        <v>81.00375357013823</v>
       </c>
       <c r="E53" t="n">
-        <v>290</v>
+        <v>441</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2444,10 +2444,10 @@
         <v>11</v>
       </c>
       <c r="D54" t="n">
-        <v>99.86741840048714</v>
+        <v>139.0074033803329</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2461,10 +2461,10 @@
         <v>11</v>
       </c>
       <c r="D55" t="n">
-        <v>72.39079581550249</v>
+        <v>72.34011939868029</v>
       </c>
       <c r="E55" t="n">
-        <v>174</v>
+        <v>819</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2478,10 +2478,10 @@
         <v>11</v>
       </c>
       <c r="D56" t="n">
-        <v>72.81770675343887</v>
+        <v>109.6815636913427</v>
       </c>
       <c r="E56" t="n">
-        <v>164</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2495,10 +2495,10 @@
         <v>11</v>
       </c>
       <c r="D57" t="n">
-        <v>78.82929657511903</v>
+        <v>126.0266272017213</v>
       </c>
       <c r="E57" t="n">
-        <v>64</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2512,10 +2512,10 @@
         <v>11</v>
       </c>
       <c r="D58" t="n">
-        <v>68.9698527091426</v>
+        <v>100.3734638969707</v>
       </c>
       <c r="E58" t="n">
-        <v>274</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2529,10 +2529,10 @@
         <v>11</v>
       </c>
       <c r="D59" t="n">
-        <v>48.21934247791327</v>
+        <v>87.42666106119556</v>
       </c>
       <c r="E59" t="n">
-        <v>2967</v>
+        <v>286</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2546,10 +2546,10 @@
         <v>11</v>
       </c>
       <c r="D60" t="n">
-        <v>90.04185143847944</v>
+        <v>127.0593798861814</v>
       </c>
       <c r="E60" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2563,10 +2563,10 @@
         <v>11</v>
       </c>
       <c r="D61" t="n">
-        <v>62.46971162090632</v>
+        <v>98.04740461470084</v>
       </c>
       <c r="E61" t="n">
-        <v>626</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2580,10 +2580,10 @@
         <v>11</v>
       </c>
       <c r="D62" t="n">
-        <v>74.72458408107813</v>
+        <v>117.7482571510393</v>
       </c>
       <c r="E62" t="n">
-        <v>129</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2597,10 +2597,10 @@
         <v>11</v>
       </c>
       <c r="D63" t="n">
-        <v>75.42614665996355</v>
+        <v>118.0182428188412</v>
       </c>
       <c r="E63" t="n">
-        <v>114</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2614,10 +2614,10 @@
         <v>11</v>
       </c>
       <c r="D64" t="n">
-        <v>78.17133356293813</v>
+        <v>118.1591099756074</v>
       </c>
       <c r="E64" t="n">
-        <v>71</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2631,10 +2631,10 @@
         <v>11</v>
       </c>
       <c r="D65" t="n">
-        <v>83.54818088117244</v>
+        <v>118.7303779339599</v>
       </c>
       <c r="E65" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2648,10 +2648,10 @@
         <v>11</v>
       </c>
       <c r="D66" t="n">
-        <v>79.43200817571262</v>
+        <v>129.0541086338018</v>
       </c>
       <c r="E66" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2665,10 +2665,10 @@
         <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>76.75209627607244</v>
+        <v>121.5906479518094</v>
       </c>
       <c r="E67" t="n">
-        <v>91</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2682,10 +2682,10 @@
         <v>11</v>
       </c>
       <c r="D68" t="n">
-        <v>65.79127498259248</v>
+        <v>66.51090444357362</v>
       </c>
       <c r="E68" t="n">
-        <v>415</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2699,10 +2699,10 @@
         <v>11</v>
       </c>
       <c r="D69" t="n">
-        <v>80.70902483081295</v>
+        <v>123.7222651355925</v>
       </c>
       <c r="E69" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2716,10 +2716,10 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>63.76818348960886</v>
+        <v>108.5190160975413</v>
       </c>
       <c r="E70" t="n">
-        <v>545</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2733,10 +2733,10 @@
         <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>80.11323195421082</v>
+        <v>121.0328508640688</v>
       </c>
       <c r="E71" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2750,10 +2750,10 @@
         <v>11</v>
       </c>
       <c r="D72" t="n">
-        <v>70.09193521998762</v>
+        <v>114.0613324176701</v>
       </c>
       <c r="E72" t="n">
-        <v>240</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2767,10 +2767,10 @@
         <v>11</v>
       </c>
       <c r="D73" t="n">
-        <v>79.33583885599933</v>
+        <v>121.1286715085305</v>
       </c>
       <c r="E73" t="n">
-        <v>62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2784,10 +2784,10 @@
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>31.92626267805249</v>
+        <v>80.89041460941471</v>
       </c>
       <c r="E74" t="n">
-        <v>16207</v>
+        <v>449</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2801,10 +2801,10 @@
         <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>49.06754764264296</v>
+        <v>47.75216986729297</v>
       </c>
       <c r="E75" t="n">
-        <v>2723</v>
+        <v>5399</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2818,10 +2818,10 @@
         <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>35.6640910148149</v>
+        <v>38.76152705816948</v>
       </c>
       <c r="E76" t="n">
-        <v>10590</v>
+        <v>13140</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2835,10 +2835,10 @@
         <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>230.8425615466637</v>
+        <v>258.0815910272348</v>
       </c>
       <c r="E77" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2852,10 +2852,10 @@
         <v>11</v>
       </c>
       <c r="D78" t="n">
-        <v>236.5677261656505</v>
+        <v>252.4796927095107</v>
       </c>
       <c r="E78" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2869,10 +2869,10 @@
         <v>11</v>
       </c>
       <c r="D79" t="n">
-        <v>218.5341617358014</v>
+        <v>244.2854025895908</v>
       </c>
       <c r="E79" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2886,10 +2886,10 @@
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>187.2512013585165</v>
+        <v>199.1506284238185</v>
       </c>
       <c r="E80" t="n">
-        <v>311</v>
+        <v>368</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2903,10 +2903,10 @@
         <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>271.6057906066146</v>
+        <v>286.3096111899828</v>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2920,10 +2920,10 @@
         <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>202.1996239455098</v>
+        <v>216.0335402724614</v>
       </c>
       <c r="E82" t="n">
-        <v>119</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2937,10 +2937,10 @@
         <v>11</v>
       </c>
       <c r="D83" t="n">
-        <v>241.1536397278636</v>
+        <v>266.8830425344354</v>
       </c>
       <c r="E83" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2954,10 +2954,10 @@
         <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>192.691783597129</v>
+        <v>204.5657272534102</v>
       </c>
       <c r="E84" t="n">
-        <v>228</v>
+        <v>283</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2971,10 +2971,10 @@
         <v>11</v>
       </c>
       <c r="D85" t="n">
-        <v>217.9788087033086</v>
+        <v>248.9759504747941</v>
       </c>
       <c r="E85" t="n">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2988,10 +2988,10 @@
         <v>11</v>
       </c>
       <c r="D86" t="n">
-        <v>270.5671867624785</v>
+        <v>296.6789093588458</v>
       </c>
       <c r="E86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3005,10 +3005,10 @@
         <v>11</v>
       </c>
       <c r="D87" t="n">
-        <v>240.352561474376</v>
+        <v>251.9117344416508</v>
       </c>
       <c r="E87" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3022,10 +3022,10 @@
         <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>197.1878995879708</v>
+        <v>238.5496542139867</v>
       </c>
       <c r="E88" t="n">
-        <v>166</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3039,10 +3039,10 @@
         <v>11</v>
       </c>
       <c r="D89" t="n">
-        <v>259.5796349184878</v>
+        <v>280.141030186229</v>
       </c>
       <c r="E89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3056,10 +3056,10 @@
         <v>11</v>
       </c>
       <c r="D90" t="n">
-        <v>207.2921005169985</v>
+        <v>223.3236459256201</v>
       </c>
       <c r="E90" t="n">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3073,10 +3073,10 @@
         <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>181.658521814726</v>
+        <v>199.5644369866079</v>
       </c>
       <c r="E91" t="n">
-        <v>421</v>
+        <v>363</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3090,10 +3090,10 @@
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>167.8536251921047</v>
+        <v>178.4422209911195</v>
       </c>
       <c r="E92" t="n">
-        <v>775</v>
+        <v>918</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3107,10 +3107,10 @@
         <v>11</v>
       </c>
       <c r="D93" t="n">
-        <v>183.1284307532612</v>
+        <v>198.2641941321783</v>
       </c>
       <c r="E93" t="n">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3124,7 +3124,7 @@
         <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>283.2194579319729</v>
+        <v>297.3636862573987</v>
       </c>
       <c r="E94" t="n">
         <v>1</v>
@@ -3141,10 +3141,10 @@
         <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>175.9903124350467</v>
+        <v>198.089959611502</v>
       </c>
       <c r="E95" t="n">
-        <v>538</v>
+        <v>392</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3158,10 +3158,10 @@
         <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>187.7634000200486</v>
+        <v>207.1154485983578</v>
       </c>
       <c r="E96" t="n">
-        <v>302</v>
+        <v>241</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3175,7 +3175,7 @@
         <v>11</v>
       </c>
       <c r="D97" t="n">
-        <v>239.6455315723245</v>
+        <v>254.0335116556464</v>
       </c>
       <c r="E97" t="n">
         <v>15</v>
@@ -3192,10 +3192,10 @@
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>212.8384732909217</v>
+        <v>248.3901278140781</v>
       </c>
       <c r="E98" t="n">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3209,10 +3209,10 @@
         <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>223.8554821189631</v>
+        <v>241.6781492133246</v>
       </c>
       <c r="E99" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3226,10 +3226,10 @@
         <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>206.5730682527065</v>
+        <v>241.2121829124335</v>
       </c>
       <c r="E100" t="n">
-        <v>95</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3243,10 +3243,10 @@
         <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>206.3987445581912</v>
+        <v>240.470632347186</v>
       </c>
       <c r="E101" t="n">
-        <v>97</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3260,10 +3260,10 @@
         <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>218.5790968454245</v>
+        <v>234.9810292198116</v>
       </c>
       <c r="E102" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3277,10 +3277,10 @@
         <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>224.6795240505941</v>
+        <v>238.7678593932615</v>
       </c>
       <c r="E103" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3294,10 +3294,10 @@
         <v>6</v>
       </c>
       <c r="D104" t="n">
-        <v>190.9614412080029</v>
+        <v>200.3917088335951</v>
       </c>
       <c r="E104" t="n">
-        <v>258</v>
+        <v>345</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3311,10 +3311,10 @@
         <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>230.3907463722743</v>
+        <v>249.7368716203099</v>
       </c>
       <c r="E105" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3328,10 +3328,10 @@
         <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>82.46015611025359</v>
+        <v>106.0612808959196</v>
       </c>
       <c r="E106" t="n">
-        <v>25582</v>
+        <v>10533</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3345,10 +3345,10 @@
         <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>198.0855326000472</v>
+        <v>227.3018705995503</v>
       </c>
       <c r="E107" t="n">
-        <v>159</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3362,10 +3362,10 @@
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>218.4498950268238</v>
+        <v>238.5336833568715</v>
       </c>
       <c r="E108" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3379,10 +3379,10 @@
         <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>171.5190322732205</v>
+        <v>196.6372336471254</v>
       </c>
       <c r="E109" t="n">
-        <v>657</v>
+        <v>428</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3396,10 +3396,10 @@
         <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>244.3557342976804</v>
+        <v>253.867129359122</v>
       </c>
       <c r="E110" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3413,7 +3413,7 @@
         <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>249.7740227300907</v>
+        <v>273.3129111964852</v>
       </c>
       <c r="E111" t="n">
         <v>6</v>
@@ -3430,7 +3430,7 @@
         <v>6</v>
       </c>
       <c r="D112" t="n">
-        <v>242.644809870402</v>
+        <v>261.8376319856254</v>
       </c>
       <c r="E112" t="n">
         <v>8</v>
@@ -3447,10 +3447,10 @@
         <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>199.6253099933182</v>
+        <v>222.6889244400298</v>
       </c>
       <c r="E113" t="n">
-        <v>141</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3464,10 +3464,10 @@
         <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>211.9391925360099</v>
+        <v>228.9365711411839</v>
       </c>
       <c r="E114" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3481,10 +3481,10 @@
         <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>138.3418521517285</v>
+        <v>145.9901134137074</v>
       </c>
       <c r="E115" t="n">
-        <v>115</v>
+        <v>90</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3498,10 +3498,10 @@
         <v>11</v>
       </c>
       <c r="D116" t="n">
-        <v>148.659753419933</v>
+        <v>149.1853337356582</v>
       </c>
       <c r="E116" t="n">
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3515,7 +3515,7 @@
         <v>11</v>
       </c>
       <c r="D117" t="n">
-        <v>178.5874998382297</v>
+        <v>181.0274605911337</v>
       </c>
       <c r="E117" t="n">
         <v>1</v>
@@ -3532,10 +3532,10 @@
         <v>11</v>
       </c>
       <c r="D118" t="n">
-        <v>138.6409822382917</v>
+        <v>145.1655335870121</v>
       </c>
       <c r="E118" t="n">
-        <v>112</v>
+        <v>92</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3549,10 +3549,10 @@
         <v>11</v>
       </c>
       <c r="D119" t="n">
-        <v>168.8743486934284</v>
+        <v>171.008810711802</v>
       </c>
       <c r="E119" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3566,10 +3566,10 @@
         <v>11</v>
       </c>
       <c r="D120" t="n">
-        <v>165.4560165284932</v>
+        <v>166.5411479729411</v>
       </c>
       <c r="E120" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3583,10 +3583,10 @@
         <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>143.8290567289143</v>
+        <v>147.5186365170794</v>
       </c>
       <c r="E121" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3600,10 +3600,10 @@
         <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>128.2233698677844</v>
+        <v>130.1280211633003</v>
       </c>
       <c r="E122" t="n">
-        <v>276</v>
+        <v>326</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3617,10 +3617,10 @@
         <v>11</v>
       </c>
       <c r="D123" t="n">
-        <v>135.2623255845721</v>
+        <v>133.9537982082561</v>
       </c>
       <c r="E123" t="n">
-        <v>164</v>
+        <v>234</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3634,10 +3634,10 @@
         <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>130.1190628059315</v>
+        <v>137.5870152818217</v>
       </c>
       <c r="E124" t="n">
-        <v>231</v>
+        <v>182</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3651,10 +3651,10 @@
         <v>11</v>
       </c>
       <c r="D125" t="n">
-        <v>153.7339186461381</v>
+        <v>153.8239689387842</v>
       </c>
       <c r="E125" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3668,10 +3668,10 @@
         <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>168.5462335477322</v>
+        <v>170.1012135734388</v>
       </c>
       <c r="E126" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3685,10 +3685,10 @@
         <v>11</v>
       </c>
       <c r="D127" t="n">
-        <v>142.1557847102891</v>
+        <v>155.1440221693819</v>
       </c>
       <c r="E127" t="n">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3702,10 +3702,10 @@
         <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>157.0001633078676</v>
+        <v>162.4329056259737</v>
       </c>
       <c r="E128" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3719,10 +3719,10 @@
         <v>6</v>
       </c>
       <c r="D129" t="n">
-        <v>155.2418221289529</v>
+        <v>155.3111662595692</v>
       </c>
       <c r="E129" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3736,10 +3736,10 @@
         <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>58.300568757154</v>
+        <v>59.19129629388483</v>
       </c>
       <c r="E130" t="n">
-        <v>107491</v>
+        <v>127184</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3753,10 +3753,10 @@
         <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>61.53389725441492</v>
+        <v>62.35624510575032</v>
       </c>
       <c r="E131" t="n">
-        <v>90769</v>
+        <v>111278</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3770,10 +3770,10 @@
         <v>11</v>
       </c>
       <c r="D132" t="n">
-        <v>125.6304354344327</v>
+        <v>132.6697068907772</v>
       </c>
       <c r="E132" t="n">
-        <v>364</v>
+        <v>264</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3787,10 +3787,10 @@
         <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>161.6171364875621</v>
+        <v>169.5758090868084</v>
       </c>
       <c r="E133" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3804,10 +3804,10 @@
         <v>11</v>
       </c>
       <c r="D134" t="n">
-        <v>152.2038749108194</v>
+        <v>156.9898065473845</v>
       </c>
       <c r="E134" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3821,10 +3821,10 @@
         <v>11</v>
       </c>
       <c r="D135" t="n">
-        <v>167.611273749088</v>
+        <v>167.6935797606345</v>
       </c>
       <c r="E135" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3838,10 +3838,10 @@
         <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>129.3951487516678</v>
+        <v>135.7160410560977</v>
       </c>
       <c r="E136" t="n">
-        <v>247</v>
+        <v>202</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3855,10 +3855,10 @@
         <v>11</v>
       </c>
       <c r="D137" t="n">
-        <v>148.886417504612</v>
+        <v>152.8499068330353</v>
       </c>
       <c r="E137" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3872,10 +3872,10 @@
         <v>11</v>
       </c>
       <c r="D138" t="n">
-        <v>140.9166963435752</v>
+        <v>141.9799645270391</v>
       </c>
       <c r="E138" t="n">
-        <v>91</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3889,10 +3889,10 @@
         <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>136.4381658996191</v>
+        <v>140.650742485237</v>
       </c>
       <c r="E139" t="n">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3906,10 +3906,10 @@
         <v>11</v>
       </c>
       <c r="D140" t="n">
-        <v>143.8542485397269</v>
+        <v>153.1602238248429</v>
       </c>
       <c r="E140" t="n">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3923,10 +3923,10 @@
         <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>51.31982213793962</v>
+        <v>61.8470521556205</v>
       </c>
       <c r="E141" t="n">
-        <v>143006</v>
+        <v>113907</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3940,10 +3940,10 @@
         <v>11</v>
       </c>
       <c r="D142" t="n">
-        <v>127.7844811644455</v>
+        <v>127.6056112851165</v>
       </c>
       <c r="E142" t="n">
-        <v>285</v>
+        <v>405</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3957,10 +3957,10 @@
         <v>11</v>
       </c>
       <c r="D143" t="n">
-        <v>137.8899373370618</v>
+        <v>140.8824966183846</v>
       </c>
       <c r="E143" t="n">
-        <v>122</v>
+        <v>148</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3974,10 +3974,10 @@
         <v>11</v>
       </c>
       <c r="D144" t="n">
-        <v>175.8837279161529</v>
+        <v>173.4645605750358</v>
       </c>
       <c r="E144" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3991,10 +3991,10 @@
         <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>129.6062594800329</v>
+        <v>129.0307845061241</v>
       </c>
       <c r="E145" t="n">
-        <v>240</v>
+        <v>365</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4008,10 +4008,10 @@
         <v>11</v>
       </c>
       <c r="D146" t="n">
-        <v>135.7096009653254</v>
+        <v>176.5122602120155</v>
       </c>
       <c r="E146" t="n">
-        <v>157</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4025,10 +4025,10 @@
         <v>6</v>
       </c>
       <c r="D147" t="n">
-        <v>133.2453402574461</v>
+        <v>138.7727339385201</v>
       </c>
       <c r="E147" t="n">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4042,10 +4042,10 @@
         <v>6</v>
       </c>
       <c r="D148" t="n">
-        <v>78.57170977393358</v>
+        <v>85.99196961439915</v>
       </c>
       <c r="E148" t="n">
-        <v>24293</v>
+        <v>19710</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4059,10 +4059,10 @@
         <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>78.57170977393358</v>
+        <v>85.99196961439915</v>
       </c>
       <c r="E149" t="n">
-        <v>24292</v>
+        <v>19709</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4076,10 +4076,10 @@
         <v>11</v>
       </c>
       <c r="D150" t="n">
-        <v>150.2014093830794</v>
+        <v>153.1778714196957</v>
       </c>
       <c r="E150" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4093,10 +4093,10 @@
         <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>102.3152693052733</v>
+        <v>120.0160449835788</v>
       </c>
       <c r="E151" t="n">
-        <v>2181</v>
+        <v>720</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4110,10 +4110,10 @@
         <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>140.3492208473958</v>
+        <v>147.6670079857058</v>
       </c>
       <c r="E152" t="n">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4127,10 +4127,10 @@
         <v>6</v>
       </c>
       <c r="D153" t="n">
-        <v>79.27876920485096</v>
+        <v>85.60118259295888</v>
       </c>
       <c r="E153" t="n">
-        <v>22628</v>
+        <v>20447</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4144,10 +4144,10 @@
         <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>141.6940751596805</v>
+        <v>143.7760833489636</v>
       </c>
       <c r="E154" t="n">
-        <v>79</v>
+        <v>121</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4161,10 +4161,10 @@
         <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>128.9930417543665</v>
+        <v>141.6959993741729</v>
       </c>
       <c r="E155" t="n">
-        <v>255</v>
+        <v>139</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4178,10 +4178,10 @@
         <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>145.0215910388015</v>
+        <v>153.9551872473345</v>
       </c>
       <c r="E156" t="n">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4195,10 +4195,10 @@
         <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>134.0894531942781</v>
+        <v>134.3549798442562</v>
       </c>
       <c r="E157" t="n">
-        <v>177</v>
+        <v>225</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4212,10 +4212,10 @@
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>123.1600274482943</v>
+        <v>125.0778214439977</v>
       </c>
       <c r="E158" t="n">
-        <v>449</v>
+        <v>507</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4229,10 +4229,10 @@
         <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>131.394317815702</v>
+        <v>141.3802972217352</v>
       </c>
       <c r="E159" t="n">
-        <v>210</v>
+        <v>142</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4246,10 +4246,10 @@
         <v>6</v>
       </c>
       <c r="D160" t="n">
-        <v>151.1400786006392</v>
+        <v>152.7299084003124</v>
       </c>
       <c r="E160" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4263,10 +4263,10 @@
         <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>91.92607718372135</v>
+        <v>91.54791147544782</v>
       </c>
       <c r="E161" t="n">
-        <v>6186</v>
+        <v>11276</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4280,10 +4280,10 @@
         <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>77.66750492491441</v>
+        <v>81.9314695463935</v>
       </c>
       <c r="E162" t="n">
-        <v>26517</v>
+        <v>28938</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4297,10 +4297,10 @@
         <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>98.20569515940637</v>
+        <v>95.63913213945888</v>
       </c>
       <c r="E163" t="n">
-        <v>3230</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4314,10 +4314,10 @@
         <v>11</v>
       </c>
       <c r="D164" t="n">
-        <v>161.0959113251059</v>
+        <v>162.5567600047554</v>
       </c>
       <c r="E164" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4331,10 +4331,10 @@
         <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>118.2810482096035</v>
+        <v>124.8117625179459</v>
       </c>
       <c r="E165" t="n">
-        <v>597</v>
+        <v>518</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4348,10 +4348,10 @@
         <v>11</v>
       </c>
       <c r="D166" t="n">
-        <v>144.9092697442088</v>
+        <v>151.401656706524</v>
       </c>
       <c r="E166" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4365,10 +4365,10 @@
         <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>133.7955302379937</v>
+        <v>136.9887737030135</v>
       </c>
       <c r="E167" t="n">
-        <v>181</v>
+        <v>190</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4382,10 +4382,10 @@
         <v>11</v>
       </c>
       <c r="D168" t="n">
-        <v>161.5944434364296</v>
+        <v>160.1197692374076</v>
       </c>
       <c r="E168" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4399,10 +4399,10 @@
         <v>11</v>
       </c>
       <c r="D169" t="n">
-        <v>130.6500270411711</v>
+        <v>128.1731160183083</v>
       </c>
       <c r="E169" t="n">
-        <v>219</v>
+        <v>388</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4416,10 +4416,10 @@
         <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>120.6129292158388</v>
+        <v>128.2137604530375</v>
       </c>
       <c r="E170" t="n">
-        <v>527</v>
+        <v>386</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4433,10 +4433,10 @@
         <v>6</v>
       </c>
       <c r="D171" t="n">
-        <v>145.9032518289953</v>
+        <v>150.8908136875836</v>
       </c>
       <c r="E171" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4450,10 +4450,10 @@
         <v>11</v>
       </c>
       <c r="D172" t="n">
-        <v>121.1867477160912</v>
+        <v>119.7429278455472</v>
       </c>
       <c r="E172" t="n">
-        <v>508</v>
+        <v>734</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4467,10 +4467,10 @@
         <v>11</v>
       </c>
       <c r="D173" t="n">
-        <v>110.3108518171624</v>
+        <v>119.4290681840738</v>
       </c>
       <c r="E173" t="n">
-        <v>1086</v>
+        <v>760</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4484,10 +4484,10 @@
         <v>6</v>
       </c>
       <c r="D174" t="n">
-        <v>122.4170747088228</v>
+        <v>114.7559070262734</v>
       </c>
       <c r="E174" t="n">
-        <v>640</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4501,10 +4501,10 @@
         <v>6</v>
       </c>
       <c r="D175" t="n">
-        <v>157.8409203501737</v>
+        <v>156.7403685282606</v>
       </c>
       <c r="E175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4518,10 +4518,10 @@
         <v>6</v>
       </c>
       <c r="D176" t="n">
-        <v>152.4787657709884</v>
+        <v>146.9505727838419</v>
       </c>
       <c r="E176" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4535,10 +4535,10 @@
         <v>6</v>
       </c>
       <c r="D177" t="n">
-        <v>145.5879053762472</v>
+        <v>145.9793646438164</v>
       </c>
       <c r="E177" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4552,7 +4552,7 @@
         <v>11</v>
       </c>
       <c r="D178" t="n">
-        <v>156.1094264483559</v>
+        <v>152.7784556726208</v>
       </c>
       <c r="E178" t="n">
         <v>6</v>
@@ -4569,10 +4569,10 @@
         <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>37.20103306891706</v>
+        <v>35.65302846727642</v>
       </c>
       <c r="E179" t="n">
-        <v>172807</v>
+        <v>187194</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4586,10 +4586,10 @@
         <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>118.2908963588159</v>
+        <v>119.3625273973409</v>
       </c>
       <c r="E180" t="n">
-        <v>937</v>
+        <v>682</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4603,10 +4603,10 @@
         <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>143.7391710664093</v>
+        <v>142.0372966785303</v>
       </c>
       <c r="E181" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4620,10 +4620,10 @@
         <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>100.8174830174711</v>
+        <v>101.9126144352629</v>
       </c>
       <c r="E182" t="n">
-        <v>3316</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4637,10 +4637,10 @@
         <v>11</v>
       </c>
       <c r="D183" t="n">
-        <v>106.9880644332331</v>
+        <v>107.9515444781869</v>
       </c>
       <c r="E183" t="n">
-        <v>2173</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4654,10 +4654,10 @@
         <v>11</v>
       </c>
       <c r="D184" t="n">
-        <v>107.8413326583959</v>
+        <v>101.1979086613591</v>
       </c>
       <c r="E184" t="n">
-        <v>2056</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4671,10 +4671,10 @@
         <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>96.19352051216202</v>
+        <v>100.418367805183</v>
       </c>
       <c r="E185" t="n">
-        <v>4508</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4688,10 +4688,10 @@
         <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>111.0215186785607</v>
+        <v>105.8683720017066</v>
       </c>
       <c r="E186" t="n">
-        <v>1641</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4705,10 +4705,10 @@
         <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>130.3548490133956</v>
+        <v>133.7442475797488</v>
       </c>
       <c r="E187" t="n">
-        <v>294</v>
+        <v>142</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4722,10 +4722,10 @@
         <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>98.21611783406945</v>
+        <v>97.83075878052821</v>
       </c>
       <c r="E188" t="n">
-        <v>3959</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4739,10 +4739,10 @@
         <v>11</v>
       </c>
       <c r="D189" t="n">
-        <v>141.7060945365633</v>
+        <v>141.7940346842921</v>
       </c>
       <c r="E189" t="n">
-        <v>73</v>
+        <v>41</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4756,10 +4756,10 @@
         <v>11</v>
       </c>
       <c r="D190" t="n">
-        <v>77.43325757006237</v>
+        <v>75.16541141452126</v>
       </c>
       <c r="E190" t="n">
-        <v>14912</v>
+        <v>20680</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4773,10 +4773,10 @@
         <v>6</v>
       </c>
       <c r="D191" t="n">
-        <v>119.591624037992</v>
+        <v>116.275699739901</v>
       </c>
       <c r="E191" t="n">
-        <v>822</v>
+        <v>908</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4790,10 +4790,10 @@
         <v>6</v>
       </c>
       <c r="D192" t="n">
-        <v>57.93069189267411</v>
+        <v>54.29643290445456</v>
       </c>
       <c r="E192" t="n">
-        <v>64331</v>
+        <v>92843</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4807,10 +4807,10 @@
         <v>11</v>
       </c>
       <c r="D193" t="n">
-        <v>107.2598577373738</v>
+        <v>99.91423869112731</v>
       </c>
       <c r="E193" t="n">
-        <v>2121</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4824,10 +4824,10 @@
         <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>80.66177750165096</v>
+        <v>90.43792772856433</v>
       </c>
       <c r="E194" t="n">
-        <v>12055</v>
+        <v>6851</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4841,7 +4841,7 @@
         <v>6</v>
       </c>
       <c r="D195" t="n">
-        <v>162.778110869054</v>
+        <v>157.4332248302654</v>
       </c>
       <c r="E195" t="n">
         <v>1</v>
@@ -4858,10 +4858,10 @@
         <v>11</v>
       </c>
       <c r="D196" t="n">
-        <v>143.367914793929</v>
+        <v>138.0185841607828</v>
       </c>
       <c r="E196" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4875,10 +4875,10 @@
         <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>143.367914793929</v>
+        <v>138.0185841607828</v>
       </c>
       <c r="E197" t="n">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4892,10 +4892,10 @@
         <v>11</v>
       </c>
       <c r="D198" t="n">
-        <v>130.0106340508229</v>
+        <v>123.8404648280557</v>
       </c>
       <c r="E198" t="n">
-        <v>302</v>
+        <v>422</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4909,10 +4909,10 @@
         <v>6</v>
       </c>
       <c r="D199" t="n">
-        <v>142.5974411735264</v>
+        <v>139.1439731695427</v>
       </c>
       <c r="E199" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4926,10 +4926,10 @@
         <v>11</v>
       </c>
       <c r="D200" t="n">
-        <v>149.5031565099177</v>
+        <v>148.3701990310678</v>
       </c>
       <c r="E200" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4943,10 +4943,10 @@
         <v>6</v>
       </c>
       <c r="D201" t="n">
-        <v>92.90213268521597</v>
+        <v>88.44802382106167</v>
       </c>
       <c r="E201" t="n">
-        <v>5608</v>
+        <v>7803</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4960,10 +4960,10 @@
         <v>11</v>
       </c>
       <c r="D202" t="n">
-        <v>122.531724991948</v>
+        <v>116.6250036788028</v>
       </c>
       <c r="E202" t="n">
-        <v>633</v>
+        <v>877</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4977,10 +4977,10 @@
         <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>76.99777521875022</v>
+        <v>87.32822899900229</v>
       </c>
       <c r="E203" t="n">
-        <v>129</v>
+        <v>39</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4994,10 +4994,10 @@
         <v>11</v>
       </c>
       <c r="D204" t="n">
-        <v>81.79154124817293</v>
+        <v>87.7676067081664</v>
       </c>
       <c r="E204" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5011,10 +5011,10 @@
         <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>69.8700368369437</v>
+        <v>69.83245113707123</v>
       </c>
       <c r="E205" t="n">
-        <v>601</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5028,10 +5028,10 @@
         <v>11</v>
       </c>
       <c r="D206" t="n">
-        <v>77.48278514655327</v>
+        <v>87.20644589298779</v>
       </c>
       <c r="E206" t="n">
-        <v>111</v>
+        <v>42</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5045,10 +5045,10 @@
         <v>6</v>
       </c>
       <c r="D207" t="n">
-        <v>90.42837262129977</v>
+        <v>96.68669370533874</v>
       </c>
       <c r="E207" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5062,10 +5062,10 @@
         <v>6</v>
       </c>
       <c r="D208" t="n">
-        <v>35.66841821167557</v>
+        <v>47.98053686417528</v>
       </c>
       <c r="E208" t="n">
-        <v>80410</v>
+        <v>35358</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5079,10 +5079,10 @@
         <v>6</v>
       </c>
       <c r="D209" t="n">
-        <v>77.75370360800106</v>
+        <v>86.80535538840458</v>
       </c>
       <c r="E209" t="n">
-        <v>102</v>
+        <v>47</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5096,10 +5096,10 @@
         <v>11</v>
       </c>
       <c r="D210" t="n">
-        <v>78.04642827044225</v>
+        <v>80.46896778077678</v>
       </c>
       <c r="E210" t="n">
-        <v>90</v>
+        <v>211</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5113,10 +5113,10 @@
         <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>39.56127547291728</v>
+        <v>41.86554538142809</v>
       </c>
       <c r="E211" t="n">
-        <v>55778</v>
+        <v>63664</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5130,10 +5130,10 @@
         <v>11</v>
       </c>
       <c r="D212" t="n">
-        <v>76.81984104100533</v>
+        <v>80.37555541614984</v>
       </c>
       <c r="E212" t="n">
-        <v>134</v>
+        <v>217</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5147,10 +5147,10 @@
         <v>6</v>
       </c>
       <c r="D213" t="n">
-        <v>71.03949733941286</v>
+        <v>75.87996517790822</v>
       </c>
       <c r="E213" t="n">
-        <v>475</v>
+        <v>621</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5164,10 +5164,10 @@
         <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>62.70081372177322</v>
+        <v>71.06019244047205</v>
       </c>
       <c r="E214" t="n">
-        <v>2696</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5181,10 +5181,10 @@
         <v>11</v>
       </c>
       <c r="D215" t="n">
-        <v>85.41939149560184</v>
+        <v>85.95360777746133</v>
       </c>
       <c r="E215" t="n">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5198,10 +5198,10 @@
         <v>6</v>
       </c>
       <c r="D216" t="n">
-        <v>88.1022575205792</v>
+        <v>93.38735657347532</v>
       </c>
       <c r="E216" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5215,10 +5215,10 @@
         <v>6</v>
       </c>
       <c r="D217" t="n">
-        <v>77.87116951271798</v>
+        <v>90.07395543773204</v>
       </c>
       <c r="E217" t="n">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5232,10 +5232,10 @@
         <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>78.95570018988799</v>
+        <v>81.96113002609884</v>
       </c>
       <c r="E218" t="n">
-        <v>72</v>
+        <v>150</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5249,10 +5249,10 @@
         <v>6</v>
       </c>
       <c r="D219" t="n">
-        <v>78.47006528890518</v>
+        <v>98.8558079841022</v>
       </c>
       <c r="E219" t="n">
-        <v>83</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5266,10 +5266,10 @@
         <v>6</v>
       </c>
       <c r="D220" t="n">
-        <v>66.12277743275936</v>
+        <v>89.32557774393803</v>
       </c>
       <c r="E220" t="n">
-        <v>1463</v>
+        <v>26</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5283,10 +5283,10 @@
         <v>6</v>
       </c>
       <c r="D221" t="n">
-        <v>87.16641822611309</v>
+        <v>93.68347297041794</v>
       </c>
       <c r="E221" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5300,10 +5300,10 @@
         <v>6</v>
       </c>
       <c r="D222" t="n">
-        <v>62.48442971808394</v>
+        <v>70.99146799304827</v>
       </c>
       <c r="E222" t="n">
-        <v>2799</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5317,10 +5317,10 @@
         <v>6</v>
       </c>
       <c r="D223" t="n">
-        <v>64.6023596153277</v>
+        <v>68.92197598400729</v>
       </c>
       <c r="E223" t="n">
-        <v>1915</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5334,10 +5334,10 @@
         <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>24.24044425948101</v>
+        <v>41.46983621482038</v>
       </c>
       <c r="E224" t="n">
-        <v>169348</v>
+        <v>65931</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5351,10 +5351,10 @@
         <v>6</v>
       </c>
       <c r="D225" t="n">
-        <v>71.25534400819575</v>
+        <v>75.2564772716176</v>
       </c>
       <c r="E225" t="n">
-        <v>460</v>
+        <v>693</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5368,10 +5368,10 @@
         <v>6</v>
       </c>
       <c r="D226" t="n">
-        <v>58.66375252371449</v>
+        <v>74.97806907119998</v>
       </c>
       <c r="E226" t="n">
-        <v>5386</v>
+        <v>741</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5385,10 +5385,10 @@
         <v>6</v>
       </c>
       <c r="D227" t="n">
-        <v>63.11849818047379</v>
+        <v>67.33314319090165</v>
       </c>
       <c r="E227" t="n">
-        <v>2496</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5402,10 +5402,10 @@
         <v>6</v>
       </c>
       <c r="D228" t="n">
-        <v>65.73200305680629</v>
+        <v>80.79250304959676</v>
       </c>
       <c r="E228" t="n">
-        <v>1585</v>
+        <v>194</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5419,10 +5419,10 @@
         <v>6</v>
       </c>
       <c r="D229" t="n">
-        <v>62.81582487491719</v>
+        <v>78.401499779175</v>
       </c>
       <c r="E229" t="n">
-        <v>2634</v>
+        <v>369</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5436,10 +5436,10 @@
         <v>6</v>
       </c>
       <c r="D230" t="n">
-        <v>88.51397685654149</v>
+        <v>98.87070624891992</v>
       </c>
       <c r="E230" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5453,10 +5453,10 @@
         <v>6</v>
       </c>
       <c r="D231" t="n">
-        <v>76.6656403720915</v>
+        <v>90.06111843024918</v>
       </c>
       <c r="E231" t="n">
-        <v>144</v>
+        <v>22</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5470,10 +5470,10 @@
         <v>11</v>
       </c>
       <c r="D232" t="n">
-        <v>79.02350424764882</v>
+        <v>94.22219860405794</v>
       </c>
       <c r="E232" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5487,10 +5487,10 @@
         <v>11</v>
       </c>
       <c r="D233" t="n">
-        <v>72.08206599211884</v>
+        <v>75.43522986383644</v>
       </c>
       <c r="E233" t="n">
-        <v>386</v>
+        <v>674</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5504,10 +5504,10 @@
         <v>6</v>
       </c>
       <c r="D234" t="n">
-        <v>79.90318026669844</v>
+        <v>86.33973398574182</v>
       </c>
       <c r="E234" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5521,10 +5521,10 @@
         <v>6</v>
       </c>
       <c r="D235" t="n">
-        <v>77.15968245582884</v>
+        <v>94.67873725647273</v>
       </c>
       <c r="E235" t="n">
-        <v>123</v>
+        <v>6</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5538,10 +5538,10 @@
         <v>6</v>
       </c>
       <c r="D236" t="n">
-        <v>37.50186312720557</v>
+        <v>46.67733161305444</v>
       </c>
       <c r="E236" t="n">
-        <v>67913</v>
+        <v>39983</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5555,10 +5555,10 @@
         <v>6</v>
       </c>
       <c r="D237" t="n">
-        <v>28.57002506785867</v>
+        <v>36.63316950328551</v>
       </c>
       <c r="E237" t="n">
-        <v>134856</v>
+        <v>97830</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5572,10 +5572,10 @@
         <v>11</v>
       </c>
       <c r="D238" t="n">
-        <v>76.50700728388848</v>
+        <v>88.53922170741679</v>
       </c>
       <c r="E238" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5589,10 +5589,10 @@
         <v>11</v>
       </c>
       <c r="D239" t="n">
-        <v>64.3497418362539</v>
+        <v>75.56181810472903</v>
       </c>
       <c r="E239" t="n">
-        <v>2004</v>
+        <v>658</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5606,10 +5606,10 @@
         <v>6</v>
       </c>
       <c r="D240" t="n">
-        <v>54.59501857052238</v>
+        <v>61.24423976515412</v>
       </c>
       <c r="E240" t="n">
-        <v>9760</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5623,10 +5623,10 @@
         <v>11</v>
       </c>
       <c r="D241" t="n">
-        <v>74.38845766830198</v>
+        <v>89.90242531294813</v>
       </c>
       <c r="E241" t="n">
-        <v>224</v>
+        <v>23</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5640,10 +5640,10 @@
         <v>6</v>
       </c>
       <c r="D242" t="n">
-        <v>28.08704140825175</v>
+        <v>46.2284440952459</v>
       </c>
       <c r="E242" t="n">
-        <v>138830</v>
+        <v>41810</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5657,10 +5657,10 @@
         <v>11</v>
       </c>
       <c r="D243" t="n">
-        <v>78.21136885927081</v>
+        <v>82.52225375653211</v>
       </c>
       <c r="E243" t="n">
-        <v>88</v>
+        <v>133</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5674,10 +5674,10 @@
         <v>6</v>
       </c>
       <c r="D244" t="n">
-        <v>31.09723094771789</v>
+        <v>38.31928150512294</v>
       </c>
       <c r="E244" t="n">
-        <v>114755</v>
+        <v>86200</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5691,10 +5691,10 @@
         <v>11</v>
       </c>
       <c r="D245" t="n">
-        <v>88.0790366115713</v>
+        <v>91.35374337725573</v>
       </c>
       <c r="E245" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5708,10 +5708,10 @@
         <v>6</v>
       </c>
       <c r="D246" t="n">
-        <v>62.73742376755283</v>
+        <v>77.06600412157276</v>
       </c>
       <c r="E246" t="n">
-        <v>2678</v>
+        <v>505</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5725,10 +5725,10 @@
         <v>6</v>
       </c>
       <c r="D247" t="n">
-        <v>58.42001443036248</v>
+        <v>62.64017468240053</v>
       </c>
       <c r="E247" t="n">
-        <v>5639</v>
+        <v>6281</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5742,10 +5742,10 @@
         <v>11</v>
       </c>
       <c r="D248" t="n">
-        <v>45.1503061941598</v>
+        <v>44.39093448280033</v>
       </c>
       <c r="E248" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5759,10 +5759,10 @@
         <v>6</v>
       </c>
       <c r="D249" t="n">
-        <v>53.85094404377063</v>
+        <v>59.01605922897315</v>
       </c>
       <c r="E249" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5776,10 +5776,10 @@
         <v>6</v>
       </c>
       <c r="D250" t="n">
-        <v>42.8702522136824</v>
+        <v>42.41840647061543</v>
       </c>
       <c r="E250" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5793,10 +5793,10 @@
         <v>6</v>
       </c>
       <c r="D251" t="n">
-        <v>55.21138647701662</v>
+        <v>55.27410768715195</v>
       </c>
       <c r="E251" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5810,10 +5810,10 @@
         <v>11</v>
       </c>
       <c r="D252" t="n">
-        <v>44.08249097354131</v>
+        <v>47.74968602565112</v>
       </c>
       <c r="E252" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5827,10 +5827,10 @@
         <v>6</v>
       </c>
       <c r="D253" t="n">
-        <v>57.14716524774659</v>
+        <v>56.47728381415828</v>
       </c>
       <c r="E253" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5844,10 +5844,10 @@
         <v>6</v>
       </c>
       <c r="D254" t="n">
-        <v>45.14729509322296</v>
+        <v>45.02289264453901</v>
       </c>
       <c r="E254" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5861,10 +5861,10 @@
         <v>6</v>
       </c>
       <c r="D255" t="n">
-        <v>49.04273049094025</v>
+        <v>48.02500515985702</v>
       </c>
       <c r="E255" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5878,10 +5878,10 @@
         <v>11</v>
       </c>
       <c r="D256" t="n">
-        <v>34.76143582625674</v>
+        <v>34.07388804590708</v>
       </c>
       <c r="E256" t="n">
-        <v>184</v>
+        <v>230</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5895,7 +5895,7 @@
         <v>6</v>
       </c>
       <c r="D257" t="n">
-        <v>52.72415009489426</v>
+        <v>54.27253130941296</v>
       </c>
       <c r="E257" t="n">
         <v>13</v>
@@ -5912,10 +5912,10 @@
         <v>6</v>
       </c>
       <c r="D258" t="n">
-        <v>44.33390686693989</v>
+        <v>44.39549722031187</v>
       </c>
       <c r="E258" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5929,10 +5929,10 @@
         <v>11</v>
       </c>
       <c r="D259" t="n">
-        <v>32.26200172112148</v>
+        <v>31.8360768815564</v>
       </c>
       <c r="E259" t="n">
-        <v>342</v>
+        <v>406</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5946,7 +5946,7 @@
         <v>6</v>
       </c>
       <c r="D260" t="n">
-        <v>60.12976807287423</v>
+        <v>60.02507887842771</v>
       </c>
       <c r="E260" t="n">
         <v>3</v>
@@ -5963,10 +5963,10 @@
         <v>6</v>
       </c>
       <c r="D261" t="n">
-        <v>57.99894145845988</v>
+        <v>58.04703376772944</v>
       </c>
       <c r="E261" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5980,10 +5980,10 @@
         <v>6</v>
       </c>
       <c r="D262" t="n">
-        <v>39.09861461735762</v>
+        <v>39.34574058698306</v>
       </c>
       <c r="E262" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5997,10 +5997,10 @@
         <v>11</v>
       </c>
       <c r="D263" t="n">
-        <v>55.6872554125319</v>
+        <v>54.74009302971623</v>
       </c>
       <c r="E263" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6014,7 +6014,7 @@
         <v>6</v>
       </c>
       <c r="D264" t="n">
-        <v>67.35988591712282</v>
+        <v>67.48748587614014</v>
       </c>
       <c r="E264" t="n">
         <v>1</v>
@@ -6031,10 +6031,10 @@
         <v>6</v>
       </c>
       <c r="D265" t="n">
-        <v>46.1044795931589</v>
+        <v>48.56217030264285</v>
       </c>
       <c r="E265" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6048,10 +6048,10 @@
         <v>6</v>
       </c>
       <c r="D266" t="n">
-        <v>43.18535452630442</v>
+        <v>42.47563885266776</v>
       </c>
       <c r="E266" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6065,10 +6065,10 @@
         <v>6</v>
       </c>
       <c r="D267" t="n">
-        <v>43.26415391708753</v>
+        <v>43.17322040151063</v>
       </c>
       <c r="E267" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6082,7 +6082,7 @@
         <v>6</v>
       </c>
       <c r="D268" t="n">
-        <v>65.78615282216975</v>
+        <v>65.41795515847795</v>
       </c>
       <c r="E268" t="n">
         <v>2</v>
@@ -6099,10 +6099,10 @@
         <v>6</v>
       </c>
       <c r="D269" t="n">
-        <v>53.10355653055343</v>
+        <v>52.72379244997628</v>
       </c>
       <c r="E269" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -6116,7 +6116,7 @@
         <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>50.88301460880147</v>
+        <v>51.1212337420224</v>
       </c>
       <c r="E270" t="n">
         <v>15</v>
@@ -6133,10 +6133,10 @@
         <v>6</v>
       </c>
       <c r="D271" t="n">
-        <v>39.33015980106143</v>
+        <v>38.70161702564309</v>
       </c>
       <c r="E271" t="n">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6150,7 +6150,7 @@
         <v>6</v>
       </c>
       <c r="D272" t="n">
-        <v>55.71405115690226</v>
+        <v>55.71444896311387</v>
       </c>
       <c r="E272" t="n">
         <v>8</v>
@@ -6167,10 +6167,10 @@
         <v>11</v>
       </c>
       <c r="D273" t="n">
-        <v>37.26114927409525</v>
+        <v>45.81660136224821</v>
       </c>
       <c r="E273" t="n">
-        <v>23</v>
+        <v>62</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -6184,10 +6184,10 @@
         <v>11</v>
       </c>
       <c r="D274" t="n">
-        <v>24.80698195047643</v>
+        <v>32.55553040138888</v>
       </c>
       <c r="E274" t="n">
-        <v>1715</v>
+        <v>682</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -6201,10 +6201,10 @@
         <v>11</v>
       </c>
       <c r="D275" t="n">
-        <v>17.15070862222791</v>
+        <v>31.80196245931495</v>
       </c>
       <c r="E275" t="n">
-        <v>32131</v>
+        <v>767</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -6218,10 +6218,10 @@
         <v>6</v>
       </c>
       <c r="D276" t="n">
-        <v>37.17035916463865</v>
+        <v>59.14191066776249</v>
       </c>
       <c r="E276" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -6235,10 +6235,10 @@
         <v>11</v>
       </c>
       <c r="D277" t="n">
-        <v>20.451053769601</v>
+        <v>44.64540787951575</v>
       </c>
       <c r="E277" t="n">
-        <v>9724</v>
+        <v>82</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -6252,10 +6252,10 @@
         <v>11</v>
       </c>
       <c r="D278" t="n">
-        <v>22.63022685009791</v>
+        <v>51.66758626062671</v>
       </c>
       <c r="E278" t="n">
-        <v>4086</v>
+        <v>14</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -6269,10 +6269,10 @@
         <v>6</v>
       </c>
       <c r="D279" t="n">
-        <v>22.6498956133075</v>
+        <v>51.5745920329515</v>
       </c>
       <c r="E279" t="n">
-        <v>4057</v>
+        <v>15</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -6286,10 +6286,10 @@
         <v>6</v>
       </c>
       <c r="D280" t="n">
-        <v>25.62397941518083</v>
+        <v>25.03740187417413</v>
       </c>
       <c r="E280" t="n">
-        <v>1264</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -6303,10 +6303,10 @@
         <v>11</v>
       </c>
       <c r="D281" t="n">
-        <v>34.82630941018984</v>
+        <v>50.1079133831141</v>
       </c>
       <c r="E281" t="n">
-        <v>82</v>
+        <v>26</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -6320,10 +6320,10 @@
         <v>6</v>
       </c>
       <c r="D282" t="n">
-        <v>17.1858004529299</v>
+        <v>17.09834820955047</v>
       </c>
       <c r="E282" t="n">
-        <v>31714</v>
+        <v>40558</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -6337,10 +6337,10 @@
         <v>11</v>
       </c>
       <c r="D283" t="n">
-        <v>22.91089661646392</v>
+        <v>47.68212903968161</v>
       </c>
       <c r="E283" t="n">
-        <v>3659</v>
+        <v>41</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -6354,10 +6354,10 @@
         <v>11</v>
       </c>
       <c r="D284" t="n">
-        <v>32.94259281002151</v>
+        <v>42.92755214592505</v>
       </c>
       <c r="E284" t="n">
-        <v>153</v>
+        <v>104</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -6371,10 +6371,10 @@
         <v>11</v>
       </c>
       <c r="D285" t="n">
-        <v>32.96909048916638</v>
+        <v>54.56457476733202</v>
       </c>
       <c r="E285" t="n">
-        <v>149</v>
+        <v>6</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -6388,10 +6388,10 @@
         <v>6</v>
       </c>
       <c r="D286" t="n">
-        <v>37.59295068088655</v>
+        <v>46.72182120361073</v>
       </c>
       <c r="E286" t="n">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -6405,10 +6405,10 @@
         <v>11</v>
       </c>
       <c r="D287" t="n">
-        <v>29.04022739978951</v>
+        <v>52.21123775579206</v>
       </c>
       <c r="E287" t="n">
-        <v>413</v>
+        <v>10</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -6422,10 +6422,10 @@
         <v>6</v>
       </c>
       <c r="D288" t="n">
-        <v>38.22151075201685</v>
+        <v>62.57480352396335</v>
       </c>
       <c r="E288" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -6439,10 +6439,10 @@
         <v>6</v>
       </c>
       <c r="D289" t="n">
-        <v>38.22151075201685</v>
+        <v>62.57480352396335</v>
       </c>
       <c r="E289" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -6456,10 +6456,10 @@
         <v>11</v>
       </c>
       <c r="D290" t="n">
-        <v>31.68247129159726</v>
+        <v>48.25936243978666</v>
       </c>
       <c r="E290" t="n">
-        <v>202</v>
+        <v>37</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -6473,10 +6473,10 @@
         <v>6</v>
       </c>
       <c r="D291" t="n">
-        <v>19.64702212887073</v>
+        <v>21.17941959532177</v>
       </c>
       <c r="E291" t="n">
-        <v>13243</v>
+        <v>11908</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -6490,10 +6490,10 @@
         <v>6</v>
       </c>
       <c r="D292" t="n">
-        <v>18.6161407231172</v>
+        <v>18.31612499348785</v>
       </c>
       <c r="E292" t="n">
-        <v>19444</v>
+        <v>28482</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -6507,10 +6507,10 @@
         <v>6</v>
       </c>
       <c r="D293" t="n">
-        <v>29.27397730618652</v>
+        <v>38.71764179101113</v>
       </c>
       <c r="E293" t="n">
-        <v>388</v>
+        <v>241</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -6524,10 +6524,10 @@
         <v>6</v>
       </c>
       <c r="D294" t="n">
-        <v>29.55239006667065</v>
+        <v>38.88729614143893</v>
       </c>
       <c r="E294" t="n">
-        <v>365</v>
+        <v>233</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -6541,10 +6541,10 @@
         <v>6</v>
       </c>
       <c r="D295" t="n">
-        <v>16.87883182985473</v>
+        <v>22.15335052497708</v>
       </c>
       <c r="E295" t="n">
-        <v>35104</v>
+        <v>8855</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -6558,10 +6558,10 @@
         <v>11</v>
       </c>
       <c r="D296" t="n">
-        <v>31.34635775847327</v>
+        <v>49.61604020936142</v>
       </c>
       <c r="E296" t="n">
-        <v>224</v>
+        <v>31</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -6575,10 +6575,10 @@
         <v>6</v>
       </c>
       <c r="D297" t="n">
-        <v>17.20751448369029</v>
+        <v>24.26604868625352</v>
       </c>
       <c r="E297" t="n">
-        <v>31480</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -6592,10 +6592,10 @@
         <v>11</v>
       </c>
       <c r="D298" t="n">
-        <v>27.68783721483868</v>
+        <v>46.40188347924338</v>
       </c>
       <c r="E298" t="n">
-        <v>633</v>
+        <v>57</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -6609,10 +6609,10 @@
         <v>6</v>
       </c>
       <c r="D299" t="n">
-        <v>24.30551835738061</v>
+        <v>50.13499880837618</v>
       </c>
       <c r="E299" t="n">
-        <v>2091</v>
+        <v>25</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -6626,10 +6626,10 @@
         <v>11</v>
       </c>
       <c r="D300" t="n">
-        <v>28.81573147901042</v>
+        <v>47.29970005656018</v>
       </c>
       <c r="E300" t="n">
-        <v>444</v>
+        <v>47</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -6643,10 +6643,10 @@
         <v>6</v>
       </c>
       <c r="D301" t="n">
-        <v>26.80391530480922</v>
+        <v>51.33185181492269</v>
       </c>
       <c r="E301" t="n">
-        <v>865</v>
+        <v>19</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -6660,10 +6660,10 @@
         <v>6</v>
       </c>
       <c r="D302" t="n">
-        <v>26.80391530480922</v>
+        <v>51.33185181492269</v>
       </c>
       <c r="E302" t="n">
-        <v>864</v>
+        <v>18</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -6677,10 +6677,10 @@
         <v>6</v>
       </c>
       <c r="D303" t="n">
-        <v>24.46732014227078</v>
+        <v>50.32949515833526</v>
       </c>
       <c r="E303" t="n">
-        <v>1982</v>
+        <v>24</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -6694,10 +6694,10 @@
         <v>6</v>
       </c>
       <c r="D304" t="n">
-        <v>73.73687429745438</v>
+        <v>76.79344170657204</v>
       </c>
       <c r="E304" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -6711,10 +6711,10 @@
         <v>11</v>
       </c>
       <c r="D305" t="n">
-        <v>85.22539310345786</v>
+        <v>90.56487051683348</v>
       </c>
       <c r="E305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -6728,10 +6728,10 @@
         <v>6</v>
       </c>
       <c r="D306" t="n">
-        <v>70.50803562363848</v>
+        <v>72.27464112590576</v>
       </c>
       <c r="E306" t="n">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -6745,10 +6745,10 @@
         <v>6</v>
       </c>
       <c r="D307" t="n">
-        <v>64.57255308440649</v>
+        <v>67.95789212652763</v>
       </c>
       <c r="E307" t="n">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -6762,10 +6762,10 @@
         <v>6</v>
       </c>
       <c r="D308" t="n">
-        <v>43.09804897212769</v>
+        <v>45.51006430282722</v>
       </c>
       <c r="E308" t="n">
-        <v>13221</v>
+        <v>17512</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -6779,10 +6779,10 @@
         <v>6</v>
       </c>
       <c r="D309" t="n">
-        <v>40.67109722858496</v>
+        <v>42.80239707701371</v>
       </c>
       <c r="E309" t="n">
-        <v>21899</v>
+        <v>28936</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -6796,10 +6796,10 @@
         <v>6</v>
       </c>
       <c r="D310" t="n">
-        <v>77.54271897512491</v>
+        <v>79.81647066860516</v>
       </c>
       <c r="E310" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -6813,10 +6813,10 @@
         <v>11</v>
       </c>
       <c r="D311" t="n">
-        <v>59.95952527056944</v>
+        <v>65.39852060929661</v>
       </c>
       <c r="E311" t="n">
-        <v>363</v>
+        <v>265</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -6830,10 +6830,10 @@
         <v>6</v>
       </c>
       <c r="D312" t="n">
-        <v>74.66426069018755</v>
+        <v>78.59479017035649</v>
       </c>
       <c r="E312" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -6847,10 +6847,10 @@
         <v>6</v>
       </c>
       <c r="D313" t="n">
-        <v>78.65978406376549</v>
+        <v>80.55630558554822</v>
       </c>
       <c r="E313" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -6864,10 +6864,10 @@
         <v>6</v>
       </c>
       <c r="D314" t="n">
-        <v>13.61565917380837</v>
+        <v>13.1895048736174</v>
       </c>
       <c r="E314" t="n">
-        <v>240440</v>
+        <v>257153</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -6881,10 +6881,10 @@
         <v>6</v>
       </c>
       <c r="D315" t="n">
-        <v>38.69203554253335</v>
+        <v>39.09932444623981</v>
       </c>
       <c r="E315" t="n">
-        <v>31480</v>
+        <v>52460</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -6898,10 +6898,10 @@
         <v>6</v>
       </c>
       <c r="D316" t="n">
-        <v>32.32678949071974</v>
+        <v>33.84417426231807</v>
       </c>
       <c r="E316" t="n">
-        <v>80099</v>
+        <v>98573</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -6915,10 +6915,10 @@
         <v>11</v>
       </c>
       <c r="D317" t="n">
-        <v>81.76868586732004</v>
+        <v>82.2692961100587</v>
       </c>
       <c r="E317" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -6932,10 +6932,10 @@
         <v>11</v>
       </c>
       <c r="D318" t="n">
-        <v>77.68882527509275</v>
+        <v>79.97309551502558</v>
       </c>
       <c r="E318" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -6949,10 +6949,10 @@
         <v>6</v>
       </c>
       <c r="D319" t="n">
-        <v>50.98278534641611</v>
+        <v>58.27644701538354</v>
       </c>
       <c r="E319" t="n">
-        <v>2286</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -6966,10 +6966,10 @@
         <v>6</v>
       </c>
       <c r="D320" t="n">
-        <v>86.63651999419879</v>
+        <v>87.77653445990568</v>
       </c>
       <c r="E320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -6983,10 +6983,10 @@
         <v>6</v>
       </c>
       <c r="D321" t="n">
-        <v>72.71296985296152</v>
+        <v>74.45196579556206</v>
       </c>
       <c r="E321" t="n">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -7000,10 +7000,10 @@
         <v>11</v>
       </c>
       <c r="D322" t="n">
-        <v>51.80126888578134</v>
+        <v>64.20237861255477</v>
       </c>
       <c r="E322" t="n">
-        <v>1877</v>
+        <v>329</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -7017,10 +7017,10 @@
         <v>11</v>
       </c>
       <c r="D323" t="n">
-        <v>70.16240888764784</v>
+        <v>69.34959547038709</v>
       </c>
       <c r="E323" t="n">
-        <v>58</v>
+        <v>124</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -7034,10 +7034,10 @@
         <v>6</v>
       </c>
       <c r="D324" t="n">
-        <v>71.55982493452264</v>
+        <v>80.15208853387539</v>
       </c>
       <c r="E324" t="n">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -7051,7 +7051,7 @@
         <v>6</v>
       </c>
       <c r="D325" t="n">
-        <v>81.90071215290826</v>
+        <v>84.84328092811336</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -7068,10 +7068,10 @@
         <v>11</v>
       </c>
       <c r="D326" t="n">
-        <v>68.56277032774744</v>
+        <v>76.41059249789348</v>
       </c>
       <c r="E326" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -7085,7 +7085,7 @@
         <v>6</v>
       </c>
       <c r="D327" t="n">
-        <v>83.35537070925744</v>
+        <v>86.95426300235445</v>
       </c>
       <c r="E327" t="n">
         <v>3</v>
@@ -7102,10 +7102,10 @@
         <v>6</v>
       </c>
       <c r="D328" t="n">
-        <v>72.57512857609304</v>
+        <v>74.5193846640703</v>
       </c>
       <c r="E328" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -7119,10 +7119,10 @@
         <v>6</v>
       </c>
       <c r="D329" t="n">
-        <v>60.85769923504982</v>
+        <v>66.10292175290907</v>
       </c>
       <c r="E329" t="n">
-        <v>304</v>
+        <v>229</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -7136,10 +7136,10 @@
         <v>6</v>
       </c>
       <c r="D330" t="n">
-        <v>35.07399904475336</v>
+        <v>38.4351246228472</v>
       </c>
       <c r="E330" t="n">
-        <v>56463</v>
+        <v>57451</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -7153,10 +7153,10 @@
         <v>6</v>
       </c>
       <c r="D331" t="n">
-        <v>66.79207797679</v>
+        <v>75.48807851650621</v>
       </c>
       <c r="E331" t="n">
-        <v>104</v>
+        <v>41</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -7170,10 +7170,10 @@
         <v>6</v>
       </c>
       <c r="D332" t="n">
-        <v>76.25481280469977</v>
+        <v>78.23391994617398</v>
       </c>
       <c r="E332" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -7187,10 +7187,10 @@
         <v>6</v>
       </c>
       <c r="D333" t="n">
-        <v>69.88692867779304</v>
+        <v>70.87992649068727</v>
       </c>
       <c r="E333" t="n">
-        <v>60</v>
+        <v>104</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -7204,10 +7204,10 @@
         <v>6</v>
       </c>
       <c r="D334" t="n">
-        <v>67.52383169675296</v>
+        <v>71.48108318696092</v>
       </c>
       <c r="E334" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -7221,10 +7221,10 @@
         <v>6</v>
       </c>
       <c r="D335" t="n">
-        <v>51.02130627211476</v>
+        <v>54.45106294448726</v>
       </c>
       <c r="E335" t="n">
-        <v>2267</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -7238,10 +7238,10 @@
         <v>6</v>
       </c>
       <c r="D336" t="n">
-        <v>70.98704439581272</v>
+        <v>78.78145915438311</v>
       </c>
       <c r="E336" t="n">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -7255,10 +7255,10 @@
         <v>6</v>
       </c>
       <c r="D337" t="n">
-        <v>40.26194400644373</v>
+        <v>41.82238996392152</v>
       </c>
       <c r="E337" t="n">
-        <v>23708</v>
+        <v>34116</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -7272,10 +7272,10 @@
         <v>6</v>
       </c>
       <c r="D338" t="n">
-        <v>41.6855545964732</v>
+        <v>44.22415455963505</v>
       </c>
       <c r="E338" t="n">
-        <v>17822</v>
+        <v>22392</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -7289,10 +7289,10 @@
         <v>6</v>
       </c>
       <c r="D339" t="n">
-        <v>48.86484337647016</v>
+        <v>50.99048361974943</v>
       </c>
       <c r="E339" t="n">
-        <v>3658</v>
+        <v>5545</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -7306,10 +7306,10 @@
         <v>6</v>
       </c>
       <c r="D340" t="n">
-        <v>65.77828053314292</v>
+        <v>68.70066940909162</v>
       </c>
       <c r="E340" t="n">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -7323,10 +7323,10 @@
         <v>6</v>
       </c>
       <c r="D341" t="n">
-        <v>39.40484800524123</v>
+        <v>40.39106132356257</v>
       </c>
       <c r="E341" t="n">
-        <v>27747</v>
+        <v>43349</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -7340,10 +7340,10 @@
         <v>6</v>
       </c>
       <c r="D342" t="n">
-        <v>44.19850194971933</v>
+        <v>46.16354555483404</v>
       </c>
       <c r="E342" t="n">
-        <v>10549</v>
+        <v>15355</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -7357,10 +7357,10 @@
         <v>6</v>
       </c>
       <c r="D343" t="n">
-        <v>28.33588719440577</v>
+        <v>28.09595687052795</v>
       </c>
       <c r="E343" t="n">
-        <v>120392</v>
+        <v>155080</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -7374,10 +7374,10 @@
         <v>11</v>
       </c>
       <c r="D344" t="n">
-        <v>26.6004906341443</v>
+        <v>34.52991184481146</v>
       </c>
       <c r="E344" t="n">
-        <v>14518</v>
+        <v>909</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -7391,10 +7391,10 @@
         <v>6</v>
       </c>
       <c r="D345" t="n">
-        <v>30.09893230557194</v>
+        <v>32.06083423437885</v>
       </c>
       <c r="E345" t="n">
-        <v>4411</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -7408,10 +7408,10 @@
         <v>6</v>
       </c>
       <c r="D346" t="n">
-        <v>25.3658782106936</v>
+        <v>34.17083437145767</v>
       </c>
       <c r="E346" t="n">
-        <v>20771</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -7425,10 +7425,10 @@
         <v>11</v>
       </c>
       <c r="D347" t="n">
-        <v>33.078243080113</v>
+        <v>38.56772916679032</v>
       </c>
       <c r="E347" t="n">
-        <v>1390</v>
+        <v>150</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -7442,10 +7442,10 @@
         <v>11</v>
       </c>
       <c r="D348" t="n">
-        <v>33.11479157778189</v>
+        <v>38.6086506262649</v>
       </c>
       <c r="E348" t="n">
-        <v>1365</v>
+        <v>148</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -7459,10 +7459,10 @@
         <v>6</v>
       </c>
       <c r="D349" t="n">
-        <v>25.47498455375696</v>
+        <v>30.57886575564597</v>
       </c>
       <c r="E349" t="n">
-        <v>20176</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -7476,10 +7476,10 @@
         <v>6</v>
       </c>
       <c r="D350" t="n">
-        <v>16.71952594229273</v>
+        <v>24.24947018441076</v>
       </c>
       <c r="E350" t="n">
-        <v>125962</v>
+        <v>30406</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -7493,10 +7493,10 @@
         <v>6</v>
       </c>
       <c r="D351" t="n">
-        <v>31.03996489857707</v>
+        <v>36.80788792574747</v>
       </c>
       <c r="E351" t="n">
-        <v>3081</v>
+        <v>312</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -7510,10 +7510,10 @@
         <v>11</v>
       </c>
       <c r="D352" t="n">
-        <v>53.99785911202568</v>
+        <v>55.03187469588541</v>
       </c>
       <c r="E352" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -7527,10 +7527,10 @@
         <v>6</v>
       </c>
       <c r="D353" t="n">
-        <v>18.18906729265141</v>
+        <v>25.88390056270669</v>
       </c>
       <c r="E353" t="n">
-        <v>101020</v>
+        <v>19648</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -7544,10 +7544,10 @@
         <v>6</v>
       </c>
       <c r="D354" t="n">
-        <v>51.46993452042593</v>
+        <v>51.67169406564586</v>
       </c>
       <c r="E354" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -7561,7 +7561,7 @@
         <v>6</v>
       </c>
       <c r="D355" t="n">
-        <v>49.09285900360418</v>
+        <v>50.04893337851107</v>
       </c>
       <c r="E355" t="n">
         <v>6</v>
@@ -7578,10 +7578,10 @@
         <v>6</v>
       </c>
       <c r="D356" t="n">
-        <v>43.06793238761557</v>
+        <v>43.27235755195073</v>
       </c>
       <c r="E356" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -7595,10 +7595,10 @@
         <v>6</v>
       </c>
       <c r="D357" t="n">
-        <v>27.61910302945874</v>
+        <v>31.93928401311358</v>
       </c>
       <c r="E357" t="n">
-        <v>10590</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -7612,10 +7612,10 @@
         <v>6</v>
       </c>
       <c r="D358" t="n">
-        <v>31.18005319748872</v>
+        <v>37.04576342553662</v>
       </c>
       <c r="E358" t="n">
-        <v>2940</v>
+        <v>284</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -7629,10 +7629,10 @@
         <v>6</v>
       </c>
       <c r="D359" t="n">
-        <v>39.25822537318255</v>
+        <v>45.8583654310941</v>
       </c>
       <c r="E359" t="n">
-        <v>86</v>
+        <v>8</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -7646,10 +7646,10 @@
         <v>6</v>
       </c>
       <c r="D360" t="n">
-        <v>54.39064697940582</v>
+        <v>52.38490572229543</v>
       </c>
       <c r="E360" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -7663,10 +7663,10 @@
         <v>6</v>
       </c>
       <c r="D361" t="n">
-        <v>24.46795649621147</v>
+        <v>31.59683481555507</v>
       </c>
       <c r="E361" t="n">
-        <v>26600</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -7680,10 +7680,10 @@
         <v>6</v>
       </c>
       <c r="D362" t="n">
-        <v>37.79075175132512</v>
+        <v>37.00215677911288</v>
       </c>
       <c r="E362" t="n">
-        <v>176</v>
+        <v>289</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -7697,10 +7697,10 @@
         <v>6</v>
       </c>
       <c r="D363" t="n">
-        <v>41.34623038471507</v>
+        <v>43.16178831179454</v>
       </c>
       <c r="E363" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -7714,10 +7714,10 @@
         <v>6</v>
       </c>
       <c r="D364" t="n">
-        <v>12.7467723893029</v>
+        <v>15.28604468612493</v>
       </c>
       <c r="E364" t="n">
-        <v>190720</v>
+        <v>154619</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -7731,10 +7731,10 @@
         <v>6</v>
       </c>
       <c r="D365" t="n">
-        <v>9.836932531224843</v>
+        <v>9.535130616375492</v>
       </c>
       <c r="E365" t="n">
-        <v>232040</v>
+        <v>238104</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -7748,10 +7748,10 @@
         <v>6</v>
       </c>
       <c r="D366" t="n">
-        <v>19.66609180300799</v>
+        <v>26.29160674448894</v>
       </c>
       <c r="E366" t="n">
-        <v>78305</v>
+        <v>17492</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -7765,10 +7765,10 @@
         <v>6</v>
       </c>
       <c r="D367" t="n">
-        <v>25.91947713783273</v>
+        <v>33.74655662275185</v>
       </c>
       <c r="E367" t="n">
-        <v>17779</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -7782,10 +7782,10 @@
         <v>6</v>
       </c>
       <c r="D368" t="n">
-        <v>19.67283227010844</v>
+        <v>27.23209270205193</v>
       </c>
       <c r="E368" t="n">
-        <v>78205</v>
+        <v>13232</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -7799,10 +7799,10 @@
         <v>6</v>
       </c>
       <c r="D369" t="n">
-        <v>47.49654201185368</v>
+        <v>45.60938439836428</v>
       </c>
       <c r="E369" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -7816,10 +7816,10 @@
         <v>6</v>
       </c>
       <c r="D370" t="n">
-        <v>12.47367029503573</v>
+        <v>24.53735000806204</v>
       </c>
       <c r="E370" t="n">
-        <v>195272</v>
+        <v>28284</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -7833,10 +7833,10 @@
         <v>6</v>
       </c>
       <c r="D371" t="n">
-        <v>21.7114941959768</v>
+        <v>21.68073615151672</v>
       </c>
       <c r="E371" t="n">
-        <v>51905</v>
+        <v>55781</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -7850,10 +7850,10 @@
         <v>6</v>
       </c>
       <c r="D372" t="n">
-        <v>52.30068004229513</v>
+        <v>51.29653828085559</v>
       </c>
       <c r="E372" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -7867,10 +7867,10 @@
         <v>6</v>
       </c>
       <c r="D373" t="n">
-        <v>41.76967273044863</v>
+        <v>41.00715792200908</v>
       </c>
       <c r="E373" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -7884,10 +7884,10 @@
         <v>6</v>
       </c>
       <c r="D374" t="n">
-        <v>46.14372563107346</v>
+        <v>44.59945842938652</v>
       </c>
       <c r="E374" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -7901,10 +7901,10 @@
         <v>11</v>
       </c>
       <c r="D375" t="n">
-        <v>19.73819163121286</v>
+        <v>28.02636616382509</v>
       </c>
       <c r="E375" t="n">
-        <v>77256</v>
+        <v>10320</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -7918,10 +7918,10 @@
         <v>6</v>
       </c>
       <c r="D376" t="n">
-        <v>23.73124863047791</v>
+        <v>29.37787672361928</v>
       </c>
       <c r="E376" t="n">
-        <v>31981</v>
+        <v>6520</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -7935,10 +7935,10 @@
         <v>6</v>
       </c>
       <c r="D377" t="n">
-        <v>24.23613228047251</v>
+        <v>30.31445519667321</v>
       </c>
       <c r="E377" t="n">
-        <v>28170</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -7952,10 +7952,10 @@
         <v>6</v>
       </c>
       <c r="D378" t="n">
-        <v>31.67210566171718</v>
+        <v>44.00738474037377</v>
       </c>
       <c r="E378" t="n">
-        <v>2437</v>
+        <v>20</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -7969,10 +7969,10 @@
         <v>6</v>
       </c>
       <c r="D379" t="n">
-        <v>33.64374006970372</v>
+        <v>39.60404276098546</v>
       </c>
       <c r="E379" t="n">
-        <v>1093</v>
+        <v>86</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -7986,10 +7986,10 @@
         <v>11</v>
       </c>
       <c r="D380" t="n">
-        <v>34.40551298000693</v>
+        <v>37.65518330421776</v>
       </c>
       <c r="E380" t="n">
-        <v>809</v>
+        <v>230</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -8003,10 +8003,10 @@
         <v>6</v>
       </c>
       <c r="D381" t="n">
-        <v>45.09609189274413</v>
+        <v>45.53641028420018</v>
       </c>
       <c r="E381" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -8020,10 +8020,10 @@
         <v>6</v>
       </c>
       <c r="D382" t="n">
-        <v>14.45558869416511</v>
+        <v>22.30232569554792</v>
       </c>
       <c r="E382" t="n">
-        <v>163793</v>
+        <v>48650</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -8037,10 +8037,10 @@
         <v>6</v>
       </c>
       <c r="D383" t="n">
-        <v>41.9011161683827</v>
+        <v>40.92423646661788</v>
       </c>
       <c r="E383" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -8054,10 +8054,10 @@
         <v>6</v>
       </c>
       <c r="D384" t="n">
-        <v>45.52318017973364</v>
+        <v>44.65470501256077</v>
       </c>
       <c r="E384" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -8071,10 +8071,10 @@
         <v>6</v>
       </c>
       <c r="D385" t="n">
-        <v>53.36816581527325</v>
+        <v>51.36134610018939</v>
       </c>
       <c r="E385" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -8088,10 +8088,10 @@
         <v>6</v>
       </c>
       <c r="D386" t="n">
-        <v>15.63264470502136</v>
+        <v>21.92179417276908</v>
       </c>
       <c r="E386" t="n">
-        <v>144480</v>
+        <v>52887</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -8105,10 +8105,10 @@
         <v>11</v>
       </c>
       <c r="D387" t="n">
-        <v>17.84999428382803</v>
+        <v>24.6039472204372</v>
       </c>
       <c r="E387" t="n">
-        <v>106684</v>
+        <v>27806</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -8122,10 +8122,10 @@
         <v>6</v>
       </c>
       <c r="D388" t="n">
-        <v>28.65987062105016</v>
+        <v>33.52467309220036</v>
       </c>
       <c r="E388" t="n">
-        <v>7439</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -8139,10 +8139,10 @@
         <v>6</v>
       </c>
       <c r="D389" t="n">
-        <v>26.47383631301096</v>
+        <v>33.59353814041767</v>
       </c>
       <c r="E389" t="n">
-        <v>15116</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -8156,10 +8156,10 @@
         <v>6</v>
       </c>
       <c r="D390" t="n">
-        <v>17.83701754034684</v>
+        <v>17.20640465209932</v>
       </c>
       <c r="E390" t="n">
-        <v>106875</v>
+        <v>122184</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -8173,10 +8173,10 @@
         <v>6</v>
       </c>
       <c r="D391" t="n">
-        <v>15.61092944347773</v>
+        <v>20.11953158865026</v>
       </c>
       <c r="E391" t="n">
-        <v>144829</v>
+        <v>76093</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -8190,10 +8190,10 @@
         <v>11</v>
       </c>
       <c r="D392" t="n">
-        <v>28.57071558163276</v>
+        <v>33.0196358187514</v>
       </c>
       <c r="E392" t="n">
-        <v>7680</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -8207,10 +8207,10 @@
         <v>6</v>
       </c>
       <c r="D393" t="n">
-        <v>13.87089768593665</v>
+        <v>13.42949937676002</v>
       </c>
       <c r="E393" t="n">
-        <v>173345</v>
+        <v>183915</v>
       </c>
     </row>
   </sheetData>
@@ -8284,28 +8284,28 @@
         <v>387</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="n">
-        <v>0.28</v>
+        <v>0.36</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J2" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="K2" t="n">
-        <v>0.056</v>
+        <v>0.06</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8322,7 +8322,7 @@
         <v>387</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0.2</v>
@@ -8331,19 +8331,19 @@
         <v>0.2</v>
       </c>
       <c r="H3" t="n">
-        <v>0.12</v>
+        <v>0.28</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="K3" t="n">
-        <v>0.022</v>
+        <v>0.032</v>
       </c>
       <c r="L3" t="n">
-        <v>0.012</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -8363,25 +8363,25 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="I4" t="n">
-        <v>0.26</v>
+        <v>0.44</v>
       </c>
       <c r="J4" t="n">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="K4" t="n">
-        <v>0.078</v>
+        <v>0.092</v>
       </c>
       <c r="L4" t="n">
-        <v>0.042</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -8398,28 +8398,28 @@
         <v>387</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.0263</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0789</v>
+        <v>0.1053</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1053</v>
+        <v>0.1316</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1842</v>
+        <v>0.2368</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2632</v>
+        <v>0.3947</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3947</v>
+        <v>0.4737</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7368</v>
+        <v>0.7895</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7895</v>
+        <v>0.8421</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -8436,7 +8436,7 @@
         <v>387</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0526</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0.0526</v>
@@ -8445,19 +8445,19 @@
         <v>0.1053</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1579</v>
+        <v>0.3684</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1579</v>
+        <v>0.3684</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3158</v>
+        <v>0.4737</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5789</v>
+        <v>0.8421</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6316000000000001</v>
+        <v>0.8947000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -8477,25 +8477,25 @@
         <v>0.0175</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0702</v>
+        <v>0.0877</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1053</v>
+        <v>0.1228</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1754</v>
+        <v>0.2807</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2281</v>
+        <v>0.386</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3684</v>
+        <v>0.4737</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6842</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7368</v>
+        <v>0.8596</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8512,28 +8512,28 @@
         <v>387</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.0513</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1395</v>
+        <v>0.1861</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1667</v>
+        <v>0.2084</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2222</v>
+        <v>0.2857</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2273</v>
+        <v>0.3409</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2174</v>
+        <v>0.2609</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1041</v>
+        <v>0.1115</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0578</v>
+        <v>0.0617</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8550,7 +8550,7 @@
         <v>387</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0999</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0.0833</v>
@@ -8559,19 +8559,19 @@
         <v>0.138</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1364</v>
+        <v>0.3182</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.2029</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1008</v>
+        <v>0.1513</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0424</v>
+        <v>0.0617</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0236</v>
+        <v>0.0334</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -8591,25 +8591,25 @@
         <v>0.0344</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1291</v>
+        <v>0.1613</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1792</v>
+        <v>0.2089</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2439</v>
+        <v>0.3902</v>
       </c>
       <c r="I10" t="n">
-        <v>0.243</v>
+        <v>0.4112</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2675</v>
+        <v>0.344</v>
       </c>
       <c r="K10" t="n">
-        <v>0.14</v>
+        <v>0.1652</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0795</v>
+        <v>0.0927</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8635,19 +8635,19 @@
         <v>0.5</v>
       </c>
       <c r="H11" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I11" t="n">
         <v>0.28</v>
       </c>
-      <c r="I11" t="n">
-        <v>0.24</v>
-      </c>
       <c r="J11" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="K11" t="n">
         <v>0.046</v>
       </c>
       <c r="L11" t="n">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8670,10 +8670,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H12" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="I12" t="n">
         <v>0.1</v>
@@ -8685,7 +8685,7 @@
         <v>0.044</v>
       </c>
       <c r="L12" t="n">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -8708,22 +8708,22 @@
         <v>0.6</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H13" t="n">
         <v>0.44</v>
       </c>
       <c r="I13" t="n">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="J13" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="K13" t="n">
         <v>0.09</v>
       </c>
       <c r="L13" t="n">
-        <v>0.048</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -8749,19 +8749,19 @@
         <v>0.2</v>
       </c>
       <c r="H14" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="I14" t="n">
-        <v>0.48</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J14" t="n">
-        <v>0.64</v>
+        <v>0.68</v>
       </c>
       <c r="K14" t="n">
         <v>0.92</v>
       </c>
       <c r="L14" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0294</v>
+        <v>0.0588</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1176</v>
+        <v>0.0882</v>
       </c>
       <c r="I15" t="n">
         <v>0.1471</v>
@@ -8799,7 +8799,7 @@
         <v>0.6471</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7059</v>
+        <v>0.7353</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -8822,22 +8822,22 @@
         <v>0.0508</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1017</v>
+        <v>0.1186</v>
       </c>
       <c r="H16" t="n">
         <v>0.1864</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2881</v>
+        <v>0.322</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4407</v>
+        <v>0.4576</v>
       </c>
       <c r="K16" t="n">
         <v>0.7627</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8136</v>
+        <v>0.8475</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -8863,19 +8863,19 @@
         <v>0.2857</v>
       </c>
       <c r="H17" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="I17" t="n">
-        <v>0.32</v>
+        <v>0.3733</v>
       </c>
       <c r="J17" t="n">
-        <v>0.256</v>
+        <v>0.272</v>
       </c>
       <c r="K17" t="n">
         <v>0.0876</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0468</v>
+        <v>0.0488</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -8898,10 +8898,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0454</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1356</v>
+        <v>0.1017</v>
       </c>
       <c r="I18" t="n">
         <v>0.1191</v>
@@ -8913,7 +8913,7 @@
         <v>0.0824</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0464</v>
+        <v>0.0484</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -8936,22 +8936,22 @@
         <v>0.09370000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1739</v>
+        <v>0.2028</v>
       </c>
       <c r="H19" t="n">
         <v>0.2619</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3119</v>
+        <v>0.3486</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3271</v>
+        <v>0.3396</v>
       </c>
       <c r="K19" t="n">
         <v>0.161</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0907</v>
+        <v>0.0944</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -8974,7 +8974,7 @@
         <v>0.4</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H20" t="n">
         <v>0.24</v>
@@ -9012,19 +9012,19 @@
         <v>0.4</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H21" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I21" t="n">
         <v>0.28</v>
       </c>
-      <c r="I21" t="n">
-        <v>0.22</v>
-      </c>
       <c r="J21" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="K21" t="n">
-        <v>0.048</v>
+        <v>0.052</v>
       </c>
       <c r="L21" t="n">
         <v>0.027</v>
@@ -9053,16 +9053,16 @@
         <v>0.7</v>
       </c>
       <c r="H22" t="n">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="I22" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="J22" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="K22" t="n">
-        <v>0.068</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="L22" t="n">
         <v>0.037</v>
@@ -9088,7 +9088,7 @@
         <v>0.2</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H23" t="n">
         <v>0.6</v>
@@ -9126,19 +9126,19 @@
         <v>0.07140000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1786</v>
+        <v>0.1429</v>
       </c>
       <c r="H24" t="n">
-        <v>0.25</v>
+        <v>0.2143</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3929</v>
+        <v>0.5</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5357</v>
+        <v>0.6071</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8571</v>
+        <v>0.9286</v>
       </c>
       <c r="L24" t="n">
         <v>0.9643</v>
@@ -9167,16 +9167,16 @@
         <v>0.1842</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3421</v>
+        <v>0.3158</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5</v>
+        <v>0.5789</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6316000000000001</v>
+        <v>0.6842</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8947000000000001</v>
+        <v>0.9474</v>
       </c>
       <c r="L25" t="n">
         <v>0.9737</v>
@@ -9202,7 +9202,7 @@
         <v>0.2667</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H26" t="n">
         <v>0.3429</v>
@@ -9240,19 +9240,19 @@
         <v>0.1212</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2632</v>
+        <v>0.2106</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2642</v>
+        <v>0.2264</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2821</v>
+        <v>0.359</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2344</v>
+        <v>0.2656</v>
       </c>
       <c r="K27" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.0985</v>
       </c>
       <c r="L27" t="n">
         <v>0.0525</v>
@@ -9281,16 +9281,16 @@
         <v>0.2917</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4127</v>
+        <v>0.381</v>
       </c>
       <c r="I28" t="n">
-        <v>0.4318</v>
+        <v>0.5</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3478</v>
+        <v>0.3768</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1264</v>
+        <v>0.1338</v>
       </c>
       <c r="L28" t="n">
         <v>0.0713</v>
@@ -9313,25 +9313,25 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0.1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I29" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="J29" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.022</v>
+        <v>0.02</v>
       </c>
       <c r="L29" t="n">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -9354,22 +9354,22 @@
         <v>0.6</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="I30" t="n">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
       <c r="J30" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="K30" t="n">
-        <v>0.028</v>
+        <v>0.03</v>
       </c>
       <c r="L30" t="n">
-        <v>0.015</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -9389,25 +9389,25 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H31" t="n">
-        <v>0.24</v>
+        <v>0.44</v>
       </c>
       <c r="I31" t="n">
-        <v>0.14</v>
+        <v>0.34</v>
       </c>
       <c r="J31" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="K31" t="n">
         <v>0.05</v>
       </c>
       <c r="L31" t="n">
-        <v>0.026</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -9427,25 +9427,25 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0833</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0.0833</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1667</v>
+        <v>0.25</v>
       </c>
       <c r="I32" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="J32" t="n">
-        <v>0.5</v>
+        <v>0.5833</v>
       </c>
       <c r="K32" t="n">
-        <v>0.9167</v>
+        <v>0.8333</v>
       </c>
       <c r="L32" t="n">
-        <v>0.9167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -9468,22 +9468,22 @@
         <v>0.09089999999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1212</v>
+        <v>0.1515</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1212</v>
+        <v>0.2424</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1212</v>
+        <v>0.3333</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2424</v>
+        <v>0.3636</v>
       </c>
       <c r="K33" t="n">
-        <v>0.4242</v>
+        <v>0.4545</v>
       </c>
       <c r="L33" t="n">
-        <v>0.4545</v>
+        <v>0.5758</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -9503,25 +9503,25 @@
         <v>0.0222</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08890000000000001</v>
+        <v>0.0667</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1111</v>
+        <v>0.1333</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1333</v>
+        <v>0.2444</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1556</v>
+        <v>0.3778</v>
       </c>
       <c r="J34" t="n">
-        <v>0.3111</v>
+        <v>0.4222</v>
       </c>
       <c r="K34" t="n">
         <v>0.5556</v>
       </c>
       <c r="L34" t="n">
-        <v>0.5778</v>
+        <v>0.6889</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -9541,25 +9541,25 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1176</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0.09089999999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1081</v>
+        <v>0.1622</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0968</v>
+        <v>0.1935</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1071</v>
+        <v>0.125</v>
       </c>
       <c r="K35" t="n">
-        <v>0.043</v>
+        <v>0.0391</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0217</v>
+        <v>0.0237</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -9582,22 +9582,22 @@
         <v>0.1579</v>
       </c>
       <c r="G36" t="n">
-        <v>0.186</v>
+        <v>0.2325</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1379</v>
+        <v>0.2758</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0964</v>
+        <v>0.265</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1203</v>
+        <v>0.1804</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0525</v>
+        <v>0.0563</v>
       </c>
       <c r="L36" t="n">
-        <v>0.029</v>
+        <v>0.0368</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -9617,25 +9617,25 @@
         <v>0.0434</v>
       </c>
       <c r="F37" t="n">
-        <v>0.16</v>
+        <v>0.1201</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1818</v>
+        <v>0.2181</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1714</v>
+        <v>0.3142</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1474</v>
+        <v>0.3579</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1931</v>
+        <v>0.2621</v>
       </c>
       <c r="K37" t="n">
         <v>0.0917</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0498</v>
+        <v>0.0593</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -9664,7 +9664,7 @@
         <v>0.08</v>
       </c>
       <c r="I38" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="J38" t="n">
         <v>0.04</v>
@@ -9699,7 +9699,7 @@
         <v>0.2</v>
       </c>
       <c r="H39" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="I39" t="n">
         <v>0.1</v>
@@ -9711,7 +9711,7 @@
         <v>0.016</v>
       </c>
       <c r="L39" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -9737,10 +9737,10 @@
         <v>0.3</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="I40" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="J40" t="n">
         <v>0.11</v>
@@ -9749,7 +9749,7 @@
         <v>0.026</v>
       </c>
       <c r="L40" t="n">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -9778,7 +9778,7 @@
         <v>0.2</v>
       </c>
       <c r="I41" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J41" t="n">
         <v>0.4</v>
@@ -9813,7 +9813,7 @@
         <v>0.1053</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1579</v>
+        <v>0.2105</v>
       </c>
       <c r="I42" t="n">
         <v>0.2632</v>
@@ -9825,7 +9825,7 @@
         <v>0.4211</v>
       </c>
       <c r="L42" t="n">
-        <v>0.5789</v>
+        <v>0.5263</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -9851,10 +9851,10 @@
         <v>0.1034</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1724</v>
+        <v>0.2069</v>
       </c>
       <c r="I43" t="n">
-        <v>0.2414</v>
+        <v>0.2759</v>
       </c>
       <c r="J43" t="n">
         <v>0.3793</v>
@@ -9863,7 +9863,7 @@
         <v>0.4483</v>
       </c>
       <c r="L43" t="n">
-        <v>0.5862000000000001</v>
+        <v>0.5517</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -9892,7 +9892,7 @@
         <v>0.1143</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0667</v>
+        <v>0.1</v>
       </c>
       <c r="J44" t="n">
         <v>0.0727</v>
@@ -9927,7 +9927,7 @@
         <v>0.138</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1364</v>
+        <v>0.1818</v>
       </c>
       <c r="I45" t="n">
         <v>0.1449</v>
@@ -9939,7 +9939,7 @@
         <v>0.0308</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0216</v>
+        <v>0.0196</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -9965,10 +9965,10 @@
         <v>0.1538</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1852</v>
+        <v>0.2222</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1772</v>
+        <v>0.2025</v>
       </c>
       <c r="J46" t="n">
         <v>0.1705</v>
@@ -9977,7 +9977,7 @@
         <v>0.0491</v>
       </c>
       <c r="L46" t="n">
-        <v>0.033</v>
+        <v>0.0311</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -10000,22 +10000,22 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H47" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="I47" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="J47" t="n">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="K47" t="n">
-        <v>0.016</v>
+        <v>0.024</v>
       </c>
       <c r="L47" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -10032,28 +10032,28 @@
         <v>387</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H48" t="n">
-        <v>0.12</v>
+        <v>0.32</v>
       </c>
       <c r="I48" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="J48" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="K48" t="n">
-        <v>0.012</v>
+        <v>0.022</v>
       </c>
       <c r="L48" t="n">
-        <v>0.008</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -10070,28 +10070,28 @@
         <v>387</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
-        <v>0.16</v>
+        <v>0.44</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1</v>
+        <v>0.32</v>
       </c>
       <c r="J49" t="n">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="K49" t="n">
-        <v>0.028</v>
+        <v>0.046</v>
       </c>
       <c r="L49" t="n">
-        <v>0.017</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -10114,22 +10114,22 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>0.1429</v>
       </c>
       <c r="H50" t="n">
-        <v>0.07140000000000001</v>
+        <v>0.2143</v>
       </c>
       <c r="I50" t="n">
-        <v>0.07140000000000001</v>
+        <v>0.5714</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1429</v>
+        <v>0.7857</v>
       </c>
       <c r="K50" t="n">
-        <v>0.5714</v>
+        <v>0.8571</v>
       </c>
       <c r="L50" t="n">
-        <v>0.6429</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -10146,28 +10146,28 @@
         <v>387</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>0.0588</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>0.1765</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>0.1765</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1765</v>
+        <v>0.4706</v>
       </c>
       <c r="I51" t="n">
-        <v>0.2353</v>
+        <v>0.4706</v>
       </c>
       <c r="J51" t="n">
-        <v>0.2353</v>
+        <v>0.5294</v>
       </c>
       <c r="K51" t="n">
-        <v>0.3529</v>
+        <v>0.6471</v>
       </c>
       <c r="L51" t="n">
-        <v>0.4706</v>
+        <v>0.6471</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -10184,28 +10184,28 @@
         <v>387</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>0.0323</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>0.0968</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>0.1613</v>
       </c>
       <c r="H52" t="n">
-        <v>0.129</v>
+        <v>0.3548</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1613</v>
+        <v>0.5161</v>
       </c>
       <c r="J52" t="n">
-        <v>0.1935</v>
+        <v>0.6452</v>
       </c>
       <c r="K52" t="n">
-        <v>0.4516</v>
+        <v>0.7419</v>
       </c>
       <c r="L52" t="n">
-        <v>0.5484</v>
+        <v>0.8065</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -10228,22 +10228,22 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>0.1667</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0513</v>
+        <v>0.1538</v>
       </c>
       <c r="I53" t="n">
-        <v>0.0312</v>
+        <v>0.25</v>
       </c>
       <c r="J53" t="n">
-        <v>0.0351</v>
+        <v>0.193</v>
       </c>
       <c r="K53" t="n">
-        <v>0.0311</v>
+        <v>0.0467</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0178</v>
+        <v>0.0276</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -10260,28 +10260,28 @@
         <v>387</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>0.1111</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>0.2728</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>0.2222</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1429</v>
+        <v>0.381</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1194</v>
+        <v>0.2388</v>
       </c>
       <c r="J54" t="n">
-        <v>0.0684</v>
+        <v>0.1538</v>
       </c>
       <c r="K54" t="n">
-        <v>0.0232</v>
+        <v>0.0426</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0157</v>
+        <v>0.0216</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -10298,28 +10298,28 @@
         <v>387</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>0.0626</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>0.1667</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>0.2439</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1428</v>
+        <v>0.3928</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1235</v>
+        <v>0.3951</v>
       </c>
       <c r="J55" t="n">
-        <v>0.0916</v>
+        <v>0.3053</v>
       </c>
       <c r="K55" t="n">
-        <v>0.0527</v>
+        <v>0.0866</v>
       </c>
       <c r="L55" t="n">
-        <v>0.033</v>
+        <v>0.0485</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -10342,7 +10342,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>0.08</v>
@@ -10418,7 +10418,7 @@
         <v>0.8</v>
       </c>
       <c r="G58" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H58" t="n">
         <v>0.6</v>
@@ -10456,7 +10456,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
         <v>0.4</v>
@@ -10532,7 +10532,7 @@
         <v>0.16</v>
       </c>
       <c r="G61" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="H61" t="n">
         <v>0.6</v>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1333</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
         <v>0.1333</v>
@@ -10646,7 +10646,7 @@
         <v>0.2667</v>
       </c>
       <c r="G64" t="n">
-        <v>0.4571</v>
+        <v>0.4</v>
       </c>
       <c r="H64" t="n">
         <v>0.6</v>
@@ -10678,7 +10678,7 @@
         <v>387</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
         <v>0.2</v>
@@ -10696,10 +10696,10 @@
         <v>0.01</v>
       </c>
       <c r="K65" t="n">
-        <v>0.002</v>
+        <v>0.008</v>
       </c>
       <c r="L65" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -10716,28 +10716,28 @@
         <v>387</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
         <v>0.8</v>
       </c>
       <c r="G66" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H66" t="n">
-        <v>0.4</v>
+        <v>0.48</v>
       </c>
       <c r="I66" t="n">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="J66" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="K66" t="n">
-        <v>0.03</v>
+        <v>0.038</v>
       </c>
       <c r="L66" t="n">
-        <v>0.015</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -10760,22 +10760,22 @@
         <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H67" t="n">
-        <v>0.44</v>
+        <v>0.52</v>
       </c>
       <c r="I67" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="J67" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="K67" t="n">
-        <v>0.032</v>
+        <v>0.046</v>
       </c>
       <c r="L67" t="n">
-        <v>0.017</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -10792,7 +10792,7 @@
         <v>387</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="F68" t="n">
         <v>0.125</v>
@@ -10810,10 +10810,10 @@
         <v>0.125</v>
       </c>
       <c r="K68" t="n">
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="L68" t="n">
-        <v>0.25</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -10830,28 +10830,28 @@
         <v>387</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0238</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
         <v>0.09520000000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>0.1667</v>
+        <v>0.1905</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2381</v>
+        <v>0.2857</v>
       </c>
       <c r="I69" t="n">
-        <v>0.3095</v>
+        <v>0.3571</v>
       </c>
       <c r="J69" t="n">
-        <v>0.3333</v>
+        <v>0.381</v>
       </c>
       <c r="K69" t="n">
-        <v>0.3571</v>
+        <v>0.4524</v>
       </c>
       <c r="L69" t="n">
-        <v>0.3571</v>
+        <v>0.4524</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -10874,22 +10874,22 @@
         <v>0.1</v>
       </c>
       <c r="G70" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="H70" t="n">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="I70" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="J70" t="n">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="K70" t="n">
-        <v>0.32</v>
+        <v>0.46</v>
       </c>
       <c r="L70" t="n">
-        <v>0.34</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -10906,7 +10906,7 @@
         <v>387</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>0.2222</v>
       </c>
       <c r="F71" t="n">
         <v>0.1538</v>
@@ -10924,10 +10924,10 @@
         <v>0.0185</v>
       </c>
       <c r="K71" t="n">
-        <v>0.0039</v>
+        <v>0.0157</v>
       </c>
       <c r="L71" t="n">
-        <v>0.004</v>
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -10944,28 +10944,28 @@
         <v>387</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0465</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
         <v>0.1702</v>
       </c>
       <c r="G72" t="n">
-        <v>0.2693</v>
+        <v>0.3077</v>
       </c>
       <c r="H72" t="n">
-        <v>0.2985</v>
+        <v>0.3582</v>
       </c>
       <c r="I72" t="n">
-        <v>0.2826</v>
+        <v>0.3261</v>
       </c>
       <c r="J72" t="n">
-        <v>0.1972</v>
+        <v>0.2254</v>
       </c>
       <c r="K72" t="n">
-        <v>0.0554</v>
+        <v>0.0701</v>
       </c>
       <c r="L72" t="n">
-        <v>0.0288</v>
+        <v>0.0365</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -10988,22 +10988,22 @@
         <v>0.1818</v>
       </c>
       <c r="G73" t="n">
-        <v>0.2667</v>
+        <v>0.3</v>
       </c>
       <c r="H73" t="n">
-        <v>0.2933</v>
+        <v>0.3467</v>
       </c>
       <c r="I73" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="J73" t="n">
-        <v>0.2</v>
+        <v>0.2267</v>
       </c>
       <c r="K73" t="n">
-        <v>0.0582</v>
+        <v>0.08359999999999999</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0324</v>
+        <v>0.0457</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -11020,10 +11020,10 @@
         <v>387</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G74" t="n">
         <v>0.3</v>
@@ -11032,16 +11032,16 @@
         <v>0.12</v>
       </c>
       <c r="I74" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="J74" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="K74" t="n">
-        <v>0.012</v>
+        <v>0.014</v>
       </c>
       <c r="L74" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -11058,7 +11058,7 @@
         <v>387</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
         <v>0.6</v>
@@ -11067,7 +11067,7 @@
         <v>0.5</v>
       </c>
       <c r="H75" t="n">
-        <v>0.28</v>
+        <v>0.36</v>
       </c>
       <c r="I75" t="n">
         <v>0.22</v>
@@ -11099,25 +11099,25 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G76" t="n">
         <v>0.8</v>
       </c>
       <c r="H76" t="n">
-        <v>0.4</v>
+        <v>0.48</v>
       </c>
       <c r="I76" t="n">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="J76" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="K76" t="n">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="L76" t="n">
-        <v>0.025</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -11134,10 +11134,10 @@
         <v>387</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>0.1429</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2857</v>
+        <v>0.1429</v>
       </c>
       <c r="G77" t="n">
         <v>0.4286</v>
@@ -11146,16 +11146,16 @@
         <v>0.4286</v>
       </c>
       <c r="I77" t="n">
-        <v>0.4286</v>
+        <v>0.5714</v>
       </c>
       <c r="J77" t="n">
-        <v>0.7143</v>
+        <v>0.5714</v>
       </c>
       <c r="K77" t="n">
-        <v>0.8571</v>
+        <v>1</v>
       </c>
       <c r="L77" t="n">
-        <v>0.8571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -11172,7 +11172,7 @@
         <v>387</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0303</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
         <v>0.09089999999999999</v>
@@ -11181,7 +11181,7 @@
         <v>0.1515</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2121</v>
+        <v>0.2727</v>
       </c>
       <c r="I78" t="n">
         <v>0.3333</v>
@@ -11213,25 +11213,25 @@
         <v>0.025</v>
       </c>
       <c r="F79" t="n">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="G79" t="n">
         <v>0.2</v>
       </c>
       <c r="H79" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="I79" t="n">
-        <v>0.35</v>
+        <v>0.375</v>
       </c>
       <c r="J79" t="n">
-        <v>0.5</v>
+        <v>0.475</v>
       </c>
       <c r="K79" t="n">
-        <v>0.625</v>
+        <v>0.65</v>
       </c>
       <c r="L79" t="n">
-        <v>0.625</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -11248,10 +11248,10 @@
         <v>387</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>0.2501</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3333</v>
+        <v>0.1667</v>
       </c>
       <c r="G80" t="n">
         <v>0.353</v>
@@ -11260,16 +11260,16 @@
         <v>0.1875</v>
       </c>
       <c r="I80" t="n">
-        <v>0.1053</v>
+        <v>0.1404</v>
       </c>
       <c r="J80" t="n">
-        <v>0.0935</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0237</v>
+        <v>0.0276</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0119</v>
+        <v>0.0139</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -11286,7 +11286,7 @@
         <v>387</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0588</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
         <v>0.1579</v>
@@ -11295,7 +11295,7 @@
         <v>0.2325</v>
       </c>
       <c r="H81" t="n">
-        <v>0.2414</v>
+        <v>0.3103</v>
       </c>
       <c r="I81" t="n">
         <v>0.265</v>
@@ -11327,25 +11327,25 @@
         <v>0.0488</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2222</v>
+        <v>0.1778</v>
       </c>
       <c r="G82" t="n">
         <v>0.32</v>
       </c>
       <c r="H82" t="n">
-        <v>0.3077</v>
+        <v>0.3692</v>
       </c>
       <c r="I82" t="n">
-        <v>0.3111</v>
+        <v>0.3333</v>
       </c>
       <c r="J82" t="n">
-        <v>0.2857</v>
+        <v>0.2714</v>
       </c>
       <c r="K82" t="n">
-        <v>0.0926</v>
+        <v>0.0963</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0481</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -11365,7 +11365,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G83" t="n">
         <v>0.2</v>
@@ -11403,13 +11403,13 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G84" t="n">
         <v>0.7</v>
       </c>
       <c r="H84" t="n">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="I84" t="n">
         <v>0.3</v>
@@ -11418,10 +11418,10 @@
         <v>0.15</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03</v>
+        <v>0.032</v>
       </c>
       <c r="L84" t="n">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -11447,7 +11447,7 @@
         <v>0.9</v>
       </c>
       <c r="H85" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="I85" t="n">
         <v>0.34</v>
@@ -11456,10 +11456,10 @@
         <v>0.17</v>
       </c>
       <c r="K85" t="n">
-        <v>0.034</v>
+        <v>0.036</v>
       </c>
       <c r="L85" t="n">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -11479,7 +11479,7 @@
         <v>0.5</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -11517,13 +11517,13 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1875</v>
+        <v>0.25</v>
       </c>
       <c r="G87" t="n">
         <v>0.4375</v>
       </c>
       <c r="H87" t="n">
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
       <c r="I87" t="n">
         <v>0.9375</v>
@@ -11532,10 +11532,10 @@
         <v>0.9375</v>
       </c>
       <c r="K87" t="n">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="L87" t="n">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -11561,7 +11561,7 @@
         <v>0.5</v>
       </c>
       <c r="H88" t="n">
-        <v>0.7778</v>
+        <v>0.8333</v>
       </c>
       <c r="I88" t="n">
         <v>0.9444</v>
@@ -11570,10 +11570,10 @@
         <v>0.9444</v>
       </c>
       <c r="K88" t="n">
-        <v>0.9444</v>
+        <v>1</v>
       </c>
       <c r="L88" t="n">
-        <v>0.9444</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -11593,7 +11593,7 @@
         <v>0.6667</v>
       </c>
       <c r="F89" t="n">
-        <v>0.5714</v>
+        <v>0.2857</v>
       </c>
       <c r="G89" t="n">
         <v>0.3333</v>
@@ -11631,13 +11631,13 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.2857</v>
+        <v>0.381</v>
       </c>
       <c r="G90" t="n">
         <v>0.5385</v>
       </c>
       <c r="H90" t="n">
-        <v>0.5854</v>
+        <v>0.6341</v>
       </c>
       <c r="I90" t="n">
         <v>0.4545</v>
@@ -11646,10 +11646,10 @@
         <v>0.2586</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0581</v>
+        <v>0.062</v>
       </c>
       <c r="L90" t="n">
-        <v>0.0295</v>
+        <v>0.0315</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -11675,7 +11675,7 @@
         <v>0.6429</v>
       </c>
       <c r="H91" t="n">
-        <v>0.6512</v>
+        <v>0.6977</v>
       </c>
       <c r="I91" t="n">
         <v>0.5</v>
@@ -11684,10 +11684,10 @@
         <v>0.2881</v>
       </c>
       <c r="K91" t="n">
-        <v>0.06560000000000001</v>
+        <v>0.06950000000000001</v>
       </c>
       <c r="L91" t="n">
-        <v>0.0334</v>
+        <v>0.0354</v>
       </c>
     </row>
   </sheetData>
@@ -11761,28 +11761,28 @@
         <v>387</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04210526315789474</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.1240601503759399</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08170667052245999</v>
+        <v>0.1718946575925981</v>
       </c>
       <c r="I2" t="n">
-        <v>0.101302712205921</v>
+        <v>0.2341341926641253</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1280489194966022</v>
+        <v>0.2585694638486225</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1602488437991978</v>
+        <v>0.2976832004807165</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1626843922221833</v>
+        <v>0.3000553815141305</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -11799,28 +11799,28 @@
         <v>387</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06766917293233082</v>
+        <v>0.02807017543859649</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07644110275689223</v>
+        <v>0.1129134582307957</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07644110275689223</v>
+        <v>0.1129134582307957</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08827627303126395</v>
+        <v>0.1274773799969335</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09928779170697029</v>
+        <v>0.1484125519789101</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1004466521608573</v>
+        <v>0.1495567167386355</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -11840,25 +11840,25 @@
         <v>0.01754385964912281</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06228070175438596</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08533834586466164</v>
+        <v>0.1228070175438596</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1208919735235525</v>
+        <v>0.2409585847464431</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1383929848173622</v>
+        <v>0.3061764685597038</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1761753495646302</v>
+        <v>0.3443597241781883</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2182435090637592</v>
+        <v>0.4034093613485682</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2218155204523812</v>
+        <v>0.4068942756910838</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -11881,22 +11881,22 @@
         <v>0.09066666666666666</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1357460317460317</v>
+        <v>0.1373333333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1715555555555555</v>
+        <v>0.1887463768115942</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2245543915429405</v>
+        <v>0.2569592749218096</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2552598731957907</v>
+        <v>0.2840475489666054</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2864025624872538</v>
+        <v>0.3056170695248059</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2882923262667814</v>
+        <v>0.3082407609058471</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -11919,22 +11919,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.004901960784313725</v>
+        <v>0.0115546218487395</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01874057315233786</v>
+        <v>0.01674493326742462</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02251131221719457</v>
+        <v>0.02408073472087313</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03855835222961845</v>
+        <v>0.04036387468417618</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06541024285683293</v>
+        <v>0.06902033874808348</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06787625076219296</v>
+        <v>0.07273854933846602</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -11957,22 +11957,22 @@
         <v>0.03841807909604519</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07312348668280871</v>
+        <v>0.0864003228410008</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1183476128391382</v>
+        <v>0.1253098623384505</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1572994012337342</v>
+        <v>0.1786560530157824</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2026110144718083</v>
+        <v>0.2233774524094549</v>
       </c>
       <c r="K7" t="n">
-        <v>0.260123630288215</v>
+        <v>0.2765490161525857</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2645327362521756</v>
+        <v>0.2830011688188561</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -11992,25 +11992,25 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07333333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07333333333333333</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1958441558441558</v>
+        <v>0.2244110275689223</v>
       </c>
       <c r="I8" t="n">
-        <v>0.228420987995456</v>
+        <v>0.2738663652595541</v>
       </c>
       <c r="J8" t="n">
-        <v>0.238311097885566</v>
+        <v>0.2829572743504632</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2408556271476525</v>
+        <v>0.2855546769478657</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2408556271476525</v>
+        <v>0.2855546769478657</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -12030,25 +12030,25 @@
         <v>0.03571428571428571</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="G9" t="n">
-        <v>0.132015306122449</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1530889529724933</v>
+        <v>0.1240769034886682</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1878584536581431</v>
+        <v>0.1992624136654876</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2114861956615343</v>
+        <v>0.2238692432394224</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2420437304797428</v>
+        <v>0.2513911794807265</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2463609066068908</v>
+        <v>0.2524415996487937</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -12068,25 +12068,25 @@
         <v>0.02631578947368421</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1675125313283208</v>
+        <v>0.1727756892230576</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2671060473978094</v>
+        <v>0.2534568460977945</v>
       </c>
       <c r="I10" t="n">
-        <v>0.330344079949404</v>
+        <v>0.3760839336307621</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3651119346934739</v>
+        <v>0.4102585398032908</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4005517169688944</v>
+        <v>0.4417678799815109</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4049620384981997</v>
+        <v>0.4428285381629121</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -12106,25 +12106,25 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01666666666666667</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02948717948717949</v>
+        <v>0.03257824869078066</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0391025641025641</v>
+        <v>0.06784902366743799</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0541548729048729</v>
+        <v>0.07725762581797561</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0754802747440111</v>
+        <v>0.08966490529169431</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0754802747440111</v>
+        <v>0.09254169525258049</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -12144,25 +12144,25 @@
         <v>0.0303030303030303</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07323232323232323</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G12" t="n">
-        <v>0.09054834054834054</v>
+        <v>0.130050505050505</v>
       </c>
       <c r="H12" t="n">
-        <v>0.09054834054834054</v>
+        <v>0.1663223140495868</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09054834054834054</v>
+        <v>0.1916740308906653</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1007866498750273</v>
+        <v>0.198408037624672</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1127828714527337</v>
+        <v>0.2044529473708641</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1135391866849225</v>
+        <v>0.2078066874078377</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -12182,25 +12182,25 @@
         <v>0.02222222222222222</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07148148148148148</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08735449735449737</v>
+        <v>0.114021164021164</v>
       </c>
       <c r="H13" t="n">
-        <v>0.09761090761090761</v>
+        <v>0.1676944822724874</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1035938135938136</v>
+        <v>0.2217812910276316</v>
       </c>
       <c r="J13" t="n">
-        <v>0.125048908990492</v>
+        <v>0.2359987342773329</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1528763409261904</v>
+        <v>0.2513572342082124</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1538377016213281</v>
+        <v>0.2572609832753259</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -12226,19 +12226,19 @@
         <v>0.01666666666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02619047619047619</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02619047619047619</v>
+        <v>0.04065040650406504</v>
       </c>
       <c r="J14" t="n">
-        <v>0.03702707110241356</v>
+        <v>0.04565040650406504</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03868270024148641</v>
+        <v>0.04683524062728779</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03963056754006461</v>
+        <v>0.04751939114040067</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -12258,25 +12258,25 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08771929824561403</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="G15" t="n">
-        <v>0.08771929824561403</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="H15" t="n">
-        <v>0.09986504723346828</v>
+        <v>0.1256578947368421</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1115077904551589</v>
+        <v>0.1327702702702703</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1227482389304856</v>
+        <v>0.1419451060940068</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1241803907385772</v>
+        <v>0.1449102654713234</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1261786825581577</v>
+        <v>0.1461844600396101</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -12296,25 +12296,25 @@
         <v>0.03448275862068965</v>
       </c>
       <c r="F16" t="n">
-        <v>0.05747126436781608</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07471264367816091</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="H16" t="n">
-        <v>0.09353290387773147</v>
+        <v>0.1188218390804598</v>
       </c>
       <c r="I16" t="n">
-        <v>0.104630082561117</v>
+        <v>0.132073947370415</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1255303409755641</v>
+        <v>0.1456137303722233</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1284221576702712</v>
+        <v>0.1495900313879927</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1312898174438319</v>
+        <v>0.1514952992307447</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -12337,22 +12337,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.02619047619047619</v>
       </c>
       <c r="H17" t="n">
-        <v>0.003105590062111801</v>
+        <v>0.04149659863945578</v>
       </c>
       <c r="I17" t="n">
-        <v>0.003105590062111801</v>
+        <v>0.09994253520113301</v>
       </c>
       <c r="J17" t="n">
-        <v>0.004847750340857445</v>
+        <v>0.1323233495501448</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01433227742165906</v>
+        <v>0.140565107791903</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01534784952727856</v>
+        <v>0.1432304304408233</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -12369,28 +12369,28 @@
         <v>387</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.1617647058823529</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.1617647058823529</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02009803921568628</v>
+        <v>0.2483470932232542</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02881263616557734</v>
+        <v>0.2483470932232542</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02881263616557734</v>
+        <v>0.2583359944441199</v>
       </c>
       <c r="K18" t="n">
-        <v>0.03052808014573966</v>
+        <v>0.2635455008242725</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03154869230839535</v>
+        <v>0.2635455008242725</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -12407,28 +12407,28 @@
         <v>387</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.1263440860215054</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01663160355306218</v>
+        <v>0.2124741962432964</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02260531920419718</v>
+        <v>0.2758790629877479</v>
       </c>
       <c r="J19" t="n">
-        <v>0.02496566538830418</v>
+        <v>0.3141661030713918</v>
       </c>
       <c r="K19" t="n">
-        <v>0.03504753992129452</v>
+        <v>0.3268041470207062</v>
       </c>
       <c r="L19" t="n">
-        <v>0.03704329412044694</v>
+        <v>0.3289907644386328</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -12451,22 +12451,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02222222222222222</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03822222222222223</v>
+        <v>0.03405797101449275</v>
       </c>
       <c r="I20" t="n">
-        <v>0.05822222222222222</v>
+        <v>0.05223978919631093</v>
       </c>
       <c r="J20" t="n">
-        <v>0.05822222222222222</v>
+        <v>0.05223978919631093</v>
       </c>
       <c r="K20" t="n">
-        <v>0.06549402491736586</v>
+        <v>0.05818110425306827</v>
       </c>
       <c r="L20" t="n">
-        <v>0.06549402491736586</v>
+        <v>0.05818110425306827</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -12486,25 +12486,25 @@
         <v>0.05</v>
       </c>
       <c r="F21" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3041666666666666</v>
+        <v>0.3282738095238095</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5129983250921466</v>
+        <v>0.5327581847976585</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6379229213554852</v>
+        <v>0.6397488077633624</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6626062627054933</v>
+        <v>0.6637143770777689</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6626062627054933</v>
+        <v>0.6637143770777689</v>
       </c>
       <c r="L21" t="n">
-        <v>0.6626062627054933</v>
+        <v>0.6637143770777689</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -12524,25 +12524,25 @@
         <v>0.04</v>
       </c>
       <c r="F22" t="n">
-        <v>0.152</v>
+        <v>0.16</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2784444444444444</v>
+        <v>0.2626190476190476</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4860674514907925</v>
+        <v>0.4948176819366751</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6260438987045621</v>
+        <v>0.6158532122319187</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6488304948244916</v>
+        <v>0.6379794580790947</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6569718627370266</v>
+        <v>0.6446164253097652</v>
       </c>
       <c r="L22" t="n">
-        <v>0.6569718627370266</v>
+        <v>0.6446164253097652</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -12559,28 +12559,28 @@
         <v>387</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0625</v>
+        <v>0.125</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0625</v>
+        <v>0.125</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0625</v>
+        <v>0.125</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0625</v>
+        <v>0.125</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0625</v>
+        <v>0.125</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0625</v>
+        <v>0.1313631022326675</v>
       </c>
       <c r="L23" t="n">
-        <v>0.06280902348578492</v>
+        <v>0.1320506709895432</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -12597,28 +12597,28 @@
         <v>387</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02380952380952381</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07658730158730159</v>
+        <v>0.06468253968253969</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1328042328042328</v>
+        <v>0.13994708994709</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1791350949245686</v>
+        <v>0.1936375661375661</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2087331907942162</v>
+        <v>0.2200750028143645</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2126091597864643</v>
+        <v>0.224504681662648</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2146383805656851</v>
+        <v>0.2288627847067251</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2146383805656851</v>
+        <v>0.2288627847067251</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -12641,22 +12641,22 @@
         <v>0.1</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1552777777777778</v>
+        <v>0.1732777777777778</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1986049768944506</v>
+        <v>0.2227611111111111</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2255512633665992</v>
+        <v>0.2465799872704128</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2290396354596224</v>
+        <v>0.2505334756425058</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2308578172778042</v>
+        <v>0.2617140954063307</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2312780892184717</v>
+        <v>0.2622421482116113</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -12673,28 +12673,28 @@
         <v>387</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1285714285714286</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1761904761904762</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1761904761904762</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1761904761904762</v>
+        <v>0.250140056022409</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1955665024630542</v>
+        <v>0.250140056022409</v>
       </c>
       <c r="K26" t="n">
-        <v>0.197927777551602</v>
+        <v>0.2621744397115239</v>
       </c>
       <c r="L26" t="n">
-        <v>0.197927777551602</v>
+        <v>0.2621744397115239</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -12711,28 +12711,28 @@
         <v>387</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0303030303030303</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.07323232323232323</v>
+        <v>0.05808080808080807</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1085858585858586</v>
+        <v>0.09006734006734007</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1347566574839302</v>
+        <v>0.145600025085671</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1679128951856224</v>
+        <v>0.1641794271806324</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1942964865281006</v>
+        <v>0.1887500538095781</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2083735552926693</v>
+        <v>0.2029117224968522</v>
       </c>
       <c r="L27" t="n">
-        <v>0.2083735552926693</v>
+        <v>0.2029117224968522</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -12752,25 +12752,25 @@
         <v>0.025</v>
       </c>
       <c r="F28" t="n">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1894444444444444</v>
+        <v>0.1790277777777778</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2212626262626263</v>
+        <v>0.2438667217285638</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2574152236652237</v>
+        <v>0.2745140773907614</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2987128358753531</v>
+        <v>0.300892416033251</v>
       </c>
       <c r="K28" t="n">
-        <v>0.3154391325302532</v>
+        <v>0.3243016610149649</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3154391325302532</v>
+        <v>0.3243016610149649</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -12790,25 +12790,25 @@
         <v>0.5</v>
       </c>
       <c r="F29" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G29" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H29" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I29" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J29" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K29" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L29" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -12828,25 +12828,25 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1104166666666667</v>
+        <v>0.1697916666666667</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2821428571428571</v>
+        <v>0.2998511904761905</v>
       </c>
       <c r="H30" t="n">
-        <v>0.4878703098372216</v>
+        <v>0.5664637445887447</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5585438223711994</v>
+        <v>0.6101266365748075</v>
       </c>
       <c r="J30" t="n">
-        <v>0.5585438223711994</v>
+        <v>0.6101266365748075</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5585438223711994</v>
+        <v>0.614474462661764</v>
       </c>
       <c r="L30" t="n">
-        <v>0.5585438223711994</v>
+        <v>0.614474462661764</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -12872,19 +12872,19 @@
         <v>0.4882716049382717</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7088244181381437</v>
+        <v>0.7719596761263428</v>
       </c>
       <c r="I31" t="n">
-        <v>0.780722803990018</v>
+        <v>0.8161266654152833</v>
       </c>
       <c r="J31" t="n">
-        <v>0.780722803990018</v>
+        <v>0.8161266654152833</v>
       </c>
       <c r="K31" t="n">
-        <v>0.780722803990018</v>
+        <v>0.8204744915022399</v>
       </c>
       <c r="L31" t="n">
-        <v>0.780722803990018</v>
+        <v>0.8204744915022399</v>
       </c>
     </row>
   </sheetData>

--- a/BM25.xlsx
+++ b/BM25.xlsx
@@ -1560,10 +1560,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>150.9447778782927</v>
+        <v>152.574201342157</v>
       </c>
       <c r="E2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1577,10 +1577,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>152.4500014971742</v>
+        <v>145.574326476483</v>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1594,7 +1594,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>184.3033941603967</v>
+        <v>181.2062595627605</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
@@ -1611,10 +1611,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>105.3238323149178</v>
+        <v>110.6212718678011</v>
       </c>
       <c r="E5" t="n">
-        <v>230</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1628,10 +1628,10 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>173.6265514976948</v>
+        <v>177.0127026701869</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1645,10 +1645,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>170.8499699969706</v>
+        <v>160.9107987454937</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1662,10 +1662,10 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>211.5357193971705</v>
+        <v>214.8327808738746</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1679,10 +1679,10 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>162.327845045257</v>
+        <v>160.2521658063975</v>
       </c>
       <c r="E9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1696,10 +1696,10 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>162.327845045257</v>
+        <v>160.2521658063975</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1713,10 +1713,10 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>151.6647842218684</v>
+        <v>158.1318948427586</v>
       </c>
       <c r="E11" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1730,10 +1730,10 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>173.7180452629188</v>
+        <v>168.1420345275479</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1747,10 +1747,10 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>221.159413800372</v>
+        <v>213.7708035402825</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1764,10 +1764,10 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>141.3132198654199</v>
+        <v>137.4640233554698</v>
       </c>
       <c r="E14" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1781,10 +1781,10 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>167.5030232957706</v>
+        <v>166.8930338695104</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1798,7 +1798,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>349.8897425044003</v>
+        <v>359.600411312535</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1815,10 +1815,10 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>160.5513058381848</v>
+        <v>153.420080549676</v>
       </c>
       <c r="E17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1832,10 +1832,10 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>123.4110615389742</v>
+        <v>116.3871884710315</v>
       </c>
       <c r="E18" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1849,10 +1849,10 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>123.4110615389742</v>
+        <v>116.3871884710315</v>
       </c>
       <c r="E19" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1866,10 +1866,10 @@
         <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>62.53234155849559</v>
+        <v>62.91237433159377</v>
       </c>
       <c r="E20" t="n">
-        <v>1627</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1883,10 +1883,10 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>83.6858596227725</v>
+        <v>86.77204892950435</v>
       </c>
       <c r="E21" t="n">
-        <v>369</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1900,10 +1900,10 @@
         <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>49.9681904815899</v>
+        <v>49.99560062072231</v>
       </c>
       <c r="E22" t="n">
-        <v>4430</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1917,10 +1917,10 @@
         <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>112.3924048144007</v>
+        <v>108.5662329399429</v>
       </c>
       <c r="E23" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1934,10 +1934,10 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>83.09657112763455</v>
+        <v>79.80503741864555</v>
       </c>
       <c r="E24" t="n">
-        <v>382</v>
+        <v>438</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1951,10 +1951,10 @@
         <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>69.0433961151474</v>
+        <v>73.57777235473129</v>
       </c>
       <c r="E25" t="n">
-        <v>1026</v>
+        <v>649</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1968,10 +1968,10 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>96.92319335948171</v>
+        <v>100.5418077432561</v>
       </c>
       <c r="E26" t="n">
-        <v>150</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1985,10 +1985,10 @@
         <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>94.202933353463</v>
+        <v>99.99313929440646</v>
       </c>
       <c r="E27" t="n">
-        <v>191</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2002,10 +2002,10 @@
         <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>85.02276078772192</v>
+        <v>78.06804581227877</v>
       </c>
       <c r="E28" t="n">
-        <v>334</v>
+        <v>513</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2019,10 +2019,10 @@
         <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>68.48050916807199</v>
+        <v>67.10207035271178</v>
       </c>
       <c r="E29" t="n">
-        <v>1063</v>
+        <v>937</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2036,10 +2036,10 @@
         <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>99.68952117442548</v>
+        <v>105.567105450464</v>
       </c>
       <c r="E30" t="n">
-        <v>114</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2053,10 +2053,10 @@
         <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>99.30659778476181</v>
+        <v>100.9741220992323</v>
       </c>
       <c r="E31" t="n">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2070,10 +2070,10 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>91.09376408357973</v>
+        <v>77.23696080814139</v>
       </c>
       <c r="E32" t="n">
-        <v>226</v>
+        <v>542</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2087,7 +2087,7 @@
         <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>124.2710242724109</v>
+        <v>126.5352351979102</v>
       </c>
       <c r="E33" t="n">
         <v>6</v>
@@ -2104,10 +2104,10 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>93.42552498295299</v>
+        <v>92.57043426101102</v>
       </c>
       <c r="E34" t="n">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2121,10 +2121,10 @@
         <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>107.6733349475674</v>
+        <v>102.5462003826121</v>
       </c>
       <c r="E35" t="n">
-        <v>60</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2138,10 +2138,10 @@
         <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>99.36727834607871</v>
+        <v>103.0153091740399</v>
       </c>
       <c r="E36" t="n">
-        <v>117</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2155,10 +2155,10 @@
         <v>11</v>
       </c>
       <c r="D37" t="n">
-        <v>55.02958376108162</v>
+        <v>51.43197389301091</v>
       </c>
       <c r="E37" t="n">
-        <v>2926</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2172,10 +2172,10 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>120.1223168983223</v>
+        <v>123.0412706483373</v>
       </c>
       <c r="E38" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2189,10 +2189,10 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>120.5248910327301</v>
+        <v>126.2302388662018</v>
       </c>
       <c r="E39" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2206,10 +2206,10 @@
         <v>11</v>
       </c>
       <c r="D40" t="n">
-        <v>112.5830405042024</v>
+        <v>109.4843194023704</v>
       </c>
       <c r="E40" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2223,10 +2223,10 @@
         <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>124.9643584052767</v>
+        <v>123.8732827964308</v>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2240,10 +2240,10 @@
         <v>11</v>
       </c>
       <c r="D42" t="n">
-        <v>88.73636577842406</v>
+        <v>80.87815260157663</v>
       </c>
       <c r="E42" t="n">
-        <v>267</v>
+        <v>422</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2257,10 +2257,10 @@
         <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>80.28550541265531</v>
+        <v>70.18147754308087</v>
       </c>
       <c r="E43" t="n">
-        <v>472</v>
+        <v>773</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2274,10 +2274,10 @@
         <v>11</v>
       </c>
       <c r="D44" t="n">
-        <v>122.3509451313078</v>
+        <v>119.0354978034322</v>
       </c>
       <c r="E44" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2291,10 +2291,10 @@
         <v>11</v>
       </c>
       <c r="D45" t="n">
-        <v>99.47284534226557</v>
+        <v>103.1621392656352</v>
       </c>
       <c r="E45" t="n">
-        <v>116</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2308,10 +2308,10 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>106.6762587083421</v>
+        <v>105.300273471103</v>
       </c>
       <c r="E46" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2325,10 +2325,10 @@
         <v>11</v>
       </c>
       <c r="D47" t="n">
-        <v>117.0616767182173</v>
+        <v>119.9605022743511</v>
       </c>
       <c r="E47" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2342,10 +2342,10 @@
         <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>73.11661026519047</v>
+        <v>79.31290257935419</v>
       </c>
       <c r="E48" t="n">
-        <v>782</v>
+        <v>455</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2359,10 +2359,10 @@
         <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>86.20576057142219</v>
+        <v>86.43581442261302</v>
       </c>
       <c r="E49" t="n">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2376,10 +2376,10 @@
         <v>11</v>
       </c>
       <c r="D50" t="n">
-        <v>77.12508630684324</v>
+        <v>81.77833064774761</v>
       </c>
       <c r="E50" t="n">
-        <v>607</v>
+        <v>393</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2393,10 +2393,10 @@
         <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>121.6064707294031</v>
+        <v>128.0769211699098</v>
       </c>
       <c r="E51" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2410,10 +2410,10 @@
         <v>11</v>
       </c>
       <c r="D52" t="n">
-        <v>109.1954916644919</v>
+        <v>106.1247169795553</v>
       </c>
       <c r="E52" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2427,10 +2427,10 @@
         <v>11</v>
       </c>
       <c r="D53" t="n">
-        <v>81.00375357013823</v>
+        <v>83.44789168041022</v>
       </c>
       <c r="E53" t="n">
-        <v>441</v>
+        <v>359</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2444,7 +2444,7 @@
         <v>11</v>
       </c>
       <c r="D54" t="n">
-        <v>139.0074033803329</v>
+        <v>131.4333467776512</v>
       </c>
       <c r="E54" t="n">
         <v>1</v>
@@ -2461,10 +2461,10 @@
         <v>11</v>
       </c>
       <c r="D55" t="n">
-        <v>72.34011939868029</v>
+        <v>67.80965079820091</v>
       </c>
       <c r="E55" t="n">
-        <v>819</v>
+        <v>895</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2478,10 +2478,10 @@
         <v>11</v>
       </c>
       <c r="D56" t="n">
-        <v>109.6815636913427</v>
+        <v>101.429409100801</v>
       </c>
       <c r="E56" t="n">
-        <v>51</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2495,7 +2495,7 @@
         <v>11</v>
       </c>
       <c r="D57" t="n">
-        <v>126.0266272017213</v>
+        <v>127.4378070585925</v>
       </c>
       <c r="E57" t="n">
         <v>4</v>
@@ -2512,10 +2512,10 @@
         <v>11</v>
       </c>
       <c r="D58" t="n">
-        <v>100.3734638969707</v>
+        <v>100.5808307837827</v>
       </c>
       <c r="E58" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2529,10 +2529,10 @@
         <v>11</v>
       </c>
       <c r="D59" t="n">
-        <v>87.42666106119556</v>
+        <v>85.60482188615629</v>
       </c>
       <c r="E59" t="n">
-        <v>286</v>
+        <v>309</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2546,10 +2546,10 @@
         <v>11</v>
       </c>
       <c r="D60" t="n">
-        <v>127.0593798861814</v>
+        <v>127.2879029103933</v>
       </c>
       <c r="E60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2563,10 +2563,10 @@
         <v>11</v>
       </c>
       <c r="D61" t="n">
-        <v>98.04740461470084</v>
+        <v>102.1784774747444</v>
       </c>
       <c r="E61" t="n">
-        <v>135</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2580,10 +2580,10 @@
         <v>11</v>
       </c>
       <c r="D62" t="n">
-        <v>117.7482571510393</v>
+        <v>113.510254898071</v>
       </c>
       <c r="E62" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2597,10 +2597,10 @@
         <v>11</v>
       </c>
       <c r="D63" t="n">
-        <v>118.0182428188412</v>
+        <v>116.7193034350516</v>
       </c>
       <c r="E63" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2614,10 +2614,10 @@
         <v>11</v>
       </c>
       <c r="D64" t="n">
-        <v>118.1591099756074</v>
+        <v>116.696444787023</v>
       </c>
       <c r="E64" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2631,10 +2631,10 @@
         <v>11</v>
       </c>
       <c r="D65" t="n">
-        <v>118.7303779339599</v>
+        <v>115.4507956122318</v>
       </c>
       <c r="E65" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2648,10 +2648,10 @@
         <v>11</v>
       </c>
       <c r="D66" t="n">
-        <v>129.0541086338018</v>
+        <v>120.234530492538</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2665,10 +2665,10 @@
         <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>121.5906479518094</v>
+        <v>121.6304111189319</v>
       </c>
       <c r="E67" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2682,10 +2682,10 @@
         <v>11</v>
       </c>
       <c r="D68" t="n">
-        <v>66.51090444357362</v>
+        <v>65.12928193891152</v>
       </c>
       <c r="E68" t="n">
-        <v>1225</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2699,10 +2699,10 @@
         <v>11</v>
       </c>
       <c r="D69" t="n">
-        <v>123.7222651355925</v>
+        <v>116.8128436101878</v>
       </c>
       <c r="E69" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2716,10 +2716,10 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>108.5190160975413</v>
+        <v>107.8902097464781</v>
       </c>
       <c r="E70" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2733,7 +2733,7 @@
         <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>121.0328508640688</v>
+        <v>119.3829115345929</v>
       </c>
       <c r="E71" t="n">
         <v>16</v>
@@ -2750,10 +2750,10 @@
         <v>11</v>
       </c>
       <c r="D72" t="n">
-        <v>114.0613324176701</v>
+        <v>114.9600555078082</v>
       </c>
       <c r="E72" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2767,10 +2767,10 @@
         <v>11</v>
       </c>
       <c r="D73" t="n">
-        <v>121.1286715085305</v>
+        <v>119.1906450051529</v>
       </c>
       <c r="E73" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2784,10 +2784,10 @@
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>80.89041460941471</v>
+        <v>82.46441089110678</v>
       </c>
       <c r="E74" t="n">
-        <v>449</v>
+        <v>375</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2801,10 +2801,10 @@
         <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>47.75216986729297</v>
+        <v>40.69052729159323</v>
       </c>
       <c r="E75" t="n">
-        <v>5399</v>
+        <v>7314</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2818,10 +2818,10 @@
         <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>38.76152705816948</v>
+        <v>31.12300879191991</v>
       </c>
       <c r="E76" t="n">
-        <v>13140</v>
+        <v>21089</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2835,10 +2835,10 @@
         <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>258.0815910272348</v>
+        <v>235.2307764625254</v>
       </c>
       <c r="E77" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2852,7 +2852,7 @@
         <v>11</v>
       </c>
       <c r="D78" t="n">
-        <v>252.4796927095107</v>
+        <v>239.5480164612093</v>
       </c>
       <c r="E78" t="n">
         <v>19</v>
@@ -2869,10 +2869,10 @@
         <v>11</v>
       </c>
       <c r="D79" t="n">
-        <v>244.2854025895908</v>
+        <v>242.2646871181323</v>
       </c>
       <c r="E79" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2886,10 +2886,10 @@
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>199.1506284238185</v>
+        <v>164.7761994095718</v>
       </c>
       <c r="E80" t="n">
-        <v>368</v>
+        <v>661</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2903,10 +2903,10 @@
         <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>286.3096111899828</v>
+        <v>231.9849079776702</v>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2920,10 +2920,10 @@
         <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>216.0335402724614</v>
+        <v>132.8423157573647</v>
       </c>
       <c r="E82" t="n">
-        <v>156</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2937,10 +2937,10 @@
         <v>11</v>
       </c>
       <c r="D83" t="n">
-        <v>266.8830425344354</v>
+        <v>279.564562502692</v>
       </c>
       <c r="E83" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2954,10 +2954,10 @@
         <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>204.5657272534102</v>
+        <v>209.5937533922934</v>
       </c>
       <c r="E84" t="n">
-        <v>283</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2971,10 +2971,10 @@
         <v>11</v>
       </c>
       <c r="D85" t="n">
-        <v>248.9759504747941</v>
+        <v>261.9791222439997</v>
       </c>
       <c r="E85" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2988,10 +2988,10 @@
         <v>11</v>
       </c>
       <c r="D86" t="n">
-        <v>296.6789093588458</v>
+        <v>304.9613957386559</v>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3005,10 +3005,10 @@
         <v>11</v>
       </c>
       <c r="D87" t="n">
-        <v>251.9117344416508</v>
+        <v>254.0749164935423</v>
       </c>
       <c r="E87" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3022,10 +3022,10 @@
         <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>238.5496542139867</v>
+        <v>218.4113442295755</v>
       </c>
       <c r="E88" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3039,10 +3039,10 @@
         <v>11</v>
       </c>
       <c r="D89" t="n">
-        <v>280.141030186229</v>
+        <v>316.3784124998848</v>
       </c>
       <c r="E89" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3056,10 +3056,10 @@
         <v>11</v>
       </c>
       <c r="D90" t="n">
-        <v>223.3236459256201</v>
+        <v>230.3974244929034</v>
       </c>
       <c r="E90" t="n">
-        <v>99</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3073,10 +3073,10 @@
         <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>199.5644369866079</v>
+        <v>210.62478271321</v>
       </c>
       <c r="E91" t="n">
-        <v>363</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3090,10 +3090,10 @@
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>178.4422209911195</v>
+        <v>169.4598405617994</v>
       </c>
       <c r="E92" t="n">
-        <v>918</v>
+        <v>561</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3107,10 +3107,10 @@
         <v>11</v>
       </c>
       <c r="D93" t="n">
-        <v>198.2641941321783</v>
+        <v>201.3754365056628</v>
       </c>
       <c r="E93" t="n">
-        <v>385</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3124,10 +3124,10 @@
         <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>297.3636862573987</v>
+        <v>307.9216915534132</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3141,10 +3141,10 @@
         <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>198.089959611502</v>
+        <v>182.4290316529305</v>
       </c>
       <c r="E95" t="n">
-        <v>392</v>
+        <v>318</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3158,10 +3158,10 @@
         <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>207.1154485983578</v>
+        <v>196.915590807743</v>
       </c>
       <c r="E96" t="n">
-        <v>241</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3175,10 +3175,10 @@
         <v>11</v>
       </c>
       <c r="D97" t="n">
-        <v>254.0335116556464</v>
+        <v>234.7764449877407</v>
       </c>
       <c r="E97" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3192,10 +3192,10 @@
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>248.3901278140781</v>
+        <v>172.6984323320965</v>
       </c>
       <c r="E98" t="n">
-        <v>31</v>
+        <v>480</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3209,10 +3209,10 @@
         <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>241.6781492133246</v>
+        <v>225.7531751882034</v>
       </c>
       <c r="E99" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3226,10 +3226,10 @@
         <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>241.2121829124335</v>
+        <v>203.1084729327454</v>
       </c>
       <c r="E100" t="n">
-        <v>42</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3243,10 +3243,10 @@
         <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>240.470632347186</v>
+        <v>202.482746480182</v>
       </c>
       <c r="E101" t="n">
-        <v>43</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3260,10 +3260,10 @@
         <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>234.9810292198116</v>
+        <v>230.8779712976349</v>
       </c>
       <c r="E102" t="n">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3277,10 +3277,10 @@
         <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>238.7678593932615</v>
+        <v>205.3043424877425</v>
       </c>
       <c r="E103" t="n">
-        <v>45</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3294,10 +3294,10 @@
         <v>6</v>
       </c>
       <c r="D104" t="n">
-        <v>200.3917088335951</v>
+        <v>195.0805443146221</v>
       </c>
       <c r="E104" t="n">
-        <v>345</v>
+        <v>175</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3311,10 +3311,10 @@
         <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>249.7368716203099</v>
+        <v>150.6309398002809</v>
       </c>
       <c r="E105" t="n">
-        <v>26</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3328,10 +3328,10 @@
         <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>106.0612808959196</v>
+        <v>97.91544550803728</v>
       </c>
       <c r="E106" t="n">
-        <v>10533</v>
+        <v>8259</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3345,10 +3345,10 @@
         <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>227.3018705995503</v>
+        <v>150.6334167270788</v>
       </c>
       <c r="E107" t="n">
-        <v>80</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3362,10 +3362,10 @@
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>238.5336833568715</v>
+        <v>222.3349104173352</v>
       </c>
       <c r="E108" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3379,10 +3379,10 @@
         <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>196.6372336471254</v>
+        <v>190.8997270889759</v>
       </c>
       <c r="E109" t="n">
-        <v>428</v>
+        <v>220</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3396,10 +3396,10 @@
         <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>253.867129359122</v>
+        <v>275.6306863023307</v>
       </c>
       <c r="E110" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3413,10 +3413,10 @@
         <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>273.3129111964852</v>
+        <v>249.6208760157033</v>
       </c>
       <c r="E111" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3430,10 +3430,10 @@
         <v>6</v>
       </c>
       <c r="D112" t="n">
-        <v>261.8376319856254</v>
+        <v>215.3267845689193</v>
       </c>
       <c r="E112" t="n">
-        <v>8</v>
+        <v>62</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3447,10 +3447,10 @@
         <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>222.6889244400298</v>
+        <v>153.8379699310258</v>
       </c>
       <c r="E113" t="n">
-        <v>103</v>
+        <v>995</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3464,10 +3464,10 @@
         <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>228.9365711411839</v>
+        <v>149.3432521578692</v>
       </c>
       <c r="E114" t="n">
-        <v>75</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3481,10 +3481,10 @@
         <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>145.9901134137074</v>
+        <v>143.7403335760351</v>
       </c>
       <c r="E115" t="n">
-        <v>90</v>
+        <v>46</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3498,10 +3498,10 @@
         <v>11</v>
       </c>
       <c r="D116" t="n">
-        <v>149.1853337356582</v>
+        <v>145.3144235623805</v>
       </c>
       <c r="E116" t="n">
-        <v>66</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3515,10 +3515,10 @@
         <v>11</v>
       </c>
       <c r="D117" t="n">
-        <v>181.0274605911337</v>
+        <v>165.7781788940567</v>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3532,10 +3532,10 @@
         <v>11</v>
       </c>
       <c r="D118" t="n">
-        <v>145.1655335870121</v>
+        <v>134.435359298113</v>
       </c>
       <c r="E118" t="n">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3549,10 +3549,10 @@
         <v>11</v>
       </c>
       <c r="D119" t="n">
-        <v>171.008810711802</v>
+        <v>153.5753362704674</v>
       </c>
       <c r="E119" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3566,10 +3566,10 @@
         <v>11</v>
       </c>
       <c r="D120" t="n">
-        <v>166.5411479729411</v>
+        <v>151.4128565850504</v>
       </c>
       <c r="E120" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3583,10 +3583,10 @@
         <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>147.5186365170794</v>
+        <v>139.8721979948533</v>
       </c>
       <c r="E121" t="n">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3600,10 +3600,10 @@
         <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>130.1280211633003</v>
+        <v>111.2518200065739</v>
       </c>
       <c r="E122" t="n">
-        <v>326</v>
+        <v>748</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3617,10 +3617,10 @@
         <v>11</v>
       </c>
       <c r="D123" t="n">
-        <v>133.9537982082561</v>
+        <v>123.2911715822809</v>
       </c>
       <c r="E123" t="n">
-        <v>234</v>
+        <v>292</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3634,10 +3634,10 @@
         <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>137.5870152818217</v>
+        <v>124.5794124639287</v>
       </c>
       <c r="E124" t="n">
-        <v>182</v>
+        <v>257</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3651,10 +3651,10 @@
         <v>11</v>
       </c>
       <c r="D125" t="n">
-        <v>153.8239689387842</v>
+        <v>142.5562590770416</v>
       </c>
       <c r="E125" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3668,10 +3668,10 @@
         <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>170.1012135734388</v>
+        <v>161.1045155687614</v>
       </c>
       <c r="E126" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3685,10 +3685,10 @@
         <v>11</v>
       </c>
       <c r="D127" t="n">
-        <v>155.1440221693819</v>
+        <v>145.5983341558473</v>
       </c>
       <c r="E127" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3702,10 +3702,10 @@
         <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>162.4329056259737</v>
+        <v>162.5888809656997</v>
       </c>
       <c r="E128" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3719,10 +3719,10 @@
         <v>6</v>
       </c>
       <c r="D129" t="n">
-        <v>155.3111662595692</v>
+        <v>146.205459831564</v>
       </c>
       <c r="E129" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3736,10 +3736,10 @@
         <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>59.19129629388483</v>
+        <v>55.49683446658177</v>
       </c>
       <c r="E130" t="n">
-        <v>127184</v>
+        <v>108308</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3753,10 +3753,10 @@
         <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>62.35624510575032</v>
+        <v>59.88435470321573</v>
       </c>
       <c r="E131" t="n">
-        <v>111278</v>
+        <v>84738</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3770,10 +3770,10 @@
         <v>11</v>
       </c>
       <c r="D132" t="n">
-        <v>132.6697068907772</v>
+        <v>122.6218548377592</v>
       </c>
       <c r="E132" t="n">
-        <v>264</v>
+        <v>310</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3787,10 +3787,10 @@
         <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>169.5758090868084</v>
+        <v>160.9553624053823</v>
       </c>
       <c r="E133" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3804,10 +3804,10 @@
         <v>11</v>
       </c>
       <c r="D134" t="n">
-        <v>156.9898065473845</v>
+        <v>149.1618506128126</v>
       </c>
       <c r="E134" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3821,10 +3821,10 @@
         <v>11</v>
       </c>
       <c r="D135" t="n">
-        <v>167.6935797606345</v>
+        <v>153.7779033083523</v>
       </c>
       <c r="E135" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3838,10 +3838,10 @@
         <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>135.7160410560977</v>
+        <v>130.4262739549281</v>
       </c>
       <c r="E136" t="n">
-        <v>202</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3855,10 +3855,10 @@
         <v>11</v>
       </c>
       <c r="D137" t="n">
-        <v>152.8499068330353</v>
+        <v>143.7819815872743</v>
       </c>
       <c r="E137" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3872,10 +3872,10 @@
         <v>11</v>
       </c>
       <c r="D138" t="n">
-        <v>141.9799645270391</v>
+        <v>137.9924067498822</v>
       </c>
       <c r="E138" t="n">
-        <v>136</v>
+        <v>77</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3889,10 +3889,10 @@
         <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>140.650742485237</v>
+        <v>130.9910637544449</v>
       </c>
       <c r="E139" t="n">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3906,10 +3906,10 @@
         <v>11</v>
       </c>
       <c r="D140" t="n">
-        <v>153.1602238248429</v>
+        <v>145.0842433192941</v>
       </c>
       <c r="E140" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3923,10 +3923,10 @@
         <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>61.8470521556205</v>
+        <v>52.3201131480214</v>
       </c>
       <c r="E141" t="n">
-        <v>113907</v>
+        <v>125567</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3940,10 +3940,10 @@
         <v>11</v>
       </c>
       <c r="D142" t="n">
-        <v>127.6056112851165</v>
+        <v>113.3603209479474</v>
       </c>
       <c r="E142" t="n">
-        <v>405</v>
+        <v>632</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3957,10 +3957,10 @@
         <v>11</v>
       </c>
       <c r="D143" t="n">
-        <v>140.8824966183846</v>
+        <v>133.8404096733939</v>
       </c>
       <c r="E143" t="n">
-        <v>148</v>
+        <v>111</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3974,10 +3974,10 @@
         <v>11</v>
       </c>
       <c r="D144" t="n">
-        <v>173.4645605750358</v>
+        <v>172.449109807358</v>
       </c>
       <c r="E144" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3991,10 +3991,10 @@
         <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>129.0307845061241</v>
+        <v>122.1265741446897</v>
       </c>
       <c r="E145" t="n">
-        <v>365</v>
+        <v>332</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4008,10 +4008,10 @@
         <v>11</v>
       </c>
       <c r="D146" t="n">
-        <v>176.5122602120155</v>
+        <v>171.8255030281045</v>
       </c>
       <c r="E146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4025,10 +4025,10 @@
         <v>6</v>
       </c>
       <c r="D147" t="n">
-        <v>138.7727339385201</v>
+        <v>121.3430633354208</v>
       </c>
       <c r="E147" t="n">
-        <v>172</v>
+        <v>349</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4042,10 +4042,10 @@
         <v>6</v>
       </c>
       <c r="D148" t="n">
-        <v>85.99196961439915</v>
+        <v>77.92927408089545</v>
       </c>
       <c r="E148" t="n">
-        <v>19710</v>
+        <v>18147</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4059,10 +4059,10 @@
         <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>85.99196961439915</v>
+        <v>77.92927408089545</v>
       </c>
       <c r="E149" t="n">
-        <v>19709</v>
+        <v>18146</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4076,10 +4076,10 @@
         <v>11</v>
       </c>
       <c r="D150" t="n">
-        <v>153.1778714196957</v>
+        <v>138.3047015955092</v>
       </c>
       <c r="E150" t="n">
-        <v>46</v>
+        <v>76</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4093,10 +4093,10 @@
         <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>120.0160449835788</v>
+        <v>106.908089365854</v>
       </c>
       <c r="E151" t="n">
-        <v>720</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4110,10 +4110,10 @@
         <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>147.6670079857058</v>
+        <v>138.4587789291526</v>
       </c>
       <c r="E152" t="n">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4127,10 +4127,10 @@
         <v>6</v>
       </c>
       <c r="D153" t="n">
-        <v>85.60118259295888</v>
+        <v>68.12789391480096</v>
       </c>
       <c r="E153" t="n">
-        <v>20447</v>
+        <v>45820</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4144,10 +4144,10 @@
         <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>143.7760833489636</v>
+        <v>146.7016042724747</v>
       </c>
       <c r="E154" t="n">
-        <v>121</v>
+        <v>33</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4161,10 +4161,10 @@
         <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>141.6959993741729</v>
+        <v>128.9446062493681</v>
       </c>
       <c r="E155" t="n">
-        <v>139</v>
+        <v>170</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4178,10 +4178,10 @@
         <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>153.9551872473345</v>
+        <v>144.5931951808062</v>
       </c>
       <c r="E156" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4195,10 +4195,10 @@
         <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>134.3549798442562</v>
+        <v>125.1762386094941</v>
       </c>
       <c r="E157" t="n">
-        <v>225</v>
+        <v>247</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4212,10 +4212,10 @@
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>125.0778214439977</v>
+        <v>117.6902211358184</v>
       </c>
       <c r="E158" t="n">
-        <v>507</v>
+        <v>469</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4229,10 +4229,10 @@
         <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>141.3802972217352</v>
+        <v>121.8623214125805</v>
       </c>
       <c r="E159" t="n">
-        <v>142</v>
+        <v>342</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4246,10 +4246,10 @@
         <v>6</v>
       </c>
       <c r="D160" t="n">
-        <v>152.7299084003124</v>
+        <v>132.4127998546748</v>
       </c>
       <c r="E160" t="n">
-        <v>52</v>
+        <v>140</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4263,10 +4263,10 @@
         <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>91.54791147544782</v>
+        <v>86.33361643627757</v>
       </c>
       <c r="E161" t="n">
-        <v>11276</v>
+        <v>7363</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4280,10 +4280,10 @@
         <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>81.9314695463935</v>
+        <v>75.47016334771965</v>
       </c>
       <c r="E162" t="n">
-        <v>28938</v>
+        <v>23363</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4297,10 +4297,10 @@
         <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>95.63913213945888</v>
+        <v>91.33958856068391</v>
       </c>
       <c r="E163" t="n">
-        <v>7300</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4314,10 +4314,10 @@
         <v>11</v>
       </c>
       <c r="D164" t="n">
-        <v>162.5567600047554</v>
+        <v>155.4643688795652</v>
       </c>
       <c r="E164" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4331,10 +4331,10 @@
         <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>124.8117625179459</v>
+        <v>122.4434468085085</v>
       </c>
       <c r="E165" t="n">
-        <v>518</v>
+        <v>317</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4348,10 +4348,10 @@
         <v>11</v>
       </c>
       <c r="D166" t="n">
-        <v>151.401656706524</v>
+        <v>143.5643791466913</v>
       </c>
       <c r="E166" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4365,10 +4365,10 @@
         <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>136.9887737030135</v>
+        <v>125.6084224078657</v>
       </c>
       <c r="E167" t="n">
-        <v>190</v>
+        <v>239</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4382,10 +4382,10 @@
         <v>11</v>
       </c>
       <c r="D168" t="n">
-        <v>160.1197692374076</v>
+        <v>150.9204585452758</v>
       </c>
       <c r="E168" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4399,10 +4399,10 @@
         <v>11</v>
       </c>
       <c r="D169" t="n">
-        <v>128.1731160183083</v>
+        <v>117.7397193027152</v>
       </c>
       <c r="E169" t="n">
-        <v>388</v>
+        <v>468</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4416,10 +4416,10 @@
         <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>128.2137604530375</v>
+        <v>122.2185945612612</v>
       </c>
       <c r="E170" t="n">
-        <v>386</v>
+        <v>324</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4433,10 +4433,10 @@
         <v>6</v>
       </c>
       <c r="D171" t="n">
-        <v>150.8908136875836</v>
+        <v>139.7446963732217</v>
       </c>
       <c r="E171" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4450,10 +4450,10 @@
         <v>11</v>
       </c>
       <c r="D172" t="n">
-        <v>119.7429278455472</v>
+        <v>116.2082909694048</v>
       </c>
       <c r="E172" t="n">
-        <v>734</v>
+        <v>508</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4467,10 +4467,10 @@
         <v>11</v>
       </c>
       <c r="D173" t="n">
-        <v>119.4290681840738</v>
+        <v>112.78055125122</v>
       </c>
       <c r="E173" t="n">
-        <v>760</v>
+        <v>662</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4484,10 +4484,10 @@
         <v>6</v>
       </c>
       <c r="D174" t="n">
-        <v>114.7559070262734</v>
+        <v>106.8942208935185</v>
       </c>
       <c r="E174" t="n">
-        <v>1040</v>
+        <v>936</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4501,10 +4501,10 @@
         <v>6</v>
       </c>
       <c r="D175" t="n">
-        <v>156.7403685282606</v>
+        <v>146.0912818480359</v>
       </c>
       <c r="E175" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4518,10 +4518,10 @@
         <v>6</v>
       </c>
       <c r="D176" t="n">
-        <v>146.9505727838419</v>
+        <v>139.7387958869086</v>
       </c>
       <c r="E176" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4535,10 +4535,10 @@
         <v>6</v>
       </c>
       <c r="D177" t="n">
-        <v>145.9793646438164</v>
+        <v>134.1712805493617</v>
       </c>
       <c r="E177" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4552,10 +4552,10 @@
         <v>11</v>
       </c>
       <c r="D178" t="n">
-        <v>152.7784556726208</v>
+        <v>152.4768743849557</v>
       </c>
       <c r="E178" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4569,10 +4569,10 @@
         <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>35.65302846727642</v>
+        <v>31.92889789722379</v>
       </c>
       <c r="E179" t="n">
-        <v>187194</v>
+        <v>168671</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4586,10 +4586,10 @@
         <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>119.3625273973409</v>
+        <v>119.1677335347192</v>
       </c>
       <c r="E180" t="n">
-        <v>682</v>
+        <v>280</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4603,10 +4603,10 @@
         <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>142.0372966785303</v>
+        <v>143.0487291914185</v>
       </c>
       <c r="E181" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4620,10 +4620,10 @@
         <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>101.9126144352629</v>
+        <v>92.80901065184671</v>
       </c>
       <c r="E182" t="n">
-        <v>2839</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4637,10 +4637,10 @@
         <v>11</v>
       </c>
       <c r="D183" t="n">
-        <v>107.9515444781869</v>
+        <v>98.16549746487686</v>
       </c>
       <c r="E183" t="n">
-        <v>1806</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4654,10 +4654,10 @@
         <v>11</v>
       </c>
       <c r="D184" t="n">
-        <v>101.1979086613591</v>
+        <v>100.601464616021</v>
       </c>
       <c r="E184" t="n">
-        <v>3016</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4671,10 +4671,10 @@
         <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>100.418367805183</v>
+        <v>97.26540627926036</v>
       </c>
       <c r="E185" t="n">
-        <v>3215</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4688,10 +4688,10 @@
         <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>105.8683720017066</v>
+        <v>100.3407943325151</v>
       </c>
       <c r="E186" t="n">
-        <v>2125</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4705,10 +4705,10 @@
         <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>133.7442475797488</v>
+        <v>114.0807611321787</v>
       </c>
       <c r="E187" t="n">
-        <v>142</v>
+        <v>499</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4722,10 +4722,10 @@
         <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>97.83075878052821</v>
+        <v>93.73908901804563</v>
       </c>
       <c r="E188" t="n">
-        <v>3904</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4739,10 +4739,10 @@
         <v>11</v>
       </c>
       <c r="D189" t="n">
-        <v>141.7940346842921</v>
+        <v>125.6722550076734</v>
       </c>
       <c r="E189" t="n">
-        <v>41</v>
+        <v>120</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4756,10 +4756,10 @@
         <v>11</v>
       </c>
       <c r="D190" t="n">
-        <v>75.16541141452126</v>
+        <v>67.86232347690728</v>
       </c>
       <c r="E190" t="n">
-        <v>20680</v>
+        <v>15868</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4773,10 +4773,10 @@
         <v>6</v>
       </c>
       <c r="D191" t="n">
-        <v>116.275699739901</v>
+        <v>107.523854009611</v>
       </c>
       <c r="E191" t="n">
-        <v>908</v>
+        <v>888</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4790,10 +4790,10 @@
         <v>6</v>
       </c>
       <c r="D192" t="n">
-        <v>54.29643290445456</v>
+        <v>57.29602731289136</v>
       </c>
       <c r="E192" t="n">
-        <v>92843</v>
+        <v>34744</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4807,10 +4807,10 @@
         <v>11</v>
       </c>
       <c r="D193" t="n">
-        <v>99.91423869112731</v>
+        <v>90.24614760930416</v>
       </c>
       <c r="E193" t="n">
-        <v>3337</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4824,10 +4824,10 @@
         <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>90.43792772856433</v>
+        <v>76.71880936308483</v>
       </c>
       <c r="E194" t="n">
-        <v>6851</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4841,10 +4841,10 @@
         <v>6</v>
       </c>
       <c r="D195" t="n">
-        <v>157.4332248302654</v>
+        <v>140.2992713714367</v>
       </c>
       <c r="E195" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4858,10 +4858,10 @@
         <v>11</v>
       </c>
       <c r="D196" t="n">
-        <v>138.0185841607828</v>
+        <v>140.7165702966739</v>
       </c>
       <c r="E196" t="n">
-        <v>80</v>
+        <v>11</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4875,10 +4875,10 @@
         <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>138.0185841607828</v>
+        <v>140.7165702966739</v>
       </c>
       <c r="E197" t="n">
-        <v>79</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4892,10 +4892,10 @@
         <v>11</v>
       </c>
       <c r="D198" t="n">
-        <v>123.8404648280557</v>
+        <v>121.2042930092551</v>
       </c>
       <c r="E198" t="n">
-        <v>422</v>
+        <v>217</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4909,10 +4909,10 @@
         <v>6</v>
       </c>
       <c r="D199" t="n">
-        <v>139.1439731695427</v>
+        <v>123.4623745343441</v>
       </c>
       <c r="E199" t="n">
-        <v>70</v>
+        <v>157</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4926,10 +4926,10 @@
         <v>11</v>
       </c>
       <c r="D200" t="n">
-        <v>148.3701990310678</v>
+        <v>129.765041245349</v>
       </c>
       <c r="E200" t="n">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4943,10 +4943,10 @@
         <v>6</v>
       </c>
       <c r="D201" t="n">
-        <v>88.44802382106167</v>
+        <v>83.34317560005823</v>
       </c>
       <c r="E201" t="n">
-        <v>7803</v>
+        <v>5550</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4960,10 +4960,10 @@
         <v>11</v>
       </c>
       <c r="D202" t="n">
-        <v>116.6250036788028</v>
+        <v>117.8702190718147</v>
       </c>
       <c r="E202" t="n">
-        <v>877</v>
+        <v>329</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4977,10 +4977,10 @@
         <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>87.32822899900229</v>
+        <v>68.97593230461774</v>
       </c>
       <c r="E203" t="n">
-        <v>39</v>
+        <v>407</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4994,10 +4994,10 @@
         <v>11</v>
       </c>
       <c r="D204" t="n">
-        <v>87.7676067081664</v>
+        <v>66.42472271437161</v>
       </c>
       <c r="E204" t="n">
-        <v>34</v>
+        <v>677</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5011,10 +5011,10 @@
         <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>69.83245113707123</v>
+        <v>62.77249824259678</v>
       </c>
       <c r="E205" t="n">
-        <v>1936</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5028,10 +5028,10 @@
         <v>11</v>
       </c>
       <c r="D206" t="n">
-        <v>87.20644589298779</v>
+        <v>76.39043928624339</v>
       </c>
       <c r="E206" t="n">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5045,10 +5045,10 @@
         <v>6</v>
       </c>
       <c r="D207" t="n">
-        <v>96.68669370533874</v>
+        <v>77.86767379473174</v>
       </c>
       <c r="E207" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5062,10 +5062,10 @@
         <v>6</v>
       </c>
       <c r="D208" t="n">
-        <v>47.98053686417528</v>
+        <v>31.72653067081422</v>
       </c>
       <c r="E208" t="n">
-        <v>35358</v>
+        <v>66062</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5079,10 +5079,10 @@
         <v>6</v>
       </c>
       <c r="D209" t="n">
-        <v>86.80535538840458</v>
+        <v>79.41122391685468</v>
       </c>
       <c r="E209" t="n">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5096,10 +5096,10 @@
         <v>11</v>
       </c>
       <c r="D210" t="n">
-        <v>80.46896778077678</v>
+        <v>79.77371287042679</v>
       </c>
       <c r="E210" t="n">
-        <v>211</v>
+        <v>24</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5113,10 +5113,10 @@
         <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>41.86554538142809</v>
+        <v>23.4283090082859</v>
       </c>
       <c r="E211" t="n">
-        <v>63664</v>
+        <v>127580</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5130,10 +5130,10 @@
         <v>11</v>
       </c>
       <c r="D212" t="n">
-        <v>80.37555541614984</v>
+        <v>74.46044187182591</v>
       </c>
       <c r="E212" t="n">
-        <v>217</v>
+        <v>136</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5147,10 +5147,10 @@
         <v>6</v>
       </c>
       <c r="D213" t="n">
-        <v>75.87996517790822</v>
+        <v>70.26586881047658</v>
       </c>
       <c r="E213" t="n">
-        <v>621</v>
+        <v>315</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5164,10 +5164,10 @@
         <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>71.06019244047205</v>
+        <v>67.55187610126269</v>
       </c>
       <c r="E214" t="n">
-        <v>1581</v>
+        <v>556</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5181,10 +5181,10 @@
         <v>11</v>
       </c>
       <c r="D215" t="n">
-        <v>85.95360777746133</v>
+        <v>79.05537932642633</v>
       </c>
       <c r="E215" t="n">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5198,10 +5198,10 @@
         <v>6</v>
       </c>
       <c r="D216" t="n">
-        <v>93.38735657347532</v>
+        <v>84.84679794356522</v>
       </c>
       <c r="E216" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5215,10 +5215,10 @@
         <v>6</v>
       </c>
       <c r="D217" t="n">
-        <v>90.07395543773204</v>
+        <v>84.44505270796284</v>
       </c>
       <c r="E217" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5232,10 +5232,10 @@
         <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>81.96113002609884</v>
+        <v>78.69142346002808</v>
       </c>
       <c r="E218" t="n">
-        <v>150</v>
+        <v>34</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5249,7 +5249,7 @@
         <v>6</v>
       </c>
       <c r="D219" t="n">
-        <v>98.8558079841022</v>
+        <v>88.08292853316145</v>
       </c>
       <c r="E219" t="n">
         <v>2</v>
@@ -5266,10 +5266,10 @@
         <v>6</v>
       </c>
       <c r="D220" t="n">
-        <v>89.32557774393803</v>
+        <v>71.41677377657044</v>
       </c>
       <c r="E220" t="n">
-        <v>26</v>
+        <v>238</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5283,10 +5283,10 @@
         <v>6</v>
       </c>
       <c r="D221" t="n">
-        <v>93.68347297041794</v>
+        <v>76.17754995978727</v>
       </c>
       <c r="E221" t="n">
-        <v>8</v>
+        <v>66</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5300,10 +5300,10 @@
         <v>6</v>
       </c>
       <c r="D222" t="n">
-        <v>70.99146799304827</v>
+        <v>54.81887488858442</v>
       </c>
       <c r="E222" t="n">
-        <v>1603</v>
+        <v>4802</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5317,10 +5317,10 @@
         <v>6</v>
       </c>
       <c r="D223" t="n">
-        <v>68.92197598400729</v>
+        <v>66.39084771620841</v>
       </c>
       <c r="E223" t="n">
-        <v>2285</v>
+        <v>682</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5334,10 +5334,10 @@
         <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>41.46983621482038</v>
+        <v>23.28122072770727</v>
       </c>
       <c r="E224" t="n">
-        <v>65931</v>
+        <v>128780</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5351,10 +5351,10 @@
         <v>6</v>
       </c>
       <c r="D225" t="n">
-        <v>75.2564772716176</v>
+        <v>63.81638712042395</v>
       </c>
       <c r="E225" t="n">
-        <v>693</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5368,10 +5368,10 @@
         <v>6</v>
       </c>
       <c r="D226" t="n">
-        <v>74.97806907119998</v>
+        <v>64.91065675287798</v>
       </c>
       <c r="E226" t="n">
-        <v>741</v>
+        <v>935</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5385,10 +5385,10 @@
         <v>6</v>
       </c>
       <c r="D227" t="n">
-        <v>67.33314319090165</v>
+        <v>61.88784684248825</v>
       </c>
       <c r="E227" t="n">
-        <v>3049</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5402,10 +5402,10 @@
         <v>6</v>
       </c>
       <c r="D228" t="n">
-        <v>80.79250304959676</v>
+        <v>70.94392773797115</v>
       </c>
       <c r="E228" t="n">
-        <v>194</v>
+        <v>271</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5419,10 +5419,10 @@
         <v>6</v>
       </c>
       <c r="D229" t="n">
-        <v>78.401499779175</v>
+        <v>60.88019735703693</v>
       </c>
       <c r="E229" t="n">
-        <v>369</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5436,10 +5436,10 @@
         <v>6</v>
       </c>
       <c r="D230" t="n">
-        <v>98.87070624891992</v>
+        <v>80.59540441053474</v>
       </c>
       <c r="E230" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5453,10 +5453,10 @@
         <v>6</v>
       </c>
       <c r="D231" t="n">
-        <v>90.06111843024918</v>
+        <v>74.07928405456406</v>
       </c>
       <c r="E231" t="n">
-        <v>22</v>
+        <v>145</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5470,10 +5470,10 @@
         <v>11</v>
       </c>
       <c r="D232" t="n">
-        <v>94.22219860405794</v>
+        <v>77.97554898973894</v>
       </c>
       <c r="E232" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5487,10 +5487,10 @@
         <v>11</v>
       </c>
       <c r="D233" t="n">
-        <v>75.43522986383644</v>
+        <v>71.50719488432834</v>
       </c>
       <c r="E233" t="n">
-        <v>674</v>
+        <v>228</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5504,10 +5504,10 @@
         <v>6</v>
       </c>
       <c r="D234" t="n">
-        <v>86.33973398574182</v>
+        <v>79.31419439996462</v>
       </c>
       <c r="E234" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5521,10 +5521,10 @@
         <v>6</v>
       </c>
       <c r="D235" t="n">
-        <v>94.67873725647273</v>
+        <v>90.78954640294461</v>
       </c>
       <c r="E235" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5538,10 +5538,10 @@
         <v>6</v>
       </c>
       <c r="D236" t="n">
-        <v>46.67733161305444</v>
+        <v>39.6972650410688</v>
       </c>
       <c r="E236" t="n">
-        <v>39983</v>
+        <v>28978</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5555,10 +5555,10 @@
         <v>6</v>
       </c>
       <c r="D237" t="n">
-        <v>36.63316950328551</v>
+        <v>19.88051915935582</v>
       </c>
       <c r="E237" t="n">
-        <v>97830</v>
+        <v>157490</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5572,10 +5572,10 @@
         <v>11</v>
       </c>
       <c r="D238" t="n">
-        <v>88.53922170741679</v>
+        <v>71.60514652092257</v>
       </c>
       <c r="E238" t="n">
-        <v>30</v>
+        <v>225</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5589,10 +5589,10 @@
         <v>11</v>
       </c>
       <c r="D239" t="n">
-        <v>75.56181810472903</v>
+        <v>68.59224254213939</v>
       </c>
       <c r="E239" t="n">
-        <v>658</v>
+        <v>436</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5606,10 +5606,10 @@
         <v>6</v>
       </c>
       <c r="D240" t="n">
-        <v>61.24423976515412</v>
+        <v>52.74940706615675</v>
       </c>
       <c r="E240" t="n">
-        <v>7590</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5623,10 +5623,10 @@
         <v>11</v>
       </c>
       <c r="D241" t="n">
-        <v>89.90242531294813</v>
+        <v>80.12592822417469</v>
       </c>
       <c r="E241" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5640,10 +5640,10 @@
         <v>6</v>
       </c>
       <c r="D242" t="n">
-        <v>46.2284440952459</v>
+        <v>37.35180265900915</v>
       </c>
       <c r="E242" t="n">
-        <v>41810</v>
+        <v>37247</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5657,10 +5657,10 @@
         <v>11</v>
       </c>
       <c r="D243" t="n">
-        <v>82.52225375653211</v>
+        <v>79.31323051372094</v>
       </c>
       <c r="E243" t="n">
-        <v>133</v>
+        <v>31</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5674,10 +5674,10 @@
         <v>6</v>
       </c>
       <c r="D244" t="n">
-        <v>38.31928150512294</v>
+        <v>24.79924536994315</v>
       </c>
       <c r="E244" t="n">
-        <v>86200</v>
+        <v>116266</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5691,10 +5691,10 @@
         <v>11</v>
       </c>
       <c r="D245" t="n">
-        <v>91.35374337725573</v>
+        <v>80.86850823560198</v>
       </c>
       <c r="E245" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5708,10 +5708,10 @@
         <v>6</v>
       </c>
       <c r="D246" t="n">
-        <v>77.06600412157276</v>
+        <v>74.44124179121559</v>
       </c>
       <c r="E246" t="n">
-        <v>505</v>
+        <v>137</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5725,10 +5725,10 @@
         <v>6</v>
       </c>
       <c r="D247" t="n">
-        <v>62.64017468240053</v>
+        <v>60.67620003201696</v>
       </c>
       <c r="E247" t="n">
-        <v>6281</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5742,10 +5742,10 @@
         <v>11</v>
       </c>
       <c r="D248" t="n">
-        <v>44.39093448280033</v>
+        <v>48.88599830718582</v>
       </c>
       <c r="E248" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5759,10 +5759,10 @@
         <v>6</v>
       </c>
       <c r="D249" t="n">
-        <v>59.01605922897315</v>
+        <v>58.51321924805136</v>
       </c>
       <c r="E249" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5776,10 +5776,10 @@
         <v>6</v>
       </c>
       <c r="D250" t="n">
-        <v>42.41840647061543</v>
+        <v>40.95579342535936</v>
       </c>
       <c r="E250" t="n">
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5793,10 +5793,10 @@
         <v>6</v>
       </c>
       <c r="D251" t="n">
-        <v>55.27410768715195</v>
+        <v>49.05359878225622</v>
       </c>
       <c r="E251" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5810,10 +5810,10 @@
         <v>11</v>
       </c>
       <c r="D252" t="n">
-        <v>47.74968602565112</v>
+        <v>44.85222773850739</v>
       </c>
       <c r="E252" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5827,10 +5827,10 @@
         <v>6</v>
       </c>
       <c r="D253" t="n">
-        <v>56.47728381415828</v>
+        <v>61.02747905967804</v>
       </c>
       <c r="E253" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5844,10 +5844,10 @@
         <v>6</v>
       </c>
       <c r="D254" t="n">
-        <v>45.02289264453901</v>
+        <v>47.02519442836383</v>
       </c>
       <c r="E254" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5861,10 +5861,10 @@
         <v>6</v>
       </c>
       <c r="D255" t="n">
-        <v>48.02500515985702</v>
+        <v>50.5912652397156</v>
       </c>
       <c r="E255" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5878,10 +5878,10 @@
         <v>11</v>
       </c>
       <c r="D256" t="n">
-        <v>34.07388804590708</v>
+        <v>39.38758423064205</v>
       </c>
       <c r="E256" t="n">
-        <v>230</v>
+        <v>84</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5895,10 +5895,10 @@
         <v>6</v>
       </c>
       <c r="D257" t="n">
-        <v>54.27253130941296</v>
+        <v>47.5206169876602</v>
       </c>
       <c r="E257" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5912,10 +5912,10 @@
         <v>6</v>
       </c>
       <c r="D258" t="n">
-        <v>44.39549722031187</v>
+        <v>50.35556280760105</v>
       </c>
       <c r="E258" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5929,10 +5929,10 @@
         <v>11</v>
       </c>
       <c r="D259" t="n">
-        <v>31.8360768815564</v>
+        <v>36.52351457830078</v>
       </c>
       <c r="E259" t="n">
-        <v>406</v>
+        <v>143</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5946,7 +5946,7 @@
         <v>6</v>
       </c>
       <c r="D260" t="n">
-        <v>60.02507887842771</v>
+        <v>65.34169380165034</v>
       </c>
       <c r="E260" t="n">
         <v>3</v>
@@ -5963,10 +5963,10 @@
         <v>6</v>
       </c>
       <c r="D261" t="n">
-        <v>58.04703376772944</v>
+        <v>55.23353227337098</v>
       </c>
       <c r="E261" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5980,10 +5980,10 @@
         <v>6</v>
       </c>
       <c r="D262" t="n">
-        <v>39.34574058698306</v>
+        <v>48.54141840843331</v>
       </c>
       <c r="E262" t="n">
-        <v>77</v>
+        <v>22</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5997,10 +5997,10 @@
         <v>11</v>
       </c>
       <c r="D263" t="n">
-        <v>54.74009302971623</v>
+        <v>49.0994718597713</v>
       </c>
       <c r="E263" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6014,10 +6014,10 @@
         <v>6</v>
       </c>
       <c r="D264" t="n">
-        <v>67.48748587614014</v>
+        <v>70.07767333342906</v>
       </c>
       <c r="E264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6031,10 +6031,10 @@
         <v>6</v>
       </c>
       <c r="D265" t="n">
-        <v>48.56217030264285</v>
+        <v>45.04772761245409</v>
       </c>
       <c r="E265" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6048,10 +6048,10 @@
         <v>6</v>
       </c>
       <c r="D266" t="n">
-        <v>42.47563885266776</v>
+        <v>46.17455719265597</v>
       </c>
       <c r="E266" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6065,10 +6065,10 @@
         <v>6</v>
       </c>
       <c r="D267" t="n">
-        <v>43.17322040151063</v>
+        <v>38.61509179655094</v>
       </c>
       <c r="E267" t="n">
-        <v>40</v>
+        <v>101</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6082,10 +6082,10 @@
         <v>6</v>
       </c>
       <c r="D268" t="n">
-        <v>65.41795515847795</v>
+        <v>71.09464068656681</v>
       </c>
       <c r="E268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -6099,10 +6099,10 @@
         <v>6</v>
       </c>
       <c r="D269" t="n">
-        <v>52.72379244997628</v>
+        <v>52.8696331159673</v>
       </c>
       <c r="E269" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -6116,10 +6116,10 @@
         <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>51.1212337420224</v>
+        <v>51.340907504874</v>
       </c>
       <c r="E270" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -6133,10 +6133,10 @@
         <v>6</v>
       </c>
       <c r="D271" t="n">
-        <v>38.70161702564309</v>
+        <v>40.57417212144296</v>
       </c>
       <c r="E271" t="n">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6150,10 +6150,10 @@
         <v>6</v>
       </c>
       <c r="D272" t="n">
-        <v>55.71444896311387</v>
+        <v>53.1040829955941</v>
       </c>
       <c r="E272" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -6167,10 +6167,10 @@
         <v>11</v>
       </c>
       <c r="D273" t="n">
-        <v>45.81660136224821</v>
+        <v>50.39935605450584</v>
       </c>
       <c r="E273" t="n">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -6184,10 +6184,10 @@
         <v>11</v>
       </c>
       <c r="D274" t="n">
-        <v>32.55553040138888</v>
+        <v>33.19915721152062</v>
       </c>
       <c r="E274" t="n">
-        <v>682</v>
+        <v>451</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -6201,10 +6201,10 @@
         <v>11</v>
       </c>
       <c r="D275" t="n">
-        <v>31.80196245931495</v>
+        <v>28.31876373394904</v>
       </c>
       <c r="E275" t="n">
-        <v>767</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -6218,10 +6218,10 @@
         <v>6</v>
       </c>
       <c r="D276" t="n">
-        <v>59.14191066776249</v>
+        <v>55.47716657313478</v>
       </c>
       <c r="E276" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -6235,10 +6235,10 @@
         <v>11</v>
       </c>
       <c r="D277" t="n">
-        <v>44.64540787951575</v>
+        <v>36.58838148894045</v>
       </c>
       <c r="E277" t="n">
-        <v>82</v>
+        <v>230</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -6252,10 +6252,10 @@
         <v>11</v>
       </c>
       <c r="D278" t="n">
-        <v>51.66758626062671</v>
+        <v>50.79417995028825</v>
       </c>
       <c r="E278" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -6269,10 +6269,10 @@
         <v>6</v>
       </c>
       <c r="D279" t="n">
-        <v>51.5745920329515</v>
+        <v>50.72310482288479</v>
       </c>
       <c r="E279" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -6286,10 +6286,10 @@
         <v>6</v>
       </c>
       <c r="D280" t="n">
-        <v>25.03740187417413</v>
+        <v>27.30206198497656</v>
       </c>
       <c r="E280" t="n">
-        <v>3770</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -6303,7 +6303,7 @@
         <v>11</v>
       </c>
       <c r="D281" t="n">
-        <v>50.1079133831141</v>
+        <v>49.08893463295713</v>
       </c>
       <c r="E281" t="n">
         <v>26</v>
@@ -6320,10 +6320,10 @@
         <v>6</v>
       </c>
       <c r="D282" t="n">
-        <v>17.09834820955047</v>
+        <v>18.97717924884394</v>
       </c>
       <c r="E282" t="n">
-        <v>40558</v>
+        <v>13020</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -6337,10 +6337,10 @@
         <v>11</v>
       </c>
       <c r="D283" t="n">
-        <v>47.68212903968161</v>
+        <v>41.11772350262589</v>
       </c>
       <c r="E283" t="n">
-        <v>41</v>
+        <v>108</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -6354,10 +6354,10 @@
         <v>11</v>
       </c>
       <c r="D284" t="n">
-        <v>42.92755214592505</v>
+        <v>45.7716006687395</v>
       </c>
       <c r="E284" t="n">
-        <v>104</v>
+        <v>46</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -6371,10 +6371,10 @@
         <v>11</v>
       </c>
       <c r="D285" t="n">
-        <v>54.56457476733202</v>
+        <v>55.98498340053185</v>
       </c>
       <c r="E285" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -6388,10 +6388,10 @@
         <v>6</v>
       </c>
       <c r="D286" t="n">
-        <v>46.72182120361073</v>
+        <v>46.95226509841484</v>
       </c>
       <c r="E286" t="n">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -6405,10 +6405,10 @@
         <v>11</v>
       </c>
       <c r="D287" t="n">
-        <v>52.21123775579206</v>
+        <v>53.24849434438976</v>
       </c>
       <c r="E287" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -6422,7 +6422,7 @@
         <v>6</v>
       </c>
       <c r="D288" t="n">
-        <v>62.57480352396335</v>
+        <v>59.43466410113925</v>
       </c>
       <c r="E288" t="n">
         <v>2</v>
@@ -6439,7 +6439,7 @@
         <v>6</v>
       </c>
       <c r="D289" t="n">
-        <v>62.57480352396335</v>
+        <v>59.43466410113925</v>
       </c>
       <c r="E289" t="n">
         <v>1</v>
@@ -6456,10 +6456,10 @@
         <v>11</v>
       </c>
       <c r="D290" t="n">
-        <v>48.25936243978666</v>
+        <v>45.74682762255654</v>
       </c>
       <c r="E290" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -6473,10 +6473,10 @@
         <v>6</v>
       </c>
       <c r="D291" t="n">
-        <v>21.17941959532177</v>
+        <v>16.2291629546962</v>
       </c>
       <c r="E291" t="n">
-        <v>11908</v>
+        <v>30689</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -6490,10 +6490,10 @@
         <v>6</v>
       </c>
       <c r="D292" t="n">
-        <v>18.31612499348785</v>
+        <v>18.47645101131566</v>
       </c>
       <c r="E292" t="n">
-        <v>28482</v>
+        <v>15231</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -6507,10 +6507,10 @@
         <v>6</v>
       </c>
       <c r="D293" t="n">
-        <v>38.71764179101113</v>
+        <v>40.52879543266513</v>
       </c>
       <c r="E293" t="n">
-        <v>241</v>
+        <v>116</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -6524,10 +6524,10 @@
         <v>6</v>
       </c>
       <c r="D294" t="n">
-        <v>38.88729614143893</v>
+        <v>38.91445337882327</v>
       </c>
       <c r="E294" t="n">
-        <v>233</v>
+        <v>151</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -6541,10 +6541,10 @@
         <v>6</v>
       </c>
       <c r="D295" t="n">
-        <v>22.15335052497708</v>
+        <v>18.66538677225903</v>
       </c>
       <c r="E295" t="n">
-        <v>8855</v>
+        <v>14384</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -6558,7 +6558,7 @@
         <v>11</v>
       </c>
       <c r="D296" t="n">
-        <v>49.61604020936142</v>
+        <v>47.46521008476453</v>
       </c>
       <c r="E296" t="n">
         <v>31</v>
@@ -6575,10 +6575,10 @@
         <v>6</v>
       </c>
       <c r="D297" t="n">
-        <v>24.26604868625352</v>
+        <v>25.95306212565395</v>
       </c>
       <c r="E297" t="n">
-        <v>4721</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -6592,10 +6592,10 @@
         <v>11</v>
       </c>
       <c r="D298" t="n">
-        <v>46.40188347924338</v>
+        <v>46.14657195608595</v>
       </c>
       <c r="E298" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -6609,10 +6609,10 @@
         <v>6</v>
       </c>
       <c r="D299" t="n">
-        <v>50.13499880837618</v>
+        <v>50.4994165270374</v>
       </c>
       <c r="E299" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -6626,10 +6626,10 @@
         <v>11</v>
       </c>
       <c r="D300" t="n">
-        <v>47.29970005656018</v>
+        <v>47.74288506043984</v>
       </c>
       <c r="E300" t="n">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -6643,10 +6643,10 @@
         <v>6</v>
       </c>
       <c r="D301" t="n">
-        <v>51.33185181492269</v>
+        <v>41.86650590150661</v>
       </c>
       <c r="E301" t="n">
-        <v>19</v>
+        <v>97</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -6660,10 +6660,10 @@
         <v>6</v>
       </c>
       <c r="D302" t="n">
-        <v>51.33185181492269</v>
+        <v>41.86650590150661</v>
       </c>
       <c r="E302" t="n">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -6677,10 +6677,10 @@
         <v>6</v>
       </c>
       <c r="D303" t="n">
-        <v>50.32949515833526</v>
+        <v>52.01687350227682</v>
       </c>
       <c r="E303" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -6694,10 +6694,10 @@
         <v>6</v>
       </c>
       <c r="D304" t="n">
-        <v>76.79344170657204</v>
+        <v>64.71015821616076</v>
       </c>
       <c r="E304" t="n">
-        <v>29</v>
+        <v>179</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -6711,7 +6711,7 @@
         <v>11</v>
       </c>
       <c r="D305" t="n">
-        <v>90.56487051683348</v>
+        <v>87.30111000781605</v>
       </c>
       <c r="E305" t="n">
         <v>1</v>
@@ -6728,10 +6728,10 @@
         <v>6</v>
       </c>
       <c r="D306" t="n">
-        <v>72.27464112590576</v>
+        <v>69.86679212286955</v>
       </c>
       <c r="E306" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -6745,10 +6745,10 @@
         <v>6</v>
       </c>
       <c r="D307" t="n">
-        <v>67.95789212652763</v>
+        <v>66.52489025155873</v>
       </c>
       <c r="E307" t="n">
-        <v>165</v>
+        <v>132</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -6762,10 +6762,10 @@
         <v>6</v>
       </c>
       <c r="D308" t="n">
-        <v>45.51006430282722</v>
+        <v>38.49318842107752</v>
       </c>
       <c r="E308" t="n">
-        <v>17512</v>
+        <v>31606</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -6779,10 +6779,10 @@
         <v>6</v>
       </c>
       <c r="D309" t="n">
-        <v>42.80239707701371</v>
+        <v>34.17824650454465</v>
       </c>
       <c r="E309" t="n">
-        <v>28936</v>
+        <v>62138</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -6796,10 +6796,10 @@
         <v>6</v>
       </c>
       <c r="D310" t="n">
-        <v>79.81647066860516</v>
+        <v>77.55763215666839</v>
       </c>
       <c r="E310" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -6813,10 +6813,10 @@
         <v>11</v>
       </c>
       <c r="D311" t="n">
-        <v>65.39852060929661</v>
+        <v>64.1383298433695</v>
       </c>
       <c r="E311" t="n">
-        <v>265</v>
+        <v>194</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -6830,10 +6830,10 @@
         <v>6</v>
       </c>
       <c r="D312" t="n">
-        <v>78.59479017035649</v>
+        <v>70.10014143476975</v>
       </c>
       <c r="E312" t="n">
-        <v>19</v>
+        <v>70</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -6847,10 +6847,10 @@
         <v>6</v>
       </c>
       <c r="D313" t="n">
-        <v>80.55630558554822</v>
+        <v>74.04675589417805</v>
       </c>
       <c r="E313" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -6864,10 +6864,10 @@
         <v>6</v>
       </c>
       <c r="D314" t="n">
-        <v>13.1895048736174</v>
+        <v>14.20057724552384</v>
       </c>
       <c r="E314" t="n">
-        <v>257153</v>
+        <v>236576</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -6881,10 +6881,10 @@
         <v>6</v>
       </c>
       <c r="D315" t="n">
-        <v>39.09932444623981</v>
+        <v>34.45659943461416</v>
       </c>
       <c r="E315" t="n">
-        <v>52460</v>
+        <v>59842</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -6898,10 +6898,10 @@
         <v>6</v>
       </c>
       <c r="D316" t="n">
-        <v>33.84417426231807</v>
+        <v>29.67987581898185</v>
       </c>
       <c r="E316" t="n">
-        <v>98573</v>
+        <v>105121</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -6915,10 +6915,10 @@
         <v>11</v>
       </c>
       <c r="D317" t="n">
-        <v>82.2692961100587</v>
+        <v>75.01508327689122</v>
       </c>
       <c r="E317" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -6932,10 +6932,10 @@
         <v>11</v>
       </c>
       <c r="D318" t="n">
-        <v>79.97309551502558</v>
+        <v>73.02698162577711</v>
       </c>
       <c r="E318" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -6949,10 +6949,10 @@
         <v>6</v>
       </c>
       <c r="D319" t="n">
-        <v>58.27644701538354</v>
+        <v>59.38421550708075</v>
       </c>
       <c r="E319" t="n">
-        <v>1175</v>
+        <v>494</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -6966,10 +6966,10 @@
         <v>6</v>
       </c>
       <c r="D320" t="n">
-        <v>87.77653445990568</v>
+        <v>80.32371477813422</v>
       </c>
       <c r="E320" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -6983,10 +6983,10 @@
         <v>6</v>
       </c>
       <c r="D321" t="n">
-        <v>74.45196579556206</v>
+        <v>72.96290810030231</v>
       </c>
       <c r="E321" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -7000,10 +7000,10 @@
         <v>11</v>
       </c>
       <c r="D322" t="n">
-        <v>64.20237861255477</v>
+        <v>54.9315661230162</v>
       </c>
       <c r="E322" t="n">
-        <v>329</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -7017,10 +7017,10 @@
         <v>11</v>
       </c>
       <c r="D323" t="n">
-        <v>69.34959547038709</v>
+        <v>69.44120120585647</v>
       </c>
       <c r="E323" t="n">
-        <v>124</v>
+        <v>85</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -7034,10 +7034,10 @@
         <v>6</v>
       </c>
       <c r="D324" t="n">
-        <v>80.15208853387539</v>
+        <v>74.32647414265342</v>
       </c>
       <c r="E324" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -7051,10 +7051,10 @@
         <v>6</v>
       </c>
       <c r="D325" t="n">
-        <v>84.84328092811336</v>
+        <v>77.58549940419326</v>
       </c>
       <c r="E325" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -7068,10 +7068,10 @@
         <v>11</v>
       </c>
       <c r="D326" t="n">
-        <v>76.41059249789348</v>
+        <v>72.80859682757462</v>
       </c>
       <c r="E326" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -7085,10 +7085,10 @@
         <v>6</v>
       </c>
       <c r="D327" t="n">
-        <v>86.95426300235445</v>
+        <v>84.06204245080818</v>
       </c>
       <c r="E327" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -7102,10 +7102,10 @@
         <v>6</v>
       </c>
       <c r="D328" t="n">
-        <v>74.5193846640703</v>
+        <v>69.61673314710465</v>
       </c>
       <c r="E328" t="n">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -7119,10 +7119,10 @@
         <v>6</v>
       </c>
       <c r="D329" t="n">
-        <v>66.10292175290907</v>
+        <v>57.8405543277881</v>
       </c>
       <c r="E329" t="n">
-        <v>229</v>
+        <v>645</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -7136,10 +7136,10 @@
         <v>6</v>
       </c>
       <c r="D330" t="n">
-        <v>38.4351246228472</v>
+        <v>37.55742878273752</v>
       </c>
       <c r="E330" t="n">
-        <v>57451</v>
+        <v>37105</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -7153,10 +7153,10 @@
         <v>6</v>
       </c>
       <c r="D331" t="n">
-        <v>75.48807851650621</v>
+        <v>71.45087640174246</v>
       </c>
       <c r="E331" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -7170,10 +7170,10 @@
         <v>6</v>
       </c>
       <c r="D332" t="n">
-        <v>78.23391994617398</v>
+        <v>63.11967623441033</v>
       </c>
       <c r="E332" t="n">
-        <v>21</v>
+        <v>235</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -7187,10 +7187,10 @@
         <v>6</v>
       </c>
       <c r="D333" t="n">
-        <v>70.87992649068727</v>
+        <v>57.99765759875836</v>
       </c>
       <c r="E333" t="n">
-        <v>104</v>
+        <v>623</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -7204,10 +7204,10 @@
         <v>6</v>
       </c>
       <c r="D334" t="n">
-        <v>71.48108318696092</v>
+        <v>70.37289837272424</v>
       </c>
       <c r="E334" t="n">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -7221,10 +7221,10 @@
         <v>6</v>
       </c>
       <c r="D335" t="n">
-        <v>54.45106294448726</v>
+        <v>50.00171792586072</v>
       </c>
       <c r="E335" t="n">
-        <v>2617</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -7238,10 +7238,10 @@
         <v>6</v>
       </c>
       <c r="D336" t="n">
-        <v>78.78145915438311</v>
+        <v>75.42940052598954</v>
       </c>
       <c r="E336" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -7255,10 +7255,10 @@
         <v>6</v>
       </c>
       <c r="D337" t="n">
-        <v>41.82238996392152</v>
+        <v>37.99642662069183</v>
       </c>
       <c r="E337" t="n">
-        <v>34116</v>
+        <v>34447</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -7272,10 +7272,10 @@
         <v>6</v>
       </c>
       <c r="D338" t="n">
-        <v>44.22415455963505</v>
+        <v>43.45165640429683</v>
       </c>
       <c r="E338" t="n">
-        <v>22392</v>
+        <v>12264</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -7289,10 +7289,10 @@
         <v>6</v>
       </c>
       <c r="D339" t="n">
-        <v>50.99048361974943</v>
+        <v>49.48508639318234</v>
       </c>
       <c r="E339" t="n">
-        <v>5545</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -7306,10 +7306,10 @@
         <v>6</v>
       </c>
       <c r="D340" t="n">
-        <v>68.70066940909162</v>
+        <v>65.71289593446656</v>
       </c>
       <c r="E340" t="n">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -7323,10 +7323,10 @@
         <v>6</v>
       </c>
       <c r="D341" t="n">
-        <v>40.39106132356257</v>
+        <v>42.73307413599402</v>
       </c>
       <c r="E341" t="n">
-        <v>43349</v>
+        <v>14202</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -7340,10 +7340,10 @@
         <v>6</v>
       </c>
       <c r="D342" t="n">
-        <v>46.16354555483404</v>
+        <v>37.92701618094492</v>
       </c>
       <c r="E342" t="n">
-        <v>15355</v>
+        <v>34835</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -7357,10 +7357,10 @@
         <v>6</v>
       </c>
       <c r="D343" t="n">
-        <v>28.09595687052795</v>
+        <v>23.78390835108886</v>
       </c>
       <c r="E343" t="n">
-        <v>155080</v>
+        <v>163490</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -7374,10 +7374,10 @@
         <v>11</v>
       </c>
       <c r="D344" t="n">
-        <v>34.52991184481146</v>
+        <v>26.48182729326997</v>
       </c>
       <c r="E344" t="n">
-        <v>909</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -7391,10 +7391,10 @@
         <v>6</v>
       </c>
       <c r="D345" t="n">
-        <v>32.06083423437885</v>
+        <v>47.32434202879566</v>
       </c>
       <c r="E345" t="n">
-        <v>2427</v>
+        <v>8</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -7408,10 +7408,10 @@
         <v>6</v>
       </c>
       <c r="D346" t="n">
-        <v>34.17083437145767</v>
+        <v>24.80917193196085</v>
       </c>
       <c r="E346" t="n">
-        <v>1056</v>
+        <v>5683</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -7425,10 +7425,10 @@
         <v>11</v>
       </c>
       <c r="D347" t="n">
-        <v>38.56772916679032</v>
+        <v>33.53222454624186</v>
       </c>
       <c r="E347" t="n">
-        <v>150</v>
+        <v>198</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -7442,10 +7442,10 @@
         <v>11</v>
       </c>
       <c r="D348" t="n">
-        <v>38.6086506262649</v>
+        <v>33.59578168110347</v>
       </c>
       <c r="E348" t="n">
-        <v>148</v>
+        <v>194</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -7459,10 +7459,10 @@
         <v>6</v>
       </c>
       <c r="D349" t="n">
-        <v>30.57886575564597</v>
+        <v>27.74808969387594</v>
       </c>
       <c r="E349" t="n">
-        <v>4124</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -7476,10 +7476,10 @@
         <v>6</v>
       </c>
       <c r="D350" t="n">
-        <v>24.24947018441076</v>
+        <v>16.53230065959749</v>
       </c>
       <c r="E350" t="n">
-        <v>30406</v>
+        <v>62161</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -7493,10 +7493,10 @@
         <v>6</v>
       </c>
       <c r="D351" t="n">
-        <v>36.80788792574747</v>
+        <v>27.28801667655236</v>
       </c>
       <c r="E351" t="n">
-        <v>312</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -7510,7 +7510,7 @@
         <v>11</v>
       </c>
       <c r="D352" t="n">
-        <v>55.03187469588541</v>
+        <v>50.97635605630035</v>
       </c>
       <c r="E352" t="n">
         <v>1</v>
@@ -7527,10 +7527,10 @@
         <v>6</v>
       </c>
       <c r="D353" t="n">
-        <v>25.88390056270669</v>
+        <v>17.01996197378208</v>
       </c>
       <c r="E353" t="n">
-        <v>19648</v>
+        <v>55489</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -7544,7 +7544,7 @@
         <v>6</v>
       </c>
       <c r="D354" t="n">
-        <v>51.67169406564586</v>
+        <v>49.88682531589812</v>
       </c>
       <c r="E354" t="n">
         <v>3</v>
@@ -7561,10 +7561,10 @@
         <v>6</v>
       </c>
       <c r="D355" t="n">
-        <v>50.04893337851107</v>
+        <v>48.04750587823209</v>
       </c>
       <c r="E355" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -7578,10 +7578,10 @@
         <v>6</v>
       </c>
       <c r="D356" t="n">
-        <v>43.27235755195073</v>
+        <v>48.37154612774861</v>
       </c>
       <c r="E356" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -7595,10 +7595,10 @@
         <v>6</v>
       </c>
       <c r="D357" t="n">
-        <v>31.93928401311358</v>
+        <v>26.24495878980342</v>
       </c>
       <c r="E357" t="n">
-        <v>2518</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -7612,10 +7612,10 @@
         <v>6</v>
       </c>
       <c r="D358" t="n">
-        <v>37.04576342553662</v>
+        <v>27.86591060018687</v>
       </c>
       <c r="E358" t="n">
-        <v>284</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -7629,10 +7629,10 @@
         <v>6</v>
       </c>
       <c r="D359" t="n">
-        <v>45.8583654310941</v>
+        <v>40.88124705052476</v>
       </c>
       <c r="E359" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -7646,7 +7646,7 @@
         <v>6</v>
       </c>
       <c r="D360" t="n">
-        <v>52.38490572229543</v>
+        <v>50.95788304468816</v>
       </c>
       <c r="E360" t="n">
         <v>2</v>
@@ -7663,10 +7663,10 @@
         <v>6</v>
       </c>
       <c r="D361" t="n">
-        <v>31.59683481555507</v>
+        <v>21.48299604198457</v>
       </c>
       <c r="E361" t="n">
-        <v>2857</v>
+        <v>16841</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -7680,10 +7680,10 @@
         <v>6</v>
       </c>
       <c r="D362" t="n">
-        <v>37.00215677911288</v>
+        <v>29.59472640990358</v>
       </c>
       <c r="E362" t="n">
-        <v>289</v>
+        <v>950</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -7697,10 +7697,10 @@
         <v>6</v>
       </c>
       <c r="D363" t="n">
-        <v>43.16178831179454</v>
+        <v>40.33263818691943</v>
       </c>
       <c r="E363" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -7714,10 +7714,10 @@
         <v>6</v>
       </c>
       <c r="D364" t="n">
-        <v>15.28604468612493</v>
+        <v>34.8845330056171</v>
       </c>
       <c r="E364" t="n">
-        <v>154619</v>
+        <v>119</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -7731,10 +7731,10 @@
         <v>6</v>
       </c>
       <c r="D365" t="n">
-        <v>9.535130616375492</v>
+        <v>7.276986790929089</v>
       </c>
       <c r="E365" t="n">
-        <v>238104</v>
+        <v>220207</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -7748,10 +7748,10 @@
         <v>6</v>
       </c>
       <c r="D366" t="n">
-        <v>26.29160674448894</v>
+        <v>21.65572741851199</v>
       </c>
       <c r="E366" t="n">
-        <v>17492</v>
+        <v>16033</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -7765,10 +7765,10 @@
         <v>6</v>
       </c>
       <c r="D367" t="n">
-        <v>33.74655662275185</v>
+        <v>24.79473239805257</v>
       </c>
       <c r="E367" t="n">
-        <v>1257</v>
+        <v>5703</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -7782,10 +7782,10 @@
         <v>6</v>
       </c>
       <c r="D368" t="n">
-        <v>27.23209270205193</v>
+        <v>17.10487594320679</v>
       </c>
       <c r="E368" t="n">
-        <v>13232</v>
+        <v>54384</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -7799,10 +7799,10 @@
         <v>6</v>
       </c>
       <c r="D369" t="n">
-        <v>45.60938439836428</v>
+        <v>44.18743958382448</v>
       </c>
       <c r="E369" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -7816,10 +7816,10 @@
         <v>6</v>
       </c>
       <c r="D370" t="n">
-        <v>24.53735000806204</v>
+        <v>16.79995625896672</v>
       </c>
       <c r="E370" t="n">
-        <v>28284</v>
+        <v>58611</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -7833,10 +7833,10 @@
         <v>6</v>
       </c>
       <c r="D371" t="n">
-        <v>21.68073615151672</v>
+        <v>37.4761289959249</v>
       </c>
       <c r="E371" t="n">
-        <v>55781</v>
+        <v>59</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -7850,10 +7850,10 @@
         <v>6</v>
       </c>
       <c r="D372" t="n">
-        <v>51.29653828085559</v>
+        <v>48.34058954084549</v>
       </c>
       <c r="E372" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -7867,10 +7867,10 @@
         <v>6</v>
       </c>
       <c r="D373" t="n">
-        <v>41.00715792200908</v>
+        <v>36.5144472514752</v>
       </c>
       <c r="E373" t="n">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -7884,10 +7884,10 @@
         <v>6</v>
       </c>
       <c r="D374" t="n">
-        <v>44.59945842938652</v>
+        <v>42.18195123929814</v>
       </c>
       <c r="E374" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -7901,10 +7901,10 @@
         <v>11</v>
       </c>
       <c r="D375" t="n">
-        <v>28.02636616382509</v>
+        <v>12.73642564355854</v>
       </c>
       <c r="E375" t="n">
-        <v>10320</v>
+        <v>124052</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -7918,10 +7918,10 @@
         <v>6</v>
       </c>
       <c r="D376" t="n">
-        <v>29.37787672361928</v>
+        <v>23.42938844963029</v>
       </c>
       <c r="E376" t="n">
-        <v>6520</v>
+        <v>9166</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -7935,10 +7935,10 @@
         <v>6</v>
       </c>
       <c r="D377" t="n">
-        <v>30.31445519667321</v>
+        <v>26.8508234570998</v>
       </c>
       <c r="E377" t="n">
-        <v>4551</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -7952,10 +7952,10 @@
         <v>6</v>
       </c>
       <c r="D378" t="n">
-        <v>44.00738474037377</v>
+        <v>30.56371581066538</v>
       </c>
       <c r="E378" t="n">
-        <v>20</v>
+        <v>676</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -7969,10 +7969,10 @@
         <v>6</v>
       </c>
       <c r="D379" t="n">
-        <v>39.60404276098546</v>
+        <v>37.34678538759749</v>
       </c>
       <c r="E379" t="n">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -7986,10 +7986,10 @@
         <v>11</v>
       </c>
       <c r="D380" t="n">
-        <v>37.65518330421776</v>
+        <v>31.52995982646337</v>
       </c>
       <c r="E380" t="n">
-        <v>230</v>
+        <v>461</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -8003,10 +8003,10 @@
         <v>6</v>
       </c>
       <c r="D381" t="n">
-        <v>45.53641028420018</v>
+        <v>42.99161977790409</v>
       </c>
       <c r="E381" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -8020,10 +8020,10 @@
         <v>6</v>
       </c>
       <c r="D382" t="n">
-        <v>22.30232569554792</v>
+        <v>16.69456923193585</v>
       </c>
       <c r="E382" t="n">
-        <v>48650</v>
+        <v>59961</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -8037,10 +8037,10 @@
         <v>6</v>
       </c>
       <c r="D383" t="n">
-        <v>40.92423646661788</v>
+        <v>44.68633262633502</v>
       </c>
       <c r="E383" t="n">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -8054,10 +8054,10 @@
         <v>6</v>
       </c>
       <c r="D384" t="n">
-        <v>44.65470501256077</v>
+        <v>37.59716934474618</v>
       </c>
       <c r="E384" t="n">
-        <v>15</v>
+        <v>56</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -8071,10 +8071,10 @@
         <v>6</v>
       </c>
       <c r="D385" t="n">
-        <v>51.36134610018939</v>
+        <v>44.58044756843645</v>
       </c>
       <c r="E385" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -8088,10 +8088,10 @@
         <v>6</v>
       </c>
       <c r="D386" t="n">
-        <v>21.92179417276908</v>
+        <v>15.53666453047548</v>
       </c>
       <c r="E386" t="n">
-        <v>52887</v>
+        <v>76596</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -8105,10 +8105,10 @@
         <v>11</v>
       </c>
       <c r="D387" t="n">
-        <v>24.6039472204372</v>
+        <v>15.52872463460566</v>
       </c>
       <c r="E387" t="n">
-        <v>27806</v>
+        <v>76716</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -8122,10 +8122,10 @@
         <v>6</v>
       </c>
       <c r="D388" t="n">
-        <v>33.52467309220036</v>
+        <v>20.55286216547613</v>
       </c>
       <c r="E388" t="n">
-        <v>1377</v>
+        <v>22179</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -8139,10 +8139,10 @@
         <v>6</v>
       </c>
       <c r="D389" t="n">
-        <v>33.59353814041767</v>
+        <v>27.61926347010373</v>
       </c>
       <c r="E389" t="n">
-        <v>1339</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -8156,10 +8156,10 @@
         <v>6</v>
       </c>
       <c r="D390" t="n">
-        <v>17.20640465209932</v>
+        <v>38.22435843363236</v>
       </c>
       <c r="E390" t="n">
-        <v>122184</v>
+        <v>44</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -8173,10 +8173,10 @@
         <v>6</v>
       </c>
       <c r="D391" t="n">
-        <v>20.11953158865026</v>
+        <v>40.26659859763457</v>
       </c>
       <c r="E391" t="n">
-        <v>76093</v>
+        <v>22</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -8190,10 +8190,10 @@
         <v>11</v>
       </c>
       <c r="D392" t="n">
-        <v>33.0196358187514</v>
+        <v>25.68997029548756</v>
       </c>
       <c r="E392" t="n">
-        <v>1669</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -8207,10 +8207,10 @@
         <v>6</v>
       </c>
       <c r="D393" t="n">
-        <v>13.42949937676002</v>
+        <v>36.73456880323292</v>
       </c>
       <c r="E393" t="n">
-        <v>183915</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -8287,25 +8287,25 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H2" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="I2" t="n">
         <v>0.3</v>
       </c>
       <c r="J2" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06</v>
+        <v>0.058</v>
       </c>
       <c r="L2" t="n">
-        <v>0.032</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8328,7 +8328,7 @@
         <v>0.2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H3" t="n">
         <v>0.28</v>
@@ -8337,7 +8337,7 @@
         <v>0.14</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="K3" t="n">
         <v>0.032</v>
@@ -8363,25 +8363,25 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H4" t="n">
-        <v>0.64</v>
+        <v>0.68</v>
       </c>
       <c r="I4" t="n">
         <v>0.44</v>
       </c>
       <c r="J4" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="K4" t="n">
-        <v>0.092</v>
+        <v>0.09</v>
       </c>
       <c r="L4" t="n">
-        <v>0.049</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -8401,25 +8401,25 @@
         <v>0.0263</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1053</v>
+        <v>0.0789</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1316</v>
+        <v>0.0789</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2368</v>
+        <v>0.2632</v>
       </c>
       <c r="I5" t="n">
         <v>0.3947</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4737</v>
+        <v>0.5789</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7895</v>
+        <v>0.7632</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8421</v>
+        <v>0.8947000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -8442,7 +8442,7 @@
         <v>0.0526</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1053</v>
+        <v>0.2632</v>
       </c>
       <c r="H6" t="n">
         <v>0.3684</v>
@@ -8451,7 +8451,7 @@
         <v>0.3684</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4737</v>
+        <v>0.5263</v>
       </c>
       <c r="K6" t="n">
         <v>0.8421</v>
@@ -8477,25 +8477,25 @@
         <v>0.0175</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0877</v>
+        <v>0.0702</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1228</v>
+        <v>0.1404</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2807</v>
+        <v>0.2982</v>
       </c>
       <c r="I7" t="n">
         <v>0.386</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4737</v>
+        <v>0.5614</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.7895</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8596</v>
+        <v>0.8947000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8515,25 +8515,25 @@
         <v>0.0513</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1861</v>
+        <v>0.1395</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2084</v>
+        <v>0.1249</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2857</v>
+        <v>0.3175</v>
       </c>
       <c r="I8" t="n">
         <v>0.3409</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2609</v>
+        <v>0.3188</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1115</v>
+        <v>0.1078</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0617</v>
+        <v>0.0655</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8556,7 +8556,7 @@
         <v>0.0833</v>
       </c>
       <c r="G9" t="n">
-        <v>0.138</v>
+        <v>0.3449</v>
       </c>
       <c r="H9" t="n">
         <v>0.3182</v>
@@ -8565,7 +8565,7 @@
         <v>0.2029</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1513</v>
+        <v>0.1681</v>
       </c>
       <c r="K9" t="n">
         <v>0.0617</v>
@@ -8591,25 +8591,25 @@
         <v>0.0344</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1613</v>
+        <v>0.1291</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2089</v>
+        <v>0.2389</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3902</v>
+        <v>0.4146</v>
       </c>
       <c r="I10" t="n">
         <v>0.4112</v>
       </c>
       <c r="J10" t="n">
-        <v>0.344</v>
+        <v>0.4076</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1652</v>
+        <v>0.1616</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0927</v>
+        <v>0.0965</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8632,7 +8632,7 @@
         <v>0.6</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H11" t="n">
         <v>0.32</v>
@@ -8644,7 +8644,7 @@
         <v>0.17</v>
       </c>
       <c r="K11" t="n">
-        <v>0.046</v>
+        <v>0.044</v>
       </c>
       <c r="L11" t="n">
         <v>0.025</v>
@@ -8667,25 +8667,25 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H12" t="n">
         <v>0.12</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="J12" t="n">
         <v>0.1</v>
       </c>
       <c r="K12" t="n">
-        <v>0.044</v>
+        <v>0.046</v>
       </c>
       <c r="L12" t="n">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -8705,16 +8705,16 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.6</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.7</v>
       </c>
       <c r="H13" t="n">
         <v>0.44</v>
       </c>
       <c r="I13" t="n">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="J13" t="n">
         <v>0.27</v>
@@ -8723,7 +8723,7 @@
         <v>0.09</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -8746,7 +8746,7 @@
         <v>0.12</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="H14" t="n">
         <v>0.32</v>
@@ -8758,7 +8758,7 @@
         <v>0.68</v>
       </c>
       <c r="K14" t="n">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
@@ -8781,25 +8781,25 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.0294</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0588</v>
+        <v>0.0882</v>
       </c>
       <c r="H15" t="n">
         <v>0.0882</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1471</v>
+        <v>0.2059</v>
       </c>
       <c r="J15" t="n">
         <v>0.2941</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6471</v>
+        <v>0.6765</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7353</v>
+        <v>0.7059</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -8819,16 +8819,16 @@
         <v>0.0169</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0508</v>
+        <v>0.0678</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1186</v>
+        <v>0.1017</v>
       </c>
       <c r="H16" t="n">
         <v>0.1864</v>
       </c>
       <c r="I16" t="n">
-        <v>0.322</v>
+        <v>0.3559</v>
       </c>
       <c r="J16" t="n">
         <v>0.4576</v>
@@ -8837,7 +8837,7 @@
         <v>0.7627</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8475</v>
+        <v>0.8305</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -8860,7 +8860,7 @@
         <v>0.2</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2857</v>
+        <v>0.1714</v>
       </c>
       <c r="H17" t="n">
         <v>0.32</v>
@@ -8872,7 +8872,7 @@
         <v>0.272</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0876</v>
+        <v>0.0838</v>
       </c>
       <c r="L17" t="n">
         <v>0.0488</v>
@@ -8895,25 +8895,25 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.0513</v>
       </c>
       <c r="G18" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.1363</v>
       </c>
       <c r="H18" t="n">
         <v>0.1017</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1191</v>
+        <v>0.1667</v>
       </c>
       <c r="J18" t="n">
         <v>0.1493</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0824</v>
+        <v>0.0861</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0484</v>
+        <v>0.0464</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -8933,16 +8933,16 @@
         <v>0.0332</v>
       </c>
       <c r="F19" t="n">
-        <v>0.09370000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2028</v>
+        <v>0.1739</v>
       </c>
       <c r="H19" t="n">
         <v>0.2619</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3486</v>
+        <v>0.3853</v>
       </c>
       <c r="J19" t="n">
         <v>0.3396</v>
@@ -8951,7 +8951,7 @@
         <v>0.161</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0944</v>
+        <v>0.0925</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -8968,19 +8968,19 @@
         <v>387</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="I20" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="J20" t="n">
         <v>0.09</v>
@@ -9006,28 +9006,28 @@
         <v>387</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0.4</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H21" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="I21" t="n">
-        <v>0.28</v>
+        <v>0.16</v>
       </c>
       <c r="J21" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="K21" t="n">
-        <v>0.052</v>
+        <v>0.04</v>
       </c>
       <c r="L21" t="n">
-        <v>0.027</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -9047,25 +9047,25 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
         <v>0.7</v>
       </c>
       <c r="H22" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="I22" t="n">
-        <v>0.44</v>
+        <v>0.34</v>
       </c>
       <c r="J22" t="n">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="K22" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.06</v>
       </c>
       <c r="L22" t="n">
-        <v>0.037</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -9082,19 +9082,19 @@
         <v>387</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H23" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="J23" t="n">
         <v>0.9</v>
@@ -9120,28 +9120,28 @@
         <v>387</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0357</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0.07140000000000001</v>
       </c>
       <c r="G24" t="n">
+        <v>0.07140000000000001</v>
+      </c>
+      <c r="H24" t="n">
         <v>0.1429</v>
       </c>
-      <c r="H24" t="n">
-        <v>0.2143</v>
-      </c>
       <c r="I24" t="n">
-        <v>0.5</v>
+        <v>0.2857</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6071</v>
+        <v>0.4286</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9286</v>
+        <v>0.7143</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9643</v>
+        <v>0.8214</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -9161,25 +9161,25 @@
         <v>0.0263</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1053</v>
+        <v>0.1316</v>
       </c>
       <c r="G25" t="n">
         <v>0.1842</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3158</v>
+        <v>0.2895</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5789</v>
+        <v>0.4474</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6842</v>
+        <v>0.5526</v>
       </c>
       <c r="K25" t="n">
-        <v>0.9474</v>
+        <v>0.7895</v>
       </c>
       <c r="L25" t="n">
-        <v>0.9737</v>
+        <v>0.8683999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -9196,19 +9196,19 @@
         <v>387</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.1818</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2667</v>
+        <v>0.4</v>
       </c>
       <c r="G26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I26" t="n">
         <v>0.3</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.3429</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.2667</v>
       </c>
       <c r="J26" t="n">
         <v>0.1636</v>
@@ -9234,28 +9234,28 @@
         <v>387</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0689</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0.1212</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2106</v>
+        <v>0.1052</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2264</v>
+        <v>0.151</v>
       </c>
       <c r="I27" t="n">
-        <v>0.359</v>
+        <v>0.2051</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2656</v>
+        <v>0.1875</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0985</v>
+        <v>0.07580000000000001</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0525</v>
+        <v>0.0447</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -9275,25 +9275,25 @@
         <v>0.0513</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1861</v>
+        <v>0.2326</v>
       </c>
       <c r="G28" t="n">
         <v>0.2917</v>
       </c>
       <c r="H28" t="n">
-        <v>0.381</v>
+        <v>0.3492</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5</v>
+        <v>0.3864</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3768</v>
+        <v>0.3043</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1338</v>
+        <v>0.1115</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0713</v>
+        <v>0.0636</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -9316,7 +9316,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0.12</v>
@@ -9328,7 +9328,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="L29" t="n">
         <v>0.012</v>
@@ -9354,19 +9354,19 @@
         <v>0.6</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H30" t="n">
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="I30" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="J30" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="K30" t="n">
-        <v>0.03</v>
+        <v>0.032</v>
       </c>
       <c r="L30" t="n">
         <v>0.019</v>
@@ -9392,19 +9392,19 @@
         <v>0.6</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H31" t="n">
-        <v>0.44</v>
+        <v>0.32</v>
       </c>
       <c r="I31" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="J31" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="K31" t="n">
-        <v>0.05</v>
+        <v>0.054</v>
       </c>
       <c r="L31" t="n">
         <v>0.031</v>
@@ -9430,7 +9430,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0833</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0.25</v>
@@ -9442,7 +9442,7 @@
         <v>0.5833</v>
       </c>
       <c r="K32" t="n">
-        <v>0.8333</v>
+        <v>0.9167</v>
       </c>
       <c r="L32" t="n">
         <v>1</v>
@@ -9468,19 +9468,19 @@
         <v>0.09089999999999999</v>
       </c>
       <c r="G33" t="n">
+        <v>0.1212</v>
+      </c>
+      <c r="H33" t="n">
         <v>0.1515</v>
       </c>
-      <c r="H33" t="n">
-        <v>0.2424</v>
-      </c>
       <c r="I33" t="n">
-        <v>0.3333</v>
+        <v>0.2727</v>
       </c>
       <c r="J33" t="n">
-        <v>0.3636</v>
+        <v>0.303</v>
       </c>
       <c r="K33" t="n">
-        <v>0.4545</v>
+        <v>0.4848</v>
       </c>
       <c r="L33" t="n">
         <v>0.5758</v>
@@ -9506,19 +9506,19 @@
         <v>0.0667</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1333</v>
+        <v>0.08890000000000001</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2444</v>
+        <v>0.1778</v>
       </c>
       <c r="I34" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="J34" t="n">
         <v>0.3778</v>
       </c>
-      <c r="J34" t="n">
-        <v>0.4222</v>
-      </c>
       <c r="K34" t="n">
-        <v>0.5556</v>
+        <v>0.6</v>
       </c>
       <c r="L34" t="n">
         <v>0.6889</v>
@@ -9544,7 +9544,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.09089999999999999</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0.1622</v>
@@ -9556,7 +9556,7 @@
         <v>0.125</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0391</v>
+        <v>0.043</v>
       </c>
       <c r="L35" t="n">
         <v>0.0237</v>
@@ -9582,19 +9582,19 @@
         <v>0.1579</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2325</v>
+        <v>0.186</v>
       </c>
       <c r="H36" t="n">
-        <v>0.2758</v>
+        <v>0.1724</v>
       </c>
       <c r="I36" t="n">
-        <v>0.265</v>
+        <v>0.2169</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1804</v>
+        <v>0.1504</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0563</v>
+        <v>0.06</v>
       </c>
       <c r="L36" t="n">
         <v>0.0368</v>
@@ -9620,19 +9620,19 @@
         <v>0.1201</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2181</v>
+        <v>0.1455</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3142</v>
+        <v>0.2286</v>
       </c>
       <c r="I37" t="n">
-        <v>0.3579</v>
+        <v>0.3158</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2621</v>
+        <v>0.2345</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0917</v>
+        <v>0.09909999999999999</v>
       </c>
       <c r="L37" t="n">
         <v>0.0593</v>
@@ -9652,10 +9652,10 @@
         <v>387</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G38" t="n">
         <v>0.1</v>
@@ -9664,13 +9664,13 @@
         <v>0.08</v>
       </c>
       <c r="I38" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="J38" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="K38" t="n">
-        <v>0.01</v>
+        <v>0.012</v>
       </c>
       <c r="L38" t="n">
         <v>0.006</v>
@@ -9690,28 +9690,28 @@
         <v>387</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G39" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H39" t="n">
         <v>0.2</v>
       </c>
-      <c r="H39" t="n">
-        <v>0.16</v>
-      </c>
       <c r="I39" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="J39" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="K39" t="n">
-        <v>0.016</v>
+        <v>0.018</v>
       </c>
       <c r="L39" t="n">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -9734,22 +9734,22 @@
         <v>0.4</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H40" t="n">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="I40" t="n">
         <v>0.16</v>
       </c>
       <c r="J40" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="K40" t="n">
-        <v>0.026</v>
+        <v>0.03</v>
       </c>
       <c r="L40" t="n">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -9766,10 +9766,10 @@
         <v>387</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G41" t="n">
         <v>0.1</v>
@@ -9778,13 +9778,13 @@
         <v>0.2</v>
       </c>
       <c r="I41" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J41" t="n">
         <v>0.3</v>
       </c>
-      <c r="J41" t="n">
-        <v>0.4</v>
-      </c>
       <c r="K41" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="L41" t="n">
         <v>0.6</v>
@@ -9804,28 +9804,28 @@
         <v>387</v>
       </c>
       <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>0.0526</v>
       </c>
-      <c r="F42" t="n">
-        <v>0.1053</v>
-      </c>
       <c r="G42" t="n">
-        <v>0.1053</v>
+        <v>0.1579</v>
       </c>
       <c r="H42" t="n">
-        <v>0.2105</v>
+        <v>0.2632</v>
       </c>
       <c r="I42" t="n">
-        <v>0.2632</v>
+        <v>0.3158</v>
       </c>
       <c r="J42" t="n">
-        <v>0.3684</v>
+        <v>0.3158</v>
       </c>
       <c r="K42" t="n">
-        <v>0.4211</v>
+        <v>0.4737</v>
       </c>
       <c r="L42" t="n">
-        <v>0.5263</v>
+        <v>0.5789</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -9848,22 +9848,22 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1034</v>
+        <v>0.1379</v>
       </c>
       <c r="H43" t="n">
-        <v>0.2069</v>
+        <v>0.2414</v>
       </c>
       <c r="I43" t="n">
         <v>0.2759</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3793</v>
+        <v>0.3103</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4483</v>
+        <v>0.5172</v>
       </c>
       <c r="L43" t="n">
-        <v>0.5517</v>
+        <v>0.5862000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -9880,10 +9880,10 @@
         <v>387</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>0.1818</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>0.1333</v>
       </c>
       <c r="G44" t="n">
         <v>0.1</v>
@@ -9892,13 +9892,13 @@
         <v>0.1143</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1</v>
+        <v>0.0667</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0727</v>
+        <v>0.0545</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0196</v>
+        <v>0.0235</v>
       </c>
       <c r="L44" t="n">
         <v>0.0119</v>
@@ -9918,28 +9918,28 @@
         <v>387</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0999</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1667</v>
+        <v>0.0833</v>
       </c>
       <c r="G45" t="n">
-        <v>0.138</v>
+        <v>0.2069</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1818</v>
+        <v>0.2273</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1449</v>
+        <v>0.1739</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1176</v>
+        <v>0.1008</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0308</v>
+        <v>0.0347</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0196</v>
+        <v>0.0216</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -9962,22 +9962,22 @@
         <v>0.1177</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1538</v>
+        <v>0.2051</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2222</v>
+        <v>0.2593</v>
       </c>
       <c r="I46" t="n">
         <v>0.2025</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1705</v>
+        <v>0.1395</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0491</v>
+        <v>0.0567</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0311</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -9997,25 +9997,25 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G47" t="n">
         <v>0.2</v>
       </c>
       <c r="H47" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="I47" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="J47" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="K47" t="n">
-        <v>0.024</v>
+        <v>0.026</v>
       </c>
       <c r="L47" t="n">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -10035,16 +10035,16 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="G48" t="n">
         <v>0.3</v>
       </c>
       <c r="H48" t="n">
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
       <c r="I48" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="J48" t="n">
         <v>0.09</v>
@@ -10079,19 +10079,19 @@
         <v>0.5</v>
       </c>
       <c r="H49" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="I49" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="J49" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="K49" t="n">
-        <v>0.046</v>
+        <v>0.048</v>
       </c>
       <c r="L49" t="n">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -10111,25 +10111,25 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="G50" t="n">
         <v>0.1429</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2143</v>
+        <v>0.2857</v>
       </c>
       <c r="I50" t="n">
-        <v>0.5714</v>
+        <v>0.7143</v>
       </c>
       <c r="J50" t="n">
-        <v>0.7857</v>
+        <v>0.7143</v>
       </c>
       <c r="K50" t="n">
-        <v>0.8571</v>
+        <v>0.9286</v>
       </c>
       <c r="L50" t="n">
-        <v>1</v>
+        <v>0.9286</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -10149,16 +10149,16 @@
         <v>0.0588</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1765</v>
+        <v>0.1176</v>
       </c>
       <c r="G51" t="n">
         <v>0.1765</v>
       </c>
       <c r="H51" t="n">
-        <v>0.4706</v>
+        <v>0.3529</v>
       </c>
       <c r="I51" t="n">
-        <v>0.4706</v>
+        <v>0.4118</v>
       </c>
       <c r="J51" t="n">
         <v>0.5294</v>
@@ -10193,19 +10193,19 @@
         <v>0.1613</v>
       </c>
       <c r="H52" t="n">
-        <v>0.3548</v>
+        <v>0.3226</v>
       </c>
       <c r="I52" t="n">
-        <v>0.5161</v>
+        <v>0.5484</v>
       </c>
       <c r="J52" t="n">
-        <v>0.6452</v>
+        <v>0.6129</v>
       </c>
       <c r="K52" t="n">
-        <v>0.7419</v>
+        <v>0.7742</v>
       </c>
       <c r="L52" t="n">
-        <v>0.8065</v>
+        <v>0.7742</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -10225,25 +10225,25 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>0.1052</v>
       </c>
       <c r="G53" t="n">
         <v>0.1667</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1538</v>
+        <v>0.2051</v>
       </c>
       <c r="I53" t="n">
-        <v>0.25</v>
+        <v>0.3125</v>
       </c>
       <c r="J53" t="n">
-        <v>0.193</v>
+        <v>0.1754</v>
       </c>
       <c r="K53" t="n">
-        <v>0.0467</v>
+        <v>0.0506</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0276</v>
+        <v>0.0256</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -10263,16 +10263,16 @@
         <v>0.1111</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2728</v>
+        <v>0.1818</v>
       </c>
       <c r="G54" t="n">
         <v>0.2222</v>
       </c>
       <c r="H54" t="n">
-        <v>0.381</v>
+        <v>0.2857</v>
       </c>
       <c r="I54" t="n">
-        <v>0.2388</v>
+        <v>0.209</v>
       </c>
       <c r="J54" t="n">
         <v>0.1538</v>
@@ -10307,19 +10307,19 @@
         <v>0.2439</v>
       </c>
       <c r="H55" t="n">
-        <v>0.3928</v>
+        <v>0.3572</v>
       </c>
       <c r="I55" t="n">
-        <v>0.3951</v>
+        <v>0.4198</v>
       </c>
       <c r="J55" t="n">
-        <v>0.3053</v>
+        <v>0.2901</v>
       </c>
       <c r="K55" t="n">
-        <v>0.0866</v>
+        <v>0.09039999999999999</v>
       </c>
       <c r="L55" t="n">
-        <v>0.0485</v>
+        <v>0.0466</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -10351,7 +10351,7 @@
         <v>0.06</v>
       </c>
       <c r="J56" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="K56" t="n">
         <v>0.01</v>
@@ -10377,19 +10377,19 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
         <v>0.7</v>
       </c>
       <c r="H57" t="n">
-        <v>0.52</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I57" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="J57" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="K57" t="n">
         <v>0.04</v>
@@ -10415,16 +10415,16 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
         <v>0.7</v>
       </c>
       <c r="H58" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="I58" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="J58" t="n">
         <v>0.23</v>
@@ -10465,7 +10465,7 @@
         <v>0.6</v>
       </c>
       <c r="J59" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="K59" t="n">
         <v>1</v>
@@ -10491,19 +10491,19 @@
         <v>0.05</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G60" t="n">
         <v>0.35</v>
       </c>
       <c r="H60" t="n">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="K60" t="n">
         <v>1</v>
@@ -10529,16 +10529,16 @@
         <v>0.04</v>
       </c>
       <c r="F61" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="G61" t="n">
         <v>0.28</v>
       </c>
       <c r="H61" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="I61" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="J61" t="n">
         <v>0.92</v>
@@ -10579,7 +10579,7 @@
         <v>0.1091</v>
       </c>
       <c r="J62" t="n">
-        <v>0.0571</v>
+        <v>0.0762</v>
       </c>
       <c r="K62" t="n">
         <v>0.0198</v>
@@ -10605,19 +10605,19 @@
         <v>0.09520000000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="G63" t="n">
         <v>0.4667</v>
       </c>
       <c r="H63" t="n">
-        <v>0.5778</v>
+        <v>0.6222</v>
       </c>
       <c r="I63" t="n">
-        <v>0.5143</v>
+        <v>0.4857</v>
       </c>
       <c r="J63" t="n">
-        <v>0.3333</v>
+        <v>0.3167</v>
       </c>
       <c r="K63" t="n">
         <v>0.0769</v>
@@ -10643,16 +10643,16 @@
         <v>0.0769</v>
       </c>
       <c r="F64" t="n">
-        <v>0.2667</v>
+        <v>0.3333</v>
       </c>
       <c r="G64" t="n">
         <v>0.4</v>
       </c>
       <c r="H64" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="I64" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5333</v>
       </c>
       <c r="J64" t="n">
         <v>0.368</v>
@@ -10699,7 +10699,7 @@
         <v>0.008</v>
       </c>
       <c r="L65" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -10719,25 +10719,25 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="G66" t="n">
         <v>0.8</v>
       </c>
       <c r="H66" t="n">
-        <v>0.48</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I66" t="n">
         <v>0.3</v>
       </c>
       <c r="J66" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="K66" t="n">
-        <v>0.038</v>
+        <v>0.042</v>
       </c>
       <c r="L66" t="n">
-        <v>0.019</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -10757,25 +10757,25 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G67" t="n">
         <v>0.9</v>
       </c>
       <c r="H67" t="n">
-        <v>0.52</v>
+        <v>0.6</v>
       </c>
       <c r="I67" t="n">
         <v>0.32</v>
       </c>
       <c r="J67" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="K67" t="n">
-        <v>0.046</v>
+        <v>0.05</v>
       </c>
       <c r="L67" t="n">
-        <v>0.024</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -10813,7 +10813,7 @@
         <v>0.5</v>
       </c>
       <c r="L68" t="n">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -10833,25 +10833,25 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.09520000000000001</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="G69" t="n">
         <v>0.1905</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2857</v>
+        <v>0.3333</v>
       </c>
       <c r="I69" t="n">
         <v>0.3571</v>
       </c>
       <c r="J69" t="n">
-        <v>0.381</v>
+        <v>0.4762</v>
       </c>
       <c r="K69" t="n">
-        <v>0.4524</v>
+        <v>0.5</v>
       </c>
       <c r="L69" t="n">
-        <v>0.4524</v>
+        <v>0.5476</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -10871,25 +10871,25 @@
         <v>0.02</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="G70" t="n">
         <v>0.18</v>
       </c>
       <c r="H70" t="n">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="I70" t="n">
         <v>0.32</v>
       </c>
       <c r="J70" t="n">
-        <v>0.34</v>
+        <v>0.42</v>
       </c>
       <c r="K70" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="L70" t="n">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -10927,7 +10927,7 @@
         <v>0.0157</v>
       </c>
       <c r="L71" t="n">
-        <v>0.009900000000000001</v>
+        <v>0.007900000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -10947,25 +10947,25 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1702</v>
+        <v>0.1276</v>
       </c>
       <c r="G72" t="n">
         <v>0.3077</v>
       </c>
       <c r="H72" t="n">
-        <v>0.3582</v>
+        <v>0.4179</v>
       </c>
       <c r="I72" t="n">
         <v>0.3261</v>
       </c>
       <c r="J72" t="n">
-        <v>0.2254</v>
+        <v>0.2817</v>
       </c>
       <c r="K72" t="n">
-        <v>0.0701</v>
+        <v>0.0775</v>
       </c>
       <c r="L72" t="n">
-        <v>0.0365</v>
+        <v>0.0441</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -10985,25 +10985,25 @@
         <v>0.0392</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1818</v>
+        <v>0.1455</v>
       </c>
       <c r="G73" t="n">
         <v>0.3</v>
       </c>
       <c r="H73" t="n">
-        <v>0.3467</v>
+        <v>0.4</v>
       </c>
       <c r="I73" t="n">
         <v>0.32</v>
       </c>
       <c r="J73" t="n">
-        <v>0.2267</v>
+        <v>0.28</v>
       </c>
       <c r="K73" t="n">
-        <v>0.08359999999999999</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0457</v>
+        <v>0.0514</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -11026,22 +11026,22 @@
         <v>0.2</v>
       </c>
       <c r="G74" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H74" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I74" t="n">
         <v>0.08</v>
       </c>
       <c r="J74" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="K74" t="n">
-        <v>0.014</v>
+        <v>0.012</v>
       </c>
       <c r="L74" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -11061,25 +11061,25 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H75" t="n">
-        <v>0.36</v>
+        <v>0.24</v>
       </c>
       <c r="I75" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="J75" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="K75" t="n">
-        <v>0.038</v>
+        <v>0.036</v>
       </c>
       <c r="L75" t="n">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -11099,22 +11099,22 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="G76" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H76" t="n">
-        <v>0.48</v>
+        <v>0.32</v>
       </c>
       <c r="I76" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="J76" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="K76" t="n">
-        <v>0.052</v>
+        <v>0.048</v>
       </c>
       <c r="L76" t="n">
         <v>0.026</v>
@@ -11140,22 +11140,22 @@
         <v>0.1429</v>
       </c>
       <c r="G77" t="n">
-        <v>0.4286</v>
+        <v>0.1429</v>
       </c>
       <c r="H77" t="n">
-        <v>0.4286</v>
+        <v>0.2857</v>
       </c>
       <c r="I77" t="n">
         <v>0.5714</v>
       </c>
       <c r="J77" t="n">
-        <v>0.5714</v>
+        <v>0.7143</v>
       </c>
       <c r="K77" t="n">
-        <v>1</v>
+        <v>0.8571</v>
       </c>
       <c r="L77" t="n">
-        <v>1</v>
+        <v>0.8571</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -11175,25 +11175,25 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.0606</v>
       </c>
       <c r="G78" t="n">
-        <v>0.1515</v>
+        <v>0.0606</v>
       </c>
       <c r="H78" t="n">
+        <v>0.1818</v>
+      </c>
+      <c r="I78" t="n">
         <v>0.2727</v>
       </c>
-      <c r="I78" t="n">
-        <v>0.3333</v>
-      </c>
       <c r="J78" t="n">
-        <v>0.4545</v>
+        <v>0.3939</v>
       </c>
       <c r="K78" t="n">
-        <v>0.5758</v>
+        <v>0.5455</v>
       </c>
       <c r="L78" t="n">
-        <v>0.5758</v>
+        <v>0.6061</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -11213,22 +11213,22 @@
         <v>0.025</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1</v>
+        <v>0.075</v>
       </c>
       <c r="G79" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H79" t="n">
         <v>0.2</v>
       </c>
-      <c r="H79" t="n">
-        <v>0.3</v>
-      </c>
       <c r="I79" t="n">
-        <v>0.375</v>
+        <v>0.325</v>
       </c>
       <c r="J79" t="n">
-        <v>0.475</v>
+        <v>0.45</v>
       </c>
       <c r="K79" t="n">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="L79" t="n">
         <v>0.65</v>
@@ -11254,22 +11254,22 @@
         <v>0.1667</v>
       </c>
       <c r="G80" t="n">
-        <v>0.353</v>
+        <v>0.1177</v>
       </c>
       <c r="H80" t="n">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="I80" t="n">
         <v>0.1404</v>
       </c>
       <c r="J80" t="n">
-        <v>0.07480000000000001</v>
+        <v>0.0935</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0276</v>
+        <v>0.0237</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0139</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -11289,25 +11289,25 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1579</v>
+        <v>0.1053</v>
       </c>
       <c r="G81" t="n">
-        <v>0.2325</v>
+        <v>0.093</v>
       </c>
       <c r="H81" t="n">
-        <v>0.3103</v>
+        <v>0.2069</v>
       </c>
       <c r="I81" t="n">
-        <v>0.265</v>
+        <v>0.2169</v>
       </c>
       <c r="J81" t="n">
-        <v>0.2256</v>
+        <v>0.1955</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0713</v>
+        <v>0.0675</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0368</v>
+        <v>0.0387</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -11327,22 +11327,22 @@
         <v>0.0488</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1778</v>
+        <v>0.1333</v>
       </c>
       <c r="G82" t="n">
-        <v>0.32</v>
+        <v>0.12</v>
       </c>
       <c r="H82" t="n">
-        <v>0.3692</v>
+        <v>0.2462</v>
       </c>
       <c r="I82" t="n">
-        <v>0.3333</v>
+        <v>0.2889</v>
       </c>
       <c r="J82" t="n">
-        <v>0.2714</v>
+        <v>0.2571</v>
       </c>
       <c r="K82" t="n">
-        <v>0.0963</v>
+        <v>0.08890000000000001</v>
       </c>
       <c r="L82" t="n">
         <v>0.05</v>
@@ -11365,7 +11365,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G83" t="n">
         <v>0.2</v>
@@ -11403,10 +11403,10 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G84" t="n">
         <v>0.8</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.7</v>
       </c>
       <c r="H84" t="n">
         <v>0.52</v>
@@ -11415,7 +11415,7 @@
         <v>0.3</v>
       </c>
       <c r="J84" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="K84" t="n">
         <v>0.032</v>
@@ -11444,7 +11444,7 @@
         <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
         <v>0.6</v>
@@ -11453,7 +11453,7 @@
         <v>0.34</v>
       </c>
       <c r="J85" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="K85" t="n">
         <v>0.036</v>
@@ -11479,7 +11479,7 @@
         <v>0.5</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -11517,10 +11517,10 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0.25</v>
+        <v>0.1875</v>
       </c>
       <c r="G87" t="n">
-        <v>0.4375</v>
+        <v>0.5</v>
       </c>
       <c r="H87" t="n">
         <v>0.8125</v>
@@ -11529,7 +11529,7 @@
         <v>0.9375</v>
       </c>
       <c r="J87" t="n">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="K87" t="n">
         <v>1</v>
@@ -11558,7 +11558,7 @@
         <v>0.2778</v>
       </c>
       <c r="G88" t="n">
-        <v>0.5</v>
+        <v>0.5556</v>
       </c>
       <c r="H88" t="n">
         <v>0.8333</v>
@@ -11567,7 +11567,7 @@
         <v>0.9444</v>
       </c>
       <c r="J88" t="n">
-        <v>0.9444</v>
+        <v>1</v>
       </c>
       <c r="K88" t="n">
         <v>1</v>
@@ -11593,7 +11593,7 @@
         <v>0.6667</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2857</v>
+        <v>0.5714</v>
       </c>
       <c r="G89" t="n">
         <v>0.3333</v>
@@ -11631,10 +11631,10 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.381</v>
+        <v>0.2857</v>
       </c>
       <c r="G90" t="n">
-        <v>0.5385</v>
+        <v>0.6153999999999999</v>
       </c>
       <c r="H90" t="n">
         <v>0.6341</v>
@@ -11643,7 +11643,7 @@
         <v>0.4545</v>
       </c>
       <c r="J90" t="n">
-        <v>0.2586</v>
+        <v>0.2759</v>
       </c>
       <c r="K90" t="n">
         <v>0.062</v>
@@ -11672,7 +11672,7 @@
         <v>0.4348</v>
       </c>
       <c r="G91" t="n">
-        <v>0.6429</v>
+        <v>0.7143</v>
       </c>
       <c r="H91" t="n">
         <v>0.6977</v>
@@ -11681,7 +11681,7 @@
         <v>0.5</v>
       </c>
       <c r="J91" t="n">
-        <v>0.2881</v>
+        <v>0.3051</v>
       </c>
       <c r="K91" t="n">
         <v>0.06950000000000001</v>
@@ -11764,25 +11764,25 @@
         <v>0.02631578947368421</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.05526315789473685</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1240601503759399</v>
+        <v>0.05526315789473685</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1718946575925981</v>
+        <v>0.1201475293143967</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2341341926641253</v>
+        <v>0.1675604221787415</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2585694638486225</v>
+        <v>0.2103039890991595</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2976832004807165</v>
+        <v>0.2311968379983854</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3000553815141305</v>
+        <v>0.2370073645043867</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -11802,25 +11802,25 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01052631578947368</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02807017543859649</v>
+        <v>0.1161236424394319</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1129134582307957</v>
+        <v>0.1654657477025898</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1129134582307957</v>
+        <v>0.1654657477025898</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1274773799969335</v>
+        <v>0.1871327493351076</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1484125519789101</v>
+        <v>0.2048075320432885</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1495567167386355</v>
+        <v>0.2064583380250325</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -11840,25 +11840,25 @@
         <v>0.01754385964912281</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08771929824561403</v>
+        <v>0.06228070175438596</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1228070175438596</v>
+        <v>0.1196184906711222</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2409585847464431</v>
+        <v>0.2329600522458525</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3061764685597038</v>
+        <v>0.2819856334402177</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3443597241781883</v>
+        <v>0.3450616739234391</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4034093613485682</v>
+        <v>0.3829801587626144</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4068942756910838</v>
+        <v>0.3904192598870385</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -11878,25 +11878,25 @@
         <v>0.04</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09066666666666666</v>
+        <v>0.11</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1373333333333333</v>
+        <v>0.11</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1887463768115942</v>
+        <v>0.1777121212121212</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2569592749218096</v>
+        <v>0.2503394195415471</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2840475489666054</v>
+        <v>0.2793563468866479</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3056170695248059</v>
+        <v>0.3005232303227246</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3082407609058471</v>
+        <v>0.3053638153046709</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -11916,25 +11916,25 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0115546218487395</v>
+        <v>0.02829131652661064</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01674493326742462</v>
+        <v>0.02829131652661064</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02408073472087313</v>
+        <v>0.04506910646146391</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04036387468417618</v>
+        <v>0.05673083503495719</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06902033874808348</v>
+        <v>0.08226534067109348</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07273854933846602</v>
+        <v>0.08320903365630897</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -11954,25 +11954,25 @@
         <v>0.01694915254237288</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03841807909604519</v>
+        <v>0.06016949152542372</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0864003228410008</v>
+        <v>0.08882163034705406</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1253098623384505</v>
+        <v>0.1326069410815173</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1786560530157824</v>
+        <v>0.20559088070716</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2233774524094549</v>
+        <v>0.2426243784071779</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2765490161525857</v>
+        <v>0.29067963326116</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2830011688188561</v>
+        <v>0.2958141051928621</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -11989,28 +11989,28 @@
         <v>387</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1</v>
+        <v>0.2416666666666666</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.3638888888888888</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2244110275689223</v>
+        <v>0.4340643274853801</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2738663652595541</v>
+        <v>0.4894082428292955</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2829572743504632</v>
+        <v>0.4894082428292955</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2855546769478657</v>
+        <v>0.497041830615555</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2855546769478657</v>
+        <v>0.497041830615555</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -12027,28 +12027,28 @@
         <v>387</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03571428571428571</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05952380952380952</v>
+        <v>0.03214285714285715</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.03214285714285715</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1240769034886682</v>
+        <v>0.04702380952380952</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1992624136654876</v>
+        <v>0.07121542877490339</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2238692432394224</v>
+        <v>0.09387355654213929</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2513911794807265</v>
+        <v>0.1207038367275604</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2524415996487937</v>
+        <v>0.124054966643972</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -12068,25 +12068,25 @@
         <v>0.02631578947368421</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1727756892230576</v>
+        <v>0.1783625730994152</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2534568460977945</v>
+        <v>0.2349761465066175</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3760839336307621</v>
+        <v>0.2994719280521058</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4102585398032908</v>
+        <v>0.3307498084742237</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4417678799815109</v>
+        <v>0.3675594541152578</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4428285381629121</v>
+        <v>0.3711603960599844</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -12109,22 +12109,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0119047619047619</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03257824869078066</v>
+        <v>0.02320075757575758</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06784902366743799</v>
+        <v>0.05887904098589582</v>
       </c>
       <c r="J11" t="n">
-        <v>0.07725762581797561</v>
+        <v>0.06876604663561334</v>
       </c>
       <c r="K11" t="n">
-        <v>0.08966490529169431</v>
+        <v>0.08275875799667474</v>
       </c>
       <c r="L11" t="n">
-        <v>0.09254169525258049</v>
+        <v>0.08423586287112084</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -12144,25 +12144,25 @@
         <v>0.0303030303030303</v>
       </c>
       <c r="F12" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.0787878787878788</v>
       </c>
       <c r="G12" t="n">
-        <v>0.130050505050505</v>
+        <v>0.09610389610389611</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1663223140495868</v>
+        <v>0.1050165520753756</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1916740308906653</v>
+        <v>0.1319092375242108</v>
       </c>
       <c r="J12" t="n">
-        <v>0.198408037624672</v>
+        <v>0.1365006057519426</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2044529473708641</v>
+        <v>0.1472964858661343</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2078066874078377</v>
+        <v>0.1496385875952298</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -12182,25 +12182,25 @@
         <v>0.02222222222222222</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.05777777777777778</v>
       </c>
       <c r="G13" t="n">
-        <v>0.114021164021164</v>
+        <v>0.07047619047619048</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1676944822724874</v>
+        <v>0.09974188665365136</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2217812910276316</v>
+        <v>0.1539906862060562</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2359987342773329</v>
+        <v>0.1657409572783612</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2513572342082124</v>
+        <v>0.1877224674621916</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2572609832753259</v>
+        <v>0.1915077808754756</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -12217,28 +12217,28 @@
         <v>387</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.1181818181818182</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04065040650406504</v>
+        <v>0.1181818181818182</v>
       </c>
       <c r="J14" t="n">
-        <v>0.04565040650406504</v>
+        <v>0.1224675324675325</v>
       </c>
       <c r="K14" t="n">
-        <v>0.04683524062728779</v>
+        <v>0.1299287214729906</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04751939114040067</v>
+        <v>0.1299287214729906</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -12255,28 +12255,28 @@
         <v>387</v>
       </c>
       <c r="E15" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.04210526315789474</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1256578947368421</v>
+        <v>0.07377947130269112</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1327702702702703</v>
+        <v>0.08280202769366857</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1419451060940068</v>
+        <v>0.08280202769366857</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1449102654713234</v>
+        <v>0.08760168495560876</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1461844600396101</v>
+        <v>0.08881291642999811</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -12296,25 +12296,25 @@
         <v>0.03448275862068965</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06896551724137931</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08620689655172414</v>
+        <v>0.07844827586206896</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1188218390804598</v>
+        <v>0.1242361593781472</v>
       </c>
       <c r="I16" t="n">
-        <v>0.132073947370415</v>
+        <v>0.132117932777162</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1456137303722233</v>
+        <v>0.1365514303141078</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1495900313879927</v>
+        <v>0.1478527561737551</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1514952992307447</v>
+        <v>0.1491003565592865</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -12334,25 +12334,25 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02619047619047619</v>
+        <v>0.03015873015873016</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04149659863945578</v>
+        <v>0.05575078516254987</v>
       </c>
       <c r="I17" t="n">
-        <v>0.09994253520113301</v>
+        <v>0.1438528442343059</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1323233495501448</v>
+        <v>0.1438528442343059</v>
       </c>
       <c r="K17" t="n">
-        <v>0.140565107791903</v>
+        <v>0.1569136012770354</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1432304304408233</v>
+        <v>0.1569136012770354</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -12372,25 +12372,25 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1617647058823529</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1617647058823529</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2483470932232542</v>
+        <v>0.198781266892722</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2483470932232542</v>
+        <v>0.2112589852527933</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2583359944441199</v>
+        <v>0.2216187992814976</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2635455008242725</v>
+        <v>0.2309749509680228</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2635455008242725</v>
+        <v>0.2309749509680228</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -12410,25 +12410,25 @@
         <v>0.03225806451612903</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08870967741935484</v>
+        <v>0.08387096774193549</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1263440860215054</v>
+        <v>0.1232974910394265</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2124741962432964</v>
+        <v>0.1946849182642651</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2758790629877479</v>
+        <v>0.2838783216221166</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3141661030713918</v>
+        <v>0.2962452986756584</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3268041470207062</v>
+        <v>0.3177011086688047</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3289907644386328</v>
+        <v>0.3177011086688047</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -12454,19 +12454,19 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03405797101449275</v>
+        <v>0.03111111111111111</v>
       </c>
       <c r="I20" t="n">
-        <v>0.05223978919631093</v>
+        <v>0.04825396825396826</v>
       </c>
       <c r="J20" t="n">
-        <v>0.05223978919631093</v>
+        <v>0.05777777777777778</v>
       </c>
       <c r="K20" t="n">
-        <v>0.05818110425306827</v>
+        <v>0.06477078477078477</v>
       </c>
       <c r="L20" t="n">
-        <v>0.05818110425306827</v>
+        <v>0.06477078477078477</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -12486,25 +12486,25 @@
         <v>0.05</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3282738095238095</v>
+        <v>0.3225</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5327581847976585</v>
+        <v>0.554984375273849</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6397488077633624</v>
+        <v>0.6308464442393663</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6637143770777689</v>
+        <v>0.658250923817759</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6637143770777689</v>
+        <v>0.6681519139167689</v>
       </c>
       <c r="L21" t="n">
-        <v>0.6637143770777689</v>
+        <v>0.6681519139167689</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -12524,25 +12524,25 @@
         <v>0.04</v>
       </c>
       <c r="F22" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2626190476190476</v>
+        <v>0.258</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4948176819366751</v>
+        <v>0.5075957936800042</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6158532122319187</v>
+        <v>0.5987541535756865</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6379794580790947</v>
+        <v>0.635187430443746</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6446164253097652</v>
+        <v>0.6516853879318024</v>
       </c>
       <c r="L22" t="n">
-        <v>0.6446164253097652</v>
+        <v>0.6516853879318024</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -12577,10 +12577,10 @@
         <v>0.125</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1313631022326675</v>
+        <v>0.1292671978862354</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1320506709895432</v>
+        <v>0.1292671978862354</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -12600,25 +12600,25 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.06468253968253969</v>
+        <v>0.04206349206349206</v>
       </c>
       <c r="G24" t="n">
-        <v>0.13994708994709</v>
+        <v>0.1303665910808768</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1936375661375661</v>
+        <v>0.2355986605986606</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2200750028143645</v>
+        <v>0.2437155437155437</v>
       </c>
       <c r="J24" t="n">
-        <v>0.224504681662648</v>
+        <v>0.2776914955144243</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2288627847067251</v>
+        <v>0.2818931761866932</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2288627847067251</v>
+        <v>0.2832444834489317</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -12638,25 +12638,25 @@
         <v>0.02</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1</v>
+        <v>0.076</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1732777777777778</v>
+        <v>0.1630873015873016</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2227611111111111</v>
+        <v>0.2594781329781329</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2465799872704128</v>
+        <v>0.2667508602508601</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2505334756425058</v>
+        <v>0.296887751853485</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2617140954063307</v>
+        <v>0.3064652059884241</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2622421482116113</v>
+        <v>0.3078028578102865</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -12679,22 +12679,22 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="I26" t="n">
-        <v>0.250140056022409</v>
+        <v>0.1864190721333578</v>
       </c>
       <c r="J26" t="n">
-        <v>0.250140056022409</v>
+        <v>0.1948224334778957</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2621744397115239</v>
+        <v>0.1992406956281166</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2621744397115239</v>
+        <v>0.1992406956281166</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -12714,25 +12714,25 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.05808080808080807</v>
+        <v>0.02727272727272727</v>
       </c>
       <c r="G27" t="n">
-        <v>0.09006734006734007</v>
+        <v>0.02727272727272727</v>
       </c>
       <c r="H27" t="n">
-        <v>0.145600025085671</v>
+        <v>0.06320886481314289</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1641794271806324</v>
+        <v>0.08355592516020324</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1887500538095781</v>
+        <v>0.1030205730635975</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2029117224968522</v>
+        <v>0.1152497094805911</v>
       </c>
       <c r="L27" t="n">
-        <v>0.2029117224968522</v>
+        <v>0.117113507790692</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -12752,25 +12752,25 @@
         <v>0.025</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1</v>
+        <v>0.065</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1790277777777778</v>
+        <v>0.065</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2438667217285638</v>
+        <v>0.1125771369153722</v>
       </c>
       <c r="I28" t="n">
-        <v>0.2745140773907614</v>
+        <v>0.1506208372090725</v>
       </c>
       <c r="J28" t="n">
-        <v>0.300892416033251</v>
+        <v>0.1776000466035118</v>
       </c>
       <c r="K28" t="n">
-        <v>0.3243016610149649</v>
+        <v>0.1939391855798125</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3243016610149649</v>
+        <v>0.1959501477906702</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -12790,25 +12790,25 @@
         <v>0.5</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="H29" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="I29" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="K29" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="L29" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -12828,25 +12828,25 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1697916666666667</v>
+        <v>0.1197916666666667</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2998511904761905</v>
+        <v>0.3515873015873016</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5664637445887447</v>
+        <v>0.5905327311577312</v>
       </c>
       <c r="I30" t="n">
-        <v>0.6101266365748075</v>
+        <v>0.6312524281274282</v>
       </c>
       <c r="J30" t="n">
-        <v>0.6101266365748075</v>
+        <v>0.6455381424131424</v>
       </c>
       <c r="K30" t="n">
-        <v>0.614474462661764</v>
+        <v>0.6455381424131424</v>
       </c>
       <c r="L30" t="n">
-        <v>0.614474462661764</v>
+        <v>0.6455381424131424</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -12869,22 +12869,22 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4882716049382717</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7719596761263428</v>
+        <v>0.8074989824989826</v>
       </c>
       <c r="I31" t="n">
-        <v>0.8161266654152833</v>
+        <v>0.8486886570219904</v>
       </c>
       <c r="J31" t="n">
-        <v>0.8161266654152833</v>
+        <v>0.8629743713077046</v>
       </c>
       <c r="K31" t="n">
-        <v>0.8204744915022399</v>
+        <v>0.8629743713077046</v>
       </c>
       <c r="L31" t="n">
-        <v>0.8204744915022399</v>
+        <v>0.8629743713077046</v>
       </c>
     </row>
   </sheetData>

--- a/BM25.xlsx
+++ b/BM25.xlsx
@@ -1560,10 +1560,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>152.574201342157</v>
+        <v>132.0254821160874</v>
       </c>
       <c r="E2" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1577,10 +1577,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>145.574326476483</v>
+        <v>142.3625298175711</v>
       </c>
       <c r="E3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1594,10 +1594,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>181.2062595627605</v>
+        <v>165.1782408211001</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1611,10 +1611,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>110.6212718678011</v>
+        <v>95.57754049684206</v>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1628,10 +1628,10 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>177.0127026701869</v>
+        <v>166.6380647088719</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1645,10 +1645,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>160.9107987454937</v>
+        <v>152.9906551650726</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1662,7 +1662,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>214.8327808738746</v>
+        <v>211.6058847425923</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -1679,10 +1679,10 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>160.2521658063975</v>
+        <v>155.5050984026621</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1696,10 +1696,10 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>160.2521658063975</v>
+        <v>155.5050984026621</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1713,10 +1713,10 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>158.1318948427586</v>
+        <v>152.6685236165812</v>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1730,7 +1730,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>168.1420345275479</v>
+        <v>164.5851699843181</v>
       </c>
       <c r="E12" t="n">
         <v>6</v>
@@ -1747,7 +1747,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>213.7708035402825</v>
+        <v>198.0283225334899</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -1764,10 +1764,10 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>137.4640233554698</v>
+        <v>134.2150449290274</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1781,10 +1781,10 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>166.8930338695104</v>
+        <v>141.6628580207831</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1798,7 +1798,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>359.600411312535</v>
+        <v>329.5680531168688</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1815,10 +1815,10 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>153.420080549676</v>
+        <v>147.9962325715257</v>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1832,10 +1832,10 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>116.3871884710315</v>
+        <v>111.3596369641166</v>
       </c>
       <c r="E18" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1849,10 +1849,10 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>116.3871884710315</v>
+        <v>111.3596369641166</v>
       </c>
       <c r="E19" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1866,10 +1866,10 @@
         <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>62.91237433159377</v>
+        <v>62.89528270983242</v>
       </c>
       <c r="E20" t="n">
-        <v>1232</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1883,10 +1883,10 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>86.77204892950435</v>
+        <v>42.00065702532214</v>
       </c>
       <c r="E21" t="n">
-        <v>283</v>
+        <v>3857</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1900,10 +1900,10 @@
         <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>49.99560062072231</v>
+        <v>50.09346725516382</v>
       </c>
       <c r="E22" t="n">
-        <v>3131</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1917,10 +1917,10 @@
         <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>108.5662329399429</v>
+        <v>58.05751278411704</v>
       </c>
       <c r="E23" t="n">
-        <v>48</v>
+        <v>661</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1934,10 +1934,10 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>79.80503741864555</v>
+        <v>78.23923232958556</v>
       </c>
       <c r="E24" t="n">
-        <v>438</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1951,10 +1951,10 @@
         <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>73.57777235473129</v>
+        <v>55.19101220392173</v>
       </c>
       <c r="E25" t="n">
-        <v>649</v>
+        <v>942</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1968,10 +1968,10 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>100.5418077432561</v>
+        <v>73.22154977619364</v>
       </c>
       <c r="E26" t="n">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1985,10 +1985,10 @@
         <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>99.99313929440646</v>
+        <v>39.97002189123921</v>
       </c>
       <c r="E27" t="n">
-        <v>110</v>
+        <v>4762</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2002,10 +2002,10 @@
         <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>78.06804581227877</v>
+        <v>77.64291910346137</v>
       </c>
       <c r="E28" t="n">
-        <v>513</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2019,10 +2019,10 @@
         <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>67.10207035271178</v>
+        <v>66.8485760598863</v>
       </c>
       <c r="E29" t="n">
-        <v>937</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2036,10 +2036,10 @@
         <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>105.567105450464</v>
+        <v>93.95790872522461</v>
       </c>
       <c r="E30" t="n">
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2053,10 +2053,10 @@
         <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>100.9741220992323</v>
+        <v>95.48703772402834</v>
       </c>
       <c r="E31" t="n">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2070,10 +2070,10 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>77.23696080814139</v>
+        <v>75.57615396698085</v>
       </c>
       <c r="E32" t="n">
-        <v>542</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2087,10 +2087,10 @@
         <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>126.5352351979102</v>
+        <v>104.8201665547672</v>
       </c>
       <c r="E33" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2104,10 +2104,10 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>92.57043426101102</v>
+        <v>92.18014111168209</v>
       </c>
       <c r="E34" t="n">
-        <v>193</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2121,10 +2121,10 @@
         <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>102.5462003826121</v>
+        <v>96.54101583120416</v>
       </c>
       <c r="E35" t="n">
-        <v>89</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2138,10 +2138,10 @@
         <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>103.0153091740399</v>
+        <v>51.51827563739972</v>
       </c>
       <c r="E36" t="n">
-        <v>83</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2155,10 +2155,10 @@
         <v>11</v>
       </c>
       <c r="D37" t="n">
-        <v>51.43197389301091</v>
+        <v>52.4480016869558</v>
       </c>
       <c r="E37" t="n">
-        <v>2758</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2172,10 +2172,10 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>123.0412706483373</v>
+        <v>80.39266234387375</v>
       </c>
       <c r="E38" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2189,10 +2189,10 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>126.2302388662018</v>
+        <v>72.63088841305915</v>
       </c>
       <c r="E39" t="n">
-        <v>7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2206,10 +2206,10 @@
         <v>11</v>
       </c>
       <c r="D40" t="n">
-        <v>109.4843194023704</v>
+        <v>61.84196725208823</v>
       </c>
       <c r="E40" t="n">
-        <v>45</v>
+        <v>448</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2223,10 +2223,10 @@
         <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>123.8732827964308</v>
+        <v>62.44450118491982</v>
       </c>
       <c r="E41" t="n">
-        <v>9</v>
+        <v>412</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2240,10 +2240,10 @@
         <v>11</v>
       </c>
       <c r="D42" t="n">
-        <v>80.87815260157663</v>
+        <v>84.03197497745884</v>
       </c>
       <c r="E42" t="n">
-        <v>422</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2257,10 +2257,10 @@
         <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>70.18147754308087</v>
+        <v>42.08668411171574</v>
       </c>
       <c r="E43" t="n">
-        <v>773</v>
+        <v>3826</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2274,10 +2274,10 @@
         <v>11</v>
       </c>
       <c r="D44" t="n">
-        <v>119.0354978034322</v>
+        <v>70.47464579667941</v>
       </c>
       <c r="E44" t="n">
-        <v>19</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2291,10 +2291,10 @@
         <v>11</v>
       </c>
       <c r="D45" t="n">
-        <v>103.1621392656352</v>
+        <v>55.68349373662293</v>
       </c>
       <c r="E45" t="n">
-        <v>82</v>
+        <v>891</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2308,10 +2308,10 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>105.300273471103</v>
+        <v>61.7565256299789</v>
       </c>
       <c r="E46" t="n">
-        <v>67</v>
+        <v>458</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2325,10 +2325,10 @@
         <v>11</v>
       </c>
       <c r="D47" t="n">
-        <v>119.9605022743511</v>
+        <v>71.57738791101715</v>
       </c>
       <c r="E47" t="n">
-        <v>15</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2342,10 +2342,10 @@
         <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>79.31290257935419</v>
+        <v>23.25642140470989</v>
       </c>
       <c r="E48" t="n">
-        <v>455</v>
+        <v>32861</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2359,10 +2359,10 @@
         <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>86.43581442261302</v>
+        <v>51.95096606967756</v>
       </c>
       <c r="E49" t="n">
-        <v>293</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2376,10 +2376,10 @@
         <v>11</v>
       </c>
       <c r="D50" t="n">
-        <v>81.77833064774761</v>
+        <v>30.11953987008385</v>
       </c>
       <c r="E50" t="n">
-        <v>393</v>
+        <v>13747</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2393,10 +2393,10 @@
         <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>128.0769211699098</v>
+        <v>74.73541116774359</v>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2410,10 +2410,10 @@
         <v>11</v>
       </c>
       <c r="D52" t="n">
-        <v>106.1247169795553</v>
+        <v>60.39634258934593</v>
       </c>
       <c r="E52" t="n">
-        <v>60</v>
+        <v>530</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2427,10 +2427,10 @@
         <v>11</v>
       </c>
       <c r="D53" t="n">
-        <v>83.44789168041022</v>
+        <v>66.27660332212542</v>
       </c>
       <c r="E53" t="n">
-        <v>359</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2444,10 +2444,10 @@
         <v>11</v>
       </c>
       <c r="D54" t="n">
-        <v>131.4333467776512</v>
+        <v>88.32599769866997</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2461,10 +2461,10 @@
         <v>11</v>
       </c>
       <c r="D55" t="n">
-        <v>67.80965079820091</v>
+        <v>68.18464218120617</v>
       </c>
       <c r="E55" t="n">
-        <v>895</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2478,10 +2478,10 @@
         <v>11</v>
       </c>
       <c r="D56" t="n">
-        <v>101.429409100801</v>
+        <v>60.65151969616245</v>
       </c>
       <c r="E56" t="n">
-        <v>95</v>
+        <v>512</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2495,10 +2495,10 @@
         <v>11</v>
       </c>
       <c r="D57" t="n">
-        <v>127.4378070585925</v>
+        <v>76.31969247017976</v>
       </c>
       <c r="E57" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2512,10 +2512,10 @@
         <v>11</v>
       </c>
       <c r="D58" t="n">
-        <v>100.5808307837827</v>
+        <v>68.74596952242771</v>
       </c>
       <c r="E58" t="n">
-        <v>104</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2529,10 +2529,10 @@
         <v>11</v>
       </c>
       <c r="D59" t="n">
-        <v>85.60482188615629</v>
+        <v>41.80674179253654</v>
       </c>
       <c r="E59" t="n">
-        <v>309</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2546,10 +2546,10 @@
         <v>11</v>
       </c>
       <c r="D60" t="n">
-        <v>127.2879029103933</v>
+        <v>86.98713811184808</v>
       </c>
       <c r="E60" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2563,10 +2563,10 @@
         <v>11</v>
       </c>
       <c r="D61" t="n">
-        <v>102.1784774747444</v>
+        <v>65.27846593573395</v>
       </c>
       <c r="E61" t="n">
-        <v>91</v>
+        <v>263</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2580,10 +2580,10 @@
         <v>11</v>
       </c>
       <c r="D62" t="n">
-        <v>113.510254898071</v>
+        <v>67.06116619303599</v>
       </c>
       <c r="E62" t="n">
-        <v>35</v>
+        <v>207</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2597,10 +2597,10 @@
         <v>11</v>
       </c>
       <c r="D63" t="n">
-        <v>116.7193034350516</v>
+        <v>71.06981696380656</v>
       </c>
       <c r="E63" t="n">
-        <v>24</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2614,10 +2614,10 @@
         <v>11</v>
       </c>
       <c r="D64" t="n">
-        <v>116.696444787023</v>
+        <v>73.46969165004789</v>
       </c>
       <c r="E64" t="n">
-        <v>25</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2631,10 +2631,10 @@
         <v>11</v>
       </c>
       <c r="D65" t="n">
-        <v>115.4507956122318</v>
+        <v>77.43046309790144</v>
       </c>
       <c r="E65" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2648,10 +2648,10 @@
         <v>11</v>
       </c>
       <c r="D66" t="n">
-        <v>120.234530492538</v>
+        <v>71.66905475029724</v>
       </c>
       <c r="E66" t="n">
-        <v>13</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2665,10 +2665,10 @@
         <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>121.6304111189319</v>
+        <v>73.63403379299324</v>
       </c>
       <c r="E67" t="n">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2682,10 +2682,10 @@
         <v>11</v>
       </c>
       <c r="D68" t="n">
-        <v>65.12928193891152</v>
+        <v>64.51957471532063</v>
       </c>
       <c r="E68" t="n">
-        <v>1068</v>
+        <v>296</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2699,10 +2699,10 @@
         <v>11</v>
       </c>
       <c r="D69" t="n">
-        <v>116.8128436101878</v>
+        <v>69.93081847452737</v>
       </c>
       <c r="E69" t="n">
-        <v>23</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2716,10 +2716,10 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>107.8902097464781</v>
+        <v>59.55560449011482</v>
       </c>
       <c r="E70" t="n">
-        <v>51</v>
+        <v>568</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2733,10 +2733,10 @@
         <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>119.3829115345929</v>
+        <v>73.28946623827542</v>
       </c>
       <c r="E71" t="n">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2750,10 +2750,10 @@
         <v>11</v>
       </c>
       <c r="D72" t="n">
-        <v>114.9600555078082</v>
+        <v>66.98494231591098</v>
       </c>
       <c r="E72" t="n">
-        <v>29</v>
+        <v>209</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2767,10 +2767,10 @@
         <v>11</v>
       </c>
       <c r="D73" t="n">
-        <v>119.1906450051529</v>
+        <v>73.56256501309673</v>
       </c>
       <c r="E73" t="n">
-        <v>18</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2784,10 +2784,10 @@
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>82.46441089110678</v>
+        <v>29.73228981331324</v>
       </c>
       <c r="E74" t="n">
-        <v>375</v>
+        <v>14441</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2801,10 +2801,10 @@
         <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>40.69052729159323</v>
+        <v>41.50966280112723</v>
       </c>
       <c r="E75" t="n">
-        <v>7314</v>
+        <v>4051</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2818,10 +2818,10 @@
         <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>31.12300879191991</v>
+        <v>28.45056304819508</v>
       </c>
       <c r="E76" t="n">
-        <v>21089</v>
+        <v>17030</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2835,10 +2835,10 @@
         <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>235.2307764625254</v>
+        <v>224.2702473747738</v>
       </c>
       <c r="E77" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2852,10 +2852,10 @@
         <v>11</v>
       </c>
       <c r="D78" t="n">
-        <v>239.5480164612093</v>
+        <v>230.825158473878</v>
       </c>
       <c r="E78" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2869,10 +2869,10 @@
         <v>11</v>
       </c>
       <c r="D79" t="n">
-        <v>242.2646871181323</v>
+        <v>219.7309109692413</v>
       </c>
       <c r="E79" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2886,10 +2886,10 @@
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>164.7761994095718</v>
+        <v>163.1778337641507</v>
       </c>
       <c r="E80" t="n">
-        <v>661</v>
+        <v>391</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2903,10 +2903,10 @@
         <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>231.9849079776702</v>
+        <v>225.8344901265375</v>
       </c>
       <c r="E81" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2920,10 +2920,10 @@
         <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>132.8423157573647</v>
+        <v>126.5468666925848</v>
       </c>
       <c r="E82" t="n">
-        <v>2084</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2937,10 +2937,10 @@
         <v>11</v>
       </c>
       <c r="D83" t="n">
-        <v>279.564562502692</v>
+        <v>241.9907980371176</v>
       </c>
       <c r="E83" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2954,10 +2954,10 @@
         <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>209.5937533922934</v>
+        <v>196.5601002860855</v>
       </c>
       <c r="E84" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2971,10 +2971,10 @@
         <v>11</v>
       </c>
       <c r="D85" t="n">
-        <v>261.9791222439997</v>
+        <v>216.6496235803848</v>
       </c>
       <c r="E85" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2988,10 +2988,10 @@
         <v>11</v>
       </c>
       <c r="D86" t="n">
-        <v>304.9613957386559</v>
+        <v>272.6381292401309</v>
       </c>
       <c r="E86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3005,10 +3005,10 @@
         <v>11</v>
       </c>
       <c r="D87" t="n">
-        <v>254.0749164935423</v>
+        <v>243.4620406410456</v>
       </c>
       <c r="E87" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3022,10 +3022,10 @@
         <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>218.4113442295755</v>
+        <v>188.9733682156504</v>
       </c>
       <c r="E88" t="n">
-        <v>51</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3039,10 +3039,10 @@
         <v>11</v>
       </c>
       <c r="D89" t="n">
-        <v>316.3784124998848</v>
+        <v>259.8166864369622</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3056,10 +3056,10 @@
         <v>11</v>
       </c>
       <c r="D90" t="n">
-        <v>230.3974244929034</v>
+        <v>209.4369305228965</v>
       </c>
       <c r="E90" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3073,10 +3073,10 @@
         <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>210.62478271321</v>
+        <v>186.7545727079745</v>
       </c>
       <c r="E91" t="n">
-        <v>75</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3090,10 +3090,10 @@
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>169.4598405617994</v>
+        <v>148.4080787659387</v>
       </c>
       <c r="E92" t="n">
-        <v>561</v>
+        <v>755</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3107,10 +3107,10 @@
         <v>11</v>
       </c>
       <c r="D93" t="n">
-        <v>201.3754365056628</v>
+        <v>185.0558568997751</v>
       </c>
       <c r="E93" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3124,7 +3124,7 @@
         <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>307.9216915534132</v>
+        <v>267.0667560131566</v>
       </c>
       <c r="E94" t="n">
         <v>2</v>
@@ -3141,10 +3141,10 @@
         <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>182.4290316529305</v>
+        <v>165.2693216326062</v>
       </c>
       <c r="E95" t="n">
-        <v>318</v>
+        <v>354</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3158,10 +3158,10 @@
         <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>196.915590807743</v>
+        <v>178.3111702651958</v>
       </c>
       <c r="E96" t="n">
-        <v>160</v>
+        <v>189</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3175,10 +3175,10 @@
         <v>11</v>
       </c>
       <c r="D97" t="n">
-        <v>234.7764449877407</v>
+        <v>221.9696963094017</v>
       </c>
       <c r="E97" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3192,10 +3192,10 @@
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>172.6984323320965</v>
+        <v>152.7297594573103</v>
       </c>
       <c r="E98" t="n">
-        <v>480</v>
+        <v>624</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3209,10 +3209,10 @@
         <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>225.7531751882034</v>
+        <v>207.2439306290098</v>
       </c>
       <c r="E99" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3226,10 +3226,10 @@
         <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>203.1084729327454</v>
+        <v>181.1687564957887</v>
       </c>
       <c r="E100" t="n">
-        <v>117</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3243,10 +3243,10 @@
         <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>202.482746480182</v>
+        <v>181.977393137908</v>
       </c>
       <c r="E101" t="n">
-        <v>120</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3260,10 +3260,10 @@
         <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>230.8779712976349</v>
+        <v>219.1101858845404</v>
       </c>
       <c r="E102" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3277,10 +3277,10 @@
         <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>205.3043424877425</v>
+        <v>196.0542746105922</v>
       </c>
       <c r="E103" t="n">
-        <v>103</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3294,10 +3294,10 @@
         <v>6</v>
       </c>
       <c r="D104" t="n">
-        <v>195.0805443146221</v>
+        <v>186.9968341489249</v>
       </c>
       <c r="E104" t="n">
-        <v>175</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3311,10 +3311,10 @@
         <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>150.6309398002809</v>
+        <v>145.5470898006942</v>
       </c>
       <c r="E105" t="n">
-        <v>1115</v>
+        <v>845</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3328,10 +3328,10 @@
         <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>97.91544550803728</v>
+        <v>85.38351414142726</v>
       </c>
       <c r="E106" t="n">
-        <v>8259</v>
+        <v>10337</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3345,10 +3345,10 @@
         <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>150.6334167270788</v>
+        <v>144.1087063148636</v>
       </c>
       <c r="E107" t="n">
-        <v>1114</v>
+        <v>892</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3362,10 +3362,10 @@
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>222.3349104173352</v>
+        <v>212.122594756394</v>
       </c>
       <c r="E108" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3379,10 +3379,10 @@
         <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>190.8997270889759</v>
+        <v>171.3366819934525</v>
       </c>
       <c r="E109" t="n">
-        <v>220</v>
+        <v>265</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3396,10 +3396,10 @@
         <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>275.6306863023307</v>
+        <v>240.1335694080967</v>
       </c>
       <c r="E110" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3413,7 +3413,7 @@
         <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>249.6208760157033</v>
+        <v>232.2954069840324</v>
       </c>
       <c r="E111" t="n">
         <v>12</v>
@@ -3430,10 +3430,10 @@
         <v>6</v>
       </c>
       <c r="D112" t="n">
-        <v>215.3267845689193</v>
+        <v>177.5590945190346</v>
       </c>
       <c r="E112" t="n">
-        <v>62</v>
+        <v>194</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3447,10 +3447,10 @@
         <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>153.8379699310258</v>
+        <v>146.0588884222067</v>
       </c>
       <c r="E113" t="n">
-        <v>995</v>
+        <v>821</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3464,10 +3464,10 @@
         <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>149.3432521578692</v>
+        <v>143.528664340325</v>
       </c>
       <c r="E114" t="n">
-        <v>1149</v>
+        <v>919</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3481,10 +3481,10 @@
         <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>143.7403335760351</v>
+        <v>137.7478061471922</v>
       </c>
       <c r="E115" t="n">
-        <v>46</v>
+        <v>69</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3498,10 +3498,10 @@
         <v>11</v>
       </c>
       <c r="D116" t="n">
-        <v>145.3144235623805</v>
+        <v>149.1675616861784</v>
       </c>
       <c r="E116" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3515,10 +3515,10 @@
         <v>11</v>
       </c>
       <c r="D117" t="n">
-        <v>165.7781788940567</v>
+        <v>166.4547869477918</v>
       </c>
       <c r="E117" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3532,10 +3532,10 @@
         <v>11</v>
       </c>
       <c r="D118" t="n">
-        <v>134.435359298113</v>
+        <v>135.1472783317534</v>
       </c>
       <c r="E118" t="n">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3549,10 +3549,10 @@
         <v>11</v>
       </c>
       <c r="D119" t="n">
-        <v>153.5753362704674</v>
+        <v>155.4218611161174</v>
       </c>
       <c r="E119" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3566,10 +3566,10 @@
         <v>11</v>
       </c>
       <c r="D120" t="n">
-        <v>151.4128565850504</v>
+        <v>152.4752551101184</v>
       </c>
       <c r="E120" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3583,10 +3583,10 @@
         <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>139.8721979948533</v>
+        <v>142.9416633151589</v>
       </c>
       <c r="E121" t="n">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3600,10 +3600,10 @@
         <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>111.2518200065739</v>
+        <v>112.3798213470335</v>
       </c>
       <c r="E122" t="n">
-        <v>748</v>
+        <v>615</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3617,10 +3617,10 @@
         <v>11</v>
       </c>
       <c r="D123" t="n">
-        <v>123.2911715822809</v>
+        <v>126.0233010745781</v>
       </c>
       <c r="E123" t="n">
-        <v>292</v>
+        <v>221</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3634,10 +3634,10 @@
         <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>124.5794124639287</v>
+        <v>120.6977655037366</v>
       </c>
       <c r="E124" t="n">
-        <v>257</v>
+        <v>358</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3651,10 +3651,10 @@
         <v>11</v>
       </c>
       <c r="D125" t="n">
-        <v>142.5562590770416</v>
+        <v>145.8665586910539</v>
       </c>
       <c r="E125" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3668,7 +3668,7 @@
         <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>161.1045155687614</v>
+        <v>158.4718497315585</v>
       </c>
       <c r="E126" t="n">
         <v>6</v>
@@ -3685,10 +3685,10 @@
         <v>11</v>
       </c>
       <c r="D127" t="n">
-        <v>145.5983341558473</v>
+        <v>136.5636794308284</v>
       </c>
       <c r="E127" t="n">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3702,10 +3702,10 @@
         <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>162.5888809656997</v>
+        <v>157.8111842744275</v>
       </c>
       <c r="E128" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3719,10 +3719,10 @@
         <v>6</v>
       </c>
       <c r="D129" t="n">
-        <v>146.205459831564</v>
+        <v>149.2779347882657</v>
       </c>
       <c r="E129" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3736,10 +3736,10 @@
         <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>55.49683446658177</v>
+        <v>56.60412111310484</v>
       </c>
       <c r="E130" t="n">
-        <v>108308</v>
+        <v>92727</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3753,10 +3753,10 @@
         <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>59.88435470321573</v>
+        <v>61.19919054305764</v>
       </c>
       <c r="E131" t="n">
-        <v>84738</v>
+        <v>68576</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3770,10 +3770,10 @@
         <v>11</v>
       </c>
       <c r="D132" t="n">
-        <v>122.6218548377592</v>
+        <v>122.3369209196116</v>
       </c>
       <c r="E132" t="n">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3787,10 +3787,10 @@
         <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>160.9553624053823</v>
+        <v>155.0317669262872</v>
       </c>
       <c r="E133" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3804,10 +3804,10 @@
         <v>11</v>
       </c>
       <c r="D134" t="n">
-        <v>149.1618506128126</v>
+        <v>145.7774665343159</v>
       </c>
       <c r="E134" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3821,10 +3821,10 @@
         <v>11</v>
       </c>
       <c r="D135" t="n">
-        <v>153.7779033083523</v>
+        <v>157.4481742460577</v>
       </c>
       <c r="E135" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3838,10 +3838,10 @@
         <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>130.4262739549281</v>
+        <v>125.9258253083719</v>
       </c>
       <c r="E136" t="n">
-        <v>154</v>
+        <v>224</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3855,10 +3855,10 @@
         <v>11</v>
       </c>
       <c r="D137" t="n">
-        <v>143.7819815872743</v>
+        <v>144.6762565200838</v>
       </c>
       <c r="E137" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3872,10 +3872,10 @@
         <v>11</v>
       </c>
       <c r="D138" t="n">
-        <v>137.9924067498822</v>
+        <v>144.3313620529201</v>
       </c>
       <c r="E138" t="n">
-        <v>77</v>
+        <v>42</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3889,10 +3889,10 @@
         <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>130.9910637544449</v>
+        <v>127.3452622378476</v>
       </c>
       <c r="E139" t="n">
-        <v>150</v>
+        <v>197</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3906,10 +3906,10 @@
         <v>11</v>
       </c>
       <c r="D140" t="n">
-        <v>145.0842433192941</v>
+        <v>140.0952660774484</v>
       </c>
       <c r="E140" t="n">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3923,10 +3923,10 @@
         <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>52.3201131480214</v>
+        <v>47.6424374720844</v>
       </c>
       <c r="E141" t="n">
-        <v>125567</v>
+        <v>141840</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3940,10 +3940,10 @@
         <v>11</v>
       </c>
       <c r="D142" t="n">
-        <v>113.3603209479474</v>
+        <v>118.9246135300463</v>
       </c>
       <c r="E142" t="n">
-        <v>632</v>
+        <v>415</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3957,10 +3957,10 @@
         <v>11</v>
       </c>
       <c r="D143" t="n">
-        <v>133.8404096733939</v>
+        <v>133.5446221001674</v>
       </c>
       <c r="E143" t="n">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="D144" t="n">
-        <v>172.449109807358</v>
+        <v>176.5832715491009</v>
       </c>
       <c r="E144" t="n">
         <v>1</v>
@@ -3991,10 +3991,10 @@
         <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>122.1265741446897</v>
+        <v>124.1423486265341</v>
       </c>
       <c r="E145" t="n">
-        <v>332</v>
+        <v>258</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4008,10 +4008,10 @@
         <v>11</v>
       </c>
       <c r="D146" t="n">
-        <v>171.8255030281045</v>
+        <v>132.6726498440615</v>
       </c>
       <c r="E146" t="n">
-        <v>2</v>
+        <v>106</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4025,10 +4025,10 @@
         <v>6</v>
       </c>
       <c r="D147" t="n">
-        <v>121.3430633354208</v>
+        <v>119.7383100997111</v>
       </c>
       <c r="E147" t="n">
-        <v>349</v>
+        <v>385</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4042,10 +4042,10 @@
         <v>6</v>
       </c>
       <c r="D148" t="n">
-        <v>77.92927408089545</v>
+        <v>76.4302540010019</v>
       </c>
       <c r="E148" t="n">
-        <v>18147</v>
+        <v>16897</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4059,10 +4059,10 @@
         <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>77.92927408089545</v>
+        <v>76.4302540010019</v>
       </c>
       <c r="E149" t="n">
-        <v>18146</v>
+        <v>16896</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4076,10 +4076,10 @@
         <v>11</v>
       </c>
       <c r="D150" t="n">
-        <v>138.3047015955092</v>
+        <v>140.8557345243743</v>
       </c>
       <c r="E150" t="n">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4093,10 +4093,10 @@
         <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>106.908089365854</v>
+        <v>92.31001939889212</v>
       </c>
       <c r="E151" t="n">
-        <v>1050</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4110,10 +4110,10 @@
         <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>138.4587789291526</v>
+        <v>130.8381569747496</v>
       </c>
       <c r="E152" t="n">
-        <v>74</v>
+        <v>141</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4127,10 +4127,10 @@
         <v>6</v>
       </c>
       <c r="D153" t="n">
-        <v>68.12789391480096</v>
+        <v>67.96631275986554</v>
       </c>
       <c r="E153" t="n">
-        <v>45820</v>
+        <v>39234</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4144,10 +4144,10 @@
         <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>146.7016042724747</v>
+        <v>146.8012986092229</v>
       </c>
       <c r="E154" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4161,10 +4161,10 @@
         <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>128.9446062493681</v>
+        <v>121.8039025599623</v>
       </c>
       <c r="E155" t="n">
-        <v>170</v>
+        <v>305</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4178,10 +4178,10 @@
         <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>144.5931951808062</v>
+        <v>143.6253004001362</v>
       </c>
       <c r="E156" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4195,10 +4195,10 @@
         <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>125.1762386094941</v>
+        <v>127.4744217507655</v>
       </c>
       <c r="E157" t="n">
-        <v>247</v>
+        <v>191</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4212,10 +4212,10 @@
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>117.6902211358184</v>
+        <v>119.4288646220216</v>
       </c>
       <c r="E158" t="n">
-        <v>469</v>
+        <v>395</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4229,10 +4229,10 @@
         <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>121.8623214125805</v>
+        <v>115.5117225365951</v>
       </c>
       <c r="E159" t="n">
-        <v>342</v>
+        <v>511</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4246,10 +4246,10 @@
         <v>6</v>
       </c>
       <c r="D160" t="n">
-        <v>132.4127998546748</v>
+        <v>133.9119365121987</v>
       </c>
       <c r="E160" t="n">
-        <v>140</v>
+        <v>94</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4263,10 +4263,10 @@
         <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>86.33361643627757</v>
+        <v>89.61403690131411</v>
       </c>
       <c r="E161" t="n">
-        <v>7363</v>
+        <v>4122</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4280,10 +4280,10 @@
         <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>75.47016334771965</v>
+        <v>78.24918313343993</v>
       </c>
       <c r="E162" t="n">
-        <v>23363</v>
+        <v>13994</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4297,10 +4297,10 @@
         <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>91.33958856068391</v>
+        <v>94.94006375570837</v>
       </c>
       <c r="E163" t="n">
-        <v>4426</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4314,10 +4314,10 @@
         <v>11</v>
       </c>
       <c r="D164" t="n">
-        <v>155.4643688795652</v>
+        <v>157.2157184096691</v>
       </c>
       <c r="E164" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4331,10 +4331,10 @@
         <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>122.4434468085085</v>
+        <v>118.559254096711</v>
       </c>
       <c r="E165" t="n">
-        <v>317</v>
+        <v>422</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4348,10 +4348,10 @@
         <v>11</v>
       </c>
       <c r="D166" t="n">
-        <v>143.5643791466913</v>
+        <v>142.4725998738784</v>
       </c>
       <c r="E166" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4365,10 +4365,10 @@
         <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>125.6084224078657</v>
+        <v>127.76242416093</v>
       </c>
       <c r="E167" t="n">
-        <v>239</v>
+        <v>190</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4382,10 +4382,10 @@
         <v>11</v>
       </c>
       <c r="D168" t="n">
-        <v>150.9204585452758</v>
+        <v>154.9639191742423</v>
       </c>
       <c r="E168" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4399,10 +4399,10 @@
         <v>11</v>
       </c>
       <c r="D169" t="n">
-        <v>117.7397193027152</v>
+        <v>121.6743651370766</v>
       </c>
       <c r="E169" t="n">
-        <v>468</v>
+        <v>310</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4416,10 +4416,10 @@
         <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>122.2185945612612</v>
+        <v>118.0274600145018</v>
       </c>
       <c r="E170" t="n">
-        <v>324</v>
+        <v>433</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4433,7 +4433,7 @@
         <v>6</v>
       </c>
       <c r="D171" t="n">
-        <v>139.7446963732217</v>
+        <v>138.6797845314454</v>
       </c>
       <c r="E171" t="n">
         <v>66</v>
@@ -4450,10 +4450,10 @@
         <v>11</v>
       </c>
       <c r="D172" t="n">
-        <v>116.2082909694048</v>
+        <v>119.0652683773856</v>
       </c>
       <c r="E172" t="n">
-        <v>508</v>
+        <v>407</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4467,10 +4467,10 @@
         <v>11</v>
       </c>
       <c r="D173" t="n">
-        <v>112.78055125122</v>
+        <v>105.5578050792533</v>
       </c>
       <c r="E173" t="n">
-        <v>662</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4484,10 +4484,10 @@
         <v>6</v>
       </c>
       <c r="D174" t="n">
-        <v>106.8942208935185</v>
+        <v>111.0520313554683</v>
       </c>
       <c r="E174" t="n">
-        <v>936</v>
+        <v>692</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4501,10 +4501,10 @@
         <v>6</v>
       </c>
       <c r="D175" t="n">
-        <v>146.0912818480359</v>
+        <v>144.0703527814017</v>
       </c>
       <c r="E175" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4518,10 +4518,10 @@
         <v>6</v>
       </c>
       <c r="D176" t="n">
-        <v>139.7387958869086</v>
+        <v>133.092953146803</v>
       </c>
       <c r="E176" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4535,10 +4535,10 @@
         <v>6</v>
       </c>
       <c r="D177" t="n">
-        <v>134.1712805493617</v>
+        <v>137.5447617168386</v>
       </c>
       <c r="E177" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4552,7 +4552,7 @@
         <v>11</v>
       </c>
       <c r="D178" t="n">
-        <v>152.4768743849557</v>
+        <v>150.7000521557407</v>
       </c>
       <c r="E178" t="n">
         <v>1</v>
@@ -4569,10 +4569,10 @@
         <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>31.92889789722379</v>
+        <v>34.17902951853989</v>
       </c>
       <c r="E179" t="n">
-        <v>168671</v>
+        <v>142716</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4586,10 +4586,10 @@
         <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>119.1677335347192</v>
+        <v>117.6751079426926</v>
       </c>
       <c r="E180" t="n">
-        <v>280</v>
+        <v>374</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4603,10 +4603,10 @@
         <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>143.0487291914185</v>
+        <v>142.8125976261758</v>
       </c>
       <c r="E181" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4620,10 +4620,10 @@
         <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>92.80901065184671</v>
+        <v>94.09937124658123</v>
       </c>
       <c r="E182" t="n">
-        <v>2793</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4637,10 +4637,10 @@
         <v>11</v>
       </c>
       <c r="D183" t="n">
-        <v>98.16549746487686</v>
+        <v>96.88623357687948</v>
       </c>
       <c r="E183" t="n">
-        <v>1866</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4654,10 +4654,10 @@
         <v>11</v>
       </c>
       <c r="D184" t="n">
-        <v>100.601464616021</v>
+        <v>105.3960506206494</v>
       </c>
       <c r="E184" t="n">
-        <v>1571</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4671,10 +4671,10 @@
         <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>97.26540627926036</v>
+        <v>84.25021976787428</v>
       </c>
       <c r="E185" t="n">
-        <v>2011</v>
+        <v>5053</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4688,10 +4688,10 @@
         <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>100.3407943325151</v>
+        <v>102.7606361494205</v>
       </c>
       <c r="E186" t="n">
-        <v>1601</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4705,10 +4705,10 @@
         <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>114.0807611321787</v>
+        <v>116.7725500214196</v>
       </c>
       <c r="E187" t="n">
-        <v>499</v>
+        <v>418</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4722,10 +4722,10 @@
         <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>93.73908901804563</v>
+        <v>87.37783705295354</v>
       </c>
       <c r="E188" t="n">
-        <v>2609</v>
+        <v>4108</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4739,10 +4739,10 @@
         <v>11</v>
       </c>
       <c r="D189" t="n">
-        <v>125.6722550076734</v>
+        <v>127.0954594366804</v>
       </c>
       <c r="E189" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4756,10 +4756,10 @@
         <v>11</v>
       </c>
       <c r="D190" t="n">
-        <v>67.86232347690728</v>
+        <v>69.09436751704892</v>
       </c>
       <c r="E190" t="n">
-        <v>15868</v>
+        <v>12835</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4773,10 +4773,10 @@
         <v>6</v>
       </c>
       <c r="D191" t="n">
-        <v>107.523854009611</v>
+        <v>105.9888927554322</v>
       </c>
       <c r="E191" t="n">
-        <v>888</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4790,10 +4790,10 @@
         <v>6</v>
       </c>
       <c r="D192" t="n">
-        <v>57.29602731289136</v>
+        <v>59.47528258350964</v>
       </c>
       <c r="E192" t="n">
-        <v>34744</v>
+        <v>25005</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4807,10 +4807,10 @@
         <v>11</v>
       </c>
       <c r="D193" t="n">
-        <v>90.24614760930416</v>
+        <v>95.69759966992609</v>
       </c>
       <c r="E193" t="n">
-        <v>3402</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4824,10 +4824,10 @@
         <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>76.71880936308483</v>
+        <v>62.3971686495868</v>
       </c>
       <c r="E194" t="n">
-        <v>8700</v>
+        <v>20247</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4841,10 +4841,10 @@
         <v>6</v>
       </c>
       <c r="D195" t="n">
-        <v>140.2992713714367</v>
+        <v>143.6723249499069</v>
       </c>
       <c r="E195" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4858,10 +4858,10 @@
         <v>11</v>
       </c>
       <c r="D196" t="n">
-        <v>140.7165702966739</v>
+        <v>142.937729452427</v>
       </c>
       <c r="E196" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4875,10 +4875,10 @@
         <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>140.7165702966739</v>
+        <v>142.937729452427</v>
       </c>
       <c r="E197" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4892,10 +4892,10 @@
         <v>11</v>
       </c>
       <c r="D198" t="n">
-        <v>121.2042930092551</v>
+        <v>122.6189457571223</v>
       </c>
       <c r="E198" t="n">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4909,10 +4909,10 @@
         <v>6</v>
       </c>
       <c r="D199" t="n">
-        <v>123.4623745343441</v>
+        <v>128.5671717022219</v>
       </c>
       <c r="E199" t="n">
-        <v>157</v>
+        <v>97</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4926,10 +4926,10 @@
         <v>11</v>
       </c>
       <c r="D200" t="n">
-        <v>129.765041245349</v>
+        <v>133.4915108024791</v>
       </c>
       <c r="E200" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4943,10 +4943,10 @@
         <v>6</v>
       </c>
       <c r="D201" t="n">
-        <v>83.34317560005823</v>
+        <v>87.11352708644976</v>
       </c>
       <c r="E201" t="n">
-        <v>5550</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4960,10 +4960,10 @@
         <v>11</v>
       </c>
       <c r="D202" t="n">
-        <v>117.8702190718147</v>
+        <v>116.9518555926128</v>
       </c>
       <c r="E202" t="n">
-        <v>329</v>
+        <v>406</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4977,10 +4977,10 @@
         <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>68.97593230461774</v>
+        <v>59.38403629886557</v>
       </c>
       <c r="E203" t="n">
-        <v>407</v>
+        <v>227</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4994,10 +4994,10 @@
         <v>11</v>
       </c>
       <c r="D204" t="n">
-        <v>66.42472271437161</v>
+        <v>63.1234282066841</v>
       </c>
       <c r="E204" t="n">
-        <v>677</v>
+        <v>94</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5011,10 +5011,10 @@
         <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>62.77249824259678</v>
+        <v>58.70902155480356</v>
       </c>
       <c r="E205" t="n">
-        <v>1357</v>
+        <v>320</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5028,10 +5028,10 @@
         <v>11</v>
       </c>
       <c r="D206" t="n">
-        <v>76.39043928624339</v>
+        <v>61.47844403125669</v>
       </c>
       <c r="E206" t="n">
-        <v>59</v>
+        <v>147</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5045,10 +5045,10 @@
         <v>6</v>
       </c>
       <c r="D207" t="n">
-        <v>77.86767379473174</v>
+        <v>72.14896944600416</v>
       </c>
       <c r="E207" t="n">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5062,10 +5062,10 @@
         <v>6</v>
       </c>
       <c r="D208" t="n">
-        <v>31.72653067081422</v>
+        <v>20.21116915767238</v>
       </c>
       <c r="E208" t="n">
-        <v>66062</v>
+        <v>103388</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5079,10 +5079,10 @@
         <v>6</v>
       </c>
       <c r="D209" t="n">
-        <v>79.41122391685468</v>
+        <v>60.3868722314633</v>
       </c>
       <c r="E209" t="n">
-        <v>28</v>
+        <v>181</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5096,7 +5096,7 @@
         <v>11</v>
       </c>
       <c r="D210" t="n">
-        <v>79.77371287042679</v>
+        <v>67.9291919873201</v>
       </c>
       <c r="E210" t="n">
         <v>24</v>
@@ -5113,10 +5113,10 @@
         <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>23.4283090082859</v>
+        <v>23.20497533898067</v>
       </c>
       <c r="E211" t="n">
-        <v>127580</v>
+        <v>76681</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5130,10 +5130,10 @@
         <v>11</v>
       </c>
       <c r="D212" t="n">
-        <v>74.46044187182591</v>
+        <v>63.98330686288965</v>
       </c>
       <c r="E212" t="n">
-        <v>136</v>
+        <v>77</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5147,10 +5147,10 @@
         <v>6</v>
       </c>
       <c r="D213" t="n">
-        <v>70.26586881047658</v>
+        <v>66.31750935491408</v>
       </c>
       <c r="E213" t="n">
-        <v>315</v>
+        <v>46</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5164,10 +5164,10 @@
         <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>67.55187610126269</v>
+        <v>62.75132412502528</v>
       </c>
       <c r="E214" t="n">
-        <v>556</v>
+        <v>106</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5181,10 +5181,10 @@
         <v>11</v>
       </c>
       <c r="D215" t="n">
-        <v>79.05537932642633</v>
+        <v>70.48651344070012</v>
       </c>
       <c r="E215" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5198,10 +5198,10 @@
         <v>6</v>
       </c>
       <c r="D216" t="n">
-        <v>84.84679794356522</v>
+        <v>72.10765518618713</v>
       </c>
       <c r="E216" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5215,10 +5215,10 @@
         <v>6</v>
       </c>
       <c r="D217" t="n">
-        <v>84.44505270796284</v>
+        <v>68.15200893297366</v>
       </c>
       <c r="E217" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5232,10 +5232,10 @@
         <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>78.69142346002808</v>
+        <v>69.0765071212946</v>
       </c>
       <c r="E218" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5249,10 +5249,10 @@
         <v>6</v>
       </c>
       <c r="D219" t="n">
-        <v>88.08292853316145</v>
+        <v>62.98528734376547</v>
       </c>
       <c r="E219" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5266,10 +5266,10 @@
         <v>6</v>
       </c>
       <c r="D220" t="n">
-        <v>71.41677377657044</v>
+        <v>49.69576624534388</v>
       </c>
       <c r="E220" t="n">
-        <v>238</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5283,10 +5283,10 @@
         <v>6</v>
       </c>
       <c r="D221" t="n">
-        <v>76.17754995978727</v>
+        <v>61.95762975105267</v>
       </c>
       <c r="E221" t="n">
-        <v>66</v>
+        <v>127</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5300,10 +5300,10 @@
         <v>6</v>
       </c>
       <c r="D222" t="n">
-        <v>54.81887488858442</v>
+        <v>45.11974846357864</v>
       </c>
       <c r="E222" t="n">
-        <v>4802</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5317,10 +5317,10 @@
         <v>6</v>
       </c>
       <c r="D223" t="n">
-        <v>66.39084771620841</v>
+        <v>55.71326200132791</v>
       </c>
       <c r="E223" t="n">
-        <v>682</v>
+        <v>582</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5334,10 +5334,10 @@
         <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>23.28122072770727</v>
+        <v>6.03817323830925</v>
       </c>
       <c r="E224" t="n">
-        <v>128780</v>
+        <v>254916</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5351,10 +5351,10 @@
         <v>6</v>
       </c>
       <c r="D225" t="n">
-        <v>63.81638712042395</v>
+        <v>50.82413573745694</v>
       </c>
       <c r="E225" t="n">
-        <v>1145</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5368,10 +5368,10 @@
         <v>6</v>
       </c>
       <c r="D226" t="n">
-        <v>64.91065675287798</v>
+        <v>42.81896607003572</v>
       </c>
       <c r="E226" t="n">
-        <v>935</v>
+        <v>6468</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5385,10 +5385,10 @@
         <v>6</v>
       </c>
       <c r="D227" t="n">
-        <v>61.88784684248825</v>
+        <v>46.80745852562459</v>
       </c>
       <c r="E227" t="n">
-        <v>1586</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5402,10 +5402,10 @@
         <v>6</v>
       </c>
       <c r="D228" t="n">
-        <v>70.94392773797115</v>
+        <v>49.71305400566415</v>
       </c>
       <c r="E228" t="n">
-        <v>271</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5419,10 +5419,10 @@
         <v>6</v>
       </c>
       <c r="D229" t="n">
-        <v>60.88019735703693</v>
+        <v>46.54084641720526</v>
       </c>
       <c r="E229" t="n">
-        <v>1869</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5436,10 +5436,10 @@
         <v>6</v>
       </c>
       <c r="D230" t="n">
-        <v>80.59540441053474</v>
+        <v>69.30945300902683</v>
       </c>
       <c r="E230" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5453,10 +5453,10 @@
         <v>6</v>
       </c>
       <c r="D231" t="n">
-        <v>74.07928405456406</v>
+        <v>60.75098778042345</v>
       </c>
       <c r="E231" t="n">
-        <v>145</v>
+        <v>168</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5470,10 +5470,10 @@
         <v>11</v>
       </c>
       <c r="D232" t="n">
-        <v>77.97554898973894</v>
+        <v>59.866796708995</v>
       </c>
       <c r="E232" t="n">
-        <v>42</v>
+        <v>199</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5487,10 +5487,10 @@
         <v>11</v>
       </c>
       <c r="D233" t="n">
-        <v>71.50719488432834</v>
+        <v>61.79572686851479</v>
       </c>
       <c r="E233" t="n">
-        <v>228</v>
+        <v>135</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5504,10 +5504,10 @@
         <v>6</v>
       </c>
       <c r="D234" t="n">
-        <v>79.31419439996462</v>
+        <v>62.78722327277362</v>
       </c>
       <c r="E234" t="n">
-        <v>30</v>
+        <v>104</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5521,10 +5521,10 @@
         <v>6</v>
       </c>
       <c r="D235" t="n">
-        <v>90.78954640294461</v>
+        <v>66.9130020033304</v>
       </c>
       <c r="E235" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5538,10 +5538,10 @@
         <v>6</v>
       </c>
       <c r="D236" t="n">
-        <v>39.6972650410688</v>
+        <v>24.49880228931783</v>
       </c>
       <c r="E236" t="n">
-        <v>28978</v>
+        <v>66708</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5555,10 +5555,10 @@
         <v>6</v>
       </c>
       <c r="D237" t="n">
-        <v>19.88051915935582</v>
+        <v>11.1828597591044</v>
       </c>
       <c r="E237" t="n">
-        <v>157490</v>
+        <v>200564</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5572,10 +5572,10 @@
         <v>11</v>
       </c>
       <c r="D238" t="n">
-        <v>71.60514652092257</v>
+        <v>69.40015280032692</v>
       </c>
       <c r="E238" t="n">
-        <v>225</v>
+        <v>14</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5589,10 +5589,10 @@
         <v>11</v>
       </c>
       <c r="D239" t="n">
-        <v>68.59224254213939</v>
+        <v>58.20596142909621</v>
       </c>
       <c r="E239" t="n">
-        <v>436</v>
+        <v>358</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5606,10 +5606,10 @@
         <v>6</v>
       </c>
       <c r="D240" t="n">
-        <v>52.74940706615675</v>
+        <v>42.76325209388547</v>
       </c>
       <c r="E240" t="n">
-        <v>6400</v>
+        <v>6506</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5623,10 +5623,10 @@
         <v>11</v>
       </c>
       <c r="D241" t="n">
-        <v>80.12592822417469</v>
+        <v>58.64145549727532</v>
       </c>
       <c r="E241" t="n">
-        <v>22</v>
+        <v>327</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5640,10 +5640,10 @@
         <v>6</v>
       </c>
       <c r="D242" t="n">
-        <v>37.35180265900915</v>
+        <v>27.76855886214569</v>
       </c>
       <c r="E242" t="n">
-        <v>37247</v>
+        <v>46093</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5657,10 +5657,10 @@
         <v>11</v>
       </c>
       <c r="D243" t="n">
-        <v>79.31323051372094</v>
+        <v>72.13807567239746</v>
       </c>
       <c r="E243" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5674,10 +5674,10 @@
         <v>6</v>
       </c>
       <c r="D244" t="n">
-        <v>24.79924536994315</v>
+        <v>16.49853965930884</v>
       </c>
       <c r="E244" t="n">
-        <v>116266</v>
+        <v>142319</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5691,10 +5691,10 @@
         <v>11</v>
       </c>
       <c r="D245" t="n">
-        <v>80.86850823560198</v>
+        <v>72.63557854171435</v>
       </c>
       <c r="E245" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5708,10 +5708,10 @@
         <v>6</v>
       </c>
       <c r="D246" t="n">
-        <v>74.44124179121559</v>
+        <v>59.33889131255509</v>
       </c>
       <c r="E246" t="n">
-        <v>137</v>
+        <v>233</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5725,10 +5725,10 @@
         <v>6</v>
       </c>
       <c r="D247" t="n">
-        <v>60.67620003201696</v>
+        <v>56.43115303094514</v>
       </c>
       <c r="E247" t="n">
-        <v>1936</v>
+        <v>511</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5742,10 +5742,10 @@
         <v>11</v>
       </c>
       <c r="D248" t="n">
-        <v>48.88599830718582</v>
+        <v>49.36858005173316</v>
       </c>
       <c r="E248" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5759,10 +5759,10 @@
         <v>6</v>
       </c>
       <c r="D249" t="n">
-        <v>58.51321924805136</v>
+        <v>53.4508769903488</v>
       </c>
       <c r="E249" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5776,10 +5776,10 @@
         <v>6</v>
       </c>
       <c r="D250" t="n">
-        <v>40.95579342535936</v>
+        <v>40.83283704712277</v>
       </c>
       <c r="E250" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5793,10 +5793,10 @@
         <v>6</v>
       </c>
       <c r="D251" t="n">
-        <v>49.05359878225622</v>
+        <v>48.93459622856828</v>
       </c>
       <c r="E251" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5810,10 +5810,10 @@
         <v>11</v>
       </c>
       <c r="D252" t="n">
-        <v>44.85222773850739</v>
+        <v>45.66739323465084</v>
       </c>
       <c r="E252" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5827,7 +5827,7 @@
         <v>6</v>
       </c>
       <c r="D253" t="n">
-        <v>61.02747905967804</v>
+        <v>62.04778447110212</v>
       </c>
       <c r="E253" t="n">
         <v>4</v>
@@ -5844,10 +5844,10 @@
         <v>6</v>
       </c>
       <c r="D254" t="n">
-        <v>47.02519442836383</v>
+        <v>48.61861059751852</v>
       </c>
       <c r="E254" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5861,10 +5861,10 @@
         <v>6</v>
       </c>
       <c r="D255" t="n">
-        <v>50.5912652397156</v>
+        <v>52.33159241353711</v>
       </c>
       <c r="E255" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5878,10 +5878,10 @@
         <v>11</v>
       </c>
       <c r="D256" t="n">
-        <v>39.38758423064205</v>
+        <v>40.20586031978621</v>
       </c>
       <c r="E256" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5895,10 +5895,10 @@
         <v>6</v>
       </c>
       <c r="D257" t="n">
-        <v>47.5206169876602</v>
+        <v>45.81818155504706</v>
       </c>
       <c r="E257" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5912,7 +5912,7 @@
         <v>6</v>
       </c>
       <c r="D258" t="n">
-        <v>50.35556280760105</v>
+        <v>50.89554847201352</v>
       </c>
       <c r="E258" t="n">
         <v>15</v>
@@ -5929,10 +5929,10 @@
         <v>11</v>
       </c>
       <c r="D259" t="n">
-        <v>36.52351457830078</v>
+        <v>37.97907862668083</v>
       </c>
       <c r="E259" t="n">
-        <v>143</v>
+        <v>106</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5946,7 +5946,7 @@
         <v>6</v>
       </c>
       <c r="D260" t="n">
-        <v>65.34169380165034</v>
+        <v>65.24414897239475</v>
       </c>
       <c r="E260" t="n">
         <v>3</v>
@@ -5963,10 +5963,10 @@
         <v>6</v>
       </c>
       <c r="D261" t="n">
-        <v>55.23353227337098</v>
+        <v>55.17320243999684</v>
       </c>
       <c r="E261" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5980,10 +5980,10 @@
         <v>6</v>
       </c>
       <c r="D262" t="n">
-        <v>48.54141840843331</v>
+        <v>47.89264856815005</v>
       </c>
       <c r="E262" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5997,10 +5997,10 @@
         <v>11</v>
       </c>
       <c r="D263" t="n">
-        <v>49.0994718597713</v>
+        <v>50.36152762675346</v>
       </c>
       <c r="E263" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6014,10 +6014,10 @@
         <v>6</v>
       </c>
       <c r="D264" t="n">
-        <v>70.07767333342906</v>
+        <v>70.33418772881716</v>
       </c>
       <c r="E264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6031,10 +6031,10 @@
         <v>6</v>
       </c>
       <c r="D265" t="n">
-        <v>45.04772761245409</v>
+        <v>42.80559118840364</v>
       </c>
       <c r="E265" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6048,10 +6048,10 @@
         <v>6</v>
       </c>
       <c r="D266" t="n">
-        <v>46.17455719265597</v>
+        <v>46.63802143546065</v>
       </c>
       <c r="E266" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6065,10 +6065,10 @@
         <v>6</v>
       </c>
       <c r="D267" t="n">
-        <v>38.61509179655094</v>
+        <v>38.69640344825751</v>
       </c>
       <c r="E267" t="n">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6082,10 +6082,10 @@
         <v>6</v>
       </c>
       <c r="D268" t="n">
-        <v>71.09464068656681</v>
+        <v>68.7115094594179</v>
       </c>
       <c r="E268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -6099,10 +6099,10 @@
         <v>6</v>
       </c>
       <c r="D269" t="n">
-        <v>52.8696331159673</v>
+        <v>53.36888865630214</v>
       </c>
       <c r="E269" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -6116,10 +6116,10 @@
         <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>51.340907504874</v>
+        <v>52.32307061579812</v>
       </c>
       <c r="E270" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -6133,10 +6133,10 @@
         <v>6</v>
       </c>
       <c r="D271" t="n">
-        <v>40.57417212144296</v>
+        <v>41.86784298961086</v>
       </c>
       <c r="E271" t="n">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6150,7 +6150,7 @@
         <v>6</v>
       </c>
       <c r="D272" t="n">
-        <v>53.1040829955941</v>
+        <v>53.19043651207659</v>
       </c>
       <c r="E272" t="n">
         <v>10</v>
@@ -6167,10 +6167,10 @@
         <v>11</v>
       </c>
       <c r="D273" t="n">
-        <v>50.39935605450584</v>
+        <v>39.4985145123845</v>
       </c>
       <c r="E273" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -6184,10 +6184,10 @@
         <v>11</v>
       </c>
       <c r="D274" t="n">
-        <v>33.19915721152062</v>
+        <v>24.53503274002076</v>
       </c>
       <c r="E274" t="n">
-        <v>451</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -6201,10 +6201,10 @@
         <v>11</v>
       </c>
       <c r="D275" t="n">
-        <v>28.31876373394904</v>
+        <v>13.49827236636728</v>
       </c>
       <c r="E275" t="n">
-        <v>1027</v>
+        <v>54778</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -6218,10 +6218,10 @@
         <v>6</v>
       </c>
       <c r="D276" t="n">
-        <v>55.47716657313478</v>
+        <v>32.68809679996642</v>
       </c>
       <c r="E276" t="n">
-        <v>6</v>
+        <v>62</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -6235,10 +6235,10 @@
         <v>11</v>
       </c>
       <c r="D277" t="n">
-        <v>36.58838148894045</v>
+        <v>17.81693649597</v>
       </c>
       <c r="E277" t="n">
-        <v>230</v>
+        <v>12352</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -6252,10 +6252,10 @@
         <v>11</v>
       </c>
       <c r="D278" t="n">
-        <v>50.79417995028825</v>
+        <v>24.84203726135315</v>
       </c>
       <c r="E278" t="n">
-        <v>17</v>
+        <v>917</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -6269,10 +6269,10 @@
         <v>6</v>
       </c>
       <c r="D279" t="n">
-        <v>50.72310482288479</v>
+        <v>24.85504545556387</v>
       </c>
       <c r="E279" t="n">
-        <v>18</v>
+        <v>912</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -6286,10 +6286,10 @@
         <v>6</v>
       </c>
       <c r="D280" t="n">
-        <v>27.30206198497656</v>
+        <v>27.85287570468871</v>
       </c>
       <c r="E280" t="n">
-        <v>1251</v>
+        <v>321</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -6303,10 +6303,10 @@
         <v>11</v>
       </c>
       <c r="D281" t="n">
-        <v>49.08893463295713</v>
+        <v>32.10692181328358</v>
       </c>
       <c r="E281" t="n">
-        <v>26</v>
+        <v>75</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -6320,10 +6320,10 @@
         <v>6</v>
       </c>
       <c r="D282" t="n">
-        <v>18.97717924884394</v>
+        <v>15.64709094233985</v>
       </c>
       <c r="E282" t="n">
-        <v>13020</v>
+        <v>26940</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -6337,10 +6337,10 @@
         <v>11</v>
       </c>
       <c r="D283" t="n">
-        <v>41.11772350262589</v>
+        <v>18.93937486546668</v>
       </c>
       <c r="E283" t="n">
-        <v>108</v>
+        <v>8077</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -6354,10 +6354,10 @@
         <v>11</v>
       </c>
       <c r="D284" t="n">
-        <v>45.7716006687395</v>
+        <v>35.18124689222284</v>
       </c>
       <c r="E284" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -6371,10 +6371,10 @@
         <v>11</v>
       </c>
       <c r="D285" t="n">
-        <v>55.98498340053185</v>
+        <v>31.26564507902145</v>
       </c>
       <c r="E285" t="n">
-        <v>5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -6388,10 +6388,10 @@
         <v>6</v>
       </c>
       <c r="D286" t="n">
-        <v>46.95226509841484</v>
+        <v>31.43304393346045</v>
       </c>
       <c r="E286" t="n">
-        <v>33</v>
+        <v>91</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -6405,10 +6405,10 @@
         <v>11</v>
       </c>
       <c r="D287" t="n">
-        <v>53.24849434438976</v>
+        <v>28.82493790444843</v>
       </c>
       <c r="E287" t="n">
-        <v>9</v>
+        <v>241</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -6422,10 +6422,10 @@
         <v>6</v>
       </c>
       <c r="D288" t="n">
-        <v>59.43466410113925</v>
+        <v>34.68048929143898</v>
       </c>
       <c r="E288" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -6439,10 +6439,10 @@
         <v>6</v>
       </c>
       <c r="D289" t="n">
-        <v>59.43466410113925</v>
+        <v>34.68048929143898</v>
       </c>
       <c r="E289" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -6456,10 +6456,10 @@
         <v>11</v>
       </c>
       <c r="D290" t="n">
-        <v>45.74682762255654</v>
+        <v>27.70211210171769</v>
       </c>
       <c r="E290" t="n">
-        <v>47</v>
+        <v>337</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -6473,10 +6473,10 @@
         <v>6</v>
       </c>
       <c r="D291" t="n">
-        <v>16.2291629546962</v>
+        <v>16.18167737664441</v>
       </c>
       <c r="E291" t="n">
-        <v>30689</v>
+        <v>22335</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -6490,10 +6490,10 @@
         <v>6</v>
       </c>
       <c r="D292" t="n">
-        <v>18.47645101131566</v>
+        <v>18.56032221412834</v>
       </c>
       <c r="E292" t="n">
-        <v>15231</v>
+        <v>9347</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -6507,10 +6507,10 @@
         <v>6</v>
       </c>
       <c r="D293" t="n">
-        <v>40.52879543266513</v>
+        <v>31.18986703650927</v>
       </c>
       <c r="E293" t="n">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -6524,10 +6524,10 @@
         <v>6</v>
       </c>
       <c r="D294" t="n">
-        <v>38.91445337882327</v>
+        <v>29.5767872735353</v>
       </c>
       <c r="E294" t="n">
-        <v>151</v>
+        <v>190</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -6541,10 +6541,10 @@
         <v>6</v>
       </c>
       <c r="D295" t="n">
-        <v>18.66538677225903</v>
+        <v>13.29611058884747</v>
       </c>
       <c r="E295" t="n">
-        <v>14384</v>
+        <v>58199</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -6558,7 +6558,7 @@
         <v>11</v>
       </c>
       <c r="D296" t="n">
-        <v>47.46521008476453</v>
+        <v>35.12362368259976</v>
       </c>
       <c r="E296" t="n">
         <v>31</v>
@@ -6575,10 +6575,10 @@
         <v>6</v>
       </c>
       <c r="D297" t="n">
-        <v>25.95306212565395</v>
+        <v>18.34751267652656</v>
       </c>
       <c r="E297" t="n">
-        <v>1709</v>
+        <v>10114</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -6592,10 +6592,10 @@
         <v>11</v>
       </c>
       <c r="D298" t="n">
-        <v>46.14657195608595</v>
+        <v>26.29552046671716</v>
       </c>
       <c r="E298" t="n">
-        <v>40</v>
+        <v>563</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -6609,10 +6609,10 @@
         <v>6</v>
       </c>
       <c r="D299" t="n">
-        <v>50.4994165270374</v>
+        <v>24.22301330698354</v>
       </c>
       <c r="E299" t="n">
-        <v>19</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -6626,10 +6626,10 @@
         <v>11</v>
       </c>
       <c r="D300" t="n">
-        <v>47.74288506043984</v>
+        <v>28.07528822885295</v>
       </c>
       <c r="E300" t="n">
-        <v>29</v>
+        <v>296</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -6643,10 +6643,10 @@
         <v>6</v>
       </c>
       <c r="D301" t="n">
-        <v>41.86650590150661</v>
+        <v>19.98825739668589</v>
       </c>
       <c r="E301" t="n">
-        <v>97</v>
+        <v>5286</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -6660,10 +6660,10 @@
         <v>6</v>
       </c>
       <c r="D302" t="n">
-        <v>41.86650590150661</v>
+        <v>19.98825739668589</v>
       </c>
       <c r="E302" t="n">
-        <v>96</v>
+        <v>5285</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -6677,10 +6677,10 @@
         <v>6</v>
       </c>
       <c r="D303" t="n">
-        <v>52.01687350227682</v>
+        <v>24.61958217989913</v>
       </c>
       <c r="E303" t="n">
-        <v>14</v>
+        <v>984</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -6694,10 +6694,10 @@
         <v>6</v>
       </c>
       <c r="D304" t="n">
-        <v>64.71015821616076</v>
+        <v>64.76730559071953</v>
       </c>
       <c r="E304" t="n">
-        <v>179</v>
+        <v>139</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -6711,7 +6711,7 @@
         <v>11</v>
       </c>
       <c r="D305" t="n">
-        <v>87.30111000781605</v>
+        <v>87.12929910343209</v>
       </c>
       <c r="E305" t="n">
         <v>1</v>
@@ -6728,10 +6728,10 @@
         <v>6</v>
       </c>
       <c r="D306" t="n">
-        <v>69.86679212286955</v>
+        <v>69.83689649565207</v>
       </c>
       <c r="E306" t="n">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -6745,10 +6745,10 @@
         <v>6</v>
       </c>
       <c r="D307" t="n">
-        <v>66.52489025155873</v>
+        <v>65.52609413063288</v>
       </c>
       <c r="E307" t="n">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -6762,10 +6762,10 @@
         <v>6</v>
       </c>
       <c r="D308" t="n">
-        <v>38.49318842107752</v>
+        <v>38.97862175520924</v>
       </c>
       <c r="E308" t="n">
-        <v>31606</v>
+        <v>20789</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -6779,10 +6779,10 @@
         <v>6</v>
       </c>
       <c r="D309" t="n">
-        <v>34.17824650454465</v>
+        <v>34.21071889943308</v>
       </c>
       <c r="E309" t="n">
-        <v>62138</v>
+        <v>48189</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -6796,10 +6796,10 @@
         <v>6</v>
       </c>
       <c r="D310" t="n">
-        <v>77.55763215666839</v>
+        <v>78.50979534687669</v>
       </c>
       <c r="E310" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -6813,10 +6813,10 @@
         <v>11</v>
       </c>
       <c r="D311" t="n">
-        <v>64.1383298433695</v>
+        <v>60.56939366418981</v>
       </c>
       <c r="E311" t="n">
-        <v>194</v>
+        <v>289</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -6830,10 +6830,10 @@
         <v>6</v>
       </c>
       <c r="D312" t="n">
-        <v>70.10014143476975</v>
+        <v>69.33257484650827</v>
       </c>
       <c r="E312" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -6847,10 +6847,10 @@
         <v>6</v>
       </c>
       <c r="D313" t="n">
-        <v>74.04675589417805</v>
+        <v>73.73993708389497</v>
       </c>
       <c r="E313" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -6864,10 +6864,10 @@
         <v>6</v>
       </c>
       <c r="D314" t="n">
-        <v>14.20057724552384</v>
+        <v>12.99107696638269</v>
       </c>
       <c r="E314" t="n">
-        <v>236576</v>
+        <v>235618</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -6881,10 +6881,10 @@
         <v>6</v>
       </c>
       <c r="D315" t="n">
-        <v>34.45659943461416</v>
+        <v>35.47262432807312</v>
       </c>
       <c r="E315" t="n">
-        <v>59842</v>
+        <v>39131</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -6898,10 +6898,10 @@
         <v>6</v>
       </c>
       <c r="D316" t="n">
-        <v>29.67987581898185</v>
+        <v>28.73198751369612</v>
       </c>
       <c r="E316" t="n">
-        <v>105121</v>
+        <v>97922</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -6915,10 +6915,10 @@
         <v>11</v>
       </c>
       <c r="D317" t="n">
-        <v>75.01508327689122</v>
+        <v>74.46376271776951</v>
       </c>
       <c r="E317" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -6932,10 +6932,10 @@
         <v>11</v>
       </c>
       <c r="D318" t="n">
-        <v>73.02698162577711</v>
+        <v>72.07755325560927</v>
       </c>
       <c r="E318" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -6949,10 +6949,10 @@
         <v>6</v>
       </c>
       <c r="D319" t="n">
-        <v>59.38421550708075</v>
+        <v>55.13162360351794</v>
       </c>
       <c r="E319" t="n">
-        <v>494</v>
+        <v>755</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -6966,10 +6966,10 @@
         <v>6</v>
       </c>
       <c r="D320" t="n">
-        <v>80.32371477813422</v>
+        <v>82.28148615854838</v>
       </c>
       <c r="E320" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -6983,10 +6983,10 @@
         <v>6</v>
       </c>
       <c r="D321" t="n">
-        <v>72.96290810030231</v>
+        <v>73.39447666328778</v>
       </c>
       <c r="E321" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -7000,10 +7000,10 @@
         <v>11</v>
       </c>
       <c r="D322" t="n">
-        <v>54.9315661230162</v>
+        <v>49.72975550167203</v>
       </c>
       <c r="E322" t="n">
-        <v>1079</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -7017,10 +7017,10 @@
         <v>11</v>
       </c>
       <c r="D323" t="n">
-        <v>69.44120120585647</v>
+        <v>69.6235208580446</v>
       </c>
       <c r="E323" t="n">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -7034,10 +7034,10 @@
         <v>6</v>
       </c>
       <c r="D324" t="n">
-        <v>74.32647414265342</v>
+        <v>68.4583206514146</v>
       </c>
       <c r="E324" t="n">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -7051,10 +7051,10 @@
         <v>6</v>
       </c>
       <c r="D325" t="n">
-        <v>77.58549940419326</v>
+        <v>77.80048748875193</v>
       </c>
       <c r="E325" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -7068,10 +7068,10 @@
         <v>11</v>
       </c>
       <c r="D326" t="n">
-        <v>72.80859682757462</v>
+        <v>67.88348274661772</v>
       </c>
       <c r="E326" t="n">
-        <v>37</v>
+        <v>85</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -7085,10 +7085,10 @@
         <v>6</v>
       </c>
       <c r="D327" t="n">
-        <v>84.06204245080818</v>
+        <v>78.62619748359543</v>
       </c>
       <c r="E327" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -7102,10 +7102,10 @@
         <v>6</v>
       </c>
       <c r="D328" t="n">
-        <v>69.61673314710465</v>
+        <v>70.42433290753522</v>
       </c>
       <c r="E328" t="n">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -7119,10 +7119,10 @@
         <v>6</v>
       </c>
       <c r="D329" t="n">
-        <v>57.8405543277881</v>
+        <v>53.30110254380267</v>
       </c>
       <c r="E329" t="n">
-        <v>645</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -7136,10 +7136,10 @@
         <v>6</v>
       </c>
       <c r="D330" t="n">
-        <v>37.55742878273752</v>
+        <v>36.32221508433587</v>
       </c>
       <c r="E330" t="n">
-        <v>37105</v>
+        <v>33872</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -7153,10 +7153,10 @@
         <v>6</v>
       </c>
       <c r="D331" t="n">
-        <v>71.45087640174246</v>
+        <v>63.81256036201389</v>
       </c>
       <c r="E331" t="n">
-        <v>50</v>
+        <v>161</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -7170,10 +7170,10 @@
         <v>6</v>
       </c>
       <c r="D332" t="n">
-        <v>63.11967623441033</v>
+        <v>62.78858325645255</v>
       </c>
       <c r="E332" t="n">
-        <v>235</v>
+        <v>194</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -7187,10 +7187,10 @@
         <v>6</v>
       </c>
       <c r="D333" t="n">
-        <v>57.99765759875836</v>
+        <v>59.5077538205155</v>
       </c>
       <c r="E333" t="n">
-        <v>623</v>
+        <v>353</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -7204,10 +7204,10 @@
         <v>6</v>
       </c>
       <c r="D334" t="n">
-        <v>70.37289837272424</v>
+        <v>68.21611754004384</v>
       </c>
       <c r="E334" t="n">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -7221,10 +7221,10 @@
         <v>6</v>
       </c>
       <c r="D335" t="n">
-        <v>50.00171792586072</v>
+        <v>46.48593483897614</v>
       </c>
       <c r="E335" t="n">
-        <v>3095</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -7238,10 +7238,10 @@
         <v>6</v>
       </c>
       <c r="D336" t="n">
-        <v>75.42940052598954</v>
+        <v>70.94849495277887</v>
       </c>
       <c r="E336" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -7255,10 +7255,10 @@
         <v>6</v>
       </c>
       <c r="D337" t="n">
-        <v>37.99642662069183</v>
+        <v>38.49304830650649</v>
       </c>
       <c r="E337" t="n">
-        <v>34447</v>
+        <v>22939</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -7272,10 +7272,10 @@
         <v>6</v>
       </c>
       <c r="D338" t="n">
-        <v>43.45165640429683</v>
+        <v>42.7650212354697</v>
       </c>
       <c r="E338" t="n">
-        <v>12264</v>
+        <v>9606</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -7289,10 +7289,10 @@
         <v>6</v>
       </c>
       <c r="D339" t="n">
-        <v>49.48508639318234</v>
+        <v>47.67729469104857</v>
       </c>
       <c r="E339" t="n">
-        <v>3454</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -7306,10 +7306,10 @@
         <v>6</v>
       </c>
       <c r="D340" t="n">
-        <v>65.71289593446656</v>
+        <v>63.66939737939171</v>
       </c>
       <c r="E340" t="n">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -7323,10 +7323,10 @@
         <v>6</v>
       </c>
       <c r="D341" t="n">
-        <v>42.73307413599402</v>
+        <v>41.4344073579131</v>
       </c>
       <c r="E341" t="n">
-        <v>14202</v>
+        <v>12698</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -7340,10 +7340,10 @@
         <v>6</v>
       </c>
       <c r="D342" t="n">
-        <v>37.92701618094492</v>
+        <v>36.41078317150735</v>
       </c>
       <c r="E342" t="n">
-        <v>34835</v>
+        <v>33339</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -7357,10 +7357,10 @@
         <v>6</v>
       </c>
       <c r="D343" t="n">
-        <v>23.78390835108886</v>
+        <v>24.24845260457128</v>
       </c>
       <c r="E343" t="n">
-        <v>163490</v>
+        <v>143756</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -7374,10 +7374,10 @@
         <v>11</v>
       </c>
       <c r="D344" t="n">
-        <v>26.48182729326997</v>
+        <v>21.7429544780919</v>
       </c>
       <c r="E344" t="n">
-        <v>3068</v>
+        <v>12865</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -7391,10 +7391,10 @@
         <v>6</v>
       </c>
       <c r="D345" t="n">
-        <v>47.32434202879566</v>
+        <v>28.61230222042994</v>
       </c>
       <c r="E345" t="n">
-        <v>8</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -7408,10 +7408,10 @@
         <v>6</v>
       </c>
       <c r="D346" t="n">
-        <v>24.80917193196085</v>
+        <v>19.0685064641297</v>
       </c>
       <c r="E346" t="n">
-        <v>5683</v>
+        <v>28411</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -7425,10 +7425,10 @@
         <v>11</v>
       </c>
       <c r="D347" t="n">
-        <v>33.53222454624186</v>
+        <v>30.53067034247703</v>
       </c>
       <c r="E347" t="n">
-        <v>198</v>
+        <v>510</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -7442,10 +7442,10 @@
         <v>11</v>
       </c>
       <c r="D348" t="n">
-        <v>33.59578168110347</v>
+        <v>30.59250176733743</v>
       </c>
       <c r="E348" t="n">
-        <v>194</v>
+        <v>495</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -7459,10 +7459,10 @@
         <v>6</v>
       </c>
       <c r="D349" t="n">
-        <v>27.74808969387594</v>
+        <v>22.56980134753216</v>
       </c>
       <c r="E349" t="n">
-        <v>1904</v>
+        <v>9821</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -7476,10 +7476,10 @@
         <v>6</v>
       </c>
       <c r="D350" t="n">
-        <v>16.53230065959749</v>
+        <v>12.06572688983967</v>
       </c>
       <c r="E350" t="n">
-        <v>62161</v>
+        <v>127111</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -7493,10 +7493,10 @@
         <v>6</v>
       </c>
       <c r="D351" t="n">
-        <v>27.28801667655236</v>
+        <v>23.80365807644264</v>
       </c>
       <c r="E351" t="n">
-        <v>2307</v>
+        <v>6503</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -7510,10 +7510,10 @@
         <v>11</v>
       </c>
       <c r="D352" t="n">
-        <v>50.97635605630035</v>
+        <v>50.46024169209807</v>
       </c>
       <c r="E352" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -7527,10 +7527,10 @@
         <v>6</v>
       </c>
       <c r="D353" t="n">
-        <v>17.01996197378208</v>
+        <v>12.57521582460386</v>
       </c>
       <c r="E353" t="n">
-        <v>55489</v>
+        <v>117274</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -7544,7 +7544,7 @@
         <v>6</v>
       </c>
       <c r="D354" t="n">
-        <v>49.88682531589812</v>
+        <v>50.2766717130816</v>
       </c>
       <c r="E354" t="n">
         <v>3</v>
@@ -7561,10 +7561,10 @@
         <v>6</v>
       </c>
       <c r="D355" t="n">
-        <v>48.04750587823209</v>
+        <v>45.14820184735069</v>
       </c>
       <c r="E355" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -7578,10 +7578,10 @@
         <v>6</v>
       </c>
       <c r="D356" t="n">
-        <v>48.37154612774861</v>
+        <v>40.55159777358124</v>
       </c>
       <c r="E356" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -7595,10 +7595,10 @@
         <v>6</v>
       </c>
       <c r="D357" t="n">
-        <v>26.24495878980342</v>
+        <v>23.05044219098258</v>
       </c>
       <c r="E357" t="n">
-        <v>3361</v>
+        <v>8390</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -7612,10 +7612,10 @@
         <v>6</v>
       </c>
       <c r="D358" t="n">
-        <v>27.86591060018687</v>
+        <v>24.12495771501196</v>
       </c>
       <c r="E358" t="n">
-        <v>1830</v>
+        <v>5847</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -7629,10 +7629,10 @@
         <v>6</v>
       </c>
       <c r="D359" t="n">
-        <v>40.88124705052476</v>
+        <v>37.06500186303744</v>
       </c>
       <c r="E359" t="n">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -7646,10 +7646,10 @@
         <v>6</v>
       </c>
       <c r="D360" t="n">
-        <v>50.95788304468816</v>
+        <v>51.78184042064621</v>
       </c>
       <c r="E360" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -7663,10 +7663,10 @@
         <v>6</v>
       </c>
       <c r="D361" t="n">
-        <v>21.48299604198457</v>
+        <v>17.14480633464556</v>
       </c>
       <c r="E361" t="n">
-        <v>16841</v>
+        <v>46943</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -7680,10 +7680,10 @@
         <v>6</v>
       </c>
       <c r="D362" t="n">
-        <v>29.59472640990358</v>
+        <v>29.90972566821413</v>
       </c>
       <c r="E362" t="n">
-        <v>950</v>
+        <v>665</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -7697,10 +7697,10 @@
         <v>6</v>
       </c>
       <c r="D363" t="n">
-        <v>40.33263818691943</v>
+        <v>38.20363209838636</v>
       </c>
       <c r="E363" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -7714,10 +7714,10 @@
         <v>6</v>
       </c>
       <c r="D364" t="n">
-        <v>34.8845330056171</v>
+        <v>10.83576481798363</v>
       </c>
       <c r="E364" t="n">
-        <v>119</v>
+        <v>150630</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -7731,10 +7731,10 @@
         <v>6</v>
       </c>
       <c r="D365" t="n">
-        <v>7.276986790929089</v>
+        <v>7.686691651083537</v>
       </c>
       <c r="E365" t="n">
-        <v>220207</v>
+        <v>207213</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -7748,10 +7748,10 @@
         <v>6</v>
       </c>
       <c r="D366" t="n">
-        <v>21.65572741851199</v>
+        <v>16.75454647691324</v>
       </c>
       <c r="E366" t="n">
-        <v>16033</v>
+        <v>51920</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -7765,10 +7765,10 @@
         <v>6</v>
       </c>
       <c r="D367" t="n">
-        <v>24.79473239805257</v>
+        <v>19.94961499587451</v>
       </c>
       <c r="E367" t="n">
-        <v>5703</v>
+        <v>22208</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -7782,10 +7782,10 @@
         <v>6</v>
       </c>
       <c r="D368" t="n">
-        <v>17.10487594320679</v>
+        <v>12.47788601674479</v>
       </c>
       <c r="E368" t="n">
-        <v>54384</v>
+        <v>119142</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -7799,10 +7799,10 @@
         <v>6</v>
       </c>
       <c r="D369" t="n">
-        <v>44.18743958382448</v>
+        <v>46.76783177182738</v>
       </c>
       <c r="E369" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -7816,10 +7816,10 @@
         <v>6</v>
       </c>
       <c r="D370" t="n">
-        <v>16.79995625896672</v>
+        <v>5.927079447954115</v>
       </c>
       <c r="E370" t="n">
-        <v>58611</v>
+        <v>235471</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -7833,10 +7833,10 @@
         <v>6</v>
       </c>
       <c r="D371" t="n">
-        <v>37.4761289959249</v>
+        <v>17.90954981554566</v>
       </c>
       <c r="E371" t="n">
-        <v>59</v>
+        <v>38665</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -7850,10 +7850,10 @@
         <v>6</v>
       </c>
       <c r="D372" t="n">
-        <v>48.34058954084549</v>
+        <v>46.89753561458051</v>
       </c>
       <c r="E372" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -7867,10 +7867,10 @@
         <v>6</v>
       </c>
       <c r="D373" t="n">
-        <v>36.5144472514752</v>
+        <v>37.57379771999864</v>
       </c>
       <c r="E373" t="n">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -7884,10 +7884,10 @@
         <v>6</v>
       </c>
       <c r="D374" t="n">
-        <v>42.18195123929814</v>
+        <v>44.45228893067831</v>
       </c>
       <c r="E374" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -7901,10 +7901,10 @@
         <v>11</v>
       </c>
       <c r="D375" t="n">
-        <v>12.73642564355854</v>
+        <v>6.721189893853484</v>
       </c>
       <c r="E375" t="n">
-        <v>124052</v>
+        <v>224503</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -7918,10 +7918,10 @@
         <v>6</v>
       </c>
       <c r="D376" t="n">
-        <v>23.42938844963029</v>
+        <v>20.05709232078267</v>
       </c>
       <c r="E376" t="n">
-        <v>9166</v>
+        <v>21511</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -7935,10 +7935,10 @@
         <v>6</v>
       </c>
       <c r="D377" t="n">
-        <v>26.8508234570998</v>
+        <v>22.36420190934477</v>
       </c>
       <c r="E377" t="n">
-        <v>2714</v>
+        <v>10582</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -7952,10 +7952,10 @@
         <v>6</v>
       </c>
       <c r="D378" t="n">
-        <v>30.56371581066538</v>
+        <v>25.43912364673046</v>
       </c>
       <c r="E378" t="n">
-        <v>676</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -7969,10 +7969,10 @@
         <v>6</v>
       </c>
       <c r="D379" t="n">
-        <v>37.34678538759749</v>
+        <v>34.1616868233238</v>
       </c>
       <c r="E379" t="n">
-        <v>60</v>
+        <v>131</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -7986,10 +7986,10 @@
         <v>11</v>
       </c>
       <c r="D380" t="n">
-        <v>31.52995982646337</v>
+        <v>28.00088811647041</v>
       </c>
       <c r="E380" t="n">
-        <v>461</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -8003,10 +8003,10 @@
         <v>6</v>
       </c>
       <c r="D381" t="n">
-        <v>42.99161977790409</v>
+        <v>41.59713728325556</v>
       </c>
       <c r="E381" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -8020,10 +8020,10 @@
         <v>6</v>
       </c>
       <c r="D382" t="n">
-        <v>16.69456923193585</v>
+        <v>12.1869149776587</v>
       </c>
       <c r="E382" t="n">
-        <v>59961</v>
+        <v>124716</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -8037,10 +8037,10 @@
         <v>6</v>
       </c>
       <c r="D383" t="n">
-        <v>44.68633262633502</v>
+        <v>40.46173946069577</v>
       </c>
       <c r="E383" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -8054,10 +8054,10 @@
         <v>6</v>
       </c>
       <c r="D384" t="n">
-        <v>37.59716934474618</v>
+        <v>38.88634254071096</v>
       </c>
       <c r="E384" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -8071,10 +8071,10 @@
         <v>6</v>
       </c>
       <c r="D385" t="n">
-        <v>44.58044756843645</v>
+        <v>46.83127182491576</v>
       </c>
       <c r="E385" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -8088,10 +8088,10 @@
         <v>6</v>
       </c>
       <c r="D386" t="n">
-        <v>15.53666453047548</v>
+        <v>12.21775001955177</v>
       </c>
       <c r="E386" t="n">
-        <v>76596</v>
+        <v>124132</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -8105,10 +8105,10 @@
         <v>11</v>
       </c>
       <c r="D387" t="n">
-        <v>15.52872463460566</v>
+        <v>10.27101705733793</v>
       </c>
       <c r="E387" t="n">
-        <v>76716</v>
+        <v>161711</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -8122,10 +8122,10 @@
         <v>6</v>
       </c>
       <c r="D388" t="n">
-        <v>20.55286216547613</v>
+        <v>17.88589600601505</v>
       </c>
       <c r="E388" t="n">
-        <v>22179</v>
+        <v>38939</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -8139,10 +8139,10 @@
         <v>6</v>
       </c>
       <c r="D389" t="n">
-        <v>27.61926347010373</v>
+        <v>22.17352430276184</v>
       </c>
       <c r="E389" t="n">
-        <v>1995</v>
+        <v>11211</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -8156,10 +8156,10 @@
         <v>6</v>
       </c>
       <c r="D390" t="n">
-        <v>38.22435843363236</v>
+        <v>15.69899181671828</v>
       </c>
       <c r="E390" t="n">
-        <v>44</v>
+        <v>65634</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -8173,10 +8173,10 @@
         <v>6</v>
       </c>
       <c r="D391" t="n">
-        <v>40.26659859763457</v>
+        <v>17.01199964103852</v>
       </c>
       <c r="E391" t="n">
-        <v>22</v>
+        <v>48595</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -8190,10 +8190,10 @@
         <v>11</v>
       </c>
       <c r="D392" t="n">
-        <v>25.68997029548756</v>
+        <v>21.46799964238514</v>
       </c>
       <c r="E392" t="n">
-        <v>4124</v>
+        <v>14005</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -8207,10 +8207,10 @@
         <v>6</v>
       </c>
       <c r="D393" t="n">
-        <v>36.73456880323292</v>
+        <v>10.14774168385975</v>
       </c>
       <c r="E393" t="n">
-        <v>69</v>
+        <v>164011</v>
       </c>
     </row>
   </sheetData>
@@ -8284,28 +8284,28 @@
         <v>387</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0.6</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3</v>
+        <v>0.18</v>
       </c>
       <c r="J2" t="n">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="K2" t="n">
-        <v>0.058</v>
+        <v>0.054</v>
       </c>
       <c r="L2" t="n">
-        <v>0.034</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8322,28 +8322,28 @@
         <v>387</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0.2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H3" t="n">
-        <v>0.28</v>
+        <v>0.08</v>
       </c>
       <c r="I3" t="n">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="K3" t="n">
-        <v>0.032</v>
+        <v>0.022</v>
       </c>
       <c r="L3" t="n">
-        <v>0.017</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -8366,22 +8366,22 @@
         <v>0.8</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H4" t="n">
-        <v>0.68</v>
+        <v>0.32</v>
       </c>
       <c r="I4" t="n">
-        <v>0.44</v>
+        <v>0.24</v>
       </c>
       <c r="J4" t="n">
-        <v>0.32</v>
+        <v>0.21</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09</v>
+        <v>0.076</v>
       </c>
       <c r="L4" t="n">
-        <v>0.051</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -8398,28 +8398,28 @@
         <v>387</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0263</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0.0789</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0789</v>
+        <v>0.1316</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2632</v>
+        <v>0.1579</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3947</v>
+        <v>0.2368</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5789</v>
+        <v>0.3158</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7632</v>
+        <v>0.7105</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8947000000000001</v>
+        <v>0.8421</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -8436,28 +8436,28 @@
         <v>387</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.0526</v>
       </c>
       <c r="F6" t="n">
         <v>0.0526</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2632</v>
+        <v>0.1053</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3684</v>
+        <v>0.1053</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3684</v>
+        <v>0.1579</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5263</v>
+        <v>0.4737</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8421</v>
+        <v>0.5789</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8947000000000001</v>
+        <v>0.6316000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -8480,22 +8480,22 @@
         <v>0.0702</v>
       </c>
       <c r="G7" t="n">
+        <v>0.1228</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.1404</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.2982</v>
-      </c>
       <c r="I7" t="n">
-        <v>0.386</v>
+        <v>0.2105</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5614</v>
+        <v>0.3684</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7895</v>
+        <v>0.6667</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8947000000000001</v>
+        <v>0.7719</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8512,28 +8512,28 @@
         <v>387</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0513</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0.1395</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1249</v>
+        <v>0.2084</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3175</v>
+        <v>0.1905</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3409</v>
+        <v>0.2045</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3188</v>
+        <v>0.1739</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1078</v>
+        <v>0.1004</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0655</v>
+        <v>0.0617</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8550,28 +8550,28 @@
         <v>387</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.0999</v>
       </c>
       <c r="F9" t="n">
         <v>0.0833</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3449</v>
+        <v>0.138</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3182</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2029</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1681</v>
+        <v>0.1513</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0617</v>
+        <v>0.0424</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0334</v>
+        <v>0.0236</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -8594,22 +8594,22 @@
         <v>0.1291</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2389</v>
+        <v>0.2089</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4146</v>
+        <v>0.1952</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4112</v>
+        <v>0.2243</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4076</v>
+        <v>0.2675</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1616</v>
+        <v>0.1364</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0965</v>
+        <v>0.0833</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8629,25 +8629,25 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H11" t="n">
         <v>0.32</v>
       </c>
       <c r="I11" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="J11" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="K11" t="n">
-        <v>0.044</v>
+        <v>0.048</v>
       </c>
       <c r="L11" t="n">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8667,13 +8667,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.2</v>
       </c>
-      <c r="G12" t="n">
-        <v>0.3</v>
-      </c>
       <c r="H12" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="I12" t="n">
         <v>0.14</v>
@@ -8682,7 +8682,7 @@
         <v>0.1</v>
       </c>
       <c r="K12" t="n">
-        <v>0.046</v>
+        <v>0.044</v>
       </c>
       <c r="L12" t="n">
         <v>0.024</v>
@@ -8705,25 +8705,25 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G13" t="n">
         <v>0.6</v>
       </c>
       <c r="H13" t="n">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="I13" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="J13" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="K13" t="n">
-        <v>0.09</v>
+        <v>0.092</v>
       </c>
       <c r="L13" t="n">
-        <v>0.049</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -8743,25 +8743,25 @@
         <v>0.04</v>
       </c>
       <c r="F14" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="G14" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="H14" t="n">
         <v>0.32</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="J14" t="n">
-        <v>0.68</v>
+        <v>0.72</v>
       </c>
       <c r="K14" t="n">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -8781,13 +8781,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0294</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0882</v>
+        <v>0.0588</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0882</v>
+        <v>0.1176</v>
       </c>
       <c r="I15" t="n">
         <v>0.2059</v>
@@ -8796,7 +8796,7 @@
         <v>0.2941</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6765</v>
+        <v>0.6471</v>
       </c>
       <c r="L15" t="n">
         <v>0.7059</v>
@@ -8819,25 +8819,25 @@
         <v>0.0169</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0678</v>
+        <v>0.0339</v>
       </c>
       <c r="G16" t="n">
         <v>0.1017</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1864</v>
+        <v>0.2034</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3559</v>
+        <v>0.339</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4576</v>
+        <v>0.4746</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7627</v>
+        <v>0.7796999999999999</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8305</v>
+        <v>0.8136</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -8857,25 +8857,25 @@
         <v>0.0769</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2</v>
+        <v>0.1333</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1714</v>
+        <v>0.2286</v>
       </c>
       <c r="H17" t="n">
         <v>0.32</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3733</v>
+        <v>0.3467</v>
       </c>
       <c r="J17" t="n">
-        <v>0.272</v>
+        <v>0.288</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0838</v>
+        <v>0.0914</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0488</v>
+        <v>0.0468</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -8895,13 +8895,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0513</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1363</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1017</v>
+        <v>0.1356</v>
       </c>
       <c r="I18" t="n">
         <v>0.1667</v>
@@ -8910,7 +8910,7 @@
         <v>0.1493</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0861</v>
+        <v>0.0824</v>
       </c>
       <c r="L18" t="n">
         <v>0.0464</v>
@@ -8933,25 +8933,25 @@
         <v>0.0332</v>
       </c>
       <c r="F19" t="n">
-        <v>0.125</v>
+        <v>0.0625</v>
       </c>
       <c r="G19" t="n">
         <v>0.1739</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2619</v>
+        <v>0.2857</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3853</v>
+        <v>0.367</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3396</v>
+        <v>0.3522</v>
       </c>
       <c r="K19" t="n">
-        <v>0.161</v>
+        <v>0.1646</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0925</v>
+        <v>0.0907</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -8974,7 +8974,7 @@
         <v>0.6</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H20" t="n">
         <v>0.28</v>
@@ -9009,25 +9009,25 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G21" t="n">
         <v>0.2</v>
       </c>
       <c r="H21" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="I21" t="n">
         <v>0.16</v>
       </c>
       <c r="J21" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="K21" t="n">
         <v>0.04</v>
       </c>
       <c r="L21" t="n">
-        <v>0.023</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -9047,25 +9047,25 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H22" t="n">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="I22" t="n">
         <v>0.34</v>
       </c>
       <c r="J22" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="K22" t="n">
         <v>0.06</v>
       </c>
       <c r="L22" t="n">
-        <v>0.033</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -9088,7 +9088,7 @@
         <v>0.3</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H23" t="n">
         <v>0.7</v>
@@ -9123,25 +9123,25 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07140000000000001</v>
+        <v>0.0357</v>
       </c>
       <c r="G24" t="n">
         <v>0.07140000000000001</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1429</v>
+        <v>0.1786</v>
       </c>
       <c r="I24" t="n">
         <v>0.2857</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4286</v>
+        <v>0.3571</v>
       </c>
       <c r="K24" t="n">
         <v>0.7143</v>
       </c>
       <c r="L24" t="n">
-        <v>0.8214</v>
+        <v>0.9286</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -9161,25 +9161,25 @@
         <v>0.0263</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1316</v>
+        <v>0.1053</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1842</v>
+        <v>0.1579</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2895</v>
+        <v>0.3158</v>
       </c>
       <c r="I25" t="n">
         <v>0.4474</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5526</v>
+        <v>0.5</v>
       </c>
       <c r="K25" t="n">
         <v>0.7895</v>
       </c>
       <c r="L25" t="n">
-        <v>0.8683999999999999</v>
+        <v>0.9474</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -9202,7 +9202,7 @@
         <v>0.4</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H26" t="n">
         <v>0.4</v>
@@ -9237,25 +9237,25 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1212</v>
+        <v>0.0606</v>
       </c>
       <c r="G27" t="n">
         <v>0.1052</v>
       </c>
       <c r="H27" t="n">
-        <v>0.151</v>
+        <v>0.1887</v>
       </c>
       <c r="I27" t="n">
         <v>0.2051</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1875</v>
+        <v>0.1562</v>
       </c>
       <c r="K27" t="n">
         <v>0.07580000000000001</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0447</v>
+        <v>0.0506</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -9275,25 +9275,25 @@
         <v>0.0513</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2326</v>
+        <v>0.1861</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2917</v>
+        <v>0.25</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3492</v>
+        <v>0.381</v>
       </c>
       <c r="I28" t="n">
         <v>0.3864</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3043</v>
+        <v>0.2754</v>
       </c>
       <c r="K28" t="n">
         <v>0.1115</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0636</v>
+        <v>0.0694</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -9313,22 +9313,22 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H29" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="I29" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="J29" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.022</v>
+        <v>0.024</v>
       </c>
       <c r="L29" t="n">
         <v>0.012</v>
@@ -9348,28 +9348,28 @@
         <v>387</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H30" t="n">
         <v>0.2</v>
       </c>
       <c r="I30" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K30" t="n">
         <v>0.032</v>
       </c>
       <c r="L30" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -9386,28 +9386,28 @@
         <v>387</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="G31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H31" t="n">
         <v>0.4</v>
       </c>
-      <c r="H31" t="n">
-        <v>0.32</v>
-      </c>
       <c r="I31" t="n">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="J31" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="K31" t="n">
-        <v>0.054</v>
+        <v>0.056</v>
       </c>
       <c r="L31" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -9427,22 +9427,22 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.0833</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H32" t="n">
-        <v>0.25</v>
+        <v>0.4167</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5</v>
+        <v>0.4167</v>
       </c>
       <c r="J32" t="n">
         <v>0.5833</v>
       </c>
       <c r="K32" t="n">
-        <v>0.9167</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
         <v>1</v>
@@ -9462,28 +9462,28 @@
         <v>387</v>
       </c>
       <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>0.0303</v>
       </c>
-      <c r="F33" t="n">
-        <v>0.09089999999999999</v>
-      </c>
       <c r="G33" t="n">
-        <v>0.1212</v>
+        <v>0.0606</v>
       </c>
       <c r="H33" t="n">
         <v>0.1515</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2727</v>
+        <v>0.2121</v>
       </c>
       <c r="J33" t="n">
-        <v>0.303</v>
+        <v>0.2424</v>
       </c>
       <c r="K33" t="n">
         <v>0.4848</v>
       </c>
       <c r="L33" t="n">
-        <v>0.5758</v>
+        <v>0.5455</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -9500,28 +9500,28 @@
         <v>387</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0222</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0667</v>
+        <v>0.0444</v>
       </c>
       <c r="G34" t="n">
-        <v>0.08890000000000001</v>
+        <v>0.1111</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1778</v>
+        <v>0.2222</v>
       </c>
       <c r="I34" t="n">
+        <v>0.2667</v>
+      </c>
+      <c r="J34" t="n">
         <v>0.3333</v>
       </c>
-      <c r="J34" t="n">
-        <v>0.3778</v>
-      </c>
       <c r="K34" t="n">
-        <v>0.6</v>
+        <v>0.6222</v>
       </c>
       <c r="L34" t="n">
-        <v>0.6889</v>
+        <v>0.6667</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -9541,22 +9541,22 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.1176</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.2727</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1622</v>
+        <v>0.2703</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1935</v>
+        <v>0.1613</v>
       </c>
       <c r="J35" t="n">
         <v>0.125</v>
       </c>
       <c r="K35" t="n">
-        <v>0.043</v>
+        <v>0.0469</v>
       </c>
       <c r="L35" t="n">
         <v>0.0237</v>
@@ -9576,28 +9576,28 @@
         <v>387</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0588</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1579</v>
+        <v>0.0526</v>
       </c>
       <c r="G36" t="n">
-        <v>0.186</v>
+        <v>0.093</v>
       </c>
       <c r="H36" t="n">
         <v>0.1724</v>
       </c>
       <c r="I36" t="n">
-        <v>0.2169</v>
+        <v>0.1687</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1504</v>
+        <v>0.1203</v>
       </c>
       <c r="K36" t="n">
         <v>0.06</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0368</v>
+        <v>0.0349</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -9614,28 +9614,28 @@
         <v>387</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0434</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1201</v>
+        <v>0.0799</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1455</v>
+        <v>0.1818</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2286</v>
+        <v>0.2857</v>
       </c>
       <c r="I37" t="n">
-        <v>0.3158</v>
+        <v>0.2526</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2345</v>
+        <v>0.2069</v>
       </c>
       <c r="K37" t="n">
-        <v>0.09909999999999999</v>
+        <v>0.1028</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0593</v>
+        <v>0.0574</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -9658,13 +9658,13 @@
         <v>0.2</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H38" t="n">
         <v>0.08</v>
       </c>
       <c r="I38" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="J38" t="n">
         <v>0.03</v>
@@ -9693,25 +9693,25 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0.3</v>
       </c>
       <c r="H39" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="I39" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="J39" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K39" t="n">
         <v>0.018</v>
       </c>
       <c r="L39" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -9731,25 +9731,25 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="I40" t="n">
         <v>0.16</v>
       </c>
       <c r="J40" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="K40" t="n">
         <v>0.03</v>
       </c>
       <c r="L40" t="n">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -9772,13 +9772,13 @@
         <v>0.1</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H41" t="n">
         <v>0.2</v>
       </c>
       <c r="I41" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J41" t="n">
         <v>0.3</v>
@@ -9807,25 +9807,25 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0526</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0.1579</v>
       </c>
       <c r="H42" t="n">
+        <v>0.2105</v>
+      </c>
+      <c r="I42" t="n">
         <v>0.2632</v>
       </c>
-      <c r="I42" t="n">
-        <v>0.3158</v>
-      </c>
       <c r="J42" t="n">
-        <v>0.3158</v>
+        <v>0.3684</v>
       </c>
       <c r="K42" t="n">
         <v>0.4737</v>
       </c>
       <c r="L42" t="n">
-        <v>0.5789</v>
+        <v>0.5263</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -9845,25 +9845,25 @@
         <v>0.0345</v>
       </c>
       <c r="F43" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.0345</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1379</v>
+        <v>0.1724</v>
       </c>
       <c r="H43" t="n">
-        <v>0.2414</v>
+        <v>0.2069</v>
       </c>
       <c r="I43" t="n">
         <v>0.2759</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3103</v>
+        <v>0.3448</v>
       </c>
       <c r="K43" t="n">
         <v>0.5172</v>
       </c>
       <c r="L43" t="n">
-        <v>0.5862000000000001</v>
+        <v>0.5517</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -9886,13 +9886,13 @@
         <v>0.1333</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H44" t="n">
         <v>0.1143</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0667</v>
+        <v>0.1</v>
       </c>
       <c r="J44" t="n">
         <v>0.0545</v>
@@ -9921,25 +9921,25 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0833</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0.2069</v>
       </c>
       <c r="H45" t="n">
-        <v>0.2273</v>
+        <v>0.1818</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1739</v>
+        <v>0.1449</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1008</v>
+        <v>0.1176</v>
       </c>
       <c r="K45" t="n">
         <v>0.0347</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0216</v>
+        <v>0.0196</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -9959,25 +9959,25 @@
         <v>0.0667</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1177</v>
+        <v>0.0588</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2051</v>
+        <v>0.2564</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2593</v>
+        <v>0.2222</v>
       </c>
       <c r="I46" t="n">
         <v>0.2025</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1395</v>
+        <v>0.155</v>
       </c>
       <c r="K46" t="n">
         <v>0.0567</v>
       </c>
       <c r="L46" t="n">
-        <v>0.033</v>
+        <v>0.0311</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -10000,22 +10000,22 @@
         <v>0.2</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H47" t="n">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="J47" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K47" t="n">
-        <v>0.026</v>
+        <v>0.016</v>
       </c>
       <c r="L47" t="n">
-        <v>0.013</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -10032,28 +10032,28 @@
         <v>387</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
       <c r="J48" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="K48" t="n">
-        <v>0.022</v>
+        <v>0.014</v>
       </c>
       <c r="L48" t="n">
-        <v>0.011</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -10070,28 +10070,28 @@
         <v>387</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H49" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="I49" t="n">
-        <v>0.34</v>
+        <v>0.1</v>
       </c>
       <c r="J49" t="n">
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
       <c r="K49" t="n">
-        <v>0.048</v>
+        <v>0.03</v>
       </c>
       <c r="L49" t="n">
-        <v>0.024</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -10114,22 +10114,22 @@
         <v>0.07140000000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1429</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="H50" t="n">
+        <v>0.07140000000000001</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.2143</v>
+      </c>
+      <c r="J50" t="n">
         <v>0.2857</v>
       </c>
-      <c r="I50" t="n">
+      <c r="K50" t="n">
+        <v>0.5714</v>
+      </c>
+      <c r="L50" t="n">
         <v>0.7143</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.7143</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.9286</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.9286</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -10146,28 +10146,28 @@
         <v>387</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0588</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0.1176</v>
       </c>
-      <c r="G51" t="n">
-        <v>0.1765</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.3529</v>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
+        <v>0.2353</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.4118</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>0.5294</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.6471</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0.6471</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -10184,28 +10184,28 @@
         <v>387</v>
       </c>
       <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
         <v>0.0323</v>
       </c>
-      <c r="F52" t="n">
-        <v>0.0968</v>
-      </c>
       <c r="G52" t="n">
+        <v>0.0323</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.0323</v>
+      </c>
+      <c r="I52" t="n">
         <v>0.1613</v>
       </c>
-      <c r="H52" t="n">
-        <v>0.3226</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.5484</v>
-      </c>
       <c r="J52" t="n">
+        <v>0.2581</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.4839</v>
+      </c>
+      <c r="L52" t="n">
         <v>0.6129</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.7742</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0.7742</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -10228,22 +10228,22 @@
         <v>0.1052</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1667</v>
+        <v>0.0833</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2051</v>
+        <v>0.0513</v>
       </c>
       <c r="I53" t="n">
-        <v>0.3125</v>
+        <v>0.09379999999999999</v>
       </c>
       <c r="J53" t="n">
-        <v>0.1754</v>
+        <v>0.0702</v>
       </c>
       <c r="K53" t="n">
-        <v>0.0506</v>
+        <v>0.0311</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0256</v>
+        <v>0.0197</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -10260,28 +10260,28 @@
         <v>387</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1111</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1818</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2222</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.2857</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.209</v>
+        <v>0.0597</v>
       </c>
       <c r="J54" t="n">
-        <v>0.1538</v>
+        <v>0.0684</v>
       </c>
       <c r="K54" t="n">
-        <v>0.0426</v>
+        <v>0.0271</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0216</v>
+        <v>0.0177</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -10298,28 +10298,28 @@
         <v>387</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0626</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1667</v>
+        <v>0.0556</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2439</v>
+        <v>0.0488</v>
       </c>
       <c r="H55" t="n">
-        <v>0.3572</v>
+        <v>0.0357</v>
       </c>
       <c r="I55" t="n">
-        <v>0.4198</v>
+        <v>0.1235</v>
       </c>
       <c r="J55" t="n">
-        <v>0.2901</v>
+        <v>0.1221</v>
       </c>
       <c r="K55" t="n">
-        <v>0.09039999999999999</v>
+        <v>0.0565</v>
       </c>
       <c r="L55" t="n">
-        <v>0.0466</v>
+        <v>0.0369</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -10377,10 +10377,10 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G57" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H57" t="n">
         <v>0.5600000000000001</v>
@@ -10389,7 +10389,7 @@
         <v>0.34</v>
       </c>
       <c r="J57" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="K57" t="n">
         <v>0.04</v>
@@ -10415,10 +10415,10 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G58" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H58" t="n">
         <v>0.64</v>
@@ -10427,7 +10427,7 @@
         <v>0.4</v>
       </c>
       <c r="J58" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="K58" t="n">
         <v>0.05</v>
@@ -10491,10 +10491,10 @@
         <v>0.05</v>
       </c>
       <c r="F60" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G60" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="H60" t="n">
         <v>0.7</v>
@@ -10503,7 +10503,7 @@
         <v>0.85</v>
       </c>
       <c r="J60" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
         <v>1</v>
@@ -10529,10 +10529,10 @@
         <v>0.04</v>
       </c>
       <c r="F61" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="G61" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="H61" t="n">
         <v>0.64</v>
@@ -10541,7 +10541,7 @@
         <v>0.8</v>
       </c>
       <c r="J61" t="n">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="K61" t="n">
         <v>1</v>
@@ -10605,10 +10605,10 @@
         <v>0.09520000000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
       <c r="G63" t="n">
-        <v>0.4667</v>
+        <v>0.5333</v>
       </c>
       <c r="H63" t="n">
         <v>0.6222</v>
@@ -10617,7 +10617,7 @@
         <v>0.4857</v>
       </c>
       <c r="J63" t="n">
-        <v>0.3167</v>
+        <v>0.3333</v>
       </c>
       <c r="K63" t="n">
         <v>0.0769</v>
@@ -10643,10 +10643,10 @@
         <v>0.0769</v>
       </c>
       <c r="F64" t="n">
-        <v>0.3333</v>
+        <v>0.2667</v>
       </c>
       <c r="G64" t="n">
-        <v>0.4</v>
+        <v>0.4571</v>
       </c>
       <c r="H64" t="n">
         <v>0.64</v>
@@ -10655,7 +10655,7 @@
         <v>0.5333</v>
       </c>
       <c r="J64" t="n">
-        <v>0.368</v>
+        <v>0.384</v>
       </c>
       <c r="K64" t="n">
         <v>0.09520000000000001</v>
@@ -10678,7 +10678,7 @@
         <v>387</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
         <v>0.2</v>
@@ -10696,10 +10696,10 @@
         <v>0.01</v>
       </c>
       <c r="K65" t="n">
-        <v>0.008</v>
+        <v>0.004</v>
       </c>
       <c r="L65" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -10716,28 +10716,28 @@
         <v>387</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G66" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H66" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="I66" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="J66" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="K66" t="n">
-        <v>0.042</v>
+        <v>0.03</v>
       </c>
       <c r="L66" t="n">
-        <v>0.023</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -10757,25 +10757,25 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" t="n">
         <v>0.8</v>
       </c>
-      <c r="G67" t="n">
-        <v>0.9</v>
-      </c>
       <c r="H67" t="n">
-        <v>0.6</v>
+        <v>0.44</v>
       </c>
       <c r="I67" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="J67" t="n">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="K67" t="n">
-        <v>0.05</v>
+        <v>0.034</v>
       </c>
       <c r="L67" t="n">
-        <v>0.027</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -10792,7 +10792,7 @@
         <v>387</v>
       </c>
       <c r="E68" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
         <v>0.125</v>
@@ -10810,10 +10810,10 @@
         <v>0.125</v>
       </c>
       <c r="K68" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="L68" t="n">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -10830,28 +10830,28 @@
         <v>387</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>0.0238</v>
       </c>
       <c r="F69" t="n">
-        <v>0.07140000000000001</v>
+        <v>0.09520000000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>0.1905</v>
+        <v>0.1667</v>
       </c>
       <c r="H69" t="n">
+        <v>0.2381</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.3095</v>
+      </c>
+      <c r="J69" t="n">
         <v>0.3333</v>
       </c>
-      <c r="I69" t="n">
+      <c r="K69" t="n">
         <v>0.3571</v>
       </c>
-      <c r="J69" t="n">
-        <v>0.4762</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.5</v>
-      </c>
       <c r="L69" t="n">
-        <v>0.5476</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -10871,25 +10871,25 @@
         <v>0.02</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="G70" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="H70" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="J70" t="n">
         <v>0.3</v>
       </c>
-      <c r="I70" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.42</v>
-      </c>
       <c r="K70" t="n">
-        <v>0.5</v>
+        <v>0.34</v>
       </c>
       <c r="L70" t="n">
-        <v>0.54</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -10906,7 +10906,7 @@
         <v>387</v>
       </c>
       <c r="E71" t="n">
-        <v>0.2222</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
         <v>0.1538</v>
@@ -10924,10 +10924,10 @@
         <v>0.0185</v>
       </c>
       <c r="K71" t="n">
-        <v>0.0157</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="L71" t="n">
-        <v>0.007900000000000001</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -10944,28 +10944,28 @@
         <v>387</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>0.0465</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1276</v>
+        <v>0.1702</v>
       </c>
       <c r="G72" t="n">
-        <v>0.3077</v>
+        <v>0.2693</v>
       </c>
       <c r="H72" t="n">
-        <v>0.4179</v>
+        <v>0.2985</v>
       </c>
       <c r="I72" t="n">
-        <v>0.3261</v>
+        <v>0.2826</v>
       </c>
       <c r="J72" t="n">
-        <v>0.2817</v>
+        <v>0.1972</v>
       </c>
       <c r="K72" t="n">
-        <v>0.0775</v>
+        <v>0.0554</v>
       </c>
       <c r="L72" t="n">
-        <v>0.0441</v>
+        <v>0.0307</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -10985,25 +10985,25 @@
         <v>0.0392</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1455</v>
+        <v>0.1818</v>
       </c>
       <c r="G73" t="n">
-        <v>0.3</v>
+        <v>0.2667</v>
       </c>
       <c r="H73" t="n">
-        <v>0.4</v>
+        <v>0.2933</v>
       </c>
       <c r="I73" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="J73" t="n">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="K73" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.0618</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0514</v>
+        <v>0.0362</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -11032,7 +11032,7 @@
         <v>0.08</v>
       </c>
       <c r="I74" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="J74" t="n">
         <v>0.05</v>
@@ -11064,22 +11064,22 @@
         <v>0.4</v>
       </c>
       <c r="G75" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H75" t="n">
         <v>0.2</v>
       </c>
-      <c r="H75" t="n">
-        <v>0.24</v>
-      </c>
       <c r="I75" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="J75" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="K75" t="n">
         <v>0.036</v>
       </c>
       <c r="L75" t="n">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -11102,22 +11102,22 @@
         <v>0.6</v>
       </c>
       <c r="G76" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H76" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="I76" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="J76" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="K76" t="n">
         <v>0.048</v>
       </c>
       <c r="L76" t="n">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -11146,7 +11146,7 @@
         <v>0.2857</v>
       </c>
       <c r="I77" t="n">
-        <v>0.5714</v>
+        <v>0.4286</v>
       </c>
       <c r="J77" t="n">
         <v>0.7143</v>
@@ -11178,22 +11178,22 @@
         <v>0.0606</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0606</v>
+        <v>0.1212</v>
       </c>
       <c r="H78" t="n">
-        <v>0.1818</v>
+        <v>0.1515</v>
       </c>
       <c r="I78" t="n">
-        <v>0.2727</v>
+        <v>0.2424</v>
       </c>
       <c r="J78" t="n">
-        <v>0.3939</v>
+        <v>0.3636</v>
       </c>
       <c r="K78" t="n">
         <v>0.5455</v>
       </c>
       <c r="L78" t="n">
-        <v>0.6061</v>
+        <v>0.5758</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -11216,22 +11216,22 @@
         <v>0.075</v>
       </c>
       <c r="G79" t="n">
-        <v>0.075</v>
+        <v>0.125</v>
       </c>
       <c r="H79" t="n">
-        <v>0.2</v>
+        <v>0.175</v>
       </c>
       <c r="I79" t="n">
-        <v>0.325</v>
+        <v>0.275</v>
       </c>
       <c r="J79" t="n">
-        <v>0.45</v>
+        <v>0.425</v>
       </c>
       <c r="K79" t="n">
         <v>0.6</v>
       </c>
       <c r="L79" t="n">
-        <v>0.65</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -11260,7 +11260,7 @@
         <v>0.125</v>
       </c>
       <c r="I80" t="n">
-        <v>0.1404</v>
+        <v>0.1053</v>
       </c>
       <c r="J80" t="n">
         <v>0.0935</v>
@@ -11292,22 +11292,22 @@
         <v>0.1053</v>
       </c>
       <c r="G81" t="n">
-        <v>0.093</v>
+        <v>0.186</v>
       </c>
       <c r="H81" t="n">
-        <v>0.2069</v>
+        <v>0.1724</v>
       </c>
       <c r="I81" t="n">
-        <v>0.2169</v>
+        <v>0.1928</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1955</v>
+        <v>0.1804</v>
       </c>
       <c r="K81" t="n">
         <v>0.0675</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0387</v>
+        <v>0.0368</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -11330,22 +11330,22 @@
         <v>0.1333</v>
       </c>
       <c r="G82" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2462</v>
+        <v>0.2154</v>
       </c>
       <c r="I82" t="n">
-        <v>0.2889</v>
+        <v>0.2444</v>
       </c>
       <c r="J82" t="n">
-        <v>0.2571</v>
+        <v>0.2429</v>
       </c>
       <c r="K82" t="n">
         <v>0.08890000000000001</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05</v>
+        <v>0.0481</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -11412,10 +11412,10 @@
         <v>0.52</v>
       </c>
       <c r="I84" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="J84" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="K84" t="n">
         <v>0.032</v>
@@ -11450,10 +11450,10 @@
         <v>0.6</v>
       </c>
       <c r="I85" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="J85" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="K85" t="n">
         <v>0.036</v>
@@ -11526,10 +11526,10 @@
         <v>0.8125</v>
       </c>
       <c r="I87" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J87" t="n">
         <v>0.9375</v>
-      </c>
-      <c r="J87" t="n">
-        <v>1</v>
       </c>
       <c r="K87" t="n">
         <v>1</v>
@@ -11564,10 +11564,10 @@
         <v>0.8333</v>
       </c>
       <c r="I88" t="n">
+        <v>0.8889</v>
+      </c>
+      <c r="J88" t="n">
         <v>0.9444</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1</v>
       </c>
       <c r="K88" t="n">
         <v>1</v>
@@ -11640,10 +11640,10 @@
         <v>0.6341</v>
       </c>
       <c r="I90" t="n">
-        <v>0.4545</v>
+        <v>0.4242</v>
       </c>
       <c r="J90" t="n">
-        <v>0.2759</v>
+        <v>0.2586</v>
       </c>
       <c r="K90" t="n">
         <v>0.062</v>
@@ -11678,10 +11678,10 @@
         <v>0.6977</v>
       </c>
       <c r="I91" t="n">
-        <v>0.5</v>
+        <v>0.4706</v>
       </c>
       <c r="J91" t="n">
-        <v>0.3051</v>
+        <v>0.2881</v>
       </c>
       <c r="K91" t="n">
         <v>0.06950000000000001</v>
@@ -11761,28 +11761,28 @@
         <v>387</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02631578947368421</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05526315789473685</v>
+        <v>0.04649122807017544</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05526315789473685</v>
+        <v>0.07134502923976609</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1201475293143967</v>
+        <v>0.08187134502923976</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1675604221787415</v>
+        <v>0.09619074035550007</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2103039890991595</v>
+        <v>0.1081500731542511</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2311968379983854</v>
+        <v>0.1487399901439687</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2370073645043867</v>
+        <v>0.1546229613120953</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -11799,28 +11799,28 @@
         <v>387</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1161236424394319</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1654657477025898</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1654657477025898</v>
+        <v>0.07581453634085213</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1871327493351076</v>
+        <v>0.1007441413464008</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2048075320432885</v>
+        <v>0.1032856840784588</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2064583380250325</v>
+        <v>0.1043976188449525</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -11840,25 +11840,25 @@
         <v>0.01754385964912281</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06228070175438596</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1196184906711222</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2329600522458525</v>
+        <v>0.1146198830409357</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2819856334402177</v>
+        <v>0.1333987141767462</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3450616739234391</v>
+        <v>0.1676948952223256</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3829801587626144</v>
+        <v>0.2111016891236671</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3904192598870385</v>
+        <v>0.2178093430461533</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -11878,25 +11878,25 @@
         <v>0.04</v>
       </c>
       <c r="F5" t="n">
-        <v>0.11</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G5" t="n">
-        <v>0.11</v>
+        <v>0.096</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1777121212121212</v>
+        <v>0.1592781228433402</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2503394195415471</v>
+        <v>0.2142189042841216</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2793563468866479</v>
+        <v>0.2584826946377486</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3005232303227246</v>
+        <v>0.2795322780377943</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3053638153046709</v>
+        <v>0.2795322780377943</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -11916,25 +11916,25 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.005882352941176471</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02829131652661064</v>
+        <v>0.01330532212885154</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02829131652661064</v>
+        <v>0.02544024602848132</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04506910646146391</v>
+        <v>0.03861550475684628</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05673083503495719</v>
+        <v>0.0491457954199116</v>
       </c>
       <c r="K6" t="n">
-        <v>0.08226534067109348</v>
+        <v>0.07020028448844828</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08320903365630897</v>
+        <v>0.0726718778702046</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -11954,25 +11954,25 @@
         <v>0.01694915254237288</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06016949152542372</v>
+        <v>0.02824858757062147</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08882163034705406</v>
+        <v>0.06599408124831853</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1326069410815173</v>
+        <v>0.1239410266307834</v>
       </c>
       <c r="I7" t="n">
-        <v>0.20559088070716</v>
+        <v>0.1796401754066362</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2426243784071779</v>
+        <v>0.2247950587022411</v>
       </c>
       <c r="K7" t="n">
-        <v>0.29067963326116</v>
+        <v>0.2681698451443185</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2958141051928621</v>
+        <v>0.2710516298412992</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -11992,25 +11992,25 @@
         <v>0.1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2416666666666666</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3638888888888888</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4340643274853801</v>
+        <v>0.3882142857142857</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4894082428292955</v>
+        <v>0.4385651629072681</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4894082428292955</v>
+        <v>0.4385651629072681</v>
       </c>
       <c r="K8" t="n">
-        <v>0.497041830615555</v>
+        <v>0.4463171008917642</v>
       </c>
       <c r="L8" t="n">
-        <v>0.497041830615555</v>
+        <v>0.4463171008917642</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -12030,25 +12030,25 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03214285714285715</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03214285714285715</v>
+        <v>0.02678571428571428</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04702380952380952</v>
+        <v>0.05403828197945845</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07121542877490339</v>
+        <v>0.07620500414618062</v>
       </c>
       <c r="J9" t="n">
-        <v>0.09387355654213929</v>
+        <v>0.08656131450249097</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1207038367275604</v>
+        <v>0.1166485767155844</v>
       </c>
       <c r="L9" t="n">
-        <v>0.124054966643972</v>
+        <v>0.12291744919216</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -12068,25 +12068,25 @@
         <v>0.02631578947368421</v>
       </c>
       <c r="F10" t="n">
-        <v>0.131578947368421</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1783625730994152</v>
+        <v>0.1416666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2349761465066175</v>
+        <v>0.2282384883778072</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2994719280521058</v>
+        <v>0.2866606602348821</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3307498084742237</v>
+        <v>0.3015238672033523</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3675594541152578</v>
+        <v>0.3431021372507549</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3711603960599844</v>
+        <v>0.3497049226750967</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -12106,25 +12106,25 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.07361111111111111</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02320075757575758</v>
+        <v>0.114781746031746</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05887904098589582</v>
+        <v>0.114781746031746</v>
       </c>
       <c r="J11" t="n">
-        <v>0.06876604663561334</v>
+        <v>0.1274809262841178</v>
       </c>
       <c r="K11" t="n">
-        <v>0.08275875799667474</v>
+        <v>0.1473054014624592</v>
       </c>
       <c r="L11" t="n">
-        <v>0.08423586287112084</v>
+        <v>0.1473054014624592</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -12141,28 +12141,28 @@
         <v>387</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0303030303030303</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0787878787878788</v>
+        <v>0.006060606060606061</v>
       </c>
       <c r="G12" t="n">
-        <v>0.09610389610389611</v>
+        <v>0.01471861471861472</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1050165520753756</v>
+        <v>0.03494259363824581</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1319092375242108</v>
+        <v>0.04460442938703809</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1365006057519426</v>
+        <v>0.04702867181128052</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1472964858661343</v>
+        <v>0.06481036043160732</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1496385875952298</v>
+        <v>0.06675569185017698</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -12179,28 +12179,28 @@
         <v>387</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02222222222222222</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05777777777777778</v>
+        <v>0.01444444444444445</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07047619047619048</v>
+        <v>0.04936507936507937</v>
       </c>
       <c r="H13" t="n">
-        <v>0.09974188665365136</v>
+        <v>0.09832528180354269</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1539906862060562</v>
+        <v>0.1109125067096082</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1657409572783612</v>
+        <v>0.1213073364661401</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1877224674621916</v>
+        <v>0.1557502234997385</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1915077808754756</v>
+        <v>0.1581568425989152</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -12223,22 +12223,22 @@
         <v>0.1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1181818181818182</v>
+        <v>0.12</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1181818181818182</v>
+        <v>0.12625</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1224675324675325</v>
+        <v>0.12625</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1299287214729906</v>
+        <v>0.1331345785440613</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1299287214729906</v>
+        <v>0.1331345785440613</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -12258,25 +12258,25 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0131578947368421</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04210526315789474</v>
+        <v>0.03947368421052631</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07377947130269112</v>
+        <v>0.05861244019138757</v>
       </c>
       <c r="I15" t="n">
-        <v>0.08280202769366857</v>
+        <v>0.06738437001594898</v>
       </c>
       <c r="J15" t="n">
-        <v>0.08280202769366857</v>
+        <v>0.07737447566211411</v>
       </c>
       <c r="K15" t="n">
-        <v>0.08760168495560876</v>
+        <v>0.07963350065211515</v>
       </c>
       <c r="L15" t="n">
-        <v>0.08881291642999811</v>
+        <v>0.08039407260222163</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -12296,25 +12296,25 @@
         <v>0.03448275862068965</v>
       </c>
       <c r="F16" t="n">
-        <v>0.05172413793103448</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07844827586206896</v>
+        <v>0.09147509578544061</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1242361593781472</v>
+        <v>0.1102838732149077</v>
       </c>
       <c r="I16" t="n">
-        <v>0.132117932777162</v>
+        <v>0.1240769766631836</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1365514303141078</v>
+        <v>0.1337170929300956</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1478527561737551</v>
+        <v>0.1421998619041159</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1491003565592865</v>
+        <v>0.1429971511207793</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -12334,25 +12334,25 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01428571428571429</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03015873015873016</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="H17" t="n">
-        <v>0.05575078516254987</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1438528442343059</v>
+        <v>0.02953149001536098</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1438528442343059</v>
+        <v>0.0333410138248848</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1569136012770354</v>
+        <v>0.04200554200027857</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1569136012770354</v>
+        <v>0.04392632170152628</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -12369,28 +12369,28 @@
         <v>387</v>
       </c>
       <c r="E18" t="n">
-        <v>0.05882352941176471</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1176470588235294</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1470588235294118</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.198781266892722</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2112589852527933</v>
+        <v>0.005242738806752648</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2216187992814976</v>
+        <v>0.0106746882614725</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2309749509680228</v>
+        <v>0.01653834104072379</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2309749509680228</v>
+        <v>0.01759235699884002</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -12407,28 +12407,28 @@
         <v>387</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03225806451612903</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08387096774193549</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1232974910394265</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1946849182642651</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2838783216221166</v>
+        <v>0.02199070338569635</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2962452986756584</v>
+        <v>0.03095907805646436</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3177011086688047</v>
+        <v>0.04452547052463795</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3177011086688047</v>
+        <v>0.04729958996499957</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -12454,19 +12454,19 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03111111111111111</v>
+        <v>0.03355263157894737</v>
       </c>
       <c r="I20" t="n">
-        <v>0.04825396825396826</v>
+        <v>0.05355263157894737</v>
       </c>
       <c r="J20" t="n">
-        <v>0.05777777777777778</v>
+        <v>0.06436344238975818</v>
       </c>
       <c r="K20" t="n">
-        <v>0.06477078477078477</v>
+        <v>0.07379740465390912</v>
       </c>
       <c r="L20" t="n">
-        <v>0.06477078477078477</v>
+        <v>0.07379740465390912</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -12486,25 +12486,25 @@
         <v>0.05</v>
       </c>
       <c r="F21" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3225</v>
+        <v>0.3521031746031746</v>
       </c>
       <c r="H21" t="n">
-        <v>0.554984375273849</v>
+        <v>0.5627327624066754</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6308464442393663</v>
+        <v>0.6351897899719201</v>
       </c>
       <c r="J21" t="n">
-        <v>0.658250923817759</v>
+        <v>0.677271089287262</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6681519139167689</v>
+        <v>0.677271089287262</v>
       </c>
       <c r="L21" t="n">
-        <v>0.6681519139167689</v>
+        <v>0.677271089287262</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -12524,25 +12524,25 @@
         <v>0.04</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="G22" t="n">
-        <v>0.258</v>
+        <v>0.2816825396825397</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5075957936800042</v>
+        <v>0.5188424156570608</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5987541535756865</v>
+        <v>0.6103103260787497</v>
       </c>
       <c r="J22" t="n">
-        <v>0.635187430443746</v>
+        <v>0.6621965057096102</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6516853879318024</v>
+        <v>0.6716304679737611</v>
       </c>
       <c r="L22" t="n">
-        <v>0.6516853879318024</v>
+        <v>0.6716304679737611</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -12559,28 +12559,28 @@
         <v>387</v>
       </c>
       <c r="E23" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.125</v>
+        <v>0.0625</v>
       </c>
       <c r="G23" t="n">
-        <v>0.125</v>
+        <v>0.0625</v>
       </c>
       <c r="H23" t="n">
-        <v>0.125</v>
+        <v>0.0625</v>
       </c>
       <c r="I23" t="n">
-        <v>0.125</v>
+        <v>0.0625</v>
       </c>
       <c r="J23" t="n">
-        <v>0.125</v>
+        <v>0.0625</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1292671978862354</v>
+        <v>0.06300505050505051</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1292671978862354</v>
+        <v>0.06374034462269756</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -12597,28 +12597,28 @@
         <v>387</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04206349206349206</v>
+        <v>0.07658730158730159</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1303665910808768</v>
+        <v>0.1328042328042328</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2355986605986606</v>
+        <v>0.1786353857782429</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2437155437155437</v>
+        <v>0.2012011539401442</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2776914955144243</v>
+        <v>0.2070491071565185</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2818931761866932</v>
+        <v>0.2097753885087541</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2832444834489317</v>
+        <v>0.2103482492319907</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -12638,25 +12638,25 @@
         <v>0.02</v>
       </c>
       <c r="F25" t="n">
-        <v>0.076</v>
+        <v>0.1</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1630873015873016</v>
+        <v>0.1552777777777778</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2594781329781329</v>
+        <v>0.1980763125763125</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2667508602508601</v>
+        <v>0.2186327035537562</v>
       </c>
       <c r="J25" t="n">
-        <v>0.296887751853485</v>
+        <v>0.223895861448493</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3064652059884241</v>
+        <v>0.2270254782269648</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3078028578102865</v>
+        <v>0.2283027891513345</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -12682,19 +12682,19 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1587301587301587</v>
+        <v>0.1596638655462185</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1864190721333578</v>
+        <v>0.1722689075630252</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1948224334778957</v>
+        <v>0.1908763505402161</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1992406956281166</v>
+        <v>0.1938422427794647</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1992406956281166</v>
+        <v>0.1938422427794647</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -12714,25 +12714,25 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.02727272727272727</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02727272727272727</v>
+        <v>0.05252525252525253</v>
       </c>
       <c r="H27" t="n">
-        <v>0.06320886481314289</v>
+        <v>0.05974025974025975</v>
       </c>
       <c r="I27" t="n">
-        <v>0.08355592516020324</v>
+        <v>0.07717097717097716</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1030205730635975</v>
+        <v>0.09622073234534567</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1152497094805911</v>
+        <v>0.11258449437563</v>
       </c>
       <c r="L27" t="n">
-        <v>0.117113507790692</v>
+        <v>0.113347087191203</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -12752,25 +12752,25 @@
         <v>0.025</v>
       </c>
       <c r="F28" t="n">
-        <v>0.065</v>
+        <v>0.05666666666666666</v>
       </c>
       <c r="G28" t="n">
-        <v>0.065</v>
+        <v>0.08895833333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1125771369153722</v>
+        <v>0.1061151960784314</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1506208372090725</v>
+        <v>0.1324886428930546</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1776000466035118</v>
+        <v>0.1646299174688741</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1939391855798125</v>
+        <v>0.1846859658040351</v>
       </c>
       <c r="L28" t="n">
-        <v>0.1959501477906702</v>
+        <v>0.1855137803735715</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -12790,25 +12790,25 @@
         <v>0.5</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="G29" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="H29" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="I29" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="J29" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="K29" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="L29" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -12828,25 +12828,25 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1197916666666667</v>
+        <v>0.1104166666666667</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3515873015873016</v>
+        <v>0.3422123015873016</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5905327311577312</v>
+        <v>0.5543632632305401</v>
       </c>
       <c r="I30" t="n">
-        <v>0.6312524281274282</v>
+        <v>0.57186326323054</v>
       </c>
       <c r="J30" t="n">
-        <v>0.6455381424131424</v>
+        <v>0.5902456161717166</v>
       </c>
       <c r="K30" t="n">
-        <v>0.6455381424131424</v>
+        <v>0.5949625973037921</v>
       </c>
       <c r="L30" t="n">
-        <v>0.6455381424131424</v>
+        <v>0.5949625973037921</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -12872,19 +12872,19 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8074989824989826</v>
+        <v>0.7794162338212681</v>
       </c>
       <c r="I31" t="n">
-        <v>0.8486886570219904</v>
+        <v>0.7971940115990459</v>
       </c>
       <c r="J31" t="n">
-        <v>0.8629743713077046</v>
+        <v>0.8157125301175645</v>
       </c>
       <c r="K31" t="n">
-        <v>0.8629743713077046</v>
+        <v>0.82042951124964</v>
       </c>
       <c r="L31" t="n">
-        <v>0.8629743713077046</v>
+        <v>0.82042951124964</v>
       </c>
     </row>
   </sheetData>

--- a/BM25.xlsx
+++ b/BM25.xlsx
@@ -1560,10 +1560,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>132.0254821160874</v>
+        <v>132.6714270473473</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1577,10 +1577,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>142.3625298175711</v>
+        <v>160.0440136261954</v>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1594,10 +1594,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>165.1782408211001</v>
+        <v>168.6752202940392</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1611,10 +1611,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>95.57754049684206</v>
+        <v>97.71766066795988</v>
       </c>
       <c r="E5" t="n">
-        <v>212</v>
+        <v>548</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1628,10 +1628,10 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>166.6380647088719</v>
+        <v>171.8558355392922</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1645,10 +1645,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>152.9906551650726</v>
+        <v>173.3071973871129</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1662,7 +1662,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>211.6058847425923</v>
+        <v>218.5936635742266</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -1679,10 +1679,10 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>155.5050984026621</v>
+        <v>172.1928353313701</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1696,10 +1696,10 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>155.5050984026621</v>
+        <v>172.1928353313701</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1713,10 +1713,10 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>152.6685236165812</v>
+        <v>158.9496215556326</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1730,10 +1730,10 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>164.5851699843181</v>
+        <v>169.4592338020071</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1747,7 +1747,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>198.0283225334899</v>
+        <v>208.2845857207756</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -1764,10 +1764,10 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>134.2150449290274</v>
+        <v>157.3642718004837</v>
       </c>
       <c r="E14" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1781,10 +1781,10 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>141.6628580207831</v>
+        <v>145.3486666839537</v>
       </c>
       <c r="E15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1798,7 +1798,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>329.5680531168688</v>
+        <v>338.5780206491098</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1815,10 +1815,10 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>147.9962325715257</v>
+        <v>160.5882298591462</v>
       </c>
       <c r="E17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1832,10 +1832,10 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>111.3596369641166</v>
+        <v>123.6563619405839</v>
       </c>
       <c r="E18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1849,10 +1849,10 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>111.3596369641166</v>
+        <v>123.6563619405839</v>
       </c>
       <c r="E19" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1866,10 +1866,10 @@
         <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>62.89528270983242</v>
+        <v>62.75812121855144</v>
       </c>
       <c r="E20" t="n">
-        <v>384</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1883,10 +1883,10 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>42.00065702532214</v>
+        <v>76.07689410094875</v>
       </c>
       <c r="E21" t="n">
-        <v>3857</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1900,10 +1900,10 @@
         <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>50.09346725516382</v>
+        <v>51.10550518850481</v>
       </c>
       <c r="E22" t="n">
-        <v>1646</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1917,10 +1917,10 @@
         <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>58.05751278411704</v>
+        <v>102.5730197059704</v>
       </c>
       <c r="E23" t="n">
-        <v>661</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1934,10 +1934,10 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>78.23923232958556</v>
+        <v>84.72629247511865</v>
       </c>
       <c r="E24" t="n">
-        <v>42</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1951,10 +1951,10 @@
         <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>55.19101220392173</v>
+        <v>99.45066940701872</v>
       </c>
       <c r="E25" t="n">
-        <v>942</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1968,10 +1968,10 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>73.22154977619364</v>
+        <v>92.0166032002444</v>
       </c>
       <c r="E26" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1985,10 +1985,10 @@
         <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>39.97002189123921</v>
+        <v>116.8346581463302</v>
       </c>
       <c r="E27" t="n">
-        <v>4762</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2002,10 +2002,10 @@
         <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>77.64291910346137</v>
+        <v>87.28146250206304</v>
       </c>
       <c r="E28" t="n">
-        <v>44</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2019,10 +2019,10 @@
         <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>66.8485760598863</v>
+        <v>70.13324621324797</v>
       </c>
       <c r="E29" t="n">
-        <v>213</v>
+        <v>553</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2036,10 +2036,10 @@
         <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>93.95790872522461</v>
+        <v>92.66604131634796</v>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2053,10 +2053,10 @@
         <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>95.48703772402834</v>
+        <v>96.78348030073154</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2070,10 +2070,10 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>75.57615396698085</v>
+        <v>91.46590300046481</v>
       </c>
       <c r="E32" t="n">
-        <v>57</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2087,10 +2087,10 @@
         <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>104.8201665547672</v>
+        <v>121.5031653756467</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2104,10 +2104,10 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>92.18014111168209</v>
+        <v>95.18085220636</v>
       </c>
       <c r="E34" t="n">
-        <v>6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2121,10 +2121,10 @@
         <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>96.54101583120416</v>
+        <v>96.08956307746098</v>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2138,10 +2138,10 @@
         <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>51.51827563739972</v>
+        <v>84.26654285965948</v>
       </c>
       <c r="E36" t="n">
-        <v>1403</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2155,10 +2155,10 @@
         <v>11</v>
       </c>
       <c r="D37" t="n">
-        <v>52.4480016869558</v>
+        <v>54.72682952235472</v>
       </c>
       <c r="E37" t="n">
-        <v>1250</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2172,10 +2172,10 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>80.39266234387375</v>
+        <v>110.5288167662006</v>
       </c>
       <c r="E38" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2189,10 +2189,10 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>72.63088841305915</v>
+        <v>107.9729091662224</v>
       </c>
       <c r="E39" t="n">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2206,10 +2206,10 @@
         <v>11</v>
       </c>
       <c r="D40" t="n">
-        <v>61.84196725208823</v>
+        <v>98.10447502656213</v>
       </c>
       <c r="E40" t="n">
-        <v>448</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2223,10 +2223,10 @@
         <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>62.44450118491982</v>
+        <v>106.4469182272285</v>
       </c>
       <c r="E41" t="n">
-        <v>412</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2240,10 +2240,10 @@
         <v>11</v>
       </c>
       <c r="D42" t="n">
-        <v>84.03197497745884</v>
+        <v>85.9576041942444</v>
       </c>
       <c r="E42" t="n">
-        <v>15</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2257,10 +2257,10 @@
         <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>42.08668411171574</v>
+        <v>74.4066737695568</v>
       </c>
       <c r="E43" t="n">
-        <v>3826</v>
+        <v>406</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2274,10 +2274,10 @@
         <v>11</v>
       </c>
       <c r="D44" t="n">
-        <v>70.47464579667941</v>
+        <v>111.0097813580699</v>
       </c>
       <c r="E44" t="n">
-        <v>130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2291,10 +2291,10 @@
         <v>11</v>
       </c>
       <c r="D45" t="n">
-        <v>55.68349373662293</v>
+        <v>88.80444821338735</v>
       </c>
       <c r="E45" t="n">
-        <v>891</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2308,10 +2308,10 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>61.7565256299789</v>
+        <v>94.2961357134362</v>
       </c>
       <c r="E46" t="n">
-        <v>458</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2325,10 +2325,10 @@
         <v>11</v>
       </c>
       <c r="D47" t="n">
-        <v>71.57738791101715</v>
+        <v>102.1137873361308</v>
       </c>
       <c r="E47" t="n">
-        <v>107</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2342,10 +2342,10 @@
         <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>23.25642140470989</v>
+        <v>58.64289206110202</v>
       </c>
       <c r="E48" t="n">
-        <v>32861</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2359,10 +2359,10 @@
         <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>51.95096606967756</v>
+        <v>81.23260226280746</v>
       </c>
       <c r="E49" t="n">
-        <v>1322</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2376,10 +2376,10 @@
         <v>11</v>
       </c>
       <c r="D50" t="n">
-        <v>30.11953987008385</v>
+        <v>64.76791755629246</v>
       </c>
       <c r="E50" t="n">
-        <v>13747</v>
+        <v>885</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2393,10 +2393,10 @@
         <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>74.73541116774359</v>
+        <v>103.69155061916</v>
       </c>
       <c r="E51" t="n">
-        <v>67</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2410,10 +2410,10 @@
         <v>11</v>
       </c>
       <c r="D52" t="n">
-        <v>60.39634258934593</v>
+        <v>98.92210182674366</v>
       </c>
       <c r="E52" t="n">
-        <v>530</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2427,10 +2427,10 @@
         <v>11</v>
       </c>
       <c r="D53" t="n">
-        <v>66.27660332212542</v>
+        <v>119.1170525062761</v>
       </c>
       <c r="E53" t="n">
-        <v>234</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2444,10 +2444,10 @@
         <v>11</v>
       </c>
       <c r="D54" t="n">
-        <v>88.32599769866997</v>
+        <v>133.762713419721</v>
       </c>
       <c r="E54" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2461,10 +2461,10 @@
         <v>11</v>
       </c>
       <c r="D55" t="n">
-        <v>68.18464218120617</v>
+        <v>73.04547859508727</v>
       </c>
       <c r="E55" t="n">
-        <v>180</v>
+        <v>443</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2478,10 +2478,10 @@
         <v>11</v>
       </c>
       <c r="D56" t="n">
-        <v>60.65151969616245</v>
+        <v>101.7284798147002</v>
       </c>
       <c r="E56" t="n">
-        <v>512</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2495,10 +2495,10 @@
         <v>11</v>
       </c>
       <c r="D57" t="n">
-        <v>76.31969247017976</v>
+        <v>115.2774695687582</v>
       </c>
       <c r="E57" t="n">
-        <v>53</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2512,10 +2512,10 @@
         <v>11</v>
       </c>
       <c r="D58" t="n">
-        <v>68.74596952242771</v>
+        <v>90.72933981686216</v>
       </c>
       <c r="E58" t="n">
-        <v>167</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2529,10 +2529,10 @@
         <v>11</v>
       </c>
       <c r="D59" t="n">
-        <v>41.80674179253654</v>
+        <v>77.57029034398263</v>
       </c>
       <c r="E59" t="n">
-        <v>3914</v>
+        <v>304</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2546,10 +2546,10 @@
         <v>11</v>
       </c>
       <c r="D60" t="n">
-        <v>86.98713811184808</v>
+        <v>121.8223799435214</v>
       </c>
       <c r="E60" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2563,10 +2563,10 @@
         <v>11</v>
       </c>
       <c r="D61" t="n">
-        <v>65.27846593573395</v>
+        <v>87.84618576024099</v>
       </c>
       <c r="E61" t="n">
-        <v>263</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2580,10 +2580,10 @@
         <v>11</v>
       </c>
       <c r="D62" t="n">
-        <v>67.06116619303599</v>
+        <v>113.1100918061675</v>
       </c>
       <c r="E62" t="n">
-        <v>207</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2597,10 +2597,10 @@
         <v>11</v>
       </c>
       <c r="D63" t="n">
-        <v>71.06981696380656</v>
+        <v>105.3481829914361</v>
       </c>
       <c r="E63" t="n">
-        <v>115</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2614,10 +2614,10 @@
         <v>11</v>
       </c>
       <c r="D64" t="n">
-        <v>73.46969165004789</v>
+        <v>105.8160843163611</v>
       </c>
       <c r="E64" t="n">
-        <v>88</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2631,10 +2631,10 @@
         <v>11</v>
       </c>
       <c r="D65" t="n">
-        <v>77.43046309790144</v>
+        <v>106.6321024775248</v>
       </c>
       <c r="E65" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2648,10 +2648,10 @@
         <v>11</v>
       </c>
       <c r="D66" t="n">
-        <v>71.66905475029724</v>
+        <v>112.5406633061097</v>
       </c>
       <c r="E66" t="n">
-        <v>106</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2665,10 +2665,10 @@
         <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>73.63403379299324</v>
+        <v>107.6862430059291</v>
       </c>
       <c r="E67" t="n">
-        <v>83</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2682,10 +2682,10 @@
         <v>11</v>
       </c>
       <c r="D68" t="n">
-        <v>64.51957471532063</v>
+        <v>65.20676964810583</v>
       </c>
       <c r="E68" t="n">
-        <v>296</v>
+        <v>853</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2699,10 +2699,10 @@
         <v>11</v>
       </c>
       <c r="D69" t="n">
-        <v>69.93081847452737</v>
+        <v>113.4660872758295</v>
       </c>
       <c r="E69" t="n">
-        <v>142</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2716,10 +2716,10 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>59.55560449011482</v>
+        <v>103.0233074976401</v>
       </c>
       <c r="E70" t="n">
-        <v>568</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2733,10 +2733,10 @@
         <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>73.28946623827542</v>
+        <v>112.3592674281342</v>
       </c>
       <c r="E71" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2750,10 +2750,10 @@
         <v>11</v>
       </c>
       <c r="D72" t="n">
-        <v>66.98494231591098</v>
+        <v>103.6210464799243</v>
       </c>
       <c r="E72" t="n">
-        <v>209</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2767,10 +2767,10 @@
         <v>11</v>
       </c>
       <c r="D73" t="n">
-        <v>73.56256501309673</v>
+        <v>111.2461022775181</v>
       </c>
       <c r="E73" t="n">
-        <v>85</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2784,10 +2784,10 @@
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>29.73228981331324</v>
+        <v>64.22466814791949</v>
       </c>
       <c r="E74" t="n">
-        <v>14441</v>
+        <v>946</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2801,10 +2801,10 @@
         <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>41.50966280112723</v>
+        <v>48.58849381823629</v>
       </c>
       <c r="E75" t="n">
-        <v>4051</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2818,10 +2818,10 @@
         <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>28.45056304819508</v>
+        <v>37.19149512103192</v>
       </c>
       <c r="E76" t="n">
-        <v>17030</v>
+        <v>9823</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2835,10 +2835,10 @@
         <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>224.2702473747738</v>
+        <v>260.6181569742201</v>
       </c>
       <c r="E77" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2852,10 +2852,10 @@
         <v>11</v>
       </c>
       <c r="D78" t="n">
-        <v>230.825158473878</v>
+        <v>279.0386129048602</v>
       </c>
       <c r="E78" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2869,10 +2869,10 @@
         <v>11</v>
       </c>
       <c r="D79" t="n">
-        <v>219.7309109692413</v>
+        <v>231.0079411868788</v>
       </c>
       <c r="E79" t="n">
-        <v>24</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2886,10 +2886,10 @@
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>163.1778337641507</v>
+        <v>216.4967121081993</v>
       </c>
       <c r="E80" t="n">
-        <v>391</v>
+        <v>420</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2903,10 +2903,10 @@
         <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>225.8344901265375</v>
+        <v>272.6176196512171</v>
       </c>
       <c r="E81" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2920,10 +2920,10 @@
         <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>126.5468666925848</v>
+        <v>236.5481051533065</v>
       </c>
       <c r="E82" t="n">
-        <v>1747</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2937,10 +2937,10 @@
         <v>11</v>
       </c>
       <c r="D83" t="n">
-        <v>241.9907980371176</v>
+        <v>351.3516238868103</v>
       </c>
       <c r="E83" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2954,10 +2954,10 @@
         <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>196.5601002860855</v>
+        <v>234.0883582349697</v>
       </c>
       <c r="E84" t="n">
-        <v>65</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2971,10 +2971,10 @@
         <v>11</v>
       </c>
       <c r="D85" t="n">
-        <v>216.6496235803848</v>
+        <v>265.689851608929</v>
       </c>
       <c r="E85" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2988,10 +2988,10 @@
         <v>11</v>
       </c>
       <c r="D86" t="n">
-        <v>272.6381292401309</v>
+        <v>318.9739334100445</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3005,10 +3005,10 @@
         <v>11</v>
       </c>
       <c r="D87" t="n">
-        <v>243.4620406410456</v>
+        <v>263.4093709528554</v>
       </c>
       <c r="E87" t="n">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3022,10 +3022,10 @@
         <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>188.9733682156504</v>
+        <v>224.1246865747208</v>
       </c>
       <c r="E88" t="n">
-        <v>103</v>
+        <v>306</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3039,10 +3039,10 @@
         <v>11</v>
       </c>
       <c r="D89" t="n">
-        <v>259.8166864369622</v>
+        <v>347.3195944641057</v>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3056,10 +3056,10 @@
         <v>11</v>
       </c>
       <c r="D90" t="n">
-        <v>209.4369305228965</v>
+        <v>209.6667239201577</v>
       </c>
       <c r="E90" t="n">
-        <v>38</v>
+        <v>570</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3073,10 +3073,10 @@
         <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>186.7545727079745</v>
+        <v>223.7403074490702</v>
       </c>
       <c r="E91" t="n">
-        <v>121</v>
+        <v>311</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3090,10 +3090,10 @@
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>148.4080787659387</v>
+        <v>165.1794931494869</v>
       </c>
       <c r="E92" t="n">
-        <v>755</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3107,10 +3107,10 @@
         <v>11</v>
       </c>
       <c r="D93" t="n">
-        <v>185.0558568997751</v>
+        <v>206.0763319759855</v>
       </c>
       <c r="E93" t="n">
-        <v>129</v>
+        <v>659</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3124,10 +3124,10 @@
         <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>267.0667560131566</v>
+        <v>333.1180943602261</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3141,10 +3141,10 @@
         <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>165.2693216326062</v>
+        <v>195.477511884881</v>
       </c>
       <c r="E95" t="n">
-        <v>354</v>
+        <v>968</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3158,10 +3158,10 @@
         <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>178.3111702651958</v>
+        <v>206.426800350866</v>
       </c>
       <c r="E96" t="n">
-        <v>189</v>
+        <v>643</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3175,10 +3175,10 @@
         <v>11</v>
       </c>
       <c r="D97" t="n">
-        <v>221.9696963094017</v>
+        <v>283.2437855339429</v>
       </c>
       <c r="E97" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3192,10 +3192,10 @@
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>152.7297594573103</v>
+        <v>312.6051969472629</v>
       </c>
       <c r="E98" t="n">
-        <v>624</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3209,10 +3209,10 @@
         <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>207.2439306290098</v>
+        <v>262.3155319483815</v>
       </c>
       <c r="E99" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3226,10 +3226,10 @@
         <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>181.1687564957887</v>
+        <v>245.8294946656697</v>
       </c>
       <c r="E100" t="n">
-        <v>162</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3243,10 +3243,10 @@
         <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>181.977393137908</v>
+        <v>245.8027522425189</v>
       </c>
       <c r="E101" t="n">
-        <v>156</v>
+        <v>109</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3260,10 +3260,10 @@
         <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>219.1101858845404</v>
+        <v>295.0138402478868</v>
       </c>
       <c r="E102" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3277,10 +3277,10 @@
         <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>196.0542746105922</v>
+        <v>269.3781136886097</v>
       </c>
       <c r="E103" t="n">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3294,10 +3294,10 @@
         <v>6</v>
       </c>
       <c r="D104" t="n">
-        <v>186.9968341489249</v>
+        <v>237.1291177181617</v>
       </c>
       <c r="E104" t="n">
-        <v>119</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3311,10 +3311,10 @@
         <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>145.5470898006942</v>
+        <v>293.4140003109518</v>
       </c>
       <c r="E105" t="n">
-        <v>845</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3328,10 +3328,10 @@
         <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>85.38351414142726</v>
+        <v>121.4309878145444</v>
       </c>
       <c r="E106" t="n">
-        <v>10337</v>
+        <v>7620</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3345,10 +3345,10 @@
         <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>144.1087063148636</v>
+        <v>261.8629619619616</v>
       </c>
       <c r="E107" t="n">
-        <v>892</v>
+        <v>44</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3362,10 +3362,10 @@
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>212.122594756394</v>
+        <v>227.3226422866516</v>
       </c>
       <c r="E108" t="n">
-        <v>33</v>
+        <v>256</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3379,10 +3379,10 @@
         <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>171.3366819934525</v>
+        <v>176.6186312127186</v>
       </c>
       <c r="E109" t="n">
-        <v>265</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3396,10 +3396,10 @@
         <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>240.1335694080967</v>
+        <v>281.630810886046</v>
       </c>
       <c r="E110" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3413,10 +3413,10 @@
         <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>232.2954069840324</v>
+        <v>286.8773743511918</v>
       </c>
       <c r="E111" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3430,10 +3430,10 @@
         <v>6</v>
       </c>
       <c r="D112" t="n">
-        <v>177.5590945190346</v>
+        <v>277.9295639568707</v>
       </c>
       <c r="E112" t="n">
-        <v>194</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3447,10 +3447,10 @@
         <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>146.0588884222067</v>
+        <v>248.8922765424931</v>
       </c>
       <c r="E113" t="n">
-        <v>821</v>
+        <v>92</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3464,10 +3464,10 @@
         <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>143.528664340325</v>
+        <v>231.5063728681849</v>
       </c>
       <c r="E114" t="n">
-        <v>919</v>
+        <v>205</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3481,10 +3481,10 @@
         <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>137.7478061471922</v>
+        <v>152.4714501721912</v>
       </c>
       <c r="E115" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3498,10 +3498,10 @@
         <v>11</v>
       </c>
       <c r="D116" t="n">
-        <v>149.1675616861784</v>
+        <v>151.1628891256568</v>
       </c>
       <c r="E116" t="n">
-        <v>23</v>
+        <v>73</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3515,10 +3515,10 @@
         <v>11</v>
       </c>
       <c r="D117" t="n">
-        <v>166.4547869477918</v>
+        <v>204.2546429622238</v>
       </c>
       <c r="E117" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3532,10 +3532,10 @@
         <v>11</v>
       </c>
       <c r="D118" t="n">
-        <v>135.1472783317534</v>
+        <v>143.5563351227542</v>
       </c>
       <c r="E118" t="n">
-        <v>87</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3549,10 +3549,10 @@
         <v>11</v>
       </c>
       <c r="D119" t="n">
-        <v>155.4218611161174</v>
+        <v>185.9165242139677</v>
       </c>
       <c r="E119" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3566,10 +3566,10 @@
         <v>11</v>
       </c>
       <c r="D120" t="n">
-        <v>152.4752551101184</v>
+        <v>175.9766918021456</v>
       </c>
       <c r="E120" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3583,10 +3583,10 @@
         <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>142.9416633151589</v>
+        <v>151.5622395281104</v>
       </c>
       <c r="E121" t="n">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3600,10 +3600,10 @@
         <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>112.3798213470335</v>
+        <v>137.6579203075631</v>
       </c>
       <c r="E122" t="n">
-        <v>615</v>
+        <v>212</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3617,10 +3617,10 @@
         <v>11</v>
       </c>
       <c r="D123" t="n">
-        <v>126.0233010745781</v>
+        <v>156.2327212402031</v>
       </c>
       <c r="E123" t="n">
-        <v>221</v>
+        <v>46</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3634,10 +3634,10 @@
         <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>120.6977655037366</v>
+        <v>141.0506645767327</v>
       </c>
       <c r="E124" t="n">
-        <v>358</v>
+        <v>163</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3651,10 +3651,10 @@
         <v>11</v>
       </c>
       <c r="D125" t="n">
-        <v>145.8665586910539</v>
+        <v>163.2594474173312</v>
       </c>
       <c r="E125" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3668,10 +3668,10 @@
         <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>158.4718497315585</v>
+        <v>173.5052694855606</v>
       </c>
       <c r="E126" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3685,10 +3685,10 @@
         <v>11</v>
       </c>
       <c r="D127" t="n">
-        <v>136.5636794308284</v>
+        <v>160.0050330358269</v>
       </c>
       <c r="E127" t="n">
-        <v>76</v>
+        <v>33</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3702,10 +3702,10 @@
         <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>157.8111842744275</v>
+        <v>162.2544478785557</v>
       </c>
       <c r="E128" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3719,10 +3719,10 @@
         <v>6</v>
       </c>
       <c r="D129" t="n">
-        <v>149.2779347882657</v>
+        <v>161.7335349354195</v>
       </c>
       <c r="E129" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3736,10 +3736,10 @@
         <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>56.60412111310484</v>
+        <v>65.24209099760451</v>
       </c>
       <c r="E130" t="n">
-        <v>92727</v>
+        <v>96173</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3753,10 +3753,10 @@
         <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>61.19919054305764</v>
+        <v>67.75706780260739</v>
       </c>
       <c r="E131" t="n">
-        <v>68576</v>
+        <v>84094</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3770,10 +3770,10 @@
         <v>11</v>
       </c>
       <c r="D132" t="n">
-        <v>122.3369209196116</v>
+        <v>130.1514421073775</v>
       </c>
       <c r="E132" t="n">
-        <v>295</v>
+        <v>402</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3787,10 +3787,10 @@
         <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>155.0317669262872</v>
+        <v>172.7070978088782</v>
       </c>
       <c r="E133" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3804,10 +3804,10 @@
         <v>11</v>
       </c>
       <c r="D134" t="n">
-        <v>145.7774665343159</v>
+        <v>168.0542088455902</v>
       </c>
       <c r="E134" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3821,10 +3821,10 @@
         <v>11</v>
       </c>
       <c r="D135" t="n">
-        <v>157.4481742460577</v>
+        <v>172.8383205465421</v>
       </c>
       <c r="E135" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3838,10 +3838,10 @@
         <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>125.9258253083719</v>
+        <v>134.4136152573402</v>
       </c>
       <c r="E136" t="n">
-        <v>224</v>
+        <v>293</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3855,10 +3855,10 @@
         <v>11</v>
       </c>
       <c r="D137" t="n">
-        <v>144.6762565200838</v>
+        <v>154.1859443695701</v>
       </c>
       <c r="E137" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3872,10 +3872,10 @@
         <v>11</v>
       </c>
       <c r="D138" t="n">
-        <v>144.3313620529201</v>
+        <v>145.0094256273183</v>
       </c>
       <c r="E138" t="n">
-        <v>42</v>
+        <v>117</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3889,10 +3889,10 @@
         <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>127.3452622378476</v>
+        <v>141.4144236752195</v>
       </c>
       <c r="E139" t="n">
-        <v>197</v>
+        <v>160</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3906,10 +3906,10 @@
         <v>11</v>
       </c>
       <c r="D140" t="n">
-        <v>140.0952660774484</v>
+        <v>149.1356586551173</v>
       </c>
       <c r="E140" t="n">
-        <v>58</v>
+        <v>89</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3923,10 +3923,10 @@
         <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>47.6424374720844</v>
+        <v>55.36698415410397</v>
       </c>
       <c r="E141" t="n">
-        <v>141840</v>
+        <v>143523</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3940,10 +3940,10 @@
         <v>11</v>
       </c>
       <c r="D142" t="n">
-        <v>118.9246135300463</v>
+        <v>147.7763461335496</v>
       </c>
       <c r="E142" t="n">
-        <v>415</v>
+        <v>98</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3957,10 +3957,10 @@
         <v>11</v>
       </c>
       <c r="D143" t="n">
-        <v>133.5446221001674</v>
+        <v>150.9341661826967</v>
       </c>
       <c r="E143" t="n">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3974,10 +3974,10 @@
         <v>11</v>
       </c>
       <c r="D144" t="n">
-        <v>176.5832715491009</v>
+        <v>181.1247457529406</v>
       </c>
       <c r="E144" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3991,10 +3991,10 @@
         <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>124.1423486265341</v>
+        <v>136.6024297938959</v>
       </c>
       <c r="E145" t="n">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4008,10 +4008,10 @@
         <v>11</v>
       </c>
       <c r="D146" t="n">
-        <v>132.6726498440615</v>
+        <v>143.9340124412379</v>
       </c>
       <c r="E146" t="n">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4025,10 +4025,10 @@
         <v>6</v>
       </c>
       <c r="D147" t="n">
-        <v>119.7383100997111</v>
+        <v>140.8388327512111</v>
       </c>
       <c r="E147" t="n">
-        <v>385</v>
+        <v>169</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4042,10 +4042,10 @@
         <v>6</v>
       </c>
       <c r="D148" t="n">
-        <v>76.4302540010019</v>
+        <v>101.2272097050265</v>
       </c>
       <c r="E148" t="n">
-        <v>16897</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4059,10 +4059,10 @@
         <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>76.4302540010019</v>
+        <v>101.2272097050265</v>
       </c>
       <c r="E149" t="n">
-        <v>16896</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4076,10 +4076,10 @@
         <v>11</v>
       </c>
       <c r="D150" t="n">
-        <v>140.8557345243743</v>
+        <v>154.323087422602</v>
       </c>
       <c r="E150" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4093,10 +4093,10 @@
         <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>92.31001939889212</v>
+        <v>105.5662383852306</v>
       </c>
       <c r="E151" t="n">
-        <v>3182</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4110,10 +4110,10 @@
         <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>130.8381569747496</v>
+        <v>142.0622934860958</v>
       </c>
       <c r="E152" t="n">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4127,10 +4127,10 @@
         <v>6</v>
       </c>
       <c r="D153" t="n">
-        <v>67.96631275986554</v>
+        <v>81.90379193801921</v>
       </c>
       <c r="E153" t="n">
-        <v>39234</v>
+        <v>30262</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4144,10 +4144,10 @@
         <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>146.8012986092229</v>
+        <v>158.3656307113907</v>
       </c>
       <c r="E154" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4161,10 +4161,10 @@
         <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>121.8039025599623</v>
+        <v>146.0393075528483</v>
       </c>
       <c r="E155" t="n">
-        <v>305</v>
+        <v>108</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4178,10 +4178,10 @@
         <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>143.6253004001362</v>
+        <v>162.3754193849123</v>
       </c>
       <c r="E156" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4195,10 +4195,10 @@
         <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>127.4744217507655</v>
+        <v>150.4089125579957</v>
       </c>
       <c r="E157" t="n">
-        <v>191</v>
+        <v>77</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4212,10 +4212,10 @@
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>119.4288646220216</v>
+        <v>127.5519552488832</v>
       </c>
       <c r="E158" t="n">
-        <v>395</v>
+        <v>494</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4229,10 +4229,10 @@
         <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>115.5117225365951</v>
+        <v>149.7719712462735</v>
       </c>
       <c r="E159" t="n">
-        <v>511</v>
+        <v>82</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4246,10 +4246,10 @@
         <v>6</v>
       </c>
       <c r="D160" t="n">
-        <v>133.9119365121987</v>
+        <v>155.049356321525</v>
       </c>
       <c r="E160" t="n">
-        <v>94</v>
+        <v>54</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4263,10 +4263,10 @@
         <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>89.61403690131411</v>
+        <v>105.4306037712687</v>
       </c>
       <c r="E161" t="n">
-        <v>4122</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4280,10 +4280,10 @@
         <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>78.24918313343993</v>
+        <v>92.03664866162647</v>
       </c>
       <c r="E162" t="n">
-        <v>13994</v>
+        <v>11653</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4297,10 +4297,10 @@
         <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>94.94006375570837</v>
+        <v>112.5465866714118</v>
       </c>
       <c r="E163" t="n">
-        <v>2455</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4314,10 +4314,10 @@
         <v>11</v>
       </c>
       <c r="D164" t="n">
-        <v>157.2157184096691</v>
+        <v>184.1994561858909</v>
       </c>
       <c r="E164" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4331,10 +4331,10 @@
         <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>118.559254096711</v>
+        <v>138.7781612066148</v>
       </c>
       <c r="E165" t="n">
-        <v>422</v>
+        <v>195</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4348,10 +4348,10 @@
         <v>11</v>
       </c>
       <c r="D166" t="n">
-        <v>142.4725998738784</v>
+        <v>160.7183983148853</v>
       </c>
       <c r="E166" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4365,10 +4365,10 @@
         <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>127.76242416093</v>
+        <v>140.1046209715838</v>
       </c>
       <c r="E167" t="n">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4382,7 +4382,7 @@
         <v>11</v>
       </c>
       <c r="D168" t="n">
-        <v>154.9639191742423</v>
+        <v>168.9329137983802</v>
       </c>
       <c r="E168" t="n">
         <v>14</v>
@@ -4399,10 +4399,10 @@
         <v>11</v>
       </c>
       <c r="D169" t="n">
-        <v>121.6743651370766</v>
+        <v>149.6583434817905</v>
       </c>
       <c r="E169" t="n">
-        <v>310</v>
+        <v>83</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4416,10 +4416,10 @@
         <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>118.0274600145018</v>
+        <v>124.9911094649513</v>
       </c>
       <c r="E170" t="n">
-        <v>433</v>
+        <v>593</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4433,10 +4433,10 @@
         <v>6</v>
       </c>
       <c r="D171" t="n">
-        <v>138.6797845314454</v>
+        <v>156.0851624932338</v>
       </c>
       <c r="E171" t="n">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4450,10 +4450,10 @@
         <v>11</v>
       </c>
       <c r="D172" t="n">
-        <v>119.0652683773856</v>
+        <v>142.0402409230844</v>
       </c>
       <c r="E172" t="n">
-        <v>407</v>
+        <v>153</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4467,10 +4467,10 @@
         <v>11</v>
       </c>
       <c r="D173" t="n">
-        <v>105.5578050792533</v>
+        <v>130.6633959708111</v>
       </c>
       <c r="E173" t="n">
-        <v>1009</v>
+        <v>388</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4484,10 +4484,10 @@
         <v>6</v>
       </c>
       <c r="D174" t="n">
-        <v>111.0520313554683</v>
+        <v>164.2359481249826</v>
       </c>
       <c r="E174" t="n">
-        <v>692</v>
+        <v>41</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4501,10 +4501,10 @@
         <v>6</v>
       </c>
       <c r="D175" t="n">
-        <v>144.0703527814017</v>
+        <v>190.1079613029322</v>
       </c>
       <c r="E175" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4518,10 +4518,10 @@
         <v>6</v>
       </c>
       <c r="D176" t="n">
-        <v>133.092953146803</v>
+        <v>163.8673081220402</v>
       </c>
       <c r="E176" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4535,10 +4535,10 @@
         <v>6</v>
       </c>
       <c r="D177" t="n">
-        <v>137.5447617168386</v>
+        <v>178.3971396204705</v>
       </c>
       <c r="E177" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4552,10 +4552,10 @@
         <v>11</v>
       </c>
       <c r="D178" t="n">
-        <v>150.7000521557407</v>
+        <v>164.8361460911945</v>
       </c>
       <c r="E178" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4569,10 +4569,10 @@
         <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>34.17902951853989</v>
+        <v>37.35376221717165</v>
       </c>
       <c r="E179" t="n">
-        <v>142716</v>
+        <v>176251</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4586,10 +4586,10 @@
         <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>117.6751079426926</v>
+        <v>117.4717995725442</v>
       </c>
       <c r="E180" t="n">
-        <v>374</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4603,10 +4603,10 @@
         <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>142.8125976261758</v>
+        <v>168.6575521839605</v>
       </c>
       <c r="E181" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4620,10 +4620,10 @@
         <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>94.09937124658123</v>
+        <v>105.3501079818743</v>
       </c>
       <c r="E182" t="n">
-        <v>2591</v>
+        <v>3321</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4637,10 +4637,10 @@
         <v>11</v>
       </c>
       <c r="D183" t="n">
-        <v>96.88623357687948</v>
+        <v>178.4195748410418</v>
       </c>
       <c r="E183" t="n">
-        <v>2088</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4654,10 +4654,10 @@
         <v>11</v>
       </c>
       <c r="D184" t="n">
-        <v>105.3960506206494</v>
+        <v>161.979004867995</v>
       </c>
       <c r="E184" t="n">
-        <v>1113</v>
+        <v>46</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4671,10 +4671,10 @@
         <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>84.25021976787428</v>
+        <v>157.960342608598</v>
       </c>
       <c r="E185" t="n">
-        <v>5053</v>
+        <v>81</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4688,10 +4688,10 @@
         <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>102.7606361494205</v>
+        <v>167.1709701684065</v>
       </c>
       <c r="E186" t="n">
-        <v>1365</v>
+        <v>31</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4705,10 +4705,10 @@
         <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>116.7725500214196</v>
+        <v>159.9026418888923</v>
       </c>
       <c r="E187" t="n">
-        <v>418</v>
+        <v>64</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4722,10 +4722,10 @@
         <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>87.37783705295354</v>
+        <v>159.5355418330841</v>
       </c>
       <c r="E188" t="n">
-        <v>4108</v>
+        <v>67</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4739,10 +4739,10 @@
         <v>11</v>
       </c>
       <c r="D189" t="n">
-        <v>127.0954594366804</v>
+        <v>156.5519694405235</v>
       </c>
       <c r="E189" t="n">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4756,10 +4756,10 @@
         <v>11</v>
       </c>
       <c r="D190" t="n">
-        <v>69.09436751704892</v>
+        <v>152.6021245493445</v>
       </c>
       <c r="E190" t="n">
-        <v>12835</v>
+        <v>130</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4773,10 +4773,10 @@
         <v>6</v>
       </c>
       <c r="D191" t="n">
-        <v>105.9888927554322</v>
+        <v>157.3701151835966</v>
       </c>
       <c r="E191" t="n">
-        <v>1062</v>
+        <v>85</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4790,10 +4790,10 @@
         <v>6</v>
       </c>
       <c r="D192" t="n">
-        <v>59.47528258350964</v>
+        <v>112.1782288798984</v>
       </c>
       <c r="E192" t="n">
-        <v>25005</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4807,10 +4807,10 @@
         <v>11</v>
       </c>
       <c r="D193" t="n">
-        <v>95.69759966992609</v>
+        <v>173.2764261080367</v>
       </c>
       <c r="E193" t="n">
-        <v>2288</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4824,10 +4824,10 @@
         <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>62.3971686495868</v>
+        <v>132.2476614620039</v>
       </c>
       <c r="E194" t="n">
-        <v>20247</v>
+        <v>633</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4841,10 +4841,10 @@
         <v>6</v>
       </c>
       <c r="D195" t="n">
-        <v>143.6723249499069</v>
+        <v>180.4829696134072</v>
       </c>
       <c r="E195" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4858,10 +4858,10 @@
         <v>11</v>
       </c>
       <c r="D196" t="n">
-        <v>142.937729452427</v>
+        <v>161.9713589283419</v>
       </c>
       <c r="E196" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4875,10 +4875,10 @@
         <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>142.937729452427</v>
+        <v>161.9713589283419</v>
       </c>
       <c r="E197" t="n">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4892,10 +4892,10 @@
         <v>11</v>
       </c>
       <c r="D198" t="n">
-        <v>122.6189457571223</v>
+        <v>149.8025725731637</v>
       </c>
       <c r="E198" t="n">
-        <v>224</v>
+        <v>181</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4909,10 +4909,10 @@
         <v>6</v>
       </c>
       <c r="D199" t="n">
-        <v>128.5671717022219</v>
+        <v>150.821214530973</v>
       </c>
       <c r="E199" t="n">
-        <v>97</v>
+        <v>164</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4926,10 +4926,10 @@
         <v>11</v>
       </c>
       <c r="D200" t="n">
-        <v>133.4915108024791</v>
+        <v>176.0024269526394</v>
       </c>
       <c r="E200" t="n">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4943,10 +4943,10 @@
         <v>6</v>
       </c>
       <c r="D201" t="n">
-        <v>87.11352708644976</v>
+        <v>146.7418530778714</v>
       </c>
       <c r="E201" t="n">
-        <v>4194</v>
+        <v>233</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4960,10 +4960,10 @@
         <v>11</v>
       </c>
       <c r="D202" t="n">
-        <v>116.9518555926128</v>
+        <v>131.7684859958936</v>
       </c>
       <c r="E202" t="n">
-        <v>406</v>
+        <v>660</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4977,10 +4977,10 @@
         <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>59.38403629886557</v>
+        <v>98.16591381167542</v>
       </c>
       <c r="E203" t="n">
-        <v>227</v>
+        <v>26</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4994,10 +4994,10 @@
         <v>11</v>
       </c>
       <c r="D204" t="n">
-        <v>63.1234282066841</v>
+        <v>97.29378651922109</v>
       </c>
       <c r="E204" t="n">
-        <v>94</v>
+        <v>31</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5011,10 +5011,10 @@
         <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>58.70902155480356</v>
+        <v>82.58185935542755</v>
       </c>
       <c r="E205" t="n">
-        <v>320</v>
+        <v>399</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5028,10 +5028,10 @@
         <v>11</v>
       </c>
       <c r="D206" t="n">
-        <v>61.47844403125669</v>
+        <v>95.07653171456796</v>
       </c>
       <c r="E206" t="n">
-        <v>147</v>
+        <v>45</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5045,10 +5045,10 @@
         <v>6</v>
       </c>
       <c r="D207" t="n">
-        <v>72.14896944600416</v>
+        <v>107.1043008095038</v>
       </c>
       <c r="E207" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5062,10 +5062,10 @@
         <v>6</v>
       </c>
       <c r="D208" t="n">
-        <v>20.21116915767238</v>
+        <v>45.34650966699757</v>
       </c>
       <c r="E208" t="n">
-        <v>103388</v>
+        <v>43392</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5079,10 +5079,10 @@
         <v>6</v>
       </c>
       <c r="D209" t="n">
-        <v>60.3868722314633</v>
+        <v>93.50580158081853</v>
       </c>
       <c r="E209" t="n">
-        <v>181</v>
+        <v>70</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5096,10 +5096,10 @@
         <v>11</v>
       </c>
       <c r="D210" t="n">
-        <v>67.9291919873201</v>
+        <v>90.32901444656383</v>
       </c>
       <c r="E210" t="n">
-        <v>24</v>
+        <v>126</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5113,10 +5113,10 @@
         <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>23.20497533898067</v>
+        <v>53.81215262937816</v>
       </c>
       <c r="E211" t="n">
-        <v>76681</v>
+        <v>17162</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5130,10 +5130,10 @@
         <v>11</v>
       </c>
       <c r="D212" t="n">
-        <v>63.98330686288965</v>
+        <v>89.78468351218328</v>
       </c>
       <c r="E212" t="n">
-        <v>77</v>
+        <v>137</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5147,10 +5147,10 @@
         <v>6</v>
       </c>
       <c r="D213" t="n">
-        <v>66.31750935491408</v>
+        <v>75.23974733369288</v>
       </c>
       <c r="E213" t="n">
-        <v>46</v>
+        <v>890</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5164,10 +5164,10 @@
         <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>62.75132412502528</v>
+        <v>76.00153999383396</v>
       </c>
       <c r="E214" t="n">
-        <v>106</v>
+        <v>810</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5181,10 +5181,10 @@
         <v>11</v>
       </c>
       <c r="D215" t="n">
-        <v>70.48651344070012</v>
+        <v>100.5750531249575</v>
       </c>
       <c r="E215" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5198,10 +5198,10 @@
         <v>6</v>
       </c>
       <c r="D216" t="n">
-        <v>72.10765518618713</v>
+        <v>100.9473937180611</v>
       </c>
       <c r="E216" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5215,10 +5215,10 @@
         <v>6</v>
       </c>
       <c r="D217" t="n">
-        <v>68.15200893297366</v>
+        <v>97.77349682371066</v>
       </c>
       <c r="E217" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5232,10 +5232,10 @@
         <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>69.0765071212946</v>
+        <v>99.2845428823525</v>
       </c>
       <c r="E218" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5249,10 +5249,10 @@
         <v>6</v>
       </c>
       <c r="D219" t="n">
-        <v>62.98528734376547</v>
+        <v>100.629406644562</v>
       </c>
       <c r="E219" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5266,10 +5266,10 @@
         <v>6</v>
       </c>
       <c r="D220" t="n">
-        <v>49.69576624534388</v>
+        <v>80.81816289510643</v>
       </c>
       <c r="E220" t="n">
-        <v>1902</v>
+        <v>486</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5283,10 +5283,10 @@
         <v>6</v>
       </c>
       <c r="D221" t="n">
-        <v>61.95762975105267</v>
+        <v>98.53625739282487</v>
       </c>
       <c r="E221" t="n">
-        <v>127</v>
+        <v>23</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5300,10 +5300,10 @@
         <v>6</v>
       </c>
       <c r="D222" t="n">
-        <v>45.11974846357864</v>
+        <v>79.1463368815282</v>
       </c>
       <c r="E222" t="n">
-        <v>4479</v>
+        <v>576</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5317,10 +5317,10 @@
         <v>6</v>
       </c>
       <c r="D223" t="n">
-        <v>55.71326200132791</v>
+        <v>77.53742579394121</v>
       </c>
       <c r="E223" t="n">
-        <v>582</v>
+        <v>679</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5334,10 +5334,10 @@
         <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>6.03817323830925</v>
+        <v>36.39425001520922</v>
       </c>
       <c r="E224" t="n">
-        <v>254916</v>
+        <v>98461</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5351,10 +5351,10 @@
         <v>6</v>
       </c>
       <c r="D225" t="n">
-        <v>50.82413573745694</v>
+        <v>93.86004722954974</v>
       </c>
       <c r="E225" t="n">
-        <v>1527</v>
+        <v>60</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5368,10 +5368,10 @@
         <v>6</v>
       </c>
       <c r="D226" t="n">
-        <v>42.81896607003572</v>
+        <v>73.92319663016585</v>
       </c>
       <c r="E226" t="n">
-        <v>6468</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5385,10 +5385,10 @@
         <v>6</v>
       </c>
       <c r="D227" t="n">
-        <v>46.80745852562459</v>
+        <v>76.53029954767999</v>
       </c>
       <c r="E227" t="n">
-        <v>3291</v>
+        <v>759</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5402,10 +5402,10 @@
         <v>6</v>
       </c>
       <c r="D228" t="n">
-        <v>49.71305400566415</v>
+        <v>92.61448656008585</v>
       </c>
       <c r="E228" t="n">
-        <v>1893</v>
+        <v>85</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5419,10 +5419,10 @@
         <v>6</v>
       </c>
       <c r="D229" t="n">
-        <v>46.54084641720526</v>
+        <v>93.86587259132688</v>
       </c>
       <c r="E229" t="n">
-        <v>3469</v>
+        <v>59</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5436,10 +5436,10 @@
         <v>6</v>
       </c>
       <c r="D230" t="n">
-        <v>69.30945300902683</v>
+        <v>112.861740785379</v>
       </c>
       <c r="E230" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5453,10 +5453,10 @@
         <v>6</v>
       </c>
       <c r="D231" t="n">
-        <v>60.75098778042345</v>
+        <v>100.6973905555246</v>
       </c>
       <c r="E231" t="n">
-        <v>168</v>
+        <v>9</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5470,10 +5470,10 @@
         <v>11</v>
       </c>
       <c r="D232" t="n">
-        <v>59.866796708995</v>
+        <v>105.5137336826931</v>
       </c>
       <c r="E232" t="n">
-        <v>199</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5487,10 +5487,10 @@
         <v>11</v>
       </c>
       <c r="D233" t="n">
-        <v>61.79572686851479</v>
+        <v>87.84230935156967</v>
       </c>
       <c r="E233" t="n">
-        <v>135</v>
+        <v>195</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5504,10 +5504,10 @@
         <v>6</v>
       </c>
       <c r="D234" t="n">
-        <v>62.78722327277362</v>
+        <v>98.70614566289284</v>
       </c>
       <c r="E234" t="n">
-        <v>104</v>
+        <v>20</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5521,10 +5521,10 @@
         <v>6</v>
       </c>
       <c r="D235" t="n">
-        <v>66.9130020033304</v>
+        <v>100.5179528248453</v>
       </c>
       <c r="E235" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5538,10 +5538,10 @@
         <v>6</v>
       </c>
       <c r="D236" t="n">
-        <v>24.49880228931783</v>
+        <v>57.46749263603463</v>
       </c>
       <c r="E236" t="n">
-        <v>66708</v>
+        <v>10790</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5555,10 +5555,10 @@
         <v>6</v>
       </c>
       <c r="D237" t="n">
-        <v>11.1828597591044</v>
+        <v>56.14531532779336</v>
       </c>
       <c r="E237" t="n">
-        <v>200564</v>
+        <v>12881</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5572,10 +5572,10 @@
         <v>11</v>
       </c>
       <c r="D238" t="n">
-        <v>69.40015280032692</v>
+        <v>91.81526631674532</v>
       </c>
       <c r="E238" t="n">
-        <v>14</v>
+        <v>98</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5589,10 +5589,10 @@
         <v>11</v>
       </c>
       <c r="D239" t="n">
-        <v>58.20596142909621</v>
+        <v>86.77460785824609</v>
       </c>
       <c r="E239" t="n">
-        <v>358</v>
+        <v>231</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5606,10 +5606,10 @@
         <v>6</v>
       </c>
       <c r="D240" t="n">
-        <v>42.76325209388547</v>
+        <v>67.09332623173751</v>
       </c>
       <c r="E240" t="n">
-        <v>6506</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5623,10 +5623,10 @@
         <v>11</v>
       </c>
       <c r="D241" t="n">
-        <v>58.64145549727532</v>
+        <v>98.61892445576555</v>
       </c>
       <c r="E241" t="n">
-        <v>327</v>
+        <v>22</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5640,10 +5640,10 @@
         <v>6</v>
       </c>
       <c r="D242" t="n">
-        <v>27.76855886214569</v>
+        <v>42.78900123038621</v>
       </c>
       <c r="E242" t="n">
-        <v>46093</v>
+        <v>56315</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5657,10 +5657,10 @@
         <v>11</v>
       </c>
       <c r="D243" t="n">
-        <v>72.13807567239746</v>
+        <v>90.64856344846007</v>
       </c>
       <c r="E243" t="n">
-        <v>6</v>
+        <v>116</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5674,10 +5674,10 @@
         <v>6</v>
       </c>
       <c r="D244" t="n">
-        <v>16.49853965930884</v>
+        <v>55.35269433581702</v>
       </c>
       <c r="E244" t="n">
-        <v>142319</v>
+        <v>14239</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5691,7 +5691,7 @@
         <v>11</v>
       </c>
       <c r="D245" t="n">
-        <v>72.63557854171435</v>
+        <v>103.5384801612584</v>
       </c>
       <c r="E245" t="n">
         <v>4</v>
@@ -5708,10 +5708,10 @@
         <v>6</v>
       </c>
       <c r="D246" t="n">
-        <v>59.33889131255509</v>
+        <v>78.84585500435047</v>
       </c>
       <c r="E246" t="n">
-        <v>233</v>
+        <v>599</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5725,10 +5725,10 @@
         <v>6</v>
       </c>
       <c r="D247" t="n">
-        <v>56.43115303094514</v>
+        <v>75.38687214501243</v>
       </c>
       <c r="E247" t="n">
-        <v>511</v>
+        <v>872</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5742,10 +5742,10 @@
         <v>11</v>
       </c>
       <c r="D248" t="n">
-        <v>49.36858005173316</v>
+        <v>49.04687817791753</v>
       </c>
       <c r="E248" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5759,10 +5759,10 @@
         <v>6</v>
       </c>
       <c r="D249" t="n">
-        <v>53.4508769903488</v>
+        <v>55.16128911548725</v>
       </c>
       <c r="E249" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5776,10 +5776,10 @@
         <v>6</v>
       </c>
       <c r="D250" t="n">
-        <v>40.83283704712277</v>
+        <v>46.82924726010103</v>
       </c>
       <c r="E250" t="n">
-        <v>63</v>
+        <v>31</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5793,10 +5793,10 @@
         <v>6</v>
       </c>
       <c r="D251" t="n">
-        <v>48.93459622856828</v>
+        <v>58.846647659203</v>
       </c>
       <c r="E251" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5810,10 +5810,10 @@
         <v>11</v>
       </c>
       <c r="D252" t="n">
-        <v>45.66739323465084</v>
+        <v>47.06924281396142</v>
       </c>
       <c r="E252" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5827,10 +5827,10 @@
         <v>6</v>
       </c>
       <c r="D253" t="n">
-        <v>62.04778447110212</v>
+        <v>58.87811414515924</v>
       </c>
       <c r="E253" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5844,10 +5844,10 @@
         <v>6</v>
       </c>
       <c r="D254" t="n">
-        <v>48.61861059751852</v>
+        <v>46.13593027889552</v>
       </c>
       <c r="E254" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5861,10 +5861,10 @@
         <v>6</v>
       </c>
       <c r="D255" t="n">
-        <v>52.33159241353711</v>
+        <v>51.68480514183739</v>
       </c>
       <c r="E255" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5878,10 +5878,10 @@
         <v>11</v>
       </c>
       <c r="D256" t="n">
-        <v>40.20586031978621</v>
+        <v>37.5609193814206</v>
       </c>
       <c r="E256" t="n">
-        <v>74</v>
+        <v>190</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5895,10 +5895,10 @@
         <v>6</v>
       </c>
       <c r="D257" t="n">
-        <v>45.81818155504706</v>
+        <v>55.49775180027132</v>
       </c>
       <c r="E257" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5912,10 +5912,10 @@
         <v>6</v>
       </c>
       <c r="D258" t="n">
-        <v>50.89554847201352</v>
+        <v>46.91949458160612</v>
       </c>
       <c r="E258" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5929,10 +5929,10 @@
         <v>11</v>
       </c>
       <c r="D259" t="n">
-        <v>37.97907862668083</v>
+        <v>34.28269647805384</v>
       </c>
       <c r="E259" t="n">
-        <v>106</v>
+        <v>395</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5946,7 +5946,7 @@
         <v>6</v>
       </c>
       <c r="D260" t="n">
-        <v>65.24414897239475</v>
+        <v>62.56606979696914</v>
       </c>
       <c r="E260" t="n">
         <v>3</v>
@@ -5963,10 +5963,10 @@
         <v>6</v>
       </c>
       <c r="D261" t="n">
-        <v>55.17320243999684</v>
+        <v>60.27389167213639</v>
       </c>
       <c r="E261" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5980,10 +5980,10 @@
         <v>6</v>
       </c>
       <c r="D262" t="n">
-        <v>47.89264856815005</v>
+        <v>41.61389715108781</v>
       </c>
       <c r="E262" t="n">
-        <v>23</v>
+        <v>81</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5997,10 +5997,10 @@
         <v>11</v>
       </c>
       <c r="D263" t="n">
-        <v>50.36152762675346</v>
+        <v>57.99938869196452</v>
       </c>
       <c r="E263" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6014,7 +6014,7 @@
         <v>6</v>
       </c>
       <c r="D264" t="n">
-        <v>70.33418772881716</v>
+        <v>69.91042241600807</v>
       </c>
       <c r="E264" t="n">
         <v>1</v>
@@ -6031,10 +6031,10 @@
         <v>6</v>
       </c>
       <c r="D265" t="n">
-        <v>42.80559118840364</v>
+        <v>48.76611016231313</v>
       </c>
       <c r="E265" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6048,10 +6048,10 @@
         <v>6</v>
       </c>
       <c r="D266" t="n">
-        <v>46.63802143546065</v>
+        <v>45.45398100210259</v>
       </c>
       <c r="E266" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6065,10 +6065,10 @@
         <v>6</v>
       </c>
       <c r="D267" t="n">
-        <v>38.69640344825751</v>
+        <v>47.28825714634896</v>
       </c>
       <c r="E267" t="n">
-        <v>94</v>
+        <v>27</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6082,7 +6082,7 @@
         <v>6</v>
       </c>
       <c r="D268" t="n">
-        <v>68.7115094594179</v>
+        <v>69.26951290275005</v>
       </c>
       <c r="E268" t="n">
         <v>2</v>
@@ -6099,10 +6099,10 @@
         <v>6</v>
       </c>
       <c r="D269" t="n">
-        <v>53.36888865630214</v>
+        <v>56.44756067636011</v>
       </c>
       <c r="E269" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -6116,10 +6116,10 @@
         <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>52.32307061579812</v>
+        <v>52.64701176695779</v>
       </c>
       <c r="E270" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -6133,10 +6133,10 @@
         <v>6</v>
       </c>
       <c r="D271" t="n">
-        <v>41.86784298961086</v>
+        <v>41.90264935069919</v>
       </c>
       <c r="E271" t="n">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6150,7 +6150,7 @@
         <v>6</v>
       </c>
       <c r="D272" t="n">
-        <v>53.19043651207659</v>
+        <v>57.4177616590348</v>
       </c>
       <c r="E272" t="n">
         <v>10</v>
@@ -6167,10 +6167,10 @@
         <v>11</v>
       </c>
       <c r="D273" t="n">
-        <v>39.4985145123845</v>
+        <v>48.7172411793216</v>
       </c>
       <c r="E273" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -6184,10 +6184,10 @@
         <v>11</v>
       </c>
       <c r="D274" t="n">
-        <v>24.53503274002076</v>
+        <v>34.90979937515966</v>
       </c>
       <c r="E274" t="n">
-        <v>1010</v>
+        <v>117</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -6201,10 +6201,10 @@
         <v>11</v>
       </c>
       <c r="D275" t="n">
-        <v>13.49827236636728</v>
+        <v>24.34830998704138</v>
       </c>
       <c r="E275" t="n">
-        <v>54778</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -6218,10 +6218,10 @@
         <v>6</v>
       </c>
       <c r="D276" t="n">
-        <v>32.68809679996642</v>
+        <v>38.93159969004434</v>
       </c>
       <c r="E276" t="n">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -6235,10 +6235,10 @@
         <v>11</v>
       </c>
       <c r="D277" t="n">
-        <v>17.81693649597</v>
+        <v>32.84829587529527</v>
       </c>
       <c r="E277" t="n">
-        <v>12352</v>
+        <v>227</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -6252,10 +6252,10 @@
         <v>11</v>
       </c>
       <c r="D278" t="n">
-        <v>24.84203726135315</v>
+        <v>33.27912157526181</v>
       </c>
       <c r="E278" t="n">
-        <v>917</v>
+        <v>203</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -6269,10 +6269,10 @@
         <v>6</v>
       </c>
       <c r="D279" t="n">
-        <v>24.85504545556387</v>
+        <v>32.96224429732969</v>
       </c>
       <c r="E279" t="n">
-        <v>912</v>
+        <v>218</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -6286,10 +6286,10 @@
         <v>6</v>
       </c>
       <c r="D280" t="n">
-        <v>27.85287570468871</v>
+        <v>25.2352752410579</v>
       </c>
       <c r="E280" t="n">
-        <v>321</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -6303,10 +6303,10 @@
         <v>11</v>
       </c>
       <c r="D281" t="n">
-        <v>32.10692181328358</v>
+        <v>44.07235141493809</v>
       </c>
       <c r="E281" t="n">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -6320,10 +6320,10 @@
         <v>6</v>
       </c>
       <c r="D282" t="n">
-        <v>15.64709094233985</v>
+        <v>22.64491169769088</v>
       </c>
       <c r="E282" t="n">
-        <v>26940</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -6337,10 +6337,10 @@
         <v>11</v>
       </c>
       <c r="D283" t="n">
-        <v>18.93937486546668</v>
+        <v>33.78651472567313</v>
       </c>
       <c r="E283" t="n">
-        <v>8077</v>
+        <v>181</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -6354,10 +6354,10 @@
         <v>11</v>
       </c>
       <c r="D284" t="n">
-        <v>35.18124689222284</v>
+        <v>42.53246097893434</v>
       </c>
       <c r="E284" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -6371,10 +6371,10 @@
         <v>11</v>
       </c>
       <c r="D285" t="n">
-        <v>31.26564507902145</v>
+        <v>42.45794897094398</v>
       </c>
       <c r="E285" t="n">
-        <v>102</v>
+        <v>13</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -6388,10 +6388,10 @@
         <v>6</v>
       </c>
       <c r="D286" t="n">
-        <v>31.43304393346045</v>
+        <v>37.15034382592715</v>
       </c>
       <c r="E286" t="n">
-        <v>91</v>
+        <v>55</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -6405,10 +6405,10 @@
         <v>11</v>
       </c>
       <c r="D287" t="n">
-        <v>28.82493790444843</v>
+        <v>41.4195375131637</v>
       </c>
       <c r="E287" t="n">
-        <v>241</v>
+        <v>16</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -6422,10 +6422,10 @@
         <v>6</v>
       </c>
       <c r="D288" t="n">
-        <v>34.68048929143898</v>
+        <v>47.44549283630001</v>
       </c>
       <c r="E288" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -6439,10 +6439,10 @@
         <v>6</v>
       </c>
       <c r="D289" t="n">
-        <v>34.68048929143898</v>
+        <v>47.44549283630001</v>
       </c>
       <c r="E289" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -6456,10 +6456,10 @@
         <v>11</v>
       </c>
       <c r="D290" t="n">
-        <v>27.70211210171769</v>
+        <v>42.06934715475921</v>
       </c>
       <c r="E290" t="n">
-        <v>337</v>
+        <v>14</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -6473,10 +6473,10 @@
         <v>6</v>
       </c>
       <c r="D291" t="n">
-        <v>16.18167737664441</v>
+        <v>30.75059956057419</v>
       </c>
       <c r="E291" t="n">
-        <v>22335</v>
+        <v>349</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -6490,10 +6490,10 @@
         <v>6</v>
       </c>
       <c r="D292" t="n">
-        <v>18.56032221412834</v>
+        <v>30.12172467490051</v>
       </c>
       <c r="E292" t="n">
-        <v>9347</v>
+        <v>420</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -6507,10 +6507,10 @@
         <v>6</v>
       </c>
       <c r="D293" t="n">
-        <v>31.18986703650927</v>
+        <v>40.56740204342412</v>
       </c>
       <c r="E293" t="n">
-        <v>108</v>
+        <v>23</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -6524,10 +6524,10 @@
         <v>6</v>
       </c>
       <c r="D294" t="n">
-        <v>29.5767872735353</v>
+        <v>40.5270947801806</v>
       </c>
       <c r="E294" t="n">
-        <v>190</v>
+        <v>24</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -6541,10 +6541,10 @@
         <v>6</v>
       </c>
       <c r="D295" t="n">
-        <v>13.29611058884747</v>
+        <v>25.87653901547185</v>
       </c>
       <c r="E295" t="n">
-        <v>58199</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -6558,10 +6558,10 @@
         <v>11</v>
       </c>
       <c r="D296" t="n">
-        <v>35.12362368259976</v>
+        <v>43.90046426441294</v>
       </c>
       <c r="E296" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -6575,10 +6575,10 @@
         <v>6</v>
       </c>
       <c r="D297" t="n">
-        <v>18.34751267652656</v>
+        <v>28.71566136050016</v>
       </c>
       <c r="E297" t="n">
-        <v>10114</v>
+        <v>615</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -6592,10 +6592,10 @@
         <v>11</v>
       </c>
       <c r="D298" t="n">
-        <v>26.29552046671716</v>
+        <v>38.65490778547561</v>
       </c>
       <c r="E298" t="n">
-        <v>563</v>
+        <v>38</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -6609,10 +6609,10 @@
         <v>6</v>
       </c>
       <c r="D299" t="n">
-        <v>24.22301330698354</v>
+        <v>36.27646859258455</v>
       </c>
       <c r="E299" t="n">
-        <v>1116</v>
+        <v>68</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -6626,10 +6626,10 @@
         <v>11</v>
       </c>
       <c r="D300" t="n">
-        <v>28.07528822885295</v>
+        <v>38.1230195098358</v>
       </c>
       <c r="E300" t="n">
-        <v>296</v>
+        <v>44</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -6643,10 +6643,10 @@
         <v>6</v>
       </c>
       <c r="D301" t="n">
-        <v>19.98825739668589</v>
+        <v>27.7049320514314</v>
       </c>
       <c r="E301" t="n">
-        <v>5286</v>
+        <v>853</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -6660,10 +6660,10 @@
         <v>6</v>
       </c>
       <c r="D302" t="n">
-        <v>19.98825739668589</v>
+        <v>27.7049320514314</v>
       </c>
       <c r="E302" t="n">
-        <v>5285</v>
+        <v>852</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -6677,10 +6677,10 @@
         <v>6</v>
       </c>
       <c r="D303" t="n">
-        <v>24.61958217989913</v>
+        <v>24.88469846600119</v>
       </c>
       <c r="E303" t="n">
-        <v>984</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -6694,10 +6694,10 @@
         <v>6</v>
       </c>
       <c r="D304" t="n">
-        <v>64.76730559071953</v>
+        <v>78.71353808290017</v>
       </c>
       <c r="E304" t="n">
-        <v>139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -6711,10 +6711,10 @@
         <v>11</v>
       </c>
       <c r="D305" t="n">
-        <v>87.12929910343209</v>
+        <v>88.27433342797688</v>
       </c>
       <c r="E305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -6728,10 +6728,10 @@
         <v>6</v>
       </c>
       <c r="D306" t="n">
-        <v>69.83689649565207</v>
+        <v>75.75239779505787</v>
       </c>
       <c r="E306" t="n">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -6745,10 +6745,10 @@
         <v>6</v>
       </c>
       <c r="D307" t="n">
-        <v>65.52609413063288</v>
+        <v>69.89383454840824</v>
       </c>
       <c r="E307" t="n">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -6762,10 +6762,10 @@
         <v>6</v>
       </c>
       <c r="D308" t="n">
-        <v>38.97862175520924</v>
+        <v>46.97958359951951</v>
       </c>
       <c r="E308" t="n">
-        <v>20789</v>
+        <v>10383</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -6779,10 +6779,10 @@
         <v>6</v>
       </c>
       <c r="D309" t="n">
-        <v>34.21071889943308</v>
+        <v>42.78147151475516</v>
       </c>
       <c r="E309" t="n">
-        <v>48189</v>
+        <v>23862</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -6796,10 +6796,10 @@
         <v>6</v>
       </c>
       <c r="D310" t="n">
-        <v>78.50979534687669</v>
+        <v>83.35305994591182</v>
       </c>
       <c r="E310" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -6813,10 +6813,10 @@
         <v>11</v>
       </c>
       <c r="D311" t="n">
-        <v>60.56939366418981</v>
+        <v>62.75791279816148</v>
       </c>
       <c r="E311" t="n">
-        <v>289</v>
+        <v>376</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -6830,10 +6830,10 @@
         <v>6</v>
       </c>
       <c r="D312" t="n">
-        <v>69.33257484650827</v>
+        <v>75.95024118451603</v>
       </c>
       <c r="E312" t="n">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -6847,10 +6847,10 @@
         <v>6</v>
       </c>
       <c r="D313" t="n">
-        <v>73.73993708389497</v>
+        <v>82.10882430247707</v>
       </c>
       <c r="E313" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -6864,10 +6864,10 @@
         <v>6</v>
       </c>
       <c r="D314" t="n">
-        <v>12.99107696638269</v>
+        <v>15.99259262661338</v>
       </c>
       <c r="E314" t="n">
-        <v>235618</v>
+        <v>233124</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -6881,10 +6881,10 @@
         <v>6</v>
       </c>
       <c r="D315" t="n">
-        <v>35.47262432807312</v>
+        <v>41.64614419275563</v>
       </c>
       <c r="E315" t="n">
-        <v>39131</v>
+        <v>29178</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -6898,10 +6898,10 @@
         <v>6</v>
       </c>
       <c r="D316" t="n">
-        <v>28.73198751369612</v>
+        <v>35.45343968706996</v>
       </c>
       <c r="E316" t="n">
-        <v>97922</v>
+        <v>72137</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -6915,10 +6915,10 @@
         <v>11</v>
       </c>
       <c r="D317" t="n">
-        <v>74.46376271776951</v>
+        <v>82.31138375796328</v>
       </c>
       <c r="E317" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -6932,10 +6932,10 @@
         <v>11</v>
       </c>
       <c r="D318" t="n">
-        <v>72.07755325560927</v>
+        <v>80.04281630302684</v>
       </c>
       <c r="E318" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -6949,10 +6949,10 @@
         <v>6</v>
       </c>
       <c r="D319" t="n">
-        <v>55.13162360351794</v>
+        <v>53.15937919573869</v>
       </c>
       <c r="E319" t="n">
-        <v>755</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -6966,10 +6966,10 @@
         <v>6</v>
       </c>
       <c r="D320" t="n">
-        <v>82.28148615854838</v>
+        <v>89.55063161532189</v>
       </c>
       <c r="E320" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -6983,10 +6983,10 @@
         <v>6</v>
       </c>
       <c r="D321" t="n">
-        <v>73.39447666328778</v>
+        <v>74.70744254529414</v>
       </c>
       <c r="E321" t="n">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -7000,10 +7000,10 @@
         <v>11</v>
       </c>
       <c r="D322" t="n">
-        <v>49.72975550167203</v>
+        <v>54.41606035342694</v>
       </c>
       <c r="E322" t="n">
-        <v>2191</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -7017,10 +7017,10 @@
         <v>11</v>
       </c>
       <c r="D323" t="n">
-        <v>69.6235208580446</v>
+        <v>72.49726431397166</v>
       </c>
       <c r="E323" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -7034,10 +7034,10 @@
         <v>6</v>
       </c>
       <c r="D324" t="n">
-        <v>68.4583206514146</v>
+        <v>74.09436473817681</v>
       </c>
       <c r="E324" t="n">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -7051,10 +7051,10 @@
         <v>6</v>
       </c>
       <c r="D325" t="n">
-        <v>77.80048748875193</v>
+        <v>84.07846276713376</v>
       </c>
       <c r="E325" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -7068,10 +7068,10 @@
         <v>11</v>
       </c>
       <c r="D326" t="n">
-        <v>67.88348274661772</v>
+        <v>72.80808724983915</v>
       </c>
       <c r="E326" t="n">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -7085,10 +7085,10 @@
         <v>6</v>
       </c>
       <c r="D327" t="n">
-        <v>78.62619748359543</v>
+        <v>88.01746301293156</v>
       </c>
       <c r="E327" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -7102,10 +7102,10 @@
         <v>6</v>
       </c>
       <c r="D328" t="n">
-        <v>70.42433290753522</v>
+        <v>77.71526618910654</v>
       </c>
       <c r="E328" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -7119,10 +7119,10 @@
         <v>6</v>
       </c>
       <c r="D329" t="n">
-        <v>53.30110254380267</v>
+        <v>63.16919448534282</v>
       </c>
       <c r="E329" t="n">
-        <v>1076</v>
+        <v>347</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -7136,10 +7136,10 @@
         <v>6</v>
       </c>
       <c r="D330" t="n">
-        <v>36.32221508433587</v>
+        <v>36.97180987786982</v>
       </c>
       <c r="E330" t="n">
-        <v>33872</v>
+        <v>59729</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -7153,10 +7153,10 @@
         <v>6</v>
       </c>
       <c r="D331" t="n">
-        <v>63.81256036201389</v>
+        <v>69.38698354120511</v>
       </c>
       <c r="E331" t="n">
-        <v>161</v>
+        <v>119</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -7170,10 +7170,10 @@
         <v>6</v>
       </c>
       <c r="D332" t="n">
-        <v>62.78858325645255</v>
+        <v>76.93868135492794</v>
       </c>
       <c r="E332" t="n">
-        <v>194</v>
+        <v>29</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -7187,10 +7187,10 @@
         <v>6</v>
       </c>
       <c r="D333" t="n">
-        <v>59.5077538205155</v>
+        <v>72.61980121320313</v>
       </c>
       <c r="E333" t="n">
-        <v>353</v>
+        <v>67</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -7204,10 +7204,10 @@
         <v>6</v>
       </c>
       <c r="D334" t="n">
-        <v>68.21611754004384</v>
+        <v>69.76858426443894</v>
       </c>
       <c r="E334" t="n">
-        <v>80</v>
+        <v>112</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -7221,10 +7221,10 @@
         <v>6</v>
       </c>
       <c r="D335" t="n">
-        <v>46.48593483897614</v>
+        <v>53.02026852580045</v>
       </c>
       <c r="E335" t="n">
-        <v>4331</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -7238,10 +7238,10 @@
         <v>6</v>
       </c>
       <c r="D336" t="n">
-        <v>70.94849495277887</v>
+        <v>73.18071433687031</v>
       </c>
       <c r="E336" t="n">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -7255,10 +7255,10 @@
         <v>6</v>
       </c>
       <c r="D337" t="n">
-        <v>38.49304830650649</v>
+        <v>43.30031172922465</v>
       </c>
       <c r="E337" t="n">
-        <v>22939</v>
+        <v>21621</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -7272,10 +7272,10 @@
         <v>6</v>
       </c>
       <c r="D338" t="n">
-        <v>42.7650212354697</v>
+        <v>43.6484895675882</v>
       </c>
       <c r="E338" t="n">
-        <v>9606</v>
+        <v>20219</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -7289,10 +7289,10 @@
         <v>6</v>
       </c>
       <c r="D339" t="n">
-        <v>47.67729469104857</v>
+        <v>51.70655323928119</v>
       </c>
       <c r="E339" t="n">
-        <v>3325</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -7306,10 +7306,10 @@
         <v>6</v>
       </c>
       <c r="D340" t="n">
-        <v>63.66939737939171</v>
+        <v>72.15629251395431</v>
       </c>
       <c r="E340" t="n">
-        <v>166</v>
+        <v>72</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -7323,10 +7323,10 @@
         <v>6</v>
       </c>
       <c r="D341" t="n">
-        <v>41.4344073579131</v>
+        <v>40.34601327662618</v>
       </c>
       <c r="E341" t="n">
-        <v>12698</v>
+        <v>36435</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -7340,10 +7340,10 @@
         <v>6</v>
       </c>
       <c r="D342" t="n">
-        <v>36.41078317150735</v>
+        <v>46.93073113511205</v>
       </c>
       <c r="E342" t="n">
-        <v>33339</v>
+        <v>10486</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -7357,10 +7357,10 @@
         <v>6</v>
       </c>
       <c r="D343" t="n">
-        <v>24.24845260457128</v>
+        <v>28.57174003087895</v>
       </c>
       <c r="E343" t="n">
-        <v>143756</v>
+        <v>138130</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -7374,10 +7374,10 @@
         <v>11</v>
       </c>
       <c r="D344" t="n">
-        <v>21.7429544780919</v>
+        <v>38.34325712308907</v>
       </c>
       <c r="E344" t="n">
-        <v>12865</v>
+        <v>167</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -7391,10 +7391,10 @@
         <v>6</v>
       </c>
       <c r="D345" t="n">
-        <v>28.61230222042994</v>
+        <v>30.98677736609073</v>
       </c>
       <c r="E345" t="n">
-        <v>1042</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -7408,10 +7408,10 @@
         <v>6</v>
       </c>
       <c r="D346" t="n">
-        <v>19.0685064641297</v>
+        <v>36.18011698978498</v>
       </c>
       <c r="E346" t="n">
-        <v>28411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -7425,10 +7425,10 @@
         <v>11</v>
       </c>
       <c r="D347" t="n">
-        <v>30.53067034247703</v>
+        <v>41.15671727464294</v>
       </c>
       <c r="E347" t="n">
-        <v>510</v>
+        <v>43</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -7442,10 +7442,10 @@
         <v>11</v>
       </c>
       <c r="D348" t="n">
-        <v>30.59250176733743</v>
+        <v>41.28785446479645</v>
       </c>
       <c r="E348" t="n">
-        <v>495</v>
+        <v>38</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -7459,10 +7459,10 @@
         <v>6</v>
       </c>
       <c r="D349" t="n">
-        <v>22.56980134753216</v>
+        <v>30.19838928734421</v>
       </c>
       <c r="E349" t="n">
-        <v>9821</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -7476,10 +7476,10 @@
         <v>6</v>
       </c>
       <c r="D350" t="n">
-        <v>12.06572688983967</v>
+        <v>27.83129147531106</v>
       </c>
       <c r="E350" t="n">
-        <v>127111</v>
+        <v>10353</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -7493,10 +7493,10 @@
         <v>6</v>
       </c>
       <c r="D351" t="n">
-        <v>23.80365807644264</v>
+        <v>39.46398757486535</v>
       </c>
       <c r="E351" t="n">
-        <v>6503</v>
+        <v>94</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -7510,10 +7510,10 @@
         <v>11</v>
       </c>
       <c r="D352" t="n">
-        <v>50.46024169209807</v>
+        <v>56.2365989268073</v>
       </c>
       <c r="E352" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -7527,10 +7527,10 @@
         <v>6</v>
       </c>
       <c r="D353" t="n">
-        <v>12.57521582460386</v>
+        <v>28.40119456769184</v>
       </c>
       <c r="E353" t="n">
-        <v>117274</v>
+        <v>8599</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -7544,10 +7544,10 @@
         <v>6</v>
       </c>
       <c r="D354" t="n">
-        <v>50.2766717130816</v>
+        <v>52.01654867283021</v>
       </c>
       <c r="E354" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -7561,10 +7561,10 @@
         <v>6</v>
       </c>
       <c r="D355" t="n">
-        <v>45.14820184735069</v>
+        <v>51.94640936192058</v>
       </c>
       <c r="E355" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -7578,10 +7578,10 @@
         <v>6</v>
       </c>
       <c r="D356" t="n">
-        <v>40.55159777358124</v>
+        <v>44.79672820411624</v>
       </c>
       <c r="E356" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -7595,10 +7595,10 @@
         <v>6</v>
       </c>
       <c r="D357" t="n">
-        <v>23.05044219098258</v>
+        <v>34.51932255102383</v>
       </c>
       <c r="E357" t="n">
-        <v>8390</v>
+        <v>858</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -7612,10 +7612,10 @@
         <v>6</v>
       </c>
       <c r="D358" t="n">
-        <v>24.12495771501196</v>
+        <v>39.18935209048945</v>
       </c>
       <c r="E358" t="n">
-        <v>5847</v>
+        <v>113</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -7629,10 +7629,10 @@
         <v>6</v>
       </c>
       <c r="D359" t="n">
-        <v>37.06500186303744</v>
+        <v>50.00808722210549</v>
       </c>
       <c r="E359" t="n">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -7646,10 +7646,10 @@
         <v>6</v>
       </c>
       <c r="D360" t="n">
-        <v>51.78184042064621</v>
+        <v>53.21408546231812</v>
       </c>
       <c r="E360" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -7663,10 +7663,10 @@
         <v>6</v>
       </c>
       <c r="D361" t="n">
-        <v>17.14480633464556</v>
+        <v>35.00237642550215</v>
       </c>
       <c r="E361" t="n">
-        <v>46943</v>
+        <v>694</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -7680,10 +7680,10 @@
         <v>6</v>
       </c>
       <c r="D362" t="n">
-        <v>29.90972566821413</v>
+        <v>37.72799246184871</v>
       </c>
       <c r="E362" t="n">
-        <v>665</v>
+        <v>217</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -7697,10 +7697,10 @@
         <v>6</v>
       </c>
       <c r="D363" t="n">
-        <v>38.20363209838636</v>
+        <v>40.79225543208769</v>
       </c>
       <c r="E363" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -7714,10 +7714,10 @@
         <v>6</v>
       </c>
       <c r="D364" t="n">
-        <v>10.83576481798363</v>
+        <v>12.50033784659738</v>
       </c>
       <c r="E364" t="n">
-        <v>150630</v>
+        <v>194529</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -7731,10 +7731,10 @@
         <v>6</v>
       </c>
       <c r="D365" t="n">
-        <v>7.686691651083537</v>
+        <v>9.841665326971512</v>
       </c>
       <c r="E365" t="n">
-        <v>207213</v>
+        <v>231300</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -7748,10 +7748,10 @@
         <v>6</v>
       </c>
       <c r="D366" t="n">
-        <v>16.75454647691324</v>
+        <v>28.47960399093687</v>
       </c>
       <c r="E366" t="n">
-        <v>51920</v>
+        <v>8354</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -7765,10 +7765,10 @@
         <v>6</v>
       </c>
       <c r="D367" t="n">
-        <v>19.94961499587451</v>
+        <v>34.85410995487847</v>
       </c>
       <c r="E367" t="n">
-        <v>22208</v>
+        <v>758</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -7782,10 +7782,10 @@
         <v>6</v>
       </c>
       <c r="D368" t="n">
-        <v>12.47788601674479</v>
+        <v>30.26900247560103</v>
       </c>
       <c r="E368" t="n">
-        <v>119142</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -7799,10 +7799,10 @@
         <v>6</v>
       </c>
       <c r="D369" t="n">
-        <v>46.76783177182738</v>
+        <v>47.06629177445747</v>
       </c>
       <c r="E369" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -7816,10 +7816,10 @@
         <v>6</v>
       </c>
       <c r="D370" t="n">
-        <v>5.927079447954115</v>
+        <v>22.13055783983308</v>
       </c>
       <c r="E370" t="n">
-        <v>235471</v>
+        <v>47789</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -7833,10 +7833,10 @@
         <v>6</v>
       </c>
       <c r="D371" t="n">
-        <v>17.90954981554566</v>
+        <v>21.38350051161609</v>
       </c>
       <c r="E371" t="n">
-        <v>38665</v>
+        <v>56288</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -7850,10 +7850,10 @@
         <v>6</v>
       </c>
       <c r="D372" t="n">
-        <v>46.89753561458051</v>
+        <v>51.17148250575942</v>
       </c>
       <c r="E372" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -7867,10 +7867,10 @@
         <v>6</v>
       </c>
       <c r="D373" t="n">
-        <v>37.57379771999864</v>
+        <v>40.9837643906616</v>
       </c>
       <c r="E373" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -7884,10 +7884,10 @@
         <v>6</v>
       </c>
       <c r="D374" t="n">
-        <v>44.45228893067831</v>
+        <v>44.95137832870337</v>
       </c>
       <c r="E374" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -7901,10 +7901,10 @@
         <v>11</v>
       </c>
       <c r="D375" t="n">
-        <v>6.721189893853484</v>
+        <v>29.06443586994198</v>
       </c>
       <c r="E375" t="n">
-        <v>224503</v>
+        <v>6798</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -7918,10 +7918,10 @@
         <v>6</v>
       </c>
       <c r="D376" t="n">
-        <v>20.05709232078267</v>
+        <v>32.60153775269519</v>
       </c>
       <c r="E376" t="n">
-        <v>21511</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -7935,10 +7935,10 @@
         <v>6</v>
       </c>
       <c r="D377" t="n">
-        <v>22.36420190934477</v>
+        <v>29.28125509509328</v>
       </c>
       <c r="E377" t="n">
-        <v>10582</v>
+        <v>6260</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -7952,10 +7952,10 @@
         <v>6</v>
       </c>
       <c r="D378" t="n">
-        <v>25.43912364673046</v>
+        <v>40.28044742159526</v>
       </c>
       <c r="E378" t="n">
-        <v>3473</v>
+        <v>57</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -7969,10 +7969,10 @@
         <v>6</v>
       </c>
       <c r="D379" t="n">
-        <v>34.1616868233238</v>
+        <v>42.1452560057792</v>
       </c>
       <c r="E379" t="n">
-        <v>131</v>
+        <v>28</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -7986,10 +7986,10 @@
         <v>11</v>
       </c>
       <c r="D380" t="n">
-        <v>28.00088811647041</v>
+        <v>33.95826423488659</v>
       </c>
       <c r="E380" t="n">
-        <v>1297</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -8003,10 +8003,10 @@
         <v>6</v>
       </c>
       <c r="D381" t="n">
-        <v>41.59713728325556</v>
+        <v>46.23152040249619</v>
       </c>
       <c r="E381" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -8020,10 +8020,10 @@
         <v>6</v>
       </c>
       <c r="D382" t="n">
-        <v>12.1869149776587</v>
+        <v>25.26539919327317</v>
       </c>
       <c r="E382" t="n">
-        <v>124716</v>
+        <v>21947</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -8037,10 +8037,10 @@
         <v>6</v>
       </c>
       <c r="D383" t="n">
-        <v>40.46173946069577</v>
+        <v>41.64952559337745</v>
       </c>
       <c r="E383" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -8054,10 +8054,10 @@
         <v>6</v>
       </c>
       <c r="D384" t="n">
-        <v>38.88634254071096</v>
+        <v>45.07763740290986</v>
       </c>
       <c r="E384" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -8071,10 +8071,10 @@
         <v>6</v>
       </c>
       <c r="D385" t="n">
-        <v>46.83127182491576</v>
+        <v>52.24790070146392</v>
       </c>
       <c r="E385" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -8088,10 +8088,10 @@
         <v>6</v>
       </c>
       <c r="D386" t="n">
-        <v>12.21775001955177</v>
+        <v>25.22917205499122</v>
       </c>
       <c r="E386" t="n">
-        <v>124132</v>
+        <v>22180</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -8105,10 +8105,10 @@
         <v>11</v>
       </c>
       <c r="D387" t="n">
-        <v>10.27101705733793</v>
+        <v>27.47746511391592</v>
       </c>
       <c r="E387" t="n">
-        <v>161711</v>
+        <v>11636</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -8122,10 +8122,10 @@
         <v>6</v>
       </c>
       <c r="D388" t="n">
-        <v>17.88589600601505</v>
+        <v>37.09142302722838</v>
       </c>
       <c r="E388" t="n">
-        <v>38939</v>
+        <v>304</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -8139,10 +8139,10 @@
         <v>6</v>
       </c>
       <c r="D389" t="n">
-        <v>22.17352430276184</v>
+        <v>34.11168767865853</v>
       </c>
       <c r="E389" t="n">
-        <v>11211</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -8156,10 +8156,10 @@
         <v>6</v>
       </c>
       <c r="D390" t="n">
-        <v>15.69899181671828</v>
+        <v>17.67591116822582</v>
       </c>
       <c r="E390" t="n">
-        <v>65634</v>
+        <v>109606</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -8173,10 +8173,10 @@
         <v>6</v>
       </c>
       <c r="D391" t="n">
-        <v>17.01199964103852</v>
+        <v>15.4059087880425</v>
       </c>
       <c r="E391" t="n">
-        <v>48595</v>
+        <v>148136</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -8190,10 +8190,10 @@
         <v>11</v>
       </c>
       <c r="D392" t="n">
-        <v>21.46799964238514</v>
+        <v>35.9753792527708</v>
       </c>
       <c r="E392" t="n">
-        <v>14005</v>
+        <v>467</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -8207,10 +8207,10 @@
         <v>6</v>
       </c>
       <c r="D393" t="n">
-        <v>10.14774168385975</v>
+        <v>13.73845558368947</v>
       </c>
       <c r="E393" t="n">
-        <v>164011</v>
+        <v>175059</v>
       </c>
     </row>
   </sheetData>
@@ -8284,28 +8284,28 @@
         <v>387</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0.24</v>
+        <v>0.44</v>
       </c>
       <c r="I2" t="n">
-        <v>0.18</v>
+        <v>0.4</v>
       </c>
       <c r="J2" t="n">
-        <v>0.12</v>
+        <v>0.23</v>
       </c>
       <c r="K2" t="n">
-        <v>0.054</v>
+        <v>0.064</v>
       </c>
       <c r="L2" t="n">
-        <v>0.032</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8322,7 +8322,7 @@
         <v>387</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0.2</v>
@@ -8331,19 +8331,19 @@
         <v>0.2</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="K3" t="n">
-        <v>0.022</v>
+        <v>0.03</v>
       </c>
       <c r="L3" t="n">
-        <v>0.012</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -8363,25 +8363,25 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.32</v>
+        <v>0.68</v>
       </c>
       <c r="I4" t="n">
-        <v>0.24</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>0.21</v>
+        <v>0.35</v>
       </c>
       <c r="K4" t="n">
-        <v>0.076</v>
+        <v>0.094</v>
       </c>
       <c r="L4" t="n">
-        <v>0.044</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -8398,28 +8398,28 @@
         <v>387</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.0263</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0789</v>
+        <v>0.1053</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1316</v>
+        <v>0.2105</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1579</v>
+        <v>0.2895</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2368</v>
+        <v>0.5263</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3158</v>
+        <v>0.6052999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7105</v>
+        <v>0.8421</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8421</v>
+        <v>0.9211</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -8436,7 +8436,7 @@
         <v>387</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0526</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0.0526</v>
@@ -8445,19 +8445,19 @@
         <v>0.1053</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1053</v>
+        <v>0.3158</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1579</v>
+        <v>0.4211</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4737</v>
+        <v>0.6316000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5789</v>
+        <v>0.7895</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6316000000000001</v>
+        <v>0.8421</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -8477,25 +8477,25 @@
         <v>0.0175</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0702</v>
+        <v>0.0877</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1228</v>
+        <v>0.1754</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1404</v>
+        <v>0.2982</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2105</v>
+        <v>0.4912</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3684</v>
+        <v>0.614</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6667</v>
+        <v>0.8246</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7719</v>
+        <v>0.8947000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8512,28 +8512,28 @@
         <v>387</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.0513</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1395</v>
+        <v>0.1861</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2084</v>
+        <v>0.3333</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1905</v>
+        <v>0.3492</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2045</v>
+        <v>0.4545</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1739</v>
+        <v>0.3333</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1004</v>
+        <v>0.119</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0617</v>
+        <v>0.0674</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8550,7 +8550,7 @@
         <v>387</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0999</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0.0833</v>
@@ -8559,19 +8559,19 @@
         <v>0.138</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.2727</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.2319</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1513</v>
+        <v>0.2017</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0424</v>
+        <v>0.0578</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0236</v>
+        <v>0.0314</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -8591,25 +8591,25 @@
         <v>0.0344</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1291</v>
+        <v>0.1613</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2089</v>
+        <v>0.2985</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1952</v>
+        <v>0.4146</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2243</v>
+        <v>0.5233</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2675</v>
+        <v>0.4459</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1364</v>
+        <v>0.1688</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0833</v>
+        <v>0.0965</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8629,25 +8629,25 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H11" t="n">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="I11" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="J11" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="K11" t="n">
-        <v>0.048</v>
+        <v>0.05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8670,19 +8670,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="I12" t="n">
         <v>0.14</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="K12" t="n">
-        <v>0.044</v>
+        <v>0.046</v>
       </c>
       <c r="L12" t="n">
         <v>0.024</v>
@@ -8705,25 +8705,25 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H13" t="n">
         <v>0.48</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="J13" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="K13" t="n">
-        <v>0.092</v>
+        <v>0.096</v>
       </c>
       <c r="L13" t="n">
-        <v>0.048</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -8743,25 +8743,25 @@
         <v>0.04</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="G14" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="H14" t="n">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="I14" t="n">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="J14" t="n">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="K14" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -8784,19 +8784,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0588</v>
+        <v>0.0294</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1176</v>
+        <v>0.0882</v>
       </c>
       <c r="I15" t="n">
         <v>0.2059</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2941</v>
+        <v>0.3529</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6471</v>
+        <v>0.6765</v>
       </c>
       <c r="L15" t="n">
         <v>0.7059</v>
@@ -8819,25 +8819,25 @@
         <v>0.0169</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0339</v>
+        <v>0.0508</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1017</v>
+        <v>0.1186</v>
       </c>
       <c r="H16" t="n">
         <v>0.2034</v>
       </c>
       <c r="I16" t="n">
-        <v>0.339</v>
+        <v>0.322</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4746</v>
+        <v>0.5254</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7796999999999999</v>
+        <v>0.8136</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8136</v>
+        <v>0.8305</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -8857,25 +8857,25 @@
         <v>0.0769</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1333</v>
+        <v>0.2</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2286</v>
+        <v>0.3429</v>
       </c>
       <c r="H17" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I17" t="n">
         <v>0.32</v>
       </c>
-      <c r="I17" t="n">
-        <v>0.3467</v>
-      </c>
       <c r="J17" t="n">
-        <v>0.288</v>
+        <v>0.304</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0914</v>
+        <v>0.09520000000000001</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0468</v>
+        <v>0.0488</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -8898,19 +8898,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.0454</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1356</v>
+        <v>0.1017</v>
       </c>
       <c r="I18" t="n">
         <v>0.1667</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1493</v>
+        <v>0.1791</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0824</v>
+        <v>0.0861</v>
       </c>
       <c r="L18" t="n">
         <v>0.0464</v>
@@ -8933,25 +8933,25 @@
         <v>0.0332</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0625</v>
+        <v>0.09370000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1739</v>
+        <v>0.2028</v>
       </c>
       <c r="H19" t="n">
         <v>0.2857</v>
       </c>
       <c r="I19" t="n">
-        <v>0.367</v>
+        <v>0.3486</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3522</v>
+        <v>0.3899</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1646</v>
+        <v>0.1717</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0907</v>
+        <v>0.0925</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -8974,19 +8974,19 @@
         <v>0.6</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H20" t="n">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="I20" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="J20" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.02</v>
+        <v>0.016</v>
       </c>
       <c r="L20" t="n">
         <v>0.01</v>
@@ -9009,25 +9009,25 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2</v>
+        <v>0.36</v>
       </c>
       <c r="I21" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="K21" t="n">
-        <v>0.04</v>
+        <v>0.046</v>
       </c>
       <c r="L21" t="n">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -9047,25 +9047,25 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
         <v>0.8</v>
       </c>
-      <c r="G22" t="n">
-        <v>0.6</v>
-      </c>
       <c r="H22" t="n">
-        <v>0.48</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="J22" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="K22" t="n">
-        <v>0.06</v>
+        <v>0.062</v>
       </c>
       <c r="L22" t="n">
-        <v>0.036</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -9088,19 +9088,19 @@
         <v>0.3</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I23" t="n">
         <v>0.7</v>
       </c>
-      <c r="I23" t="n">
-        <v>0.9</v>
-      </c>
       <c r="J23" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L23" t="n">
         <v>1</v>
@@ -9123,25 +9123,25 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0357</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07140000000000001</v>
+        <v>0.1786</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1786</v>
+        <v>0.3214</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2857</v>
+        <v>0.4286</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3571</v>
+        <v>0.4643</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7143</v>
+        <v>0.8214</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9286</v>
+        <v>0.8929</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -9161,25 +9161,25 @@
         <v>0.0263</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1053</v>
+        <v>0.1316</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1579</v>
+        <v>0.2105</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3158</v>
+        <v>0.3684</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4474</v>
+        <v>0.5</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5</v>
+        <v>0.5263</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7895</v>
+        <v>0.8158</v>
       </c>
       <c r="L25" t="n">
-        <v>0.9474</v>
+        <v>0.9211</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -9202,19 +9202,19 @@
         <v>0.4</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4</v>
+        <v>0.2857</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3</v>
+        <v>0.2333</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1636</v>
+        <v>0.1273</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0392</v>
+        <v>0.0314</v>
       </c>
       <c r="L26" t="n">
         <v>0.0198</v>
@@ -9237,25 +9237,25 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0606</v>
+        <v>0.1212</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1052</v>
+        <v>0.2632</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1887</v>
+        <v>0.3396</v>
       </c>
       <c r="I27" t="n">
-        <v>0.2051</v>
+        <v>0.3077</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1562</v>
+        <v>0.2031</v>
       </c>
       <c r="K27" t="n">
-        <v>0.07580000000000001</v>
+        <v>0.0871</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0506</v>
+        <v>0.0486</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -9275,25 +9275,25 @@
         <v>0.0513</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1861</v>
+        <v>0.2326</v>
       </c>
       <c r="G28" t="n">
-        <v>0.25</v>
+        <v>0.3333</v>
       </c>
       <c r="H28" t="n">
-        <v>0.381</v>
+        <v>0.4444</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3864</v>
+        <v>0.4318</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2754</v>
+        <v>0.2899</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1115</v>
+        <v>0.1152</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0694</v>
+        <v>0.0674</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -9313,16 +9313,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G29" t="n">
         <v>0.2</v>
       </c>
-      <c r="G29" t="n">
-        <v>0.3</v>
-      </c>
       <c r="H29" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="J29" t="n">
         <v>0.07000000000000001</v>
@@ -9348,28 +9348,28 @@
         <v>387</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2</v>
+        <v>0.36</v>
       </c>
       <c r="I30" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="J30" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="K30" t="n">
-        <v>0.032</v>
+        <v>0.034</v>
       </c>
       <c r="L30" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -9386,28 +9386,28 @@
         <v>387</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4</v>
+        <v>0.52</v>
       </c>
       <c r="I31" t="n">
-        <v>0.24</v>
+        <v>0.34</v>
       </c>
       <c r="J31" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="K31" t="n">
-        <v>0.056</v>
+        <v>0.058</v>
       </c>
       <c r="L31" t="n">
-        <v>0.03</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -9427,16 +9427,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0833</v>
+        <v>0.1667</v>
       </c>
       <c r="G32" t="n">
-        <v>0.25</v>
+        <v>0.1667</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4167</v>
+        <v>0.3333</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4167</v>
+        <v>0.5</v>
       </c>
       <c r="J32" t="n">
         <v>0.5833</v>
@@ -9462,28 +9462,28 @@
         <v>387</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.0303</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0303</v>
+        <v>0.0606</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0606</v>
+        <v>0.1212</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1515</v>
+        <v>0.2727</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2121</v>
+        <v>0.3333</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2424</v>
+        <v>0.4545</v>
       </c>
       <c r="K33" t="n">
-        <v>0.4848</v>
+        <v>0.5152</v>
       </c>
       <c r="L33" t="n">
-        <v>0.5455</v>
+        <v>0.7272999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -9500,28 +9500,28 @@
         <v>387</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.0222</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0444</v>
+        <v>0.08890000000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1111</v>
+        <v>0.1333</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2222</v>
+        <v>0.2889</v>
       </c>
       <c r="I34" t="n">
-        <v>0.2667</v>
+        <v>0.3778</v>
       </c>
       <c r="J34" t="n">
-        <v>0.3333</v>
+        <v>0.4889</v>
       </c>
       <c r="K34" t="n">
-        <v>0.6222</v>
+        <v>0.6444</v>
       </c>
       <c r="L34" t="n">
-        <v>0.6667</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -9541,16 +9541,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1176</v>
+        <v>0.2353</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2727</v>
+        <v>0.1818</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2703</v>
+        <v>0.2162</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1613</v>
+        <v>0.1935</v>
       </c>
       <c r="J35" t="n">
         <v>0.125</v>
@@ -9576,28 +9576,28 @@
         <v>387</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.0588</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0526</v>
+        <v>0.1053</v>
       </c>
       <c r="G36" t="n">
-        <v>0.093</v>
+        <v>0.186</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1724</v>
+        <v>0.3103</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1687</v>
+        <v>0.265</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1203</v>
+        <v>0.2256</v>
       </c>
       <c r="K36" t="n">
-        <v>0.06</v>
+        <v>0.0638</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0349</v>
+        <v>0.0465</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -9614,28 +9614,28 @@
         <v>387</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.0434</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0799</v>
+        <v>0.16</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1818</v>
+        <v>0.2181</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2857</v>
+        <v>0.3714</v>
       </c>
       <c r="I37" t="n">
-        <v>0.2526</v>
+        <v>0.3579</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2069</v>
+        <v>0.3035</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1028</v>
+        <v>0.1064</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0574</v>
+        <v>0.0689</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -9652,7 +9652,7 @@
         <v>387</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0.2</v>
@@ -9661,19 +9661,19 @@
         <v>0.2</v>
       </c>
       <c r="H38" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I38" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="J38" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K38" t="n">
-        <v>0.012</v>
+        <v>0.018</v>
       </c>
       <c r="L38" t="n">
-        <v>0.006</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -9690,28 +9690,28 @@
         <v>387</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G39" t="n">
         <v>0.3</v>
       </c>
       <c r="H39" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I39" t="n">
         <v>0.16</v>
       </c>
-      <c r="I39" t="n">
-        <v>0.1</v>
-      </c>
       <c r="J39" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="K39" t="n">
-        <v>0.018</v>
+        <v>0.028</v>
       </c>
       <c r="L39" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -9731,7 +9731,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="G40" t="n">
         <v>0.5</v>
@@ -9740,16 +9740,16 @@
         <v>0.24</v>
       </c>
       <c r="I40" t="n">
-        <v>0.16</v>
+        <v>0.28</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="K40" t="n">
-        <v>0.03</v>
+        <v>0.046</v>
       </c>
       <c r="L40" t="n">
-        <v>0.016</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -9766,7 +9766,7 @@
         <v>387</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0.1</v>
@@ -9775,19 +9775,19 @@
         <v>0.2</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I41" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="J41" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="K41" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="L41" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -9804,28 +9804,28 @@
         <v>387</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>0.0526</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>0.1579</v>
       </c>
       <c r="G42" t="n">
         <v>0.1579</v>
       </c>
       <c r="H42" t="n">
-        <v>0.2105</v>
+        <v>0.1579</v>
       </c>
       <c r="I42" t="n">
-        <v>0.2632</v>
+        <v>0.4211</v>
       </c>
       <c r="J42" t="n">
-        <v>0.3684</v>
+        <v>0.6316000000000001</v>
       </c>
       <c r="K42" t="n">
-        <v>0.4737</v>
+        <v>0.7368</v>
       </c>
       <c r="L42" t="n">
-        <v>0.5263</v>
+        <v>0.7895</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -9845,7 +9845,7 @@
         <v>0.0345</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0345</v>
+        <v>0.1379</v>
       </c>
       <c r="G43" t="n">
         <v>0.1724</v>
@@ -9854,16 +9854,16 @@
         <v>0.2069</v>
       </c>
       <c r="I43" t="n">
-        <v>0.2759</v>
+        <v>0.4828</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3448</v>
+        <v>0.6552</v>
       </c>
       <c r="K43" t="n">
-        <v>0.5172</v>
+        <v>0.7931</v>
       </c>
       <c r="L43" t="n">
-        <v>0.5517</v>
+        <v>0.8621</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -9880,7 +9880,7 @@
         <v>387</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1818</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0.1333</v>
@@ -9889,19 +9889,19 @@
         <v>0.2</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1143</v>
+        <v>0.1714</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0545</v>
+        <v>0.1273</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0235</v>
+        <v>0.0353</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0119</v>
+        <v>0.0198</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -9918,28 +9918,28 @@
         <v>387</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>0.0999</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G45" t="n">
         <v>0.2069</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1818</v>
+        <v>0.1364</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1449</v>
+        <v>0.2319</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1176</v>
+        <v>0.2017</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0347</v>
+        <v>0.0539</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0196</v>
+        <v>0.0294</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -9959,7 +9959,7 @@
         <v>0.0667</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0588</v>
+        <v>0.2352</v>
       </c>
       <c r="G46" t="n">
         <v>0.2564</v>
@@ -9968,16 +9968,16 @@
         <v>0.2222</v>
       </c>
       <c r="I46" t="n">
-        <v>0.2025</v>
+        <v>0.3544</v>
       </c>
       <c r="J46" t="n">
-        <v>0.155</v>
+        <v>0.2946</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0567</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0311</v>
+        <v>0.0486</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -9994,28 +9994,28 @@
         <v>387</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
         <v>0.2</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H47" t="n">
-        <v>0.04</v>
+        <v>0.28</v>
       </c>
       <c r="I47" t="n">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="J47" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="K47" t="n">
-        <v>0.016</v>
+        <v>0.026</v>
       </c>
       <c r="L47" t="n">
-        <v>0.01</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -10035,25 +10035,25 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="I48" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="J48" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K48" t="n">
-        <v>0.014</v>
+        <v>0.02</v>
       </c>
       <c r="L48" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -10070,28 +10070,28 @@
         <v>387</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1</v>
+        <v>0.28</v>
       </c>
       <c r="J49" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="K49" t="n">
-        <v>0.03</v>
+        <v>0.046</v>
       </c>
       <c r="L49" t="n">
-        <v>0.019</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -10108,28 +10108,28 @@
         <v>387</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="F50" t="n">
         <v>0.07140000000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>0.07140000000000001</v>
+        <v>0.2143</v>
       </c>
       <c r="H50" t="n">
-        <v>0.07140000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="I50" t="n">
-        <v>0.2143</v>
+        <v>0.6429</v>
       </c>
       <c r="J50" t="n">
-        <v>0.2857</v>
+        <v>0.6429</v>
       </c>
       <c r="K50" t="n">
-        <v>0.5714</v>
+        <v>0.9286</v>
       </c>
       <c r="L50" t="n">
-        <v>0.7143</v>
+        <v>0.9286</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -10149,25 +10149,25 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>0.1176</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>0.1176</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>0.2353</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1176</v>
+        <v>0.2941</v>
       </c>
       <c r="J51" t="n">
-        <v>0.2353</v>
+        <v>0.4118</v>
       </c>
       <c r="K51" t="n">
-        <v>0.4118</v>
+        <v>0.5881999999999999</v>
       </c>
       <c r="L51" t="n">
-        <v>0.5294</v>
+        <v>0.7647</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -10184,28 +10184,28 @@
         <v>387</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>0.0323</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0323</v>
+        <v>0.0968</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0323</v>
+        <v>0.1613</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0323</v>
+        <v>0.3548</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1613</v>
+        <v>0.4516</v>
       </c>
       <c r="J52" t="n">
-        <v>0.2581</v>
+        <v>0.5161</v>
       </c>
       <c r="K52" t="n">
-        <v>0.4839</v>
+        <v>0.7419</v>
       </c>
       <c r="L52" t="n">
-        <v>0.6129</v>
+        <v>0.8387</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -10222,28 +10222,28 @@
         <v>387</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>0.1333</v>
       </c>
       <c r="F53" t="n">
         <v>0.1052</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0833</v>
+        <v>0.25</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0513</v>
+        <v>0.359</v>
       </c>
       <c r="I53" t="n">
-        <v>0.09379999999999999</v>
+        <v>0.2813</v>
       </c>
       <c r="J53" t="n">
-        <v>0.0702</v>
+        <v>0.1579</v>
       </c>
       <c r="K53" t="n">
-        <v>0.0311</v>
+        <v>0.0506</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0197</v>
+        <v>0.0256</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -10263,25 +10263,25 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>0.1818</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>0.1481</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>0.1905</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0597</v>
+        <v>0.1493</v>
       </c>
       <c r="J54" t="n">
-        <v>0.0684</v>
+        <v>0.1197</v>
       </c>
       <c r="K54" t="n">
-        <v>0.0271</v>
+        <v>0.0387</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0177</v>
+        <v>0.0256</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -10298,28 +10298,28 @@
         <v>387</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>0.0626</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0556</v>
+        <v>0.1667</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0488</v>
+        <v>0.2439</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0357</v>
+        <v>0.3928</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1235</v>
+        <v>0.3457</v>
       </c>
       <c r="J55" t="n">
-        <v>0.1221</v>
+        <v>0.2443</v>
       </c>
       <c r="K55" t="n">
-        <v>0.0565</v>
+        <v>0.0866</v>
       </c>
       <c r="L55" t="n">
-        <v>0.0369</v>
+        <v>0.0504</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -10342,7 +10342,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H56" t="n">
         <v>0.08</v>
@@ -10351,7 +10351,7 @@
         <v>0.06</v>
       </c>
       <c r="J56" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="K56" t="n">
         <v>0.01</v>
@@ -10380,13 +10380,13 @@
         <v>0.8</v>
       </c>
       <c r="G57" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H57" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="I57" t="n">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="J57" t="n">
         <v>0.2</v>
@@ -10421,13 +10421,13 @@
         <v>0.8</v>
       </c>
       <c r="H58" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="I58" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="J58" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="K58" t="n">
         <v>0.05</v>
@@ -10456,7 +10456,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H59" t="n">
         <v>0.4</v>
@@ -10465,7 +10465,7 @@
         <v>0.6</v>
       </c>
       <c r="J59" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="K59" t="n">
         <v>1</v>
@@ -10494,13 +10494,13 @@
         <v>0.2</v>
       </c>
       <c r="G60" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="H60" t="n">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="I60" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -10535,13 +10535,13 @@
         <v>0.32</v>
       </c>
       <c r="H61" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="I61" t="n">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="J61" t="n">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="K61" t="n">
         <v>1</v>
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>0.1333</v>
       </c>
       <c r="H62" t="n">
         <v>0.1333</v>
@@ -10579,7 +10579,7 @@
         <v>0.1091</v>
       </c>
       <c r="J62" t="n">
-        <v>0.0762</v>
+        <v>0.0571</v>
       </c>
       <c r="K62" t="n">
         <v>0.0198</v>
@@ -10608,13 +10608,13 @@
         <v>0.32</v>
       </c>
       <c r="G63" t="n">
-        <v>0.5333</v>
+        <v>0.4667</v>
       </c>
       <c r="H63" t="n">
-        <v>0.6222</v>
+        <v>0.5778</v>
       </c>
       <c r="I63" t="n">
-        <v>0.4857</v>
+        <v>0.5143</v>
       </c>
       <c r="J63" t="n">
         <v>0.3333</v>
@@ -10649,13 +10649,13 @@
         <v>0.4571</v>
       </c>
       <c r="H64" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="I64" t="n">
-        <v>0.5333</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J64" t="n">
-        <v>0.384</v>
+        <v>0.368</v>
       </c>
       <c r="K64" t="n">
         <v>0.09520000000000001</v>
@@ -10678,7 +10678,7 @@
         <v>387</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
         <v>0.2</v>
@@ -10690,16 +10690,16 @@
         <v>0.04</v>
       </c>
       <c r="I65" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="J65" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K65" t="n">
         <v>0.01</v>
       </c>
-      <c r="K65" t="n">
-        <v>0.004</v>
-      </c>
       <c r="L65" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -10716,7 +10716,7 @@
         <v>387</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
         <v>0.8</v>
@@ -10725,19 +10725,19 @@
         <v>0.7</v>
       </c>
       <c r="H66" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="I66" t="n">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="J66" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="K66" t="n">
-        <v>0.03</v>
+        <v>0.042</v>
       </c>
       <c r="L66" t="n">
-        <v>0.016</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -10763,19 +10763,19 @@
         <v>0.8</v>
       </c>
       <c r="H67" t="n">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="I67" t="n">
-        <v>0.28</v>
+        <v>0.36</v>
       </c>
       <c r="J67" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="K67" t="n">
-        <v>0.034</v>
+        <v>0.052</v>
       </c>
       <c r="L67" t="n">
-        <v>0.019</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -10792,7 +10792,7 @@
         <v>387</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="F68" t="n">
         <v>0.125</v>
@@ -10804,16 +10804,16 @@
         <v>0.125</v>
       </c>
       <c r="I68" t="n">
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="J68" t="n">
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="K68" t="n">
-        <v>0.25</v>
+        <v>0.625</v>
       </c>
       <c r="L68" t="n">
-        <v>0.375</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -10830,7 +10830,7 @@
         <v>387</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0238</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
         <v>0.09520000000000001</v>
@@ -10839,19 +10839,19 @@
         <v>0.1667</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2381</v>
+        <v>0.2619</v>
       </c>
       <c r="I69" t="n">
-        <v>0.3095</v>
+        <v>0.3571</v>
       </c>
       <c r="J69" t="n">
-        <v>0.3333</v>
+        <v>0.4048</v>
       </c>
       <c r="K69" t="n">
-        <v>0.3571</v>
+        <v>0.5</v>
       </c>
       <c r="L69" t="n">
-        <v>0.381</v>
+        <v>0.5714</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -10877,19 +10877,19 @@
         <v>0.16</v>
       </c>
       <c r="H70" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="I70" t="n">
-        <v>0.28</v>
+        <v>0.36</v>
       </c>
       <c r="J70" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="K70" t="n">
-        <v>0.34</v>
+        <v>0.52</v>
       </c>
       <c r="L70" t="n">
-        <v>0.38</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -10906,7 +10906,7 @@
         <v>387</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>0.2222</v>
       </c>
       <c r="F71" t="n">
         <v>0.1538</v>
@@ -10918,16 +10918,16 @@
         <v>0.0606</v>
       </c>
       <c r="I71" t="n">
-        <v>0.0345</v>
+        <v>0.1034</v>
       </c>
       <c r="J71" t="n">
-        <v>0.0185</v>
+        <v>0.0556</v>
       </c>
       <c r="K71" t="n">
-        <v>0.007900000000000001</v>
+        <v>0.0197</v>
       </c>
       <c r="L71" t="n">
-        <v>0.006</v>
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -10944,7 +10944,7 @@
         <v>387</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0465</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
         <v>0.1702</v>
@@ -10953,19 +10953,19 @@
         <v>0.2693</v>
       </c>
       <c r="H72" t="n">
-        <v>0.2985</v>
+        <v>0.3284</v>
       </c>
       <c r="I72" t="n">
-        <v>0.2826</v>
+        <v>0.3261</v>
       </c>
       <c r="J72" t="n">
-        <v>0.1972</v>
+        <v>0.2394</v>
       </c>
       <c r="K72" t="n">
-        <v>0.0554</v>
+        <v>0.0775</v>
       </c>
       <c r="L72" t="n">
-        <v>0.0307</v>
+        <v>0.0461</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -10991,19 +10991,19 @@
         <v>0.2667</v>
       </c>
       <c r="H73" t="n">
-        <v>0.2933</v>
+        <v>0.32</v>
       </c>
       <c r="I73" t="n">
-        <v>0.28</v>
+        <v>0.36</v>
       </c>
       <c r="J73" t="n">
-        <v>0.2</v>
+        <v>0.2667</v>
       </c>
       <c r="K73" t="n">
-        <v>0.0618</v>
+        <v>0.0945</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0362</v>
+        <v>0.0552</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -11020,16 +11020,16 @@
         <v>387</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
         <v>0.2</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H74" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I74" t="n">
         <v>0.06</v>
@@ -11058,25 +11058,25 @@
         <v>387</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="G75" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="I75" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="J75" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="K75" t="n">
-        <v>0.036</v>
+        <v>0.038</v>
       </c>
       <c r="L75" t="n">
         <v>0.019</v>
@@ -11099,22 +11099,22 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H76" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I76" t="n">
         <v>0.28</v>
       </c>
-      <c r="I76" t="n">
-        <v>0.22</v>
-      </c>
       <c r="J76" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="K76" t="n">
-        <v>0.048</v>
+        <v>0.05</v>
       </c>
       <c r="L76" t="n">
         <v>0.025</v>
@@ -11134,16 +11134,16 @@
         <v>387</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1429</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
         <v>0.1429</v>
       </c>
       <c r="G77" t="n">
-        <v>0.1429</v>
+        <v>0.2857</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2857</v>
+        <v>0.4286</v>
       </c>
       <c r="I77" t="n">
         <v>0.4286</v>
@@ -11172,25 +11172,25 @@
         <v>387</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>0.0303</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0606</v>
+        <v>0.1212</v>
       </c>
       <c r="G78" t="n">
-        <v>0.1212</v>
+        <v>0.1515</v>
       </c>
       <c r="H78" t="n">
-        <v>0.1515</v>
+        <v>0.2121</v>
       </c>
       <c r="I78" t="n">
-        <v>0.2424</v>
+        <v>0.3333</v>
       </c>
       <c r="J78" t="n">
-        <v>0.3636</v>
+        <v>0.4545</v>
       </c>
       <c r="K78" t="n">
-        <v>0.5455</v>
+        <v>0.5758</v>
       </c>
       <c r="L78" t="n">
         <v>0.5758</v>
@@ -11213,22 +11213,22 @@
         <v>0.025</v>
       </c>
       <c r="F79" t="n">
-        <v>0.075</v>
+        <v>0.125</v>
       </c>
       <c r="G79" t="n">
-        <v>0.125</v>
+        <v>0.175</v>
       </c>
       <c r="H79" t="n">
-        <v>0.175</v>
+        <v>0.25</v>
       </c>
       <c r="I79" t="n">
-        <v>0.275</v>
+        <v>0.35</v>
       </c>
       <c r="J79" t="n">
-        <v>0.425</v>
+        <v>0.5</v>
       </c>
       <c r="K79" t="n">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="L79" t="n">
         <v>0.625</v>
@@ -11248,16 +11248,16 @@
         <v>387</v>
       </c>
       <c r="E80" t="n">
-        <v>0.2501</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
         <v>0.1667</v>
       </c>
       <c r="G80" t="n">
-        <v>0.1177</v>
+        <v>0.2353</v>
       </c>
       <c r="H80" t="n">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="I80" t="n">
         <v>0.1053</v>
@@ -11286,25 +11286,25 @@
         <v>387</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>0.0588</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1053</v>
+        <v>0.2105</v>
       </c>
       <c r="G81" t="n">
-        <v>0.186</v>
+        <v>0.2325</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1724</v>
+        <v>0.2414</v>
       </c>
       <c r="I81" t="n">
-        <v>0.1928</v>
+        <v>0.265</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1804</v>
+        <v>0.2256</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0675</v>
+        <v>0.0713</v>
       </c>
       <c r="L81" t="n">
         <v>0.0368</v>
@@ -11327,22 +11327,22 @@
         <v>0.0488</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1333</v>
+        <v>0.2222</v>
       </c>
       <c r="G82" t="n">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2154</v>
+        <v>0.3077</v>
       </c>
       <c r="I82" t="n">
-        <v>0.2444</v>
+        <v>0.3111</v>
       </c>
       <c r="J82" t="n">
-        <v>0.2429</v>
+        <v>0.2857</v>
       </c>
       <c r="K82" t="n">
-        <v>0.08890000000000001</v>
+        <v>0.0926</v>
       </c>
       <c r="L82" t="n">
         <v>0.0481</v>
@@ -11365,7 +11365,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G83" t="n">
         <v>0.2</v>
@@ -11403,22 +11403,22 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G84" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H84" t="n">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="I84" t="n">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="J84" t="n">
         <v>0.15</v>
       </c>
       <c r="K84" t="n">
-        <v>0.032</v>
+        <v>0.03</v>
       </c>
       <c r="L84" t="n">
         <v>0.016</v>
@@ -11444,19 +11444,19 @@
         <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I85" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="J85" t="n">
         <v>0.17</v>
       </c>
       <c r="K85" t="n">
-        <v>0.036</v>
+        <v>0.034</v>
       </c>
       <c r="L85" t="n">
         <v>0.018</v>
@@ -11479,7 +11479,7 @@
         <v>0.5</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -11517,22 +11517,22 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1875</v>
+        <v>0.25</v>
       </c>
       <c r="G87" t="n">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="H87" t="n">
-        <v>0.8125</v>
+        <v>0.75</v>
       </c>
       <c r="I87" t="n">
-        <v>0.875</v>
+        <v>0.9375</v>
       </c>
       <c r="J87" t="n">
         <v>0.9375</v>
       </c>
       <c r="K87" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="L87" t="n">
         <v>1</v>
@@ -11558,19 +11558,19 @@
         <v>0.2778</v>
       </c>
       <c r="G88" t="n">
-        <v>0.5556</v>
+        <v>0.5</v>
       </c>
       <c r="H88" t="n">
-        <v>0.8333</v>
+        <v>0.7778</v>
       </c>
       <c r="I88" t="n">
-        <v>0.8889</v>
+        <v>0.9444</v>
       </c>
       <c r="J88" t="n">
         <v>0.9444</v>
       </c>
       <c r="K88" t="n">
-        <v>1</v>
+        <v>0.9444</v>
       </c>
       <c r="L88" t="n">
         <v>1</v>
@@ -11593,7 +11593,7 @@
         <v>0.6667</v>
       </c>
       <c r="F89" t="n">
-        <v>0.5714</v>
+        <v>0.2857</v>
       </c>
       <c r="G89" t="n">
         <v>0.3333</v>
@@ -11631,22 +11631,22 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.2857</v>
+        <v>0.381</v>
       </c>
       <c r="G90" t="n">
-        <v>0.6153999999999999</v>
+        <v>0.5385</v>
       </c>
       <c r="H90" t="n">
-        <v>0.6341</v>
+        <v>0.5854</v>
       </c>
       <c r="I90" t="n">
-        <v>0.4242</v>
+        <v>0.4545</v>
       </c>
       <c r="J90" t="n">
         <v>0.2586</v>
       </c>
       <c r="K90" t="n">
-        <v>0.062</v>
+        <v>0.0581</v>
       </c>
       <c r="L90" t="n">
         <v>0.0315</v>
@@ -11672,19 +11672,19 @@
         <v>0.4348</v>
       </c>
       <c r="G91" t="n">
-        <v>0.7143</v>
+        <v>0.6429</v>
       </c>
       <c r="H91" t="n">
-        <v>0.6977</v>
+        <v>0.6512</v>
       </c>
       <c r="I91" t="n">
-        <v>0.4706</v>
+        <v>0.5</v>
       </c>
       <c r="J91" t="n">
         <v>0.2881</v>
       </c>
       <c r="K91" t="n">
-        <v>0.06950000000000001</v>
+        <v>0.06560000000000001</v>
       </c>
       <c r="L91" t="n">
         <v>0.0354</v>
@@ -11761,28 +11761,28 @@
         <v>387</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04649122807017544</v>
+        <v>0.09342105263157895</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07134502923976609</v>
+        <v>0.1843253968253968</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08187134502923976</v>
+        <v>0.2422600060757956</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09619074035550007</v>
+        <v>0.344390579457899</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1081500731542511</v>
+        <v>0.3705807355633606</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1487399901439687</v>
+        <v>0.4086135882984158</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1546229613120953</v>
+        <v>0.4122736368604748</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -11799,28 +11799,28 @@
         <v>387</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07017543859649122</v>
+        <v>0.02807017543859649</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07017543859649122</v>
+        <v>0.08157377538182491</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07581453634085213</v>
+        <v>0.1062174961206221</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1007441413464008</v>
+        <v>0.1345859744745369</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1032856840784588</v>
+        <v>0.1440198584401094</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1043976188449525</v>
+        <v>0.1449100331368936</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -11840,25 +11840,25 @@
         <v>0.01754385964912281</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.1754385964912281</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1146198830409357</v>
+        <v>0.2847296494355318</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1333987141767462</v>
+        <v>0.4079231936738274</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1676948952223256</v>
+        <v>0.4621117766025064</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2111016891236671</v>
+        <v>0.5089436211122449</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2178093430461533</v>
+        <v>0.5134111995521249</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -11878,25 +11878,25 @@
         <v>0.04</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.09666666666666666</v>
       </c>
       <c r="G5" t="n">
-        <v>0.096</v>
+        <v>0.1759047619047619</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1592781228433402</v>
+        <v>0.2309047619047619</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2142189042841216</v>
+        <v>0.2675761036532425</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2584826946377486</v>
+        <v>0.3275919668389091</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2795322780377943</v>
+        <v>0.3588961853654146</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2795322780377943</v>
+        <v>0.3588961853654146</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -11919,22 +11919,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01330532212885154</v>
+        <v>0.00326797385620915</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02544024602848132</v>
+        <v>0.01214497920380273</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03861550475684628</v>
+        <v>0.03120440330077377</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0491457954199116</v>
+        <v>0.05246520084227009</v>
       </c>
       <c r="K6" t="n">
-        <v>0.07020028448844828</v>
+        <v>0.08202516086438756</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0726718778702046</v>
+        <v>0.08321551896378247</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -11954,25 +11954,25 @@
         <v>0.01694915254237288</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02824858757062147</v>
+        <v>0.04096045197740113</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06599408124831853</v>
+        <v>0.08753026634382567</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1239410266307834</v>
+        <v>0.1372499816567613</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1796401754066362</v>
+        <v>0.192105936602315</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2247950587022411</v>
+        <v>0.2637475511054744</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2681698451443185</v>
+        <v>0.3252083873405967</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2710516298412992</v>
+        <v>0.3266089075338113</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -11992,25 +11992,25 @@
         <v>0.1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2266666666666667</v>
+        <v>0.275</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2933333333333333</v>
+        <v>0.275</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3882142857142857</v>
+        <v>0.332085020242915</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4385651629072681</v>
+        <v>0.368215556373451</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4385651629072681</v>
+        <v>0.368215556373451</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4463171008917642</v>
+        <v>0.371971424918052</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4463171008917642</v>
+        <v>0.3750678229693258</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -12030,25 +12030,25 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.02619047619047619</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02678571428571428</v>
+        <v>0.07331349206349207</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05403828197945845</v>
+        <v>0.1269637703566275</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07620500414618062</v>
+        <v>0.1533243145743146</v>
       </c>
       <c r="J9" t="n">
-        <v>0.08656131450249097</v>
+        <v>0.1583708984252463</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1166485767155844</v>
+        <v>0.1919458781788018</v>
       </c>
       <c r="L9" t="n">
-        <v>0.12291744919216</v>
+        <v>0.1942012883631318</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -12068,25 +12068,25 @@
         <v>0.02631578947368421</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1416666666666667</v>
+        <v>0.1928362573099415</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2282384883778072</v>
+        <v>0.2911638853605613</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2866606602348821</v>
+        <v>0.3457556751497195</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3015238672033523</v>
+        <v>0.3514764989483465</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3431021372507549</v>
+        <v>0.389883209521653</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3497049226750967</v>
+        <v>0.3950203839255456</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -12106,25 +12106,25 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.06944444444444443</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07361111111111111</v>
+        <v>0.06944444444444443</v>
       </c>
       <c r="H11" t="n">
-        <v>0.114781746031746</v>
+        <v>0.1054292929292929</v>
       </c>
       <c r="I11" t="n">
-        <v>0.114781746031746</v>
+        <v>0.1299812642554578</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1274809262841178</v>
+        <v>0.1359336452078388</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1473054014624592</v>
+        <v>0.1627457366876876</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1473054014624592</v>
+        <v>0.1627457366876876</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -12141,28 +12141,28 @@
         <v>387</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="F12" t="n">
-        <v>0.006060606060606061</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01471861471861472</v>
+        <v>0.08543771043771044</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03494259363824581</v>
+        <v>0.1496544670980849</v>
       </c>
       <c r="I12" t="n">
-        <v>0.04460442938703809</v>
+        <v>0.1728037316266598</v>
       </c>
       <c r="J12" t="n">
-        <v>0.04702867181128052</v>
+        <v>0.1969409160330366</v>
       </c>
       <c r="K12" t="n">
-        <v>0.06481036043160732</v>
+        <v>0.1992160576843966</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06675569185017698</v>
+        <v>0.2052947101236826</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -12179,28 +12179,28 @@
         <v>387</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01444444444444445</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04936507936507937</v>
+        <v>0.1175925925925926</v>
       </c>
       <c r="H13" t="n">
-        <v>0.09832528180354269</v>
+        <v>0.2119091531751378</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1109125067096082</v>
+        <v>0.2552338137930873</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1213073364661401</v>
+        <v>0.2858785764062305</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1557502234997385</v>
+        <v>0.3070184980745842</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1581568425989152</v>
+        <v>0.3140630537826791</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -12217,28 +12217,28 @@
         <v>387</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="G14" t="n">
-        <v>0.12</v>
+        <v>0.05555555555555556</v>
       </c>
       <c r="H14" t="n">
-        <v>0.12</v>
+        <v>0.07430555555555556</v>
       </c>
       <c r="I14" t="n">
-        <v>0.12625</v>
+        <v>0.1076751207729469</v>
       </c>
       <c r="J14" t="n">
-        <v>0.12625</v>
+        <v>0.1148916156183077</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1331345785440613</v>
+        <v>0.1260178374627616</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1331345785440613</v>
+        <v>0.1275329889779131</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -12255,28 +12255,28 @@
         <v>387</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.1447368421052632</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03947368421052631</v>
+        <v>0.1447368421052632</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05861244019138757</v>
+        <v>0.1447368421052632</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06738437001594898</v>
+        <v>0.1859732838149625</v>
       </c>
       <c r="J15" t="n">
-        <v>0.07737447566211411</v>
+        <v>0.2158078980816636</v>
       </c>
       <c r="K15" t="n">
-        <v>0.07963350065211515</v>
+        <v>0.2231423259549688</v>
       </c>
       <c r="L15" t="n">
-        <v>0.08039407260222163</v>
+        <v>0.2243895197688875</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -12296,25 +12296,25 @@
         <v>0.03448275862068965</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03448275862068965</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="G16" t="n">
-        <v>0.09147509578544061</v>
+        <v>0.157088122605364</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1102838732149077</v>
+        <v>0.1700191570881226</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1240769766631836</v>
+        <v>0.2411196014055952</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1337170929300956</v>
+        <v>0.2787298947815012</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1421998619041159</v>
+        <v>0.2960455617474273</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1429971511207793</v>
+        <v>0.2986591300171485</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -12331,28 +12331,28 @@
         <v>387</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.1186224489795918</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.2317667451596023</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02953149001536098</v>
+        <v>0.2614147287549543</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0333410138248848</v>
+        <v>0.2614147287549543</v>
       </c>
       <c r="K17" t="n">
-        <v>0.04200554200027857</v>
+        <v>0.2801736994044286</v>
       </c>
       <c r="L17" t="n">
-        <v>0.04392632170152628</v>
+        <v>0.2801736994044286</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -12372,25 +12372,25 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.06862745098039215</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.06862745098039215</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.08610400682011934</v>
       </c>
       <c r="I18" t="n">
-        <v>0.005242738806752648</v>
+        <v>0.09427394146064222</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0106746882614725</v>
+        <v>0.1067464170819068</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01653834104072379</v>
+        <v>0.111822578089671</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01759235699884002</v>
+        <v>0.1145996965695101</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -12407,28 +12407,28 @@
         <v>387</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="F19" t="n">
-        <v>0.008064516129032258</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="G19" t="n">
-        <v>0.008064516129032258</v>
+        <v>0.13536866359447</v>
       </c>
       <c r="H19" t="n">
-        <v>0.008064516129032258</v>
+        <v>0.2342559555918602</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02199070338569635</v>
+        <v>0.2663082270329262</v>
       </c>
       <c r="J19" t="n">
-        <v>0.03095907805646436</v>
+        <v>0.2826960138191949</v>
       </c>
       <c r="K19" t="n">
-        <v>0.04452547052463795</v>
+        <v>0.303353949456359</v>
       </c>
       <c r="L19" t="n">
-        <v>0.04729958996499957</v>
+        <v>0.3065425871903927</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -12451,22 +12451,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03355263157894737</v>
+        <v>0.0404040404040404</v>
       </c>
       <c r="I20" t="n">
-        <v>0.05355263157894737</v>
+        <v>0.06183261183261183</v>
       </c>
       <c r="J20" t="n">
-        <v>0.06436344238975818</v>
+        <v>0.06183261183261183</v>
       </c>
       <c r="K20" t="n">
-        <v>0.07379740465390912</v>
+        <v>0.06857478371802156</v>
       </c>
       <c r="L20" t="n">
-        <v>0.07379740465390912</v>
+        <v>0.06857478371802156</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -12486,25 +12486,25 @@
         <v>0.05</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3521031746031746</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5627327624066754</v>
+        <v>0.5140417424590933</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6351897899719201</v>
+        <v>0.6408560200798226</v>
       </c>
       <c r="J21" t="n">
-        <v>0.677271089287262</v>
+        <v>0.6653811862716553</v>
       </c>
       <c r="K21" t="n">
-        <v>0.677271089287262</v>
+        <v>0.6653811862716553</v>
       </c>
       <c r="L21" t="n">
-        <v>0.677271089287262</v>
+        <v>0.6653811862716553</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -12524,25 +12524,25 @@
         <v>0.04</v>
       </c>
       <c r="F22" t="n">
-        <v>0.16</v>
+        <v>0.152</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2816825396825397</v>
+        <v>0.2827301587301587</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5188424156570608</v>
+        <v>0.4897821357834818</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6103103260787497</v>
+        <v>0.6332328097502848</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6621965057096102</v>
+        <v>0.6558728857236941</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6716304679737611</v>
+        <v>0.6634571628722615</v>
       </c>
       <c r="L22" t="n">
-        <v>0.6716304679737611</v>
+        <v>0.6634571628722615</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -12559,28 +12559,28 @@
         <v>387</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0625</v>
+        <v>0.125</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0625</v>
+        <v>0.125</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0625</v>
+        <v>0.125</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0625</v>
+        <v>0.1402998776009792</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0625</v>
+        <v>0.1402998776009792</v>
       </c>
       <c r="K23" t="n">
-        <v>0.06300505050505051</v>
+        <v>0.144632219341481</v>
       </c>
       <c r="L23" t="n">
-        <v>0.06374034462269756</v>
+        <v>0.144632219341481</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -12597,28 +12597,28 @@
         <v>387</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02380952380952381</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07658730158730159</v>
+        <v>0.06468253968253969</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1328042328042328</v>
+        <v>0.1215986394557823</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1786353857782429</v>
+        <v>0.189865293436722</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2012011539401442</v>
+        <v>0.2234455872563776</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2070491071565185</v>
+        <v>0.2344349400710383</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2097753885087541</v>
+        <v>0.2430607615672287</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2103482492319907</v>
+        <v>0.2452039835689438</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -12641,22 +12641,22 @@
         <v>0.1</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1552777777777778</v>
+        <v>0.156</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1980763125763125</v>
+        <v>0.2194625374625375</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2186327035537562</v>
+        <v>0.2668188916086648</v>
       </c>
       <c r="J25" t="n">
-        <v>0.223895861448493</v>
+        <v>0.2777408774242677</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2270254782269648</v>
+        <v>0.2900867086200581</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2283027891513345</v>
+        <v>0.2922795835584411</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -12673,28 +12673,28 @@
         <v>387</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1596638655462185</v>
+        <v>0.158008658008658</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1722689075630252</v>
+        <v>0.158008658008658</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1908763505402161</v>
+        <v>0.1772830344258916</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1938422427794647</v>
+        <v>0.1795626696842502</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1938422427794647</v>
+        <v>0.1795626696842502</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -12711,28 +12711,28 @@
         <v>387</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="F27" t="n">
-        <v>0.02222222222222222</v>
+        <v>0.09747474747474748</v>
       </c>
       <c r="G27" t="n">
-        <v>0.05252525252525253</v>
+        <v>0.1191197691197691</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05974025974025975</v>
+        <v>0.1405844155844156</v>
       </c>
       <c r="I27" t="n">
-        <v>0.07717097717097716</v>
+        <v>0.1706040872948566</v>
       </c>
       <c r="J27" t="n">
-        <v>0.09622073234534567</v>
+        <v>0.1969191409625539</v>
       </c>
       <c r="K27" t="n">
-        <v>0.11258449437563</v>
+        <v>0.2122097546759099</v>
       </c>
       <c r="L27" t="n">
-        <v>0.113347087191203</v>
+        <v>0.2122097546759099</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -12752,25 +12752,25 @@
         <v>0.025</v>
       </c>
       <c r="F28" t="n">
-        <v>0.05666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="G28" t="n">
-        <v>0.08895833333333333</v>
+        <v>0.175</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1061151960784314</v>
+        <v>0.2191490800865801</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1324886428930546</v>
+        <v>0.2519002133283059</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1646299174688741</v>
+        <v>0.2930840211934318</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1846859658040351</v>
+        <v>0.3110345226845185</v>
       </c>
       <c r="L28" t="n">
-        <v>0.1855137803735715</v>
+        <v>0.3110345226845185</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -12790,25 +12790,25 @@
         <v>0.5</v>
       </c>
       <c r="F29" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G29" t="n">
-        <v>0.75</v>
+        <v>0.6428571428571428</v>
       </c>
       <c r="H29" t="n">
-        <v>0.75</v>
+        <v>0.6428571428571428</v>
       </c>
       <c r="I29" t="n">
-        <v>0.75</v>
+        <v>0.6428571428571428</v>
       </c>
       <c r="J29" t="n">
-        <v>0.75</v>
+        <v>0.6428571428571428</v>
       </c>
       <c r="K29" t="n">
-        <v>0.75</v>
+        <v>0.6428571428571428</v>
       </c>
       <c r="L29" t="n">
-        <v>0.75</v>
+        <v>0.6428571428571428</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -12828,25 +12828,25 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1104166666666667</v>
+        <v>0.1697916666666667</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3422123015873016</v>
+        <v>0.3173611111111111</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5543632632305401</v>
+        <v>0.5485413891663892</v>
       </c>
       <c r="I30" t="n">
-        <v>0.57186326323054</v>
+        <v>0.6233748354175183</v>
       </c>
       <c r="J30" t="n">
-        <v>0.5902456161717166</v>
+        <v>0.6233748354175183</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5949625973037921</v>
+        <v>0.6233748354175183</v>
       </c>
       <c r="L30" t="n">
-        <v>0.5949625973037921</v>
+        <v>0.6251996529357664</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -12869,22 +12869,22 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7794162338212681</v>
+        <v>0.7475102058435392</v>
       </c>
       <c r="I31" t="n">
-        <v>0.7971940115990459</v>
+        <v>0.8236318559489291</v>
       </c>
       <c r="J31" t="n">
-        <v>0.8157125301175645</v>
+        <v>0.8236318559489291</v>
       </c>
       <c r="K31" t="n">
-        <v>0.82042951124964</v>
+        <v>0.8236318559489291</v>
       </c>
       <c r="L31" t="n">
-        <v>0.82042951124964</v>
+        <v>0.8254566734671773</v>
       </c>
     </row>
   </sheetData>

--- a/BM25.xlsx
+++ b/BM25.xlsx
@@ -1560,10 +1560,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>132.6714270473473</v>
+        <v>133.9120912381229</v>
       </c>
       <c r="E2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1577,7 +1577,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>160.0440136261954</v>
+        <v>160.1727825485618</v>
       </c>
       <c r="E3" t="n">
         <v>12</v>
@@ -1594,7 +1594,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>168.6752202940392</v>
+        <v>169.1004481133758</v>
       </c>
       <c r="E4" t="n">
         <v>9</v>
@@ -1611,10 +1611,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>97.71766066795988</v>
+        <v>97.71197340285774</v>
       </c>
       <c r="E5" t="n">
-        <v>548</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1628,7 +1628,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>171.8558355392922</v>
+        <v>173.0469321246057</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -1645,7 +1645,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>173.3071973871129</v>
+        <v>173.6832088291904</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -1662,7 +1662,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>218.5936635742266</v>
+        <v>218.1469595410219</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -1679,7 +1679,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>172.1928353313701</v>
+        <v>173.0613337613797</v>
       </c>
       <c r="E9" t="n">
         <v>6</v>
@@ -1696,7 +1696,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>172.1928353313701</v>
+        <v>173.0613337613797</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
@@ -1713,7 +1713,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>158.9496215556326</v>
+        <v>159.6109108705217</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1730,7 +1730,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>169.4592338020071</v>
+        <v>170.1015531930327</v>
       </c>
       <c r="E12" t="n">
         <v>8</v>
@@ -1747,7 +1747,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>208.2845857207756</v>
+        <v>208.6399133560871</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -1764,7 +1764,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>157.3642718004837</v>
+        <v>157.660459507802</v>
       </c>
       <c r="E14" t="n">
         <v>14</v>
@@ -1781,7 +1781,7 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>145.3486666839537</v>
+        <v>145.4731524997975</v>
       </c>
       <c r="E15" t="n">
         <v>18</v>
@@ -1798,7 +1798,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>338.5780206491098</v>
+        <v>338.8959459453503</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>160.5882298591462</v>
+        <v>161.6414584838691</v>
       </c>
       <c r="E17" t="n">
         <v>11</v>
@@ -1832,7 +1832,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>123.6563619405839</v>
+        <v>123.1930658398295</v>
       </c>
       <c r="E18" t="n">
         <v>41</v>
@@ -1849,7 +1849,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>123.6563619405839</v>
+        <v>123.1930658398295</v>
       </c>
       <c r="E19" t="n">
         <v>40</v>
@@ -1866,10 +1866,10 @@
         <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>62.75812121855144</v>
+        <v>53.39436264879247</v>
       </c>
       <c r="E20" t="n">
-        <v>1067</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1883,10 +1883,10 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>76.07689410094875</v>
+        <v>75.90021991504162</v>
       </c>
       <c r="E21" t="n">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1900,10 +1900,10 @@
         <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>51.10550518850481</v>
+        <v>42.51388510151975</v>
       </c>
       <c r="E22" t="n">
-        <v>2787</v>
+        <v>5937</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1917,10 +1917,10 @@
         <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>102.5730197059704</v>
+        <v>102.0595553437831</v>
       </c>
       <c r="E23" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1934,7 +1934,7 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>84.72629247511865</v>
+        <v>84.2729585594969</v>
       </c>
       <c r="E24" t="n">
         <v>166</v>
@@ -1951,10 +1951,10 @@
         <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>99.45066940701872</v>
+        <v>53.95099667324541</v>
       </c>
       <c r="E25" t="n">
-        <v>43</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1968,10 +1968,10 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>92.0166032002444</v>
+        <v>91.62445806581432</v>
       </c>
       <c r="E26" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1985,10 +1985,10 @@
         <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>116.8346581463302</v>
+        <v>73.11841324876882</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2002,10 +2002,10 @@
         <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>87.28146250206304</v>
+        <v>86.71368940463402</v>
       </c>
       <c r="E28" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2019,7 +2019,7 @@
         <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>70.13324621324797</v>
+        <v>69.87124041652758</v>
       </c>
       <c r="E29" t="n">
         <v>553</v>
@@ -2036,10 +2036,10 @@
         <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>92.66604131634796</v>
+        <v>92.17852554609381</v>
       </c>
       <c r="E30" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2053,7 +2053,7 @@
         <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>96.78348030073154</v>
+        <v>96.32046655536622</v>
       </c>
       <c r="E31" t="n">
         <v>58</v>
@@ -2070,10 +2070,10 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>91.46590300046481</v>
+        <v>90.80828547706862</v>
       </c>
       <c r="E32" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2087,10 +2087,10 @@
         <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>121.5031653756467</v>
+        <v>107.5457609356911</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2104,7 +2104,7 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>95.18085220636</v>
+        <v>94.4685127235702</v>
       </c>
       <c r="E34" t="n">
         <v>67</v>
@@ -2121,10 +2121,10 @@
         <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>96.08956307746098</v>
+        <v>96.31387840858652</v>
       </c>
       <c r="E35" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2138,10 +2138,10 @@
         <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>84.26654285965948</v>
+        <v>84.20753024484449</v>
       </c>
       <c r="E36" t="n">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2155,10 +2155,10 @@
         <v>11</v>
       </c>
       <c r="D37" t="n">
-        <v>54.72682952235472</v>
+        <v>44.41024108925918</v>
       </c>
       <c r="E37" t="n">
-        <v>2056</v>
+        <v>5013</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2172,10 +2172,10 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>110.5288167662006</v>
+        <v>110.654284360032</v>
       </c>
       <c r="E38" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2189,10 +2189,10 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>107.9729091662224</v>
+        <v>107.8758983643149</v>
       </c>
       <c r="E39" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2206,10 +2206,10 @@
         <v>11</v>
       </c>
       <c r="D40" t="n">
-        <v>98.10447502656213</v>
+        <v>98.04383157924538</v>
       </c>
       <c r="E40" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2223,7 +2223,7 @@
         <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>106.4469182272285</v>
+        <v>106.3625583658524</v>
       </c>
       <c r="E41" t="n">
         <v>22</v>
@@ -2240,10 +2240,10 @@
         <v>11</v>
       </c>
       <c r="D42" t="n">
-        <v>85.9576041942444</v>
+        <v>86.16683177629962</v>
       </c>
       <c r="E42" t="n">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2257,10 +2257,10 @@
         <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>74.4066737695568</v>
+        <v>66.12274427631631</v>
       </c>
       <c r="E43" t="n">
-        <v>406</v>
+        <v>792</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2274,10 +2274,10 @@
         <v>11</v>
       </c>
       <c r="D44" t="n">
-        <v>111.0097813580699</v>
+        <v>111.1242603966134</v>
       </c>
       <c r="E44" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2291,10 +2291,10 @@
         <v>11</v>
       </c>
       <c r="D45" t="n">
-        <v>88.80444821338735</v>
+        <v>89.52497056192846</v>
       </c>
       <c r="E45" t="n">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2308,10 +2308,10 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>94.2961357134362</v>
+        <v>94.15482791050289</v>
       </c>
       <c r="E46" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2325,10 +2325,10 @@
         <v>11</v>
       </c>
       <c r="D47" t="n">
-        <v>102.1137873361308</v>
+        <v>102.1343012850496</v>
       </c>
       <c r="E47" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2342,10 +2342,10 @@
         <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>58.64289206110202</v>
+        <v>58.67585676283689</v>
       </c>
       <c r="E48" t="n">
-        <v>1489</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2359,10 +2359,10 @@
         <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>81.23260226280746</v>
+        <v>81.31540540639058</v>
       </c>
       <c r="E49" t="n">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2376,10 +2376,10 @@
         <v>11</v>
       </c>
       <c r="D50" t="n">
-        <v>64.76791755629246</v>
+        <v>64.73808345268637</v>
       </c>
       <c r="E50" t="n">
-        <v>885</v>
+        <v>880</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2393,10 +2393,10 @@
         <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>103.69155061916</v>
+        <v>103.7569622994432</v>
       </c>
       <c r="E51" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2410,10 +2410,10 @@
         <v>11</v>
       </c>
       <c r="D52" t="n">
-        <v>98.92210182674366</v>
+        <v>98.93034251114156</v>
       </c>
       <c r="E52" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2427,10 +2427,10 @@
         <v>11</v>
       </c>
       <c r="D53" t="n">
-        <v>119.1170525062761</v>
+        <v>68.00504785227663</v>
       </c>
       <c r="E53" t="n">
-        <v>4</v>
+        <v>657</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2444,7 +2444,7 @@
         <v>11</v>
       </c>
       <c r="D54" t="n">
-        <v>133.762713419721</v>
+        <v>134.1824337808622</v>
       </c>
       <c r="E54" t="n">
         <v>1</v>
@@ -2461,10 +2461,10 @@
         <v>11</v>
       </c>
       <c r="D55" t="n">
-        <v>73.04547859508727</v>
+        <v>59.52231823035938</v>
       </c>
       <c r="E55" t="n">
-        <v>443</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2478,10 +2478,10 @@
         <v>11</v>
       </c>
       <c r="D56" t="n">
-        <v>101.7284798147002</v>
+        <v>101.0215753277589</v>
       </c>
       <c r="E56" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2495,10 +2495,10 @@
         <v>11</v>
       </c>
       <c r="D57" t="n">
-        <v>115.2774695687582</v>
+        <v>114.8516492488921</v>
       </c>
       <c r="E57" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2512,10 +2512,10 @@
         <v>11</v>
       </c>
       <c r="D58" t="n">
-        <v>90.72933981686216</v>
+        <v>90.9511423889432</v>
       </c>
       <c r="E58" t="n">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2529,10 +2529,10 @@
         <v>11</v>
       </c>
       <c r="D59" t="n">
-        <v>77.57029034398263</v>
+        <v>77.68547343712488</v>
       </c>
       <c r="E59" t="n">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2546,7 +2546,7 @@
         <v>11</v>
       </c>
       <c r="D60" t="n">
-        <v>121.8223799435214</v>
+        <v>121.5969055047683</v>
       </c>
       <c r="E60" t="n">
         <v>2</v>
@@ -2563,10 +2563,10 @@
         <v>11</v>
       </c>
       <c r="D61" t="n">
-        <v>87.84618576024099</v>
+        <v>87.93763408681963</v>
       </c>
       <c r="E61" t="n">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2580,10 +2580,10 @@
         <v>11</v>
       </c>
       <c r="D62" t="n">
-        <v>113.1100918061675</v>
+        <v>112.7922674668955</v>
       </c>
       <c r="E62" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2597,10 +2597,10 @@
         <v>11</v>
       </c>
       <c r="D63" t="n">
-        <v>105.3481829914361</v>
+        <v>105.3810173565816</v>
       </c>
       <c r="E63" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2614,10 +2614,10 @@
         <v>11</v>
       </c>
       <c r="D64" t="n">
-        <v>105.8160843163611</v>
+        <v>105.8145486679926</v>
       </c>
       <c r="E64" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2631,10 +2631,10 @@
         <v>11</v>
       </c>
       <c r="D65" t="n">
-        <v>106.6321024775248</v>
+        <v>107.0436379083363</v>
       </c>
       <c r="E65" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2648,10 +2648,10 @@
         <v>11</v>
       </c>
       <c r="D66" t="n">
-        <v>112.5406633061097</v>
+        <v>113.0317213616433</v>
       </c>
       <c r="E66" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2665,10 +2665,10 @@
         <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>107.6862430059291</v>
+        <v>107.749903860854</v>
       </c>
       <c r="E67" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2682,10 +2682,10 @@
         <v>11</v>
       </c>
       <c r="D68" t="n">
-        <v>65.20676964810583</v>
+        <v>52.38483061401879</v>
       </c>
       <c r="E68" t="n">
-        <v>853</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2699,10 +2699,10 @@
         <v>11</v>
       </c>
       <c r="D69" t="n">
-        <v>113.4660872758295</v>
+        <v>113.3534824636982</v>
       </c>
       <c r="E69" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2716,10 +2716,10 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>103.0233074976401</v>
+        <v>102.8710081591476</v>
       </c>
       <c r="E70" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2733,10 +2733,10 @@
         <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>112.3592674281342</v>
+        <v>112.2266894856153</v>
       </c>
       <c r="E71" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2750,10 +2750,10 @@
         <v>11</v>
       </c>
       <c r="D72" t="n">
-        <v>103.6210464799243</v>
+        <v>103.4058487819311</v>
       </c>
       <c r="E72" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2767,10 +2767,10 @@
         <v>11</v>
       </c>
       <c r="D73" t="n">
-        <v>111.2461022775181</v>
+        <v>110.8731272610139</v>
       </c>
       <c r="E73" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2784,10 +2784,10 @@
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>64.22466814791949</v>
+        <v>64.18574219035581</v>
       </c>
       <c r="E74" t="n">
-        <v>946</v>
+        <v>933</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2801,10 +2801,10 @@
         <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>48.58849381823629</v>
+        <v>31.01096192522251</v>
       </c>
       <c r="E75" t="n">
-        <v>3464</v>
+        <v>19277</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2818,10 +2818,10 @@
         <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>37.19149512103192</v>
+        <v>22.37192085983615</v>
       </c>
       <c r="E76" t="n">
-        <v>9823</v>
+        <v>53114</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2835,10 +2835,10 @@
         <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>260.6181569742201</v>
+        <v>261.9275168983598</v>
       </c>
       <c r="E77" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2852,10 +2852,10 @@
         <v>11</v>
       </c>
       <c r="D78" t="n">
-        <v>279.0386129048602</v>
+        <v>278.2716082575909</v>
       </c>
       <c r="E78" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2869,10 +2869,10 @@
         <v>11</v>
       </c>
       <c r="D79" t="n">
-        <v>231.0079411868788</v>
+        <v>230.5406010215074</v>
       </c>
       <c r="E79" t="n">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2886,10 +2886,10 @@
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>216.4967121081993</v>
+        <v>215.7244464322965</v>
       </c>
       <c r="E80" t="n">
-        <v>420</v>
+        <v>453</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2903,10 +2903,10 @@
         <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>272.6176196512171</v>
+        <v>215.6015205222555</v>
       </c>
       <c r="E81" t="n">
-        <v>22</v>
+        <v>454</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2920,10 +2920,10 @@
         <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>236.5481051533065</v>
+        <v>238.6447178931313</v>
       </c>
       <c r="E82" t="n">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2937,7 +2937,7 @@
         <v>11</v>
       </c>
       <c r="D83" t="n">
-        <v>351.3516238868103</v>
+        <v>349.430665855081</v>
       </c>
       <c r="E83" t="n">
         <v>1</v>
@@ -2954,7 +2954,7 @@
         <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>234.0883582349697</v>
+        <v>235.066005380176</v>
       </c>
       <c r="E84" t="n">
         <v>183</v>
@@ -2971,10 +2971,10 @@
         <v>11</v>
       </c>
       <c r="D85" t="n">
-        <v>265.689851608929</v>
+        <v>267.4516490331691</v>
       </c>
       <c r="E85" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2988,7 +2988,7 @@
         <v>11</v>
       </c>
       <c r="D86" t="n">
-        <v>318.9739334100445</v>
+        <v>319.8014136378782</v>
       </c>
       <c r="E86" t="n">
         <v>4</v>
@@ -3005,10 +3005,10 @@
         <v>11</v>
       </c>
       <c r="D87" t="n">
-        <v>263.4093709528554</v>
+        <v>263.3121092967267</v>
       </c>
       <c r="E87" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3022,10 +3022,10 @@
         <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>224.1246865747208</v>
+        <v>165.7016040433132</v>
       </c>
       <c r="E88" t="n">
-        <v>306</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3039,7 +3039,7 @@
         <v>11</v>
       </c>
       <c r="D89" t="n">
-        <v>347.3195944641057</v>
+        <v>347.9409143787449</v>
       </c>
       <c r="E89" t="n">
         <v>2</v>
@@ -3056,10 +3056,10 @@
         <v>11</v>
       </c>
       <c r="D90" t="n">
-        <v>209.6667239201577</v>
+        <v>209.9972394968401</v>
       </c>
       <c r="E90" t="n">
-        <v>570</v>
+        <v>586</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3073,10 +3073,10 @@
         <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>223.7403074490702</v>
+        <v>223.7230793972417</v>
       </c>
       <c r="E91" t="n">
-        <v>311</v>
+        <v>326</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3090,10 +3090,10 @@
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>165.1794931494869</v>
+        <v>110.1707453916379</v>
       </c>
       <c r="E92" t="n">
-        <v>2354</v>
+        <v>11537</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3107,10 +3107,10 @@
         <v>11</v>
       </c>
       <c r="D93" t="n">
-        <v>206.0763319759855</v>
+        <v>206.7530277022429</v>
       </c>
       <c r="E93" t="n">
-        <v>659</v>
+        <v>664</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3124,10 +3124,10 @@
         <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>333.1180943602261</v>
+        <v>306.8965479507382</v>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3141,10 +3141,10 @@
         <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>195.477511884881</v>
+        <v>196.6039977969898</v>
       </c>
       <c r="E95" t="n">
-        <v>968</v>
+        <v>953</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3158,10 +3158,10 @@
         <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>206.426800350866</v>
+        <v>208.2510174765133</v>
       </c>
       <c r="E96" t="n">
-        <v>643</v>
+        <v>630</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3175,10 +3175,10 @@
         <v>11</v>
       </c>
       <c r="D97" t="n">
-        <v>283.2437855339429</v>
+        <v>286.7651544908927</v>
       </c>
       <c r="E97" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3192,10 +3192,10 @@
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>312.6051969472629</v>
+        <v>321.6394668794236</v>
       </c>
       <c r="E98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3209,10 +3209,10 @@
         <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>262.3155319483815</v>
+        <v>263.9776994808218</v>
       </c>
       <c r="E99" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3226,10 +3226,10 @@
         <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>245.8294946656697</v>
+        <v>247.6825779191443</v>
       </c>
       <c r="E100" t="n">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3243,10 +3243,10 @@
         <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>245.8027522425189</v>
+        <v>247.6922672315162</v>
       </c>
       <c r="E101" t="n">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3260,7 +3260,7 @@
         <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>295.0138402478868</v>
+        <v>294.7138014914497</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -3277,10 +3277,10 @@
         <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>269.3781136886097</v>
+        <v>269.7216399243761</v>
       </c>
       <c r="E103" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3294,10 +3294,10 @@
         <v>6</v>
       </c>
       <c r="D104" t="n">
-        <v>237.1291177181617</v>
+        <v>236.6587980767616</v>
       </c>
       <c r="E104" t="n">
-        <v>152</v>
+        <v>169</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3311,7 +3311,7 @@
         <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>293.4140003109518</v>
+        <v>293.816044303449</v>
       </c>
       <c r="E105" t="n">
         <v>9</v>
@@ -3328,10 +3328,10 @@
         <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>121.4309878145444</v>
+        <v>121.6182655371845</v>
       </c>
       <c r="E106" t="n">
-        <v>7620</v>
+        <v>7527</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3345,10 +3345,10 @@
         <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>261.8629619619616</v>
+        <v>265.3495259252003</v>
       </c>
       <c r="E107" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3362,10 +3362,10 @@
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>227.3226422866516</v>
+        <v>228.8789481867917</v>
       </c>
       <c r="E108" t="n">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3379,10 +3379,10 @@
         <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>176.6186312127186</v>
+        <v>175.9734704814466</v>
       </c>
       <c r="E109" t="n">
-        <v>1732</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3396,10 +3396,10 @@
         <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>281.630810886046</v>
+        <v>281.3815506006674</v>
       </c>
       <c r="E110" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3413,10 +3413,10 @@
         <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>286.8773743511918</v>
+        <v>288.713657853256</v>
       </c>
       <c r="E111" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3430,10 +3430,10 @@
         <v>6</v>
       </c>
       <c r="D112" t="n">
-        <v>277.9295639568707</v>
+        <v>280.3950710415365</v>
       </c>
       <c r="E112" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3447,10 +3447,10 @@
         <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>248.8922765424931</v>
+        <v>247.56848416434</v>
       </c>
       <c r="E113" t="n">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3464,10 +3464,10 @@
         <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>231.5063728681849</v>
+        <v>230.4109174733558</v>
       </c>
       <c r="E114" t="n">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3481,10 +3481,10 @@
         <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>152.4714501721912</v>
+        <v>151.4166659451597</v>
       </c>
       <c r="E115" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3498,10 +3498,10 @@
         <v>11</v>
       </c>
       <c r="D116" t="n">
-        <v>151.1628891256568</v>
+        <v>151.4111441118995</v>
       </c>
       <c r="E116" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3515,7 +3515,7 @@
         <v>11</v>
       </c>
       <c r="D117" t="n">
-        <v>204.2546429622238</v>
+        <v>203.1509156710775</v>
       </c>
       <c r="E117" t="n">
         <v>1</v>
@@ -3532,10 +3532,10 @@
         <v>11</v>
       </c>
       <c r="D118" t="n">
-        <v>143.5563351227542</v>
+        <v>143.7489284233757</v>
       </c>
       <c r="E118" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3549,7 +3549,7 @@
         <v>11</v>
       </c>
       <c r="D119" t="n">
-        <v>185.9165242139677</v>
+        <v>185.1364126152652</v>
       </c>
       <c r="E119" t="n">
         <v>3</v>
@@ -3566,7 +3566,7 @@
         <v>11</v>
       </c>
       <c r="D120" t="n">
-        <v>175.9766918021456</v>
+        <v>175.0061465816463</v>
       </c>
       <c r="E120" t="n">
         <v>7</v>
@@ -3583,10 +3583,10 @@
         <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>151.5622395281104</v>
+        <v>150.8774451722735</v>
       </c>
       <c r="E121" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3600,10 +3600,10 @@
         <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>137.6579203075631</v>
+        <v>136.9356416873261</v>
       </c>
       <c r="E122" t="n">
-        <v>212</v>
+        <v>238</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3617,10 +3617,10 @@
         <v>11</v>
       </c>
       <c r="D123" t="n">
-        <v>156.2327212402031</v>
+        <v>155.8938479205135</v>
       </c>
       <c r="E123" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3634,10 +3634,10 @@
         <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>141.0506645767327</v>
+        <v>140.1950172822259</v>
       </c>
       <c r="E124" t="n">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3651,10 +3651,10 @@
         <v>11</v>
       </c>
       <c r="D125" t="n">
-        <v>163.2594474173312</v>
+        <v>162.4121079418474</v>
       </c>
       <c r="E125" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3668,7 +3668,7 @@
         <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>173.5052694855606</v>
+        <v>173.5593486454054</v>
       </c>
       <c r="E126" t="n">
         <v>9</v>
@@ -3685,10 +3685,10 @@
         <v>11</v>
       </c>
       <c r="D127" t="n">
-        <v>160.0050330358269</v>
+        <v>160.6542447465851</v>
       </c>
       <c r="E127" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3702,10 +3702,10 @@
         <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>162.2544478785557</v>
+        <v>162.5276659644445</v>
       </c>
       <c r="E128" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3719,10 +3719,10 @@
         <v>6</v>
       </c>
       <c r="D129" t="n">
-        <v>161.7335349354195</v>
+        <v>161.918365925712</v>
       </c>
       <c r="E129" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3736,10 +3736,10 @@
         <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>65.24209099760451</v>
+        <v>65.53571246062469</v>
       </c>
       <c r="E130" t="n">
-        <v>96173</v>
+        <v>94465</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3753,10 +3753,10 @@
         <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>67.75706780260739</v>
+        <v>68.05952118411059</v>
       </c>
       <c r="E131" t="n">
-        <v>84094</v>
+        <v>82645</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3770,10 +3770,10 @@
         <v>11</v>
       </c>
       <c r="D132" t="n">
-        <v>130.1514421073775</v>
+        <v>131.2053897216133</v>
       </c>
       <c r="E132" t="n">
-        <v>402</v>
+        <v>388</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3787,10 +3787,10 @@
         <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>172.7070978088782</v>
+        <v>171.5574525480976</v>
       </c>
       <c r="E133" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3804,10 +3804,10 @@
         <v>11</v>
       </c>
       <c r="D134" t="n">
-        <v>168.0542088455902</v>
+        <v>168.6631013143816</v>
       </c>
       <c r="E134" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3821,7 +3821,7 @@
         <v>11</v>
       </c>
       <c r="D135" t="n">
-        <v>172.8383205465421</v>
+        <v>173.1892295376746</v>
       </c>
       <c r="E135" t="n">
         <v>10</v>
@@ -3838,10 +3838,10 @@
         <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>134.4136152573402</v>
+        <v>134.5953073713578</v>
       </c>
       <c r="E136" t="n">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3855,10 +3855,10 @@
         <v>11</v>
       </c>
       <c r="D137" t="n">
-        <v>154.1859443695701</v>
+        <v>154.6929501299216</v>
       </c>
       <c r="E137" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3872,10 +3872,10 @@
         <v>11</v>
       </c>
       <c r="D138" t="n">
-        <v>145.0094256273183</v>
+        <v>145.5721913607688</v>
       </c>
       <c r="E138" t="n">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3889,10 +3889,10 @@
         <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>141.4144236752195</v>
+        <v>141.5780925504685</v>
       </c>
       <c r="E139" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3906,10 +3906,10 @@
         <v>11</v>
       </c>
       <c r="D140" t="n">
-        <v>149.1356586551173</v>
+        <v>149.6072467987064</v>
       </c>
       <c r="E140" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3923,10 +3923,10 @@
         <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>55.36698415410397</v>
+        <v>55.38563763275129</v>
       </c>
       <c r="E141" t="n">
-        <v>143523</v>
+        <v>143446</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3940,10 +3940,10 @@
         <v>11</v>
       </c>
       <c r="D142" t="n">
-        <v>147.7763461335496</v>
+        <v>148.2401620083021</v>
       </c>
       <c r="E142" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3957,10 +3957,10 @@
         <v>11</v>
       </c>
       <c r="D143" t="n">
-        <v>150.9341661826967</v>
+        <v>150.2723509835074</v>
       </c>
       <c r="E143" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="D144" t="n">
-        <v>181.1247457529406</v>
+        <v>180.3187710315456</v>
       </c>
       <c r="E144" t="n">
         <v>6</v>
@@ -3991,10 +3991,10 @@
         <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>136.6024297938959</v>
+        <v>136.1236934195258</v>
       </c>
       <c r="E145" t="n">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4008,10 +4008,10 @@
         <v>11</v>
       </c>
       <c r="D146" t="n">
-        <v>143.9340124412379</v>
+        <v>143.1143782085298</v>
       </c>
       <c r="E146" t="n">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4025,10 +4025,10 @@
         <v>6</v>
       </c>
       <c r="D147" t="n">
-        <v>140.8388327512111</v>
+        <v>140.2054158234907</v>
       </c>
       <c r="E147" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4042,10 +4042,10 @@
         <v>6</v>
       </c>
       <c r="D148" t="n">
-        <v>101.2272097050265</v>
+        <v>101.5028313875959</v>
       </c>
       <c r="E148" t="n">
-        <v>4469</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4059,10 +4059,10 @@
         <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>101.2272097050265</v>
+        <v>101.5028313875959</v>
       </c>
       <c r="E149" t="n">
-        <v>4468</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4076,7 +4076,7 @@
         <v>11</v>
       </c>
       <c r="D150" t="n">
-        <v>154.323087422602</v>
+        <v>154.8062919748083</v>
       </c>
       <c r="E150" t="n">
         <v>56</v>
@@ -4093,10 +4093,10 @@
         <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>105.5662383852306</v>
+        <v>106.730052343907</v>
       </c>
       <c r="E151" t="n">
-        <v>2860</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4110,10 +4110,10 @@
         <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>142.0622934860958</v>
+        <v>142.4007426721838</v>
       </c>
       <c r="E152" t="n">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4127,10 +4127,10 @@
         <v>6</v>
       </c>
       <c r="D153" t="n">
-        <v>81.90379193801921</v>
+        <v>82.57756906415763</v>
       </c>
       <c r="E153" t="n">
-        <v>30262</v>
+        <v>28373</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4144,10 +4144,10 @@
         <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>158.3656307113907</v>
+        <v>158.4855399282451</v>
       </c>
       <c r="E154" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4161,7 +4161,7 @@
         <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>146.0393075528483</v>
+        <v>145.861830733535</v>
       </c>
       <c r="E155" t="n">
         <v>108</v>
@@ -4178,10 +4178,10 @@
         <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>162.3754193849123</v>
+        <v>161.9414715701881</v>
       </c>
       <c r="E156" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4195,10 +4195,10 @@
         <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>150.4089125579957</v>
+        <v>150.2427830362264</v>
       </c>
       <c r="E157" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4212,10 +4212,10 @@
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>127.5519552488832</v>
+        <v>127.4424062877564</v>
       </c>
       <c r="E158" t="n">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4229,10 +4229,10 @@
         <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>149.7719712462735</v>
+        <v>149.4280552047766</v>
       </c>
       <c r="E159" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4246,10 +4246,10 @@
         <v>6</v>
       </c>
       <c r="D160" t="n">
-        <v>155.049356321525</v>
+        <v>155.3502869174394</v>
       </c>
       <c r="E160" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4263,10 +4263,10 @@
         <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>105.4306037712687</v>
+        <v>105.1213471211842</v>
       </c>
       <c r="E161" t="n">
-        <v>2894</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4280,10 +4280,10 @@
         <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>92.03664866162647</v>
+        <v>92.01663629555603</v>
       </c>
       <c r="E162" t="n">
-        <v>11653</v>
+        <v>11521</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4297,10 +4297,10 @@
         <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>112.5465866714118</v>
+        <v>112.5041145762928</v>
       </c>
       <c r="E163" t="n">
-        <v>1555</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4314,7 +4314,7 @@
         <v>11</v>
       </c>
       <c r="D164" t="n">
-        <v>184.1994561858909</v>
+        <v>183.3604505436446</v>
       </c>
       <c r="E164" t="n">
         <v>4</v>
@@ -4331,10 +4331,10 @@
         <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>138.7781612066148</v>
+        <v>138.701150149015</v>
       </c>
       <c r="E165" t="n">
-        <v>195</v>
+        <v>211</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4348,10 +4348,10 @@
         <v>11</v>
       </c>
       <c r="D166" t="n">
-        <v>160.7183983148853</v>
+        <v>160.3706650280976</v>
       </c>
       <c r="E166" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4365,10 +4365,10 @@
         <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>140.1046209715838</v>
+        <v>140.0738444394909</v>
       </c>
       <c r="E167" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4382,10 +4382,10 @@
         <v>11</v>
       </c>
       <c r="D168" t="n">
-        <v>168.9329137983802</v>
+        <v>168.4440211420462</v>
       </c>
       <c r="E168" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4399,10 +4399,10 @@
         <v>11</v>
       </c>
       <c r="D169" t="n">
-        <v>149.6583434817905</v>
+        <v>149.1233141622832</v>
       </c>
       <c r="E169" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4416,10 +4416,10 @@
         <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>124.9911094649513</v>
+        <v>125.2380535509271</v>
       </c>
       <c r="E170" t="n">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4433,10 +4433,10 @@
         <v>6</v>
       </c>
       <c r="D171" t="n">
-        <v>156.0851624932338</v>
+        <v>156.2040430190578</v>
       </c>
       <c r="E171" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4450,10 +4450,10 @@
         <v>11</v>
       </c>
       <c r="D172" t="n">
-        <v>142.0402409230844</v>
+        <v>141.6188359993344</v>
       </c>
       <c r="E172" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4467,10 +4467,10 @@
         <v>11</v>
       </c>
       <c r="D173" t="n">
-        <v>130.6633959708111</v>
+        <v>131.0004414295374</v>
       </c>
       <c r="E173" t="n">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4484,10 +4484,10 @@
         <v>6</v>
       </c>
       <c r="D174" t="n">
-        <v>164.2359481249826</v>
+        <v>120.924684837135</v>
       </c>
       <c r="E174" t="n">
-        <v>41</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4501,7 +4501,7 @@
         <v>6</v>
       </c>
       <c r="D175" t="n">
-        <v>190.1079613029322</v>
+        <v>190.1750083200532</v>
       </c>
       <c r="E175" t="n">
         <v>1</v>
@@ -4518,10 +4518,10 @@
         <v>6</v>
       </c>
       <c r="D176" t="n">
-        <v>163.8673081220402</v>
+        <v>163.8720433395722</v>
       </c>
       <c r="E176" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4535,10 +4535,10 @@
         <v>6</v>
       </c>
       <c r="D177" t="n">
-        <v>178.3971396204705</v>
+        <v>178.8719089547223</v>
       </c>
       <c r="E177" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4552,10 +4552,10 @@
         <v>11</v>
       </c>
       <c r="D178" t="n">
-        <v>164.8361460911945</v>
+        <v>165.1147780114063</v>
       </c>
       <c r="E178" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4569,10 +4569,10 @@
         <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>37.35376221717165</v>
+        <v>37.54541495027276</v>
       </c>
       <c r="E179" t="n">
-        <v>176251</v>
+        <v>175427</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4586,10 +4586,10 @@
         <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>117.4717995725442</v>
+        <v>117.4834958789885</v>
       </c>
       <c r="E180" t="n">
-        <v>1608</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4603,10 +4603,10 @@
         <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>168.6575521839605</v>
+        <v>168.8032297501215</v>
       </c>
       <c r="E181" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4620,10 +4620,10 @@
         <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>105.3501079818743</v>
+        <v>105.7617517357932</v>
       </c>
       <c r="E182" t="n">
-        <v>3321</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4637,10 +4637,10 @@
         <v>11</v>
       </c>
       <c r="D183" t="n">
-        <v>178.4195748410418</v>
+        <v>126.2094918093954</v>
       </c>
       <c r="E183" t="n">
-        <v>3</v>
+        <v>934</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4654,10 +4654,10 @@
         <v>11</v>
       </c>
       <c r="D184" t="n">
-        <v>161.979004867995</v>
+        <v>117.4917599807838</v>
       </c>
       <c r="E184" t="n">
-        <v>46</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4671,10 +4671,10 @@
         <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>157.960342608598</v>
+        <v>107.8345335292482</v>
       </c>
       <c r="E185" t="n">
-        <v>81</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4688,10 +4688,10 @@
         <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>167.1709701684065</v>
+        <v>108.3178704002544</v>
       </c>
       <c r="E186" t="n">
-        <v>31</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4705,10 +4705,10 @@
         <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>159.9026418888923</v>
+        <v>158.9583219586464</v>
       </c>
       <c r="E187" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4722,10 +4722,10 @@
         <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>159.5355418330841</v>
+        <v>96.63301939176706</v>
       </c>
       <c r="E188" t="n">
-        <v>67</v>
+        <v>5611</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4739,10 +4739,10 @@
         <v>11</v>
       </c>
       <c r="D189" t="n">
-        <v>156.5519694405235</v>
+        <v>157.4742365471252</v>
       </c>
       <c r="E189" t="n">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4756,10 +4756,10 @@
         <v>11</v>
       </c>
       <c r="D190" t="n">
-        <v>152.6021245493445</v>
+        <v>97.00986811611662</v>
       </c>
       <c r="E190" t="n">
-        <v>130</v>
+        <v>5506</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4773,10 +4773,10 @@
         <v>6</v>
       </c>
       <c r="D191" t="n">
-        <v>157.3701151835966</v>
+        <v>118.4649014063466</v>
       </c>
       <c r="E191" t="n">
-        <v>85</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4790,10 +4790,10 @@
         <v>6</v>
       </c>
       <c r="D192" t="n">
-        <v>112.1782288798984</v>
+        <v>66.80993480329602</v>
       </c>
       <c r="E192" t="n">
-        <v>2181</v>
+        <v>39569</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4807,10 +4807,10 @@
         <v>11</v>
       </c>
       <c r="D193" t="n">
-        <v>173.2764261080367</v>
+        <v>110.7985021746839</v>
       </c>
       <c r="E193" t="n">
-        <v>16</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4824,10 +4824,10 @@
         <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>132.2476614620039</v>
+        <v>79.17031341200412</v>
       </c>
       <c r="E194" t="n">
-        <v>633</v>
+        <v>16511</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4841,7 +4841,7 @@
         <v>6</v>
       </c>
       <c r="D195" t="n">
-        <v>180.4829696134072</v>
+        <v>180.4598050626288</v>
       </c>
       <c r="E195" t="n">
         <v>2</v>
@@ -4858,10 +4858,10 @@
         <v>11</v>
       </c>
       <c r="D196" t="n">
-        <v>161.9713589283419</v>
+        <v>162.5604110575924</v>
       </c>
       <c r="E196" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4875,10 +4875,10 @@
         <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>161.9713589283419</v>
+        <v>162.5604110575924</v>
       </c>
       <c r="E197" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4892,10 +4892,10 @@
         <v>11</v>
       </c>
       <c r="D198" t="n">
-        <v>149.8025725731637</v>
+        <v>151.6171119246282</v>
       </c>
       <c r="E198" t="n">
-        <v>181</v>
+        <v>143</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4909,10 +4909,10 @@
         <v>6</v>
       </c>
       <c r="D199" t="n">
-        <v>150.821214530973</v>
+        <v>150.9216043520801</v>
       </c>
       <c r="E199" t="n">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4926,10 +4926,10 @@
         <v>11</v>
       </c>
       <c r="D200" t="n">
-        <v>176.0024269526394</v>
+        <v>174.8162906456494</v>
       </c>
       <c r="E200" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4943,10 +4943,10 @@
         <v>6</v>
       </c>
       <c r="D201" t="n">
-        <v>146.7418530778714</v>
+        <v>93.94669540493811</v>
       </c>
       <c r="E201" t="n">
-        <v>233</v>
+        <v>6552</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4960,10 +4960,10 @@
         <v>11</v>
       </c>
       <c r="D202" t="n">
-        <v>131.7684859958936</v>
+        <v>132.0303462639813</v>
       </c>
       <c r="E202" t="n">
-        <v>660</v>
+        <v>631</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4977,10 +4977,10 @@
         <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>98.16591381167542</v>
+        <v>97.81766080760757</v>
       </c>
       <c r="E203" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4994,10 +4994,10 @@
         <v>11</v>
       </c>
       <c r="D204" t="n">
-        <v>97.29378651922109</v>
+        <v>97.06359787584084</v>
       </c>
       <c r="E204" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5011,10 +5011,10 @@
         <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>82.58185935542755</v>
+        <v>82.42231560765924</v>
       </c>
       <c r="E205" t="n">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5028,10 +5028,10 @@
         <v>11</v>
       </c>
       <c r="D206" t="n">
-        <v>95.07653171456796</v>
+        <v>94.60225605402083</v>
       </c>
       <c r="E206" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5045,7 +5045,7 @@
         <v>6</v>
       </c>
       <c r="D207" t="n">
-        <v>107.1043008095038</v>
+        <v>106.7827776200494</v>
       </c>
       <c r="E207" t="n">
         <v>2</v>
@@ -5062,10 +5062,10 @@
         <v>6</v>
       </c>
       <c r="D208" t="n">
-        <v>45.34650966699757</v>
+        <v>45.41149837497515</v>
       </c>
       <c r="E208" t="n">
-        <v>43392</v>
+        <v>43284</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5079,10 +5079,10 @@
         <v>6</v>
       </c>
       <c r="D209" t="n">
-        <v>93.50580158081853</v>
+        <v>93.75982229247889</v>
       </c>
       <c r="E209" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5096,10 +5096,10 @@
         <v>11</v>
       </c>
       <c r="D210" t="n">
-        <v>90.32901444656383</v>
+        <v>90.56706149284918</v>
       </c>
       <c r="E210" t="n">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5113,10 +5113,10 @@
         <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>53.81215262937816</v>
+        <v>54.03065744572275</v>
       </c>
       <c r="E211" t="n">
-        <v>17162</v>
+        <v>16737</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5130,10 +5130,10 @@
         <v>11</v>
       </c>
       <c r="D212" t="n">
-        <v>89.78468351218328</v>
+        <v>90.13186222349496</v>
       </c>
       <c r="E212" t="n">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5147,10 +5147,10 @@
         <v>6</v>
       </c>
       <c r="D213" t="n">
-        <v>75.23974733369288</v>
+        <v>75.35968627884807</v>
       </c>
       <c r="E213" t="n">
-        <v>890</v>
+        <v>874</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5164,10 +5164,10 @@
         <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>76.00153999383396</v>
+        <v>76.34715121168489</v>
       </c>
       <c r="E214" t="n">
-        <v>810</v>
+        <v>778</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5181,10 +5181,10 @@
         <v>11</v>
       </c>
       <c r="D215" t="n">
-        <v>100.5750531249575</v>
+        <v>100.3129604891216</v>
       </c>
       <c r="E215" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5198,10 +5198,10 @@
         <v>6</v>
       </c>
       <c r="D216" t="n">
-        <v>100.9473937180611</v>
+        <v>101.3546465074157</v>
       </c>
       <c r="E216" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5215,10 +5215,10 @@
         <v>6</v>
       </c>
       <c r="D217" t="n">
-        <v>97.77349682371066</v>
+        <v>98.14091882703489</v>
       </c>
       <c r="E217" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5232,10 +5232,10 @@
         <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>99.2845428823525</v>
+        <v>99.43008058708551</v>
       </c>
       <c r="E218" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5249,10 +5249,10 @@
         <v>6</v>
       </c>
       <c r="D219" t="n">
-        <v>100.629406644562</v>
+        <v>100.7684488300635</v>
       </c>
       <c r="E219" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5266,10 +5266,10 @@
         <v>6</v>
       </c>
       <c r="D220" t="n">
-        <v>80.81816289510643</v>
+        <v>80.94778096506016</v>
       </c>
       <c r="E220" t="n">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5283,10 +5283,10 @@
         <v>6</v>
       </c>
       <c r="D221" t="n">
-        <v>98.53625739282487</v>
+        <v>99.08089574290547</v>
       </c>
       <c r="E221" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5300,10 +5300,10 @@
         <v>6</v>
       </c>
       <c r="D222" t="n">
-        <v>79.1463368815282</v>
+        <v>79.32458229749227</v>
       </c>
       <c r="E222" t="n">
-        <v>576</v>
+        <v>566</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5317,10 +5317,10 @@
         <v>6</v>
       </c>
       <c r="D223" t="n">
-        <v>77.53742579394121</v>
+        <v>77.61789929685901</v>
       </c>
       <c r="E223" t="n">
-        <v>679</v>
+        <v>669</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5334,10 +5334,10 @@
         <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>36.39425001520922</v>
+        <v>36.375408052794</v>
       </c>
       <c r="E224" t="n">
-        <v>98461</v>
+        <v>98387</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5351,10 +5351,10 @@
         <v>6</v>
       </c>
       <c r="D225" t="n">
-        <v>93.86004722954974</v>
+        <v>94.0753832204375</v>
       </c>
       <c r="E225" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5368,10 +5368,10 @@
         <v>6</v>
       </c>
       <c r="D226" t="n">
-        <v>73.92319663016585</v>
+        <v>74.01716801863446</v>
       </c>
       <c r="E226" t="n">
-        <v>1028</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5385,10 +5385,10 @@
         <v>6</v>
       </c>
       <c r="D227" t="n">
-        <v>76.53029954767999</v>
+        <v>76.74902714713073</v>
       </c>
       <c r="E227" t="n">
-        <v>759</v>
+        <v>747</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5402,10 +5402,10 @@
         <v>6</v>
       </c>
       <c r="D228" t="n">
-        <v>92.61448656008585</v>
+        <v>92.56600013657233</v>
       </c>
       <c r="E228" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5419,10 +5419,10 @@
         <v>6</v>
       </c>
       <c r="D229" t="n">
-        <v>93.86587259132688</v>
+        <v>93.8106919592073</v>
       </c>
       <c r="E229" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5436,7 +5436,7 @@
         <v>6</v>
       </c>
       <c r="D230" t="n">
-        <v>112.861740785379</v>
+        <v>112.3043542542893</v>
       </c>
       <c r="E230" t="n">
         <v>1</v>
@@ -5453,10 +5453,10 @@
         <v>6</v>
       </c>
       <c r="D231" t="n">
-        <v>100.6973905555246</v>
+        <v>100.2510767558341</v>
       </c>
       <c r="E231" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5470,7 +5470,7 @@
         <v>11</v>
       </c>
       <c r="D232" t="n">
-        <v>105.5137336826931</v>
+        <v>105.091013850565</v>
       </c>
       <c r="E232" t="n">
         <v>3</v>
@@ -5487,7 +5487,7 @@
         <v>11</v>
       </c>
       <c r="D233" t="n">
-        <v>87.84230935156967</v>
+        <v>87.86895893213396</v>
       </c>
       <c r="E233" t="n">
         <v>195</v>
@@ -5504,10 +5504,10 @@
         <v>6</v>
       </c>
       <c r="D234" t="n">
-        <v>98.70614566289284</v>
+        <v>98.92551748055351</v>
       </c>
       <c r="E234" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5521,10 +5521,10 @@
         <v>6</v>
       </c>
       <c r="D235" t="n">
-        <v>100.5179528248453</v>
+        <v>100.5491804455942</v>
       </c>
       <c r="E235" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5538,10 +5538,10 @@
         <v>6</v>
       </c>
       <c r="D236" t="n">
-        <v>57.46749263603463</v>
+        <v>57.74354579891364</v>
       </c>
       <c r="E236" t="n">
-        <v>10790</v>
+        <v>10451</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5555,10 +5555,10 @@
         <v>6</v>
       </c>
       <c r="D237" t="n">
-        <v>56.14531532779336</v>
+        <v>56.19212051732042</v>
       </c>
       <c r="E237" t="n">
-        <v>12881</v>
+        <v>12699</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5572,10 +5572,10 @@
         <v>11</v>
       </c>
       <c r="D238" t="n">
-        <v>91.81526631674532</v>
+        <v>91.35295564395742</v>
       </c>
       <c r="E238" t="n">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5589,10 +5589,10 @@
         <v>11</v>
       </c>
       <c r="D239" t="n">
-        <v>86.77460785824609</v>
+        <v>86.35020205014075</v>
       </c>
       <c r="E239" t="n">
-        <v>231</v>
+        <v>242</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5606,10 +5606,10 @@
         <v>6</v>
       </c>
       <c r="D240" t="n">
-        <v>67.09332623173751</v>
+        <v>66.83677756411801</v>
       </c>
       <c r="E240" t="n">
-        <v>2737</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5623,10 +5623,10 @@
         <v>11</v>
       </c>
       <c r="D241" t="n">
-        <v>98.61892445576555</v>
+        <v>99.15612681842657</v>
       </c>
       <c r="E241" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5640,10 +5640,10 @@
         <v>6</v>
       </c>
       <c r="D242" t="n">
-        <v>42.78900123038621</v>
+        <v>42.5740362695111</v>
       </c>
       <c r="E242" t="n">
-        <v>56315</v>
+        <v>57531</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5657,10 +5657,10 @@
         <v>11</v>
       </c>
       <c r="D243" t="n">
-        <v>90.64856344846007</v>
+        <v>91.09487326380915</v>
       </c>
       <c r="E243" t="n">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5674,10 +5674,10 @@
         <v>6</v>
       </c>
       <c r="D244" t="n">
-        <v>55.35269433581702</v>
+        <v>55.24138113927709</v>
       </c>
       <c r="E244" t="n">
-        <v>14239</v>
+        <v>14356</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5691,7 +5691,7 @@
         <v>11</v>
       </c>
       <c r="D245" t="n">
-        <v>103.5384801612584</v>
+        <v>103.1885825093743</v>
       </c>
       <c r="E245" t="n">
         <v>4</v>
@@ -5708,10 +5708,10 @@
         <v>6</v>
       </c>
       <c r="D246" t="n">
-        <v>78.84585500435047</v>
+        <v>78.65066147162219</v>
       </c>
       <c r="E246" t="n">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5725,10 +5725,10 @@
         <v>6</v>
       </c>
       <c r="D247" t="n">
-        <v>75.38687214501243</v>
+        <v>74.93638566476048</v>
       </c>
       <c r="E247" t="n">
-        <v>872</v>
+        <v>923</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5742,10 +5742,10 @@
         <v>11</v>
       </c>
       <c r="D248" t="n">
-        <v>49.04687817791753</v>
+        <v>48.97505263060387</v>
       </c>
       <c r="E248" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5759,10 +5759,10 @@
         <v>6</v>
       </c>
       <c r="D249" t="n">
-        <v>55.16128911548725</v>
+        <v>36.09687643882533</v>
       </c>
       <c r="E249" t="n">
-        <v>13</v>
+        <v>201</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5776,10 +5776,10 @@
         <v>6</v>
       </c>
       <c r="D250" t="n">
-        <v>46.82924726010103</v>
+        <v>22.87162000313521</v>
       </c>
       <c r="E250" t="n">
-        <v>31</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5793,10 +5793,10 @@
         <v>6</v>
       </c>
       <c r="D251" t="n">
-        <v>58.846647659203</v>
+        <v>29.56947947925733</v>
       </c>
       <c r="E251" t="n">
-        <v>7</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5810,10 +5810,10 @@
         <v>11</v>
       </c>
       <c r="D252" t="n">
-        <v>47.06924281396142</v>
+        <v>47.26416901197231</v>
       </c>
       <c r="E252" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5827,10 +5827,10 @@
         <v>6</v>
       </c>
       <c r="D253" t="n">
-        <v>58.87811414515924</v>
+        <v>24.88337359987393</v>
       </c>
       <c r="E253" t="n">
-        <v>6</v>
+        <v>9836</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5844,10 +5844,10 @@
         <v>6</v>
       </c>
       <c r="D254" t="n">
-        <v>46.13593027889552</v>
+        <v>28.23832439928007</v>
       </c>
       <c r="E254" t="n">
-        <v>33</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5861,10 +5861,10 @@
         <v>6</v>
       </c>
       <c r="D255" t="n">
-        <v>51.68480514183739</v>
+        <v>51.57449457340155</v>
       </c>
       <c r="E255" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5878,10 +5878,10 @@
         <v>11</v>
       </c>
       <c r="D256" t="n">
-        <v>37.5609193814206</v>
+        <v>37.50560538109223</v>
       </c>
       <c r="E256" t="n">
-        <v>190</v>
+        <v>149</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5895,10 +5895,10 @@
         <v>6</v>
       </c>
       <c r="D257" t="n">
-        <v>55.49775180027132</v>
+        <v>20.1755133674592</v>
       </c>
       <c r="E257" t="n">
-        <v>12</v>
+        <v>42745</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5912,10 +5912,10 @@
         <v>6</v>
       </c>
       <c r="D258" t="n">
-        <v>46.91949458160612</v>
+        <v>46.92445309327533</v>
       </c>
       <c r="E258" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5929,10 +5929,10 @@
         <v>11</v>
       </c>
       <c r="D259" t="n">
-        <v>34.28269647805384</v>
+        <v>34.36664617792886</v>
       </c>
       <c r="E259" t="n">
-        <v>395</v>
+        <v>342</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5946,10 +5946,10 @@
         <v>6</v>
       </c>
       <c r="D260" t="n">
-        <v>62.56606979696914</v>
+        <v>25.59580351076546</v>
       </c>
       <c r="E260" t="n">
-        <v>3</v>
+        <v>7734</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5963,10 +5963,10 @@
         <v>6</v>
       </c>
       <c r="D261" t="n">
-        <v>60.27389167213639</v>
+        <v>25.86864678260285</v>
       </c>
       <c r="E261" t="n">
-        <v>5</v>
+        <v>6984</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5980,10 +5980,10 @@
         <v>6</v>
       </c>
       <c r="D262" t="n">
-        <v>41.61389715108781</v>
+        <v>41.68623466769183</v>
       </c>
       <c r="E262" t="n">
-        <v>81</v>
+        <v>49</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5997,10 +5997,10 @@
         <v>11</v>
       </c>
       <c r="D263" t="n">
-        <v>57.99938869196452</v>
+        <v>58.28237488143363</v>
       </c>
       <c r="E263" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6014,10 +6014,10 @@
         <v>6</v>
       </c>
       <c r="D264" t="n">
-        <v>69.91042241600807</v>
+        <v>33.23206581799413</v>
       </c>
       <c r="E264" t="n">
-        <v>1</v>
+        <v>526</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6031,10 +6031,10 @@
         <v>6</v>
       </c>
       <c r="D265" t="n">
-        <v>48.76611016231313</v>
+        <v>48.79705078666946</v>
       </c>
       <c r="E265" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6048,10 +6048,10 @@
         <v>6</v>
       </c>
       <c r="D266" t="n">
-        <v>45.45398100210259</v>
+        <v>45.75847378711259</v>
       </c>
       <c r="E266" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6065,10 +6065,10 @@
         <v>6</v>
       </c>
       <c r="D267" t="n">
-        <v>47.28825714634896</v>
+        <v>47.0019873234795</v>
       </c>
       <c r="E267" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6082,10 +6082,10 @@
         <v>6</v>
       </c>
       <c r="D268" t="n">
-        <v>69.26951290275005</v>
+        <v>34.04955215802606</v>
       </c>
       <c r="E268" t="n">
-        <v>2</v>
+        <v>398</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -6099,10 +6099,10 @@
         <v>6</v>
       </c>
       <c r="D269" t="n">
-        <v>56.44756067636011</v>
+        <v>21.38547934134928</v>
       </c>
       <c r="E269" t="n">
-        <v>11</v>
+        <v>30372</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -6116,10 +6116,10 @@
         <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>52.64701176695779</v>
+        <v>52.73853903500309</v>
       </c>
       <c r="E270" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -6133,10 +6133,10 @@
         <v>6</v>
       </c>
       <c r="D271" t="n">
-        <v>41.90264935069919</v>
+        <v>41.78048845989805</v>
       </c>
       <c r="E271" t="n">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6150,10 +6150,10 @@
         <v>6</v>
       </c>
       <c r="D272" t="n">
-        <v>57.4177616590348</v>
+        <v>23.3941533247675</v>
       </c>
       <c r="E272" t="n">
-        <v>10</v>
+        <v>16435</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -6167,7 +6167,7 @@
         <v>11</v>
       </c>
       <c r="D273" t="n">
-        <v>48.7172411793216</v>
+        <v>48.80321156247813</v>
       </c>
       <c r="E273" t="n">
         <v>1</v>
@@ -6184,10 +6184,10 @@
         <v>11</v>
       </c>
       <c r="D274" t="n">
-        <v>34.90979937515966</v>
+        <v>34.94205377479526</v>
       </c>
       <c r="E274" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -6201,10 +6201,10 @@
         <v>11</v>
       </c>
       <c r="D275" t="n">
-        <v>24.34830998704138</v>
+        <v>24.22186923184915</v>
       </c>
       <c r="E275" t="n">
-        <v>2514</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -6218,7 +6218,7 @@
         <v>6</v>
       </c>
       <c r="D276" t="n">
-        <v>38.93159969004434</v>
+        <v>38.82224478519597</v>
       </c>
       <c r="E276" t="n">
         <v>36</v>
@@ -6235,10 +6235,10 @@
         <v>11</v>
       </c>
       <c r="D277" t="n">
-        <v>32.84829587529527</v>
+        <v>32.68075158485857</v>
       </c>
       <c r="E277" t="n">
-        <v>227</v>
+        <v>238</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -6252,10 +6252,10 @@
         <v>11</v>
       </c>
       <c r="D278" t="n">
-        <v>33.27912157526181</v>
+        <v>33.47922630541259</v>
       </c>
       <c r="E278" t="n">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -6269,10 +6269,10 @@
         <v>6</v>
       </c>
       <c r="D279" t="n">
-        <v>32.96224429732969</v>
+        <v>33.12880204917558</v>
       </c>
       <c r="E279" t="n">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -6286,10 +6286,10 @@
         <v>6</v>
       </c>
       <c r="D280" t="n">
-        <v>25.2352752410579</v>
+        <v>25.24648709699585</v>
       </c>
       <c r="E280" t="n">
-        <v>1867</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -6303,7 +6303,7 @@
         <v>11</v>
       </c>
       <c r="D281" t="n">
-        <v>44.07235141493809</v>
+        <v>44.107163128675</v>
       </c>
       <c r="E281" t="n">
         <v>7</v>
@@ -6320,10 +6320,10 @@
         <v>6</v>
       </c>
       <c r="D282" t="n">
-        <v>22.64491169769088</v>
+        <v>22.82311101677909</v>
       </c>
       <c r="E282" t="n">
-        <v>4675</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -6337,10 +6337,10 @@
         <v>11</v>
       </c>
       <c r="D283" t="n">
-        <v>33.78651472567313</v>
+        <v>33.91054896908073</v>
       </c>
       <c r="E283" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -6354,7 +6354,7 @@
         <v>11</v>
       </c>
       <c r="D284" t="n">
-        <v>42.53246097893434</v>
+        <v>42.76781454227945</v>
       </c>
       <c r="E284" t="n">
         <v>12</v>
@@ -6371,7 +6371,7 @@
         <v>11</v>
       </c>
       <c r="D285" t="n">
-        <v>42.45794897094398</v>
+        <v>42.59881684561025</v>
       </c>
       <c r="E285" t="n">
         <v>13</v>
@@ -6388,7 +6388,7 @@
         <v>6</v>
       </c>
       <c r="D286" t="n">
-        <v>37.15034382592715</v>
+        <v>37.27982776655988</v>
       </c>
       <c r="E286" t="n">
         <v>55</v>
@@ -6405,10 +6405,10 @@
         <v>11</v>
       </c>
       <c r="D287" t="n">
-        <v>41.4195375131637</v>
+        <v>41.34489550074343</v>
       </c>
       <c r="E287" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -6422,7 +6422,7 @@
         <v>6</v>
       </c>
       <c r="D288" t="n">
-        <v>47.44549283630001</v>
+        <v>47.71152634842755</v>
       </c>
       <c r="E288" t="n">
         <v>3</v>
@@ -6439,7 +6439,7 @@
         <v>6</v>
       </c>
       <c r="D289" t="n">
-        <v>47.44549283630001</v>
+        <v>47.71152634842755</v>
       </c>
       <c r="E289" t="n">
         <v>2</v>
@@ -6456,7 +6456,7 @@
         <v>11</v>
       </c>
       <c r="D290" t="n">
-        <v>42.06934715475921</v>
+        <v>42.21548462726448</v>
       </c>
       <c r="E290" t="n">
         <v>14</v>
@@ -6473,10 +6473,10 @@
         <v>6</v>
       </c>
       <c r="D291" t="n">
-        <v>30.75059956057419</v>
+        <v>30.87406304017662</v>
       </c>
       <c r="E291" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -6490,10 +6490,10 @@
         <v>6</v>
       </c>
       <c r="D292" t="n">
-        <v>30.12172467490051</v>
+        <v>30.02390807678001</v>
       </c>
       <c r="E292" t="n">
-        <v>420</v>
+        <v>438</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -6507,10 +6507,10 @@
         <v>6</v>
       </c>
       <c r="D293" t="n">
-        <v>40.56740204342412</v>
+        <v>40.5124628311742</v>
       </c>
       <c r="E293" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -6524,10 +6524,10 @@
         <v>6</v>
       </c>
       <c r="D294" t="n">
-        <v>40.5270947801806</v>
+        <v>40.56333452246989</v>
       </c>
       <c r="E294" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -6541,10 +6541,10 @@
         <v>6</v>
       </c>
       <c r="D295" t="n">
-        <v>25.87653901547185</v>
+        <v>25.87068570834479</v>
       </c>
       <c r="E295" t="n">
-        <v>1522</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -6558,10 +6558,10 @@
         <v>11</v>
       </c>
       <c r="D296" t="n">
-        <v>43.90046426441294</v>
+        <v>43.76920265658919</v>
       </c>
       <c r="E296" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -6575,10 +6575,10 @@
         <v>6</v>
       </c>
       <c r="D297" t="n">
-        <v>28.71566136050016</v>
+        <v>28.67904395910922</v>
       </c>
       <c r="E297" t="n">
-        <v>615</v>
+        <v>630</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -6592,7 +6592,7 @@
         <v>11</v>
       </c>
       <c r="D298" t="n">
-        <v>38.65490778547561</v>
+        <v>38.69796674829776</v>
       </c>
       <c r="E298" t="n">
         <v>38</v>
@@ -6609,10 +6609,10 @@
         <v>6</v>
       </c>
       <c r="D299" t="n">
-        <v>36.27646859258455</v>
+        <v>36.39560856334335</v>
       </c>
       <c r="E299" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -6626,10 +6626,10 @@
         <v>11</v>
       </c>
       <c r="D300" t="n">
-        <v>38.1230195098358</v>
+        <v>37.88997068193425</v>
       </c>
       <c r="E300" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -6643,10 +6643,10 @@
         <v>6</v>
       </c>
       <c r="D301" t="n">
-        <v>27.7049320514314</v>
+        <v>27.51146623955308</v>
       </c>
       <c r="E301" t="n">
-        <v>853</v>
+        <v>899</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -6660,10 +6660,10 @@
         <v>6</v>
       </c>
       <c r="D302" t="n">
-        <v>27.7049320514314</v>
+        <v>27.51146623955308</v>
       </c>
       <c r="E302" t="n">
-        <v>852</v>
+        <v>898</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -6677,10 +6677,10 @@
         <v>6</v>
       </c>
       <c r="D303" t="n">
-        <v>24.88469846600119</v>
+        <v>24.8886568693223</v>
       </c>
       <c r="E303" t="n">
-        <v>2071</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -6694,10 +6694,10 @@
         <v>6</v>
       </c>
       <c r="D304" t="n">
-        <v>78.71353808290017</v>
+        <v>78.21784010430207</v>
       </c>
       <c r="E304" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -6711,7 +6711,7 @@
         <v>11</v>
       </c>
       <c r="D305" t="n">
-        <v>88.27433342797688</v>
+        <v>89.23683457385079</v>
       </c>
       <c r="E305" t="n">
         <v>2</v>
@@ -6728,10 +6728,10 @@
         <v>6</v>
       </c>
       <c r="D306" t="n">
-        <v>75.75239779505787</v>
+        <v>75.39422003715559</v>
       </c>
       <c r="E306" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -6745,10 +6745,10 @@
         <v>6</v>
       </c>
       <c r="D307" t="n">
-        <v>69.89383454840824</v>
+        <v>69.65440363338985</v>
       </c>
       <c r="E307" t="n">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -6762,10 +6762,10 @@
         <v>6</v>
       </c>
       <c r="D308" t="n">
-        <v>46.97958359951951</v>
+        <v>46.84915038456293</v>
       </c>
       <c r="E308" t="n">
-        <v>10383</v>
+        <v>10516</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -6779,10 +6779,10 @@
         <v>6</v>
       </c>
       <c r="D309" t="n">
-        <v>42.78147151475516</v>
+        <v>42.86692724306102</v>
       </c>
       <c r="E309" t="n">
-        <v>23862</v>
+        <v>23282</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -6796,10 +6796,10 @@
         <v>6</v>
       </c>
       <c r="D310" t="n">
-        <v>83.35305994591182</v>
+        <v>82.96559276971929</v>
       </c>
       <c r="E310" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -6813,10 +6813,10 @@
         <v>11</v>
       </c>
       <c r="D311" t="n">
-        <v>62.75791279816148</v>
+        <v>62.82004059326858</v>
       </c>
       <c r="E311" t="n">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -6830,10 +6830,10 @@
         <v>6</v>
       </c>
       <c r="D312" t="n">
-        <v>75.95024118451603</v>
+        <v>76.49032562636565</v>
       </c>
       <c r="E312" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -6847,10 +6847,10 @@
         <v>6</v>
       </c>
       <c r="D313" t="n">
-        <v>82.10882430247707</v>
+        <v>83.05219670446508</v>
       </c>
       <c r="E313" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -6864,10 +6864,10 @@
         <v>6</v>
       </c>
       <c r="D314" t="n">
-        <v>15.99259262661338</v>
+        <v>16.09385395934008</v>
       </c>
       <c r="E314" t="n">
-        <v>233124</v>
+        <v>232707</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -6881,10 +6881,10 @@
         <v>6</v>
       </c>
       <c r="D315" t="n">
-        <v>41.64614419275563</v>
+        <v>41.93155308962331</v>
       </c>
       <c r="E315" t="n">
-        <v>29178</v>
+        <v>27616</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -6898,10 +6898,10 @@
         <v>6</v>
       </c>
       <c r="D316" t="n">
-        <v>35.45343968706996</v>
+        <v>35.62356910980248</v>
       </c>
       <c r="E316" t="n">
-        <v>72137</v>
+        <v>70577</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -6915,10 +6915,10 @@
         <v>11</v>
       </c>
       <c r="D317" t="n">
-        <v>82.31138375796328</v>
+        <v>82.79212028712038</v>
       </c>
       <c r="E317" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -6932,10 +6932,10 @@
         <v>11</v>
       </c>
       <c r="D318" t="n">
-        <v>80.04281630302684</v>
+        <v>80.312647565389</v>
       </c>
       <c r="E318" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -6949,10 +6949,10 @@
         <v>6</v>
       </c>
       <c r="D319" t="n">
-        <v>53.15937919573869</v>
+        <v>53.33777936712849</v>
       </c>
       <c r="E319" t="n">
-        <v>2724</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -6966,7 +6966,7 @@
         <v>6</v>
       </c>
       <c r="D320" t="n">
-        <v>89.55063161532189</v>
+        <v>90.25458795916025</v>
       </c>
       <c r="E320" t="n">
         <v>1</v>
@@ -6983,10 +6983,10 @@
         <v>6</v>
       </c>
       <c r="D321" t="n">
-        <v>74.70744254529414</v>
+        <v>74.97097300098237</v>
       </c>
       <c r="E321" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -7000,10 +7000,10 @@
         <v>11</v>
       </c>
       <c r="D322" t="n">
-        <v>54.41606035342694</v>
+        <v>54.44171439436851</v>
       </c>
       <c r="E322" t="n">
-        <v>2059</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -7017,10 +7017,10 @@
         <v>11</v>
       </c>
       <c r="D323" t="n">
-        <v>72.49726431397166</v>
+        <v>72.61783236046278</v>
       </c>
       <c r="E323" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -7034,10 +7034,10 @@
         <v>6</v>
       </c>
       <c r="D324" t="n">
-        <v>74.09436473817681</v>
+        <v>74.09038083310894</v>
       </c>
       <c r="E324" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -7051,7 +7051,7 @@
         <v>6</v>
       </c>
       <c r="D325" t="n">
-        <v>84.07846276713376</v>
+        <v>84.22564295925267</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -7068,10 +7068,10 @@
         <v>11</v>
       </c>
       <c r="D326" t="n">
-        <v>72.80808724983915</v>
+        <v>72.67374763788717</v>
       </c>
       <c r="E326" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -7085,7 +7085,7 @@
         <v>6</v>
       </c>
       <c r="D327" t="n">
-        <v>88.01746301293156</v>
+        <v>87.76140033252572</v>
       </c>
       <c r="E327" t="n">
         <v>3</v>
@@ -7102,10 +7102,10 @@
         <v>6</v>
       </c>
       <c r="D328" t="n">
-        <v>77.71526618910654</v>
+        <v>77.92469688326328</v>
       </c>
       <c r="E328" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -7119,10 +7119,10 @@
         <v>6</v>
       </c>
       <c r="D329" t="n">
-        <v>63.16919448534282</v>
+        <v>63.45832996163887</v>
       </c>
       <c r="E329" t="n">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -7136,10 +7136,10 @@
         <v>6</v>
       </c>
       <c r="D330" t="n">
-        <v>36.97180987786982</v>
+        <v>37.07503236519739</v>
       </c>
       <c r="E330" t="n">
-        <v>59729</v>
+        <v>58873</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -7153,10 +7153,10 @@
         <v>6</v>
       </c>
       <c r="D331" t="n">
-        <v>69.38698354120511</v>
+        <v>70.24056369500325</v>
       </c>
       <c r="E331" t="n">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -7170,10 +7170,10 @@
         <v>6</v>
       </c>
       <c r="D332" t="n">
-        <v>76.93868135492794</v>
+        <v>77.40313463175926</v>
       </c>
       <c r="E332" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -7187,10 +7187,10 @@
         <v>6</v>
       </c>
       <c r="D333" t="n">
-        <v>72.61980121320313</v>
+        <v>73.24366546944589</v>
       </c>
       <c r="E333" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -7204,7 +7204,7 @@
         <v>6</v>
       </c>
       <c r="D334" t="n">
-        <v>69.76858426443894</v>
+        <v>69.83268924866528</v>
       </c>
       <c r="E334" t="n">
         <v>112</v>
@@ -7221,10 +7221,10 @@
         <v>6</v>
       </c>
       <c r="D335" t="n">
-        <v>53.02026852580045</v>
+        <v>53.87908252268064</v>
       </c>
       <c r="E335" t="n">
-        <v>2828</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -7238,10 +7238,10 @@
         <v>6</v>
       </c>
       <c r="D336" t="n">
-        <v>73.18071433687031</v>
+        <v>73.94437278559353</v>
       </c>
       <c r="E336" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -7255,10 +7255,10 @@
         <v>6</v>
       </c>
       <c r="D337" t="n">
-        <v>43.30031172922465</v>
+        <v>43.12957490685412</v>
       </c>
       <c r="E337" t="n">
-        <v>21621</v>
+        <v>22115</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -7272,10 +7272,10 @@
         <v>6</v>
       </c>
       <c r="D338" t="n">
-        <v>43.6484895675882</v>
+        <v>43.63971270763823</v>
       </c>
       <c r="E338" t="n">
-        <v>20219</v>
+        <v>20060</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -7289,10 +7289,10 @@
         <v>6</v>
       </c>
       <c r="D339" t="n">
-        <v>51.70655323928119</v>
+        <v>51.42112547227777</v>
       </c>
       <c r="E339" t="n">
-        <v>3756</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -7306,10 +7306,10 @@
         <v>6</v>
       </c>
       <c r="D340" t="n">
-        <v>72.15629251395431</v>
+        <v>71.5348131965975</v>
       </c>
       <c r="E340" t="n">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -7323,10 +7323,10 @@
         <v>6</v>
       </c>
       <c r="D341" t="n">
-        <v>40.34601327662618</v>
+        <v>40.11886185208867</v>
       </c>
       <c r="E341" t="n">
-        <v>36435</v>
+        <v>37340</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -7340,10 +7340,10 @@
         <v>6</v>
       </c>
       <c r="D342" t="n">
-        <v>46.93073113511205</v>
+        <v>46.62324391910642</v>
       </c>
       <c r="E342" t="n">
-        <v>10486</v>
+        <v>11058</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -7357,10 +7357,10 @@
         <v>6</v>
       </c>
       <c r="D343" t="n">
-        <v>28.57174003087895</v>
+        <v>28.50769805048019</v>
       </c>
       <c r="E343" t="n">
-        <v>138130</v>
+        <v>138763</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -7374,10 +7374,10 @@
         <v>11</v>
       </c>
       <c r="D344" t="n">
-        <v>38.34325712308907</v>
+        <v>38.18695223473362</v>
       </c>
       <c r="E344" t="n">
-        <v>167</v>
+        <v>145</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -7391,10 +7391,10 @@
         <v>6</v>
       </c>
       <c r="D345" t="n">
-        <v>30.98677736609073</v>
+        <v>30.82526743484202</v>
       </c>
       <c r="E345" t="n">
-        <v>3433</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -7408,10 +7408,10 @@
         <v>6</v>
       </c>
       <c r="D346" t="n">
-        <v>36.18011698978498</v>
+        <v>36.2955967456659</v>
       </c>
       <c r="E346" t="n">
-        <v>423</v>
+        <v>366</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -7425,10 +7425,10 @@
         <v>11</v>
       </c>
       <c r="D347" t="n">
-        <v>41.15671727464294</v>
+        <v>40.9862770224787</v>
       </c>
       <c r="E347" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -7442,10 +7442,10 @@
         <v>11</v>
       </c>
       <c r="D348" t="n">
-        <v>41.28785446479645</v>
+        <v>41.10952325061967</v>
       </c>
       <c r="E348" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -7459,10 +7459,10 @@
         <v>6</v>
       </c>
       <c r="D349" t="n">
-        <v>30.19838928734421</v>
+        <v>30.3163182292523</v>
       </c>
       <c r="E349" t="n">
-        <v>4522</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -7476,10 +7476,10 @@
         <v>6</v>
       </c>
       <c r="D350" t="n">
-        <v>27.83129147531106</v>
+        <v>27.73078736837719</v>
       </c>
       <c r="E350" t="n">
-        <v>10353</v>
+        <v>10574</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -7493,10 +7493,10 @@
         <v>6</v>
       </c>
       <c r="D351" t="n">
-        <v>39.46398757486535</v>
+        <v>39.21623021047634</v>
       </c>
       <c r="E351" t="n">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -7510,10 +7510,10 @@
         <v>11</v>
       </c>
       <c r="D352" t="n">
-        <v>56.2365989268073</v>
+        <v>30.301332679848</v>
       </c>
       <c r="E352" t="n">
-        <v>1</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -7527,10 +7527,10 @@
         <v>6</v>
       </c>
       <c r="D353" t="n">
-        <v>28.40119456769184</v>
+        <v>28.35484118641701</v>
       </c>
       <c r="E353" t="n">
-        <v>8599</v>
+        <v>8593</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -7544,10 +7544,10 @@
         <v>6</v>
       </c>
       <c r="D354" t="n">
-        <v>52.01654867283021</v>
+        <v>26.25414584179361</v>
       </c>
       <c r="E354" t="n">
-        <v>4</v>
+        <v>16568</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -7561,10 +7561,10 @@
         <v>6</v>
       </c>
       <c r="D355" t="n">
-        <v>51.94640936192058</v>
+        <v>35.87338823177154</v>
       </c>
       <c r="E355" t="n">
-        <v>5</v>
+        <v>453</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -7578,10 +7578,10 @@
         <v>6</v>
       </c>
       <c r="D356" t="n">
-        <v>44.79672820411624</v>
+        <v>27.83943081574477</v>
       </c>
       <c r="E356" t="n">
-        <v>15</v>
+        <v>10220</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -7595,10 +7595,10 @@
         <v>6</v>
       </c>
       <c r="D357" t="n">
-        <v>34.51932255102383</v>
+        <v>34.26251328110334</v>
       </c>
       <c r="E357" t="n">
-        <v>858</v>
+        <v>933</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -7612,10 +7612,10 @@
         <v>6</v>
       </c>
       <c r="D358" t="n">
-        <v>39.18935209048945</v>
+        <v>38.81282935020233</v>
       </c>
       <c r="E358" t="n">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -7629,10 +7629,10 @@
         <v>6</v>
       </c>
       <c r="D359" t="n">
-        <v>50.00808722210549</v>
+        <v>49.80086429509743</v>
       </c>
       <c r="E359" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -7646,10 +7646,10 @@
         <v>6</v>
       </c>
       <c r="D360" t="n">
-        <v>53.21408546231812</v>
+        <v>25.01670031731487</v>
       </c>
       <c r="E360" t="n">
-        <v>2</v>
+        <v>23370</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -7663,10 +7663,10 @@
         <v>6</v>
       </c>
       <c r="D361" t="n">
-        <v>35.00237642550215</v>
+        <v>35.00530602161719</v>
       </c>
       <c r="E361" t="n">
-        <v>694</v>
+        <v>664</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -7680,10 +7680,10 @@
         <v>6</v>
       </c>
       <c r="D362" t="n">
-        <v>37.72799246184871</v>
+        <v>37.78191340274688</v>
       </c>
       <c r="E362" t="n">
-        <v>217</v>
+        <v>182</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -7697,10 +7697,10 @@
         <v>6</v>
       </c>
       <c r="D363" t="n">
-        <v>40.79225543208769</v>
+        <v>10.62604946624962</v>
       </c>
       <c r="E363" t="n">
-        <v>48</v>
+        <v>222089</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -7714,10 +7714,10 @@
         <v>6</v>
       </c>
       <c r="D364" t="n">
-        <v>12.50033784659738</v>
+        <v>12.48941509402243</v>
       </c>
       <c r="E364" t="n">
-        <v>194529</v>
+        <v>194710</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -7731,10 +7731,10 @@
         <v>6</v>
       </c>
       <c r="D365" t="n">
-        <v>9.841665326971512</v>
+        <v>9.880151435053508</v>
       </c>
       <c r="E365" t="n">
-        <v>231300</v>
+        <v>230930</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -7748,10 +7748,10 @@
         <v>6</v>
       </c>
       <c r="D366" t="n">
-        <v>28.47960399093687</v>
+        <v>28.6333634283484</v>
       </c>
       <c r="E366" t="n">
-        <v>8354</v>
+        <v>7802</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -7765,10 +7765,10 @@
         <v>6</v>
       </c>
       <c r="D367" t="n">
-        <v>34.85410995487847</v>
+        <v>34.89609574372653</v>
       </c>
       <c r="E367" t="n">
-        <v>758</v>
+        <v>699</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -7782,10 +7782,10 @@
         <v>6</v>
       </c>
       <c r="D368" t="n">
-        <v>30.26900247560103</v>
+        <v>30.30376290229655</v>
       </c>
       <c r="E368" t="n">
-        <v>4419</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -7799,10 +7799,10 @@
         <v>6</v>
       </c>
       <c r="D369" t="n">
-        <v>47.06629177445747</v>
+        <v>26.5692139796921</v>
       </c>
       <c r="E369" t="n">
-        <v>10</v>
+        <v>15055</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -7816,10 +7816,10 @@
         <v>6</v>
       </c>
       <c r="D370" t="n">
-        <v>22.13055783983308</v>
+        <v>22.13162492925813</v>
       </c>
       <c r="E370" t="n">
-        <v>47789</v>
+        <v>47665</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -7833,10 +7833,10 @@
         <v>6</v>
       </c>
       <c r="D371" t="n">
-        <v>21.38350051161609</v>
+        <v>21.37465128406977</v>
       </c>
       <c r="E371" t="n">
-        <v>56288</v>
+        <v>56215</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -7850,10 +7850,10 @@
         <v>6</v>
       </c>
       <c r="D372" t="n">
-        <v>51.17148250575942</v>
+        <v>25.57211898054268</v>
       </c>
       <c r="E372" t="n">
-        <v>6</v>
+        <v>20095</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -7867,10 +7867,10 @@
         <v>6</v>
       </c>
       <c r="D373" t="n">
-        <v>40.9837643906616</v>
+        <v>20.75207218491316</v>
       </c>
       <c r="E373" t="n">
-        <v>47</v>
+        <v>63709</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -7884,10 +7884,10 @@
         <v>6</v>
       </c>
       <c r="D374" t="n">
-        <v>44.95137832870337</v>
+        <v>24.31211451133116</v>
       </c>
       <c r="E374" t="n">
-        <v>14</v>
+        <v>28104</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -7901,10 +7901,10 @@
         <v>11</v>
       </c>
       <c r="D375" t="n">
-        <v>29.06443586994198</v>
+        <v>29.08249418599219</v>
       </c>
       <c r="E375" t="n">
-        <v>6798</v>
+        <v>6603</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -7918,10 +7918,10 @@
         <v>6</v>
       </c>
       <c r="D376" t="n">
-        <v>32.60153775269519</v>
+        <v>32.63256816621049</v>
       </c>
       <c r="E376" t="n">
-        <v>1827</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -7935,10 +7935,10 @@
         <v>6</v>
       </c>
       <c r="D377" t="n">
-        <v>29.28125509509328</v>
+        <v>29.44909839056897</v>
       </c>
       <c r="E377" t="n">
-        <v>6260</v>
+        <v>5849</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -7952,10 +7952,10 @@
         <v>6</v>
       </c>
       <c r="D378" t="n">
-        <v>40.28044742159526</v>
+        <v>40.29360511300511</v>
       </c>
       <c r="E378" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -7969,10 +7969,10 @@
         <v>6</v>
       </c>
       <c r="D379" t="n">
-        <v>42.1452560057792</v>
+        <v>42.20282873001669</v>
       </c>
       <c r="E379" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -7986,10 +7986,10 @@
         <v>11</v>
       </c>
       <c r="D380" t="n">
-        <v>33.95826423488659</v>
+        <v>33.97546565679004</v>
       </c>
       <c r="E380" t="n">
-        <v>1086</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -8003,10 +8003,10 @@
         <v>6</v>
       </c>
       <c r="D381" t="n">
-        <v>46.23152040249619</v>
+        <v>19.32851925014008</v>
       </c>
       <c r="E381" t="n">
-        <v>11</v>
+        <v>83487</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -8020,10 +8020,10 @@
         <v>6</v>
       </c>
       <c r="D382" t="n">
-        <v>25.26539919327317</v>
+        <v>25.28931611076031</v>
       </c>
       <c r="E382" t="n">
-        <v>21947</v>
+        <v>21736</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -8037,10 +8037,10 @@
         <v>6</v>
       </c>
       <c r="D383" t="n">
-        <v>41.64952559337745</v>
+        <v>18.9551092634076</v>
       </c>
       <c r="E383" t="n">
-        <v>35</v>
+        <v>89216</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -8054,10 +8054,10 @@
         <v>6</v>
       </c>
       <c r="D384" t="n">
-        <v>45.07763740290986</v>
+        <v>19.93186493567089</v>
       </c>
       <c r="E384" t="n">
-        <v>13</v>
+        <v>74725</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -8071,10 +8071,10 @@
         <v>6</v>
       </c>
       <c r="D385" t="n">
-        <v>52.24790070146392</v>
+        <v>33.48284783825077</v>
       </c>
       <c r="E385" t="n">
-        <v>3</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -8088,10 +8088,10 @@
         <v>6</v>
       </c>
       <c r="D386" t="n">
-        <v>25.22917205499122</v>
+        <v>25.13638369321414</v>
       </c>
       <c r="E386" t="n">
-        <v>22180</v>
+        <v>22649</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -8105,10 +8105,10 @@
         <v>11</v>
       </c>
       <c r="D387" t="n">
-        <v>27.47746511391592</v>
+        <v>27.53581444785467</v>
       </c>
       <c r="E387" t="n">
-        <v>11636</v>
+        <v>11274</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -8122,10 +8122,10 @@
         <v>6</v>
       </c>
       <c r="D388" t="n">
-        <v>37.09142302722838</v>
+        <v>37.39027367359781</v>
       </c>
       <c r="E388" t="n">
-        <v>304</v>
+        <v>224</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -8139,10 +8139,10 @@
         <v>6</v>
       </c>
       <c r="D389" t="n">
-        <v>34.11168767865853</v>
+        <v>34.26542318724234</v>
       </c>
       <c r="E389" t="n">
-        <v>1011</v>
+        <v>932</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -8156,10 +8156,10 @@
         <v>6</v>
       </c>
       <c r="D390" t="n">
-        <v>17.67591116822582</v>
+        <v>17.7293815942694</v>
       </c>
       <c r="E390" t="n">
-        <v>109606</v>
+        <v>108698</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -8173,10 +8173,10 @@
         <v>6</v>
       </c>
       <c r="D391" t="n">
-        <v>15.4059087880425</v>
+        <v>15.40191690611633</v>
       </c>
       <c r="E391" t="n">
-        <v>148136</v>
+        <v>148183</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -8190,10 +8190,10 @@
         <v>11</v>
       </c>
       <c r="D392" t="n">
-        <v>35.9753792527708</v>
+        <v>35.94788522924014</v>
       </c>
       <c r="E392" t="n">
-        <v>467</v>
+        <v>446</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -8207,10 +8207,10 @@
         <v>6</v>
       </c>
       <c r="D393" t="n">
-        <v>13.73845558368947</v>
+        <v>13.74791448017468</v>
       </c>
       <c r="E393" t="n">
-        <v>175059</v>
+        <v>174924</v>
       </c>
     </row>
   </sheetData>
@@ -8287,7 +8287,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0.8</v>
@@ -8296,16 +8296,16 @@
         <v>0.44</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="J2" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="K2" t="n">
-        <v>0.064</v>
+        <v>0.056</v>
       </c>
       <c r="L2" t="n">
-        <v>0.035</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8325,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0.2</v>
@@ -8372,16 +8372,16 @@
         <v>0.68</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="J4" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="K4" t="n">
-        <v>0.094</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>0.051</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -8401,7 +8401,7 @@
         <v>0.0263</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1053</v>
+        <v>0.1316</v>
       </c>
       <c r="G5" t="n">
         <v>0.2105</v>
@@ -8410,16 +8410,16 @@
         <v>0.2895</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5263</v>
+        <v>0.4474</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6052999999999999</v>
+        <v>0.5526</v>
       </c>
       <c r="K5" t="n">
+        <v>0.7368</v>
+      </c>
+      <c r="L5" t="n">
         <v>0.8421</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.9211</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -8439,7 +8439,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0526</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0.1053</v>
@@ -8486,16 +8486,16 @@
         <v>0.2982</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4912</v>
+        <v>0.4386</v>
       </c>
       <c r="J7" t="n">
-        <v>0.614</v>
+        <v>0.5789</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8246</v>
+        <v>0.7544</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8947000000000001</v>
+        <v>0.8421</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8515,7 +8515,7 @@
         <v>0.0513</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1861</v>
+        <v>0.2326</v>
       </c>
       <c r="G8" t="n">
         <v>0.3333</v>
@@ -8524,16 +8524,16 @@
         <v>0.3492</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4545</v>
+        <v>0.3864</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3333</v>
+        <v>0.3043</v>
       </c>
       <c r="K8" t="n">
-        <v>0.119</v>
+        <v>0.1041</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0674</v>
+        <v>0.0617</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0833</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0.138</v>
@@ -8600,16 +8600,16 @@
         <v>0.4146</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5233</v>
+        <v>0.4673</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4459</v>
+        <v>0.4204</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1688</v>
+        <v>0.1544</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0965</v>
+        <v>0.09080000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -9009,25 +9009,25 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G21" t="n">
         <v>0.4</v>
       </c>
-      <c r="G21" t="n">
-        <v>0.5</v>
-      </c>
       <c r="H21" t="n">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="I21" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="J21" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="K21" t="n">
-        <v>0.046</v>
+        <v>0.044</v>
       </c>
       <c r="L21" t="n">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -9047,25 +9047,25 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="I22" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="K22" t="n">
-        <v>0.062</v>
+        <v>0.06</v>
       </c>
       <c r="L22" t="n">
-        <v>0.035</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -9123,25 +9123,25 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07140000000000001</v>
+        <v>0.0357</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1786</v>
+        <v>0.1429</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3214</v>
+        <v>0.2857</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4286</v>
+        <v>0.3929</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4643</v>
+        <v>0.3929</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8214</v>
+        <v>0.7857</v>
       </c>
       <c r="L24" t="n">
-        <v>0.8929</v>
+        <v>0.8571</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -9161,25 +9161,25 @@
         <v>0.0263</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1316</v>
+        <v>0.1053</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2105</v>
+        <v>0.1842</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3684</v>
+        <v>0.3421</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5</v>
+        <v>0.4737</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5263</v>
+        <v>0.4737</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8158</v>
+        <v>0.7895</v>
       </c>
       <c r="L25" t="n">
-        <v>0.9211</v>
+        <v>0.8947000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -9237,25 +9237,25 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1212</v>
+        <v>0.0606</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2632</v>
+        <v>0.2106</v>
       </c>
       <c r="H27" t="n">
-        <v>0.3396</v>
+        <v>0.3019</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3077</v>
+        <v>0.2821</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2031</v>
+        <v>0.1719</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0871</v>
+        <v>0.0833</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0486</v>
+        <v>0.0467</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -9275,25 +9275,25 @@
         <v>0.0513</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2326</v>
+        <v>0.1861</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3333</v>
+        <v>0.2917</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4444</v>
+        <v>0.4127</v>
       </c>
       <c r="I28" t="n">
-        <v>0.4318</v>
+        <v>0.4091</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2899</v>
+        <v>0.2609</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1152</v>
+        <v>0.1115</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0674</v>
+        <v>0.0655</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -9325,7 +9325,7 @@
         <v>0.12</v>
       </c>
       <c r="J29" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="K29" t="n">
         <v>0.024</v>
@@ -9354,7 +9354,7 @@
         <v>0.4</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
         <v>0.36</v>
@@ -9392,7 +9392,7 @@
         <v>0.8</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H31" t="n">
         <v>0.52</v>
@@ -9401,7 +9401,7 @@
         <v>0.34</v>
       </c>
       <c r="J31" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="K31" t="n">
         <v>0.058</v>
@@ -9439,7 +9439,7 @@
         <v>0.5</v>
       </c>
       <c r="J32" t="n">
-        <v>0.5833</v>
+        <v>0.5</v>
       </c>
       <c r="K32" t="n">
         <v>1</v>
@@ -9468,7 +9468,7 @@
         <v>0.0606</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1212</v>
+        <v>0.1515</v>
       </c>
       <c r="H33" t="n">
         <v>0.2727</v>
@@ -9506,7 +9506,7 @@
         <v>0.08890000000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1333</v>
+        <v>0.1556</v>
       </c>
       <c r="H34" t="n">
         <v>0.2889</v>
@@ -9515,7 +9515,7 @@
         <v>0.3778</v>
       </c>
       <c r="J34" t="n">
-        <v>0.4889</v>
+        <v>0.4667</v>
       </c>
       <c r="K34" t="n">
         <v>0.6444</v>
@@ -9553,7 +9553,7 @@
         <v>0.1935</v>
       </c>
       <c r="J35" t="n">
-        <v>0.125</v>
+        <v>0.1071</v>
       </c>
       <c r="K35" t="n">
         <v>0.0469</v>
@@ -9582,7 +9582,7 @@
         <v>0.1053</v>
       </c>
       <c r="G36" t="n">
-        <v>0.186</v>
+        <v>0.2325</v>
       </c>
       <c r="H36" t="n">
         <v>0.3103</v>
@@ -9620,7 +9620,7 @@
         <v>0.16</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2181</v>
+        <v>0.2546</v>
       </c>
       <c r="H37" t="n">
         <v>0.3714</v>
@@ -9629,7 +9629,7 @@
         <v>0.3579</v>
       </c>
       <c r="J37" t="n">
-        <v>0.3035</v>
+        <v>0.2897</v>
       </c>
       <c r="K37" t="n">
         <v>0.1064</v>
@@ -9655,25 +9655,25 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="I38" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="J38" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="K38" t="n">
-        <v>0.018</v>
+        <v>0.01</v>
       </c>
       <c r="L38" t="n">
-        <v>0.01</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -9699,19 +9699,19 @@
         <v>0.3</v>
       </c>
       <c r="H39" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I39" t="n">
         <v>0.12</v>
       </c>
-      <c r="I39" t="n">
-        <v>0.16</v>
-      </c>
       <c r="J39" t="n">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K39" t="n">
-        <v>0.028</v>
+        <v>0.016</v>
       </c>
       <c r="L39" t="n">
-        <v>0.015</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -9731,25 +9731,25 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H40" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="I40" t="n">
-        <v>0.28</v>
+        <v>0.18</v>
       </c>
       <c r="J40" t="n">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="K40" t="n">
-        <v>0.046</v>
+        <v>0.026</v>
       </c>
       <c r="L40" t="n">
-        <v>0.025</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -9769,25 +9769,25 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>0.1</v>
       </c>
-      <c r="G41" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>0.3</v>
       </c>
-      <c r="I41" t="n">
-        <v>0.6</v>
-      </c>
       <c r="J41" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L41" t="n">
         <v>0.7</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -9813,19 +9813,19 @@
         <v>0.1579</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1579</v>
+        <v>0.2105</v>
       </c>
       <c r="I42" t="n">
+        <v>0.3158</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.3684</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.4211</v>
       </c>
-      <c r="J42" t="n">
-        <v>0.6316000000000001</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.7368</v>
-      </c>
       <c r="L42" t="n">
-        <v>0.7895</v>
+        <v>0.4211</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -9845,25 +9845,25 @@
         <v>0.0345</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1379</v>
+        <v>0.1034</v>
       </c>
       <c r="G43" t="n">
+        <v>0.1034</v>
+      </c>
+      <c r="H43" t="n">
         <v>0.1724</v>
       </c>
-      <c r="H43" t="n">
-        <v>0.2069</v>
-      </c>
       <c r="I43" t="n">
-        <v>0.4828</v>
+        <v>0.3103</v>
       </c>
       <c r="J43" t="n">
-        <v>0.6552</v>
+        <v>0.3793</v>
       </c>
       <c r="K43" t="n">
-        <v>0.7931</v>
+        <v>0.4483</v>
       </c>
       <c r="L43" t="n">
-        <v>0.8621</v>
+        <v>0.5172</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -9883,25 +9883,25 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1333</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1714</v>
+        <v>0.0571</v>
       </c>
       <c r="I44" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1273</v>
+        <v>0.0727</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0353</v>
+        <v>0.0196</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0198</v>
+        <v>0.0139</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -9927,19 +9927,19 @@
         <v>0.2069</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1364</v>
+        <v>0.1818</v>
       </c>
       <c r="I45" t="n">
-        <v>0.2319</v>
+        <v>0.1739</v>
       </c>
       <c r="J45" t="n">
-        <v>0.2017</v>
+        <v>0.1176</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0539</v>
+        <v>0.0308</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0294</v>
+        <v>0.0157</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -9959,25 +9959,25 @@
         <v>0.0667</v>
       </c>
       <c r="F46" t="n">
-        <v>0.2352</v>
+        <v>0.1764</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2564</v>
+        <v>0.1538</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2222</v>
+        <v>0.1852</v>
       </c>
       <c r="I46" t="n">
-        <v>0.3544</v>
+        <v>0.2278</v>
       </c>
       <c r="J46" t="n">
-        <v>0.2946</v>
+        <v>0.1705</v>
       </c>
       <c r="K46" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.0491</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0486</v>
+        <v>0.0292</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -10336,16 +10336,16 @@
         <v>387</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H56" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I56" t="n">
         <v>0.06</v>
@@ -10374,28 +10374,28 @@
         <v>387</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="G57" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H57" t="n">
-        <v>0.52</v>
+        <v>0.24</v>
       </c>
       <c r="I57" t="n">
-        <v>0.36</v>
+        <v>0.16</v>
       </c>
       <c r="J57" t="n">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="K57" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="L57" t="n">
-        <v>0.02</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -10415,25 +10415,25 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
         <v>0.8</v>
       </c>
       <c r="H58" t="n">
-        <v>0.6</v>
+        <v>0.36</v>
       </c>
       <c r="I58" t="n">
-        <v>0.42</v>
+        <v>0.22</v>
       </c>
       <c r="J58" t="n">
-        <v>0.23</v>
+        <v>0.11</v>
       </c>
       <c r="K58" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="L58" t="n">
-        <v>0.025</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -10450,16 +10450,16 @@
         <v>387</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G59" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I59" t="n">
         <v>0.6</v>
@@ -10488,28 +10488,28 @@
         <v>387</v>
       </c>
       <c r="E60" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="G60" t="n">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="H60" t="n">
-        <v>0.65</v>
+        <v>0.3</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -10529,25 +10529,25 @@
         <v>0.04</v>
       </c>
       <c r="F61" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="G61" t="n">
         <v>0.32</v>
       </c>
       <c r="H61" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K61" t="n">
         <v>0.6</v>
       </c>
-      <c r="I61" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="K61" t="n">
-        <v>1</v>
-      </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -10564,16 +10564,16 @@
         <v>387</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1333</v>
+        <v>0.4</v>
       </c>
       <c r="H62" t="n">
-        <v>0.1333</v>
+        <v>0.2</v>
       </c>
       <c r="I62" t="n">
         <v>0.1091</v>
@@ -10602,28 +10602,28 @@
         <v>387</v>
       </c>
       <c r="E63" t="n">
-        <v>0.09520000000000001</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
       <c r="G63" t="n">
-        <v>0.4667</v>
+        <v>0.3333</v>
       </c>
       <c r="H63" t="n">
-        <v>0.5778</v>
+        <v>0.2667</v>
       </c>
       <c r="I63" t="n">
-        <v>0.5143</v>
+        <v>0.2286</v>
       </c>
       <c r="J63" t="n">
-        <v>0.3333</v>
+        <v>0.1333</v>
       </c>
       <c r="K63" t="n">
-        <v>0.0769</v>
+        <v>0.0385</v>
       </c>
       <c r="L63" t="n">
-        <v>0.0392</v>
+        <v>0.0216</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -10643,25 +10643,25 @@
         <v>0.0769</v>
       </c>
       <c r="F64" t="n">
-        <v>0.2667</v>
+        <v>0.3333</v>
       </c>
       <c r="G64" t="n">
         <v>0.4571</v>
       </c>
       <c r="H64" t="n">
-        <v>0.6</v>
+        <v>0.36</v>
       </c>
       <c r="I64" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.2933</v>
       </c>
       <c r="J64" t="n">
-        <v>0.368</v>
+        <v>0.176</v>
       </c>
       <c r="K64" t="n">
-        <v>0.09520000000000001</v>
+        <v>0.0571</v>
       </c>
       <c r="L64" t="n">
-        <v>0.0488</v>
+        <v>0.0312</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -10678,28 +10678,28 @@
         <v>387</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I65" t="n">
         <v>0.04</v>
       </c>
-      <c r="I65" t="n">
-        <v>0.06</v>
-      </c>
       <c r="J65" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="K65" t="n">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="L65" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -10716,28 +10716,28 @@
         <v>387</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="G66" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="H66" t="n">
-        <v>0.44</v>
+        <v>0.08</v>
       </c>
       <c r="I66" t="n">
-        <v>0.3</v>
+        <v>0.06</v>
       </c>
       <c r="J66" t="n">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
       <c r="K66" t="n">
-        <v>0.042</v>
+        <v>0.018</v>
       </c>
       <c r="L66" t="n">
-        <v>0.024</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -10757,25 +10757,25 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G67" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="H67" t="n">
-        <v>0.48</v>
+        <v>0.16</v>
       </c>
       <c r="I67" t="n">
-        <v>0.36</v>
+        <v>0.1</v>
       </c>
       <c r="J67" t="n">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="K67" t="n">
-        <v>0.052</v>
+        <v>0.026</v>
       </c>
       <c r="L67" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -10792,28 +10792,28 @@
         <v>387</v>
       </c>
       <c r="E68" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="I68" t="n">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="J68" t="n">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="K68" t="n">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="L68" t="n">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -10830,28 +10830,28 @@
         <v>387</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>0.0238</v>
       </c>
       <c r="F69" t="n">
+        <v>0.0238</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.0238</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.0476</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.07140000000000001</v>
+      </c>
+      <c r="J69" t="n">
         <v>0.09520000000000001</v>
       </c>
-      <c r="G69" t="n">
-        <v>0.1667</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.2619</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.3571</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.4048</v>
-      </c>
       <c r="K69" t="n">
-        <v>0.5</v>
+        <v>0.2143</v>
       </c>
       <c r="L69" t="n">
-        <v>0.5714</v>
+        <v>0.3095</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -10871,25 +10871,25 @@
         <v>0.02</v>
       </c>
       <c r="F70" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I70" t="n">
         <v>0.1</v>
       </c>
-      <c r="G70" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.36</v>
-      </c>
       <c r="J70" t="n">
-        <v>0.4</v>
+        <v>0.12</v>
       </c>
       <c r="K70" t="n">
-        <v>0.52</v>
+        <v>0.26</v>
       </c>
       <c r="L70" t="n">
-        <v>0.58</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -10906,28 +10906,28 @@
         <v>387</v>
       </c>
       <c r="E71" t="n">
-        <v>0.2222</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1538</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1111</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0606</v>
+        <v>0.1212</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1034</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="J71" t="n">
-        <v>0.0556</v>
+        <v>0.037</v>
       </c>
       <c r="K71" t="n">
-        <v>0.0197</v>
+        <v>0.0157</v>
       </c>
       <c r="L71" t="n">
-        <v>0.009900000000000001</v>
+        <v>0.007900000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -10944,28 +10944,28 @@
         <v>387</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>0.0465</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1702</v>
+        <v>0.0425</v>
       </c>
       <c r="G72" t="n">
-        <v>0.2693</v>
+        <v>0.0384</v>
       </c>
       <c r="H72" t="n">
-        <v>0.3284</v>
+        <v>0.0597</v>
       </c>
       <c r="I72" t="n">
-        <v>0.3261</v>
+        <v>0.06519999999999999</v>
       </c>
       <c r="J72" t="n">
-        <v>0.2394</v>
+        <v>0.0563</v>
       </c>
       <c r="K72" t="n">
-        <v>0.0775</v>
+        <v>0.0332</v>
       </c>
       <c r="L72" t="n">
-        <v>0.0461</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -10985,25 +10985,25 @@
         <v>0.0392</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1818</v>
+        <v>0.0364</v>
       </c>
       <c r="G73" t="n">
-        <v>0.2667</v>
+        <v>0.0333</v>
       </c>
       <c r="H73" t="n">
-        <v>0.32</v>
+        <v>0.1067</v>
       </c>
       <c r="I73" t="n">
-        <v>0.36</v>
+        <v>0.1</v>
       </c>
       <c r="J73" t="n">
-        <v>0.2667</v>
+        <v>0.08</v>
       </c>
       <c r="K73" t="n">
-        <v>0.0945</v>
+        <v>0.0473</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0552</v>
+        <v>0.0324</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -11026,7 +11026,7 @@
         <v>0.2</v>
       </c>
       <c r="G74" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H74" t="n">
         <v>0.12</v>
@@ -11102,7 +11102,7 @@
         <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H76" t="n">
         <v>0.4</v>
@@ -11140,7 +11140,7 @@
         <v>0.1429</v>
       </c>
       <c r="G77" t="n">
-        <v>0.2857</v>
+        <v>0.4286</v>
       </c>
       <c r="H77" t="n">
         <v>0.4286</v>
@@ -11216,7 +11216,7 @@
         <v>0.125</v>
       </c>
       <c r="G79" t="n">
-        <v>0.175</v>
+        <v>0.2</v>
       </c>
       <c r="H79" t="n">
         <v>0.25</v>
@@ -11254,7 +11254,7 @@
         <v>0.1667</v>
       </c>
       <c r="G80" t="n">
-        <v>0.2353</v>
+        <v>0.353</v>
       </c>
       <c r="H80" t="n">
         <v>0.1875</v>
@@ -11330,7 +11330,7 @@
         <v>0.2222</v>
       </c>
       <c r="G82" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="H82" t="n">
         <v>0.3077</v>
@@ -11409,7 +11409,7 @@
         <v>0.7</v>
       </c>
       <c r="H84" t="n">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="I84" t="n">
         <v>0.3</v>
@@ -11447,7 +11447,7 @@
         <v>0.9</v>
       </c>
       <c r="H85" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="I85" t="n">
         <v>0.34</v>
@@ -11523,7 +11523,7 @@
         <v>0.4375</v>
       </c>
       <c r="H87" t="n">
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
       <c r="I87" t="n">
         <v>0.9375</v>
@@ -11561,7 +11561,7 @@
         <v>0.5</v>
       </c>
       <c r="H88" t="n">
-        <v>0.7778</v>
+        <v>0.8333</v>
       </c>
       <c r="I88" t="n">
         <v>0.9444</v>
@@ -11637,7 +11637,7 @@
         <v>0.5385</v>
       </c>
       <c r="H90" t="n">
-        <v>0.5854</v>
+        <v>0.6341</v>
       </c>
       <c r="I90" t="n">
         <v>0.4545</v>
@@ -11675,7 +11675,7 @@
         <v>0.6429</v>
       </c>
       <c r="H91" t="n">
-        <v>0.6512</v>
+        <v>0.6977</v>
       </c>
       <c r="I91" t="n">
         <v>0.5</v>
@@ -11764,25 +11764,25 @@
         <v>0.02631578947368421</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09342105263157895</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1843253968253968</v>
+        <v>0.204312865497076</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2422600060757956</v>
+        <v>0.2407886136910904</v>
       </c>
       <c r="I2" t="n">
-        <v>0.344390579457899</v>
+        <v>0.3008231924370169</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3705807355633606</v>
+        <v>0.3302192411703528</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4086135882984158</v>
+        <v>0.3581442992111034</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4122736368604748</v>
+        <v>0.3627129408063164</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -11802,25 +11802,25 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01754385964912281</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02807017543859649</v>
+        <v>0.01804511278195489</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08157377538182491</v>
+        <v>0.0741598313966735</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1062174961206221</v>
+        <v>0.1013873985223731</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1345859744745369</v>
+        <v>0.129880774998706</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1440198584401094</v>
+        <v>0.1396694949644171</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1449100331368936</v>
+        <v>0.1405720729527965</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -11846,19 +11846,19 @@
         <v>0.1754385964912281</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2847296494355318</v>
+        <v>0.2675478692274358</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4079231936738274</v>
+        <v>0.3524690697106899</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4621117766025064</v>
+        <v>0.4087257227905837</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5089436211122449</v>
+        <v>0.4462579291308795</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5134111995521249</v>
+        <v>0.4517139992822671</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -11884,19 +11884,19 @@
         <v>0.1759047619047619</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2309047619047619</v>
+        <v>0.2289714285714286</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2675761036532425</v>
+        <v>0.2652079877112135</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3275919668389091</v>
+        <v>0.3250699065164611</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3588961853654146</v>
+        <v>0.3562565085555097</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3588961853654146</v>
+        <v>0.3562565085555097</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -11922,19 +11922,19 @@
         <v>0.00326797385620915</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01214497920380273</v>
+        <v>0.01184640522875817</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03120440330077377</v>
+        <v>0.03106309388278698</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05246520084227009</v>
+        <v>0.05172976911781226</v>
       </c>
       <c r="K6" t="n">
-        <v>0.08202516086438756</v>
+        <v>0.08081523087284805</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08321551896378247</v>
+        <v>0.0820239335319939</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -11960,19 +11960,19 @@
         <v>0.08753026634382567</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1372499816567613</v>
+        <v>0.1354963680387409</v>
       </c>
       <c r="I7" t="n">
-        <v>0.192105936602315</v>
+        <v>0.1903071326442972</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2637475511054744</v>
+        <v>0.2610090181286815</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3252083873405967</v>
+        <v>0.3218207651276553</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3266089075338113</v>
+        <v>0.323242868680012</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -11998,19 +11998,19 @@
         <v>0.275</v>
       </c>
       <c r="H8" t="n">
-        <v>0.332085020242915</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="I8" t="n">
-        <v>0.368215556373451</v>
+        <v>0.3722222222222222</v>
       </c>
       <c r="J8" t="n">
-        <v>0.368215556373451</v>
+        <v>0.3722222222222222</v>
       </c>
       <c r="K8" t="n">
-        <v>0.371971424918052</v>
+        <v>0.3757620452310718</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3750678229693258</v>
+        <v>0.3788039055049318</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -12030,25 +12030,25 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02619047619047619</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07331349206349207</v>
+        <v>0.05137471655328798</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1269637703566275</v>
+        <v>0.1057937797891502</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1533243145743146</v>
+        <v>0.1335955815008763</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1583708984252463</v>
+        <v>0.1335955815008763</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1919458781788018</v>
+        <v>0.1685223016627353</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1942012883631318</v>
+        <v>0.1707255719180218</v>
       